--- a/Project-Layout (3).xlsx
+++ b/Project-Layout (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocthu6778gmail.com/Desktop/Probject-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CF5299-6523-1F45-B3A0-C265AAC70588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D9B91-C978-2B4C-BAF1-7F22D478149C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1620" yWindow="1700" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="7280" windowWidth="20460" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout - Giao diện" sheetId="6" r:id="rId1"/>
@@ -2139,11 +2139,92 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2151,49 +2232,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2207,72 +2271,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2286,12 +2292,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2513,8 +2513,8 @@
   </sheetPr>
   <dimension ref="B1:W542"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="U139" sqref="U139"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E331" zoomScale="143" workbookViewId="0">
+      <selection activeCell="M369" sqref="M369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2527,54 +2527,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
@@ -2595,15 +2595,15 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="18"/>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2646,10 +2646,10 @@
     </row>
     <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="18"/>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="134"/>
+      <c r="I12" s="169"/>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2671,11 +2671,11 @@
     </row>
     <row r="17" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="38"/>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="32"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -2696,25 +2696,25 @@
     </row>
     <row r="18" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="39"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="45"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="149" t="s">
+      <c r="K18" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
       <c r="W18" s="43"/>
@@ -2723,27 +2723,27 @@
       <c r="C19" s="39"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="137" t="s">
+      <c r="F19" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="149"/>
-      <c r="L19" s="149"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="150" t="s">
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="151"/>
+      <c r="V19" s="143"/>
       <c r="W19" s="43"/>
     </row>
     <row r="20" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2797,11 +2797,11 @@
       <c r="D22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="153" t="s">
+      <c r="E22" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
       <c r="I22" s="18"/>
       <c r="J22" s="53" t="s">
         <v>42</v>
@@ -2826,11 +2826,11 @@
       <c r="D23" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="135" t="s">
+      <c r="E23" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
       <c r="I23" s="18"/>
       <c r="J23" s="51"/>
       <c r="K23" s="58" t="s">
@@ -2849,11 +2849,11 @@
       <c r="D24" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="135" t="s">
+      <c r="E24" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
       <c r="I24" s="18"/>
       <c r="J24" s="55" t="s">
         <v>42</v>
@@ -2871,11 +2871,11 @@
       <c r="D25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="135" t="s">
+      <c r="E25" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
       <c r="I25" s="18" t="s">
         <v>35</v>
       </c>
@@ -2895,11 +2895,11 @@
       <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="135" t="s">
+      <c r="E26" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
       <c r="I26" s="18"/>
       <c r="J26" s="51"/>
       <c r="K26" s="59" t="s">
@@ -3069,75 +3069,75 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C41" s="126" t="s">
+      <c r="C41" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="126"/>
-      <c r="U41" s="126"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
+      <c r="T41" s="128"/>
+      <c r="U41" s="128"/>
+      <c r="V41" s="128"/>
+      <c r="W41" s="128"/>
     </row>
     <row r="42" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="126"/>
-      <c r="Q42" s="126"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="126"/>
-      <c r="U42" s="126"/>
-      <c r="V42" s="126"/>
-      <c r="W42" s="126"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
+      <c r="W42" s="128"/>
     </row>
     <row r="43" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
-      <c r="O43" s="126"/>
-      <c r="P43" s="126"/>
-      <c r="Q43" s="126"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="126"/>
-      <c r="T43" s="126"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="126"/>
-      <c r="W43" s="126"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="128"/>
+      <c r="W43" s="128"/>
     </row>
     <row r="45" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="61" t="s">
@@ -3146,11 +3146,11 @@
     </row>
     <row r="47" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C47" s="38"/>
-      <c r="D47" s="126" t="s">
+      <c r="D47" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
       <c r="G47" s="32"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -3171,25 +3171,25 @@
     </row>
     <row r="48" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C48" s="39"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
       <c r="G48" s="45"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="149" t="s">
+      <c r="K48" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="149"/>
-      <c r="M48" s="149"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="149"/>
-      <c r="R48" s="149"/>
-      <c r="S48" s="149"/>
-      <c r="T48" s="149"/>
+      <c r="L48" s="134"/>
+      <c r="M48" s="134"/>
+      <c r="N48" s="134"/>
+      <c r="O48" s="134"/>
+      <c r="P48" s="134"/>
+      <c r="Q48" s="134"/>
+      <c r="R48" s="134"/>
+      <c r="S48" s="134"/>
+      <c r="T48" s="134"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="43"/>
@@ -3198,27 +3198,27 @@
       <c r="C49" s="39"/>
       <c r="D49" s="34"/>
       <c r="E49" s="35"/>
-      <c r="F49" s="137" t="s">
+      <c r="F49" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="149"/>
-      <c r="M49" s="149"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="149"/>
-      <c r="P49" s="149"/>
-      <c r="Q49" s="149"/>
-      <c r="R49" s="149"/>
-      <c r="S49" s="149"/>
-      <c r="T49" s="149"/>
-      <c r="U49" s="150" t="s">
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="134"/>
+      <c r="N49" s="134"/>
+      <c r="O49" s="134"/>
+      <c r="P49" s="134"/>
+      <c r="Q49" s="134"/>
+      <c r="R49" s="134"/>
+      <c r="S49" s="134"/>
+      <c r="T49" s="134"/>
+      <c r="U49" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V49" s="151"/>
+      <c r="V49" s="143"/>
       <c r="W49" s="43"/>
     </row>
     <row r="50" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3272,26 +3272,26 @@
       <c r="D52" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="135" t="s">
+      <c r="E52" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="152" t="s">
+      <c r="J52" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="K52" s="152"/>
-      <c r="L52" s="152"/>
-      <c r="M52" s="152"/>
-      <c r="N52" s="152"/>
-      <c r="O52" s="152"/>
-      <c r="P52" s="152"/>
-      <c r="Q52" s="152"/>
-      <c r="R52" s="152"/>
-      <c r="S52" s="152"/>
-      <c r="T52" s="152"/>
-      <c r="U52" s="152"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="153"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="153"/>
+      <c r="R52" s="153"/>
+      <c r="S52" s="153"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
     </row>
@@ -3300,11 +3300,11 @@
       <c r="D53" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="138" t="s">
+      <c r="E53" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
       <c r="I53" s="18"/>
       <c r="J53" s="51"/>
       <c r="K53" s="58"/>
@@ -3319,32 +3319,32 @@
       <c r="D54" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="135" t="s">
+      <c r="E54" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="127" t="s">
+      <c r="J54" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="128"/>
+      <c r="K54" s="161"/>
       <c r="L54" s="66"/>
-      <c r="M54" s="146" t="s">
+      <c r="M54" s="129" t="s">
         <v>60</v>
       </c>
       <c r="N54" s="147"/>
       <c r="O54" s="147"/>
       <c r="P54" s="147"/>
-      <c r="Q54" s="142" t="s">
+      <c r="Q54" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="143"/>
+      <c r="R54" s="163"/>
       <c r="S54" s="64"/>
       <c r="T54" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="155" t="s">
+      <c r="U54" s="130" t="s">
         <v>59</v>
       </c>
       <c r="V54" s="156"/>
@@ -3355,11 +3355,11 @@
       <c r="D55" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="135" t="s">
+      <c r="E55" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
       <c r="I55" s="18" t="s">
         <v>35</v>
       </c>
@@ -3375,36 +3375,36 @@
       <c r="D56" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="135" t="s">
+      <c r="E56" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
       <c r="I56" s="18"/>
       <c r="J56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="157" t="s">
+      <c r="K56" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="L56" s="157"/>
-      <c r="M56" s="158" t="s">
+      <c r="L56" s="154"/>
+      <c r="M56" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="N56" s="158"/>
-      <c r="O56" s="158"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
       <c r="P56" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="158" t="s">
+      <c r="Q56" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="158"/>
-      <c r="S56" s="158"/>
-      <c r="T56" s="158" t="s">
+      <c r="R56" s="138"/>
+      <c r="S56" s="138"/>
+      <c r="T56" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="U56" s="158"/>
+      <c r="U56" s="138"/>
       <c r="V56" s="20"/>
       <c r="W56" s="20"/>
     </row>
@@ -3414,11 +3414,11 @@
       <c r="J57" s="67">
         <v>1</v>
       </c>
-      <c r="K57" s="159" t="s">
+      <c r="K57" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="159"/>
-      <c r="M57" s="140" t="s">
+      <c r="L57" s="140"/>
+      <c r="M57" s="137" t="s">
         <v>67</v>
       </c>
       <c r="N57" s="141"/>
@@ -3426,11 +3426,11 @@
       <c r="P57" s="70">
         <v>1000</v>
       </c>
-      <c r="Q57" s="140" t="s">
+      <c r="Q57" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="140"/>
-      <c r="S57" s="140"/>
+      <c r="R57" s="137"/>
+      <c r="S57" s="137"/>
       <c r="T57" s="73" t="s">
         <v>27</v>
       </c>
@@ -3447,11 +3447,11 @@
       <c r="J58" s="67">
         <v>2</v>
       </c>
-      <c r="K58" s="159" t="s">
+      <c r="K58" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="159"/>
-      <c r="M58" s="140" t="s">
+      <c r="L58" s="140"/>
+      <c r="M58" s="137" t="s">
         <v>68</v>
       </c>
       <c r="N58" s="141"/>
@@ -3459,11 +3459,11 @@
       <c r="P58" s="70">
         <v>2000</v>
       </c>
-      <c r="Q58" s="140" t="s">
+      <c r="Q58" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="R58" s="140"/>
-      <c r="S58" s="140"/>
+      <c r="R58" s="137"/>
+      <c r="S58" s="137"/>
       <c r="T58" s="73" t="s">
         <v>27</v>
       </c>
@@ -3479,11 +3479,11 @@
       <c r="J59" s="67">
         <v>3</v>
       </c>
-      <c r="K59" s="159" t="s">
+      <c r="K59" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="L59" s="159"/>
-      <c r="M59" s="140" t="s">
+      <c r="L59" s="140"/>
+      <c r="M59" s="137" t="s">
         <v>69</v>
       </c>
       <c r="N59" s="141"/>
@@ -3491,11 +3491,11 @@
       <c r="P59" s="70">
         <v>1500</v>
       </c>
-      <c r="Q59" s="140" t="s">
+      <c r="Q59" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R59" s="140"/>
-      <c r="S59" s="140"/>
+      <c r="R59" s="137"/>
+      <c r="S59" s="137"/>
       <c r="T59" s="73" t="s">
         <v>27</v>
       </c>
@@ -3511,11 +3511,11 @@
       <c r="J60" s="67">
         <v>4</v>
       </c>
-      <c r="K60" s="159" t="s">
+      <c r="K60" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="L60" s="159"/>
-      <c r="M60" s="140" t="s">
+      <c r="L60" s="140"/>
+      <c r="M60" s="137" t="s">
         <v>70</v>
       </c>
       <c r="N60" s="141"/>
@@ -3523,11 +3523,11 @@
       <c r="P60" s="70">
         <v>1000</v>
       </c>
-      <c r="Q60" s="140" t="s">
+      <c r="Q60" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R60" s="140"/>
-      <c r="S60" s="140"/>
+      <c r="R60" s="137"/>
+      <c r="S60" s="137"/>
       <c r="T60" s="73" t="s">
         <v>27</v>
       </c>
@@ -3543,11 +3543,11 @@
       <c r="J61" s="67">
         <v>5</v>
       </c>
-      <c r="K61" s="159" t="s">
+      <c r="K61" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="L61" s="159"/>
-      <c r="M61" s="140" t="s">
+      <c r="L61" s="140"/>
+      <c r="M61" s="137" t="s">
         <v>71</v>
       </c>
       <c r="N61" s="141"/>
@@ -3555,11 +3555,11 @@
       <c r="P61" s="70">
         <v>1000</v>
       </c>
-      <c r="Q61" s="140" t="s">
+      <c r="Q61" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="140"/>
-      <c r="S61" s="140"/>
+      <c r="R61" s="137"/>
+      <c r="S61" s="137"/>
       <c r="T61" s="73" t="s">
         <v>27</v>
       </c>
@@ -3575,11 +3575,11 @@
       <c r="J62" s="67">
         <v>6</v>
       </c>
-      <c r="K62" s="159" t="s">
+      <c r="K62" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="159"/>
-      <c r="M62" s="140" t="s">
+      <c r="L62" s="140"/>
+      <c r="M62" s="137" t="s">
         <v>72</v>
       </c>
       <c r="N62" s="141"/>
@@ -3587,11 +3587,11 @@
       <c r="P62" s="70">
         <v>1000</v>
       </c>
-      <c r="Q62" s="140" t="s">
+      <c r="Q62" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R62" s="140"/>
-      <c r="S62" s="140"/>
+      <c r="R62" s="137"/>
+      <c r="S62" s="137"/>
       <c r="T62" s="73" t="s">
         <v>27</v>
       </c>
@@ -3607,11 +3607,11 @@
       <c r="J63" s="67">
         <v>7</v>
       </c>
-      <c r="K63" s="159" t="s">
+      <c r="K63" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="159"/>
-      <c r="M63" s="140" t="s">
+      <c r="L63" s="140"/>
+      <c r="M63" s="137" t="s">
         <v>73</v>
       </c>
       <c r="N63" s="141"/>
@@ -3619,11 +3619,11 @@
       <c r="P63" s="70">
         <v>1000</v>
       </c>
-      <c r="Q63" s="140" t="s">
+      <c r="Q63" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="140"/>
-      <c r="S63" s="140"/>
+      <c r="R63" s="137"/>
+      <c r="S63" s="137"/>
       <c r="T63" s="73" t="s">
         <v>27</v>
       </c>
@@ -3639,11 +3639,11 @@
       <c r="J64" s="67">
         <v>8</v>
       </c>
-      <c r="K64" s="159" t="s">
+      <c r="K64" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="L64" s="159"/>
-      <c r="M64" s="140" t="s">
+      <c r="L64" s="140"/>
+      <c r="M64" s="137" t="s">
         <v>74</v>
       </c>
       <c r="N64" s="141"/>
@@ -3651,11 +3651,11 @@
       <c r="P64" s="70">
         <v>1000</v>
       </c>
-      <c r="Q64" s="140" t="s">
+      <c r="Q64" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R64" s="140"/>
-      <c r="S64" s="140"/>
+      <c r="R64" s="137"/>
+      <c r="S64" s="137"/>
       <c r="T64" s="73" t="s">
         <v>27</v>
       </c>
@@ -3671,11 +3671,11 @@
       <c r="J65" s="67">
         <v>9</v>
       </c>
-      <c r="K65" s="159" t="s">
+      <c r="K65" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="159"/>
-      <c r="M65" s="140" t="s">
+      <c r="L65" s="140"/>
+      <c r="M65" s="137" t="s">
         <v>75</v>
       </c>
       <c r="N65" s="141"/>
@@ -3683,11 +3683,11 @@
       <c r="P65" s="70">
         <v>1000</v>
       </c>
-      <c r="Q65" s="140" t="s">
+      <c r="Q65" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R65" s="140"/>
-      <c r="S65" s="140"/>
+      <c r="R65" s="137"/>
+      <c r="S65" s="137"/>
       <c r="T65" s="73" t="s">
         <v>27</v>
       </c>
@@ -3703,11 +3703,11 @@
       <c r="J66" s="67">
         <v>10</v>
       </c>
-      <c r="K66" s="159" t="s">
+      <c r="K66" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="L66" s="159"/>
-      <c r="M66" s="140" t="s">
+      <c r="L66" s="140"/>
+      <c r="M66" s="137" t="s">
         <v>77</v>
       </c>
       <c r="N66" s="141"/>
@@ -3715,11 +3715,11 @@
       <c r="P66" s="70">
         <v>1000</v>
       </c>
-      <c r="Q66" s="140" t="s">
+      <c r="Q66" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="R66" s="140"/>
-      <c r="S66" s="140"/>
+      <c r="R66" s="137"/>
+      <c r="S66" s="137"/>
       <c r="T66" s="73" t="s">
         <v>27</v>
       </c>
@@ -3784,75 +3784,75 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C71" s="126" t="s">
+      <c r="C71" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="126"/>
-      <c r="O71" s="126"/>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="126"/>
-      <c r="R71" s="126"/>
-      <c r="S71" s="126"/>
-      <c r="T71" s="126"/>
-      <c r="U71" s="126"/>
-      <c r="V71" s="126"/>
-      <c r="W71" s="126"/>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="128"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="128"/>
+      <c r="K71" s="128"/>
+      <c r="L71" s="128"/>
+      <c r="M71" s="128"/>
+      <c r="N71" s="128"/>
+      <c r="O71" s="128"/>
+      <c r="P71" s="128"/>
+      <c r="Q71" s="128"/>
+      <c r="R71" s="128"/>
+      <c r="S71" s="128"/>
+      <c r="T71" s="128"/>
+      <c r="U71" s="128"/>
+      <c r="V71" s="128"/>
+      <c r="W71" s="128"/>
     </row>
     <row r="72" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="126"/>
-      <c r="T72" s="126"/>
-      <c r="U72" s="126"/>
-      <c r="V72" s="126"/>
-      <c r="W72" s="126"/>
+      <c r="C72" s="128"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="128"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="128"/>
+      <c r="J72" s="128"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="128"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="128"/>
+      <c r="O72" s="128"/>
+      <c r="P72" s="128"/>
+      <c r="Q72" s="128"/>
+      <c r="R72" s="128"/>
+      <c r="S72" s="128"/>
+      <c r="T72" s="128"/>
+      <c r="U72" s="128"/>
+      <c r="V72" s="128"/>
+      <c r="W72" s="128"/>
     </row>
     <row r="73" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C73" s="126"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="126"/>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="126"/>
-      <c r="N73" s="126"/>
-      <c r="O73" s="126"/>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="126"/>
-      <c r="R73" s="126"/>
-      <c r="S73" s="126"/>
-      <c r="T73" s="126"/>
-      <c r="U73" s="126"/>
-      <c r="V73" s="126"/>
-      <c r="W73" s="126"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="128"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
+      <c r="R73" s="128"/>
+      <c r="S73" s="128"/>
+      <c r="T73" s="128"/>
+      <c r="U73" s="128"/>
+      <c r="V73" s="128"/>
+      <c r="W73" s="128"/>
     </row>
     <row r="74" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="45"/>
@@ -3885,11 +3885,11 @@
     <row r="76" spans="3:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="38"/>
-      <c r="D77" s="126" t="s">
+      <c r="D77" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
+      <c r="E77" s="128"/>
+      <c r="F77" s="128"/>
       <c r="G77" s="32"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -3910,25 +3910,25 @@
     </row>
     <row r="78" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="39"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
+      <c r="D78" s="128"/>
+      <c r="E78" s="128"/>
+      <c r="F78" s="128"/>
       <c r="G78" s="45"/>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
-      <c r="K78" s="149" t="s">
+      <c r="K78" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="149"/>
-      <c r="M78" s="149"/>
-      <c r="N78" s="149"/>
-      <c r="O78" s="149"/>
-      <c r="P78" s="149"/>
-      <c r="Q78" s="149"/>
-      <c r="R78" s="149"/>
-      <c r="S78" s="149"/>
-      <c r="T78" s="149"/>
+      <c r="L78" s="134"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="134"/>
+      <c r="O78" s="134"/>
+      <c r="P78" s="134"/>
+      <c r="Q78" s="134"/>
+      <c r="R78" s="134"/>
+      <c r="S78" s="134"/>
+      <c r="T78" s="134"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
       <c r="W78" s="43"/>
@@ -3937,27 +3937,27 @@
       <c r="C79" s="39"/>
       <c r="D79" s="34"/>
       <c r="E79" s="35"/>
-      <c r="F79" s="137" t="s">
+      <c r="F79" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="137"/>
-      <c r="H79" s="137"/>
-      <c r="I79" s="137"/>
-      <c r="J79" s="137"/>
-      <c r="K79" s="149"/>
-      <c r="L79" s="149"/>
-      <c r="M79" s="149"/>
-      <c r="N79" s="149"/>
-      <c r="O79" s="149"/>
-      <c r="P79" s="149"/>
-      <c r="Q79" s="149"/>
-      <c r="R79" s="149"/>
-      <c r="S79" s="149"/>
-      <c r="T79" s="149"/>
-      <c r="U79" s="150" t="s">
+      <c r="G79" s="135"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="135"/>
+      <c r="K79" s="134"/>
+      <c r="L79" s="134"/>
+      <c r="M79" s="134"/>
+      <c r="N79" s="134"/>
+      <c r="O79" s="134"/>
+      <c r="P79" s="134"/>
+      <c r="Q79" s="134"/>
+      <c r="R79" s="134"/>
+      <c r="S79" s="134"/>
+      <c r="T79" s="134"/>
+      <c r="U79" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V79" s="151"/>
+      <c r="V79" s="143"/>
       <c r="W79" s="43"/>
     </row>
     <row r="80" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4011,26 +4011,26 @@
       <c r="D82" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="135" t="s">
+      <c r="E82" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="136"/>
-      <c r="G82" s="136"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="152" t="s">
+      <c r="J82" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="K82" s="152"/>
-      <c r="L82" s="152"/>
-      <c r="M82" s="152"/>
-      <c r="N82" s="152"/>
-      <c r="O82" s="152"/>
-      <c r="P82" s="152"/>
-      <c r="Q82" s="152"/>
-      <c r="R82" s="152"/>
-      <c r="S82" s="152"/>
-      <c r="T82" s="152"/>
-      <c r="U82" s="152"/>
+      <c r="K82" s="153"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="153"/>
+      <c r="N82" s="153"/>
+      <c r="O82" s="153"/>
+      <c r="P82" s="153"/>
+      <c r="Q82" s="153"/>
+      <c r="R82" s="153"/>
+      <c r="S82" s="153"/>
+      <c r="T82" s="153"/>
+      <c r="U82" s="153"/>
       <c r="V82" s="77"/>
       <c r="W82" s="20"/>
     </row>
@@ -4039,11 +4039,11 @@
       <c r="D83" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="138" t="s">
+      <c r="E83" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="139"/>
-      <c r="G83" s="139"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
       <c r="I83" s="18"/>
       <c r="J83" s="51"/>
       <c r="K83" s="58"/>
@@ -4058,11 +4058,11 @@
       <c r="D84" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="135" t="s">
+      <c r="E84" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="136"/>
-      <c r="G84" s="136"/>
+      <c r="F84" s="125"/>
+      <c r="G84" s="125"/>
       <c r="I84" s="18"/>
       <c r="K84" s="81"/>
       <c r="L84" s="80"/>
@@ -4084,11 +4084,11 @@
       <c r="D85" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="135" t="s">
+      <c r="E85" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="136"/>
-      <c r="G85" s="136"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
       <c r="I85" s="18" t="s">
         <v>35</v>
       </c>
@@ -4105,11 +4105,11 @@
       <c r="D86" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="135" t="s">
+      <c r="E86" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
       <c r="I86" s="18"/>
       <c r="K86" s="82"/>
       <c r="T86" s="78"/>
@@ -4123,7 +4123,7 @@
       <c r="L87" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N87" s="140" t="s">
+      <c r="N87" s="137" t="s">
         <v>90</v>
       </c>
       <c r="O87" s="141"/>
@@ -4150,7 +4150,7 @@
       <c r="L89" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N89" s="140" t="s">
+      <c r="N89" s="137" t="s">
         <v>91</v>
       </c>
       <c r="O89" s="141"/>
@@ -4177,7 +4177,7 @@
       <c r="L91" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N91" s="140" t="s">
+      <c r="N91" s="137" t="s">
         <v>89</v>
       </c>
       <c r="O91" s="141"/>
@@ -4298,75 +4298,75 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C101" s="126" t="s">
+      <c r="C101" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="126"/>
-      <c r="E101" s="126"/>
-      <c r="F101" s="126"/>
-      <c r="G101" s="126"/>
-      <c r="H101" s="126"/>
-      <c r="I101" s="126"/>
-      <c r="J101" s="126"/>
-      <c r="K101" s="126"/>
-      <c r="L101" s="126"/>
-      <c r="M101" s="126"/>
-      <c r="N101" s="126"/>
-      <c r="O101" s="126"/>
-      <c r="P101" s="126"/>
-      <c r="Q101" s="126"/>
-      <c r="R101" s="126"/>
-      <c r="S101" s="126"/>
-      <c r="T101" s="126"/>
-      <c r="U101" s="126"/>
-      <c r="V101" s="126"/>
-      <c r="W101" s="126"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="128"/>
+      <c r="F101" s="128"/>
+      <c r="G101" s="128"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="128"/>
+      <c r="J101" s="128"/>
+      <c r="K101" s="128"/>
+      <c r="L101" s="128"/>
+      <c r="M101" s="128"/>
+      <c r="N101" s="128"/>
+      <c r="O101" s="128"/>
+      <c r="P101" s="128"/>
+      <c r="Q101" s="128"/>
+      <c r="R101" s="128"/>
+      <c r="S101" s="128"/>
+      <c r="T101" s="128"/>
+      <c r="U101" s="128"/>
+      <c r="V101" s="128"/>
+      <c r="W101" s="128"/>
     </row>
     <row r="102" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C102" s="126"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
-      <c r="F102" s="126"/>
-      <c r="G102" s="126"/>
-      <c r="H102" s="126"/>
-      <c r="I102" s="126"/>
-      <c r="J102" s="126"/>
-      <c r="K102" s="126"/>
-      <c r="L102" s="126"/>
-      <c r="M102" s="126"/>
-      <c r="N102" s="126"/>
-      <c r="O102" s="126"/>
-      <c r="P102" s="126"/>
-      <c r="Q102" s="126"/>
-      <c r="R102" s="126"/>
-      <c r="S102" s="126"/>
-      <c r="T102" s="126"/>
-      <c r="U102" s="126"/>
-      <c r="V102" s="126"/>
-      <c r="W102" s="126"/>
+      <c r="C102" s="128"/>
+      <c r="D102" s="128"/>
+      <c r="E102" s="128"/>
+      <c r="F102" s="128"/>
+      <c r="G102" s="128"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="128"/>
+      <c r="J102" s="128"/>
+      <c r="K102" s="128"/>
+      <c r="L102" s="128"/>
+      <c r="M102" s="128"/>
+      <c r="N102" s="128"/>
+      <c r="O102" s="128"/>
+      <c r="P102" s="128"/>
+      <c r="Q102" s="128"/>
+      <c r="R102" s="128"/>
+      <c r="S102" s="128"/>
+      <c r="T102" s="128"/>
+      <c r="U102" s="128"/>
+      <c r="V102" s="128"/>
+      <c r="W102" s="128"/>
     </row>
     <row r="103" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C103" s="126"/>
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="126"/>
-      <c r="H103" s="126"/>
-      <c r="I103" s="126"/>
-      <c r="J103" s="126"/>
-      <c r="K103" s="126"/>
-      <c r="L103" s="126"/>
-      <c r="M103" s="126"/>
-      <c r="N103" s="126"/>
-      <c r="O103" s="126"/>
-      <c r="P103" s="126"/>
-      <c r="Q103" s="126"/>
-      <c r="R103" s="126"/>
-      <c r="S103" s="126"/>
-      <c r="T103" s="126"/>
-      <c r="U103" s="126"/>
-      <c r="V103" s="126"/>
-      <c r="W103" s="126"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="128"/>
+      <c r="E103" s="128"/>
+      <c r="F103" s="128"/>
+      <c r="G103" s="128"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="128"/>
+      <c r="J103" s="128"/>
+      <c r="K103" s="128"/>
+      <c r="L103" s="128"/>
+      <c r="M103" s="128"/>
+      <c r="N103" s="128"/>
+      <c r="O103" s="128"/>
+      <c r="P103" s="128"/>
+      <c r="Q103" s="128"/>
+      <c r="R103" s="128"/>
+      <c r="S103" s="128"/>
+      <c r="T103" s="128"/>
+      <c r="U103" s="128"/>
+      <c r="V103" s="128"/>
+      <c r="W103" s="128"/>
     </row>
     <row r="104" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C104" s="30"/>
@@ -4422,11 +4422,11 @@
     <row r="107" spans="3:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="38"/>
-      <c r="D108" s="126" t="s">
+      <c r="D108" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E108" s="126"/>
-      <c r="F108" s="126"/>
+      <c r="E108" s="128"/>
+      <c r="F108" s="128"/>
       <c r="G108" s="32"/>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
@@ -4447,25 +4447,25 @@
     </row>
     <row r="109" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C109" s="39"/>
-      <c r="D109" s="126"/>
-      <c r="E109" s="126"/>
-      <c r="F109" s="126"/>
+      <c r="D109" s="128"/>
+      <c r="E109" s="128"/>
+      <c r="F109" s="128"/>
       <c r="G109" s="45"/>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
-      <c r="K109" s="149" t="s">
+      <c r="K109" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L109" s="149"/>
-      <c r="M109" s="149"/>
-      <c r="N109" s="149"/>
-      <c r="O109" s="149"/>
-      <c r="P109" s="149"/>
-      <c r="Q109" s="149"/>
-      <c r="R109" s="149"/>
-      <c r="S109" s="149"/>
-      <c r="T109" s="149"/>
+      <c r="L109" s="134"/>
+      <c r="M109" s="134"/>
+      <c r="N109" s="134"/>
+      <c r="O109" s="134"/>
+      <c r="P109" s="134"/>
+      <c r="Q109" s="134"/>
+      <c r="R109" s="134"/>
+      <c r="S109" s="134"/>
+      <c r="T109" s="134"/>
       <c r="U109" s="33"/>
       <c r="V109" s="33"/>
       <c r="W109" s="43"/>
@@ -4474,27 +4474,27 @@
       <c r="C110" s="39"/>
       <c r="D110" s="34"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="137" t="s">
+      <c r="F110" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="137"/>
-      <c r="H110" s="137"/>
-      <c r="I110" s="137"/>
-      <c r="J110" s="137"/>
-      <c r="K110" s="149"/>
-      <c r="L110" s="149"/>
-      <c r="M110" s="149"/>
-      <c r="N110" s="149"/>
-      <c r="O110" s="149"/>
-      <c r="P110" s="149"/>
-      <c r="Q110" s="149"/>
-      <c r="R110" s="149"/>
-      <c r="S110" s="149"/>
-      <c r="T110" s="149"/>
-      <c r="U110" s="150" t="s">
+      <c r="G110" s="135"/>
+      <c r="H110" s="135"/>
+      <c r="I110" s="135"/>
+      <c r="J110" s="135"/>
+      <c r="K110" s="134"/>
+      <c r="L110" s="134"/>
+      <c r="M110" s="134"/>
+      <c r="N110" s="134"/>
+      <c r="O110" s="134"/>
+      <c r="P110" s="134"/>
+      <c r="Q110" s="134"/>
+      <c r="R110" s="134"/>
+      <c r="S110" s="134"/>
+      <c r="T110" s="134"/>
+      <c r="U110" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V110" s="151"/>
+      <c r="V110" s="143"/>
       <c r="W110" s="43"/>
     </row>
     <row r="111" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4548,26 +4548,26 @@
       <c r="D113" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E113" s="135" t="s">
+      <c r="E113" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="136"/>
-      <c r="G113" s="136"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="125"/>
       <c r="I113" s="18"/>
-      <c r="J113" s="152" t="s">
+      <c r="J113" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="K113" s="152"/>
-      <c r="L113" s="152"/>
-      <c r="M113" s="152"/>
-      <c r="N113" s="152"/>
-      <c r="O113" s="152"/>
-      <c r="P113" s="152"/>
-      <c r="Q113" s="152"/>
-      <c r="R113" s="152"/>
-      <c r="S113" s="152"/>
-      <c r="T113" s="152"/>
-      <c r="U113" s="152"/>
+      <c r="K113" s="153"/>
+      <c r="L113" s="153"/>
+      <c r="M113" s="153"/>
+      <c r="N113" s="153"/>
+      <c r="O113" s="153"/>
+      <c r="P113" s="153"/>
+      <c r="Q113" s="153"/>
+      <c r="R113" s="153"/>
+      <c r="S113" s="153"/>
+      <c r="T113" s="153"/>
+      <c r="U113" s="153"/>
       <c r="V113" s="77"/>
       <c r="W113" s="20"/>
     </row>
@@ -4576,11 +4576,11 @@
       <c r="D114" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E114" s="138" t="s">
+      <c r="E114" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="139"/>
-      <c r="G114" s="139"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
       <c r="I114" s="18"/>
       <c r="J114" s="51"/>
       <c r="K114" s="58"/>
@@ -4595,11 +4595,11 @@
       <c r="D115" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="135" t="s">
+      <c r="E115" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="136"/>
-      <c r="G115" s="136"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
       <c r="I115" s="18"/>
       <c r="K115" s="81"/>
       <c r="L115" s="80"/>
@@ -4621,11 +4621,11 @@
       <c r="D116" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="135" t="s">
+      <c r="E116" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="136"/>
-      <c r="G116" s="136"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="125"/>
       <c r="I116" s="18" t="s">
         <v>35</v>
       </c>
@@ -4642,11 +4642,11 @@
       <c r="D117" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="135" t="s">
+      <c r="E117" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="136"/>
-      <c r="G117" s="136"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="125"/>
       <c r="I117" s="18"/>
       <c r="K117" s="82"/>
       <c r="T117" s="78"/>
@@ -4660,7 +4660,7 @@
       <c r="L118" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N118" s="140" t="s">
+      <c r="N118" s="137" t="s">
         <v>94</v>
       </c>
       <c r="O118" s="141"/>
@@ -4687,7 +4687,7 @@
       <c r="L120" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N120" s="140" t="s">
+      <c r="N120" s="137" t="s">
         <v>67</v>
       </c>
       <c r="O120" s="141"/>
@@ -4714,7 +4714,7 @@
       <c r="L122" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N122" s="140">
+      <c r="N122" s="137">
         <v>1000</v>
       </c>
       <c r="O122" s="141"/>
@@ -4835,75 +4835,75 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C132" s="126" t="s">
+      <c r="C132" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D132" s="126"/>
-      <c r="E132" s="126"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="126"/>
-      <c r="H132" s="126"/>
-      <c r="I132" s="126"/>
-      <c r="J132" s="126"/>
-      <c r="K132" s="126"/>
-      <c r="L132" s="126"/>
-      <c r="M132" s="126"/>
-      <c r="N132" s="126"/>
-      <c r="O132" s="126"/>
-      <c r="P132" s="126"/>
-      <c r="Q132" s="126"/>
-      <c r="R132" s="126"/>
-      <c r="S132" s="126"/>
-      <c r="T132" s="126"/>
-      <c r="U132" s="126"/>
-      <c r="V132" s="126"/>
-      <c r="W132" s="126"/>
+      <c r="D132" s="128"/>
+      <c r="E132" s="128"/>
+      <c r="F132" s="128"/>
+      <c r="G132" s="128"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="128"/>
+      <c r="J132" s="128"/>
+      <c r="K132" s="128"/>
+      <c r="L132" s="128"/>
+      <c r="M132" s="128"/>
+      <c r="N132" s="128"/>
+      <c r="O132" s="128"/>
+      <c r="P132" s="128"/>
+      <c r="Q132" s="128"/>
+      <c r="R132" s="128"/>
+      <c r="S132" s="128"/>
+      <c r="T132" s="128"/>
+      <c r="U132" s="128"/>
+      <c r="V132" s="128"/>
+      <c r="W132" s="128"/>
     </row>
     <row r="133" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C133" s="126"/>
-      <c r="D133" s="126"/>
-      <c r="E133" s="126"/>
-      <c r="F133" s="126"/>
-      <c r="G133" s="126"/>
-      <c r="H133" s="126"/>
-      <c r="I133" s="126"/>
-      <c r="J133" s="126"/>
-      <c r="K133" s="126"/>
-      <c r="L133" s="126"/>
-      <c r="M133" s="126"/>
-      <c r="N133" s="126"/>
-      <c r="O133" s="126"/>
-      <c r="P133" s="126"/>
-      <c r="Q133" s="126"/>
-      <c r="R133" s="126"/>
-      <c r="S133" s="126"/>
-      <c r="T133" s="126"/>
-      <c r="U133" s="126"/>
-      <c r="V133" s="126"/>
-      <c r="W133" s="126"/>
+      <c r="C133" s="128"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="128"/>
+      <c r="F133" s="128"/>
+      <c r="G133" s="128"/>
+      <c r="H133" s="128"/>
+      <c r="I133" s="128"/>
+      <c r="J133" s="128"/>
+      <c r="K133" s="128"/>
+      <c r="L133" s="128"/>
+      <c r="M133" s="128"/>
+      <c r="N133" s="128"/>
+      <c r="O133" s="128"/>
+      <c r="P133" s="128"/>
+      <c r="Q133" s="128"/>
+      <c r="R133" s="128"/>
+      <c r="S133" s="128"/>
+      <c r="T133" s="128"/>
+      <c r="U133" s="128"/>
+      <c r="V133" s="128"/>
+      <c r="W133" s="128"/>
     </row>
     <row r="134" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="126"/>
-      <c r="D134" s="126"/>
-      <c r="E134" s="126"/>
-      <c r="F134" s="126"/>
-      <c r="G134" s="126"/>
-      <c r="H134" s="126"/>
-      <c r="I134" s="126"/>
-      <c r="J134" s="126"/>
-      <c r="K134" s="126"/>
-      <c r="L134" s="126"/>
-      <c r="M134" s="126"/>
-      <c r="N134" s="126"/>
-      <c r="O134" s="126"/>
-      <c r="P134" s="126"/>
-      <c r="Q134" s="126"/>
-      <c r="R134" s="126"/>
-      <c r="S134" s="126"/>
-      <c r="T134" s="126"/>
-      <c r="U134" s="126"/>
-      <c r="V134" s="126"/>
-      <c r="W134" s="126"/>
+      <c r="C134" s="128"/>
+      <c r="D134" s="128"/>
+      <c r="E134" s="128"/>
+      <c r="F134" s="128"/>
+      <c r="G134" s="128"/>
+      <c r="H134" s="128"/>
+      <c r="I134" s="128"/>
+      <c r="J134" s="128"/>
+      <c r="K134" s="128"/>
+      <c r="L134" s="128"/>
+      <c r="M134" s="128"/>
+      <c r="N134" s="128"/>
+      <c r="O134" s="128"/>
+      <c r="P134" s="128"/>
+      <c r="Q134" s="128"/>
+      <c r="R134" s="128"/>
+      <c r="S134" s="128"/>
+      <c r="T134" s="128"/>
+      <c r="U134" s="128"/>
+      <c r="V134" s="128"/>
+      <c r="W134" s="128"/>
     </row>
     <row r="135" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="45"/>
@@ -4935,11 +4935,11 @@
     </row>
     <row r="138" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="38"/>
-      <c r="D138" s="126" t="s">
+      <c r="D138" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="126"/>
-      <c r="F138" s="126"/>
+      <c r="E138" s="128"/>
+      <c r="F138" s="128"/>
       <c r="G138" s="32"/>
       <c r="H138" s="37"/>
       <c r="I138" s="37"/>
@@ -4960,25 +4960,25 @@
     </row>
     <row r="139" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="39"/>
-      <c r="D139" s="126"/>
-      <c r="E139" s="126"/>
-      <c r="F139" s="126"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="128"/>
       <c r="G139" s="45"/>
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
-      <c r="K139" s="149" t="s">
+      <c r="K139" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L139" s="149"/>
-      <c r="M139" s="149"/>
-      <c r="N139" s="149"/>
-      <c r="O139" s="149"/>
-      <c r="P139" s="149"/>
-      <c r="Q139" s="149"/>
-      <c r="R139" s="149"/>
-      <c r="S139" s="149"/>
-      <c r="T139" s="149"/>
+      <c r="L139" s="134"/>
+      <c r="M139" s="134"/>
+      <c r="N139" s="134"/>
+      <c r="O139" s="134"/>
+      <c r="P139" s="134"/>
+      <c r="Q139" s="134"/>
+      <c r="R139" s="134"/>
+      <c r="S139" s="134"/>
+      <c r="T139" s="134"/>
       <c r="U139" s="33"/>
       <c r="V139" s="33"/>
       <c r="W139" s="43"/>
@@ -4987,27 +4987,27 @@
       <c r="C140" s="39"/>
       <c r="D140" s="34"/>
       <c r="E140" s="35"/>
-      <c r="F140" s="137" t="s">
+      <c r="F140" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="137"/>
-      <c r="H140" s="137"/>
-      <c r="I140" s="137"/>
-      <c r="J140" s="137"/>
-      <c r="K140" s="149"/>
-      <c r="L140" s="149"/>
-      <c r="M140" s="149"/>
-      <c r="N140" s="149"/>
-      <c r="O140" s="149"/>
-      <c r="P140" s="149"/>
-      <c r="Q140" s="149"/>
-      <c r="R140" s="149"/>
-      <c r="S140" s="149"/>
-      <c r="T140" s="149"/>
-      <c r="U140" s="150" t="s">
+      <c r="G140" s="135"/>
+      <c r="H140" s="135"/>
+      <c r="I140" s="135"/>
+      <c r="J140" s="135"/>
+      <c r="K140" s="134"/>
+      <c r="L140" s="134"/>
+      <c r="M140" s="134"/>
+      <c r="N140" s="134"/>
+      <c r="O140" s="134"/>
+      <c r="P140" s="134"/>
+      <c r="Q140" s="134"/>
+      <c r="R140" s="134"/>
+      <c r="S140" s="134"/>
+      <c r="T140" s="134"/>
+      <c r="U140" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V140" s="151"/>
+      <c r="V140" s="143"/>
       <c r="W140" s="43"/>
     </row>
     <row r="141" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5061,26 +5061,26 @@
       <c r="D143" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="135" t="s">
+      <c r="E143" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="136"/>
-      <c r="G143" s="136"/>
+      <c r="F143" s="125"/>
+      <c r="G143" s="125"/>
       <c r="I143" s="18"/>
-      <c r="J143" s="152" t="s">
+      <c r="J143" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="K143" s="152"/>
-      <c r="L143" s="152"/>
-      <c r="M143" s="152"/>
-      <c r="N143" s="152"/>
-      <c r="O143" s="152"/>
-      <c r="P143" s="152"/>
-      <c r="Q143" s="152"/>
-      <c r="R143" s="152"/>
-      <c r="S143" s="152"/>
-      <c r="T143" s="152"/>
-      <c r="U143" s="152"/>
+      <c r="K143" s="153"/>
+      <c r="L143" s="153"/>
+      <c r="M143" s="153"/>
+      <c r="N143" s="153"/>
+      <c r="O143" s="153"/>
+      <c r="P143" s="153"/>
+      <c r="Q143" s="153"/>
+      <c r="R143" s="153"/>
+      <c r="S143" s="153"/>
+      <c r="T143" s="153"/>
+      <c r="U143" s="153"/>
       <c r="V143" s="77"/>
       <c r="W143" s="20"/>
     </row>
@@ -5089,11 +5089,11 @@
       <c r="D144" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E144" s="138" t="s">
+      <c r="E144" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="F144" s="139"/>
-      <c r="G144" s="139"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
       <c r="I144" s="18"/>
       <c r="J144" s="51"/>
       <c r="K144" s="58"/>
@@ -5108,11 +5108,11 @@
       <c r="D145" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="135" t="s">
+      <c r="E145" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F145" s="136"/>
-      <c r="G145" s="136"/>
+      <c r="F145" s="125"/>
+      <c r="G145" s="125"/>
       <c r="I145" s="18"/>
       <c r="V145" s="78"/>
       <c r="W145" s="20"/>
@@ -5122,11 +5122,11 @@
       <c r="D146" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E146" s="135" t="s">
+      <c r="E146" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F146" s="136"/>
-      <c r="G146" s="136"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
       <c r="I146" s="18" t="s">
         <v>35</v>
       </c>
@@ -5148,11 +5148,11 @@
       <c r="D147" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="135" t="s">
+      <c r="E147" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F147" s="136"/>
-      <c r="G147" s="136"/>
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
       <c r="I147" s="18"/>
       <c r="L147" s="82"/>
       <c r="M147" s="88" t="s">
@@ -5297,75 +5297,75 @@
       <c r="W161" s="20"/>
     </row>
     <row r="162" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="126" t="s">
+      <c r="C162" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="126"/>
-      <c r="E162" s="126"/>
-      <c r="F162" s="126"/>
-      <c r="G162" s="126"/>
-      <c r="H162" s="126"/>
-      <c r="I162" s="126"/>
-      <c r="J162" s="126"/>
-      <c r="K162" s="126"/>
-      <c r="L162" s="126"/>
-      <c r="M162" s="126"/>
-      <c r="N162" s="126"/>
-      <c r="O162" s="126"/>
-      <c r="P162" s="126"/>
-      <c r="Q162" s="126"/>
-      <c r="R162" s="126"/>
-      <c r="S162" s="126"/>
-      <c r="T162" s="126"/>
-      <c r="U162" s="126"/>
-      <c r="V162" s="126"/>
-      <c r="W162" s="126"/>
+      <c r="D162" s="128"/>
+      <c r="E162" s="128"/>
+      <c r="F162" s="128"/>
+      <c r="G162" s="128"/>
+      <c r="H162" s="128"/>
+      <c r="I162" s="128"/>
+      <c r="J162" s="128"/>
+      <c r="K162" s="128"/>
+      <c r="L162" s="128"/>
+      <c r="M162" s="128"/>
+      <c r="N162" s="128"/>
+      <c r="O162" s="128"/>
+      <c r="P162" s="128"/>
+      <c r="Q162" s="128"/>
+      <c r="R162" s="128"/>
+      <c r="S162" s="128"/>
+      <c r="T162" s="128"/>
+      <c r="U162" s="128"/>
+      <c r="V162" s="128"/>
+      <c r="W162" s="128"/>
     </row>
     <row r="163" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C163" s="126"/>
-      <c r="D163" s="126"/>
-      <c r="E163" s="126"/>
-      <c r="F163" s="126"/>
-      <c r="G163" s="126"/>
-      <c r="H163" s="126"/>
-      <c r="I163" s="126"/>
-      <c r="J163" s="126"/>
-      <c r="K163" s="126"/>
-      <c r="L163" s="126"/>
-      <c r="M163" s="126"/>
-      <c r="N163" s="126"/>
-      <c r="O163" s="126"/>
-      <c r="P163" s="126"/>
-      <c r="Q163" s="126"/>
-      <c r="R163" s="126"/>
-      <c r="S163" s="126"/>
-      <c r="T163" s="126"/>
-      <c r="U163" s="126"/>
-      <c r="V163" s="126"/>
-      <c r="W163" s="126"/>
+      <c r="C163" s="128"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="128"/>
+      <c r="F163" s="128"/>
+      <c r="G163" s="128"/>
+      <c r="H163" s="128"/>
+      <c r="I163" s="128"/>
+      <c r="J163" s="128"/>
+      <c r="K163" s="128"/>
+      <c r="L163" s="128"/>
+      <c r="M163" s="128"/>
+      <c r="N163" s="128"/>
+      <c r="O163" s="128"/>
+      <c r="P163" s="128"/>
+      <c r="Q163" s="128"/>
+      <c r="R163" s="128"/>
+      <c r="S163" s="128"/>
+      <c r="T163" s="128"/>
+      <c r="U163" s="128"/>
+      <c r="V163" s="128"/>
+      <c r="W163" s="128"/>
     </row>
     <row r="164" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C164" s="126"/>
-      <c r="D164" s="126"/>
-      <c r="E164" s="126"/>
-      <c r="F164" s="126"/>
-      <c r="G164" s="126"/>
-      <c r="H164" s="126"/>
-      <c r="I164" s="126"/>
-      <c r="J164" s="126"/>
-      <c r="K164" s="126"/>
-      <c r="L164" s="126"/>
-      <c r="M164" s="126"/>
-      <c r="N164" s="126"/>
-      <c r="O164" s="126"/>
-      <c r="P164" s="126"/>
-      <c r="Q164" s="126"/>
-      <c r="R164" s="126"/>
-      <c r="S164" s="126"/>
-      <c r="T164" s="126"/>
-      <c r="U164" s="126"/>
-      <c r="V164" s="126"/>
-      <c r="W164" s="126"/>
+      <c r="C164" s="128"/>
+      <c r="D164" s="128"/>
+      <c r="E164" s="128"/>
+      <c r="F164" s="128"/>
+      <c r="G164" s="128"/>
+      <c r="H164" s="128"/>
+      <c r="I164" s="128"/>
+      <c r="J164" s="128"/>
+      <c r="K164" s="128"/>
+      <c r="L164" s="128"/>
+      <c r="M164" s="128"/>
+      <c r="N164" s="128"/>
+      <c r="O164" s="128"/>
+      <c r="P164" s="128"/>
+      <c r="Q164" s="128"/>
+      <c r="R164" s="128"/>
+      <c r="S164" s="128"/>
+      <c r="T164" s="128"/>
+      <c r="U164" s="128"/>
+      <c r="V164" s="128"/>
+      <c r="W164" s="128"/>
     </row>
     <row r="165" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C165" s="31"/>
@@ -5400,11 +5400,11 @@
     <row r="169" spans="2:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="170" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C170" s="38"/>
-      <c r="D170" s="126" t="s">
+      <c r="D170" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E170" s="126"/>
-      <c r="F170" s="126"/>
+      <c r="E170" s="128"/>
+      <c r="F170" s="128"/>
       <c r="G170" s="32"/>
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
@@ -5425,25 +5425,25 @@
     </row>
     <row r="171" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C171" s="39"/>
-      <c r="D171" s="126"/>
-      <c r="E171" s="126"/>
-      <c r="F171" s="126"/>
+      <c r="D171" s="128"/>
+      <c r="E171" s="128"/>
+      <c r="F171" s="128"/>
       <c r="G171" s="45"/>
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
       <c r="J171" s="33"/>
-      <c r="K171" s="149" t="s">
+      <c r="K171" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L171" s="149"/>
-      <c r="M171" s="149"/>
-      <c r="N171" s="149"/>
-      <c r="O171" s="149"/>
-      <c r="P171" s="149"/>
-      <c r="Q171" s="149"/>
-      <c r="R171" s="149"/>
-      <c r="S171" s="149"/>
-      <c r="T171" s="149"/>
+      <c r="L171" s="134"/>
+      <c r="M171" s="134"/>
+      <c r="N171" s="134"/>
+      <c r="O171" s="134"/>
+      <c r="P171" s="134"/>
+      <c r="Q171" s="134"/>
+      <c r="R171" s="134"/>
+      <c r="S171" s="134"/>
+      <c r="T171" s="134"/>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
       <c r="W171" s="43"/>
@@ -5452,27 +5452,27 @@
       <c r="C172" s="39"/>
       <c r="D172" s="34"/>
       <c r="E172" s="35"/>
-      <c r="F172" s="137" t="s">
+      <c r="F172" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="137"/>
-      <c r="H172" s="137"/>
-      <c r="I172" s="137"/>
-      <c r="J172" s="137"/>
-      <c r="K172" s="149"/>
-      <c r="L172" s="149"/>
-      <c r="M172" s="149"/>
-      <c r="N172" s="149"/>
-      <c r="O172" s="149"/>
-      <c r="P172" s="149"/>
-      <c r="Q172" s="149"/>
-      <c r="R172" s="149"/>
-      <c r="S172" s="149"/>
-      <c r="T172" s="149"/>
-      <c r="U172" s="150" t="s">
+      <c r="G172" s="135"/>
+      <c r="H172" s="135"/>
+      <c r="I172" s="135"/>
+      <c r="J172" s="135"/>
+      <c r="K172" s="134"/>
+      <c r="L172" s="134"/>
+      <c r="M172" s="134"/>
+      <c r="N172" s="134"/>
+      <c r="O172" s="134"/>
+      <c r="P172" s="134"/>
+      <c r="Q172" s="134"/>
+      <c r="R172" s="134"/>
+      <c r="S172" s="134"/>
+      <c r="T172" s="134"/>
+      <c r="U172" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V172" s="151"/>
+      <c r="V172" s="143"/>
       <c r="W172" s="43"/>
     </row>
     <row r="173" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5526,26 +5526,26 @@
       <c r="D175" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E175" s="135" t="s">
+      <c r="E175" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="136"/>
-      <c r="G175" s="136"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="125"/>
       <c r="I175" s="18"/>
-      <c r="J175" s="152" t="s">
+      <c r="J175" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="K175" s="152"/>
-      <c r="L175" s="152"/>
-      <c r="M175" s="152"/>
-      <c r="N175" s="152"/>
-      <c r="O175" s="152"/>
-      <c r="P175" s="152"/>
-      <c r="Q175" s="152"/>
-      <c r="R175" s="152"/>
-      <c r="S175" s="152"/>
-      <c r="T175" s="152"/>
-      <c r="U175" s="152"/>
+      <c r="K175" s="153"/>
+      <c r="L175" s="153"/>
+      <c r="M175" s="153"/>
+      <c r="N175" s="153"/>
+      <c r="O175" s="153"/>
+      <c r="P175" s="153"/>
+      <c r="Q175" s="153"/>
+      <c r="R175" s="153"/>
+      <c r="S175" s="153"/>
+      <c r="T175" s="153"/>
+      <c r="U175" s="153"/>
       <c r="V175" s="20"/>
       <c r="W175" s="20"/>
     </row>
@@ -5554,11 +5554,11 @@
       <c r="D176" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E176" s="135" t="s">
+      <c r="E176" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F176" s="136"/>
-      <c r="G176" s="136"/>
+      <c r="F176" s="125"/>
+      <c r="G176" s="125"/>
       <c r="I176" s="18"/>
       <c r="J176" s="51"/>
       <c r="K176" s="58"/>
@@ -5573,32 +5573,32 @@
       <c r="D177" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E177" s="138" t="s">
+      <c r="E177" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="139"/>
-      <c r="G177" s="139"/>
+      <c r="F177" s="127"/>
+      <c r="G177" s="127"/>
       <c r="I177" s="18"/>
-      <c r="J177" s="127" t="s">
+      <c r="J177" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K177" s="128"/>
+      <c r="K177" s="161"/>
       <c r="L177" s="66"/>
-      <c r="M177" s="146" t="s">
+      <c r="M177" s="129" t="s">
         <v>162</v>
       </c>
       <c r="N177" s="147"/>
       <c r="O177" s="147"/>
       <c r="P177" s="147"/>
-      <c r="Q177" s="142" t="s">
+      <c r="Q177" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="R177" s="143"/>
+      <c r="R177" s="163"/>
       <c r="S177" s="64"/>
       <c r="T177" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U177" s="155" t="s">
+      <c r="U177" s="130" t="s">
         <v>59</v>
       </c>
       <c r="V177" s="156"/>
@@ -5609,11 +5609,11 @@
       <c r="D178" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E178" s="135" t="s">
+      <c r="E178" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F178" s="136"/>
-      <c r="G178" s="136"/>
+      <c r="F178" s="125"/>
+      <c r="G178" s="125"/>
       <c r="I178" s="18" t="s">
         <v>35</v>
       </c>
@@ -5629,11 +5629,11 @@
       <c r="D179" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E179" s="135" t="s">
+      <c r="E179" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F179" s="136"/>
-      <c r="G179" s="136"/>
+      <c r="F179" s="125"/>
+      <c r="G179" s="125"/>
       <c r="I179" s="18"/>
       <c r="J179" s="72" t="s">
         <v>61</v>
@@ -5641,28 +5641,28 @@
       <c r="K179" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="L179" s="129" t="s">
+      <c r="L179" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="M179" s="130"/>
-      <c r="N179" s="129" t="s">
+      <c r="M179" s="150"/>
+      <c r="N179" s="149" t="s">
         <v>130</v>
       </c>
-      <c r="O179" s="130"/>
+      <c r="O179" s="150"/>
       <c r="P179" s="72" t="s">
         <v>17</v>
       </c>
       <c r="Q179" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="R179" s="129" t="s">
+      <c r="R179" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="S179" s="130"/>
-      <c r="T179" s="158" t="s">
+      <c r="S179" s="150"/>
+      <c r="T179" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="U179" s="158"/>
+      <c r="U179" s="138"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
     </row>
@@ -5675,24 +5675,24 @@
       <c r="K180" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="L180" s="122" t="s">
+      <c r="L180" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="M180" s="123"/>
-      <c r="N180" s="124" t="s">
+      <c r="M180" s="132"/>
+      <c r="N180" s="151" t="s">
         <v>131</v>
       </c>
-      <c r="O180" s="125"/>
+      <c r="O180" s="152"/>
       <c r="P180" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q180" s="63">
         <v>20</v>
       </c>
-      <c r="R180" s="122" t="s">
+      <c r="R180" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S180" s="161"/>
+      <c r="S180" s="133"/>
       <c r="T180" s="73" t="s">
         <v>27</v>
       </c>
@@ -5712,26 +5712,26 @@
       <c r="K181" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="L181" s="122" t="s">
+      <c r="L181" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="M181" s="123" t="s">
+      <c r="M181" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="N181" s="124" t="s">
+      <c r="N181" s="151" t="s">
         <v>132</v>
       </c>
-      <c r="O181" s="125"/>
+      <c r="O181" s="152"/>
       <c r="P181" s="90" t="s">
         <v>135</v>
       </c>
       <c r="Q181" s="63">
         <v>22</v>
       </c>
-      <c r="R181" s="122" t="s">
+      <c r="R181" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="S181" s="161"/>
+      <c r="S181" s="133"/>
       <c r="T181" s="73" t="s">
         <v>27</v>
       </c>
@@ -5750,26 +5750,26 @@
       <c r="K182" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="L182" s="122" t="s">
+      <c r="L182" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="M182" s="123" t="s">
+      <c r="M182" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="N182" s="124" t="s">
+      <c r="N182" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O182" s="125"/>
+      <c r="O182" s="152"/>
       <c r="P182" s="90" t="s">
         <v>136</v>
       </c>
       <c r="Q182" s="63">
         <v>25</v>
       </c>
-      <c r="R182" s="122" t="s">
+      <c r="R182" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="S182" s="161"/>
+      <c r="S182" s="133"/>
       <c r="T182" s="73" t="s">
         <v>27</v>
       </c>
@@ -5788,26 +5788,26 @@
       <c r="K183" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="L183" s="122" t="s">
+      <c r="L183" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="M183" s="123" t="s">
+      <c r="M183" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="N183" s="124" t="s">
+      <c r="N183" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O183" s="125"/>
+      <c r="O183" s="152"/>
       <c r="P183" s="90" t="s">
         <v>137</v>
       </c>
       <c r="Q183" s="63">
         <v>20</v>
       </c>
-      <c r="R183" s="122" t="s">
+      <c r="R183" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S183" s="161"/>
+      <c r="S183" s="133"/>
       <c r="T183" s="73" t="s">
         <v>27</v>
       </c>
@@ -5826,24 +5826,24 @@
       <c r="K184" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="L184" s="122" t="s">
+      <c r="L184" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="M184" s="123"/>
-      <c r="N184" s="124" t="s">
+      <c r="M184" s="132"/>
+      <c r="N184" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O184" s="125"/>
+      <c r="O184" s="152"/>
       <c r="P184" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q184" s="63">
         <v>20</v>
       </c>
-      <c r="R184" s="122" t="s">
+      <c r="R184" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S184" s="161"/>
+      <c r="S184" s="133"/>
       <c r="T184" s="73" t="s">
         <v>27</v>
       </c>
@@ -5862,24 +5862,24 @@
       <c r="K185" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="L185" s="122" t="s">
+      <c r="L185" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="M185" s="123"/>
-      <c r="N185" s="124" t="s">
+      <c r="M185" s="132"/>
+      <c r="N185" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O185" s="125"/>
+      <c r="O185" s="152"/>
       <c r="P185" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q185" s="63">
         <v>20</v>
       </c>
-      <c r="R185" s="122" t="s">
+      <c r="R185" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S185" s="161"/>
+      <c r="S185" s="133"/>
       <c r="T185" s="73" t="s">
         <v>27</v>
       </c>
@@ -5898,24 +5898,24 @@
       <c r="K186" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L186" s="122" t="s">
+      <c r="L186" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="M186" s="123"/>
-      <c r="N186" s="124" t="s">
+      <c r="M186" s="132"/>
+      <c r="N186" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O186" s="125"/>
+      <c r="O186" s="152"/>
       <c r="P186" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q186" s="63">
         <v>20</v>
       </c>
-      <c r="R186" s="122" t="s">
+      <c r="R186" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S186" s="161"/>
+      <c r="S186" s="133"/>
       <c r="T186" s="73" t="s">
         <v>27</v>
       </c>
@@ -5934,24 +5934,24 @@
       <c r="K187" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="L187" s="122" t="s">
+      <c r="L187" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="M187" s="123"/>
-      <c r="N187" s="124" t="s">
+      <c r="M187" s="132"/>
+      <c r="N187" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O187" s="125"/>
+      <c r="O187" s="152"/>
       <c r="P187" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q187" s="63">
         <v>20</v>
       </c>
-      <c r="R187" s="122" t="s">
+      <c r="R187" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S187" s="161"/>
+      <c r="S187" s="133"/>
       <c r="T187" s="73" t="s">
         <v>27</v>
       </c>
@@ -5970,24 +5970,24 @@
       <c r="K188" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="L188" s="122" t="s">
+      <c r="L188" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="M188" s="123"/>
-      <c r="N188" s="124" t="s">
+      <c r="M188" s="132"/>
+      <c r="N188" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O188" s="125"/>
+      <c r="O188" s="152"/>
       <c r="P188" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q188" s="63">
         <v>20</v>
       </c>
-      <c r="R188" s="122" t="s">
+      <c r="R188" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S188" s="161"/>
+      <c r="S188" s="133"/>
       <c r="T188" s="73" t="s">
         <v>27</v>
       </c>
@@ -6006,24 +6006,24 @@
       <c r="K189" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="L189" s="122" t="s">
+      <c r="L189" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="M189" s="123"/>
-      <c r="N189" s="124" t="s">
+      <c r="M189" s="132"/>
+      <c r="N189" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="O189" s="125"/>
+      <c r="O189" s="152"/>
       <c r="P189" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q189" s="63">
         <v>20</v>
       </c>
-      <c r="R189" s="122" t="s">
+      <c r="R189" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S189" s="161"/>
+      <c r="S189" s="133"/>
       <c r="T189" s="73" t="s">
         <v>27</v>
       </c>
@@ -6088,75 +6088,75 @@
       <c r="W193" s="20"/>
     </row>
     <row r="194" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="126" t="s">
+      <c r="C194" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D194" s="126"/>
-      <c r="E194" s="126"/>
-      <c r="F194" s="126"/>
-      <c r="G194" s="126"/>
-      <c r="H194" s="126"/>
-      <c r="I194" s="126"/>
-      <c r="J194" s="126"/>
-      <c r="K194" s="126"/>
-      <c r="L194" s="126"/>
-      <c r="M194" s="126"/>
-      <c r="N194" s="126"/>
-      <c r="O194" s="126"/>
-      <c r="P194" s="126"/>
-      <c r="Q194" s="126"/>
-      <c r="R194" s="126"/>
-      <c r="S194" s="126"/>
-      <c r="T194" s="126"/>
-      <c r="U194" s="126"/>
-      <c r="V194" s="126"/>
-      <c r="W194" s="126"/>
+      <c r="D194" s="128"/>
+      <c r="E194" s="128"/>
+      <c r="F194" s="128"/>
+      <c r="G194" s="128"/>
+      <c r="H194" s="128"/>
+      <c r="I194" s="128"/>
+      <c r="J194" s="128"/>
+      <c r="K194" s="128"/>
+      <c r="L194" s="128"/>
+      <c r="M194" s="128"/>
+      <c r="N194" s="128"/>
+      <c r="O194" s="128"/>
+      <c r="P194" s="128"/>
+      <c r="Q194" s="128"/>
+      <c r="R194" s="128"/>
+      <c r="S194" s="128"/>
+      <c r="T194" s="128"/>
+      <c r="U194" s="128"/>
+      <c r="V194" s="128"/>
+      <c r="W194" s="128"/>
     </row>
     <row r="195" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="126"/>
-      <c r="D195" s="126"/>
-      <c r="E195" s="126"/>
-      <c r="F195" s="126"/>
-      <c r="G195" s="126"/>
-      <c r="H195" s="126"/>
-      <c r="I195" s="126"/>
-      <c r="J195" s="126"/>
-      <c r="K195" s="126"/>
-      <c r="L195" s="126"/>
-      <c r="M195" s="126"/>
-      <c r="N195" s="126"/>
-      <c r="O195" s="126"/>
-      <c r="P195" s="126"/>
-      <c r="Q195" s="126"/>
-      <c r="R195" s="126"/>
-      <c r="S195" s="126"/>
-      <c r="T195" s="126"/>
-      <c r="U195" s="126"/>
-      <c r="V195" s="126"/>
-      <c r="W195" s="126"/>
+      <c r="C195" s="128"/>
+      <c r="D195" s="128"/>
+      <c r="E195" s="128"/>
+      <c r="F195" s="128"/>
+      <c r="G195" s="128"/>
+      <c r="H195" s="128"/>
+      <c r="I195" s="128"/>
+      <c r="J195" s="128"/>
+      <c r="K195" s="128"/>
+      <c r="L195" s="128"/>
+      <c r="M195" s="128"/>
+      <c r="N195" s="128"/>
+      <c r="O195" s="128"/>
+      <c r="P195" s="128"/>
+      <c r="Q195" s="128"/>
+      <c r="R195" s="128"/>
+      <c r="S195" s="128"/>
+      <c r="T195" s="128"/>
+      <c r="U195" s="128"/>
+      <c r="V195" s="128"/>
+      <c r="W195" s="128"/>
     </row>
     <row r="196" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="126"/>
-      <c r="D196" s="126"/>
-      <c r="E196" s="126"/>
-      <c r="F196" s="126"/>
-      <c r="G196" s="126"/>
-      <c r="H196" s="126"/>
-      <c r="I196" s="126"/>
-      <c r="J196" s="126"/>
-      <c r="K196" s="126"/>
-      <c r="L196" s="126"/>
-      <c r="M196" s="126"/>
-      <c r="N196" s="126"/>
-      <c r="O196" s="126"/>
-      <c r="P196" s="126"/>
-      <c r="Q196" s="126"/>
-      <c r="R196" s="126"/>
-      <c r="S196" s="126"/>
-      <c r="T196" s="126"/>
-      <c r="U196" s="126"/>
-      <c r="V196" s="126"/>
-      <c r="W196" s="126"/>
+      <c r="C196" s="128"/>
+      <c r="D196" s="128"/>
+      <c r="E196" s="128"/>
+      <c r="F196" s="128"/>
+      <c r="G196" s="128"/>
+      <c r="H196" s="128"/>
+      <c r="I196" s="128"/>
+      <c r="J196" s="128"/>
+      <c r="K196" s="128"/>
+      <c r="L196" s="128"/>
+      <c r="M196" s="128"/>
+      <c r="N196" s="128"/>
+      <c r="O196" s="128"/>
+      <c r="P196" s="128"/>
+      <c r="Q196" s="128"/>
+      <c r="R196" s="128"/>
+      <c r="S196" s="128"/>
+      <c r="T196" s="128"/>
+      <c r="U196" s="128"/>
+      <c r="V196" s="128"/>
+      <c r="W196" s="128"/>
     </row>
     <row r="197" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C197" s="45"/>
@@ -6188,11 +6188,11 @@
     </row>
     <row r="200" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="38"/>
-      <c r="D200" s="126" t="s">
+      <c r="D200" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E200" s="126"/>
-      <c r="F200" s="126"/>
+      <c r="E200" s="128"/>
+      <c r="F200" s="128"/>
       <c r="G200" s="32"/>
       <c r="H200" s="37"/>
       <c r="I200" s="37"/>
@@ -6213,25 +6213,25 @@
     </row>
     <row r="201" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C201" s="39"/>
-      <c r="D201" s="126"/>
-      <c r="E201" s="126"/>
-      <c r="F201" s="126"/>
+      <c r="D201" s="128"/>
+      <c r="E201" s="128"/>
+      <c r="F201" s="128"/>
       <c r="G201" s="45"/>
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
       <c r="J201" s="33"/>
-      <c r="K201" s="149" t="s">
+      <c r="K201" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L201" s="149"/>
-      <c r="M201" s="149"/>
-      <c r="N201" s="149"/>
-      <c r="O201" s="149"/>
-      <c r="P201" s="149"/>
-      <c r="Q201" s="149"/>
-      <c r="R201" s="149"/>
-      <c r="S201" s="149"/>
-      <c r="T201" s="149"/>
+      <c r="L201" s="134"/>
+      <c r="M201" s="134"/>
+      <c r="N201" s="134"/>
+      <c r="O201" s="134"/>
+      <c r="P201" s="134"/>
+      <c r="Q201" s="134"/>
+      <c r="R201" s="134"/>
+      <c r="S201" s="134"/>
+      <c r="T201" s="134"/>
       <c r="U201" s="33"/>
       <c r="V201" s="33"/>
       <c r="W201" s="43"/>
@@ -6240,27 +6240,27 @@
       <c r="C202" s="39"/>
       <c r="D202" s="34"/>
       <c r="E202" s="35"/>
-      <c r="F202" s="137" t="s">
+      <c r="F202" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G202" s="137"/>
-      <c r="H202" s="137"/>
-      <c r="I202" s="137"/>
-      <c r="J202" s="137"/>
-      <c r="K202" s="149"/>
-      <c r="L202" s="149"/>
-      <c r="M202" s="149"/>
-      <c r="N202" s="149"/>
-      <c r="O202" s="149"/>
-      <c r="P202" s="149"/>
-      <c r="Q202" s="149"/>
-      <c r="R202" s="149"/>
-      <c r="S202" s="149"/>
-      <c r="T202" s="149"/>
-      <c r="U202" s="150" t="s">
+      <c r="G202" s="135"/>
+      <c r="H202" s="135"/>
+      <c r="I202" s="135"/>
+      <c r="J202" s="135"/>
+      <c r="K202" s="134"/>
+      <c r="L202" s="134"/>
+      <c r="M202" s="134"/>
+      <c r="N202" s="134"/>
+      <c r="O202" s="134"/>
+      <c r="P202" s="134"/>
+      <c r="Q202" s="134"/>
+      <c r="R202" s="134"/>
+      <c r="S202" s="134"/>
+      <c r="T202" s="134"/>
+      <c r="U202" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V202" s="151"/>
+      <c r="V202" s="143"/>
       <c r="W202" s="43"/>
     </row>
     <row r="203" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6314,26 +6314,26 @@
       <c r="D205" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E205" s="135" t="s">
+      <c r="E205" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F205" s="136"/>
-      <c r="G205" s="136"/>
+      <c r="F205" s="125"/>
+      <c r="G205" s="125"/>
       <c r="I205" s="18"/>
-      <c r="J205" s="152" t="s">
+      <c r="J205" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="K205" s="152"/>
-      <c r="L205" s="152"/>
-      <c r="M205" s="152"/>
-      <c r="N205" s="152"/>
-      <c r="O205" s="152"/>
-      <c r="P205" s="152"/>
-      <c r="Q205" s="152"/>
-      <c r="R205" s="152"/>
-      <c r="S205" s="152"/>
-      <c r="T205" s="152"/>
-      <c r="U205" s="152"/>
+      <c r="K205" s="153"/>
+      <c r="L205" s="153"/>
+      <c r="M205" s="153"/>
+      <c r="N205" s="153"/>
+      <c r="O205" s="153"/>
+      <c r="P205" s="153"/>
+      <c r="Q205" s="153"/>
+      <c r="R205" s="153"/>
+      <c r="S205" s="153"/>
+      <c r="T205" s="153"/>
+      <c r="U205" s="153"/>
       <c r="V205" s="77"/>
       <c r="W205" s="20"/>
     </row>
@@ -6342,11 +6342,11 @@
       <c r="D206" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="135" t="s">
+      <c r="E206" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F206" s="136"/>
-      <c r="G206" s="136"/>
+      <c r="F206" s="125"/>
+      <c r="G206" s="125"/>
       <c r="I206" s="18"/>
       <c r="J206" s="51"/>
       <c r="K206" s="58"/>
@@ -6361,11 +6361,11 @@
       <c r="D207" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E207" s="138" t="s">
+      <c r="E207" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="F207" s="139"/>
-      <c r="G207" s="139"/>
+      <c r="F207" s="127"/>
+      <c r="G207" s="127"/>
       <c r="I207" s="18"/>
       <c r="K207" s="81"/>
       <c r="L207" s="80"/>
@@ -6387,11 +6387,11 @@
       <c r="D208" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E208" s="135" t="s">
+      <c r="E208" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F208" s="136"/>
-      <c r="G208" s="136"/>
+      <c r="F208" s="125"/>
+      <c r="G208" s="125"/>
       <c r="I208" s="18" t="s">
         <v>35</v>
       </c>
@@ -6408,11 +6408,11 @@
       <c r="D209" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E209" s="135" t="s">
+      <c r="E209" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F209" s="136"/>
-      <c r="G209" s="136"/>
+      <c r="F209" s="125"/>
+      <c r="G209" s="125"/>
       <c r="I209" s="18"/>
       <c r="K209" s="82"/>
       <c r="T209" s="78"/>
@@ -6426,7 +6426,7 @@
       <c r="L210" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N210" s="140" t="s">
+      <c r="N210" s="137" t="s">
         <v>143</v>
       </c>
       <c r="O210" s="141"/>
@@ -6453,7 +6453,7 @@
       <c r="L212" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N212" s="140" t="s">
+      <c r="N212" s="137" t="s">
         <v>144</v>
       </c>
       <c r="O212" s="141"/>
@@ -6480,7 +6480,7 @@
       <c r="L214" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N214" s="140" t="s">
+      <c r="N214" s="137" t="s">
         <v>145</v>
       </c>
       <c r="O214" s="141"/>
@@ -6507,7 +6507,7 @@
       <c r="L216" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N216" s="140" t="s">
+      <c r="N216" s="137" t="s">
         <v>146</v>
       </c>
       <c r="O216" s="141"/>
@@ -6534,14 +6534,14 @@
       <c r="L218" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="144" t="s">
+      <c r="N218" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="O218" s="145"/>
-      <c r="P218" s="145"/>
-      <c r="Q218" s="145"/>
-      <c r="R218" s="145"/>
-      <c r="S218" s="145"/>
+      <c r="O218" s="165"/>
+      <c r="P218" s="165"/>
+      <c r="Q218" s="165"/>
+      <c r="R218" s="165"/>
+      <c r="S218" s="165"/>
       <c r="T218" s="78"/>
       <c r="V218" s="78"/>
       <c r="W218" s="20"/>
@@ -6550,12 +6550,12 @@
       <c r="C219" s="18"/>
       <c r="I219" s="18"/>
       <c r="K219" s="82"/>
-      <c r="N219" s="145"/>
-      <c r="O219" s="145"/>
-      <c r="P219" s="145"/>
-      <c r="Q219" s="145"/>
-      <c r="R219" s="145"/>
-      <c r="S219" s="145"/>
+      <c r="N219" s="165"/>
+      <c r="O219" s="165"/>
+      <c r="P219" s="165"/>
+      <c r="Q219" s="165"/>
+      <c r="R219" s="165"/>
+      <c r="S219" s="165"/>
       <c r="T219" s="78"/>
       <c r="V219" s="78"/>
       <c r="W219" s="20"/>
@@ -6576,7 +6576,7 @@
         <v>20</v>
       </c>
       <c r="M221" s="30"/>
-      <c r="N221" s="146" t="s">
+      <c r="N221" s="129" t="s">
         <v>148</v>
       </c>
       <c r="O221" s="147"/>
@@ -6659,75 +6659,75 @@
       <c r="W225" s="20"/>
     </row>
     <row r="226" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C226" s="126" t="s">
+      <c r="C226" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D226" s="126"/>
-      <c r="E226" s="126"/>
-      <c r="F226" s="126"/>
-      <c r="G226" s="126"/>
-      <c r="H226" s="126"/>
-      <c r="I226" s="126"/>
-      <c r="J226" s="126"/>
-      <c r="K226" s="126"/>
-      <c r="L226" s="126"/>
-      <c r="M226" s="126"/>
-      <c r="N226" s="126"/>
-      <c r="O226" s="126"/>
-      <c r="P226" s="126"/>
-      <c r="Q226" s="126"/>
-      <c r="R226" s="126"/>
-      <c r="S226" s="126"/>
-      <c r="T226" s="126"/>
-      <c r="U226" s="126"/>
-      <c r="V226" s="126"/>
-      <c r="W226" s="126"/>
+      <c r="D226" s="128"/>
+      <c r="E226" s="128"/>
+      <c r="F226" s="128"/>
+      <c r="G226" s="128"/>
+      <c r="H226" s="128"/>
+      <c r="I226" s="128"/>
+      <c r="J226" s="128"/>
+      <c r="K226" s="128"/>
+      <c r="L226" s="128"/>
+      <c r="M226" s="128"/>
+      <c r="N226" s="128"/>
+      <c r="O226" s="128"/>
+      <c r="P226" s="128"/>
+      <c r="Q226" s="128"/>
+      <c r="R226" s="128"/>
+      <c r="S226" s="128"/>
+      <c r="T226" s="128"/>
+      <c r="U226" s="128"/>
+      <c r="V226" s="128"/>
+      <c r="W226" s="128"/>
     </row>
     <row r="227" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C227" s="126"/>
-      <c r="D227" s="126"/>
-      <c r="E227" s="126"/>
-      <c r="F227" s="126"/>
-      <c r="G227" s="126"/>
-      <c r="H227" s="126"/>
-      <c r="I227" s="126"/>
-      <c r="J227" s="126"/>
-      <c r="K227" s="126"/>
-      <c r="L227" s="126"/>
-      <c r="M227" s="126"/>
-      <c r="N227" s="126"/>
-      <c r="O227" s="126"/>
-      <c r="P227" s="126"/>
-      <c r="Q227" s="126"/>
-      <c r="R227" s="126"/>
-      <c r="S227" s="126"/>
-      <c r="T227" s="126"/>
-      <c r="U227" s="126"/>
-      <c r="V227" s="126"/>
-      <c r="W227" s="126"/>
+      <c r="C227" s="128"/>
+      <c r="D227" s="128"/>
+      <c r="E227" s="128"/>
+      <c r="F227" s="128"/>
+      <c r="G227" s="128"/>
+      <c r="H227" s="128"/>
+      <c r="I227" s="128"/>
+      <c r="J227" s="128"/>
+      <c r="K227" s="128"/>
+      <c r="L227" s="128"/>
+      <c r="M227" s="128"/>
+      <c r="N227" s="128"/>
+      <c r="O227" s="128"/>
+      <c r="P227" s="128"/>
+      <c r="Q227" s="128"/>
+      <c r="R227" s="128"/>
+      <c r="S227" s="128"/>
+      <c r="T227" s="128"/>
+      <c r="U227" s="128"/>
+      <c r="V227" s="128"/>
+      <c r="W227" s="128"/>
     </row>
     <row r="228" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C228" s="126"/>
-      <c r="D228" s="126"/>
-      <c r="E228" s="126"/>
-      <c r="F228" s="126"/>
-      <c r="G228" s="126"/>
-      <c r="H228" s="126"/>
-      <c r="I228" s="126"/>
-      <c r="J228" s="126"/>
-      <c r="K228" s="126"/>
-      <c r="L228" s="126"/>
-      <c r="M228" s="126"/>
-      <c r="N228" s="126"/>
-      <c r="O228" s="126"/>
-      <c r="P228" s="126"/>
-      <c r="Q228" s="126"/>
-      <c r="R228" s="126"/>
-      <c r="S228" s="126"/>
-      <c r="T228" s="126"/>
-      <c r="U228" s="126"/>
-      <c r="V228" s="126"/>
-      <c r="W228" s="126"/>
+      <c r="C228" s="128"/>
+      <c r="D228" s="128"/>
+      <c r="E228" s="128"/>
+      <c r="F228" s="128"/>
+      <c r="G228" s="128"/>
+      <c r="H228" s="128"/>
+      <c r="I228" s="128"/>
+      <c r="J228" s="128"/>
+      <c r="K228" s="128"/>
+      <c r="L228" s="128"/>
+      <c r="M228" s="128"/>
+      <c r="N228" s="128"/>
+      <c r="O228" s="128"/>
+      <c r="P228" s="128"/>
+      <c r="Q228" s="128"/>
+      <c r="R228" s="128"/>
+      <c r="S228" s="128"/>
+      <c r="T228" s="128"/>
+      <c r="U228" s="128"/>
+      <c r="V228" s="128"/>
+      <c r="W228" s="128"/>
     </row>
     <row r="229" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C229" s="30"/>
@@ -6782,11 +6782,11 @@
     </row>
     <row r="233" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C233" s="38"/>
-      <c r="D233" s="126" t="s">
+      <c r="D233" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E233" s="126"/>
-      <c r="F233" s="126"/>
+      <c r="E233" s="128"/>
+      <c r="F233" s="128"/>
       <c r="G233" s="32"/>
       <c r="H233" s="37"/>
       <c r="I233" s="37"/>
@@ -6807,25 +6807,25 @@
     </row>
     <row r="234" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C234" s="39"/>
-      <c r="D234" s="126"/>
-      <c r="E234" s="126"/>
-      <c r="F234" s="126"/>
+      <c r="D234" s="128"/>
+      <c r="E234" s="128"/>
+      <c r="F234" s="128"/>
       <c r="G234" s="45"/>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
-      <c r="K234" s="149" t="s">
+      <c r="K234" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L234" s="149"/>
-      <c r="M234" s="149"/>
-      <c r="N234" s="149"/>
-      <c r="O234" s="149"/>
-      <c r="P234" s="149"/>
-      <c r="Q234" s="149"/>
-      <c r="R234" s="149"/>
-      <c r="S234" s="149"/>
-      <c r="T234" s="149"/>
+      <c r="L234" s="134"/>
+      <c r="M234" s="134"/>
+      <c r="N234" s="134"/>
+      <c r="O234" s="134"/>
+      <c r="P234" s="134"/>
+      <c r="Q234" s="134"/>
+      <c r="R234" s="134"/>
+      <c r="S234" s="134"/>
+      <c r="T234" s="134"/>
       <c r="U234" s="33"/>
       <c r="V234" s="33"/>
       <c r="W234" s="43"/>
@@ -6834,27 +6834,27 @@
       <c r="C235" s="39"/>
       <c r="D235" s="34"/>
       <c r="E235" s="35"/>
-      <c r="F235" s="137" t="s">
+      <c r="F235" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G235" s="137"/>
-      <c r="H235" s="137"/>
-      <c r="I235" s="137"/>
-      <c r="J235" s="137"/>
-      <c r="K235" s="149"/>
-      <c r="L235" s="149"/>
-      <c r="M235" s="149"/>
-      <c r="N235" s="149"/>
-      <c r="O235" s="149"/>
-      <c r="P235" s="149"/>
-      <c r="Q235" s="149"/>
-      <c r="R235" s="149"/>
-      <c r="S235" s="149"/>
-      <c r="T235" s="149"/>
-      <c r="U235" s="150" t="s">
+      <c r="G235" s="135"/>
+      <c r="H235" s="135"/>
+      <c r="I235" s="135"/>
+      <c r="J235" s="135"/>
+      <c r="K235" s="134"/>
+      <c r="L235" s="134"/>
+      <c r="M235" s="134"/>
+      <c r="N235" s="134"/>
+      <c r="O235" s="134"/>
+      <c r="P235" s="134"/>
+      <c r="Q235" s="134"/>
+      <c r="R235" s="134"/>
+      <c r="S235" s="134"/>
+      <c r="T235" s="134"/>
+      <c r="U235" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V235" s="151"/>
+      <c r="V235" s="143"/>
       <c r="W235" s="43"/>
     </row>
     <row r="236" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6908,26 +6908,26 @@
       <c r="D238" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E238" s="135" t="s">
+      <c r="E238" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F238" s="136"/>
-      <c r="G238" s="136"/>
+      <c r="F238" s="125"/>
+      <c r="G238" s="125"/>
       <c r="I238" s="18"/>
-      <c r="J238" s="152" t="s">
+      <c r="J238" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="K238" s="152"/>
-      <c r="L238" s="152"/>
-      <c r="M238" s="152"/>
-      <c r="N238" s="152"/>
-      <c r="O238" s="152"/>
-      <c r="P238" s="152"/>
-      <c r="Q238" s="152"/>
-      <c r="R238" s="152"/>
-      <c r="S238" s="152"/>
-      <c r="T238" s="152"/>
-      <c r="U238" s="152"/>
+      <c r="K238" s="153"/>
+      <c r="L238" s="153"/>
+      <c r="M238" s="153"/>
+      <c r="N238" s="153"/>
+      <c r="O238" s="153"/>
+      <c r="P238" s="153"/>
+      <c r="Q238" s="153"/>
+      <c r="R238" s="153"/>
+      <c r="S238" s="153"/>
+      <c r="T238" s="153"/>
+      <c r="U238" s="153"/>
       <c r="V238" s="77"/>
       <c r="W238" s="20"/>
     </row>
@@ -6936,11 +6936,11 @@
       <c r="D239" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E239" s="135" t="s">
+      <c r="E239" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F239" s="136"/>
-      <c r="G239" s="136"/>
+      <c r="F239" s="125"/>
+      <c r="G239" s="125"/>
       <c r="I239" s="18"/>
       <c r="J239" s="51"/>
       <c r="K239" s="58"/>
@@ -6955,11 +6955,11 @@
       <c r="D240" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="138" t="s">
+      <c r="E240" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="F240" s="139"/>
-      <c r="G240" s="139"/>
+      <c r="F240" s="127"/>
+      <c r="G240" s="127"/>
       <c r="I240" s="18"/>
       <c r="K240" s="81"/>
       <c r="L240" s="80"/>
@@ -6981,11 +6981,11 @@
       <c r="D241" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="135" t="s">
+      <c r="E241" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F241" s="136"/>
-      <c r="G241" s="136"/>
+      <c r="F241" s="125"/>
+      <c r="G241" s="125"/>
       <c r="I241" s="18" t="s">
         <v>35</v>
       </c>
@@ -7002,11 +7002,11 @@
       <c r="D242" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="135" t="s">
+      <c r="E242" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F242" s="136"/>
-      <c r="G242" s="136"/>
+      <c r="F242" s="125"/>
+      <c r="G242" s="125"/>
       <c r="I242" s="18"/>
       <c r="K242" s="82"/>
       <c r="T242" s="78"/>
@@ -7020,7 +7020,7 @@
       <c r="L243" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N243" s="140" t="s">
+      <c r="N243" s="137" t="s">
         <v>150</v>
       </c>
       <c r="O243" s="141"/>
@@ -7047,7 +7047,7 @@
       <c r="L245" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N245" s="140" t="s">
+      <c r="N245" s="137" t="s">
         <v>120</v>
       </c>
       <c r="O245" s="141"/>
@@ -7074,7 +7074,7 @@
       <c r="L247" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N247" s="140" t="s">
+      <c r="N247" s="137" t="s">
         <v>131</v>
       </c>
       <c r="O247" s="141"/>
@@ -7101,7 +7101,7 @@
       <c r="L249" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N249" s="140">
+      <c r="N249" s="137">
         <v>20</v>
       </c>
       <c r="O249" s="141"/>
@@ -7128,14 +7128,14 @@
       <c r="L251" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N251" s="144" t="s">
+      <c r="N251" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="O251" s="145"/>
-      <c r="P251" s="145"/>
-      <c r="Q251" s="145"/>
-      <c r="R251" s="145"/>
-      <c r="S251" s="145"/>
+      <c r="O251" s="165"/>
+      <c r="P251" s="165"/>
+      <c r="Q251" s="165"/>
+      <c r="R251" s="165"/>
+      <c r="S251" s="165"/>
       <c r="T251" s="78"/>
       <c r="V251" s="78"/>
       <c r="W251" s="20"/>
@@ -7144,12 +7144,12 @@
       <c r="C252" s="18"/>
       <c r="I252" s="18"/>
       <c r="K252" s="82"/>
-      <c r="N252" s="145"/>
-      <c r="O252" s="145"/>
-      <c r="P252" s="145"/>
-      <c r="Q252" s="145"/>
-      <c r="R252" s="145"/>
-      <c r="S252" s="145"/>
+      <c r="N252" s="165"/>
+      <c r="O252" s="165"/>
+      <c r="P252" s="165"/>
+      <c r="Q252" s="165"/>
+      <c r="R252" s="165"/>
+      <c r="S252" s="165"/>
       <c r="T252" s="78"/>
       <c r="V252" s="78"/>
       <c r="W252" s="20"/>
@@ -7170,7 +7170,7 @@
         <v>20</v>
       </c>
       <c r="M254" s="30"/>
-      <c r="N254" s="146" t="s">
+      <c r="N254" s="129" t="s">
         <v>151</v>
       </c>
       <c r="O254" s="147"/>
@@ -7259,75 +7259,75 @@
       <c r="W259" s="20"/>
     </row>
     <row r="260" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C260" s="126" t="s">
+      <c r="C260" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D260" s="126"/>
-      <c r="E260" s="126"/>
-      <c r="F260" s="126"/>
-      <c r="G260" s="126"/>
-      <c r="H260" s="126"/>
-      <c r="I260" s="126"/>
-      <c r="J260" s="126"/>
-      <c r="K260" s="126"/>
-      <c r="L260" s="126"/>
-      <c r="M260" s="126"/>
-      <c r="N260" s="126"/>
-      <c r="O260" s="126"/>
-      <c r="P260" s="126"/>
-      <c r="Q260" s="126"/>
-      <c r="R260" s="126"/>
-      <c r="S260" s="126"/>
-      <c r="T260" s="126"/>
-      <c r="U260" s="126"/>
-      <c r="V260" s="126"/>
-      <c r="W260" s="126"/>
+      <c r="D260" s="128"/>
+      <c r="E260" s="128"/>
+      <c r="F260" s="128"/>
+      <c r="G260" s="128"/>
+      <c r="H260" s="128"/>
+      <c r="I260" s="128"/>
+      <c r="J260" s="128"/>
+      <c r="K260" s="128"/>
+      <c r="L260" s="128"/>
+      <c r="M260" s="128"/>
+      <c r="N260" s="128"/>
+      <c r="O260" s="128"/>
+      <c r="P260" s="128"/>
+      <c r="Q260" s="128"/>
+      <c r="R260" s="128"/>
+      <c r="S260" s="128"/>
+      <c r="T260" s="128"/>
+      <c r="U260" s="128"/>
+      <c r="V260" s="128"/>
+      <c r="W260" s="128"/>
     </row>
     <row r="261" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C261" s="126"/>
-      <c r="D261" s="126"/>
-      <c r="E261" s="126"/>
-      <c r="F261" s="126"/>
-      <c r="G261" s="126"/>
-      <c r="H261" s="126"/>
-      <c r="I261" s="126"/>
-      <c r="J261" s="126"/>
-      <c r="K261" s="126"/>
-      <c r="L261" s="126"/>
-      <c r="M261" s="126"/>
-      <c r="N261" s="126"/>
-      <c r="O261" s="126"/>
-      <c r="P261" s="126"/>
-      <c r="Q261" s="126"/>
-      <c r="R261" s="126"/>
-      <c r="S261" s="126"/>
-      <c r="T261" s="126"/>
-      <c r="U261" s="126"/>
-      <c r="V261" s="126"/>
-      <c r="W261" s="126"/>
+      <c r="C261" s="128"/>
+      <c r="D261" s="128"/>
+      <c r="E261" s="128"/>
+      <c r="F261" s="128"/>
+      <c r="G261" s="128"/>
+      <c r="H261" s="128"/>
+      <c r="I261" s="128"/>
+      <c r="J261" s="128"/>
+      <c r="K261" s="128"/>
+      <c r="L261" s="128"/>
+      <c r="M261" s="128"/>
+      <c r="N261" s="128"/>
+      <c r="O261" s="128"/>
+      <c r="P261" s="128"/>
+      <c r="Q261" s="128"/>
+      <c r="R261" s="128"/>
+      <c r="S261" s="128"/>
+      <c r="T261" s="128"/>
+      <c r="U261" s="128"/>
+      <c r="V261" s="128"/>
+      <c r="W261" s="128"/>
     </row>
     <row r="262" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C262" s="126"/>
-      <c r="D262" s="126"/>
-      <c r="E262" s="126"/>
-      <c r="F262" s="126"/>
-      <c r="G262" s="126"/>
-      <c r="H262" s="126"/>
-      <c r="I262" s="126"/>
-      <c r="J262" s="126"/>
-      <c r="K262" s="126"/>
-      <c r="L262" s="126"/>
-      <c r="M262" s="126"/>
-      <c r="N262" s="126"/>
-      <c r="O262" s="126"/>
-      <c r="P262" s="126"/>
-      <c r="Q262" s="126"/>
-      <c r="R262" s="126"/>
-      <c r="S262" s="126"/>
-      <c r="T262" s="126"/>
-      <c r="U262" s="126"/>
-      <c r="V262" s="126"/>
-      <c r="W262" s="126"/>
+      <c r="C262" s="128"/>
+      <c r="D262" s="128"/>
+      <c r="E262" s="128"/>
+      <c r="F262" s="128"/>
+      <c r="G262" s="128"/>
+      <c r="H262" s="128"/>
+      <c r="I262" s="128"/>
+      <c r="J262" s="128"/>
+      <c r="K262" s="128"/>
+      <c r="L262" s="128"/>
+      <c r="M262" s="128"/>
+      <c r="N262" s="128"/>
+      <c r="O262" s="128"/>
+      <c r="P262" s="128"/>
+      <c r="Q262" s="128"/>
+      <c r="R262" s="128"/>
+      <c r="S262" s="128"/>
+      <c r="T262" s="128"/>
+      <c r="U262" s="128"/>
+      <c r="V262" s="128"/>
+      <c r="W262" s="128"/>
     </row>
     <row r="263" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C263" s="45"/>
@@ -7359,11 +7359,11 @@
     </row>
     <row r="266" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C266" s="38"/>
-      <c r="D266" s="126" t="s">
+      <c r="D266" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E266" s="126"/>
-      <c r="F266" s="126"/>
+      <c r="E266" s="128"/>
+      <c r="F266" s="128"/>
       <c r="G266" s="32"/>
       <c r="H266" s="37"/>
       <c r="I266" s="37"/>
@@ -7384,25 +7384,25 @@
     </row>
     <row r="267" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C267" s="39"/>
-      <c r="D267" s="126"/>
-      <c r="E267" s="126"/>
-      <c r="F267" s="126"/>
+      <c r="D267" s="128"/>
+      <c r="E267" s="128"/>
+      <c r="F267" s="128"/>
       <c r="G267" s="45"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
       <c r="J267" s="33"/>
-      <c r="K267" s="149" t="s">
+      <c r="K267" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L267" s="149"/>
-      <c r="M267" s="149"/>
-      <c r="N267" s="149"/>
-      <c r="O267" s="149"/>
-      <c r="P267" s="149"/>
-      <c r="Q267" s="149"/>
-      <c r="R267" s="149"/>
-      <c r="S267" s="149"/>
-      <c r="T267" s="149"/>
+      <c r="L267" s="134"/>
+      <c r="M267" s="134"/>
+      <c r="N267" s="134"/>
+      <c r="O267" s="134"/>
+      <c r="P267" s="134"/>
+      <c r="Q267" s="134"/>
+      <c r="R267" s="134"/>
+      <c r="S267" s="134"/>
+      <c r="T267" s="134"/>
       <c r="U267" s="33"/>
       <c r="V267" s="33"/>
       <c r="W267" s="43"/>
@@ -7411,27 +7411,27 @@
       <c r="C268" s="39"/>
       <c r="D268" s="34"/>
       <c r="E268" s="35"/>
-      <c r="F268" s="137" t="s">
+      <c r="F268" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G268" s="137"/>
-      <c r="H268" s="137"/>
-      <c r="I268" s="137"/>
-      <c r="J268" s="137"/>
-      <c r="K268" s="149"/>
-      <c r="L268" s="149"/>
-      <c r="M268" s="149"/>
-      <c r="N268" s="149"/>
-      <c r="O268" s="149"/>
-      <c r="P268" s="149"/>
-      <c r="Q268" s="149"/>
-      <c r="R268" s="149"/>
-      <c r="S268" s="149"/>
-      <c r="T268" s="149"/>
-      <c r="U268" s="150" t="s">
+      <c r="G268" s="135"/>
+      <c r="H268" s="135"/>
+      <c r="I268" s="135"/>
+      <c r="J268" s="135"/>
+      <c r="K268" s="134"/>
+      <c r="L268" s="134"/>
+      <c r="M268" s="134"/>
+      <c r="N268" s="134"/>
+      <c r="O268" s="134"/>
+      <c r="P268" s="134"/>
+      <c r="Q268" s="134"/>
+      <c r="R268" s="134"/>
+      <c r="S268" s="134"/>
+      <c r="T268" s="134"/>
+      <c r="U268" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V268" s="151"/>
+      <c r="V268" s="143"/>
       <c r="W268" s="43"/>
     </row>
     <row r="269" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7485,26 +7485,26 @@
       <c r="D271" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="135" t="s">
+      <c r="E271" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F271" s="136"/>
-      <c r="G271" s="136"/>
+      <c r="F271" s="125"/>
+      <c r="G271" s="125"/>
       <c r="I271" s="18"/>
-      <c r="J271" s="152" t="s">
+      <c r="J271" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="K271" s="152"/>
-      <c r="L271" s="152"/>
-      <c r="M271" s="152"/>
-      <c r="N271" s="152"/>
-      <c r="O271" s="152"/>
-      <c r="P271" s="152"/>
-      <c r="Q271" s="152"/>
-      <c r="R271" s="152"/>
-      <c r="S271" s="152"/>
-      <c r="T271" s="152"/>
-      <c r="U271" s="152"/>
+      <c r="K271" s="153"/>
+      <c r="L271" s="153"/>
+      <c r="M271" s="153"/>
+      <c r="N271" s="153"/>
+      <c r="O271" s="153"/>
+      <c r="P271" s="153"/>
+      <c r="Q271" s="153"/>
+      <c r="R271" s="153"/>
+      <c r="S271" s="153"/>
+      <c r="T271" s="153"/>
+      <c r="U271" s="153"/>
       <c r="V271" s="77"/>
       <c r="W271" s="20"/>
     </row>
@@ -7513,11 +7513,11 @@
       <c r="D272" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E272" s="135" t="s">
+      <c r="E272" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F272" s="136"/>
-      <c r="G272" s="136"/>
+      <c r="F272" s="125"/>
+      <c r="G272" s="125"/>
       <c r="I272" s="18"/>
       <c r="J272" s="51"/>
       <c r="K272" s="58"/>
@@ -7532,11 +7532,11 @@
       <c r="D273" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E273" s="138" t="s">
+      <c r="E273" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="F273" s="139"/>
-      <c r="G273" s="139"/>
+      <c r="F273" s="127"/>
+      <c r="G273" s="127"/>
       <c r="I273" s="18"/>
       <c r="V273" s="78"/>
       <c r="W273" s="20"/>
@@ -7546,11 +7546,11 @@
       <c r="D274" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="135" t="s">
+      <c r="E274" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F274" s="136"/>
-      <c r="G274" s="136"/>
+      <c r="F274" s="125"/>
+      <c r="G274" s="125"/>
       <c r="I274" s="18" t="s">
         <v>35</v>
       </c>
@@ -7572,11 +7572,11 @@
       <c r="D275" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E275" s="135" t="s">
+      <c r="E275" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F275" s="136"/>
-      <c r="G275" s="136"/>
+      <c r="F275" s="125"/>
+      <c r="G275" s="125"/>
       <c r="I275" s="18"/>
       <c r="L275" s="82"/>
       <c r="M275" s="88" t="s">
@@ -7721,75 +7721,75 @@
       <c r="W289" s="20"/>
     </row>
     <row r="290" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C290" s="126" t="s">
+      <c r="C290" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D290" s="126"/>
-      <c r="E290" s="126"/>
-      <c r="F290" s="126"/>
-      <c r="G290" s="126"/>
-      <c r="H290" s="126"/>
-      <c r="I290" s="126"/>
-      <c r="J290" s="126"/>
-      <c r="K290" s="126"/>
-      <c r="L290" s="126"/>
-      <c r="M290" s="126"/>
-      <c r="N290" s="126"/>
-      <c r="O290" s="126"/>
-      <c r="P290" s="126"/>
-      <c r="Q290" s="126"/>
-      <c r="R290" s="126"/>
-      <c r="S290" s="126"/>
-      <c r="T290" s="126"/>
-      <c r="U290" s="126"/>
-      <c r="V290" s="126"/>
-      <c r="W290" s="126"/>
+      <c r="D290" s="128"/>
+      <c r="E290" s="128"/>
+      <c r="F290" s="128"/>
+      <c r="G290" s="128"/>
+      <c r="H290" s="128"/>
+      <c r="I290" s="128"/>
+      <c r="J290" s="128"/>
+      <c r="K290" s="128"/>
+      <c r="L290" s="128"/>
+      <c r="M290" s="128"/>
+      <c r="N290" s="128"/>
+      <c r="O290" s="128"/>
+      <c r="P290" s="128"/>
+      <c r="Q290" s="128"/>
+      <c r="R290" s="128"/>
+      <c r="S290" s="128"/>
+      <c r="T290" s="128"/>
+      <c r="U290" s="128"/>
+      <c r="V290" s="128"/>
+      <c r="W290" s="128"/>
     </row>
     <row r="291" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C291" s="126"/>
-      <c r="D291" s="126"/>
-      <c r="E291" s="126"/>
-      <c r="F291" s="126"/>
-      <c r="G291" s="126"/>
-      <c r="H291" s="126"/>
-      <c r="I291" s="126"/>
-      <c r="J291" s="126"/>
-      <c r="K291" s="126"/>
-      <c r="L291" s="126"/>
-      <c r="M291" s="126"/>
-      <c r="N291" s="126"/>
-      <c r="O291" s="126"/>
-      <c r="P291" s="126"/>
-      <c r="Q291" s="126"/>
-      <c r="R291" s="126"/>
-      <c r="S291" s="126"/>
-      <c r="T291" s="126"/>
-      <c r="U291" s="126"/>
-      <c r="V291" s="126"/>
-      <c r="W291" s="126"/>
+      <c r="C291" s="128"/>
+      <c r="D291" s="128"/>
+      <c r="E291" s="128"/>
+      <c r="F291" s="128"/>
+      <c r="G291" s="128"/>
+      <c r="H291" s="128"/>
+      <c r="I291" s="128"/>
+      <c r="J291" s="128"/>
+      <c r="K291" s="128"/>
+      <c r="L291" s="128"/>
+      <c r="M291" s="128"/>
+      <c r="N291" s="128"/>
+      <c r="O291" s="128"/>
+      <c r="P291" s="128"/>
+      <c r="Q291" s="128"/>
+      <c r="R291" s="128"/>
+      <c r="S291" s="128"/>
+      <c r="T291" s="128"/>
+      <c r="U291" s="128"/>
+      <c r="V291" s="128"/>
+      <c r="W291" s="128"/>
     </row>
     <row r="292" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C292" s="126"/>
-      <c r="D292" s="126"/>
-      <c r="E292" s="126"/>
-      <c r="F292" s="126"/>
-      <c r="G292" s="126"/>
-      <c r="H292" s="126"/>
-      <c r="I292" s="126"/>
-      <c r="J292" s="126"/>
-      <c r="K292" s="126"/>
-      <c r="L292" s="126"/>
-      <c r="M292" s="126"/>
-      <c r="N292" s="126"/>
-      <c r="O292" s="126"/>
-      <c r="P292" s="126"/>
-      <c r="Q292" s="126"/>
-      <c r="R292" s="126"/>
-      <c r="S292" s="126"/>
-      <c r="T292" s="126"/>
-      <c r="U292" s="126"/>
-      <c r="V292" s="126"/>
-      <c r="W292" s="126"/>
+      <c r="C292" s="128"/>
+      <c r="D292" s="128"/>
+      <c r="E292" s="128"/>
+      <c r="F292" s="128"/>
+      <c r="G292" s="128"/>
+      <c r="H292" s="128"/>
+      <c r="I292" s="128"/>
+      <c r="J292" s="128"/>
+      <c r="K292" s="128"/>
+      <c r="L292" s="128"/>
+      <c r="M292" s="128"/>
+      <c r="N292" s="128"/>
+      <c r="O292" s="128"/>
+      <c r="P292" s="128"/>
+      <c r="Q292" s="128"/>
+      <c r="R292" s="128"/>
+      <c r="S292" s="128"/>
+      <c r="T292" s="128"/>
+      <c r="U292" s="128"/>
+      <c r="V292" s="128"/>
+      <c r="W292" s="128"/>
     </row>
     <row r="295" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="61" t="s">
@@ -7798,11 +7798,11 @@
     </row>
     <row r="297" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C297" s="38"/>
-      <c r="D297" s="126" t="s">
+      <c r="D297" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E297" s="126"/>
-      <c r="F297" s="126"/>
+      <c r="E297" s="128"/>
+      <c r="F297" s="128"/>
       <c r="G297" s="32"/>
       <c r="H297" s="37"/>
       <c r="I297" s="37"/>
@@ -7823,25 +7823,25 @@
     </row>
     <row r="298" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C298" s="39"/>
-      <c r="D298" s="126"/>
-      <c r="E298" s="126"/>
-      <c r="F298" s="126"/>
+      <c r="D298" s="128"/>
+      <c r="E298" s="128"/>
+      <c r="F298" s="128"/>
       <c r="G298" s="45"/>
       <c r="H298" s="33"/>
       <c r="I298" s="33"/>
       <c r="J298" s="33"/>
-      <c r="K298" s="149" t="s">
+      <c r="K298" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L298" s="149"/>
-      <c r="M298" s="149"/>
-      <c r="N298" s="149"/>
-      <c r="O298" s="149"/>
-      <c r="P298" s="149"/>
-      <c r="Q298" s="149"/>
-      <c r="R298" s="149"/>
-      <c r="S298" s="149"/>
-      <c r="T298" s="149"/>
+      <c r="L298" s="134"/>
+      <c r="M298" s="134"/>
+      <c r="N298" s="134"/>
+      <c r="O298" s="134"/>
+      <c r="P298" s="134"/>
+      <c r="Q298" s="134"/>
+      <c r="R298" s="134"/>
+      <c r="S298" s="134"/>
+      <c r="T298" s="134"/>
       <c r="U298" s="33"/>
       <c r="V298" s="33"/>
       <c r="W298" s="43"/>
@@ -7850,27 +7850,27 @@
       <c r="C299" s="39"/>
       <c r="D299" s="34"/>
       <c r="E299" s="35"/>
-      <c r="F299" s="137" t="s">
+      <c r="F299" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G299" s="137"/>
-      <c r="H299" s="137"/>
-      <c r="I299" s="137"/>
-      <c r="J299" s="137"/>
-      <c r="K299" s="149"/>
-      <c r="L299" s="149"/>
-      <c r="M299" s="149"/>
-      <c r="N299" s="149"/>
-      <c r="O299" s="149"/>
-      <c r="P299" s="149"/>
-      <c r="Q299" s="149"/>
-      <c r="R299" s="149"/>
-      <c r="S299" s="149"/>
-      <c r="T299" s="149"/>
-      <c r="U299" s="150" t="s">
+      <c r="G299" s="135"/>
+      <c r="H299" s="135"/>
+      <c r="I299" s="135"/>
+      <c r="J299" s="135"/>
+      <c r="K299" s="134"/>
+      <c r="L299" s="134"/>
+      <c r="M299" s="134"/>
+      <c r="N299" s="134"/>
+      <c r="O299" s="134"/>
+      <c r="P299" s="134"/>
+      <c r="Q299" s="134"/>
+      <c r="R299" s="134"/>
+      <c r="S299" s="134"/>
+      <c r="T299" s="134"/>
+      <c r="U299" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V299" s="151"/>
+      <c r="V299" s="143"/>
       <c r="W299" s="43"/>
     </row>
     <row r="300" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7924,26 +7924,26 @@
       <c r="D302" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="135" t="s">
+      <c r="E302" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F302" s="136"/>
-      <c r="G302" s="136"/>
+      <c r="F302" s="125"/>
+      <c r="G302" s="125"/>
       <c r="I302" s="18"/>
-      <c r="J302" s="152" t="s">
+      <c r="J302" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K302" s="152"/>
-      <c r="L302" s="152"/>
-      <c r="M302" s="152"/>
-      <c r="N302" s="152"/>
-      <c r="O302" s="152"/>
-      <c r="P302" s="152"/>
-      <c r="Q302" s="152"/>
-      <c r="R302" s="152"/>
-      <c r="S302" s="152"/>
-      <c r="T302" s="152"/>
-      <c r="U302" s="152"/>
+      <c r="K302" s="153"/>
+      <c r="L302" s="153"/>
+      <c r="M302" s="153"/>
+      <c r="N302" s="153"/>
+      <c r="O302" s="153"/>
+      <c r="P302" s="153"/>
+      <c r="Q302" s="153"/>
+      <c r="R302" s="153"/>
+      <c r="S302" s="153"/>
+      <c r="T302" s="153"/>
+      <c r="U302" s="153"/>
       <c r="V302" s="20"/>
       <c r="W302" s="20"/>
     </row>
@@ -7952,11 +7952,11 @@
       <c r="D303" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="135" t="s">
+      <c r="E303" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F303" s="136"/>
-      <c r="G303" s="136"/>
+      <c r="F303" s="125"/>
+      <c r="G303" s="125"/>
       <c r="I303" s="18"/>
       <c r="J303" s="51"/>
       <c r="K303" s="58"/>
@@ -7971,32 +7971,32 @@
       <c r="D304" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="135" t="s">
+      <c r="E304" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F304" s="136"/>
-      <c r="G304" s="136"/>
+      <c r="F304" s="125"/>
+      <c r="G304" s="125"/>
       <c r="I304" s="18"/>
-      <c r="J304" s="127" t="s">
+      <c r="J304" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="K304" s="128"/>
+      <c r="K304" s="161"/>
       <c r="L304" s="66"/>
-      <c r="M304" s="146" t="s">
+      <c r="M304" s="129" t="s">
         <v>161</v>
       </c>
       <c r="N304" s="147"/>
       <c r="O304" s="147"/>
       <c r="P304" s="147"/>
-      <c r="Q304" s="142" t="s">
+      <c r="Q304" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="R304" s="143"/>
+      <c r="R304" s="163"/>
       <c r="S304" s="64"/>
       <c r="T304" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U304" s="155" t="s">
+      <c r="U304" s="130" t="s">
         <v>59</v>
       </c>
       <c r="V304" s="156"/>
@@ -8007,11 +8007,11 @@
       <c r="D305" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="138" t="s">
+      <c r="E305" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F305" s="139"/>
-      <c r="G305" s="139"/>
+      <c r="F305" s="127"/>
+      <c r="G305" s="127"/>
       <c r="I305" s="18" t="s">
         <v>35</v>
       </c>
@@ -8027,11 +8027,11 @@
       <c r="D306" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="135" t="s">
+      <c r="E306" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F306" s="136"/>
-      <c r="G306" s="136"/>
+      <c r="F306" s="125"/>
+      <c r="G306" s="125"/>
       <c r="I306" s="18"/>
       <c r="J306" s="72" t="s">
         <v>61</v>
@@ -8039,28 +8039,28 @@
       <c r="K306" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="L306" s="129" t="s">
+      <c r="L306" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="M306" s="130"/>
-      <c r="N306" s="129" t="s">
+      <c r="M306" s="150"/>
+      <c r="N306" s="149" t="s">
         <v>157</v>
       </c>
-      <c r="O306" s="130"/>
+      <c r="O306" s="150"/>
       <c r="P306" s="72" t="s">
         <v>158</v>
       </c>
       <c r="Q306" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="R306" s="129" t="s">
+      <c r="R306" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="S306" s="130"/>
-      <c r="T306" s="158" t="s">
+      <c r="S306" s="150"/>
+      <c r="T306" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="U306" s="158"/>
+      <c r="U306" s="138"/>
       <c r="V306" s="20"/>
       <c r="W306" s="20"/>
     </row>
@@ -8073,22 +8073,22 @@
       <c r="K307" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="L307" s="122" t="s">
+      <c r="L307" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="M307" s="123"/>
-      <c r="N307" s="124">
+      <c r="M307" s="132"/>
+      <c r="N307" s="151">
         <v>2000</v>
       </c>
-      <c r="O307" s="125"/>
+      <c r="O307" s="152"/>
       <c r="P307" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q307" s="63"/>
-      <c r="R307" s="122" t="s">
+      <c r="R307" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="S307" s="161"/>
+      <c r="S307" s="133"/>
       <c r="T307" s="73" t="s">
         <v>27</v>
       </c>
@@ -8108,22 +8108,22 @@
       <c r="K308" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="L308" s="122" t="s">
+      <c r="L308" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="M308" s="123"/>
-      <c r="N308" s="124">
+      <c r="M308" s="132"/>
+      <c r="N308" s="151">
         <v>2001</v>
       </c>
-      <c r="O308" s="125"/>
+      <c r="O308" s="152"/>
       <c r="P308" s="90" t="s">
         <v>181</v>
       </c>
       <c r="Q308" s="63"/>
-      <c r="R308" s="122" t="s">
+      <c r="R308" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="S308" s="161"/>
+      <c r="S308" s="133"/>
       <c r="T308" s="73" t="s">
         <v>27</v>
       </c>
@@ -8142,22 +8142,22 @@
       <c r="K309" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="L309" s="122" t="s">
+      <c r="L309" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="M309" s="123"/>
-      <c r="N309" s="124">
+      <c r="M309" s="132"/>
+      <c r="N309" s="151">
         <v>2002</v>
       </c>
-      <c r="O309" s="125"/>
+      <c r="O309" s="152"/>
       <c r="P309" s="90" t="s">
         <v>182</v>
       </c>
       <c r="Q309" s="63"/>
-      <c r="R309" s="122" t="s">
+      <c r="R309" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="S309" s="161"/>
+      <c r="S309" s="133"/>
       <c r="T309" s="73" t="s">
         <v>27</v>
       </c>
@@ -8176,22 +8176,22 @@
       <c r="K310" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="L310" s="122" t="s">
+      <c r="L310" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="M310" s="123"/>
-      <c r="N310" s="124">
+      <c r="M310" s="132"/>
+      <c r="N310" s="151">
         <v>2000</v>
       </c>
-      <c r="O310" s="125"/>
+      <c r="O310" s="152"/>
       <c r="P310" s="90" t="s">
         <v>183</v>
       </c>
       <c r="Q310" s="63"/>
-      <c r="R310" s="122" t="s">
+      <c r="R310" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="S310" s="161"/>
+      <c r="S310" s="133"/>
       <c r="T310" s="73" t="s">
         <v>27</v>
       </c>
@@ -8210,22 +8210,22 @@
       <c r="K311" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="L311" s="122" t="s">
+      <c r="L311" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="M311" s="123"/>
-      <c r="N311" s="124">
+      <c r="M311" s="132"/>
+      <c r="N311" s="151">
         <v>2000</v>
       </c>
-      <c r="O311" s="125"/>
+      <c r="O311" s="152"/>
       <c r="P311" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q311" s="63"/>
-      <c r="R311" s="122" t="s">
+      <c r="R311" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="S311" s="161"/>
+      <c r="S311" s="133"/>
       <c r="T311" s="73" t="s">
         <v>27</v>
       </c>
@@ -8244,22 +8244,22 @@
       <c r="K312" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="L312" s="122" t="s">
+      <c r="L312" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="M312" s="123"/>
-      <c r="N312" s="124">
+      <c r="M312" s="132"/>
+      <c r="N312" s="151">
         <v>2000</v>
       </c>
-      <c r="O312" s="125"/>
+      <c r="O312" s="152"/>
       <c r="P312" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q312" s="63"/>
-      <c r="R312" s="122" t="s">
+      <c r="R312" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="S312" s="161"/>
+      <c r="S312" s="133"/>
       <c r="T312" s="73" t="s">
         <v>27</v>
       </c>
@@ -8278,22 +8278,22 @@
       <c r="K313" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="L313" s="122" t="s">
+      <c r="L313" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="M313" s="123"/>
-      <c r="N313" s="124">
+      <c r="M313" s="132"/>
+      <c r="N313" s="151">
         <v>2000</v>
       </c>
-      <c r="O313" s="125"/>
+      <c r="O313" s="152"/>
       <c r="P313" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q313" s="63"/>
-      <c r="R313" s="122" t="s">
+      <c r="R313" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="S313" s="161"/>
+      <c r="S313" s="133"/>
       <c r="T313" s="73" t="s">
         <v>27</v>
       </c>
@@ -8312,22 +8312,22 @@
       <c r="K314" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="L314" s="122" t="s">
+      <c r="L314" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="M314" s="123"/>
-      <c r="N314" s="124">
+      <c r="M314" s="132"/>
+      <c r="N314" s="151">
         <v>2000</v>
       </c>
-      <c r="O314" s="125"/>
+      <c r="O314" s="152"/>
       <c r="P314" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q314" s="63"/>
-      <c r="R314" s="122" t="s">
+      <c r="R314" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="S314" s="161"/>
+      <c r="S314" s="133"/>
       <c r="T314" s="73" t="s">
         <v>27</v>
       </c>
@@ -8346,22 +8346,22 @@
       <c r="K315" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="L315" s="122" t="s">
+      <c r="L315" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="M315" s="123"/>
-      <c r="N315" s="124">
+      <c r="M315" s="132"/>
+      <c r="N315" s="151">
         <v>2000</v>
       </c>
-      <c r="O315" s="125"/>
+      <c r="O315" s="152"/>
       <c r="P315" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q315" s="63"/>
-      <c r="R315" s="122" t="s">
+      <c r="R315" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="S315" s="161"/>
+      <c r="S315" s="133"/>
       <c r="T315" s="73" t="s">
         <v>27</v>
       </c>
@@ -8380,22 +8380,22 @@
       <c r="K316" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="L316" s="122" t="s">
+      <c r="L316" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="M316" s="123"/>
-      <c r="N316" s="124">
+      <c r="M316" s="132"/>
+      <c r="N316" s="151">
         <v>2000</v>
       </c>
-      <c r="O316" s="125"/>
+      <c r="O316" s="152"/>
       <c r="P316" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q316" s="63"/>
-      <c r="R316" s="122" t="s">
+      <c r="R316" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="S316" s="161"/>
+      <c r="S316" s="133"/>
       <c r="T316" s="73" t="s">
         <v>27</v>
       </c>
@@ -8460,75 +8460,75 @@
       <c r="W320" s="20"/>
     </row>
     <row r="321" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C321" s="126" t="s">
+      <c r="C321" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D321" s="126"/>
-      <c r="E321" s="126"/>
-      <c r="F321" s="126"/>
-      <c r="G321" s="126"/>
-      <c r="H321" s="126"/>
-      <c r="I321" s="126"/>
-      <c r="J321" s="126"/>
-      <c r="K321" s="126"/>
-      <c r="L321" s="126"/>
-      <c r="M321" s="126"/>
-      <c r="N321" s="126"/>
-      <c r="O321" s="126"/>
-      <c r="P321" s="126"/>
-      <c r="Q321" s="126"/>
-      <c r="R321" s="126"/>
-      <c r="S321" s="126"/>
-      <c r="T321" s="126"/>
-      <c r="U321" s="126"/>
-      <c r="V321" s="126"/>
-      <c r="W321" s="126"/>
+      <c r="D321" s="128"/>
+      <c r="E321" s="128"/>
+      <c r="F321" s="128"/>
+      <c r="G321" s="128"/>
+      <c r="H321" s="128"/>
+      <c r="I321" s="128"/>
+      <c r="J321" s="128"/>
+      <c r="K321" s="128"/>
+      <c r="L321" s="128"/>
+      <c r="M321" s="128"/>
+      <c r="N321" s="128"/>
+      <c r="O321" s="128"/>
+      <c r="P321" s="128"/>
+      <c r="Q321" s="128"/>
+      <c r="R321" s="128"/>
+      <c r="S321" s="128"/>
+      <c r="T321" s="128"/>
+      <c r="U321" s="128"/>
+      <c r="V321" s="128"/>
+      <c r="W321" s="128"/>
     </row>
     <row r="322" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C322" s="126"/>
-      <c r="D322" s="126"/>
-      <c r="E322" s="126"/>
-      <c r="F322" s="126"/>
-      <c r="G322" s="126"/>
-      <c r="H322" s="126"/>
-      <c r="I322" s="126"/>
-      <c r="J322" s="126"/>
-      <c r="K322" s="126"/>
-      <c r="L322" s="126"/>
-      <c r="M322" s="126"/>
-      <c r="N322" s="126"/>
-      <c r="O322" s="126"/>
-      <c r="P322" s="126"/>
-      <c r="Q322" s="126"/>
-      <c r="R322" s="126"/>
-      <c r="S322" s="126"/>
-      <c r="T322" s="126"/>
-      <c r="U322" s="126"/>
-      <c r="V322" s="126"/>
-      <c r="W322" s="126"/>
+      <c r="C322" s="128"/>
+      <c r="D322" s="128"/>
+      <c r="E322" s="128"/>
+      <c r="F322" s="128"/>
+      <c r="G322" s="128"/>
+      <c r="H322" s="128"/>
+      <c r="I322" s="128"/>
+      <c r="J322" s="128"/>
+      <c r="K322" s="128"/>
+      <c r="L322" s="128"/>
+      <c r="M322" s="128"/>
+      <c r="N322" s="128"/>
+      <c r="O322" s="128"/>
+      <c r="P322" s="128"/>
+      <c r="Q322" s="128"/>
+      <c r="R322" s="128"/>
+      <c r="S322" s="128"/>
+      <c r="T322" s="128"/>
+      <c r="U322" s="128"/>
+      <c r="V322" s="128"/>
+      <c r="W322" s="128"/>
     </row>
     <row r="323" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C323" s="126"/>
-      <c r="D323" s="126"/>
-      <c r="E323" s="126"/>
-      <c r="F323" s="126"/>
-      <c r="G323" s="126"/>
-      <c r="H323" s="126"/>
-      <c r="I323" s="126"/>
-      <c r="J323" s="126"/>
-      <c r="K323" s="126"/>
-      <c r="L323" s="126"/>
-      <c r="M323" s="126"/>
-      <c r="N323" s="126"/>
-      <c r="O323" s="126"/>
-      <c r="P323" s="126"/>
-      <c r="Q323" s="126"/>
-      <c r="R323" s="126"/>
-      <c r="S323" s="126"/>
-      <c r="T323" s="126"/>
-      <c r="U323" s="126"/>
-      <c r="V323" s="126"/>
-      <c r="W323" s="126"/>
+      <c r="C323" s="128"/>
+      <c r="D323" s="128"/>
+      <c r="E323" s="128"/>
+      <c r="F323" s="128"/>
+      <c r="G323" s="128"/>
+      <c r="H323" s="128"/>
+      <c r="I323" s="128"/>
+      <c r="J323" s="128"/>
+      <c r="K323" s="128"/>
+      <c r="L323" s="128"/>
+      <c r="M323" s="128"/>
+      <c r="N323" s="128"/>
+      <c r="O323" s="128"/>
+      <c r="P323" s="128"/>
+      <c r="Q323" s="128"/>
+      <c r="R323" s="128"/>
+      <c r="S323" s="128"/>
+      <c r="T323" s="128"/>
+      <c r="U323" s="128"/>
+      <c r="V323" s="128"/>
+      <c r="W323" s="128"/>
     </row>
     <row r="324" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C324" s="45"/>
@@ -8560,11 +8560,11 @@
     </row>
     <row r="327" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C327" s="38"/>
-      <c r="D327" s="126" t="s">
+      <c r="D327" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E327" s="126"/>
-      <c r="F327" s="126"/>
+      <c r="E327" s="128"/>
+      <c r="F327" s="128"/>
       <c r="G327" s="32"/>
       <c r="H327" s="37"/>
       <c r="I327" s="37"/>
@@ -8585,25 +8585,25 @@
     </row>
     <row r="328" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C328" s="39"/>
-      <c r="D328" s="126"/>
-      <c r="E328" s="126"/>
-      <c r="F328" s="126"/>
+      <c r="D328" s="128"/>
+      <c r="E328" s="128"/>
+      <c r="F328" s="128"/>
       <c r="G328" s="45"/>
       <c r="H328" s="33"/>
       <c r="I328" s="33"/>
       <c r="J328" s="33"/>
-      <c r="K328" s="149" t="s">
+      <c r="K328" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L328" s="149"/>
-      <c r="M328" s="149"/>
-      <c r="N328" s="149"/>
-      <c r="O328" s="149"/>
-      <c r="P328" s="149"/>
-      <c r="Q328" s="149"/>
-      <c r="R328" s="149"/>
-      <c r="S328" s="149"/>
-      <c r="T328" s="149"/>
+      <c r="L328" s="134"/>
+      <c r="M328" s="134"/>
+      <c r="N328" s="134"/>
+      <c r="O328" s="134"/>
+      <c r="P328" s="134"/>
+      <c r="Q328" s="134"/>
+      <c r="R328" s="134"/>
+      <c r="S328" s="134"/>
+      <c r="T328" s="134"/>
       <c r="U328" s="33"/>
       <c r="V328" s="33"/>
       <c r="W328" s="43"/>
@@ -8612,27 +8612,27 @@
       <c r="C329" s="39"/>
       <c r="D329" s="34"/>
       <c r="E329" s="35"/>
-      <c r="F329" s="137" t="s">
+      <c r="F329" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G329" s="137"/>
-      <c r="H329" s="137"/>
-      <c r="I329" s="137"/>
-      <c r="J329" s="137"/>
-      <c r="K329" s="149"/>
-      <c r="L329" s="149"/>
-      <c r="M329" s="149"/>
-      <c r="N329" s="149"/>
-      <c r="O329" s="149"/>
-      <c r="P329" s="149"/>
-      <c r="Q329" s="149"/>
-      <c r="R329" s="149"/>
-      <c r="S329" s="149"/>
-      <c r="T329" s="149"/>
-      <c r="U329" s="150" t="s">
+      <c r="G329" s="135"/>
+      <c r="H329" s="135"/>
+      <c r="I329" s="135"/>
+      <c r="J329" s="135"/>
+      <c r="K329" s="134"/>
+      <c r="L329" s="134"/>
+      <c r="M329" s="134"/>
+      <c r="N329" s="134"/>
+      <c r="O329" s="134"/>
+      <c r="P329" s="134"/>
+      <c r="Q329" s="134"/>
+      <c r="R329" s="134"/>
+      <c r="S329" s="134"/>
+      <c r="T329" s="134"/>
+      <c r="U329" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V329" s="151"/>
+      <c r="V329" s="143"/>
       <c r="W329" s="43"/>
     </row>
     <row r="330" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8686,26 +8686,26 @@
       <c r="D332" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="135" t="s">
+      <c r="E332" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F332" s="136"/>
-      <c r="G332" s="136"/>
+      <c r="F332" s="125"/>
+      <c r="G332" s="125"/>
       <c r="I332" s="18"/>
-      <c r="J332" s="152" t="s">
+      <c r="J332" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K332" s="152"/>
-      <c r="L332" s="152"/>
-      <c r="M332" s="152"/>
-      <c r="N332" s="152"/>
-      <c r="O332" s="152"/>
-      <c r="P332" s="152"/>
-      <c r="Q332" s="152"/>
-      <c r="R332" s="152"/>
-      <c r="S332" s="152"/>
-      <c r="T332" s="152"/>
-      <c r="U332" s="152"/>
+      <c r="K332" s="153"/>
+      <c r="L332" s="153"/>
+      <c r="M332" s="153"/>
+      <c r="N332" s="153"/>
+      <c r="O332" s="153"/>
+      <c r="P332" s="153"/>
+      <c r="Q332" s="153"/>
+      <c r="R332" s="153"/>
+      <c r="S332" s="153"/>
+      <c r="T332" s="153"/>
+      <c r="U332" s="153"/>
       <c r="V332" s="77"/>
       <c r="W332" s="20"/>
     </row>
@@ -8714,11 +8714,11 @@
       <c r="D333" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="135" t="s">
+      <c r="E333" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F333" s="136"/>
-      <c r="G333" s="136"/>
+      <c r="F333" s="125"/>
+      <c r="G333" s="125"/>
       <c r="I333" s="18"/>
       <c r="J333" s="51"/>
       <c r="K333" s="58"/>
@@ -8733,11 +8733,11 @@
       <c r="D334" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="135" t="s">
+      <c r="E334" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F334" s="136"/>
-      <c r="G334" s="136"/>
+      <c r="F334" s="125"/>
+      <c r="G334" s="125"/>
       <c r="I334" s="18"/>
       <c r="K334" s="81"/>
       <c r="L334" s="80"/>
@@ -8759,11 +8759,11 @@
       <c r="D335" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="138" t="s">
+      <c r="E335" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F335" s="139"/>
-      <c r="G335" s="139"/>
+      <c r="F335" s="127"/>
+      <c r="G335" s="127"/>
       <c r="I335" s="18" t="s">
         <v>35</v>
       </c>
@@ -8780,11 +8780,11 @@
       <c r="D336" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="135" t="s">
+      <c r="E336" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F336" s="136"/>
-      <c r="G336" s="136"/>
+      <c r="F336" s="125"/>
+      <c r="G336" s="125"/>
       <c r="I336" s="18"/>
       <c r="K336" s="82"/>
       <c r="T336" s="78"/>
@@ -8798,7 +8798,7 @@
       <c r="L337" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="N337" s="140" t="s">
+      <c r="N337" s="137" t="s">
         <v>143</v>
       </c>
       <c r="O337" s="141"/>
@@ -8825,7 +8825,7 @@
       <c r="L339" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N339" s="140" t="s">
+      <c r="N339" s="137" t="s">
         <v>144</v>
       </c>
       <c r="O339" s="141"/>
@@ -8852,7 +8852,7 @@
       <c r="L341" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N341" s="140" t="s">
+      <c r="N341" s="137" t="s">
         <v>145</v>
       </c>
       <c r="O341" s="141"/>
@@ -8879,7 +8879,7 @@
       <c r="L343" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N343" s="140" t="s">
+      <c r="N343" s="137" t="s">
         <v>146</v>
       </c>
       <c r="O343" s="141"/>
@@ -8906,14 +8906,14 @@
       <c r="L345" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="N345" s="162" t="s">
+      <c r="N345" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="O345" s="163"/>
-      <c r="P345" s="163"/>
-      <c r="Q345" s="163"/>
-      <c r="R345" s="163"/>
-      <c r="S345" s="164"/>
+      <c r="O345" s="145"/>
+      <c r="P345" s="145"/>
+      <c r="Q345" s="145"/>
+      <c r="R345" s="145"/>
+      <c r="S345" s="146"/>
       <c r="T345" s="78"/>
       <c r="V345" s="78"/>
       <c r="W345" s="20"/>
@@ -8934,7 +8934,7 @@
         <v>194</v>
       </c>
       <c r="M347" s="30"/>
-      <c r="N347" s="146" t="s">
+      <c r="N347" s="129" t="s">
         <v>148</v>
       </c>
       <c r="O347" s="147"/>
@@ -9057,75 +9057,75 @@
       <c r="W353" s="20"/>
     </row>
     <row r="354" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C354" s="126" t="s">
+      <c r="C354" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="126"/>
-      <c r="E354" s="126"/>
-      <c r="F354" s="126"/>
-      <c r="G354" s="126"/>
-      <c r="H354" s="126"/>
-      <c r="I354" s="126"/>
-      <c r="J354" s="126"/>
-      <c r="K354" s="126"/>
-      <c r="L354" s="126"/>
-      <c r="M354" s="126"/>
-      <c r="N354" s="126"/>
-      <c r="O354" s="126"/>
-      <c r="P354" s="126"/>
-      <c r="Q354" s="126"/>
-      <c r="R354" s="126"/>
-      <c r="S354" s="126"/>
-      <c r="T354" s="126"/>
-      <c r="U354" s="126"/>
-      <c r="V354" s="126"/>
-      <c r="W354" s="126"/>
+      <c r="D354" s="128"/>
+      <c r="E354" s="128"/>
+      <c r="F354" s="128"/>
+      <c r="G354" s="128"/>
+      <c r="H354" s="128"/>
+      <c r="I354" s="128"/>
+      <c r="J354" s="128"/>
+      <c r="K354" s="128"/>
+      <c r="L354" s="128"/>
+      <c r="M354" s="128"/>
+      <c r="N354" s="128"/>
+      <c r="O354" s="128"/>
+      <c r="P354" s="128"/>
+      <c r="Q354" s="128"/>
+      <c r="R354" s="128"/>
+      <c r="S354" s="128"/>
+      <c r="T354" s="128"/>
+      <c r="U354" s="128"/>
+      <c r="V354" s="128"/>
+      <c r="W354" s="128"/>
     </row>
     <row r="355" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C355" s="126"/>
-      <c r="D355" s="126"/>
-      <c r="E355" s="126"/>
-      <c r="F355" s="126"/>
-      <c r="G355" s="126"/>
-      <c r="H355" s="126"/>
-      <c r="I355" s="126"/>
-      <c r="J355" s="126"/>
-      <c r="K355" s="126"/>
-      <c r="L355" s="126"/>
-      <c r="M355" s="126"/>
-      <c r="N355" s="126"/>
-      <c r="O355" s="126"/>
-      <c r="P355" s="126"/>
-      <c r="Q355" s="126"/>
-      <c r="R355" s="126"/>
-      <c r="S355" s="126"/>
-      <c r="T355" s="126"/>
-      <c r="U355" s="126"/>
-      <c r="V355" s="126"/>
-      <c r="W355" s="126"/>
+      <c r="C355" s="128"/>
+      <c r="D355" s="128"/>
+      <c r="E355" s="128"/>
+      <c r="F355" s="128"/>
+      <c r="G355" s="128"/>
+      <c r="H355" s="128"/>
+      <c r="I355" s="128"/>
+      <c r="J355" s="128"/>
+      <c r="K355" s="128"/>
+      <c r="L355" s="128"/>
+      <c r="M355" s="128"/>
+      <c r="N355" s="128"/>
+      <c r="O355" s="128"/>
+      <c r="P355" s="128"/>
+      <c r="Q355" s="128"/>
+      <c r="R355" s="128"/>
+      <c r="S355" s="128"/>
+      <c r="T355" s="128"/>
+      <c r="U355" s="128"/>
+      <c r="V355" s="128"/>
+      <c r="W355" s="128"/>
     </row>
     <row r="356" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C356" s="126"/>
-      <c r="D356" s="126"/>
-      <c r="E356" s="126"/>
-      <c r="F356" s="126"/>
-      <c r="G356" s="126"/>
-      <c r="H356" s="126"/>
-      <c r="I356" s="126"/>
-      <c r="J356" s="126"/>
-      <c r="K356" s="126"/>
-      <c r="L356" s="126"/>
-      <c r="M356" s="126"/>
-      <c r="N356" s="126"/>
-      <c r="O356" s="126"/>
-      <c r="P356" s="126"/>
-      <c r="Q356" s="126"/>
-      <c r="R356" s="126"/>
-      <c r="S356" s="126"/>
-      <c r="T356" s="126"/>
-      <c r="U356" s="126"/>
-      <c r="V356" s="126"/>
-      <c r="W356" s="126"/>
+      <c r="C356" s="128"/>
+      <c r="D356" s="128"/>
+      <c r="E356" s="128"/>
+      <c r="F356" s="128"/>
+      <c r="G356" s="128"/>
+      <c r="H356" s="128"/>
+      <c r="I356" s="128"/>
+      <c r="J356" s="128"/>
+      <c r="K356" s="128"/>
+      <c r="L356" s="128"/>
+      <c r="M356" s="128"/>
+      <c r="N356" s="128"/>
+      <c r="O356" s="128"/>
+      <c r="P356" s="128"/>
+      <c r="Q356" s="128"/>
+      <c r="R356" s="128"/>
+      <c r="S356" s="128"/>
+      <c r="T356" s="128"/>
+      <c r="U356" s="128"/>
+      <c r="V356" s="128"/>
+      <c r="W356" s="128"/>
     </row>
     <row r="357" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C357" s="30"/>
@@ -9180,11 +9180,11 @@
     </row>
     <row r="361" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C361" s="38"/>
-      <c r="D361" s="126" t="s">
+      <c r="D361" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E361" s="126"/>
-      <c r="F361" s="126"/>
+      <c r="E361" s="128"/>
+      <c r="F361" s="128"/>
       <c r="G361" s="32"/>
       <c r="H361" s="37"/>
       <c r="I361" s="37"/>
@@ -9205,25 +9205,25 @@
     </row>
     <row r="362" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C362" s="39"/>
-      <c r="D362" s="126"/>
-      <c r="E362" s="126"/>
-      <c r="F362" s="126"/>
+      <c r="D362" s="128"/>
+      <c r="E362" s="128"/>
+      <c r="F362" s="128"/>
       <c r="G362" s="45"/>
       <c r="H362" s="33"/>
       <c r="I362" s="33"/>
       <c r="J362" s="33"/>
-      <c r="K362" s="149" t="s">
+      <c r="K362" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L362" s="149"/>
-      <c r="M362" s="149"/>
-      <c r="N362" s="149"/>
-      <c r="O362" s="149"/>
-      <c r="P362" s="149"/>
-      <c r="Q362" s="149"/>
-      <c r="R362" s="149"/>
-      <c r="S362" s="149"/>
-      <c r="T362" s="149"/>
+      <c r="L362" s="134"/>
+      <c r="M362" s="134"/>
+      <c r="N362" s="134"/>
+      <c r="O362" s="134"/>
+      <c r="P362" s="134"/>
+      <c r="Q362" s="134"/>
+      <c r="R362" s="134"/>
+      <c r="S362" s="134"/>
+      <c r="T362" s="134"/>
       <c r="U362" s="33"/>
       <c r="V362" s="33"/>
       <c r="W362" s="43"/>
@@ -9232,27 +9232,27 @@
       <c r="C363" s="39"/>
       <c r="D363" s="34"/>
       <c r="E363" s="35"/>
-      <c r="F363" s="137" t="s">
+      <c r="F363" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G363" s="137"/>
-      <c r="H363" s="137"/>
-      <c r="I363" s="137"/>
-      <c r="J363" s="137"/>
-      <c r="K363" s="149"/>
-      <c r="L363" s="149"/>
-      <c r="M363" s="149"/>
-      <c r="N363" s="149"/>
-      <c r="O363" s="149"/>
-      <c r="P363" s="149"/>
-      <c r="Q363" s="149"/>
-      <c r="R363" s="149"/>
-      <c r="S363" s="149"/>
-      <c r="T363" s="149"/>
-      <c r="U363" s="150" t="s">
+      <c r="G363" s="135"/>
+      <c r="H363" s="135"/>
+      <c r="I363" s="135"/>
+      <c r="J363" s="135"/>
+      <c r="K363" s="134"/>
+      <c r="L363" s="134"/>
+      <c r="M363" s="134"/>
+      <c r="N363" s="134"/>
+      <c r="O363" s="134"/>
+      <c r="P363" s="134"/>
+      <c r="Q363" s="134"/>
+      <c r="R363" s="134"/>
+      <c r="S363" s="134"/>
+      <c r="T363" s="134"/>
+      <c r="U363" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V363" s="151"/>
+      <c r="V363" s="143"/>
       <c r="W363" s="43"/>
     </row>
     <row r="364" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9306,26 +9306,26 @@
       <c r="D366" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E366" s="135" t="s">
+      <c r="E366" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F366" s="136"/>
-      <c r="G366" s="136"/>
+      <c r="F366" s="125"/>
+      <c r="G366" s="125"/>
       <c r="I366" s="18"/>
-      <c r="J366" s="152" t="s">
+      <c r="J366" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K366" s="152"/>
-      <c r="L366" s="152"/>
-      <c r="M366" s="152"/>
-      <c r="N366" s="152"/>
-      <c r="O366" s="152"/>
-      <c r="P366" s="152"/>
-      <c r="Q366" s="152"/>
-      <c r="R366" s="152"/>
-      <c r="S366" s="152"/>
-      <c r="T366" s="152"/>
-      <c r="U366" s="152"/>
+      <c r="K366" s="153"/>
+      <c r="L366" s="153"/>
+      <c r="M366" s="153"/>
+      <c r="N366" s="153"/>
+      <c r="O366" s="153"/>
+      <c r="P366" s="153"/>
+      <c r="Q366" s="153"/>
+      <c r="R366" s="153"/>
+      <c r="S366" s="153"/>
+      <c r="T366" s="153"/>
+      <c r="U366" s="153"/>
       <c r="V366" s="77"/>
       <c r="W366" s="20"/>
     </row>
@@ -9334,11 +9334,11 @@
       <c r="D367" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E367" s="135" t="s">
+      <c r="E367" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F367" s="136"/>
-      <c r="G367" s="136"/>
+      <c r="F367" s="125"/>
+      <c r="G367" s="125"/>
       <c r="I367" s="18"/>
       <c r="J367" s="51"/>
       <c r="K367" s="58"/>
@@ -9353,11 +9353,11 @@
       <c r="D368" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E368" s="135" t="s">
+      <c r="E368" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F368" s="136"/>
-      <c r="G368" s="136"/>
+      <c r="F368" s="125"/>
+      <c r="G368" s="125"/>
       <c r="I368" s="18"/>
       <c r="K368" s="81"/>
       <c r="L368" s="80"/>
@@ -9379,11 +9379,11 @@
       <c r="D369" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E369" s="138" t="s">
+      <c r="E369" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F369" s="139"/>
-      <c r="G369" s="139"/>
+      <c r="F369" s="127"/>
+      <c r="G369" s="127"/>
       <c r="I369" s="18" t="s">
         <v>35</v>
       </c>
@@ -9400,11 +9400,11 @@
       <c r="D370" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E370" s="135" t="s">
+      <c r="E370" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F370" s="136"/>
-      <c r="G370" s="136"/>
+      <c r="F370" s="125"/>
+      <c r="G370" s="125"/>
       <c r="I370" s="18"/>
       <c r="K370" s="82"/>
       <c r="T370" s="78"/>
@@ -9418,7 +9418,7 @@
       <c r="L371" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="N371" s="140" t="s">
+      <c r="N371" s="137" t="s">
         <v>198</v>
       </c>
       <c r="O371" s="141"/>
@@ -9445,7 +9445,7 @@
       <c r="L373" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N373" s="140" t="s">
+      <c r="N373" s="137" t="s">
         <v>21</v>
       </c>
       <c r="O373" s="141"/>
@@ -9472,7 +9472,7 @@
       <c r="L375" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N375" s="140">
+      <c r="N375" s="137">
         <v>2000</v>
       </c>
       <c r="O375" s="141"/>
@@ -9499,7 +9499,7 @@
       <c r="L377" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N377" s="140" t="s">
+      <c r="N377" s="137" t="s">
         <v>180</v>
       </c>
       <c r="O377" s="141"/>
@@ -9526,14 +9526,14 @@
       <c r="L379" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="N379" s="167" t="s">
+      <c r="N379" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="O379" s="163"/>
-      <c r="P379" s="163"/>
-      <c r="Q379" s="163"/>
-      <c r="R379" s="163"/>
-      <c r="S379" s="164"/>
+      <c r="O379" s="145"/>
+      <c r="P379" s="145"/>
+      <c r="Q379" s="145"/>
+      <c r="R379" s="145"/>
+      <c r="S379" s="146"/>
       <c r="T379" s="78"/>
       <c r="V379" s="78"/>
       <c r="W379" s="20"/>
@@ -9554,7 +9554,7 @@
         <v>194</v>
       </c>
       <c r="M381" s="30"/>
-      <c r="N381" s="146">
+      <c r="N381" s="129">
         <v>355914029</v>
       </c>
       <c r="O381" s="147"/>
@@ -9677,75 +9677,75 @@
       <c r="W387" s="20"/>
     </row>
     <row r="388" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C388" s="126" t="s">
+      <c r="C388" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D388" s="126"/>
-      <c r="E388" s="126"/>
-      <c r="F388" s="126"/>
-      <c r="G388" s="126"/>
-      <c r="H388" s="126"/>
-      <c r="I388" s="126"/>
-      <c r="J388" s="126"/>
-      <c r="K388" s="126"/>
-      <c r="L388" s="126"/>
-      <c r="M388" s="126"/>
-      <c r="N388" s="126"/>
-      <c r="O388" s="126"/>
-      <c r="P388" s="126"/>
-      <c r="Q388" s="126"/>
-      <c r="R388" s="126"/>
-      <c r="S388" s="126"/>
-      <c r="T388" s="126"/>
-      <c r="U388" s="126"/>
-      <c r="V388" s="126"/>
-      <c r="W388" s="126"/>
+      <c r="D388" s="128"/>
+      <c r="E388" s="128"/>
+      <c r="F388" s="128"/>
+      <c r="G388" s="128"/>
+      <c r="H388" s="128"/>
+      <c r="I388" s="128"/>
+      <c r="J388" s="128"/>
+      <c r="K388" s="128"/>
+      <c r="L388" s="128"/>
+      <c r="M388" s="128"/>
+      <c r="N388" s="128"/>
+      <c r="O388" s="128"/>
+      <c r="P388" s="128"/>
+      <c r="Q388" s="128"/>
+      <c r="R388" s="128"/>
+      <c r="S388" s="128"/>
+      <c r="T388" s="128"/>
+      <c r="U388" s="128"/>
+      <c r="V388" s="128"/>
+      <c r="W388" s="128"/>
     </row>
     <row r="389" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C389" s="126"/>
-      <c r="D389" s="126"/>
-      <c r="E389" s="126"/>
-      <c r="F389" s="126"/>
-      <c r="G389" s="126"/>
-      <c r="H389" s="126"/>
-      <c r="I389" s="126"/>
-      <c r="J389" s="126"/>
-      <c r="K389" s="126"/>
-      <c r="L389" s="126"/>
-      <c r="M389" s="126"/>
-      <c r="N389" s="126"/>
-      <c r="O389" s="126"/>
-      <c r="P389" s="126"/>
-      <c r="Q389" s="126"/>
-      <c r="R389" s="126"/>
-      <c r="S389" s="126"/>
-      <c r="T389" s="126"/>
-      <c r="U389" s="126"/>
-      <c r="V389" s="126"/>
-      <c r="W389" s="126"/>
+      <c r="C389" s="128"/>
+      <c r="D389" s="128"/>
+      <c r="E389" s="128"/>
+      <c r="F389" s="128"/>
+      <c r="G389" s="128"/>
+      <c r="H389" s="128"/>
+      <c r="I389" s="128"/>
+      <c r="J389" s="128"/>
+      <c r="K389" s="128"/>
+      <c r="L389" s="128"/>
+      <c r="M389" s="128"/>
+      <c r="N389" s="128"/>
+      <c r="O389" s="128"/>
+      <c r="P389" s="128"/>
+      <c r="Q389" s="128"/>
+      <c r="R389" s="128"/>
+      <c r="S389" s="128"/>
+      <c r="T389" s="128"/>
+      <c r="U389" s="128"/>
+      <c r="V389" s="128"/>
+      <c r="W389" s="128"/>
     </row>
     <row r="390" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C390" s="126"/>
-      <c r="D390" s="126"/>
-      <c r="E390" s="126"/>
-      <c r="F390" s="126"/>
-      <c r="G390" s="126"/>
-      <c r="H390" s="126"/>
-      <c r="I390" s="126"/>
-      <c r="J390" s="126"/>
-      <c r="K390" s="126"/>
-      <c r="L390" s="126"/>
-      <c r="M390" s="126"/>
-      <c r="N390" s="126"/>
-      <c r="O390" s="126"/>
-      <c r="P390" s="126"/>
-      <c r="Q390" s="126"/>
-      <c r="R390" s="126"/>
-      <c r="S390" s="126"/>
-      <c r="T390" s="126"/>
-      <c r="U390" s="126"/>
-      <c r="V390" s="126"/>
-      <c r="W390" s="126"/>
+      <c r="C390" s="128"/>
+      <c r="D390" s="128"/>
+      <c r="E390" s="128"/>
+      <c r="F390" s="128"/>
+      <c r="G390" s="128"/>
+      <c r="H390" s="128"/>
+      <c r="I390" s="128"/>
+      <c r="J390" s="128"/>
+      <c r="K390" s="128"/>
+      <c r="L390" s="128"/>
+      <c r="M390" s="128"/>
+      <c r="N390" s="128"/>
+      <c r="O390" s="128"/>
+      <c r="P390" s="128"/>
+      <c r="Q390" s="128"/>
+      <c r="R390" s="128"/>
+      <c r="S390" s="128"/>
+      <c r="T390" s="128"/>
+      <c r="U390" s="128"/>
+      <c r="V390" s="128"/>
+      <c r="W390" s="128"/>
     </row>
     <row r="391" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C391" s="45"/>
@@ -9777,11 +9777,11 @@
     </row>
     <row r="394" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C394" s="38"/>
-      <c r="D394" s="126" t="s">
+      <c r="D394" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E394" s="126"/>
-      <c r="F394" s="126"/>
+      <c r="E394" s="128"/>
+      <c r="F394" s="128"/>
       <c r="G394" s="32"/>
       <c r="H394" s="37"/>
       <c r="I394" s="37"/>
@@ -9802,25 +9802,25 @@
     </row>
     <row r="395" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C395" s="39"/>
-      <c r="D395" s="126"/>
-      <c r="E395" s="126"/>
-      <c r="F395" s="126"/>
+      <c r="D395" s="128"/>
+      <c r="E395" s="128"/>
+      <c r="F395" s="128"/>
       <c r="G395" s="45"/>
       <c r="H395" s="33"/>
       <c r="I395" s="33"/>
       <c r="J395" s="33"/>
-      <c r="K395" s="149" t="s">
+      <c r="K395" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L395" s="149"/>
-      <c r="M395" s="149"/>
-      <c r="N395" s="149"/>
-      <c r="O395" s="149"/>
-      <c r="P395" s="149"/>
-      <c r="Q395" s="149"/>
-      <c r="R395" s="149"/>
-      <c r="S395" s="149"/>
-      <c r="T395" s="149"/>
+      <c r="L395" s="134"/>
+      <c r="M395" s="134"/>
+      <c r="N395" s="134"/>
+      <c r="O395" s="134"/>
+      <c r="P395" s="134"/>
+      <c r="Q395" s="134"/>
+      <c r="R395" s="134"/>
+      <c r="S395" s="134"/>
+      <c r="T395" s="134"/>
       <c r="U395" s="33"/>
       <c r="V395" s="33"/>
       <c r="W395" s="43"/>
@@ -9829,27 +9829,27 @@
       <c r="C396" s="39"/>
       <c r="D396" s="34"/>
       <c r="E396" s="35"/>
-      <c r="F396" s="137" t="s">
+      <c r="F396" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G396" s="137"/>
-      <c r="H396" s="137"/>
-      <c r="I396" s="137"/>
-      <c r="J396" s="137"/>
-      <c r="K396" s="149"/>
-      <c r="L396" s="149"/>
-      <c r="M396" s="149"/>
-      <c r="N396" s="149"/>
-      <c r="O396" s="149"/>
-      <c r="P396" s="149"/>
-      <c r="Q396" s="149"/>
-      <c r="R396" s="149"/>
-      <c r="S396" s="149"/>
-      <c r="T396" s="149"/>
-      <c r="U396" s="150" t="s">
+      <c r="G396" s="135"/>
+      <c r="H396" s="135"/>
+      <c r="I396" s="135"/>
+      <c r="J396" s="135"/>
+      <c r="K396" s="134"/>
+      <c r="L396" s="134"/>
+      <c r="M396" s="134"/>
+      <c r="N396" s="134"/>
+      <c r="O396" s="134"/>
+      <c r="P396" s="134"/>
+      <c r="Q396" s="134"/>
+      <c r="R396" s="134"/>
+      <c r="S396" s="134"/>
+      <c r="T396" s="134"/>
+      <c r="U396" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V396" s="151"/>
+      <c r="V396" s="143"/>
       <c r="W396" s="43"/>
     </row>
     <row r="397" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9903,26 +9903,26 @@
       <c r="D399" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="135" t="s">
+      <c r="E399" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F399" s="136"/>
-      <c r="G399" s="136"/>
+      <c r="F399" s="125"/>
+      <c r="G399" s="125"/>
       <c r="I399" s="18"/>
-      <c r="J399" s="152" t="s">
+      <c r="J399" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K399" s="152"/>
-      <c r="L399" s="152"/>
-      <c r="M399" s="152"/>
-      <c r="N399" s="152"/>
-      <c r="O399" s="152"/>
-      <c r="P399" s="152"/>
-      <c r="Q399" s="152"/>
-      <c r="R399" s="152"/>
-      <c r="S399" s="152"/>
-      <c r="T399" s="152"/>
-      <c r="U399" s="152"/>
+      <c r="K399" s="153"/>
+      <c r="L399" s="153"/>
+      <c r="M399" s="153"/>
+      <c r="N399" s="153"/>
+      <c r="O399" s="153"/>
+      <c r="P399" s="153"/>
+      <c r="Q399" s="153"/>
+      <c r="R399" s="153"/>
+      <c r="S399" s="153"/>
+      <c r="T399" s="153"/>
+      <c r="U399" s="153"/>
       <c r="V399" s="77"/>
       <c r="W399" s="20"/>
     </row>
@@ -9931,11 +9931,11 @@
       <c r="D400" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="135" t="s">
+      <c r="E400" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F400" s="136"/>
-      <c r="G400" s="136"/>
+      <c r="F400" s="125"/>
+      <c r="G400" s="125"/>
       <c r="I400" s="18"/>
       <c r="J400" s="51"/>
       <c r="K400" s="58"/>
@@ -9950,11 +9950,11 @@
       <c r="D401" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="135" t="s">
+      <c r="E401" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F401" s="136"/>
-      <c r="G401" s="136"/>
+      <c r="F401" s="125"/>
+      <c r="G401" s="125"/>
       <c r="I401" s="18"/>
       <c r="V401" s="78"/>
       <c r="W401" s="20"/>
@@ -9964,11 +9964,11 @@
       <c r="D402" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="138" t="s">
+      <c r="E402" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="F402" s="139"/>
-      <c r="G402" s="139"/>
+      <c r="F402" s="127"/>
+      <c r="G402" s="127"/>
       <c r="I402" s="18" t="s">
         <v>35</v>
       </c>
@@ -9990,11 +9990,11 @@
       <c r="D403" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="135" t="s">
+      <c r="E403" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F403" s="136"/>
-      <c r="G403" s="136"/>
+      <c r="F403" s="125"/>
+      <c r="G403" s="125"/>
       <c r="I403" s="18"/>
       <c r="L403" s="82"/>
       <c r="M403" s="88" t="s">
@@ -10139,75 +10139,75 @@
       <c r="W417" s="20"/>
     </row>
     <row r="418" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C418" s="126" t="s">
+      <c r="C418" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D418" s="126"/>
-      <c r="E418" s="126"/>
-      <c r="F418" s="126"/>
-      <c r="G418" s="126"/>
-      <c r="H418" s="126"/>
-      <c r="I418" s="126"/>
-      <c r="J418" s="126"/>
-      <c r="K418" s="126"/>
-      <c r="L418" s="126"/>
-      <c r="M418" s="126"/>
-      <c r="N418" s="126"/>
-      <c r="O418" s="126"/>
-      <c r="P418" s="126"/>
-      <c r="Q418" s="126"/>
-      <c r="R418" s="126"/>
-      <c r="S418" s="126"/>
-      <c r="T418" s="126"/>
-      <c r="U418" s="126"/>
-      <c r="V418" s="126"/>
-      <c r="W418" s="126"/>
+      <c r="D418" s="128"/>
+      <c r="E418" s="128"/>
+      <c r="F418" s="128"/>
+      <c r="G418" s="128"/>
+      <c r="H418" s="128"/>
+      <c r="I418" s="128"/>
+      <c r="J418" s="128"/>
+      <c r="K418" s="128"/>
+      <c r="L418" s="128"/>
+      <c r="M418" s="128"/>
+      <c r="N418" s="128"/>
+      <c r="O418" s="128"/>
+      <c r="P418" s="128"/>
+      <c r="Q418" s="128"/>
+      <c r="R418" s="128"/>
+      <c r="S418" s="128"/>
+      <c r="T418" s="128"/>
+      <c r="U418" s="128"/>
+      <c r="V418" s="128"/>
+      <c r="W418" s="128"/>
     </row>
     <row r="419" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C419" s="126"/>
-      <c r="D419" s="126"/>
-      <c r="E419" s="126"/>
-      <c r="F419" s="126"/>
-      <c r="G419" s="126"/>
-      <c r="H419" s="126"/>
-      <c r="I419" s="126"/>
-      <c r="J419" s="126"/>
-      <c r="K419" s="126"/>
-      <c r="L419" s="126"/>
-      <c r="M419" s="126"/>
-      <c r="N419" s="126"/>
-      <c r="O419" s="126"/>
-      <c r="P419" s="126"/>
-      <c r="Q419" s="126"/>
-      <c r="R419" s="126"/>
-      <c r="S419" s="126"/>
-      <c r="T419" s="126"/>
-      <c r="U419" s="126"/>
-      <c r="V419" s="126"/>
-      <c r="W419" s="126"/>
+      <c r="C419" s="128"/>
+      <c r="D419" s="128"/>
+      <c r="E419" s="128"/>
+      <c r="F419" s="128"/>
+      <c r="G419" s="128"/>
+      <c r="H419" s="128"/>
+      <c r="I419" s="128"/>
+      <c r="J419" s="128"/>
+      <c r="K419" s="128"/>
+      <c r="L419" s="128"/>
+      <c r="M419" s="128"/>
+      <c r="N419" s="128"/>
+      <c r="O419" s="128"/>
+      <c r="P419" s="128"/>
+      <c r="Q419" s="128"/>
+      <c r="R419" s="128"/>
+      <c r="S419" s="128"/>
+      <c r="T419" s="128"/>
+      <c r="U419" s="128"/>
+      <c r="V419" s="128"/>
+      <c r="W419" s="128"/>
     </row>
     <row r="420" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C420" s="126"/>
-      <c r="D420" s="126"/>
-      <c r="E420" s="126"/>
-      <c r="F420" s="126"/>
-      <c r="G420" s="126"/>
-      <c r="H420" s="126"/>
-      <c r="I420" s="126"/>
-      <c r="J420" s="126"/>
-      <c r="K420" s="126"/>
-      <c r="L420" s="126"/>
-      <c r="M420" s="126"/>
-      <c r="N420" s="126"/>
-      <c r="O420" s="126"/>
-      <c r="P420" s="126"/>
-      <c r="Q420" s="126"/>
-      <c r="R420" s="126"/>
-      <c r="S420" s="126"/>
-      <c r="T420" s="126"/>
-      <c r="U420" s="126"/>
-      <c r="V420" s="126"/>
-      <c r="W420" s="126"/>
+      <c r="C420" s="128"/>
+      <c r="D420" s="128"/>
+      <c r="E420" s="128"/>
+      <c r="F420" s="128"/>
+      <c r="G420" s="128"/>
+      <c r="H420" s="128"/>
+      <c r="I420" s="128"/>
+      <c r="J420" s="128"/>
+      <c r="K420" s="128"/>
+      <c r="L420" s="128"/>
+      <c r="M420" s="128"/>
+      <c r="N420" s="128"/>
+      <c r="O420" s="128"/>
+      <c r="P420" s="128"/>
+      <c r="Q420" s="128"/>
+      <c r="R420" s="128"/>
+      <c r="S420" s="128"/>
+      <c r="T420" s="128"/>
+      <c r="U420" s="128"/>
+      <c r="V420" s="128"/>
+      <c r="W420" s="128"/>
     </row>
     <row r="423" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B423" s="61" t="s">
@@ -10216,11 +10216,11 @@
     </row>
     <row r="425" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C425" s="38"/>
-      <c r="D425" s="126" t="s">
+      <c r="D425" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E425" s="126"/>
-      <c r="F425" s="126"/>
+      <c r="E425" s="128"/>
+      <c r="F425" s="128"/>
       <c r="G425" s="32"/>
       <c r="H425" s="37"/>
       <c r="I425" s="37"/>
@@ -10241,25 +10241,25 @@
     </row>
     <row r="426" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C426" s="39"/>
-      <c r="D426" s="126"/>
-      <c r="E426" s="126"/>
-      <c r="F426" s="126"/>
+      <c r="D426" s="128"/>
+      <c r="E426" s="128"/>
+      <c r="F426" s="128"/>
       <c r="G426" s="45"/>
       <c r="H426" s="33"/>
       <c r="I426" s="33"/>
       <c r="J426" s="33"/>
-      <c r="K426" s="149" t="s">
+      <c r="K426" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L426" s="149"/>
-      <c r="M426" s="149"/>
-      <c r="N426" s="149"/>
-      <c r="O426" s="149"/>
-      <c r="P426" s="149"/>
-      <c r="Q426" s="149"/>
-      <c r="R426" s="149"/>
-      <c r="S426" s="149"/>
-      <c r="T426" s="149"/>
+      <c r="L426" s="134"/>
+      <c r="M426" s="134"/>
+      <c r="N426" s="134"/>
+      <c r="O426" s="134"/>
+      <c r="P426" s="134"/>
+      <c r="Q426" s="134"/>
+      <c r="R426" s="134"/>
+      <c r="S426" s="134"/>
+      <c r="T426" s="134"/>
       <c r="U426" s="33"/>
       <c r="V426" s="33"/>
       <c r="W426" s="43"/>
@@ -10268,27 +10268,27 @@
       <c r="C427" s="39"/>
       <c r="D427" s="34"/>
       <c r="E427" s="35"/>
-      <c r="F427" s="137" t="s">
+      <c r="F427" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G427" s="137"/>
-      <c r="H427" s="137"/>
-      <c r="I427" s="137"/>
-      <c r="J427" s="137"/>
-      <c r="K427" s="149"/>
-      <c r="L427" s="149"/>
-      <c r="M427" s="149"/>
-      <c r="N427" s="149"/>
-      <c r="O427" s="149"/>
-      <c r="P427" s="149"/>
-      <c r="Q427" s="149"/>
-      <c r="R427" s="149"/>
-      <c r="S427" s="149"/>
-      <c r="T427" s="149"/>
-      <c r="U427" s="150" t="s">
+      <c r="G427" s="135"/>
+      <c r="H427" s="135"/>
+      <c r="I427" s="135"/>
+      <c r="J427" s="135"/>
+      <c r="K427" s="134"/>
+      <c r="L427" s="134"/>
+      <c r="M427" s="134"/>
+      <c r="N427" s="134"/>
+      <c r="O427" s="134"/>
+      <c r="P427" s="134"/>
+      <c r="Q427" s="134"/>
+      <c r="R427" s="134"/>
+      <c r="S427" s="134"/>
+      <c r="T427" s="134"/>
+      <c r="U427" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V427" s="151"/>
+      <c r="V427" s="143"/>
       <c r="W427" s="43"/>
     </row>
     <row r="428" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10342,26 +10342,26 @@
       <c r="D430" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E430" s="135" t="s">
+      <c r="E430" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F430" s="136"/>
-      <c r="G430" s="136"/>
+      <c r="F430" s="125"/>
+      <c r="G430" s="125"/>
       <c r="I430" s="18"/>
-      <c r="J430" s="152" t="s">
+      <c r="J430" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="K430" s="152"/>
-      <c r="L430" s="152"/>
-      <c r="M430" s="152"/>
-      <c r="N430" s="152"/>
-      <c r="O430" s="152"/>
-      <c r="P430" s="152"/>
-      <c r="Q430" s="152"/>
-      <c r="R430" s="152"/>
-      <c r="S430" s="152"/>
-      <c r="T430" s="152"/>
-      <c r="U430" s="152"/>
+      <c r="K430" s="153"/>
+      <c r="L430" s="153"/>
+      <c r="M430" s="153"/>
+      <c r="N430" s="153"/>
+      <c r="O430" s="153"/>
+      <c r="P430" s="153"/>
+      <c r="Q430" s="153"/>
+      <c r="R430" s="153"/>
+      <c r="S430" s="153"/>
+      <c r="T430" s="153"/>
+      <c r="U430" s="153"/>
       <c r="V430" s="20"/>
       <c r="W430" s="20"/>
     </row>
@@ -10370,11 +10370,11 @@
       <c r="D431" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E431" s="135" t="s">
+      <c r="E431" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F431" s="136"/>
-      <c r="G431" s="136"/>
+      <c r="F431" s="125"/>
+      <c r="G431" s="125"/>
       <c r="I431" s="18"/>
       <c r="J431" s="51"/>
       <c r="K431" s="58"/>
@@ -10389,19 +10389,19 @@
       <c r="D432" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E432" s="135" t="s">
+      <c r="E432" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F432" s="136"/>
-      <c r="G432" s="136"/>
+      <c r="F432" s="125"/>
+      <c r="G432" s="125"/>
       <c r="I432" s="18"/>
-      <c r="J432" s="146" t="s">
+      <c r="J432" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="K432" s="146"/>
-      <c r="L432" s="146"/>
-      <c r="M432" s="146"/>
-      <c r="N432" s="146"/>
+      <c r="K432" s="129"/>
+      <c r="L432" s="129"/>
+      <c r="M432" s="129"/>
+      <c r="N432" s="129"/>
       <c r="O432" s="35"/>
       <c r="P432" s="94" t="s">
         <v>16</v>
@@ -10409,11 +10409,11 @@
       <c r="R432" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S432" s="155" t="s">
+      <c r="S432" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="T432" s="155"/>
-      <c r="U432" s="155"/>
+      <c r="T432" s="130"/>
+      <c r="U432" s="130"/>
       <c r="V432" s="95"/>
       <c r="W432" s="20"/>
     </row>
@@ -10422,11 +10422,11 @@
       <c r="D433" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E433" s="135" t="s">
+      <c r="E433" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F433" s="136"/>
-      <c r="G433" s="136"/>
+      <c r="F433" s="125"/>
+      <c r="G433" s="125"/>
       <c r="I433" s="18" t="s">
         <v>35</v>
       </c>
@@ -10442,36 +10442,36 @@
       <c r="D434" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E434" s="138" t="s">
+      <c r="E434" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F434" s="139"/>
-      <c r="G434" s="139"/>
+      <c r="F434" s="127"/>
+      <c r="G434" s="127"/>
       <c r="I434" s="18"/>
       <c r="J434" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K434" s="157" t="s">
+      <c r="K434" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="L434" s="157"/>
-      <c r="M434" s="158" t="s">
+      <c r="L434" s="154"/>
+      <c r="M434" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="N434" s="158"/>
-      <c r="O434" s="158" t="s">
+      <c r="N434" s="138"/>
+      <c r="O434" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="P434" s="158"/>
-      <c r="Q434" s="158" t="s">
+      <c r="P434" s="138"/>
+      <c r="Q434" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="R434" s="158"/>
-      <c r="S434" s="158"/>
-      <c r="T434" s="158" t="s">
+      <c r="R434" s="138"/>
+      <c r="S434" s="138"/>
+      <c r="T434" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="U434" s="158"/>
+      <c r="U434" s="138"/>
       <c r="V434" s="20"/>
       <c r="W434" s="20"/>
     </row>
@@ -10481,23 +10481,23 @@
       <c r="J435" s="67">
         <v>1</v>
       </c>
-      <c r="K435" s="165" t="s">
+      <c r="K435" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L435" s="159"/>
-      <c r="M435" s="166">
+      <c r="L435" s="140"/>
+      <c r="M435" s="136">
         <v>123456</v>
       </c>
-      <c r="N435" s="166"/>
-      <c r="O435" s="140" t="s">
+      <c r="N435" s="136"/>
+      <c r="O435" s="137" t="s">
         <v>205</v>
       </c>
-      <c r="P435" s="140"/>
-      <c r="Q435" s="122" t="s">
+      <c r="P435" s="137"/>
+      <c r="Q435" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R435" s="123"/>
-      <c r="S435" s="161"/>
+      <c r="R435" s="132"/>
+      <c r="S435" s="133"/>
       <c r="T435" s="73" t="s">
         <v>217</v>
       </c>
@@ -10514,27 +10514,27 @@
       <c r="J436" s="67">
         <v>2</v>
       </c>
-      <c r="K436" s="165" t="s">
+      <c r="K436" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L436" s="159"/>
-      <c r="M436" s="166">
+      <c r="L436" s="140"/>
+      <c r="M436" s="136">
         <v>654321</v>
       </c>
-      <c r="N436" s="166">
+      <c r="N436" s="136">
         <v>2001</v>
       </c>
-      <c r="O436" s="140" t="s">
+      <c r="O436" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="P436" s="140"/>
-      <c r="Q436" s="122" t="s">
+      <c r="P436" s="137"/>
+      <c r="Q436" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="R436" s="123" t="s">
+      <c r="R436" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="S436" s="161"/>
+      <c r="S436" s="133"/>
       <c r="T436" s="73" t="s">
         <v>217</v>
       </c>
@@ -10550,25 +10550,25 @@
       <c r="J437" s="67">
         <v>3</v>
       </c>
-      <c r="K437" s="165" t="s">
+      <c r="K437" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L437" s="159"/>
-      <c r="M437" s="166">
+      <c r="L437" s="140"/>
+      <c r="M437" s="136">
         <v>123456</v>
       </c>
-      <c r="N437" s="166"/>
-      <c r="O437" s="140" t="s">
+      <c r="N437" s="136"/>
+      <c r="O437" s="137" t="s">
         <v>207</v>
       </c>
-      <c r="P437" s="140"/>
-      <c r="Q437" s="122" t="s">
+      <c r="P437" s="137"/>
+      <c r="Q437" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="R437" s="123" t="s">
+      <c r="R437" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="S437" s="161"/>
+      <c r="S437" s="133"/>
       <c r="T437" s="73" t="s">
         <v>217</v>
       </c>
@@ -10584,23 +10584,23 @@
       <c r="J438" s="67">
         <v>4</v>
       </c>
-      <c r="K438" s="165" t="s">
+      <c r="K438" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L438" s="159"/>
-      <c r="M438" s="166">
+      <c r="L438" s="140"/>
+      <c r="M438" s="136">
         <v>123456</v>
       </c>
-      <c r="N438" s="166"/>
-      <c r="O438" s="140" t="s">
+      <c r="N438" s="136"/>
+      <c r="O438" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="P438" s="140"/>
-      <c r="Q438" s="122" t="s">
+      <c r="P438" s="137"/>
+      <c r="Q438" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R438" s="123"/>
-      <c r="S438" s="161"/>
+      <c r="R438" s="132"/>
+      <c r="S438" s="133"/>
       <c r="T438" s="73" t="s">
         <v>217</v>
       </c>
@@ -10616,23 +10616,23 @@
       <c r="J439" s="67">
         <v>5</v>
       </c>
-      <c r="K439" s="165" t="s">
+      <c r="K439" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L439" s="159"/>
-      <c r="M439" s="166">
+      <c r="L439" s="140"/>
+      <c r="M439" s="136">
         <v>123456</v>
       </c>
-      <c r="N439" s="166"/>
-      <c r="O439" s="140" t="s">
+      <c r="N439" s="136"/>
+      <c r="O439" s="137" t="s">
         <v>209</v>
       </c>
-      <c r="P439" s="140"/>
-      <c r="Q439" s="122" t="s">
+      <c r="P439" s="137"/>
+      <c r="Q439" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R439" s="123"/>
-      <c r="S439" s="161"/>
+      <c r="R439" s="132"/>
+      <c r="S439" s="133"/>
       <c r="T439" s="73" t="s">
         <v>217</v>
       </c>
@@ -10648,23 +10648,23 @@
       <c r="J440" s="67">
         <v>6</v>
       </c>
-      <c r="K440" s="165" t="s">
+      <c r="K440" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L440" s="159"/>
-      <c r="M440" s="166">
+      <c r="L440" s="140"/>
+      <c r="M440" s="136">
         <v>123456</v>
       </c>
-      <c r="N440" s="166"/>
-      <c r="O440" s="140" t="s">
+      <c r="N440" s="136"/>
+      <c r="O440" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="P440" s="140"/>
-      <c r="Q440" s="122" t="s">
+      <c r="P440" s="137"/>
+      <c r="Q440" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R440" s="123"/>
-      <c r="S440" s="161"/>
+      <c r="R440" s="132"/>
+      <c r="S440" s="133"/>
       <c r="T440" s="73" t="s">
         <v>217</v>
       </c>
@@ -10680,23 +10680,23 @@
       <c r="J441" s="67">
         <v>7</v>
       </c>
-      <c r="K441" s="165" t="s">
+      <c r="K441" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L441" s="159"/>
-      <c r="M441" s="166">
+      <c r="L441" s="140"/>
+      <c r="M441" s="136">
         <v>123456</v>
       </c>
-      <c r="N441" s="166"/>
-      <c r="O441" s="140" t="s">
+      <c r="N441" s="136"/>
+      <c r="O441" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="P441" s="140"/>
-      <c r="Q441" s="122" t="s">
+      <c r="P441" s="137"/>
+      <c r="Q441" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R441" s="123"/>
-      <c r="S441" s="161"/>
+      <c r="R441" s="132"/>
+      <c r="S441" s="133"/>
       <c r="T441" s="73" t="s">
         <v>217</v>
       </c>
@@ -10712,23 +10712,23 @@
       <c r="J442" s="67">
         <v>8</v>
       </c>
-      <c r="K442" s="165" t="s">
+      <c r="K442" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L442" s="159"/>
-      <c r="M442" s="166">
+      <c r="L442" s="140"/>
+      <c r="M442" s="136">
         <v>123456</v>
       </c>
-      <c r="N442" s="166"/>
-      <c r="O442" s="140" t="s">
+      <c r="N442" s="136"/>
+      <c r="O442" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="P442" s="140"/>
-      <c r="Q442" s="122" t="s">
+      <c r="P442" s="137"/>
+      <c r="Q442" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R442" s="123"/>
-      <c r="S442" s="161"/>
+      <c r="R442" s="132"/>
+      <c r="S442" s="133"/>
       <c r="T442" s="73" t="s">
         <v>217</v>
       </c>
@@ -10744,23 +10744,23 @@
       <c r="J443" s="67">
         <v>9</v>
       </c>
-      <c r="K443" s="165" t="s">
+      <c r="K443" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L443" s="159"/>
-      <c r="M443" s="166">
+      <c r="L443" s="140"/>
+      <c r="M443" s="136">
         <v>123456</v>
       </c>
-      <c r="N443" s="166"/>
-      <c r="O443" s="140" t="s">
+      <c r="N443" s="136"/>
+      <c r="O443" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="P443" s="140"/>
-      <c r="Q443" s="122" t="s">
+      <c r="P443" s="137"/>
+      <c r="Q443" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R443" s="123"/>
-      <c r="S443" s="161"/>
+      <c r="R443" s="132"/>
+      <c r="S443" s="133"/>
       <c r="T443" s="73" t="s">
         <v>217</v>
       </c>
@@ -10776,23 +10776,23 @@
       <c r="J444" s="67">
         <v>10</v>
       </c>
-      <c r="K444" s="165" t="s">
+      <c r="K444" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="L444" s="159"/>
-      <c r="M444" s="166">
+      <c r="L444" s="140"/>
+      <c r="M444" s="136">
         <v>123456</v>
       </c>
-      <c r="N444" s="166"/>
-      <c r="O444" s="140" t="s">
+      <c r="N444" s="136"/>
+      <c r="O444" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="P444" s="140"/>
-      <c r="Q444" s="122" t="s">
+      <c r="P444" s="137"/>
+      <c r="Q444" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="R444" s="123"/>
-      <c r="S444" s="161"/>
+      <c r="R444" s="132"/>
+      <c r="S444" s="133"/>
       <c r="T444" s="73" t="s">
         <v>217</v>
       </c>
@@ -10857,75 +10857,75 @@
       <c r="W448" s="20"/>
     </row>
     <row r="449" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C449" s="126" t="s">
+      <c r="C449" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D449" s="126"/>
-      <c r="E449" s="126"/>
-      <c r="F449" s="126"/>
-      <c r="G449" s="126"/>
-      <c r="H449" s="126"/>
-      <c r="I449" s="126"/>
-      <c r="J449" s="126"/>
-      <c r="K449" s="126"/>
-      <c r="L449" s="126"/>
-      <c r="M449" s="126"/>
-      <c r="N449" s="126"/>
-      <c r="O449" s="126"/>
-      <c r="P449" s="126"/>
-      <c r="Q449" s="126"/>
-      <c r="R449" s="126"/>
-      <c r="S449" s="126"/>
-      <c r="T449" s="126"/>
-      <c r="U449" s="126"/>
-      <c r="V449" s="126"/>
-      <c r="W449" s="126"/>
+      <c r="D449" s="128"/>
+      <c r="E449" s="128"/>
+      <c r="F449" s="128"/>
+      <c r="G449" s="128"/>
+      <c r="H449" s="128"/>
+      <c r="I449" s="128"/>
+      <c r="J449" s="128"/>
+      <c r="K449" s="128"/>
+      <c r="L449" s="128"/>
+      <c r="M449" s="128"/>
+      <c r="N449" s="128"/>
+      <c r="O449" s="128"/>
+      <c r="P449" s="128"/>
+      <c r="Q449" s="128"/>
+      <c r="R449" s="128"/>
+      <c r="S449" s="128"/>
+      <c r="T449" s="128"/>
+      <c r="U449" s="128"/>
+      <c r="V449" s="128"/>
+      <c r="W449" s="128"/>
     </row>
     <row r="450" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C450" s="126"/>
-      <c r="D450" s="126"/>
-      <c r="E450" s="126"/>
-      <c r="F450" s="126"/>
-      <c r="G450" s="126"/>
-      <c r="H450" s="126"/>
-      <c r="I450" s="126"/>
-      <c r="J450" s="126"/>
-      <c r="K450" s="126"/>
-      <c r="L450" s="126"/>
-      <c r="M450" s="126"/>
-      <c r="N450" s="126"/>
-      <c r="O450" s="126"/>
-      <c r="P450" s="126"/>
-      <c r="Q450" s="126"/>
-      <c r="R450" s="126"/>
-      <c r="S450" s="126"/>
-      <c r="T450" s="126"/>
-      <c r="U450" s="126"/>
-      <c r="V450" s="126"/>
-      <c r="W450" s="126"/>
+      <c r="C450" s="128"/>
+      <c r="D450" s="128"/>
+      <c r="E450" s="128"/>
+      <c r="F450" s="128"/>
+      <c r="G450" s="128"/>
+      <c r="H450" s="128"/>
+      <c r="I450" s="128"/>
+      <c r="J450" s="128"/>
+      <c r="K450" s="128"/>
+      <c r="L450" s="128"/>
+      <c r="M450" s="128"/>
+      <c r="N450" s="128"/>
+      <c r="O450" s="128"/>
+      <c r="P450" s="128"/>
+      <c r="Q450" s="128"/>
+      <c r="R450" s="128"/>
+      <c r="S450" s="128"/>
+      <c r="T450" s="128"/>
+      <c r="U450" s="128"/>
+      <c r="V450" s="128"/>
+      <c r="W450" s="128"/>
     </row>
     <row r="451" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C451" s="126"/>
-      <c r="D451" s="126"/>
-      <c r="E451" s="126"/>
-      <c r="F451" s="126"/>
-      <c r="G451" s="126"/>
-      <c r="H451" s="126"/>
-      <c r="I451" s="126"/>
-      <c r="J451" s="126"/>
-      <c r="K451" s="126"/>
-      <c r="L451" s="126"/>
-      <c r="M451" s="126"/>
-      <c r="N451" s="126"/>
-      <c r="O451" s="126"/>
-      <c r="P451" s="126"/>
-      <c r="Q451" s="126"/>
-      <c r="R451" s="126"/>
-      <c r="S451" s="126"/>
-      <c r="T451" s="126"/>
-      <c r="U451" s="126"/>
-      <c r="V451" s="126"/>
-      <c r="W451" s="126"/>
+      <c r="C451" s="128"/>
+      <c r="D451" s="128"/>
+      <c r="E451" s="128"/>
+      <c r="F451" s="128"/>
+      <c r="G451" s="128"/>
+      <c r="H451" s="128"/>
+      <c r="I451" s="128"/>
+      <c r="J451" s="128"/>
+      <c r="K451" s="128"/>
+      <c r="L451" s="128"/>
+      <c r="M451" s="128"/>
+      <c r="N451" s="128"/>
+      <c r="O451" s="128"/>
+      <c r="P451" s="128"/>
+      <c r="Q451" s="128"/>
+      <c r="R451" s="128"/>
+      <c r="S451" s="128"/>
+      <c r="T451" s="128"/>
+      <c r="U451" s="128"/>
+      <c r="V451" s="128"/>
+      <c r="W451" s="128"/>
     </row>
     <row r="453" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C453" s="61" t="s">
@@ -10934,11 +10934,11 @@
     </row>
     <row r="455" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C455" s="38"/>
-      <c r="D455" s="126" t="s">
+      <c r="D455" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E455" s="126"/>
-      <c r="F455" s="126"/>
+      <c r="E455" s="128"/>
+      <c r="F455" s="128"/>
       <c r="G455" s="32"/>
       <c r="H455" s="37"/>
       <c r="I455" s="37"/>
@@ -10959,25 +10959,25 @@
     </row>
     <row r="456" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C456" s="39"/>
-      <c r="D456" s="126"/>
-      <c r="E456" s="126"/>
-      <c r="F456" s="126"/>
+      <c r="D456" s="128"/>
+      <c r="E456" s="128"/>
+      <c r="F456" s="128"/>
       <c r="G456" s="45"/>
       <c r="H456" s="33"/>
       <c r="I456" s="33"/>
       <c r="J456" s="33"/>
-      <c r="K456" s="149" t="s">
+      <c r="K456" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L456" s="149"/>
-      <c r="M456" s="149"/>
-      <c r="N456" s="149"/>
-      <c r="O456" s="149"/>
-      <c r="P456" s="149"/>
-      <c r="Q456" s="149"/>
-      <c r="R456" s="149"/>
-      <c r="S456" s="149"/>
-      <c r="T456" s="149"/>
+      <c r="L456" s="134"/>
+      <c r="M456" s="134"/>
+      <c r="N456" s="134"/>
+      <c r="O456" s="134"/>
+      <c r="P456" s="134"/>
+      <c r="Q456" s="134"/>
+      <c r="R456" s="134"/>
+      <c r="S456" s="134"/>
+      <c r="T456" s="134"/>
       <c r="U456" s="33"/>
       <c r="V456" s="33"/>
       <c r="W456" s="43"/>
@@ -10986,27 +10986,27 @@
       <c r="C457" s="39"/>
       <c r="D457" s="34"/>
       <c r="E457" s="35"/>
-      <c r="F457" s="137" t="s">
+      <c r="F457" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G457" s="137"/>
-      <c r="H457" s="137"/>
-      <c r="I457" s="137"/>
-      <c r="J457" s="137"/>
-      <c r="K457" s="149"/>
-      <c r="L457" s="149"/>
-      <c r="M457" s="149"/>
-      <c r="N457" s="149"/>
-      <c r="O457" s="149"/>
-      <c r="P457" s="149"/>
-      <c r="Q457" s="149"/>
-      <c r="R457" s="149"/>
-      <c r="S457" s="149"/>
-      <c r="T457" s="149"/>
-      <c r="U457" s="150" t="s">
+      <c r="G457" s="135"/>
+      <c r="H457" s="135"/>
+      <c r="I457" s="135"/>
+      <c r="J457" s="135"/>
+      <c r="K457" s="134"/>
+      <c r="L457" s="134"/>
+      <c r="M457" s="134"/>
+      <c r="N457" s="134"/>
+      <c r="O457" s="134"/>
+      <c r="P457" s="134"/>
+      <c r="Q457" s="134"/>
+      <c r="R457" s="134"/>
+      <c r="S457" s="134"/>
+      <c r="T457" s="134"/>
+      <c r="U457" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V457" s="151"/>
+      <c r="V457" s="143"/>
       <c r="W457" s="43"/>
     </row>
     <row r="458" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11060,26 +11060,26 @@
       <c r="D460" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E460" s="135" t="s">
+      <c r="E460" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F460" s="136"/>
-      <c r="G460" s="136"/>
+      <c r="F460" s="125"/>
+      <c r="G460" s="125"/>
       <c r="I460" s="18"/>
-      <c r="J460" s="152" t="s">
+      <c r="J460" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="K460" s="152"/>
-      <c r="L460" s="152"/>
-      <c r="M460" s="152"/>
-      <c r="N460" s="152"/>
-      <c r="O460" s="152"/>
-      <c r="P460" s="152"/>
-      <c r="Q460" s="152"/>
-      <c r="R460" s="152"/>
-      <c r="S460" s="152"/>
-      <c r="T460" s="152"/>
-      <c r="U460" s="152"/>
+      <c r="K460" s="153"/>
+      <c r="L460" s="153"/>
+      <c r="M460" s="153"/>
+      <c r="N460" s="153"/>
+      <c r="O460" s="153"/>
+      <c r="P460" s="153"/>
+      <c r="Q460" s="153"/>
+      <c r="R460" s="153"/>
+      <c r="S460" s="153"/>
+      <c r="T460" s="153"/>
+      <c r="U460" s="153"/>
       <c r="V460" s="77"/>
       <c r="W460" s="20"/>
     </row>
@@ -11088,11 +11088,11 @@
       <c r="D461" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E461" s="135" t="s">
+      <c r="E461" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F461" s="136"/>
-      <c r="G461" s="136"/>
+      <c r="F461" s="125"/>
+      <c r="G461" s="125"/>
       <c r="I461" s="18"/>
       <c r="J461" s="51"/>
       <c r="K461" s="58"/>
@@ -11107,11 +11107,11 @@
       <c r="D462" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E462" s="135" t="s">
+      <c r="E462" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F462" s="136"/>
-      <c r="G462" s="136"/>
+      <c r="F462" s="125"/>
+      <c r="G462" s="125"/>
       <c r="I462" s="18"/>
       <c r="V462" s="78"/>
       <c r="W462" s="20"/>
@@ -11121,11 +11121,11 @@
       <c r="D463" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E463" s="135" t="s">
+      <c r="E463" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F463" s="136"/>
-      <c r="G463" s="136"/>
+      <c r="F463" s="125"/>
+      <c r="G463" s="125"/>
       <c r="I463" s="18" t="s">
         <v>35</v>
       </c>
@@ -11147,11 +11147,11 @@
       <c r="D464" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E464" s="138" t="s">
+      <c r="E464" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F464" s="139"/>
-      <c r="G464" s="139"/>
+      <c r="F464" s="127"/>
+      <c r="G464" s="127"/>
       <c r="I464" s="18"/>
       <c r="L464" s="82"/>
       <c r="M464" s="88" t="s">
@@ -11295,75 +11295,75 @@
       <c r="W478" s="20"/>
     </row>
     <row r="479" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C479" s="126" t="s">
+      <c r="C479" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D479" s="126"/>
-      <c r="E479" s="126"/>
-      <c r="F479" s="126"/>
-      <c r="G479" s="126"/>
-      <c r="H479" s="126"/>
-      <c r="I479" s="126"/>
-      <c r="J479" s="126"/>
-      <c r="K479" s="126"/>
-      <c r="L479" s="126"/>
-      <c r="M479" s="126"/>
-      <c r="N479" s="126"/>
-      <c r="O479" s="126"/>
-      <c r="P479" s="126"/>
-      <c r="Q479" s="126"/>
-      <c r="R479" s="126"/>
-      <c r="S479" s="126"/>
-      <c r="T479" s="126"/>
-      <c r="U479" s="126"/>
-      <c r="V479" s="126"/>
-      <c r="W479" s="126"/>
+      <c r="D479" s="128"/>
+      <c r="E479" s="128"/>
+      <c r="F479" s="128"/>
+      <c r="G479" s="128"/>
+      <c r="H479" s="128"/>
+      <c r="I479" s="128"/>
+      <c r="J479" s="128"/>
+      <c r="K479" s="128"/>
+      <c r="L479" s="128"/>
+      <c r="M479" s="128"/>
+      <c r="N479" s="128"/>
+      <c r="O479" s="128"/>
+      <c r="P479" s="128"/>
+      <c r="Q479" s="128"/>
+      <c r="R479" s="128"/>
+      <c r="S479" s="128"/>
+      <c r="T479" s="128"/>
+      <c r="U479" s="128"/>
+      <c r="V479" s="128"/>
+      <c r="W479" s="128"/>
     </row>
     <row r="480" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C480" s="126"/>
-      <c r="D480" s="126"/>
-      <c r="E480" s="126"/>
-      <c r="F480" s="126"/>
-      <c r="G480" s="126"/>
-      <c r="H480" s="126"/>
-      <c r="I480" s="126"/>
-      <c r="J480" s="126"/>
-      <c r="K480" s="126"/>
-      <c r="L480" s="126"/>
-      <c r="M480" s="126"/>
-      <c r="N480" s="126"/>
-      <c r="O480" s="126"/>
-      <c r="P480" s="126"/>
-      <c r="Q480" s="126"/>
-      <c r="R480" s="126"/>
-      <c r="S480" s="126"/>
-      <c r="T480" s="126"/>
-      <c r="U480" s="126"/>
-      <c r="V480" s="126"/>
-      <c r="W480" s="126"/>
+      <c r="C480" s="128"/>
+      <c r="D480" s="128"/>
+      <c r="E480" s="128"/>
+      <c r="F480" s="128"/>
+      <c r="G480" s="128"/>
+      <c r="H480" s="128"/>
+      <c r="I480" s="128"/>
+      <c r="J480" s="128"/>
+      <c r="K480" s="128"/>
+      <c r="L480" s="128"/>
+      <c r="M480" s="128"/>
+      <c r="N480" s="128"/>
+      <c r="O480" s="128"/>
+      <c r="P480" s="128"/>
+      <c r="Q480" s="128"/>
+      <c r="R480" s="128"/>
+      <c r="S480" s="128"/>
+      <c r="T480" s="128"/>
+      <c r="U480" s="128"/>
+      <c r="V480" s="128"/>
+      <c r="W480" s="128"/>
     </row>
     <row r="481" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C481" s="126"/>
-      <c r="D481" s="126"/>
-      <c r="E481" s="126"/>
-      <c r="F481" s="126"/>
-      <c r="G481" s="126"/>
-      <c r="H481" s="126"/>
-      <c r="I481" s="126"/>
-      <c r="J481" s="126"/>
-      <c r="K481" s="126"/>
-      <c r="L481" s="126"/>
-      <c r="M481" s="126"/>
-      <c r="N481" s="126"/>
-      <c r="O481" s="126"/>
-      <c r="P481" s="126"/>
-      <c r="Q481" s="126"/>
-      <c r="R481" s="126"/>
-      <c r="S481" s="126"/>
-      <c r="T481" s="126"/>
-      <c r="U481" s="126"/>
-      <c r="V481" s="126"/>
-      <c r="W481" s="126"/>
+      <c r="C481" s="128"/>
+      <c r="D481" s="128"/>
+      <c r="E481" s="128"/>
+      <c r="F481" s="128"/>
+      <c r="G481" s="128"/>
+      <c r="H481" s="128"/>
+      <c r="I481" s="128"/>
+      <c r="J481" s="128"/>
+      <c r="K481" s="128"/>
+      <c r="L481" s="128"/>
+      <c r="M481" s="128"/>
+      <c r="N481" s="128"/>
+      <c r="O481" s="128"/>
+      <c r="P481" s="128"/>
+      <c r="Q481" s="128"/>
+      <c r="R481" s="128"/>
+      <c r="S481" s="128"/>
+      <c r="T481" s="128"/>
+      <c r="U481" s="128"/>
+      <c r="V481" s="128"/>
+      <c r="W481" s="128"/>
     </row>
     <row r="483" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C483" s="61" t="s">
@@ -11372,11 +11372,11 @@
     </row>
     <row r="485" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C485" s="38"/>
-      <c r="D485" s="126" t="s">
+      <c r="D485" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E485" s="126"/>
-      <c r="F485" s="126"/>
+      <c r="E485" s="128"/>
+      <c r="F485" s="128"/>
       <c r="G485" s="32"/>
       <c r="H485" s="37"/>
       <c r="I485" s="37"/>
@@ -11397,25 +11397,25 @@
     </row>
     <row r="486" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C486" s="39"/>
-      <c r="D486" s="126"/>
-      <c r="E486" s="126"/>
-      <c r="F486" s="126"/>
+      <c r="D486" s="128"/>
+      <c r="E486" s="128"/>
+      <c r="F486" s="128"/>
       <c r="G486" s="45"/>
       <c r="H486" s="33"/>
       <c r="I486" s="33"/>
       <c r="J486" s="33"/>
-      <c r="K486" s="149" t="s">
+      <c r="K486" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L486" s="149"/>
-      <c r="M486" s="149"/>
-      <c r="N486" s="149"/>
-      <c r="O486" s="149"/>
-      <c r="P486" s="149"/>
-      <c r="Q486" s="149"/>
-      <c r="R486" s="149"/>
-      <c r="S486" s="149"/>
-      <c r="T486" s="149"/>
+      <c r="L486" s="134"/>
+      <c r="M486" s="134"/>
+      <c r="N486" s="134"/>
+      <c r="O486" s="134"/>
+      <c r="P486" s="134"/>
+      <c r="Q486" s="134"/>
+      <c r="R486" s="134"/>
+      <c r="S486" s="134"/>
+      <c r="T486" s="134"/>
       <c r="U486" s="33"/>
       <c r="V486" s="33"/>
       <c r="W486" s="43"/>
@@ -11424,27 +11424,27 @@
       <c r="C487" s="39"/>
       <c r="D487" s="34"/>
       <c r="E487" s="35"/>
-      <c r="F487" s="137" t="s">
+      <c r="F487" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G487" s="137"/>
-      <c r="H487" s="137"/>
-      <c r="I487" s="137"/>
-      <c r="J487" s="137"/>
-      <c r="K487" s="149"/>
-      <c r="L487" s="149"/>
-      <c r="M487" s="149"/>
-      <c r="N487" s="149"/>
-      <c r="O487" s="149"/>
-      <c r="P487" s="149"/>
-      <c r="Q487" s="149"/>
-      <c r="R487" s="149"/>
-      <c r="S487" s="149"/>
-      <c r="T487" s="149"/>
-      <c r="U487" s="150" t="s">
+      <c r="G487" s="135"/>
+      <c r="H487" s="135"/>
+      <c r="I487" s="135"/>
+      <c r="J487" s="135"/>
+      <c r="K487" s="134"/>
+      <c r="L487" s="134"/>
+      <c r="M487" s="134"/>
+      <c r="N487" s="134"/>
+      <c r="O487" s="134"/>
+      <c r="P487" s="134"/>
+      <c r="Q487" s="134"/>
+      <c r="R487" s="134"/>
+      <c r="S487" s="134"/>
+      <c r="T487" s="134"/>
+      <c r="U487" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V487" s="151"/>
+      <c r="V487" s="143"/>
       <c r="W487" s="43"/>
     </row>
     <row r="488" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11498,26 +11498,26 @@
       <c r="D490" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E490" s="135" t="s">
+      <c r="E490" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F490" s="136"/>
-      <c r="G490" s="136"/>
+      <c r="F490" s="125"/>
+      <c r="G490" s="125"/>
       <c r="I490" s="18"/>
-      <c r="J490" s="152" t="s">
+      <c r="J490" s="153" t="s">
         <v>202</v>
       </c>
-      <c r="K490" s="152"/>
-      <c r="L490" s="152"/>
-      <c r="M490" s="152"/>
-      <c r="N490" s="152"/>
-      <c r="O490" s="152"/>
-      <c r="P490" s="152"/>
-      <c r="Q490" s="152"/>
-      <c r="R490" s="152"/>
-      <c r="S490" s="152"/>
-      <c r="T490" s="152"/>
-      <c r="U490" s="152"/>
+      <c r="K490" s="153"/>
+      <c r="L490" s="153"/>
+      <c r="M490" s="153"/>
+      <c r="N490" s="153"/>
+      <c r="O490" s="153"/>
+      <c r="P490" s="153"/>
+      <c r="Q490" s="153"/>
+      <c r="R490" s="153"/>
+      <c r="S490" s="153"/>
+      <c r="T490" s="153"/>
+      <c r="U490" s="153"/>
       <c r="V490" s="77"/>
       <c r="W490" s="20"/>
     </row>
@@ -11526,11 +11526,11 @@
       <c r="D491" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="135" t="s">
+      <c r="E491" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F491" s="136"/>
-      <c r="G491" s="136"/>
+      <c r="F491" s="125"/>
+      <c r="G491" s="125"/>
       <c r="I491" s="18"/>
       <c r="J491" s="51"/>
       <c r="K491" s="58"/>
@@ -11545,11 +11545,11 @@
       <c r="D492" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E492" s="135" t="s">
+      <c r="E492" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F492" s="136"/>
-      <c r="G492" s="136"/>
+      <c r="F492" s="125"/>
+      <c r="G492" s="125"/>
       <c r="I492" s="18"/>
       <c r="V492" s="78"/>
       <c r="W492" s="20"/>
@@ -11559,11 +11559,11 @@
       <c r="D493" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E493" s="135" t="s">
+      <c r="E493" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F493" s="136"/>
-      <c r="G493" s="136"/>
+      <c r="F493" s="125"/>
+      <c r="G493" s="125"/>
       <c r="I493" s="18" t="s">
         <v>35</v>
       </c>
@@ -11585,11 +11585,11 @@
       <c r="D494" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E494" s="138" t="s">
+      <c r="E494" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="F494" s="139"/>
-      <c r="G494" s="139"/>
+      <c r="F494" s="127"/>
+      <c r="G494" s="127"/>
       <c r="I494" s="18"/>
       <c r="L494" s="82"/>
       <c r="M494" s="88" t="s">
@@ -11733,75 +11733,75 @@
       <c r="W508" s="20"/>
     </row>
     <row r="509" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C509" s="126" t="s">
+      <c r="C509" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D509" s="126"/>
-      <c r="E509" s="126"/>
-      <c r="F509" s="126"/>
-      <c r="G509" s="126"/>
-      <c r="H509" s="126"/>
-      <c r="I509" s="126"/>
-      <c r="J509" s="126"/>
-      <c r="K509" s="126"/>
-      <c r="L509" s="126"/>
-      <c r="M509" s="126"/>
-      <c r="N509" s="126"/>
-      <c r="O509" s="126"/>
-      <c r="P509" s="126"/>
-      <c r="Q509" s="126"/>
-      <c r="R509" s="126"/>
-      <c r="S509" s="126"/>
-      <c r="T509" s="126"/>
-      <c r="U509" s="126"/>
-      <c r="V509" s="126"/>
-      <c r="W509" s="126"/>
+      <c r="D509" s="128"/>
+      <c r="E509" s="128"/>
+      <c r="F509" s="128"/>
+      <c r="G509" s="128"/>
+      <c r="H509" s="128"/>
+      <c r="I509" s="128"/>
+      <c r="J509" s="128"/>
+      <c r="K509" s="128"/>
+      <c r="L509" s="128"/>
+      <c r="M509" s="128"/>
+      <c r="N509" s="128"/>
+      <c r="O509" s="128"/>
+      <c r="P509" s="128"/>
+      <c r="Q509" s="128"/>
+      <c r="R509" s="128"/>
+      <c r="S509" s="128"/>
+      <c r="T509" s="128"/>
+      <c r="U509" s="128"/>
+      <c r="V509" s="128"/>
+      <c r="W509" s="128"/>
     </row>
     <row r="510" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C510" s="126"/>
-      <c r="D510" s="126"/>
-      <c r="E510" s="126"/>
-      <c r="F510" s="126"/>
-      <c r="G510" s="126"/>
-      <c r="H510" s="126"/>
-      <c r="I510" s="126"/>
-      <c r="J510" s="126"/>
-      <c r="K510" s="126"/>
-      <c r="L510" s="126"/>
-      <c r="M510" s="126"/>
-      <c r="N510" s="126"/>
-      <c r="O510" s="126"/>
-      <c r="P510" s="126"/>
-      <c r="Q510" s="126"/>
-      <c r="R510" s="126"/>
-      <c r="S510" s="126"/>
-      <c r="T510" s="126"/>
-      <c r="U510" s="126"/>
-      <c r="V510" s="126"/>
-      <c r="W510" s="126"/>
+      <c r="C510" s="128"/>
+      <c r="D510" s="128"/>
+      <c r="E510" s="128"/>
+      <c r="F510" s="128"/>
+      <c r="G510" s="128"/>
+      <c r="H510" s="128"/>
+      <c r="I510" s="128"/>
+      <c r="J510" s="128"/>
+      <c r="K510" s="128"/>
+      <c r="L510" s="128"/>
+      <c r="M510" s="128"/>
+      <c r="N510" s="128"/>
+      <c r="O510" s="128"/>
+      <c r="P510" s="128"/>
+      <c r="Q510" s="128"/>
+      <c r="R510" s="128"/>
+      <c r="S510" s="128"/>
+      <c r="T510" s="128"/>
+      <c r="U510" s="128"/>
+      <c r="V510" s="128"/>
+      <c r="W510" s="128"/>
     </row>
     <row r="511" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C511" s="126"/>
-      <c r="D511" s="126"/>
-      <c r="E511" s="126"/>
-      <c r="F511" s="126"/>
-      <c r="G511" s="126"/>
-      <c r="H511" s="126"/>
-      <c r="I511" s="126"/>
-      <c r="J511" s="126"/>
-      <c r="K511" s="126"/>
-      <c r="L511" s="126"/>
-      <c r="M511" s="126"/>
-      <c r="N511" s="126"/>
-      <c r="O511" s="126"/>
-      <c r="P511" s="126"/>
-      <c r="Q511" s="126"/>
-      <c r="R511" s="126"/>
-      <c r="S511" s="126"/>
-      <c r="T511" s="126"/>
-      <c r="U511" s="126"/>
-      <c r="V511" s="126"/>
-      <c r="W511" s="126"/>
+      <c r="C511" s="128"/>
+      <c r="D511" s="128"/>
+      <c r="E511" s="128"/>
+      <c r="F511" s="128"/>
+      <c r="G511" s="128"/>
+      <c r="H511" s="128"/>
+      <c r="I511" s="128"/>
+      <c r="J511" s="128"/>
+      <c r="K511" s="128"/>
+      <c r="L511" s="128"/>
+      <c r="M511" s="128"/>
+      <c r="N511" s="128"/>
+      <c r="O511" s="128"/>
+      <c r="P511" s="128"/>
+      <c r="Q511" s="128"/>
+      <c r="R511" s="128"/>
+      <c r="S511" s="128"/>
+      <c r="T511" s="128"/>
+      <c r="U511" s="128"/>
+      <c r="V511" s="128"/>
+      <c r="W511" s="128"/>
     </row>
     <row r="514" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B514" s="61" t="s">
@@ -11810,11 +11810,11 @@
     </row>
     <row r="516" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C516" s="38"/>
-      <c r="D516" s="126" t="s">
+      <c r="D516" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E516" s="126"/>
-      <c r="F516" s="126"/>
+      <c r="E516" s="128"/>
+      <c r="F516" s="128"/>
       <c r="G516" s="32"/>
       <c r="H516" s="37"/>
       <c r="I516" s="37"/>
@@ -11835,25 +11835,25 @@
     </row>
     <row r="517" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C517" s="39"/>
-      <c r="D517" s="126"/>
-      <c r="E517" s="126"/>
-      <c r="F517" s="126"/>
+      <c r="D517" s="128"/>
+      <c r="E517" s="128"/>
+      <c r="F517" s="128"/>
       <c r="G517" s="45"/>
       <c r="H517" s="33"/>
       <c r="I517" s="33"/>
       <c r="J517" s="33"/>
-      <c r="K517" s="149" t="s">
+      <c r="K517" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="L517" s="149"/>
-      <c r="M517" s="149"/>
-      <c r="N517" s="149"/>
-      <c r="O517" s="149"/>
-      <c r="P517" s="149"/>
-      <c r="Q517" s="149"/>
-      <c r="R517" s="149"/>
-      <c r="S517" s="149"/>
-      <c r="T517" s="149"/>
+      <c r="L517" s="134"/>
+      <c r="M517" s="134"/>
+      <c r="N517" s="134"/>
+      <c r="O517" s="134"/>
+      <c r="P517" s="134"/>
+      <c r="Q517" s="134"/>
+      <c r="R517" s="134"/>
+      <c r="S517" s="134"/>
+      <c r="T517" s="134"/>
       <c r="U517" s="33"/>
       <c r="V517" s="33"/>
       <c r="W517" s="43"/>
@@ -11862,27 +11862,27 @@
       <c r="C518" s="39"/>
       <c r="D518" s="34"/>
       <c r="E518" s="35"/>
-      <c r="F518" s="137" t="s">
+      <c r="F518" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G518" s="137"/>
-      <c r="H518" s="137"/>
-      <c r="I518" s="137"/>
-      <c r="J518" s="137"/>
-      <c r="K518" s="149"/>
-      <c r="L518" s="149"/>
-      <c r="M518" s="149"/>
-      <c r="N518" s="149"/>
-      <c r="O518" s="149"/>
-      <c r="P518" s="149"/>
-      <c r="Q518" s="149"/>
-      <c r="R518" s="149"/>
-      <c r="S518" s="149"/>
-      <c r="T518" s="149"/>
-      <c r="U518" s="150" t="s">
+      <c r="G518" s="135"/>
+      <c r="H518" s="135"/>
+      <c r="I518" s="135"/>
+      <c r="J518" s="135"/>
+      <c r="K518" s="134"/>
+      <c r="L518" s="134"/>
+      <c r="M518" s="134"/>
+      <c r="N518" s="134"/>
+      <c r="O518" s="134"/>
+      <c r="P518" s="134"/>
+      <c r="Q518" s="134"/>
+      <c r="R518" s="134"/>
+      <c r="S518" s="134"/>
+      <c r="T518" s="134"/>
+      <c r="U518" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="V518" s="151"/>
+      <c r="V518" s="143"/>
       <c r="W518" s="43"/>
     </row>
     <row r="519" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11936,24 +11936,24 @@
       <c r="D521" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E521" s="135" t="s">
+      <c r="E521" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="F521" s="136"/>
-      <c r="G521" s="136"/>
+      <c r="F521" s="125"/>
+      <c r="G521" s="125"/>
       <c r="I521" s="18"/>
-      <c r="J521" s="152"/>
-      <c r="K521" s="152"/>
-      <c r="L521" s="152"/>
-      <c r="M521" s="152"/>
-      <c r="N521" s="152"/>
-      <c r="O521" s="152"/>
-      <c r="P521" s="152"/>
-      <c r="Q521" s="152"/>
-      <c r="R521" s="152"/>
-      <c r="S521" s="152"/>
-      <c r="T521" s="152"/>
-      <c r="U521" s="152"/>
+      <c r="J521" s="153"/>
+      <c r="K521" s="153"/>
+      <c r="L521" s="153"/>
+      <c r="M521" s="153"/>
+      <c r="N521" s="153"/>
+      <c r="O521" s="153"/>
+      <c r="P521" s="153"/>
+      <c r="Q521" s="153"/>
+      <c r="R521" s="153"/>
+      <c r="S521" s="153"/>
+      <c r="T521" s="153"/>
+      <c r="U521" s="153"/>
       <c r="V521" s="77"/>
       <c r="W521" s="20"/>
     </row>
@@ -11962,11 +11962,11 @@
       <c r="D522" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E522" s="135" t="s">
+      <c r="E522" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="F522" s="136"/>
-      <c r="G522" s="136"/>
+      <c r="F522" s="125"/>
+      <c r="G522" s="125"/>
       <c r="I522" s="18"/>
       <c r="J522" s="51"/>
       <c r="K522" s="58"/>
@@ -11981,11 +11981,11 @@
       <c r="D523" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E523" s="135" t="s">
+      <c r="E523" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F523" s="136"/>
-      <c r="G523" s="136"/>
+      <c r="F523" s="125"/>
+      <c r="G523" s="125"/>
       <c r="I523" s="18"/>
       <c r="V523" s="78"/>
       <c r="W523" s="20"/>
@@ -11995,11 +11995,11 @@
       <c r="D524" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E524" s="135" t="s">
+      <c r="E524" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="F524" s="136"/>
-      <c r="G524" s="136"/>
+      <c r="F524" s="125"/>
+      <c r="G524" s="125"/>
       <c r="I524" s="18" t="s">
         <v>35</v>
       </c>
@@ -12021,11 +12021,11 @@
       <c r="D525" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E525" s="135" t="s">
+      <c r="E525" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F525" s="136"/>
-      <c r="G525" s="136"/>
+      <c r="F525" s="125"/>
+      <c r="G525" s="125"/>
       <c r="I525" s="18"/>
       <c r="L525" s="82"/>
       <c r="M525" s="88" t="s">
@@ -12169,78 +12169,440 @@
       <c r="W539" s="20"/>
     </row>
     <row r="540" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C540" s="126" t="s">
+      <c r="C540" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="D540" s="126"/>
-      <c r="E540" s="126"/>
-      <c r="F540" s="126"/>
-      <c r="G540" s="126"/>
-      <c r="H540" s="126"/>
-      <c r="I540" s="126"/>
-      <c r="J540" s="126"/>
-      <c r="K540" s="126"/>
-      <c r="L540" s="126"/>
-      <c r="M540" s="126"/>
-      <c r="N540" s="126"/>
-      <c r="O540" s="126"/>
-      <c r="P540" s="126"/>
-      <c r="Q540" s="126"/>
-      <c r="R540" s="126"/>
-      <c r="S540" s="126"/>
-      <c r="T540" s="126"/>
-      <c r="U540" s="126"/>
-      <c r="V540" s="126"/>
-      <c r="W540" s="126"/>
+      <c r="D540" s="128"/>
+      <c r="E540" s="128"/>
+      <c r="F540" s="128"/>
+      <c r="G540" s="128"/>
+      <c r="H540" s="128"/>
+      <c r="I540" s="128"/>
+      <c r="J540" s="128"/>
+      <c r="K540" s="128"/>
+      <c r="L540" s="128"/>
+      <c r="M540" s="128"/>
+      <c r="N540" s="128"/>
+      <c r="O540" s="128"/>
+      <c r="P540" s="128"/>
+      <c r="Q540" s="128"/>
+      <c r="R540" s="128"/>
+      <c r="S540" s="128"/>
+      <c r="T540" s="128"/>
+      <c r="U540" s="128"/>
+      <c r="V540" s="128"/>
+      <c r="W540" s="128"/>
     </row>
     <row r="541" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C541" s="126"/>
-      <c r="D541" s="126"/>
-      <c r="E541" s="126"/>
-      <c r="F541" s="126"/>
-      <c r="G541" s="126"/>
-      <c r="H541" s="126"/>
-      <c r="I541" s="126"/>
-      <c r="J541" s="126"/>
-      <c r="K541" s="126"/>
-      <c r="L541" s="126"/>
-      <c r="M541" s="126"/>
-      <c r="N541" s="126"/>
-      <c r="O541" s="126"/>
-      <c r="P541" s="126"/>
-      <c r="Q541" s="126"/>
-      <c r="R541" s="126"/>
-      <c r="S541" s="126"/>
-      <c r="T541" s="126"/>
-      <c r="U541" s="126"/>
-      <c r="V541" s="126"/>
-      <c r="W541" s="126"/>
+      <c r="C541" s="128"/>
+      <c r="D541" s="128"/>
+      <c r="E541" s="128"/>
+      <c r="F541" s="128"/>
+      <c r="G541" s="128"/>
+      <c r="H541" s="128"/>
+      <c r="I541" s="128"/>
+      <c r="J541" s="128"/>
+      <c r="K541" s="128"/>
+      <c r="L541" s="128"/>
+      <c r="M541" s="128"/>
+      <c r="N541" s="128"/>
+      <c r="O541" s="128"/>
+      <c r="P541" s="128"/>
+      <c r="Q541" s="128"/>
+      <c r="R541" s="128"/>
+      <c r="S541" s="128"/>
+      <c r="T541" s="128"/>
+      <c r="U541" s="128"/>
+      <c r="V541" s="128"/>
+      <c r="W541" s="128"/>
     </row>
     <row r="542" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C542" s="126"/>
-      <c r="D542" s="126"/>
-      <c r="E542" s="126"/>
-      <c r="F542" s="126"/>
-      <c r="G542" s="126"/>
-      <c r="H542" s="126"/>
-      <c r="I542" s="126"/>
-      <c r="J542" s="126"/>
-      <c r="K542" s="126"/>
-      <c r="L542" s="126"/>
-      <c r="M542" s="126"/>
-      <c r="N542" s="126"/>
-      <c r="O542" s="126"/>
-      <c r="P542" s="126"/>
-      <c r="Q542" s="126"/>
-      <c r="R542" s="126"/>
-      <c r="S542" s="126"/>
-      <c r="T542" s="126"/>
-      <c r="U542" s="126"/>
-      <c r="V542" s="126"/>
-      <c r="W542" s="126"/>
+      <c r="C542" s="128"/>
+      <c r="D542" s="128"/>
+      <c r="E542" s="128"/>
+      <c r="F542" s="128"/>
+      <c r="G542" s="128"/>
+      <c r="H542" s="128"/>
+      <c r="I542" s="128"/>
+      <c r="J542" s="128"/>
+      <c r="K542" s="128"/>
+      <c r="L542" s="128"/>
+      <c r="M542" s="128"/>
+      <c r="N542" s="128"/>
+      <c r="O542" s="128"/>
+      <c r="P542" s="128"/>
+      <c r="Q542" s="128"/>
+      <c r="R542" s="128"/>
+      <c r="S542" s="128"/>
+      <c r="T542" s="128"/>
+      <c r="U542" s="128"/>
+      <c r="V542" s="128"/>
+      <c r="W542" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="386">
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="C321:W323"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="L307:M307"/>
+    <mergeCell ref="N307:O307"/>
+    <mergeCell ref="L306:M306"/>
+    <mergeCell ref="N306:O306"/>
+    <mergeCell ref="B1:W2"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D108:F109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="D170:F171"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="L308:M308"/>
+    <mergeCell ref="N308:O308"/>
+    <mergeCell ref="L309:M309"/>
+    <mergeCell ref="N309:O309"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="E274:G274"/>
+    <mergeCell ref="E275:G275"/>
+    <mergeCell ref="C290:W292"/>
+    <mergeCell ref="N249:S249"/>
+    <mergeCell ref="E305:G305"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="Q304:R304"/>
+    <mergeCell ref="N251:S252"/>
+    <mergeCell ref="N254:S254"/>
+    <mergeCell ref="Q256:R256"/>
+    <mergeCell ref="C260:W262"/>
+    <mergeCell ref="D266:F267"/>
+    <mergeCell ref="K267:T268"/>
+    <mergeCell ref="F268:J268"/>
+    <mergeCell ref="U268:V268"/>
+    <mergeCell ref="E271:G271"/>
+    <mergeCell ref="J271:U271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="E273:G273"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="N210:S210"/>
+    <mergeCell ref="N212:S212"/>
+    <mergeCell ref="N214:S214"/>
+    <mergeCell ref="C226:W228"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="K234:T235"/>
+    <mergeCell ref="F235:J235"/>
+    <mergeCell ref="U235:V235"/>
+    <mergeCell ref="N216:S216"/>
+    <mergeCell ref="N218:S219"/>
+    <mergeCell ref="N221:S221"/>
+    <mergeCell ref="Q223:R223"/>
+    <mergeCell ref="C194:W196"/>
+    <mergeCell ref="D200:F201"/>
+    <mergeCell ref="K201:T202"/>
+    <mergeCell ref="F202:J202"/>
+    <mergeCell ref="U202:V202"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="J205:U205"/>
+    <mergeCell ref="E206:G206"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="J143:U143"/>
+    <mergeCell ref="K171:T172"/>
+    <mergeCell ref="U172:V172"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="L186:M186"/>
+    <mergeCell ref="N186:O186"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="L184:M184"/>
+    <mergeCell ref="N184:O184"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="N185:O185"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L182:M182"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="N181:O181"/>
+    <mergeCell ref="C162:W164"/>
+    <mergeCell ref="J113:U113"/>
+    <mergeCell ref="N118:S118"/>
+    <mergeCell ref="N120:S120"/>
+    <mergeCell ref="N122:S122"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="C132:W134"/>
+    <mergeCell ref="D138:F139"/>
+    <mergeCell ref="K139:T140"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="K18:T19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="K109:T110"/>
+    <mergeCell ref="C71:W73"/>
+    <mergeCell ref="J52:U52"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C41:W43"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="K48:T49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="U140:V140"/>
+    <mergeCell ref="C101:W103"/>
+    <mergeCell ref="N91:S91"/>
+    <mergeCell ref="N87:S87"/>
+    <mergeCell ref="N89:S89"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D77:F78"/>
+    <mergeCell ref="K78:T79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="J82:U82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="L189:M189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="J175:U175"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="M177:P177"/>
+    <mergeCell ref="U177:V177"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="T179:U179"/>
+    <mergeCell ref="R179:S179"/>
+    <mergeCell ref="R180:S180"/>
+    <mergeCell ref="R181:S181"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="R183:S183"/>
+    <mergeCell ref="R184:S184"/>
+    <mergeCell ref="R185:S185"/>
+    <mergeCell ref="R186:S186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="T306:U306"/>
+    <mergeCell ref="D297:F298"/>
+    <mergeCell ref="K298:T299"/>
+    <mergeCell ref="F299:J299"/>
+    <mergeCell ref="U299:V299"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="J302:U302"/>
+    <mergeCell ref="E303:G303"/>
+    <mergeCell ref="E304:G304"/>
+    <mergeCell ref="M304:P304"/>
+    <mergeCell ref="U304:V304"/>
+    <mergeCell ref="E238:G238"/>
+    <mergeCell ref="J238:U238"/>
+    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="N243:S243"/>
+    <mergeCell ref="N245:S245"/>
+    <mergeCell ref="N247:S247"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="D327:F328"/>
+    <mergeCell ref="K328:T329"/>
+    <mergeCell ref="F329:J329"/>
+    <mergeCell ref="U329:V329"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="J332:U332"/>
+    <mergeCell ref="E333:G333"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="E335:G335"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="E367:G367"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="N371:S371"/>
+    <mergeCell ref="N373:S373"/>
+    <mergeCell ref="J366:U366"/>
+    <mergeCell ref="E369:G369"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="N337:S337"/>
+    <mergeCell ref="N339:S339"/>
+    <mergeCell ref="N341:S341"/>
+    <mergeCell ref="Q351:R351"/>
+    <mergeCell ref="C354:W356"/>
+    <mergeCell ref="D361:F362"/>
+    <mergeCell ref="K362:T363"/>
+    <mergeCell ref="F363:J363"/>
+    <mergeCell ref="U363:V363"/>
+    <mergeCell ref="N345:S345"/>
+    <mergeCell ref="N347:S347"/>
+    <mergeCell ref="E430:G430"/>
+    <mergeCell ref="J430:U430"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="E433:G433"/>
+    <mergeCell ref="E434:G434"/>
+    <mergeCell ref="T434:U434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="M434:N434"/>
+    <mergeCell ref="K426:T427"/>
+    <mergeCell ref="F427:J427"/>
+    <mergeCell ref="E399:G399"/>
+    <mergeCell ref="J399:U399"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="E401:G401"/>
+    <mergeCell ref="E402:G402"/>
+    <mergeCell ref="E403:G403"/>
+    <mergeCell ref="C418:W420"/>
+    <mergeCell ref="D485:F486"/>
+    <mergeCell ref="K486:T487"/>
+    <mergeCell ref="F487:J487"/>
+    <mergeCell ref="U487:V487"/>
+    <mergeCell ref="C449:W451"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="M439:N439"/>
+    <mergeCell ref="M440:N440"/>
+    <mergeCell ref="M441:N441"/>
+    <mergeCell ref="M442:N442"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="O440:P440"/>
+    <mergeCell ref="O441:P441"/>
+    <mergeCell ref="O442:P442"/>
+    <mergeCell ref="O443:P443"/>
+    <mergeCell ref="O444:P444"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="U457:V457"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="J460:U460"/>
+    <mergeCell ref="E461:G461"/>
+    <mergeCell ref="E462:G462"/>
+    <mergeCell ref="K517:T518"/>
+    <mergeCell ref="F518:J518"/>
+    <mergeCell ref="U518:V518"/>
+    <mergeCell ref="E521:G521"/>
+    <mergeCell ref="J521:U521"/>
+    <mergeCell ref="C509:W511"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="E491:G491"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="J490:U490"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="E522:G522"/>
+    <mergeCell ref="E523:G523"/>
+    <mergeCell ref="E524:G524"/>
+    <mergeCell ref="E525:G525"/>
+    <mergeCell ref="C540:W542"/>
+    <mergeCell ref="R306:S306"/>
+    <mergeCell ref="R307:S307"/>
+    <mergeCell ref="R308:S308"/>
+    <mergeCell ref="R309:S309"/>
+    <mergeCell ref="R310:S310"/>
+    <mergeCell ref="R311:S311"/>
+    <mergeCell ref="R312:S312"/>
+    <mergeCell ref="R313:S313"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="R314:S314"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="R315:S315"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="R316:S316"/>
+    <mergeCell ref="N343:S343"/>
+    <mergeCell ref="D516:F517"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="M438:N438"/>
+    <mergeCell ref="N375:S375"/>
+    <mergeCell ref="N377:S377"/>
+    <mergeCell ref="C388:W390"/>
+    <mergeCell ref="D394:F395"/>
+    <mergeCell ref="K395:T396"/>
+    <mergeCell ref="F396:J396"/>
+    <mergeCell ref="U396:V396"/>
+    <mergeCell ref="N379:S379"/>
+    <mergeCell ref="N381:S381"/>
+    <mergeCell ref="Q385:R385"/>
+    <mergeCell ref="Q436:S436"/>
+    <mergeCell ref="Q437:S437"/>
+    <mergeCell ref="Q438:S438"/>
+    <mergeCell ref="Q435:S435"/>
+    <mergeCell ref="U427:V427"/>
+    <mergeCell ref="D425:F426"/>
     <mergeCell ref="E463:G463"/>
     <mergeCell ref="E464:G464"/>
     <mergeCell ref="C479:W481"/>
@@ -12265,368 +12627,6 @@
     <mergeCell ref="K435:L435"/>
     <mergeCell ref="K436:L436"/>
     <mergeCell ref="K437:L437"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="M435:N435"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="M438:N438"/>
-    <mergeCell ref="N375:S375"/>
-    <mergeCell ref="N377:S377"/>
-    <mergeCell ref="C388:W390"/>
-    <mergeCell ref="D394:F395"/>
-    <mergeCell ref="K395:T396"/>
-    <mergeCell ref="F396:J396"/>
-    <mergeCell ref="U396:V396"/>
-    <mergeCell ref="N379:S379"/>
-    <mergeCell ref="N381:S381"/>
-    <mergeCell ref="Q385:R385"/>
-    <mergeCell ref="E522:G522"/>
-    <mergeCell ref="E523:G523"/>
-    <mergeCell ref="E524:G524"/>
-    <mergeCell ref="E525:G525"/>
-    <mergeCell ref="C540:W542"/>
-    <mergeCell ref="R306:S306"/>
-    <mergeCell ref="R307:S307"/>
-    <mergeCell ref="R308:S308"/>
-    <mergeCell ref="R309:S309"/>
-    <mergeCell ref="R310:S310"/>
-    <mergeCell ref="R311:S311"/>
-    <mergeCell ref="R312:S312"/>
-    <mergeCell ref="R313:S313"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="R314:S314"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="R315:S315"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="R316:S316"/>
-    <mergeCell ref="N343:S343"/>
-    <mergeCell ref="D516:F517"/>
-    <mergeCell ref="K517:T518"/>
-    <mergeCell ref="F518:J518"/>
-    <mergeCell ref="U518:V518"/>
-    <mergeCell ref="E521:G521"/>
-    <mergeCell ref="J521:U521"/>
-    <mergeCell ref="C509:W511"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="E491:G491"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="J490:U490"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="D485:F486"/>
-    <mergeCell ref="K486:T487"/>
-    <mergeCell ref="F487:J487"/>
-    <mergeCell ref="U487:V487"/>
-    <mergeCell ref="C449:W451"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="M439:N439"/>
-    <mergeCell ref="M440:N440"/>
-    <mergeCell ref="M441:N441"/>
-    <mergeCell ref="M442:N442"/>
-    <mergeCell ref="M443:N443"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="O440:P440"/>
-    <mergeCell ref="O441:P441"/>
-    <mergeCell ref="O442:P442"/>
-    <mergeCell ref="O443:P443"/>
-    <mergeCell ref="O444:P444"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="U457:V457"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="J460:U460"/>
-    <mergeCell ref="E461:G461"/>
-    <mergeCell ref="E462:G462"/>
-    <mergeCell ref="Q436:S436"/>
-    <mergeCell ref="Q437:S437"/>
-    <mergeCell ref="Q438:S438"/>
-    <mergeCell ref="Q435:S435"/>
-    <mergeCell ref="U427:V427"/>
-    <mergeCell ref="D425:F426"/>
-    <mergeCell ref="K426:T427"/>
-    <mergeCell ref="F427:J427"/>
-    <mergeCell ref="E399:G399"/>
-    <mergeCell ref="J399:U399"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="E401:G401"/>
-    <mergeCell ref="E402:G402"/>
-    <mergeCell ref="E403:G403"/>
-    <mergeCell ref="C418:W420"/>
-    <mergeCell ref="E430:G430"/>
-    <mergeCell ref="J430:U430"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="E433:G433"/>
-    <mergeCell ref="E434:G434"/>
-    <mergeCell ref="T434:U434"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="M434:N434"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="E367:G367"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="N371:S371"/>
-    <mergeCell ref="N373:S373"/>
-    <mergeCell ref="J366:U366"/>
-    <mergeCell ref="E369:G369"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="N337:S337"/>
-    <mergeCell ref="N339:S339"/>
-    <mergeCell ref="N341:S341"/>
-    <mergeCell ref="Q351:R351"/>
-    <mergeCell ref="C354:W356"/>
-    <mergeCell ref="D361:F362"/>
-    <mergeCell ref="K362:T363"/>
-    <mergeCell ref="F363:J363"/>
-    <mergeCell ref="U363:V363"/>
-    <mergeCell ref="N345:S345"/>
-    <mergeCell ref="N347:S347"/>
-    <mergeCell ref="D327:F328"/>
-    <mergeCell ref="K328:T329"/>
-    <mergeCell ref="F329:J329"/>
-    <mergeCell ref="U329:V329"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="J332:U332"/>
-    <mergeCell ref="E333:G333"/>
-    <mergeCell ref="E334:G334"/>
-    <mergeCell ref="E335:G335"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="T306:U306"/>
-    <mergeCell ref="D297:F298"/>
-    <mergeCell ref="K298:T299"/>
-    <mergeCell ref="F299:J299"/>
-    <mergeCell ref="U299:V299"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="J302:U302"/>
-    <mergeCell ref="E303:G303"/>
-    <mergeCell ref="E304:G304"/>
-    <mergeCell ref="M304:P304"/>
-    <mergeCell ref="U304:V304"/>
-    <mergeCell ref="E238:G238"/>
-    <mergeCell ref="J238:U238"/>
-    <mergeCell ref="E239:G239"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="E242:G242"/>
-    <mergeCell ref="N243:S243"/>
-    <mergeCell ref="N245:S245"/>
-    <mergeCell ref="N247:S247"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="N187:O187"/>
-    <mergeCell ref="L188:M188"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="J175:U175"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="M177:P177"/>
-    <mergeCell ref="U177:V177"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="T179:U179"/>
-    <mergeCell ref="R179:S179"/>
-    <mergeCell ref="R180:S180"/>
-    <mergeCell ref="R181:S181"/>
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="R183:S183"/>
-    <mergeCell ref="R184:S184"/>
-    <mergeCell ref="R185:S185"/>
-    <mergeCell ref="R186:S186"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="U140:V140"/>
-    <mergeCell ref="C101:W103"/>
-    <mergeCell ref="N91:S91"/>
-    <mergeCell ref="N87:S87"/>
-    <mergeCell ref="N89:S89"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D77:F78"/>
-    <mergeCell ref="K78:T79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="J82:U82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="K18:T19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="K109:T110"/>
-    <mergeCell ref="C71:W73"/>
-    <mergeCell ref="J52:U52"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="C41:W43"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="K48:T49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J113:U113"/>
-    <mergeCell ref="N118:S118"/>
-    <mergeCell ref="N120:S120"/>
-    <mergeCell ref="N122:S122"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="C132:W134"/>
-    <mergeCell ref="D138:F139"/>
-    <mergeCell ref="K139:T140"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="J143:U143"/>
-    <mergeCell ref="K171:T172"/>
-    <mergeCell ref="U172:V172"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="L186:M186"/>
-    <mergeCell ref="N186:O186"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="L184:M184"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="F172:J172"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L182:M182"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="N181:O181"/>
-    <mergeCell ref="C162:W164"/>
-    <mergeCell ref="C194:W196"/>
-    <mergeCell ref="D200:F201"/>
-    <mergeCell ref="K201:T202"/>
-    <mergeCell ref="F202:J202"/>
-    <mergeCell ref="U202:V202"/>
-    <mergeCell ref="E205:G205"/>
-    <mergeCell ref="J205:U205"/>
-    <mergeCell ref="E206:G206"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="N210:S210"/>
-    <mergeCell ref="N212:S212"/>
-    <mergeCell ref="N214:S214"/>
-    <mergeCell ref="C226:W228"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="K234:T235"/>
-    <mergeCell ref="F235:J235"/>
-    <mergeCell ref="U235:V235"/>
-    <mergeCell ref="N216:S216"/>
-    <mergeCell ref="N218:S219"/>
-    <mergeCell ref="N221:S221"/>
-    <mergeCell ref="Q223:R223"/>
-    <mergeCell ref="E274:G274"/>
-    <mergeCell ref="E275:G275"/>
-    <mergeCell ref="C290:W292"/>
-    <mergeCell ref="N249:S249"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="E306:G306"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="N251:S252"/>
-    <mergeCell ref="N254:S254"/>
-    <mergeCell ref="Q256:R256"/>
-    <mergeCell ref="C260:W262"/>
-    <mergeCell ref="D266:F267"/>
-    <mergeCell ref="K267:T268"/>
-    <mergeCell ref="F268:J268"/>
-    <mergeCell ref="U268:V268"/>
-    <mergeCell ref="E271:G271"/>
-    <mergeCell ref="J271:U271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="E273:G273"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="L308:M308"/>
-    <mergeCell ref="N308:O308"/>
-    <mergeCell ref="L309:M309"/>
-    <mergeCell ref="N309:O309"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="C321:W323"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="L307:M307"/>
-    <mergeCell ref="N307:O307"/>
-    <mergeCell ref="L306:M306"/>
-    <mergeCell ref="N306:O306"/>
-    <mergeCell ref="B1:W2"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D108:F109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="E146:G146"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="D170:F171"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N379" r:id="rId1" xr:uid="{E053F441-E71D-4498-8F28-1B7D069BA239}"/>
@@ -12668,21 +12668,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -12723,7 +12723,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="171" t="s">
         <v>225</v>
       </c>
       <c r="C6" s="100" t="s">
@@ -12738,7 +12738,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="170"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="115"/>
       <c r="D7" s="96" t="s">
         <v>8</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="170"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="115"/>
       <c r="D8" s="99" t="s">
         <v>248</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="170"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="115"/>
       <c r="D9" s="97" t="s">
         <v>7</v>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="170"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="106" t="s">
         <v>9</v>
       </c>
@@ -12819,7 +12819,7 @@
       <c r="D13" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="173" t="s">
+      <c r="E13" s="122" t="s">
         <v>247</v>
       </c>
       <c r="F13" s="7"/>
@@ -12847,7 +12847,7 @@
       <c r="D15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="174" t="s">
+      <c r="E15" s="123" t="s">
         <v>251</v>
       </c>
       <c r="F15" s="7"/>
@@ -13282,7 +13282,7 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13300,27 +13300,27 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="173" t="s">
         <v>295</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
       <c r="I1" s="119"/>
       <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="119"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
     </row>

--- a/Project-Layout (3).xlsx
+++ b/Project-Layout (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocthu6778gmail.com/Desktop/Probject-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D9B91-C978-2B4C-BAF1-7F22D478149C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C17D97-2AFF-8642-A104-7D23A8265934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="7280" windowWidth="20460" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout - Giao diện" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="311">
   <si>
     <t>KHUNG CHỨC NĂNG</t>
   </si>
@@ -591,9 +591,6 @@
     <t>Giới tính</t>
   </si>
   <si>
-    <t>….</t>
-  </si>
-  <si>
     <t>Nhập sinh viên tìm kiếm</t>
   </si>
   <si>
@@ -1218,16 +1215,29 @@
   <si>
     <t>{email, password, fullname,status}</t>
   </si>
+  <si>
+    <t>ten khoa hoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ten Lop hoc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1866,94 +1876,94 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1963,335 +1973,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2513,8 +2526,8 @@
   </sheetPr>
   <dimension ref="B1:W542"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E331" zoomScale="143" workbookViewId="0">
-      <selection activeCell="M369" sqref="M369"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C324" zoomScale="143" workbookViewId="0">
+      <selection activeCell="Q306" sqref="Q306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2527,58 +2540,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2595,15 +2608,15 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="18"/>
-      <c r="D6" s="157" t="s">
+      <c r="D6" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2646,10 +2659,10 @@
     </row>
     <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="18"/>
-      <c r="H12" s="168" t="s">
+      <c r="H12" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="169"/>
+      <c r="I12" s="136"/>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2666,7 +2679,7 @@
     </row>
     <row r="15" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2703,18 +2716,18 @@
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="134" t="s">
+      <c r="K18" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
-      <c r="R18" s="134"/>
-      <c r="S18" s="134"/>
-      <c r="T18" s="134"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
       <c r="W18" s="43"/>
@@ -2723,27 +2736,27 @@
       <c r="C19" s="39"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="135" t="s">
+      <c r="F19" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="134"/>
-      <c r="Q19" s="134"/>
-      <c r="R19" s="134"/>
-      <c r="S19" s="134"/>
-      <c r="T19" s="134"/>
-      <c r="U19" s="142" t="s">
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="143"/>
+      <c r="V19" s="153"/>
       <c r="W19" s="43"/>
     </row>
     <row r="20" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2797,11 +2810,11 @@
       <c r="D22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="158" t="s">
+      <c r="E22" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
       <c r="I22" s="18"/>
       <c r="J22" s="53" t="s">
         <v>42</v>
@@ -2826,11 +2839,11 @@
       <c r="D23" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="124" t="s">
+      <c r="E23" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
       <c r="I23" s="18"/>
       <c r="J23" s="51"/>
       <c r="K23" s="58" t="s">
@@ -2849,11 +2862,11 @@
       <c r="D24" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
       <c r="I24" s="18"/>
       <c r="J24" s="55" t="s">
         <v>42</v>
@@ -2871,11 +2884,11 @@
       <c r="D25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
       <c r="I25" s="18" t="s">
         <v>35</v>
       </c>
@@ -2895,11 +2908,11 @@
       <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="125"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
       <c r="I26" s="18"/>
       <c r="J26" s="51"/>
       <c r="K26" s="59" t="s">
@@ -3141,7 +3154,7 @@
     </row>
     <row r="45" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="61" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3178,18 +3191,18 @@
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="134" t="s">
+      <c r="K48" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
-      <c r="N48" s="134"/>
-      <c r="O48" s="134"/>
-      <c r="P48" s="134"/>
-      <c r="Q48" s="134"/>
-      <c r="R48" s="134"/>
-      <c r="S48" s="134"/>
-      <c r="T48" s="134"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="151"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="43"/>
@@ -3198,27 +3211,27 @@
       <c r="C49" s="39"/>
       <c r="D49" s="34"/>
       <c r="E49" s="35"/>
-      <c r="F49" s="135" t="s">
+      <c r="F49" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="135"/>
-      <c r="H49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="134"/>
-      <c r="O49" s="134"/>
-      <c r="P49" s="134"/>
-      <c r="Q49" s="134"/>
-      <c r="R49" s="134"/>
-      <c r="S49" s="134"/>
-      <c r="T49" s="134"/>
-      <c r="U49" s="142" t="s">
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
+      <c r="J49" s="139"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="151"/>
+      <c r="U49" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V49" s="143"/>
+      <c r="V49" s="153"/>
       <c r="W49" s="43"/>
     </row>
     <row r="50" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3272,26 +3285,26 @@
       <c r="D52" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="124" t="s">
+      <c r="E52" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="153" t="s">
+      <c r="J52" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="K52" s="153"/>
-      <c r="L52" s="153"/>
-      <c r="M52" s="153"/>
-      <c r="N52" s="153"/>
-      <c r="O52" s="153"/>
-      <c r="P52" s="153"/>
-      <c r="Q52" s="153"/>
-      <c r="R52" s="153"/>
-      <c r="S52" s="153"/>
-      <c r="T52" s="153"/>
-      <c r="U52" s="153"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
     </row>
@@ -3300,11 +3313,11 @@
       <c r="D53" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="126" t="s">
+      <c r="E53" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
       <c r="I53" s="18"/>
       <c r="J53" s="51"/>
       <c r="K53" s="58"/>
@@ -3319,35 +3332,35 @@
       <c r="D54" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="124" t="s">
+      <c r="E54" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="138"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="160" t="s">
+      <c r="J54" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="161"/>
+      <c r="K54" s="130"/>
       <c r="L54" s="66"/>
-      <c r="M54" s="129" t="s">
+      <c r="M54" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="N54" s="147"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="147"/>
-      <c r="Q54" s="162" t="s">
+      <c r="N54" s="149"/>
+      <c r="O54" s="149"/>
+      <c r="P54" s="149"/>
+      <c r="Q54" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="163"/>
+      <c r="R54" s="145"/>
       <c r="S54" s="64"/>
       <c r="T54" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="130" t="s">
+      <c r="U54" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="156"/>
+      <c r="V54" s="158"/>
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3355,11 +3368,11 @@
       <c r="D55" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="124" t="s">
+      <c r="E55" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="138"/>
       <c r="I55" s="18" t="s">
         <v>35</v>
       </c>
@@ -3375,36 +3388,36 @@
       <c r="D56" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="124" t="s">
+      <c r="E56" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
       <c r="I56" s="18"/>
       <c r="J56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="154" t="s">
+      <c r="K56" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="L56" s="154"/>
-      <c r="M56" s="138" t="s">
+      <c r="L56" s="159"/>
+      <c r="M56" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="N56" s="138"/>
-      <c r="O56" s="138"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
       <c r="P56" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="138" t="s">
+      <c r="Q56" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="138"/>
-      <c r="S56" s="138"/>
-      <c r="T56" s="138" t="s">
+      <c r="R56" s="160"/>
+      <c r="S56" s="160"/>
+      <c r="T56" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="U56" s="138"/>
+      <c r="U56" s="160"/>
       <c r="V56" s="20"/>
       <c r="W56" s="20"/>
     </row>
@@ -3414,23 +3427,23 @@
       <c r="J57" s="67">
         <v>1</v>
       </c>
-      <c r="K57" s="140" t="s">
+      <c r="K57" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="140"/>
-      <c r="M57" s="137" t="s">
+      <c r="L57" s="161"/>
+      <c r="M57" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="N57" s="141"/>
-      <c r="O57" s="141"/>
+      <c r="N57" s="143"/>
+      <c r="O57" s="143"/>
       <c r="P57" s="70">
         <v>1000</v>
       </c>
-      <c r="Q57" s="137" t="s">
+      <c r="Q57" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="137"/>
-      <c r="S57" s="137"/>
+      <c r="R57" s="142"/>
+      <c r="S57" s="142"/>
       <c r="T57" s="73" t="s">
         <v>27</v>
       </c>
@@ -3447,23 +3460,23 @@
       <c r="J58" s="67">
         <v>2</v>
       </c>
-      <c r="K58" s="140" t="s">
+      <c r="K58" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="140"/>
-      <c r="M58" s="137" t="s">
+      <c r="L58" s="161"/>
+      <c r="M58" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="N58" s="141"/>
-      <c r="O58" s="141"/>
+      <c r="N58" s="143"/>
+      <c r="O58" s="143"/>
       <c r="P58" s="70">
         <v>2000</v>
       </c>
-      <c r="Q58" s="137" t="s">
+      <c r="Q58" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="R58" s="137"/>
-      <c r="S58" s="137"/>
+      <c r="R58" s="142"/>
+      <c r="S58" s="142"/>
       <c r="T58" s="73" t="s">
         <v>27</v>
       </c>
@@ -3479,23 +3492,23 @@
       <c r="J59" s="67">
         <v>3</v>
       </c>
-      <c r="K59" s="140" t="s">
+      <c r="K59" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="L59" s="140"/>
-      <c r="M59" s="137" t="s">
+      <c r="L59" s="161"/>
+      <c r="M59" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
+      <c r="N59" s="143"/>
+      <c r="O59" s="143"/>
       <c r="P59" s="70">
         <v>1500</v>
       </c>
-      <c r="Q59" s="137" t="s">
+      <c r="Q59" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R59" s="137"/>
-      <c r="S59" s="137"/>
+      <c r="R59" s="142"/>
+      <c r="S59" s="142"/>
       <c r="T59" s="73" t="s">
         <v>27</v>
       </c>
@@ -3511,23 +3524,23 @@
       <c r="J60" s="67">
         <v>4</v>
       </c>
-      <c r="K60" s="140" t="s">
+      <c r="K60" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="L60" s="140"/>
-      <c r="M60" s="137" t="s">
+      <c r="L60" s="161"/>
+      <c r="M60" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="N60" s="141"/>
-      <c r="O60" s="141"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
       <c r="P60" s="70">
         <v>1000</v>
       </c>
-      <c r="Q60" s="137" t="s">
+      <c r="Q60" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R60" s="137"/>
-      <c r="S60" s="137"/>
+      <c r="R60" s="142"/>
+      <c r="S60" s="142"/>
       <c r="T60" s="73" t="s">
         <v>27</v>
       </c>
@@ -3543,23 +3556,23 @@
       <c r="J61" s="67">
         <v>5</v>
       </c>
-      <c r="K61" s="140" t="s">
+      <c r="K61" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="L61" s="140"/>
-      <c r="M61" s="137" t="s">
+      <c r="L61" s="161"/>
+      <c r="M61" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="N61" s="141"/>
-      <c r="O61" s="141"/>
+      <c r="N61" s="143"/>
+      <c r="O61" s="143"/>
       <c r="P61" s="70">
         <v>1000</v>
       </c>
-      <c r="Q61" s="137" t="s">
+      <c r="Q61" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="137"/>
-      <c r="S61" s="137"/>
+      <c r="R61" s="142"/>
+      <c r="S61" s="142"/>
       <c r="T61" s="73" t="s">
         <v>27</v>
       </c>
@@ -3575,23 +3588,23 @@
       <c r="J62" s="67">
         <v>6</v>
       </c>
-      <c r="K62" s="140" t="s">
+      <c r="K62" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="140"/>
-      <c r="M62" s="137" t="s">
+      <c r="L62" s="161"/>
+      <c r="M62" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="N62" s="141"/>
-      <c r="O62" s="141"/>
+      <c r="N62" s="143"/>
+      <c r="O62" s="143"/>
       <c r="P62" s="70">
         <v>1000</v>
       </c>
-      <c r="Q62" s="137" t="s">
+      <c r="Q62" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R62" s="137"/>
-      <c r="S62" s="137"/>
+      <c r="R62" s="142"/>
+      <c r="S62" s="142"/>
       <c r="T62" s="73" t="s">
         <v>27</v>
       </c>
@@ -3607,23 +3620,23 @@
       <c r="J63" s="67">
         <v>7</v>
       </c>
-      <c r="K63" s="140" t="s">
+      <c r="K63" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="140"/>
-      <c r="M63" s="137" t="s">
+      <c r="L63" s="161"/>
+      <c r="M63" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="N63" s="141"/>
-      <c r="O63" s="141"/>
+      <c r="N63" s="143"/>
+      <c r="O63" s="143"/>
       <c r="P63" s="70">
         <v>1000</v>
       </c>
-      <c r="Q63" s="137" t="s">
+      <c r="Q63" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="137"/>
-      <c r="S63" s="137"/>
+      <c r="R63" s="142"/>
+      <c r="S63" s="142"/>
       <c r="T63" s="73" t="s">
         <v>27</v>
       </c>
@@ -3639,23 +3652,23 @@
       <c r="J64" s="67">
         <v>8</v>
       </c>
-      <c r="K64" s="140" t="s">
+      <c r="K64" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="L64" s="140"/>
-      <c r="M64" s="137" t="s">
+      <c r="L64" s="161"/>
+      <c r="M64" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="N64" s="141"/>
-      <c r="O64" s="141"/>
+      <c r="N64" s="143"/>
+      <c r="O64" s="143"/>
       <c r="P64" s="70">
         <v>1000</v>
       </c>
-      <c r="Q64" s="137" t="s">
+      <c r="Q64" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R64" s="137"/>
-      <c r="S64" s="137"/>
+      <c r="R64" s="142"/>
+      <c r="S64" s="142"/>
       <c r="T64" s="73" t="s">
         <v>27</v>
       </c>
@@ -3671,23 +3684,23 @@
       <c r="J65" s="67">
         <v>9</v>
       </c>
-      <c r="K65" s="140" t="s">
+      <c r="K65" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="140"/>
-      <c r="M65" s="137" t="s">
+      <c r="L65" s="161"/>
+      <c r="M65" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="N65" s="141"/>
-      <c r="O65" s="141"/>
+      <c r="N65" s="143"/>
+      <c r="O65" s="143"/>
       <c r="P65" s="70">
         <v>1000</v>
       </c>
-      <c r="Q65" s="137" t="s">
+      <c r="Q65" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R65" s="137"/>
-      <c r="S65" s="137"/>
+      <c r="R65" s="142"/>
+      <c r="S65" s="142"/>
       <c r="T65" s="73" t="s">
         <v>27</v>
       </c>
@@ -3703,23 +3716,23 @@
       <c r="J66" s="67">
         <v>10</v>
       </c>
-      <c r="K66" s="140" t="s">
+      <c r="K66" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="L66" s="140"/>
-      <c r="M66" s="137" t="s">
+      <c r="L66" s="161"/>
+      <c r="M66" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="N66" s="141"/>
-      <c r="O66" s="141"/>
+      <c r="N66" s="143"/>
+      <c r="O66" s="143"/>
       <c r="P66" s="70">
         <v>1000</v>
       </c>
-      <c r="Q66" s="137" t="s">
+      <c r="Q66" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="R66" s="137"/>
-      <c r="S66" s="137"/>
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
       <c r="T66" s="73" t="s">
         <v>27</v>
       </c>
@@ -3879,7 +3892,7 @@
     </row>
     <row r="75" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C75" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="3:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3917,18 +3930,18 @@
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
-      <c r="K78" s="134" t="s">
+      <c r="K78" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="134"/>
-      <c r="M78" s="134"/>
-      <c r="N78" s="134"/>
-      <c r="O78" s="134"/>
-      <c r="P78" s="134"/>
-      <c r="Q78" s="134"/>
-      <c r="R78" s="134"/>
-      <c r="S78" s="134"/>
-      <c r="T78" s="134"/>
+      <c r="L78" s="151"/>
+      <c r="M78" s="151"/>
+      <c r="N78" s="151"/>
+      <c r="O78" s="151"/>
+      <c r="P78" s="151"/>
+      <c r="Q78" s="151"/>
+      <c r="R78" s="151"/>
+      <c r="S78" s="151"/>
+      <c r="T78" s="151"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
       <c r="W78" s="43"/>
@@ -3937,27 +3950,27 @@
       <c r="C79" s="39"/>
       <c r="D79" s="34"/>
       <c r="E79" s="35"/>
-      <c r="F79" s="135" t="s">
+      <c r="F79" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="135"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="135"/>
-      <c r="J79" s="135"/>
-      <c r="K79" s="134"/>
-      <c r="L79" s="134"/>
-      <c r="M79" s="134"/>
-      <c r="N79" s="134"/>
-      <c r="O79" s="134"/>
-      <c r="P79" s="134"/>
-      <c r="Q79" s="134"/>
-      <c r="R79" s="134"/>
-      <c r="S79" s="134"/>
-      <c r="T79" s="134"/>
-      <c r="U79" s="142" t="s">
+      <c r="G79" s="139"/>
+      <c r="H79" s="139"/>
+      <c r="I79" s="139"/>
+      <c r="J79" s="139"/>
+      <c r="K79" s="151"/>
+      <c r="L79" s="151"/>
+      <c r="M79" s="151"/>
+      <c r="N79" s="151"/>
+      <c r="O79" s="151"/>
+      <c r="P79" s="151"/>
+      <c r="Q79" s="151"/>
+      <c r="R79" s="151"/>
+      <c r="S79" s="151"/>
+      <c r="T79" s="151"/>
+      <c r="U79" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V79" s="143"/>
+      <c r="V79" s="153"/>
       <c r="W79" s="43"/>
     </row>
     <row r="80" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4011,26 +4024,26 @@
       <c r="D82" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="124" t="s">
+      <c r="E82" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
+      <c r="F82" s="138"/>
+      <c r="G82" s="138"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="153" t="s">
+      <c r="J82" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="K82" s="153"/>
-      <c r="L82" s="153"/>
-      <c r="M82" s="153"/>
-      <c r="N82" s="153"/>
-      <c r="O82" s="153"/>
-      <c r="P82" s="153"/>
-      <c r="Q82" s="153"/>
-      <c r="R82" s="153"/>
-      <c r="S82" s="153"/>
-      <c r="T82" s="153"/>
-      <c r="U82" s="153"/>
+      <c r="K82" s="154"/>
+      <c r="L82" s="154"/>
+      <c r="M82" s="154"/>
+      <c r="N82" s="154"/>
+      <c r="O82" s="154"/>
+      <c r="P82" s="154"/>
+      <c r="Q82" s="154"/>
+      <c r="R82" s="154"/>
+      <c r="S82" s="154"/>
+      <c r="T82" s="154"/>
+      <c r="U82" s="154"/>
       <c r="V82" s="77"/>
       <c r="W82" s="20"/>
     </row>
@@ -4039,11 +4052,11 @@
       <c r="D83" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="126" t="s">
+      <c r="E83" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="141"/>
       <c r="I83" s="18"/>
       <c r="J83" s="51"/>
       <c r="K83" s="58"/>
@@ -4058,11 +4071,11 @@
       <c r="D84" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="124" t="s">
+      <c r="E84" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="125"/>
-      <c r="G84" s="125"/>
+      <c r="F84" s="138"/>
+      <c r="G84" s="138"/>
       <c r="I84" s="18"/>
       <c r="K84" s="81"/>
       <c r="L84" s="80"/>
@@ -4084,11 +4097,11 @@
       <c r="D85" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="124" t="s">
+      <c r="E85" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
+      <c r="F85" s="138"/>
+      <c r="G85" s="138"/>
       <c r="I85" s="18" t="s">
         <v>35</v>
       </c>
@@ -4105,11 +4118,11 @@
       <c r="D86" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="124" t="s">
+      <c r="E86" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
+      <c r="F86" s="138"/>
+      <c r="G86" s="138"/>
       <c r="I86" s="18"/>
       <c r="K86" s="82"/>
       <c r="T86" s="78"/>
@@ -4123,14 +4136,14 @@
       <c r="L87" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N87" s="137" t="s">
+      <c r="N87" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="O87" s="141"/>
-      <c r="P87" s="141"/>
-      <c r="Q87" s="141"/>
-      <c r="R87" s="141"/>
-      <c r="S87" s="141"/>
+      <c r="O87" s="143"/>
+      <c r="P87" s="143"/>
+      <c r="Q87" s="143"/>
+      <c r="R87" s="143"/>
+      <c r="S87" s="143"/>
       <c r="T87" s="78"/>
       <c r="V87" s="78"/>
       <c r="W87" s="20"/>
@@ -4150,14 +4163,14 @@
       <c r="L89" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N89" s="137" t="s">
+      <c r="N89" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="O89" s="141"/>
-      <c r="P89" s="141"/>
-      <c r="Q89" s="141"/>
-      <c r="R89" s="141"/>
-      <c r="S89" s="141"/>
+      <c r="O89" s="143"/>
+      <c r="P89" s="143"/>
+      <c r="Q89" s="143"/>
+      <c r="R89" s="143"/>
+      <c r="S89" s="143"/>
       <c r="T89" s="78"/>
       <c r="V89" s="78"/>
       <c r="W89" s="20"/>
@@ -4177,14 +4190,14 @@
       <c r="L91" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N91" s="137" t="s">
+      <c r="N91" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="O91" s="141"/>
-      <c r="P91" s="141"/>
-      <c r="Q91" s="141"/>
-      <c r="R91" s="141"/>
-      <c r="S91" s="141"/>
+      <c r="O91" s="143"/>
+      <c r="P91" s="143"/>
+      <c r="Q91" s="143"/>
+      <c r="R91" s="143"/>
+      <c r="S91" s="143"/>
       <c r="T91" s="78"/>
       <c r="V91" s="78"/>
       <c r="W91" s="20"/>
@@ -4241,10 +4254,10 @@
       <c r="P96" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q96" s="148" t="s">
+      <c r="Q96" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R96" s="148"/>
+      <c r="R96" s="150"/>
       <c r="T96" s="78"/>
       <c r="V96" s="78"/>
       <c r="W96" s="20"/>
@@ -4416,7 +4429,7 @@
     </row>
     <row r="106" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C106" s="61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="3:23" ht="13" x14ac:dyDescent="0.15"/>
@@ -4454,18 +4467,18 @@
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
-      <c r="K109" s="134" t="s">
+      <c r="K109" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L109" s="134"/>
-      <c r="M109" s="134"/>
-      <c r="N109" s="134"/>
-      <c r="O109" s="134"/>
-      <c r="P109" s="134"/>
-      <c r="Q109" s="134"/>
-      <c r="R109" s="134"/>
-      <c r="S109" s="134"/>
-      <c r="T109" s="134"/>
+      <c r="L109" s="151"/>
+      <c r="M109" s="151"/>
+      <c r="N109" s="151"/>
+      <c r="O109" s="151"/>
+      <c r="P109" s="151"/>
+      <c r="Q109" s="151"/>
+      <c r="R109" s="151"/>
+      <c r="S109" s="151"/>
+      <c r="T109" s="151"/>
       <c r="U109" s="33"/>
       <c r="V109" s="33"/>
       <c r="W109" s="43"/>
@@ -4474,27 +4487,27 @@
       <c r="C110" s="39"/>
       <c r="D110" s="34"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="135" t="s">
+      <c r="F110" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="135"/>
-      <c r="H110" s="135"/>
-      <c r="I110" s="135"/>
-      <c r="J110" s="135"/>
-      <c r="K110" s="134"/>
-      <c r="L110" s="134"/>
-      <c r="M110" s="134"/>
-      <c r="N110" s="134"/>
-      <c r="O110" s="134"/>
-      <c r="P110" s="134"/>
-      <c r="Q110" s="134"/>
-      <c r="R110" s="134"/>
-      <c r="S110" s="134"/>
-      <c r="T110" s="134"/>
-      <c r="U110" s="142" t="s">
+      <c r="G110" s="139"/>
+      <c r="H110" s="139"/>
+      <c r="I110" s="139"/>
+      <c r="J110" s="139"/>
+      <c r="K110" s="151"/>
+      <c r="L110" s="151"/>
+      <c r="M110" s="151"/>
+      <c r="N110" s="151"/>
+      <c r="O110" s="151"/>
+      <c r="P110" s="151"/>
+      <c r="Q110" s="151"/>
+      <c r="R110" s="151"/>
+      <c r="S110" s="151"/>
+      <c r="T110" s="151"/>
+      <c r="U110" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V110" s="143"/>
+      <c r="V110" s="153"/>
       <c r="W110" s="43"/>
     </row>
     <row r="111" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4548,26 +4561,26 @@
       <c r="D113" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E113" s="124" t="s">
+      <c r="E113" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="125"/>
-      <c r="G113" s="125"/>
+      <c r="F113" s="138"/>
+      <c r="G113" s="138"/>
       <c r="I113" s="18"/>
-      <c r="J113" s="153" t="s">
+      <c r="J113" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="K113" s="153"/>
-      <c r="L113" s="153"/>
-      <c r="M113" s="153"/>
-      <c r="N113" s="153"/>
-      <c r="O113" s="153"/>
-      <c r="P113" s="153"/>
-      <c r="Q113" s="153"/>
-      <c r="R113" s="153"/>
-      <c r="S113" s="153"/>
-      <c r="T113" s="153"/>
-      <c r="U113" s="153"/>
+      <c r="K113" s="154"/>
+      <c r="L113" s="154"/>
+      <c r="M113" s="154"/>
+      <c r="N113" s="154"/>
+      <c r="O113" s="154"/>
+      <c r="P113" s="154"/>
+      <c r="Q113" s="154"/>
+      <c r="R113" s="154"/>
+      <c r="S113" s="154"/>
+      <c r="T113" s="154"/>
+      <c r="U113" s="154"/>
       <c r="V113" s="77"/>
       <c r="W113" s="20"/>
     </row>
@@ -4576,11 +4589,11 @@
       <c r="D114" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E114" s="126" t="s">
+      <c r="E114" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
+      <c r="F114" s="141"/>
+      <c r="G114" s="141"/>
       <c r="I114" s="18"/>
       <c r="J114" s="51"/>
       <c r="K114" s="58"/>
@@ -4595,11 +4608,11 @@
       <c r="D115" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="124" t="s">
+      <c r="E115" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="125"/>
-      <c r="G115" s="125"/>
+      <c r="F115" s="138"/>
+      <c r="G115" s="138"/>
       <c r="I115" s="18"/>
       <c r="K115" s="81"/>
       <c r="L115" s="80"/>
@@ -4621,11 +4634,11 @@
       <c r="D116" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="124" t="s">
+      <c r="E116" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="125"/>
-      <c r="G116" s="125"/>
+      <c r="F116" s="138"/>
+      <c r="G116" s="138"/>
       <c r="I116" s="18" t="s">
         <v>35</v>
       </c>
@@ -4642,11 +4655,11 @@
       <c r="D117" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="124" t="s">
+      <c r="E117" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="125"/>
-      <c r="G117" s="125"/>
+      <c r="F117" s="138"/>
+      <c r="G117" s="138"/>
       <c r="I117" s="18"/>
       <c r="K117" s="82"/>
       <c r="T117" s="78"/>
@@ -4660,14 +4673,14 @@
       <c r="L118" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N118" s="137" t="s">
+      <c r="N118" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="O118" s="141"/>
-      <c r="P118" s="141"/>
-      <c r="Q118" s="141"/>
-      <c r="R118" s="141"/>
-      <c r="S118" s="141"/>
+      <c r="O118" s="143"/>
+      <c r="P118" s="143"/>
+      <c r="Q118" s="143"/>
+      <c r="R118" s="143"/>
+      <c r="S118" s="143"/>
       <c r="T118" s="78"/>
       <c r="V118" s="78"/>
       <c r="W118" s="20"/>
@@ -4687,14 +4700,14 @@
       <c r="L120" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N120" s="137" t="s">
+      <c r="N120" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="O120" s="141"/>
-      <c r="P120" s="141"/>
-      <c r="Q120" s="141"/>
-      <c r="R120" s="141"/>
-      <c r="S120" s="141"/>
+      <c r="O120" s="143"/>
+      <c r="P120" s="143"/>
+      <c r="Q120" s="143"/>
+      <c r="R120" s="143"/>
+      <c r="S120" s="143"/>
       <c r="T120" s="78"/>
       <c r="V120" s="78"/>
       <c r="W120" s="20"/>
@@ -4714,14 +4727,14 @@
       <c r="L122" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N122" s="137">
+      <c r="N122" s="142">
         <v>1000</v>
       </c>
-      <c r="O122" s="141"/>
-      <c r="P122" s="141"/>
-      <c r="Q122" s="141"/>
-      <c r="R122" s="141"/>
-      <c r="S122" s="141"/>
+      <c r="O122" s="143"/>
+      <c r="P122" s="143"/>
+      <c r="Q122" s="143"/>
+      <c r="R122" s="143"/>
+      <c r="S122" s="143"/>
       <c r="T122" s="78"/>
       <c r="V122" s="78"/>
       <c r="W122" s="20"/>
@@ -4778,10 +4791,10 @@
       <c r="P127" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q127" s="148" t="s">
+      <c r="Q127" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R127" s="148"/>
+      <c r="R127" s="150"/>
       <c r="T127" s="78"/>
       <c r="V127" s="78"/>
       <c r="W127" s="20"/>
@@ -4930,7 +4943,7 @@
     </row>
     <row r="136" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="61" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4967,18 +4980,18 @@
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
-      <c r="K139" s="134" t="s">
+      <c r="K139" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L139" s="134"/>
-      <c r="M139" s="134"/>
-      <c r="N139" s="134"/>
-      <c r="O139" s="134"/>
-      <c r="P139" s="134"/>
-      <c r="Q139" s="134"/>
-      <c r="R139" s="134"/>
-      <c r="S139" s="134"/>
-      <c r="T139" s="134"/>
+      <c r="L139" s="151"/>
+      <c r="M139" s="151"/>
+      <c r="N139" s="151"/>
+      <c r="O139" s="151"/>
+      <c r="P139" s="151"/>
+      <c r="Q139" s="151"/>
+      <c r="R139" s="151"/>
+      <c r="S139" s="151"/>
+      <c r="T139" s="151"/>
       <c r="U139" s="33"/>
       <c r="V139" s="33"/>
       <c r="W139" s="43"/>
@@ -4987,27 +5000,27 @@
       <c r="C140" s="39"/>
       <c r="D140" s="34"/>
       <c r="E140" s="35"/>
-      <c r="F140" s="135" t="s">
+      <c r="F140" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="135"/>
-      <c r="H140" s="135"/>
-      <c r="I140" s="135"/>
-      <c r="J140" s="135"/>
-      <c r="K140" s="134"/>
-      <c r="L140" s="134"/>
-      <c r="M140" s="134"/>
-      <c r="N140" s="134"/>
-      <c r="O140" s="134"/>
-      <c r="P140" s="134"/>
-      <c r="Q140" s="134"/>
-      <c r="R140" s="134"/>
-      <c r="S140" s="134"/>
-      <c r="T140" s="134"/>
-      <c r="U140" s="142" t="s">
+      <c r="G140" s="139"/>
+      <c r="H140" s="139"/>
+      <c r="I140" s="139"/>
+      <c r="J140" s="139"/>
+      <c r="K140" s="151"/>
+      <c r="L140" s="151"/>
+      <c r="M140" s="151"/>
+      <c r="N140" s="151"/>
+      <c r="O140" s="151"/>
+      <c r="P140" s="151"/>
+      <c r="Q140" s="151"/>
+      <c r="R140" s="151"/>
+      <c r="S140" s="151"/>
+      <c r="T140" s="151"/>
+      <c r="U140" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V140" s="143"/>
+      <c r="V140" s="153"/>
       <c r="W140" s="43"/>
     </row>
     <row r="141" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5061,26 +5074,26 @@
       <c r="D143" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="124" t="s">
+      <c r="E143" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="125"/>
-      <c r="G143" s="125"/>
+      <c r="F143" s="138"/>
+      <c r="G143" s="138"/>
       <c r="I143" s="18"/>
-      <c r="J143" s="153" t="s">
+      <c r="J143" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="K143" s="153"/>
-      <c r="L143" s="153"/>
-      <c r="M143" s="153"/>
-      <c r="N143" s="153"/>
-      <c r="O143" s="153"/>
-      <c r="P143" s="153"/>
-      <c r="Q143" s="153"/>
-      <c r="R143" s="153"/>
-      <c r="S143" s="153"/>
-      <c r="T143" s="153"/>
-      <c r="U143" s="153"/>
+      <c r="K143" s="154"/>
+      <c r="L143" s="154"/>
+      <c r="M143" s="154"/>
+      <c r="N143" s="154"/>
+      <c r="O143" s="154"/>
+      <c r="P143" s="154"/>
+      <c r="Q143" s="154"/>
+      <c r="R143" s="154"/>
+      <c r="S143" s="154"/>
+      <c r="T143" s="154"/>
+      <c r="U143" s="154"/>
       <c r="V143" s="77"/>
       <c r="W143" s="20"/>
     </row>
@@ -5089,11 +5102,11 @@
       <c r="D144" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E144" s="126" t="s">
+      <c r="E144" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F144" s="127"/>
-      <c r="G144" s="127"/>
+      <c r="F144" s="141"/>
+      <c r="G144" s="141"/>
       <c r="I144" s="18"/>
       <c r="J144" s="51"/>
       <c r="K144" s="58"/>
@@ -5108,11 +5121,11 @@
       <c r="D145" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="124" t="s">
+      <c r="E145" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F145" s="125"/>
-      <c r="G145" s="125"/>
+      <c r="F145" s="138"/>
+      <c r="G145" s="138"/>
       <c r="I145" s="18"/>
       <c r="V145" s="78"/>
       <c r="W145" s="20"/>
@@ -5122,11 +5135,11 @@
       <c r="D146" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E146" s="124" t="s">
+      <c r="E146" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F146" s="125"/>
-      <c r="G146" s="125"/>
+      <c r="F146" s="138"/>
+      <c r="G146" s="138"/>
       <c r="I146" s="18" t="s">
         <v>35</v>
       </c>
@@ -5148,11 +5161,11 @@
       <c r="D147" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="124" t="s">
+      <c r="E147" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F147" s="125"/>
-      <c r="G147" s="125"/>
+      <c r="F147" s="138"/>
+      <c r="G147" s="138"/>
       <c r="I147" s="18"/>
       <c r="L147" s="82"/>
       <c r="M147" s="88" t="s">
@@ -5394,7 +5407,7 @@
     <row r="167" spans="2:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="168" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="B168" s="61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" spans="2:23" ht="13" x14ac:dyDescent="0.15"/>
@@ -5432,18 +5445,18 @@
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
       <c r="J171" s="33"/>
-      <c r="K171" s="134" t="s">
+      <c r="K171" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L171" s="134"/>
-      <c r="M171" s="134"/>
-      <c r="N171" s="134"/>
-      <c r="O171" s="134"/>
-      <c r="P171" s="134"/>
-      <c r="Q171" s="134"/>
-      <c r="R171" s="134"/>
-      <c r="S171" s="134"/>
-      <c r="T171" s="134"/>
+      <c r="L171" s="151"/>
+      <c r="M171" s="151"/>
+      <c r="N171" s="151"/>
+      <c r="O171" s="151"/>
+      <c r="P171" s="151"/>
+      <c r="Q171" s="151"/>
+      <c r="R171" s="151"/>
+      <c r="S171" s="151"/>
+      <c r="T171" s="151"/>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
       <c r="W171" s="43"/>
@@ -5452,27 +5465,27 @@
       <c r="C172" s="39"/>
       <c r="D172" s="34"/>
       <c r="E172" s="35"/>
-      <c r="F172" s="135" t="s">
+      <c r="F172" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="135"/>
-      <c r="H172" s="135"/>
-      <c r="I172" s="135"/>
-      <c r="J172" s="135"/>
-      <c r="K172" s="134"/>
-      <c r="L172" s="134"/>
-      <c r="M172" s="134"/>
-      <c r="N172" s="134"/>
-      <c r="O172" s="134"/>
-      <c r="P172" s="134"/>
-      <c r="Q172" s="134"/>
-      <c r="R172" s="134"/>
-      <c r="S172" s="134"/>
-      <c r="T172" s="134"/>
-      <c r="U172" s="142" t="s">
+      <c r="G172" s="139"/>
+      <c r="H172" s="139"/>
+      <c r="I172" s="139"/>
+      <c r="J172" s="139"/>
+      <c r="K172" s="151"/>
+      <c r="L172" s="151"/>
+      <c r="M172" s="151"/>
+      <c r="N172" s="151"/>
+      <c r="O172" s="151"/>
+      <c r="P172" s="151"/>
+      <c r="Q172" s="151"/>
+      <c r="R172" s="151"/>
+      <c r="S172" s="151"/>
+      <c r="T172" s="151"/>
+      <c r="U172" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V172" s="143"/>
+      <c r="V172" s="153"/>
       <c r="W172" s="43"/>
     </row>
     <row r="173" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5526,26 +5539,26 @@
       <c r="D175" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E175" s="124" t="s">
+      <c r="E175" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="125"/>
-      <c r="G175" s="125"/>
+      <c r="F175" s="138"/>
+      <c r="G175" s="138"/>
       <c r="I175" s="18"/>
-      <c r="J175" s="153" t="s">
+      <c r="J175" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="K175" s="153"/>
-      <c r="L175" s="153"/>
-      <c r="M175" s="153"/>
-      <c r="N175" s="153"/>
-      <c r="O175" s="153"/>
-      <c r="P175" s="153"/>
-      <c r="Q175" s="153"/>
-      <c r="R175" s="153"/>
-      <c r="S175" s="153"/>
-      <c r="T175" s="153"/>
-      <c r="U175" s="153"/>
+      <c r="K175" s="154"/>
+      <c r="L175" s="154"/>
+      <c r="M175" s="154"/>
+      <c r="N175" s="154"/>
+      <c r="O175" s="154"/>
+      <c r="P175" s="154"/>
+      <c r="Q175" s="154"/>
+      <c r="R175" s="154"/>
+      <c r="S175" s="154"/>
+      <c r="T175" s="154"/>
+      <c r="U175" s="154"/>
       <c r="V175" s="20"/>
       <c r="W175" s="20"/>
     </row>
@@ -5554,11 +5567,11 @@
       <c r="D176" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E176" s="124" t="s">
+      <c r="E176" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F176" s="125"/>
-      <c r="G176" s="125"/>
+      <c r="F176" s="138"/>
+      <c r="G176" s="138"/>
       <c r="I176" s="18"/>
       <c r="J176" s="51"/>
       <c r="K176" s="58"/>
@@ -5573,35 +5586,35 @@
       <c r="D177" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E177" s="126" t="s">
+      <c r="E177" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="127"/>
-      <c r="G177" s="127"/>
+      <c r="F177" s="141"/>
+      <c r="G177" s="141"/>
       <c r="I177" s="18"/>
-      <c r="J177" s="160" t="s">
+      <c r="J177" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="K177" s="161"/>
+      <c r="K177" s="130"/>
       <c r="L177" s="66"/>
-      <c r="M177" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="N177" s="147"/>
-      <c r="O177" s="147"/>
-      <c r="P177" s="147"/>
-      <c r="Q177" s="162" t="s">
+      <c r="M177" s="148" t="s">
+        <v>161</v>
+      </c>
+      <c r="N177" s="149"/>
+      <c r="O177" s="149"/>
+      <c r="P177" s="149"/>
+      <c r="Q177" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="R177" s="163"/>
+      <c r="R177" s="145"/>
       <c r="S177" s="64"/>
       <c r="T177" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U177" s="130" t="s">
+      <c r="U177" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="V177" s="156"/>
+      <c r="V177" s="158"/>
       <c r="W177" s="20"/>
     </row>
     <row r="178" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5609,11 +5622,11 @@
       <c r="D178" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E178" s="124" t="s">
+      <c r="E178" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F178" s="125"/>
-      <c r="G178" s="125"/>
+      <c r="F178" s="138"/>
+      <c r="G178" s="138"/>
       <c r="I178" s="18" t="s">
         <v>35</v>
       </c>
@@ -5629,11 +5642,11 @@
       <c r="D179" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E179" s="124" t="s">
+      <c r="E179" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F179" s="125"/>
-      <c r="G179" s="125"/>
+      <c r="F179" s="138"/>
+      <c r="G179" s="138"/>
       <c r="I179" s="18"/>
       <c r="J179" s="72" t="s">
         <v>61</v>
@@ -5641,28 +5654,28 @@
       <c r="K179" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="L179" s="149" t="s">
+      <c r="L179" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="M179" s="150"/>
-      <c r="N179" s="149" t="s">
+      <c r="M179" s="132"/>
+      <c r="N179" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="O179" s="150"/>
+      <c r="O179" s="132"/>
       <c r="P179" s="72" t="s">
         <v>17</v>
       </c>
       <c r="Q179" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="R179" s="149" t="s">
+      <c r="R179" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="S179" s="150"/>
-      <c r="T179" s="138" t="s">
+      <c r="S179" s="132"/>
+      <c r="T179" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="U179" s="138"/>
+      <c r="U179" s="160"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
     </row>
@@ -5675,24 +5688,24 @@
       <c r="K180" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="L180" s="131" t="s">
+      <c r="L180" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="M180" s="132"/>
-      <c r="N180" s="151" t="s">
+      <c r="M180" s="125"/>
+      <c r="N180" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="O180" s="152"/>
+      <c r="O180" s="127"/>
       <c r="P180" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q180" s="63">
         <v>20</v>
       </c>
-      <c r="R180" s="131" t="s">
+      <c r="R180" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S180" s="133"/>
+      <c r="S180" s="163"/>
       <c r="T180" s="73" t="s">
         <v>27</v>
       </c>
@@ -5712,26 +5725,26 @@
       <c r="K181" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="L181" s="131" t="s">
+      <c r="L181" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="M181" s="132" t="s">
+      <c r="M181" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="N181" s="151" t="s">
+      <c r="N181" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="O181" s="152"/>
+      <c r="O181" s="127"/>
       <c r="P181" s="90" t="s">
         <v>135</v>
       </c>
       <c r="Q181" s="63">
         <v>22</v>
       </c>
-      <c r="R181" s="131" t="s">
+      <c r="R181" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="S181" s="133"/>
+      <c r="S181" s="163"/>
       <c r="T181" s="73" t="s">
         <v>27</v>
       </c>
@@ -5750,26 +5763,26 @@
       <c r="K182" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="L182" s="131" t="s">
+      <c r="L182" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="M182" s="132" t="s">
+      <c r="M182" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="N182" s="151" t="s">
+      <c r="N182" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O182" s="152"/>
+      <c r="O182" s="127"/>
       <c r="P182" s="90" t="s">
         <v>136</v>
       </c>
       <c r="Q182" s="63">
         <v>25</v>
       </c>
-      <c r="R182" s="131" t="s">
+      <c r="R182" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="S182" s="133"/>
+      <c r="S182" s="163"/>
       <c r="T182" s="73" t="s">
         <v>27</v>
       </c>
@@ -5788,26 +5801,26 @@
       <c r="K183" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="L183" s="131" t="s">
+      <c r="L183" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="M183" s="132" t="s">
+      <c r="M183" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="N183" s="151" t="s">
+      <c r="N183" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O183" s="152"/>
+      <c r="O183" s="127"/>
       <c r="P183" s="90" t="s">
         <v>137</v>
       </c>
       <c r="Q183" s="63">
         <v>20</v>
       </c>
-      <c r="R183" s="131" t="s">
+      <c r="R183" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S183" s="133"/>
+      <c r="S183" s="163"/>
       <c r="T183" s="73" t="s">
         <v>27</v>
       </c>
@@ -5826,24 +5839,24 @@
       <c r="K184" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="L184" s="131" t="s">
+      <c r="L184" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="M184" s="132"/>
-      <c r="N184" s="151" t="s">
+      <c r="M184" s="125"/>
+      <c r="N184" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O184" s="152"/>
+      <c r="O184" s="127"/>
       <c r="P184" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q184" s="63">
         <v>20</v>
       </c>
-      <c r="R184" s="131" t="s">
+      <c r="R184" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S184" s="133"/>
+      <c r="S184" s="163"/>
       <c r="T184" s="73" t="s">
         <v>27</v>
       </c>
@@ -5862,24 +5875,24 @@
       <c r="K185" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="L185" s="131" t="s">
+      <c r="L185" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="M185" s="132"/>
-      <c r="N185" s="151" t="s">
+      <c r="M185" s="125"/>
+      <c r="N185" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O185" s="152"/>
+      <c r="O185" s="127"/>
       <c r="P185" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q185" s="63">
         <v>20</v>
       </c>
-      <c r="R185" s="131" t="s">
+      <c r="R185" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S185" s="133"/>
+      <c r="S185" s="163"/>
       <c r="T185" s="73" t="s">
         <v>27</v>
       </c>
@@ -5898,24 +5911,24 @@
       <c r="K186" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L186" s="131" t="s">
+      <c r="L186" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="M186" s="132"/>
-      <c r="N186" s="151" t="s">
+      <c r="M186" s="125"/>
+      <c r="N186" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O186" s="152"/>
+      <c r="O186" s="127"/>
       <c r="P186" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q186" s="63">
         <v>20</v>
       </c>
-      <c r="R186" s="131" t="s">
+      <c r="R186" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S186" s="133"/>
+      <c r="S186" s="163"/>
       <c r="T186" s="73" t="s">
         <v>27</v>
       </c>
@@ -5934,24 +5947,24 @@
       <c r="K187" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="L187" s="131" t="s">
+      <c r="L187" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="M187" s="132"/>
-      <c r="N187" s="151" t="s">
+      <c r="M187" s="125"/>
+      <c r="N187" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O187" s="152"/>
+      <c r="O187" s="127"/>
       <c r="P187" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q187" s="63">
         <v>20</v>
       </c>
-      <c r="R187" s="131" t="s">
+      <c r="R187" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S187" s="133"/>
+      <c r="S187" s="163"/>
       <c r="T187" s="73" t="s">
         <v>27</v>
       </c>
@@ -5970,24 +5983,24 @@
       <c r="K188" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="L188" s="131" t="s">
+      <c r="L188" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="M188" s="132"/>
-      <c r="N188" s="151" t="s">
+      <c r="M188" s="125"/>
+      <c r="N188" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O188" s="152"/>
+      <c r="O188" s="127"/>
       <c r="P188" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q188" s="63">
         <v>20</v>
       </c>
-      <c r="R188" s="131" t="s">
+      <c r="R188" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S188" s="133"/>
+      <c r="S188" s="163"/>
       <c r="T188" s="73" t="s">
         <v>27</v>
       </c>
@@ -6006,24 +6019,24 @@
       <c r="K189" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="L189" s="131" t="s">
+      <c r="L189" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="M189" s="132"/>
-      <c r="N189" s="151" t="s">
+      <c r="M189" s="125"/>
+      <c r="N189" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="O189" s="152"/>
+      <c r="O189" s="127"/>
       <c r="P189" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q189" s="63">
         <v>20</v>
       </c>
-      <c r="R189" s="131" t="s">
+      <c r="R189" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S189" s="133"/>
+      <c r="S189" s="163"/>
       <c r="T189" s="73" t="s">
         <v>27</v>
       </c>
@@ -6183,7 +6196,7 @@
     </row>
     <row r="198" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C198" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6220,18 +6233,18 @@
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
       <c r="J201" s="33"/>
-      <c r="K201" s="134" t="s">
+      <c r="K201" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L201" s="134"/>
-      <c r="M201" s="134"/>
-      <c r="N201" s="134"/>
-      <c r="O201" s="134"/>
-      <c r="P201" s="134"/>
-      <c r="Q201" s="134"/>
-      <c r="R201" s="134"/>
-      <c r="S201" s="134"/>
-      <c r="T201" s="134"/>
+      <c r="L201" s="151"/>
+      <c r="M201" s="151"/>
+      <c r="N201" s="151"/>
+      <c r="O201" s="151"/>
+      <c r="P201" s="151"/>
+      <c r="Q201" s="151"/>
+      <c r="R201" s="151"/>
+      <c r="S201" s="151"/>
+      <c r="T201" s="151"/>
       <c r="U201" s="33"/>
       <c r="V201" s="33"/>
       <c r="W201" s="43"/>
@@ -6240,27 +6253,27 @@
       <c r="C202" s="39"/>
       <c r="D202" s="34"/>
       <c r="E202" s="35"/>
-      <c r="F202" s="135" t="s">
+      <c r="F202" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G202" s="135"/>
-      <c r="H202" s="135"/>
-      <c r="I202" s="135"/>
-      <c r="J202" s="135"/>
-      <c r="K202" s="134"/>
-      <c r="L202" s="134"/>
-      <c r="M202" s="134"/>
-      <c r="N202" s="134"/>
-      <c r="O202" s="134"/>
-      <c r="P202" s="134"/>
-      <c r="Q202" s="134"/>
-      <c r="R202" s="134"/>
-      <c r="S202" s="134"/>
-      <c r="T202" s="134"/>
-      <c r="U202" s="142" t="s">
+      <c r="G202" s="139"/>
+      <c r="H202" s="139"/>
+      <c r="I202" s="139"/>
+      <c r="J202" s="139"/>
+      <c r="K202" s="151"/>
+      <c r="L202" s="151"/>
+      <c r="M202" s="151"/>
+      <c r="N202" s="151"/>
+      <c r="O202" s="151"/>
+      <c r="P202" s="151"/>
+      <c r="Q202" s="151"/>
+      <c r="R202" s="151"/>
+      <c r="S202" s="151"/>
+      <c r="T202" s="151"/>
+      <c r="U202" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V202" s="143"/>
+      <c r="V202" s="153"/>
       <c r="W202" s="43"/>
     </row>
     <row r="203" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6314,26 +6327,26 @@
       <c r="D205" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E205" s="124" t="s">
+      <c r="E205" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F205" s="125"/>
-      <c r="G205" s="125"/>
+      <c r="F205" s="138"/>
+      <c r="G205" s="138"/>
       <c r="I205" s="18"/>
-      <c r="J205" s="153" t="s">
+      <c r="J205" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="K205" s="153"/>
-      <c r="L205" s="153"/>
-      <c r="M205" s="153"/>
-      <c r="N205" s="153"/>
-      <c r="O205" s="153"/>
-      <c r="P205" s="153"/>
-      <c r="Q205" s="153"/>
-      <c r="R205" s="153"/>
-      <c r="S205" s="153"/>
-      <c r="T205" s="153"/>
-      <c r="U205" s="153"/>
+      <c r="K205" s="154"/>
+      <c r="L205" s="154"/>
+      <c r="M205" s="154"/>
+      <c r="N205" s="154"/>
+      <c r="O205" s="154"/>
+      <c r="P205" s="154"/>
+      <c r="Q205" s="154"/>
+      <c r="R205" s="154"/>
+      <c r="S205" s="154"/>
+      <c r="T205" s="154"/>
+      <c r="U205" s="154"/>
       <c r="V205" s="77"/>
       <c r="W205" s="20"/>
     </row>
@@ -6342,11 +6355,11 @@
       <c r="D206" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="124" t="s">
+      <c r="E206" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F206" s="125"/>
-      <c r="G206" s="125"/>
+      <c r="F206" s="138"/>
+      <c r="G206" s="138"/>
       <c r="I206" s="18"/>
       <c r="J206" s="51"/>
       <c r="K206" s="58"/>
@@ -6361,11 +6374,11 @@
       <c r="D207" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E207" s="126" t="s">
+      <c r="E207" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F207" s="127"/>
-      <c r="G207" s="127"/>
+      <c r="F207" s="141"/>
+      <c r="G207" s="141"/>
       <c r="I207" s="18"/>
       <c r="K207" s="81"/>
       <c r="L207" s="80"/>
@@ -6387,11 +6400,11 @@
       <c r="D208" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E208" s="124" t="s">
+      <c r="E208" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F208" s="125"/>
-      <c r="G208" s="125"/>
+      <c r="F208" s="138"/>
+      <c r="G208" s="138"/>
       <c r="I208" s="18" t="s">
         <v>35</v>
       </c>
@@ -6408,11 +6421,11 @@
       <c r="D209" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E209" s="124" t="s">
+      <c r="E209" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F209" s="125"/>
-      <c r="G209" s="125"/>
+      <c r="F209" s="138"/>
+      <c r="G209" s="138"/>
       <c r="I209" s="18"/>
       <c r="K209" s="82"/>
       <c r="T209" s="78"/>
@@ -6426,14 +6439,14 @@
       <c r="L210" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N210" s="137" t="s">
+      <c r="N210" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="O210" s="141"/>
-      <c r="P210" s="141"/>
-      <c r="Q210" s="141"/>
-      <c r="R210" s="141"/>
-      <c r="S210" s="141"/>
+      <c r="O210" s="143"/>
+      <c r="P210" s="143"/>
+      <c r="Q210" s="143"/>
+      <c r="R210" s="143"/>
+      <c r="S210" s="143"/>
       <c r="T210" s="78"/>
       <c r="V210" s="78"/>
       <c r="W210" s="20"/>
@@ -6453,14 +6466,14 @@
       <c r="L212" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N212" s="137" t="s">
+      <c r="N212" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="O212" s="141"/>
-      <c r="P212" s="141"/>
-      <c r="Q212" s="141"/>
-      <c r="R212" s="141"/>
-      <c r="S212" s="141"/>
+      <c r="O212" s="143"/>
+      <c r="P212" s="143"/>
+      <c r="Q212" s="143"/>
+      <c r="R212" s="143"/>
+      <c r="S212" s="143"/>
       <c r="T212" s="78"/>
       <c r="V212" s="78"/>
       <c r="W212" s="20"/>
@@ -6480,14 +6493,14 @@
       <c r="L214" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N214" s="137" t="s">
+      <c r="N214" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="O214" s="141"/>
-      <c r="P214" s="141"/>
-      <c r="Q214" s="141"/>
-      <c r="R214" s="141"/>
-      <c r="S214" s="141"/>
+      <c r="O214" s="143"/>
+      <c r="P214" s="143"/>
+      <c r="Q214" s="143"/>
+      <c r="R214" s="143"/>
+      <c r="S214" s="143"/>
       <c r="T214" s="78"/>
       <c r="V214" s="78"/>
       <c r="W214" s="20"/>
@@ -6507,14 +6520,14 @@
       <c r="L216" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N216" s="137" t="s">
+      <c r="N216" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="O216" s="141"/>
-      <c r="P216" s="141"/>
-      <c r="Q216" s="141"/>
-      <c r="R216" s="141"/>
-      <c r="S216" s="141"/>
+      <c r="O216" s="143"/>
+      <c r="P216" s="143"/>
+      <c r="Q216" s="143"/>
+      <c r="R216" s="143"/>
+      <c r="S216" s="143"/>
       <c r="T216" s="78"/>
       <c r="V216" s="78"/>
       <c r="W216" s="20"/>
@@ -6534,14 +6547,14 @@
       <c r="L218" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="164" t="s">
+      <c r="N218" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="O218" s="165"/>
-      <c r="P218" s="165"/>
-      <c r="Q218" s="165"/>
-      <c r="R218" s="165"/>
-      <c r="S218" s="165"/>
+      <c r="O218" s="147"/>
+      <c r="P218" s="147"/>
+      <c r="Q218" s="147"/>
+      <c r="R218" s="147"/>
+      <c r="S218" s="147"/>
       <c r="T218" s="78"/>
       <c r="V218" s="78"/>
       <c r="W218" s="20"/>
@@ -6550,12 +6563,12 @@
       <c r="C219" s="18"/>
       <c r="I219" s="18"/>
       <c r="K219" s="82"/>
-      <c r="N219" s="165"/>
-      <c r="O219" s="165"/>
-      <c r="P219" s="165"/>
-      <c r="Q219" s="165"/>
-      <c r="R219" s="165"/>
-      <c r="S219" s="165"/>
+      <c r="N219" s="147"/>
+      <c r="O219" s="147"/>
+      <c r="P219" s="147"/>
+      <c r="Q219" s="147"/>
+      <c r="R219" s="147"/>
+      <c r="S219" s="147"/>
       <c r="T219" s="78"/>
       <c r="V219" s="78"/>
       <c r="W219" s="20"/>
@@ -6576,14 +6589,14 @@
         <v>20</v>
       </c>
       <c r="M221" s="30"/>
-      <c r="N221" s="129" t="s">
+      <c r="N221" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="O221" s="147"/>
-      <c r="P221" s="147"/>
-      <c r="Q221" s="147"/>
-      <c r="R221" s="147"/>
-      <c r="S221" s="147"/>
+      <c r="O221" s="149"/>
+      <c r="P221" s="149"/>
+      <c r="Q221" s="149"/>
+      <c r="R221" s="149"/>
+      <c r="S221" s="149"/>
       <c r="T221" s="77"/>
       <c r="V221" s="78"/>
       <c r="W221" s="20"/>
@@ -6615,10 +6628,10 @@
       <c r="P223" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q223" s="148" t="s">
+      <c r="Q223" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R223" s="148"/>
+      <c r="R223" s="150"/>
       <c r="S223" s="52"/>
       <c r="T223" s="77"/>
       <c r="V223" s="78"/>
@@ -6777,7 +6790,7 @@
     </row>
     <row r="231" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C231" s="61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="233" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6814,18 +6827,18 @@
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
-      <c r="K234" s="134" t="s">
+      <c r="K234" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L234" s="134"/>
-      <c r="M234" s="134"/>
-      <c r="N234" s="134"/>
-      <c r="O234" s="134"/>
-      <c r="P234" s="134"/>
-      <c r="Q234" s="134"/>
-      <c r="R234" s="134"/>
-      <c r="S234" s="134"/>
-      <c r="T234" s="134"/>
+      <c r="L234" s="151"/>
+      <c r="M234" s="151"/>
+      <c r="N234" s="151"/>
+      <c r="O234" s="151"/>
+      <c r="P234" s="151"/>
+      <c r="Q234" s="151"/>
+      <c r="R234" s="151"/>
+      <c r="S234" s="151"/>
+      <c r="T234" s="151"/>
       <c r="U234" s="33"/>
       <c r="V234" s="33"/>
       <c r="W234" s="43"/>
@@ -6834,27 +6847,27 @@
       <c r="C235" s="39"/>
       <c r="D235" s="34"/>
       <c r="E235" s="35"/>
-      <c r="F235" s="135" t="s">
+      <c r="F235" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G235" s="135"/>
-      <c r="H235" s="135"/>
-      <c r="I235" s="135"/>
-      <c r="J235" s="135"/>
-      <c r="K235" s="134"/>
-      <c r="L235" s="134"/>
-      <c r="M235" s="134"/>
-      <c r="N235" s="134"/>
-      <c r="O235" s="134"/>
-      <c r="P235" s="134"/>
-      <c r="Q235" s="134"/>
-      <c r="R235" s="134"/>
-      <c r="S235" s="134"/>
-      <c r="T235" s="134"/>
-      <c r="U235" s="142" t="s">
+      <c r="G235" s="139"/>
+      <c r="H235" s="139"/>
+      <c r="I235" s="139"/>
+      <c r="J235" s="139"/>
+      <c r="K235" s="151"/>
+      <c r="L235" s="151"/>
+      <c r="M235" s="151"/>
+      <c r="N235" s="151"/>
+      <c r="O235" s="151"/>
+      <c r="P235" s="151"/>
+      <c r="Q235" s="151"/>
+      <c r="R235" s="151"/>
+      <c r="S235" s="151"/>
+      <c r="T235" s="151"/>
+      <c r="U235" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V235" s="143"/>
+      <c r="V235" s="153"/>
       <c r="W235" s="43"/>
     </row>
     <row r="236" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6908,26 +6921,26 @@
       <c r="D238" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E238" s="124" t="s">
+      <c r="E238" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F238" s="125"/>
-      <c r="G238" s="125"/>
+      <c r="F238" s="138"/>
+      <c r="G238" s="138"/>
       <c r="I238" s="18"/>
-      <c r="J238" s="153" t="s">
+      <c r="J238" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="K238" s="153"/>
-      <c r="L238" s="153"/>
-      <c r="M238" s="153"/>
-      <c r="N238" s="153"/>
-      <c r="O238" s="153"/>
-      <c r="P238" s="153"/>
-      <c r="Q238" s="153"/>
-      <c r="R238" s="153"/>
-      <c r="S238" s="153"/>
-      <c r="T238" s="153"/>
-      <c r="U238" s="153"/>
+      <c r="K238" s="154"/>
+      <c r="L238" s="154"/>
+      <c r="M238" s="154"/>
+      <c r="N238" s="154"/>
+      <c r="O238" s="154"/>
+      <c r="P238" s="154"/>
+      <c r="Q238" s="154"/>
+      <c r="R238" s="154"/>
+      <c r="S238" s="154"/>
+      <c r="T238" s="154"/>
+      <c r="U238" s="154"/>
       <c r="V238" s="77"/>
       <c r="W238" s="20"/>
     </row>
@@ -6936,11 +6949,11 @@
       <c r="D239" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E239" s="124" t="s">
+      <c r="E239" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F239" s="125"/>
-      <c r="G239" s="125"/>
+      <c r="F239" s="138"/>
+      <c r="G239" s="138"/>
       <c r="I239" s="18"/>
       <c r="J239" s="51"/>
       <c r="K239" s="58"/>
@@ -6955,11 +6968,11 @@
       <c r="D240" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="126" t="s">
+      <c r="E240" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F240" s="127"/>
-      <c r="G240" s="127"/>
+      <c r="F240" s="141"/>
+      <c r="G240" s="141"/>
       <c r="I240" s="18"/>
       <c r="K240" s="81"/>
       <c r="L240" s="80"/>
@@ -6981,11 +6994,11 @@
       <c r="D241" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="124" t="s">
+      <c r="E241" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F241" s="125"/>
-      <c r="G241" s="125"/>
+      <c r="F241" s="138"/>
+      <c r="G241" s="138"/>
       <c r="I241" s="18" t="s">
         <v>35</v>
       </c>
@@ -7002,11 +7015,11 @@
       <c r="D242" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="124" t="s">
+      <c r="E242" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F242" s="125"/>
-      <c r="G242" s="125"/>
+      <c r="F242" s="138"/>
+      <c r="G242" s="138"/>
       <c r="I242" s="18"/>
       <c r="K242" s="82"/>
       <c r="T242" s="78"/>
@@ -7020,14 +7033,14 @@
       <c r="L243" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N243" s="137" t="s">
+      <c r="N243" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="O243" s="141"/>
-      <c r="P243" s="141"/>
-      <c r="Q243" s="141"/>
-      <c r="R243" s="141"/>
-      <c r="S243" s="141"/>
+      <c r="O243" s="143"/>
+      <c r="P243" s="143"/>
+      <c r="Q243" s="143"/>
+      <c r="R243" s="143"/>
+      <c r="S243" s="143"/>
       <c r="T243" s="78"/>
       <c r="V243" s="78"/>
       <c r="W243" s="20"/>
@@ -7047,14 +7060,14 @@
       <c r="L245" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N245" s="137" t="s">
+      <c r="N245" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="O245" s="141"/>
-      <c r="P245" s="141"/>
-      <c r="Q245" s="141"/>
-      <c r="R245" s="141"/>
-      <c r="S245" s="141"/>
+      <c r="O245" s="143"/>
+      <c r="P245" s="143"/>
+      <c r="Q245" s="143"/>
+      <c r="R245" s="143"/>
+      <c r="S245" s="143"/>
       <c r="T245" s="78"/>
       <c r="V245" s="78"/>
       <c r="W245" s="20"/>
@@ -7074,14 +7087,14 @@
       <c r="L247" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N247" s="137" t="s">
+      <c r="N247" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="O247" s="141"/>
-      <c r="P247" s="141"/>
-      <c r="Q247" s="141"/>
-      <c r="R247" s="141"/>
-      <c r="S247" s="141"/>
+      <c r="O247" s="143"/>
+      <c r="P247" s="143"/>
+      <c r="Q247" s="143"/>
+      <c r="R247" s="143"/>
+      <c r="S247" s="143"/>
       <c r="T247" s="78"/>
       <c r="V247" s="78"/>
       <c r="W247" s="20"/>
@@ -7101,14 +7114,14 @@
       <c r="L249" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N249" s="137">
+      <c r="N249" s="142">
         <v>20</v>
       </c>
-      <c r="O249" s="141"/>
-      <c r="P249" s="141"/>
-      <c r="Q249" s="141"/>
-      <c r="R249" s="141"/>
-      <c r="S249" s="141"/>
+      <c r="O249" s="143"/>
+      <c r="P249" s="143"/>
+      <c r="Q249" s="143"/>
+      <c r="R249" s="143"/>
+      <c r="S249" s="143"/>
       <c r="T249" s="78"/>
       <c r="V249" s="78"/>
       <c r="W249" s="20"/>
@@ -7128,14 +7141,14 @@
       <c r="L251" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N251" s="164" t="s">
+      <c r="N251" s="146" t="s">
         <v>134</v>
       </c>
-      <c r="O251" s="165"/>
-      <c r="P251" s="165"/>
-      <c r="Q251" s="165"/>
-      <c r="R251" s="165"/>
-      <c r="S251" s="165"/>
+      <c r="O251" s="147"/>
+      <c r="P251" s="147"/>
+      <c r="Q251" s="147"/>
+      <c r="R251" s="147"/>
+      <c r="S251" s="147"/>
       <c r="T251" s="78"/>
       <c r="V251" s="78"/>
       <c r="W251" s="20"/>
@@ -7144,12 +7157,12 @@
       <c r="C252" s="18"/>
       <c r="I252" s="18"/>
       <c r="K252" s="82"/>
-      <c r="N252" s="165"/>
-      <c r="O252" s="165"/>
-      <c r="P252" s="165"/>
-      <c r="Q252" s="165"/>
-      <c r="R252" s="165"/>
-      <c r="S252" s="165"/>
+      <c r="N252" s="147"/>
+      <c r="O252" s="147"/>
+      <c r="P252" s="147"/>
+      <c r="Q252" s="147"/>
+      <c r="R252" s="147"/>
+      <c r="S252" s="147"/>
       <c r="T252" s="78"/>
       <c r="V252" s="78"/>
       <c r="W252" s="20"/>
@@ -7170,14 +7183,14 @@
         <v>20</v>
       </c>
       <c r="M254" s="30"/>
-      <c r="N254" s="129" t="s">
+      <c r="N254" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="O254" s="147"/>
-      <c r="P254" s="147"/>
-      <c r="Q254" s="147"/>
-      <c r="R254" s="147"/>
-      <c r="S254" s="147"/>
+      <c r="O254" s="149"/>
+      <c r="P254" s="149"/>
+      <c r="Q254" s="149"/>
+      <c r="R254" s="149"/>
+      <c r="S254" s="149"/>
       <c r="T254" s="77"/>
       <c r="V254" s="78"/>
       <c r="W254" s="20"/>
@@ -7209,10 +7222,10 @@
       <c r="P256" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q256" s="148" t="s">
+      <c r="Q256" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R256" s="148"/>
+      <c r="R256" s="150"/>
       <c r="S256" s="52"/>
       <c r="T256" s="77"/>
       <c r="V256" s="78"/>
@@ -7354,7 +7367,7 @@
     </row>
     <row r="264" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C264" s="61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="266" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7391,18 +7404,18 @@
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
       <c r="J267" s="33"/>
-      <c r="K267" s="134" t="s">
+      <c r="K267" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L267" s="134"/>
-      <c r="M267" s="134"/>
-      <c r="N267" s="134"/>
-      <c r="O267" s="134"/>
-      <c r="P267" s="134"/>
-      <c r="Q267" s="134"/>
-      <c r="R267" s="134"/>
-      <c r="S267" s="134"/>
-      <c r="T267" s="134"/>
+      <c r="L267" s="151"/>
+      <c r="M267" s="151"/>
+      <c r="N267" s="151"/>
+      <c r="O267" s="151"/>
+      <c r="P267" s="151"/>
+      <c r="Q267" s="151"/>
+      <c r="R267" s="151"/>
+      <c r="S267" s="151"/>
+      <c r="T267" s="151"/>
       <c r="U267" s="33"/>
       <c r="V267" s="33"/>
       <c r="W267" s="43"/>
@@ -7411,27 +7424,27 @@
       <c r="C268" s="39"/>
       <c r="D268" s="34"/>
       <c r="E268" s="35"/>
-      <c r="F268" s="135" t="s">
+      <c r="F268" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G268" s="135"/>
-      <c r="H268" s="135"/>
-      <c r="I268" s="135"/>
-      <c r="J268" s="135"/>
-      <c r="K268" s="134"/>
-      <c r="L268" s="134"/>
-      <c r="M268" s="134"/>
-      <c r="N268" s="134"/>
-      <c r="O268" s="134"/>
-      <c r="P268" s="134"/>
-      <c r="Q268" s="134"/>
-      <c r="R268" s="134"/>
-      <c r="S268" s="134"/>
-      <c r="T268" s="134"/>
-      <c r="U268" s="142" t="s">
+      <c r="G268" s="139"/>
+      <c r="H268" s="139"/>
+      <c r="I268" s="139"/>
+      <c r="J268" s="139"/>
+      <c r="K268" s="151"/>
+      <c r="L268" s="151"/>
+      <c r="M268" s="151"/>
+      <c r="N268" s="151"/>
+      <c r="O268" s="151"/>
+      <c r="P268" s="151"/>
+      <c r="Q268" s="151"/>
+      <c r="R268" s="151"/>
+      <c r="S268" s="151"/>
+      <c r="T268" s="151"/>
+      <c r="U268" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V268" s="143"/>
+      <c r="V268" s="153"/>
       <c r="W268" s="43"/>
     </row>
     <row r="269" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7485,26 +7498,26 @@
       <c r="D271" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="124" t="s">
+      <c r="E271" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F271" s="125"/>
-      <c r="G271" s="125"/>
+      <c r="F271" s="138"/>
+      <c r="G271" s="138"/>
       <c r="I271" s="18"/>
-      <c r="J271" s="153" t="s">
+      <c r="J271" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="K271" s="153"/>
-      <c r="L271" s="153"/>
-      <c r="M271" s="153"/>
-      <c r="N271" s="153"/>
-      <c r="O271" s="153"/>
-      <c r="P271" s="153"/>
-      <c r="Q271" s="153"/>
-      <c r="R271" s="153"/>
-      <c r="S271" s="153"/>
-      <c r="T271" s="153"/>
-      <c r="U271" s="153"/>
+      <c r="K271" s="154"/>
+      <c r="L271" s="154"/>
+      <c r="M271" s="154"/>
+      <c r="N271" s="154"/>
+      <c r="O271" s="154"/>
+      <c r="P271" s="154"/>
+      <c r="Q271" s="154"/>
+      <c r="R271" s="154"/>
+      <c r="S271" s="154"/>
+      <c r="T271" s="154"/>
+      <c r="U271" s="154"/>
       <c r="V271" s="77"/>
       <c r="W271" s="20"/>
     </row>
@@ -7513,11 +7526,11 @@
       <c r="D272" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E272" s="124" t="s">
+      <c r="E272" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F272" s="125"/>
-      <c r="G272" s="125"/>
+      <c r="F272" s="138"/>
+      <c r="G272" s="138"/>
       <c r="I272" s="18"/>
       <c r="J272" s="51"/>
       <c r="K272" s="58"/>
@@ -7532,11 +7545,11 @@
       <c r="D273" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E273" s="126" t="s">
+      <c r="E273" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="F273" s="127"/>
-      <c r="G273" s="127"/>
+      <c r="F273" s="141"/>
+      <c r="G273" s="141"/>
       <c r="I273" s="18"/>
       <c r="V273" s="78"/>
       <c r="W273" s="20"/>
@@ -7546,11 +7559,11 @@
       <c r="D274" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="124" t="s">
+      <c r="E274" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F274" s="125"/>
-      <c r="G274" s="125"/>
+      <c r="F274" s="138"/>
+      <c r="G274" s="138"/>
       <c r="I274" s="18" t="s">
         <v>35</v>
       </c>
@@ -7572,11 +7585,11 @@
       <c r="D275" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E275" s="124" t="s">
+      <c r="E275" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F275" s="125"/>
-      <c r="G275" s="125"/>
+      <c r="F275" s="138"/>
+      <c r="G275" s="138"/>
       <c r="I275" s="18"/>
       <c r="L275" s="82"/>
       <c r="M275" s="88" t="s">
@@ -7793,7 +7806,7 @@
     </row>
     <row r="295" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="297" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7830,18 +7843,18 @@
       <c r="H298" s="33"/>
       <c r="I298" s="33"/>
       <c r="J298" s="33"/>
-      <c r="K298" s="134" t="s">
+      <c r="K298" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L298" s="134"/>
-      <c r="M298" s="134"/>
-      <c r="N298" s="134"/>
-      <c r="O298" s="134"/>
-      <c r="P298" s="134"/>
-      <c r="Q298" s="134"/>
-      <c r="R298" s="134"/>
-      <c r="S298" s="134"/>
-      <c r="T298" s="134"/>
+      <c r="L298" s="151"/>
+      <c r="M298" s="151"/>
+      <c r="N298" s="151"/>
+      <c r="O298" s="151"/>
+      <c r="P298" s="151"/>
+      <c r="Q298" s="151"/>
+      <c r="R298" s="151"/>
+      <c r="S298" s="151"/>
+      <c r="T298" s="151"/>
       <c r="U298" s="33"/>
       <c r="V298" s="33"/>
       <c r="W298" s="43"/>
@@ -7850,27 +7863,27 @@
       <c r="C299" s="39"/>
       <c r="D299" s="34"/>
       <c r="E299" s="35"/>
-      <c r="F299" s="135" t="s">
+      <c r="F299" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G299" s="135"/>
-      <c r="H299" s="135"/>
-      <c r="I299" s="135"/>
-      <c r="J299" s="135"/>
-      <c r="K299" s="134"/>
-      <c r="L299" s="134"/>
-      <c r="M299" s="134"/>
-      <c r="N299" s="134"/>
-      <c r="O299" s="134"/>
-      <c r="P299" s="134"/>
-      <c r="Q299" s="134"/>
-      <c r="R299" s="134"/>
-      <c r="S299" s="134"/>
-      <c r="T299" s="134"/>
-      <c r="U299" s="142" t="s">
+      <c r="G299" s="139"/>
+      <c r="H299" s="139"/>
+      <c r="I299" s="139"/>
+      <c r="J299" s="139"/>
+      <c r="K299" s="151"/>
+      <c r="L299" s="151"/>
+      <c r="M299" s="151"/>
+      <c r="N299" s="151"/>
+      <c r="O299" s="151"/>
+      <c r="P299" s="151"/>
+      <c r="Q299" s="151"/>
+      <c r="R299" s="151"/>
+      <c r="S299" s="151"/>
+      <c r="T299" s="151"/>
+      <c r="U299" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V299" s="143"/>
+      <c r="V299" s="153"/>
       <c r="W299" s="43"/>
     </row>
     <row r="300" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7924,26 +7937,26 @@
       <c r="D302" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="124" t="s">
+      <c r="E302" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F302" s="125"/>
-      <c r="G302" s="125"/>
+      <c r="F302" s="138"/>
+      <c r="G302" s="138"/>
       <c r="I302" s="18"/>
-      <c r="J302" s="153" t="s">
+      <c r="J302" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="K302" s="153"/>
-      <c r="L302" s="153"/>
-      <c r="M302" s="153"/>
-      <c r="N302" s="153"/>
-      <c r="O302" s="153"/>
-      <c r="P302" s="153"/>
-      <c r="Q302" s="153"/>
-      <c r="R302" s="153"/>
-      <c r="S302" s="153"/>
-      <c r="T302" s="153"/>
-      <c r="U302" s="153"/>
+      <c r="K302" s="154"/>
+      <c r="L302" s="154"/>
+      <c r="M302" s="154"/>
+      <c r="N302" s="154"/>
+      <c r="O302" s="154"/>
+      <c r="P302" s="154"/>
+      <c r="Q302" s="154"/>
+      <c r="R302" s="154"/>
+      <c r="S302" s="154"/>
+      <c r="T302" s="154"/>
+      <c r="U302" s="154"/>
       <c r="V302" s="20"/>
       <c r="W302" s="20"/>
     </row>
@@ -7952,11 +7965,11 @@
       <c r="D303" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="124" t="s">
+      <c r="E303" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F303" s="125"/>
-      <c r="G303" s="125"/>
+      <c r="F303" s="138"/>
+      <c r="G303" s="138"/>
       <c r="I303" s="18"/>
       <c r="J303" s="51"/>
       <c r="K303" s="58"/>
@@ -7971,35 +7984,35 @@
       <c r="D304" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="124" t="s">
+      <c r="E304" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F304" s="125"/>
-      <c r="G304" s="125"/>
+      <c r="F304" s="138"/>
+      <c r="G304" s="138"/>
       <c r="I304" s="18"/>
-      <c r="J304" s="160" t="s">
+      <c r="J304" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="K304" s="161"/>
+      <c r="K304" s="130"/>
       <c r="L304" s="66"/>
-      <c r="M304" s="129" t="s">
-        <v>161</v>
-      </c>
-      <c r="N304" s="147"/>
-      <c r="O304" s="147"/>
-      <c r="P304" s="147"/>
-      <c r="Q304" s="162" t="s">
+      <c r="M304" s="148" t="s">
+        <v>160</v>
+      </c>
+      <c r="N304" s="149"/>
+      <c r="O304" s="149"/>
+      <c r="P304" s="149"/>
+      <c r="Q304" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="R304" s="163"/>
+      <c r="R304" s="145"/>
       <c r="S304" s="64"/>
       <c r="T304" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U304" s="130" t="s">
+      <c r="U304" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="V304" s="156"/>
+      <c r="V304" s="158"/>
       <c r="W304" s="20"/>
     </row>
     <row r="305" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8007,11 +8020,11 @@
       <c r="D305" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="126" t="s">
+      <c r="E305" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="F305" s="127"/>
-      <c r="G305" s="127"/>
+      <c r="F305" s="141"/>
+      <c r="G305" s="141"/>
       <c r="I305" s="18" t="s">
         <v>35</v>
       </c>
@@ -8027,11 +8040,11 @@
       <c r="D306" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="124" t="s">
+      <c r="E306" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F306" s="125"/>
-      <c r="G306" s="125"/>
+      <c r="F306" s="138"/>
+      <c r="G306" s="138"/>
       <c r="I306" s="18"/>
       <c r="J306" s="72" t="s">
         <v>61</v>
@@ -8039,29 +8052,31 @@
       <c r="K306" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="L306" s="149" t="s">
+      <c r="L306" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="M306" s="150"/>
-      <c r="N306" s="149" t="s">
+      <c r="M306" s="132"/>
+      <c r="N306" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="O306" s="150"/>
+      <c r="O306" s="132"/>
       <c r="P306" s="72" t="s">
         <v>158</v>
       </c>
       <c r="Q306" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="R306" s="149" t="s">
+        <v>310</v>
+      </c>
+      <c r="R306" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="S306" s="150"/>
-      <c r="T306" s="138" t="s">
+      <c r="S306" s="132"/>
+      <c r="T306" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="U306" s="138"/>
-      <c r="V306" s="20"/>
+      <c r="U306" s="160"/>
+      <c r="V306" s="20" t="s">
+        <v>309</v>
+      </c>
       <c r="W306" s="20"/>
     </row>
     <row r="307" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8071,24 +8086,24 @@
         <v>1</v>
       </c>
       <c r="K307" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="L307" s="131" t="s">
+        <v>162</v>
+      </c>
+      <c r="L307" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="M307" s="132"/>
-      <c r="N307" s="151">
+      <c r="M307" s="125"/>
+      <c r="N307" s="126">
         <v>2000</v>
       </c>
-      <c r="O307" s="152"/>
+      <c r="O307" s="127"/>
       <c r="P307" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q307" s="63"/>
-      <c r="R307" s="131" t="s">
+      <c r="R307" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="S307" s="133"/>
+      <c r="S307" s="163"/>
       <c r="T307" s="73" t="s">
         <v>27</v>
       </c>
@@ -8106,24 +8121,24 @@
         <v>2</v>
       </c>
       <c r="K308" s="89" t="s">
-        <v>164</v>
-      </c>
-      <c r="L308" s="131" t="s">
+        <v>163</v>
+      </c>
+      <c r="L308" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="M308" s="132"/>
-      <c r="N308" s="151">
+      <c r="M308" s="125"/>
+      <c r="N308" s="126">
         <v>2001</v>
       </c>
-      <c r="O308" s="152"/>
+      <c r="O308" s="127"/>
       <c r="P308" s="90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q308" s="63"/>
-      <c r="R308" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="S308" s="133"/>
+      <c r="R308" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="S308" s="163"/>
       <c r="T308" s="73" t="s">
         <v>27</v>
       </c>
@@ -8140,24 +8155,24 @@
         <v>3</v>
       </c>
       <c r="K309" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="L309" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="L309" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="M309" s="132"/>
-      <c r="N309" s="151">
+      <c r="M309" s="125"/>
+      <c r="N309" s="126">
         <v>2002</v>
       </c>
-      <c r="O309" s="152"/>
+      <c r="O309" s="127"/>
       <c r="P309" s="90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q309" s="63"/>
-      <c r="R309" s="131" t="s">
-        <v>185</v>
-      </c>
-      <c r="S309" s="133"/>
+      <c r="R309" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="S309" s="163"/>
       <c r="T309" s="73" t="s">
         <v>27</v>
       </c>
@@ -8174,24 +8189,24 @@
         <v>4</v>
       </c>
       <c r="K310" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="L310" s="131" t="s">
-        <v>173</v>
-      </c>
-      <c r="M310" s="132"/>
-      <c r="N310" s="151">
+        <v>165</v>
+      </c>
+      <c r="L310" s="124" t="s">
+        <v>172</v>
+      </c>
+      <c r="M310" s="125"/>
+      <c r="N310" s="126">
         <v>2000</v>
       </c>
-      <c r="O310" s="152"/>
+      <c r="O310" s="127"/>
       <c r="P310" s="90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q310" s="63"/>
-      <c r="R310" s="131" t="s">
-        <v>186</v>
-      </c>
-      <c r="S310" s="133"/>
+      <c r="R310" s="124" t="s">
+        <v>185</v>
+      </c>
+      <c r="S310" s="163"/>
       <c r="T310" s="73" t="s">
         <v>27</v>
       </c>
@@ -8208,24 +8223,24 @@
         <v>5</v>
       </c>
       <c r="K311" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="L311" s="131" t="s">
-        <v>174</v>
-      </c>
-      <c r="M311" s="132"/>
-      <c r="N311" s="151">
+        <v>166</v>
+      </c>
+      <c r="L311" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="M311" s="125"/>
+      <c r="N311" s="126">
         <v>2000</v>
       </c>
-      <c r="O311" s="152"/>
+      <c r="O311" s="127"/>
       <c r="P311" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q311" s="63"/>
-      <c r="R311" s="131" t="s">
-        <v>187</v>
-      </c>
-      <c r="S311" s="133"/>
+      <c r="R311" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="S311" s="163"/>
       <c r="T311" s="73" t="s">
         <v>27</v>
       </c>
@@ -8242,24 +8257,24 @@
         <v>6</v>
       </c>
       <c r="K312" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="L312" s="131" t="s">
-        <v>175</v>
-      </c>
-      <c r="M312" s="132"/>
-      <c r="N312" s="151">
+        <v>167</v>
+      </c>
+      <c r="L312" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="M312" s="125"/>
+      <c r="N312" s="126">
         <v>2000</v>
       </c>
-      <c r="O312" s="152"/>
+      <c r="O312" s="127"/>
       <c r="P312" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q312" s="63"/>
-      <c r="R312" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="S312" s="133"/>
+      <c r="R312" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="S312" s="163"/>
       <c r="T312" s="73" t="s">
         <v>27</v>
       </c>
@@ -8276,24 +8291,24 @@
         <v>7</v>
       </c>
       <c r="K313" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="L313" s="131" t="s">
-        <v>176</v>
-      </c>
-      <c r="M313" s="132"/>
-      <c r="N313" s="151">
+        <v>168</v>
+      </c>
+      <c r="L313" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="M313" s="125"/>
+      <c r="N313" s="126">
         <v>2000</v>
       </c>
-      <c r="O313" s="152"/>
+      <c r="O313" s="127"/>
       <c r="P313" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q313" s="63"/>
-      <c r="R313" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="S313" s="133"/>
+      <c r="R313" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="S313" s="163"/>
       <c r="T313" s="73" t="s">
         <v>27</v>
       </c>
@@ -8310,24 +8325,24 @@
         <v>8</v>
       </c>
       <c r="K314" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="L314" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="M314" s="132"/>
-      <c r="N314" s="151">
+        <v>169</v>
+      </c>
+      <c r="L314" s="124" t="s">
+        <v>176</v>
+      </c>
+      <c r="M314" s="125"/>
+      <c r="N314" s="126">
         <v>2000</v>
       </c>
-      <c r="O314" s="152"/>
+      <c r="O314" s="127"/>
       <c r="P314" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q314" s="63"/>
-      <c r="R314" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="S314" s="133"/>
+      <c r="R314" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="S314" s="163"/>
       <c r="T314" s="73" t="s">
         <v>27</v>
       </c>
@@ -8344,24 +8359,24 @@
         <v>9</v>
       </c>
       <c r="K315" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="L315" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="M315" s="132"/>
-      <c r="N315" s="151">
+        <v>170</v>
+      </c>
+      <c r="L315" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="M315" s="125"/>
+      <c r="N315" s="126">
         <v>2000</v>
       </c>
-      <c r="O315" s="152"/>
+      <c r="O315" s="127"/>
       <c r="P315" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q315" s="63"/>
-      <c r="R315" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="S315" s="133"/>
+      <c r="R315" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="S315" s="163"/>
       <c r="T315" s="73" t="s">
         <v>27</v>
       </c>
@@ -8378,24 +8393,24 @@
         <v>10</v>
       </c>
       <c r="K316" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="L316" s="131" t="s">
+        <v>171</v>
+      </c>
+      <c r="L316" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="M316" s="125"/>
+      <c r="N316" s="126">
+        <v>2000</v>
+      </c>
+      <c r="O316" s="127"/>
+      <c r="P316" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="M316" s="132"/>
-      <c r="N316" s="151">
-        <v>2000</v>
-      </c>
-      <c r="O316" s="152"/>
-      <c r="P316" s="90" t="s">
-        <v>180</v>
-      </c>
       <c r="Q316" s="63"/>
-      <c r="R316" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="S316" s="133"/>
+      <c r="R316" s="124" t="s">
+        <v>183</v>
+      </c>
+      <c r="S316" s="163"/>
       <c r="T316" s="73" t="s">
         <v>27</v>
       </c>
@@ -8555,7 +8570,7 @@
     </row>
     <row r="325" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C325" s="61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="327" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8592,18 +8607,18 @@
       <c r="H328" s="33"/>
       <c r="I328" s="33"/>
       <c r="J328" s="33"/>
-      <c r="K328" s="134" t="s">
+      <c r="K328" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L328" s="134"/>
-      <c r="M328" s="134"/>
-      <c r="N328" s="134"/>
-      <c r="O328" s="134"/>
-      <c r="P328" s="134"/>
-      <c r="Q328" s="134"/>
-      <c r="R328" s="134"/>
-      <c r="S328" s="134"/>
-      <c r="T328" s="134"/>
+      <c r="L328" s="151"/>
+      <c r="M328" s="151"/>
+      <c r="N328" s="151"/>
+      <c r="O328" s="151"/>
+      <c r="P328" s="151"/>
+      <c r="Q328" s="151"/>
+      <c r="R328" s="151"/>
+      <c r="S328" s="151"/>
+      <c r="T328" s="151"/>
       <c r="U328" s="33"/>
       <c r="V328" s="33"/>
       <c r="W328" s="43"/>
@@ -8612,27 +8627,27 @@
       <c r="C329" s="39"/>
       <c r="D329" s="34"/>
       <c r="E329" s="35"/>
-      <c r="F329" s="135" t="s">
+      <c r="F329" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G329" s="135"/>
-      <c r="H329" s="135"/>
-      <c r="I329" s="135"/>
-      <c r="J329" s="135"/>
-      <c r="K329" s="134"/>
-      <c r="L329" s="134"/>
-      <c r="M329" s="134"/>
-      <c r="N329" s="134"/>
-      <c r="O329" s="134"/>
-      <c r="P329" s="134"/>
-      <c r="Q329" s="134"/>
-      <c r="R329" s="134"/>
-      <c r="S329" s="134"/>
-      <c r="T329" s="134"/>
-      <c r="U329" s="142" t="s">
+      <c r="G329" s="139"/>
+      <c r="H329" s="139"/>
+      <c r="I329" s="139"/>
+      <c r="J329" s="139"/>
+      <c r="K329" s="151"/>
+      <c r="L329" s="151"/>
+      <c r="M329" s="151"/>
+      <c r="N329" s="151"/>
+      <c r="O329" s="151"/>
+      <c r="P329" s="151"/>
+      <c r="Q329" s="151"/>
+      <c r="R329" s="151"/>
+      <c r="S329" s="151"/>
+      <c r="T329" s="151"/>
+      <c r="U329" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V329" s="143"/>
+      <c r="V329" s="153"/>
       <c r="W329" s="43"/>
     </row>
     <row r="330" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8686,26 +8701,26 @@
       <c r="D332" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="124" t="s">
+      <c r="E332" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F332" s="125"/>
-      <c r="G332" s="125"/>
+      <c r="F332" s="138"/>
+      <c r="G332" s="138"/>
       <c r="I332" s="18"/>
-      <c r="J332" s="153" t="s">
+      <c r="J332" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="K332" s="153"/>
-      <c r="L332" s="153"/>
-      <c r="M332" s="153"/>
-      <c r="N332" s="153"/>
-      <c r="O332" s="153"/>
-      <c r="P332" s="153"/>
-      <c r="Q332" s="153"/>
-      <c r="R332" s="153"/>
-      <c r="S332" s="153"/>
-      <c r="T332" s="153"/>
-      <c r="U332" s="153"/>
+      <c r="K332" s="154"/>
+      <c r="L332" s="154"/>
+      <c r="M332" s="154"/>
+      <c r="N332" s="154"/>
+      <c r="O332" s="154"/>
+      <c r="P332" s="154"/>
+      <c r="Q332" s="154"/>
+      <c r="R332" s="154"/>
+      <c r="S332" s="154"/>
+      <c r="T332" s="154"/>
+      <c r="U332" s="154"/>
       <c r="V332" s="77"/>
       <c r="W332" s="20"/>
     </row>
@@ -8714,11 +8729,11 @@
       <c r="D333" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="124" t="s">
+      <c r="E333" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F333" s="125"/>
-      <c r="G333" s="125"/>
+      <c r="F333" s="138"/>
+      <c r="G333" s="138"/>
       <c r="I333" s="18"/>
       <c r="J333" s="51"/>
       <c r="K333" s="58"/>
@@ -8733,11 +8748,11 @@
       <c r="D334" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="124" t="s">
+      <c r="E334" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F334" s="125"/>
-      <c r="G334" s="125"/>
+      <c r="F334" s="138"/>
+      <c r="G334" s="138"/>
       <c r="I334" s="18"/>
       <c r="K334" s="81"/>
       <c r="L334" s="80"/>
@@ -8759,17 +8774,17 @@
       <c r="D335" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="126" t="s">
+      <c r="E335" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="F335" s="127"/>
-      <c r="G335" s="127"/>
+      <c r="F335" s="141"/>
+      <c r="G335" s="141"/>
       <c r="I335" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K335" s="82"/>
       <c r="L335" s="86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T335" s="78"/>
       <c r="V335" s="78"/>
@@ -8780,11 +8795,11 @@
       <c r="D336" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="124" t="s">
+      <c r="E336" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F336" s="125"/>
-      <c r="G336" s="125"/>
+      <c r="F336" s="138"/>
+      <c r="G336" s="138"/>
       <c r="I336" s="18"/>
       <c r="K336" s="82"/>
       <c r="T336" s="78"/>
@@ -8796,16 +8811,16 @@
       <c r="I337" s="18"/>
       <c r="K337" s="82"/>
       <c r="L337" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="N337" s="137" t="s">
+        <v>190</v>
+      </c>
+      <c r="N337" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="O337" s="141"/>
-      <c r="P337" s="141"/>
-      <c r="Q337" s="141"/>
-      <c r="R337" s="141"/>
-      <c r="S337" s="141"/>
+      <c r="O337" s="143"/>
+      <c r="P337" s="143"/>
+      <c r="Q337" s="143"/>
+      <c r="R337" s="143"/>
+      <c r="S337" s="143"/>
       <c r="T337" s="78"/>
       <c r="V337" s="78"/>
       <c r="W337" s="20"/>
@@ -8823,16 +8838,16 @@
       <c r="I339" s="18"/>
       <c r="K339" s="82"/>
       <c r="L339" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="N339" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="N339" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="O339" s="141"/>
-      <c r="P339" s="141"/>
-      <c r="Q339" s="141"/>
-      <c r="R339" s="141"/>
-      <c r="S339" s="141"/>
+      <c r="O339" s="143"/>
+      <c r="P339" s="143"/>
+      <c r="Q339" s="143"/>
+      <c r="R339" s="143"/>
+      <c r="S339" s="143"/>
       <c r="T339" s="78"/>
       <c r="V339" s="78"/>
       <c r="W339" s="20"/>
@@ -8850,16 +8865,16 @@
       <c r="I341" s="18"/>
       <c r="K341" s="82"/>
       <c r="L341" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="N341" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="N341" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="O341" s="141"/>
-      <c r="P341" s="141"/>
-      <c r="Q341" s="141"/>
-      <c r="R341" s="141"/>
-      <c r="S341" s="141"/>
+      <c r="O341" s="143"/>
+      <c r="P341" s="143"/>
+      <c r="Q341" s="143"/>
+      <c r="R341" s="143"/>
+      <c r="S341" s="143"/>
       <c r="T341" s="78"/>
       <c r="V341" s="78"/>
       <c r="W341" s="20"/>
@@ -8877,16 +8892,16 @@
       <c r="I343" s="18"/>
       <c r="K343" s="82"/>
       <c r="L343" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="N343" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="N343" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="O343" s="141"/>
-      <c r="P343" s="141"/>
-      <c r="Q343" s="141"/>
-      <c r="R343" s="141"/>
-      <c r="S343" s="141"/>
+      <c r="O343" s="143"/>
+      <c r="P343" s="143"/>
+      <c r="Q343" s="143"/>
+      <c r="R343" s="143"/>
+      <c r="S343" s="143"/>
       <c r="T343" s="78"/>
       <c r="V343" s="78"/>
       <c r="W343" s="20"/>
@@ -8904,16 +8919,16 @@
       <c r="I345" s="18"/>
       <c r="K345" s="82"/>
       <c r="L345" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="N345" s="155" t="s">
+        <v>192</v>
+      </c>
+      <c r="N345" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="O345" s="145"/>
-      <c r="P345" s="145"/>
-      <c r="Q345" s="145"/>
-      <c r="R345" s="145"/>
-      <c r="S345" s="146"/>
+      <c r="O345" s="165"/>
+      <c r="P345" s="165"/>
+      <c r="Q345" s="165"/>
+      <c r="R345" s="165"/>
+      <c r="S345" s="166"/>
       <c r="T345" s="78"/>
       <c r="V345" s="78"/>
       <c r="W345" s="20"/>
@@ -8931,17 +8946,17 @@
       <c r="I347" s="18"/>
       <c r="K347" s="82"/>
       <c r="L347" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M347" s="30"/>
-      <c r="N347" s="129" t="s">
+      <c r="N347" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="O347" s="147"/>
-      <c r="P347" s="147"/>
-      <c r="Q347" s="147"/>
-      <c r="R347" s="147"/>
-      <c r="S347" s="147"/>
+      <c r="O347" s="149"/>
+      <c r="P347" s="149"/>
+      <c r="Q347" s="149"/>
+      <c r="R347" s="149"/>
+      <c r="S347" s="149"/>
       <c r="T347" s="78"/>
       <c r="V347" s="78"/>
       <c r="W347" s="20"/>
@@ -8974,12 +8989,12 @@
         <v>93</v>
       </c>
       <c r="O349" s="91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P349" s="52"/>
       <c r="Q349" s="75"/>
       <c r="R349" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S349" s="52"/>
       <c r="T349" s="78"/>
@@ -9013,10 +9028,10 @@
       <c r="P351" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q351" s="148" t="s">
+      <c r="Q351" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R351" s="148"/>
+      <c r="R351" s="150"/>
       <c r="S351" s="52"/>
       <c r="T351" s="77"/>
       <c r="V351" s="78"/>
@@ -9175,7 +9190,7 @@
     </row>
     <row r="359" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C359" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="361" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9212,18 +9227,18 @@
       <c r="H362" s="33"/>
       <c r="I362" s="33"/>
       <c r="J362" s="33"/>
-      <c r="K362" s="134" t="s">
+      <c r="K362" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L362" s="134"/>
-      <c r="M362" s="134"/>
-      <c r="N362" s="134"/>
-      <c r="O362" s="134"/>
-      <c r="P362" s="134"/>
-      <c r="Q362" s="134"/>
-      <c r="R362" s="134"/>
-      <c r="S362" s="134"/>
-      <c r="T362" s="134"/>
+      <c r="L362" s="151"/>
+      <c r="M362" s="151"/>
+      <c r="N362" s="151"/>
+      <c r="O362" s="151"/>
+      <c r="P362" s="151"/>
+      <c r="Q362" s="151"/>
+      <c r="R362" s="151"/>
+      <c r="S362" s="151"/>
+      <c r="T362" s="151"/>
       <c r="U362" s="33"/>
       <c r="V362" s="33"/>
       <c r="W362" s="43"/>
@@ -9232,27 +9247,27 @@
       <c r="C363" s="39"/>
       <c r="D363" s="34"/>
       <c r="E363" s="35"/>
-      <c r="F363" s="135" t="s">
+      <c r="F363" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G363" s="135"/>
-      <c r="H363" s="135"/>
-      <c r="I363" s="135"/>
-      <c r="J363" s="135"/>
-      <c r="K363" s="134"/>
-      <c r="L363" s="134"/>
-      <c r="M363" s="134"/>
-      <c r="N363" s="134"/>
-      <c r="O363" s="134"/>
-      <c r="P363" s="134"/>
-      <c r="Q363" s="134"/>
-      <c r="R363" s="134"/>
-      <c r="S363" s="134"/>
-      <c r="T363" s="134"/>
-      <c r="U363" s="142" t="s">
+      <c r="G363" s="139"/>
+      <c r="H363" s="139"/>
+      <c r="I363" s="139"/>
+      <c r="J363" s="139"/>
+      <c r="K363" s="151"/>
+      <c r="L363" s="151"/>
+      <c r="M363" s="151"/>
+      <c r="N363" s="151"/>
+      <c r="O363" s="151"/>
+      <c r="P363" s="151"/>
+      <c r="Q363" s="151"/>
+      <c r="R363" s="151"/>
+      <c r="S363" s="151"/>
+      <c r="T363" s="151"/>
+      <c r="U363" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V363" s="143"/>
+      <c r="V363" s="153"/>
       <c r="W363" s="43"/>
     </row>
     <row r="364" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9306,26 +9321,26 @@
       <c r="D366" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E366" s="124" t="s">
+      <c r="E366" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F366" s="125"/>
-      <c r="G366" s="125"/>
+      <c r="F366" s="138"/>
+      <c r="G366" s="138"/>
       <c r="I366" s="18"/>
-      <c r="J366" s="153" t="s">
+      <c r="J366" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="K366" s="153"/>
-      <c r="L366" s="153"/>
-      <c r="M366" s="153"/>
-      <c r="N366" s="153"/>
-      <c r="O366" s="153"/>
-      <c r="P366" s="153"/>
-      <c r="Q366" s="153"/>
-      <c r="R366" s="153"/>
-      <c r="S366" s="153"/>
-      <c r="T366" s="153"/>
-      <c r="U366" s="153"/>
+      <c r="K366" s="154"/>
+      <c r="L366" s="154"/>
+      <c r="M366" s="154"/>
+      <c r="N366" s="154"/>
+      <c r="O366" s="154"/>
+      <c r="P366" s="154"/>
+      <c r="Q366" s="154"/>
+      <c r="R366" s="154"/>
+      <c r="S366" s="154"/>
+      <c r="T366" s="154"/>
+      <c r="U366" s="154"/>
       <c r="V366" s="77"/>
       <c r="W366" s="20"/>
     </row>
@@ -9334,11 +9349,11 @@
       <c r="D367" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E367" s="124" t="s">
+      <c r="E367" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F367" s="125"/>
-      <c r="G367" s="125"/>
+      <c r="F367" s="138"/>
+      <c r="G367" s="138"/>
       <c r="I367" s="18"/>
       <c r="J367" s="51"/>
       <c r="K367" s="58"/>
@@ -9353,11 +9368,11 @@
       <c r="D368" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E368" s="124" t="s">
+      <c r="E368" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F368" s="125"/>
-      <c r="G368" s="125"/>
+      <c r="F368" s="138"/>
+      <c r="G368" s="138"/>
       <c r="I368" s="18"/>
       <c r="K368" s="81"/>
       <c r="L368" s="80"/>
@@ -9379,17 +9394,17 @@
       <c r="D369" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E369" s="126" t="s">
+      <c r="E369" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="F369" s="127"/>
-      <c r="G369" s="127"/>
+      <c r="F369" s="141"/>
+      <c r="G369" s="141"/>
       <c r="I369" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K369" s="82"/>
       <c r="L369" s="86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T369" s="78"/>
       <c r="V369" s="78"/>
@@ -9400,11 +9415,11 @@
       <c r="D370" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E370" s="124" t="s">
+      <c r="E370" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F370" s="125"/>
-      <c r="G370" s="125"/>
+      <c r="F370" s="138"/>
+      <c r="G370" s="138"/>
       <c r="I370" s="18"/>
       <c r="K370" s="82"/>
       <c r="T370" s="78"/>
@@ -9416,16 +9431,16 @@
       <c r="I371" s="18"/>
       <c r="K371" s="82"/>
       <c r="L371" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="N371" s="137" t="s">
-        <v>198</v>
-      </c>
-      <c r="O371" s="141"/>
-      <c r="P371" s="141"/>
-      <c r="Q371" s="141"/>
-      <c r="R371" s="141"/>
-      <c r="S371" s="141"/>
+        <v>190</v>
+      </c>
+      <c r="N371" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="O371" s="143"/>
+      <c r="P371" s="143"/>
+      <c r="Q371" s="143"/>
+      <c r="R371" s="143"/>
+      <c r="S371" s="143"/>
       <c r="T371" s="78"/>
       <c r="V371" s="78"/>
       <c r="W371" s="20"/>
@@ -9443,16 +9458,16 @@
       <c r="I373" s="18"/>
       <c r="K373" s="82"/>
       <c r="L373" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="N373" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="N373" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="O373" s="141"/>
-      <c r="P373" s="141"/>
-      <c r="Q373" s="141"/>
-      <c r="R373" s="141"/>
-      <c r="S373" s="141"/>
+      <c r="O373" s="143"/>
+      <c r="P373" s="143"/>
+      <c r="Q373" s="143"/>
+      <c r="R373" s="143"/>
+      <c r="S373" s="143"/>
       <c r="T373" s="78"/>
       <c r="V373" s="78"/>
       <c r="W373" s="20"/>
@@ -9470,16 +9485,16 @@
       <c r="I375" s="18"/>
       <c r="K375" s="82"/>
       <c r="L375" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="N375" s="137">
+        <v>188</v>
+      </c>
+      <c r="N375" s="142">
         <v>2000</v>
       </c>
-      <c r="O375" s="141"/>
-      <c r="P375" s="141"/>
-      <c r="Q375" s="141"/>
-      <c r="R375" s="141"/>
-      <c r="S375" s="141"/>
+      <c r="O375" s="143"/>
+      <c r="P375" s="143"/>
+      <c r="Q375" s="143"/>
+      <c r="R375" s="143"/>
+      <c r="S375" s="143"/>
       <c r="T375" s="78"/>
       <c r="V375" s="78"/>
       <c r="W375" s="20"/>
@@ -9497,16 +9512,16 @@
       <c r="I377" s="18"/>
       <c r="K377" s="82"/>
       <c r="L377" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="N377" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="O377" s="141"/>
-      <c r="P377" s="141"/>
-      <c r="Q377" s="141"/>
-      <c r="R377" s="141"/>
-      <c r="S377" s="141"/>
+        <v>191</v>
+      </c>
+      <c r="N377" s="142" t="s">
+        <v>179</v>
+      </c>
+      <c r="O377" s="143"/>
+      <c r="P377" s="143"/>
+      <c r="Q377" s="143"/>
+      <c r="R377" s="143"/>
+      <c r="S377" s="143"/>
       <c r="T377" s="78"/>
       <c r="V377" s="78"/>
       <c r="W377" s="20"/>
@@ -9524,16 +9539,16 @@
       <c r="I379" s="18"/>
       <c r="K379" s="82"/>
       <c r="L379" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="N379" s="144" t="s">
-        <v>199</v>
-      </c>
-      <c r="O379" s="145"/>
-      <c r="P379" s="145"/>
-      <c r="Q379" s="145"/>
-      <c r="R379" s="145"/>
-      <c r="S379" s="146"/>
+        <v>192</v>
+      </c>
+      <c r="N379" s="169" t="s">
+        <v>198</v>
+      </c>
+      <c r="O379" s="165"/>
+      <c r="P379" s="165"/>
+      <c r="Q379" s="165"/>
+      <c r="R379" s="165"/>
+      <c r="S379" s="166"/>
       <c r="T379" s="78"/>
       <c r="V379" s="78"/>
       <c r="W379" s="20"/>
@@ -9551,17 +9566,17 @@
       <c r="I381" s="18"/>
       <c r="K381" s="82"/>
       <c r="L381" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M381" s="30"/>
-      <c r="N381" s="129">
+      <c r="N381" s="148">
         <v>355914029</v>
       </c>
-      <c r="O381" s="147"/>
-      <c r="P381" s="147"/>
-      <c r="Q381" s="147"/>
-      <c r="R381" s="147"/>
-      <c r="S381" s="147"/>
+      <c r="O381" s="149"/>
+      <c r="P381" s="149"/>
+      <c r="Q381" s="149"/>
+      <c r="R381" s="149"/>
+      <c r="S381" s="149"/>
       <c r="T381" s="78"/>
       <c r="V381" s="78"/>
       <c r="W381" s="20"/>
@@ -9594,12 +9609,12 @@
         <v>93</v>
       </c>
       <c r="O383" s="91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P383" s="52"/>
       <c r="Q383" s="75"/>
       <c r="R383" s="91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S383" s="52"/>
       <c r="T383" s="78"/>
@@ -9633,10 +9648,10 @@
       <c r="P385" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q385" s="148" t="s">
+      <c r="Q385" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R385" s="148"/>
+      <c r="R385" s="150"/>
       <c r="S385" s="52"/>
       <c r="T385" s="77"/>
       <c r="V385" s="78"/>
@@ -9772,7 +9787,7 @@
     </row>
     <row r="392" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C392" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="394" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9809,18 +9824,18 @@
       <c r="H395" s="33"/>
       <c r="I395" s="33"/>
       <c r="J395" s="33"/>
-      <c r="K395" s="134" t="s">
+      <c r="K395" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L395" s="134"/>
-      <c r="M395" s="134"/>
-      <c r="N395" s="134"/>
-      <c r="O395" s="134"/>
-      <c r="P395" s="134"/>
-      <c r="Q395" s="134"/>
-      <c r="R395" s="134"/>
-      <c r="S395" s="134"/>
-      <c r="T395" s="134"/>
+      <c r="L395" s="151"/>
+      <c r="M395" s="151"/>
+      <c r="N395" s="151"/>
+      <c r="O395" s="151"/>
+      <c r="P395" s="151"/>
+      <c r="Q395" s="151"/>
+      <c r="R395" s="151"/>
+      <c r="S395" s="151"/>
+      <c r="T395" s="151"/>
       <c r="U395" s="33"/>
       <c r="V395" s="33"/>
       <c r="W395" s="43"/>
@@ -9829,27 +9844,27 @@
       <c r="C396" s="39"/>
       <c r="D396" s="34"/>
       <c r="E396" s="35"/>
-      <c r="F396" s="135" t="s">
+      <c r="F396" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G396" s="135"/>
-      <c r="H396" s="135"/>
-      <c r="I396" s="135"/>
-      <c r="J396" s="135"/>
-      <c r="K396" s="134"/>
-      <c r="L396" s="134"/>
-      <c r="M396" s="134"/>
-      <c r="N396" s="134"/>
-      <c r="O396" s="134"/>
-      <c r="P396" s="134"/>
-      <c r="Q396" s="134"/>
-      <c r="R396" s="134"/>
-      <c r="S396" s="134"/>
-      <c r="T396" s="134"/>
-      <c r="U396" s="142" t="s">
+      <c r="G396" s="139"/>
+      <c r="H396" s="139"/>
+      <c r="I396" s="139"/>
+      <c r="J396" s="139"/>
+      <c r="K396" s="151"/>
+      <c r="L396" s="151"/>
+      <c r="M396" s="151"/>
+      <c r="N396" s="151"/>
+      <c r="O396" s="151"/>
+      <c r="P396" s="151"/>
+      <c r="Q396" s="151"/>
+      <c r="R396" s="151"/>
+      <c r="S396" s="151"/>
+      <c r="T396" s="151"/>
+      <c r="U396" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V396" s="143"/>
+      <c r="V396" s="153"/>
       <c r="W396" s="43"/>
     </row>
     <row r="397" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9903,26 +9918,26 @@
       <c r="D399" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="124" t="s">
+      <c r="E399" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F399" s="125"/>
-      <c r="G399" s="125"/>
+      <c r="F399" s="138"/>
+      <c r="G399" s="138"/>
       <c r="I399" s="18"/>
-      <c r="J399" s="153" t="s">
+      <c r="J399" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="K399" s="153"/>
-      <c r="L399" s="153"/>
-      <c r="M399" s="153"/>
-      <c r="N399" s="153"/>
-      <c r="O399" s="153"/>
-      <c r="P399" s="153"/>
-      <c r="Q399" s="153"/>
-      <c r="R399" s="153"/>
-      <c r="S399" s="153"/>
-      <c r="T399" s="153"/>
-      <c r="U399" s="153"/>
+      <c r="K399" s="154"/>
+      <c r="L399" s="154"/>
+      <c r="M399" s="154"/>
+      <c r="N399" s="154"/>
+      <c r="O399" s="154"/>
+      <c r="P399" s="154"/>
+      <c r="Q399" s="154"/>
+      <c r="R399" s="154"/>
+      <c r="S399" s="154"/>
+      <c r="T399" s="154"/>
+      <c r="U399" s="154"/>
       <c r="V399" s="77"/>
       <c r="W399" s="20"/>
     </row>
@@ -9931,11 +9946,11 @@
       <c r="D400" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="124" t="s">
+      <c r="E400" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F400" s="125"/>
-      <c r="G400" s="125"/>
+      <c r="F400" s="138"/>
+      <c r="G400" s="138"/>
       <c r="I400" s="18"/>
       <c r="J400" s="51"/>
       <c r="K400" s="58"/>
@@ -9950,11 +9965,11 @@
       <c r="D401" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="124" t="s">
+      <c r="E401" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F401" s="125"/>
-      <c r="G401" s="125"/>
+      <c r="F401" s="138"/>
+      <c r="G401" s="138"/>
       <c r="I401" s="18"/>
       <c r="V401" s="78"/>
       <c r="W401" s="20"/>
@@ -9964,11 +9979,11 @@
       <c r="D402" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="126" t="s">
+      <c r="E402" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="F402" s="127"/>
-      <c r="G402" s="127"/>
+      <c r="F402" s="141"/>
+      <c r="G402" s="141"/>
       <c r="I402" s="18" t="s">
         <v>35</v>
       </c>
@@ -9990,15 +10005,15 @@
       <c r="D403" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="124" t="s">
+      <c r="E403" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F403" s="125"/>
-      <c r="G403" s="125"/>
+      <c r="F403" s="138"/>
+      <c r="G403" s="138"/>
       <c r="I403" s="18"/>
       <c r="L403" s="82"/>
       <c r="M403" s="88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N403" s="49"/>
       <c r="O403" s="49"/>
@@ -10024,7 +10039,7 @@
       <c r="I405" s="18"/>
       <c r="L405" s="82"/>
       <c r="M405" s="69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N405" s="49"/>
       <c r="O405" s="49"/>
@@ -10211,7 +10226,7 @@
     </row>
     <row r="423" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B423" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="425" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10248,18 +10263,18 @@
       <c r="H426" s="33"/>
       <c r="I426" s="33"/>
       <c r="J426" s="33"/>
-      <c r="K426" s="134" t="s">
+      <c r="K426" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L426" s="134"/>
-      <c r="M426" s="134"/>
-      <c r="N426" s="134"/>
-      <c r="O426" s="134"/>
-      <c r="P426" s="134"/>
-      <c r="Q426" s="134"/>
-      <c r="R426" s="134"/>
-      <c r="S426" s="134"/>
-      <c r="T426" s="134"/>
+      <c r="L426" s="151"/>
+      <c r="M426" s="151"/>
+      <c r="N426" s="151"/>
+      <c r="O426" s="151"/>
+      <c r="P426" s="151"/>
+      <c r="Q426" s="151"/>
+      <c r="R426" s="151"/>
+      <c r="S426" s="151"/>
+      <c r="T426" s="151"/>
       <c r="U426" s="33"/>
       <c r="V426" s="33"/>
       <c r="W426" s="43"/>
@@ -10268,27 +10283,27 @@
       <c r="C427" s="39"/>
       <c r="D427" s="34"/>
       <c r="E427" s="35"/>
-      <c r="F427" s="135" t="s">
+      <c r="F427" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G427" s="135"/>
-      <c r="H427" s="135"/>
-      <c r="I427" s="135"/>
-      <c r="J427" s="135"/>
-      <c r="K427" s="134"/>
-      <c r="L427" s="134"/>
-      <c r="M427" s="134"/>
-      <c r="N427" s="134"/>
-      <c r="O427" s="134"/>
-      <c r="P427" s="134"/>
-      <c r="Q427" s="134"/>
-      <c r="R427" s="134"/>
-      <c r="S427" s="134"/>
-      <c r="T427" s="134"/>
-      <c r="U427" s="142" t="s">
+      <c r="G427" s="139"/>
+      <c r="H427" s="139"/>
+      <c r="I427" s="139"/>
+      <c r="J427" s="139"/>
+      <c r="K427" s="151"/>
+      <c r="L427" s="151"/>
+      <c r="M427" s="151"/>
+      <c r="N427" s="151"/>
+      <c r="O427" s="151"/>
+      <c r="P427" s="151"/>
+      <c r="Q427" s="151"/>
+      <c r="R427" s="151"/>
+      <c r="S427" s="151"/>
+      <c r="T427" s="151"/>
+      <c r="U427" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V427" s="143"/>
+      <c r="V427" s="153"/>
       <c r="W427" s="43"/>
     </row>
     <row r="428" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10342,26 +10357,26 @@
       <c r="D430" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E430" s="124" t="s">
+      <c r="E430" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F430" s="125"/>
-      <c r="G430" s="125"/>
+      <c r="F430" s="138"/>
+      <c r="G430" s="138"/>
       <c r="I430" s="18"/>
-      <c r="J430" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="K430" s="153"/>
-      <c r="L430" s="153"/>
-      <c r="M430" s="153"/>
-      <c r="N430" s="153"/>
-      <c r="O430" s="153"/>
-      <c r="P430" s="153"/>
-      <c r="Q430" s="153"/>
-      <c r="R430" s="153"/>
-      <c r="S430" s="153"/>
-      <c r="T430" s="153"/>
-      <c r="U430" s="153"/>
+      <c r="J430" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="K430" s="154"/>
+      <c r="L430" s="154"/>
+      <c r="M430" s="154"/>
+      <c r="N430" s="154"/>
+      <c r="O430" s="154"/>
+      <c r="P430" s="154"/>
+      <c r="Q430" s="154"/>
+      <c r="R430" s="154"/>
+      <c r="S430" s="154"/>
+      <c r="T430" s="154"/>
+      <c r="U430" s="154"/>
       <c r="V430" s="20"/>
       <c r="W430" s="20"/>
     </row>
@@ -10370,11 +10385,11 @@
       <c r="D431" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E431" s="124" t="s">
+      <c r="E431" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F431" s="125"/>
-      <c r="G431" s="125"/>
+      <c r="F431" s="138"/>
+      <c r="G431" s="138"/>
       <c r="I431" s="18"/>
       <c r="J431" s="51"/>
       <c r="K431" s="58"/>
@@ -10389,19 +10404,19 @@
       <c r="D432" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E432" s="124" t="s">
+      <c r="E432" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F432" s="125"/>
-      <c r="G432" s="125"/>
+      <c r="F432" s="138"/>
+      <c r="G432" s="138"/>
       <c r="I432" s="18"/>
-      <c r="J432" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="K432" s="129"/>
-      <c r="L432" s="129"/>
-      <c r="M432" s="129"/>
-      <c r="N432" s="129"/>
+      <c r="J432" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="K432" s="148"/>
+      <c r="L432" s="148"/>
+      <c r="M432" s="148"/>
+      <c r="N432" s="148"/>
       <c r="O432" s="35"/>
       <c r="P432" s="94" t="s">
         <v>16</v>
@@ -10409,11 +10424,11 @@
       <c r="R432" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S432" s="130" t="s">
+      <c r="S432" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="T432" s="130"/>
-      <c r="U432" s="130"/>
+      <c r="T432" s="157"/>
+      <c r="U432" s="157"/>
       <c r="V432" s="95"/>
       <c r="W432" s="20"/>
     </row>
@@ -10422,11 +10437,11 @@
       <c r="D433" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E433" s="124" t="s">
+      <c r="E433" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F433" s="125"/>
-      <c r="G433" s="125"/>
+      <c r="F433" s="138"/>
+      <c r="G433" s="138"/>
       <c r="I433" s="18" t="s">
         <v>35</v>
       </c>
@@ -10442,36 +10457,36 @@
       <c r="D434" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E434" s="126" t="s">
+      <c r="E434" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="F434" s="127"/>
-      <c r="G434" s="127"/>
+      <c r="F434" s="141"/>
+      <c r="G434" s="141"/>
       <c r="I434" s="18"/>
       <c r="J434" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K434" s="154" t="s">
+      <c r="K434" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="L434" s="154"/>
-      <c r="M434" s="138" t="s">
+      <c r="L434" s="159"/>
+      <c r="M434" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="N434" s="138"/>
-      <c r="O434" s="138" t="s">
-        <v>204</v>
-      </c>
-      <c r="P434" s="138"/>
-      <c r="Q434" s="138" t="s">
+      <c r="N434" s="160"/>
+      <c r="O434" s="160" t="s">
+        <v>203</v>
+      </c>
+      <c r="P434" s="160"/>
+      <c r="Q434" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="R434" s="138"/>
-      <c r="S434" s="138"/>
-      <c r="T434" s="138" t="s">
+      <c r="R434" s="160"/>
+      <c r="S434" s="160"/>
+      <c r="T434" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="U434" s="138"/>
+      <c r="U434" s="160"/>
       <c r="V434" s="20"/>
       <c r="W434" s="20"/>
     </row>
@@ -10481,28 +10496,28 @@
       <c r="J435" s="67">
         <v>1</v>
       </c>
-      <c r="K435" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L435" s="140"/>
-      <c r="M435" s="136">
+      <c r="K435" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L435" s="161"/>
+      <c r="M435" s="168">
         <v>123456</v>
       </c>
-      <c r="N435" s="136"/>
-      <c r="O435" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="P435" s="137"/>
-      <c r="Q435" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R435" s="132"/>
-      <c r="S435" s="133"/>
+      <c r="N435" s="168"/>
+      <c r="O435" s="142" t="s">
+        <v>204</v>
+      </c>
+      <c r="P435" s="142"/>
+      <c r="Q435" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R435" s="125"/>
+      <c r="S435" s="163"/>
       <c r="T435" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U435" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U435" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V435" s="20"/>
       <c r="W435" s="20"/>
@@ -10514,32 +10529,32 @@
       <c r="J436" s="67">
         <v>2</v>
       </c>
-      <c r="K436" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L436" s="140"/>
-      <c r="M436" s="136">
+      <c r="K436" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L436" s="161"/>
+      <c r="M436" s="168">
         <v>654321</v>
       </c>
-      <c r="N436" s="136">
+      <c r="N436" s="168">
         <v>2001</v>
       </c>
-      <c r="O436" s="137" t="s">
-        <v>206</v>
-      </c>
-      <c r="P436" s="137"/>
-      <c r="Q436" s="131" t="s">
+      <c r="O436" s="142" t="s">
+        <v>205</v>
+      </c>
+      <c r="P436" s="142"/>
+      <c r="Q436" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="R436" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="S436" s="163"/>
+      <c r="T436" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="R436" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="S436" s="133"/>
-      <c r="T436" s="73" t="s">
+      <c r="U436" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U436" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V436" s="20"/>
       <c r="W436" s="20"/>
@@ -10550,30 +10565,30 @@
       <c r="J437" s="67">
         <v>3</v>
       </c>
-      <c r="K437" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L437" s="140"/>
-      <c r="M437" s="136">
+      <c r="K437" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L437" s="161"/>
+      <c r="M437" s="168">
         <v>123456</v>
       </c>
-      <c r="N437" s="136"/>
-      <c r="O437" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="P437" s="137"/>
-      <c r="Q437" s="131" t="s">
+      <c r="N437" s="168"/>
+      <c r="O437" s="142" t="s">
+        <v>206</v>
+      </c>
+      <c r="P437" s="142"/>
+      <c r="Q437" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="R437" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="S437" s="163"/>
+      <c r="T437" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="R437" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="S437" s="133"/>
-      <c r="T437" s="73" t="s">
+      <c r="U437" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U437" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V437" s="20"/>
       <c r="W437" s="20"/>
@@ -10584,28 +10599,28 @@
       <c r="J438" s="67">
         <v>4</v>
       </c>
-      <c r="K438" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L438" s="140"/>
-      <c r="M438" s="136">
+      <c r="K438" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L438" s="161"/>
+      <c r="M438" s="168">
         <v>123456</v>
       </c>
-      <c r="N438" s="136"/>
-      <c r="O438" s="137" t="s">
-        <v>208</v>
-      </c>
-      <c r="P438" s="137"/>
-      <c r="Q438" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R438" s="132"/>
-      <c r="S438" s="133"/>
+      <c r="N438" s="168"/>
+      <c r="O438" s="142" t="s">
+        <v>207</v>
+      </c>
+      <c r="P438" s="142"/>
+      <c r="Q438" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R438" s="125"/>
+      <c r="S438" s="163"/>
       <c r="T438" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U438" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U438" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V438" s="20"/>
       <c r="W438" s="20"/>
@@ -10616,28 +10631,28 @@
       <c r="J439" s="67">
         <v>5</v>
       </c>
-      <c r="K439" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L439" s="140"/>
-      <c r="M439" s="136">
+      <c r="K439" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L439" s="161"/>
+      <c r="M439" s="168">
         <v>123456</v>
       </c>
-      <c r="N439" s="136"/>
-      <c r="O439" s="137" t="s">
-        <v>209</v>
-      </c>
-      <c r="P439" s="137"/>
-      <c r="Q439" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R439" s="132"/>
-      <c r="S439" s="133"/>
+      <c r="N439" s="168"/>
+      <c r="O439" s="142" t="s">
+        <v>208</v>
+      </c>
+      <c r="P439" s="142"/>
+      <c r="Q439" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R439" s="125"/>
+      <c r="S439" s="163"/>
       <c r="T439" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U439" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U439" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V439" s="20"/>
       <c r="W439" s="20"/>
@@ -10648,28 +10663,28 @@
       <c r="J440" s="67">
         <v>6</v>
       </c>
-      <c r="K440" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L440" s="140"/>
-      <c r="M440" s="136">
+      <c r="K440" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L440" s="161"/>
+      <c r="M440" s="168">
         <v>123456</v>
       </c>
-      <c r="N440" s="136"/>
-      <c r="O440" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="P440" s="137"/>
-      <c r="Q440" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R440" s="132"/>
-      <c r="S440" s="133"/>
+      <c r="N440" s="168"/>
+      <c r="O440" s="142" t="s">
+        <v>209</v>
+      </c>
+      <c r="P440" s="142"/>
+      <c r="Q440" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R440" s="125"/>
+      <c r="S440" s="163"/>
       <c r="T440" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U440" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U440" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V440" s="20"/>
       <c r="W440" s="20"/>
@@ -10680,28 +10695,28 @@
       <c r="J441" s="67">
         <v>7</v>
       </c>
-      <c r="K441" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L441" s="140"/>
-      <c r="M441" s="136">
+      <c r="K441" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L441" s="161"/>
+      <c r="M441" s="168">
         <v>123456</v>
       </c>
-      <c r="N441" s="136"/>
-      <c r="O441" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="P441" s="137"/>
-      <c r="Q441" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R441" s="132"/>
-      <c r="S441" s="133"/>
+      <c r="N441" s="168"/>
+      <c r="O441" s="142" t="s">
+        <v>210</v>
+      </c>
+      <c r="P441" s="142"/>
+      <c r="Q441" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R441" s="125"/>
+      <c r="S441" s="163"/>
       <c r="T441" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U441" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U441" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V441" s="20"/>
       <c r="W441" s="20"/>
@@ -10712,28 +10727,28 @@
       <c r="J442" s="67">
         <v>8</v>
       </c>
-      <c r="K442" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L442" s="140"/>
-      <c r="M442" s="136">
+      <c r="K442" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L442" s="161"/>
+      <c r="M442" s="168">
         <v>123456</v>
       </c>
-      <c r="N442" s="136"/>
-      <c r="O442" s="137" t="s">
-        <v>212</v>
-      </c>
-      <c r="P442" s="137"/>
-      <c r="Q442" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R442" s="132"/>
-      <c r="S442" s="133"/>
+      <c r="N442" s="168"/>
+      <c r="O442" s="142" t="s">
+        <v>211</v>
+      </c>
+      <c r="P442" s="142"/>
+      <c r="Q442" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R442" s="125"/>
+      <c r="S442" s="163"/>
       <c r="T442" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U442" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U442" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V442" s="20"/>
       <c r="W442" s="20"/>
@@ -10744,28 +10759,28 @@
       <c r="J443" s="67">
         <v>9</v>
       </c>
-      <c r="K443" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L443" s="140"/>
-      <c r="M443" s="136">
+      <c r="K443" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L443" s="161"/>
+      <c r="M443" s="168">
         <v>123456</v>
       </c>
-      <c r="N443" s="136"/>
-      <c r="O443" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="P443" s="137"/>
-      <c r="Q443" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R443" s="132"/>
-      <c r="S443" s="133"/>
+      <c r="N443" s="168"/>
+      <c r="O443" s="142" t="s">
+        <v>212</v>
+      </c>
+      <c r="P443" s="142"/>
+      <c r="Q443" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="R443" s="125"/>
+      <c r="S443" s="163"/>
       <c r="T443" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U443" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U443" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V443" s="20"/>
       <c r="W443" s="20"/>
@@ -10776,28 +10791,28 @@
       <c r="J444" s="67">
         <v>10</v>
       </c>
-      <c r="K444" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L444" s="140"/>
-      <c r="M444" s="136">
+      <c r="K444" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="L444" s="161"/>
+      <c r="M444" s="168">
         <v>123456</v>
       </c>
-      <c r="N444" s="136"/>
-      <c r="O444" s="137" t="s">
+      <c r="N444" s="168"/>
+      <c r="O444" s="142" t="s">
+        <v>213</v>
+      </c>
+      <c r="P444" s="142"/>
+      <c r="Q444" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="P444" s="137"/>
-      <c r="Q444" s="131" t="s">
-        <v>215</v>
-      </c>
-      <c r="R444" s="132"/>
-      <c r="S444" s="133"/>
+      <c r="R444" s="125"/>
+      <c r="S444" s="163"/>
       <c r="T444" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="U444" s="74" t="s">
         <v>217</v>
-      </c>
-      <c r="U444" s="74" t="s">
-        <v>218</v>
       </c>
       <c r="V444" s="20"/>
       <c r="W444" s="20"/>
@@ -10929,7 +10944,7 @@
     </row>
     <row r="453" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C453" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="455" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10966,18 +10981,18 @@
       <c r="H456" s="33"/>
       <c r="I456" s="33"/>
       <c r="J456" s="33"/>
-      <c r="K456" s="134" t="s">
+      <c r="K456" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L456" s="134"/>
-      <c r="M456" s="134"/>
-      <c r="N456" s="134"/>
-      <c r="O456" s="134"/>
-      <c r="P456" s="134"/>
-      <c r="Q456" s="134"/>
-      <c r="R456" s="134"/>
-      <c r="S456" s="134"/>
-      <c r="T456" s="134"/>
+      <c r="L456" s="151"/>
+      <c r="M456" s="151"/>
+      <c r="N456" s="151"/>
+      <c r="O456" s="151"/>
+      <c r="P456" s="151"/>
+      <c r="Q456" s="151"/>
+      <c r="R456" s="151"/>
+      <c r="S456" s="151"/>
+      <c r="T456" s="151"/>
       <c r="U456" s="33"/>
       <c r="V456" s="33"/>
       <c r="W456" s="43"/>
@@ -10986,27 +11001,27 @@
       <c r="C457" s="39"/>
       <c r="D457" s="34"/>
       <c r="E457" s="35"/>
-      <c r="F457" s="135" t="s">
+      <c r="F457" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G457" s="135"/>
-      <c r="H457" s="135"/>
-      <c r="I457" s="135"/>
-      <c r="J457" s="135"/>
-      <c r="K457" s="134"/>
-      <c r="L457" s="134"/>
-      <c r="M457" s="134"/>
-      <c r="N457" s="134"/>
-      <c r="O457" s="134"/>
-      <c r="P457" s="134"/>
-      <c r="Q457" s="134"/>
-      <c r="R457" s="134"/>
-      <c r="S457" s="134"/>
-      <c r="T457" s="134"/>
-      <c r="U457" s="142" t="s">
+      <c r="G457" s="139"/>
+      <c r="H457" s="139"/>
+      <c r="I457" s="139"/>
+      <c r="J457" s="139"/>
+      <c r="K457" s="151"/>
+      <c r="L457" s="151"/>
+      <c r="M457" s="151"/>
+      <c r="N457" s="151"/>
+      <c r="O457" s="151"/>
+      <c r="P457" s="151"/>
+      <c r="Q457" s="151"/>
+      <c r="R457" s="151"/>
+      <c r="S457" s="151"/>
+      <c r="T457" s="151"/>
+      <c r="U457" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V457" s="143"/>
+      <c r="V457" s="153"/>
       <c r="W457" s="43"/>
     </row>
     <row r="458" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11060,26 +11075,26 @@
       <c r="D460" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E460" s="124" t="s">
+      <c r="E460" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F460" s="125"/>
-      <c r="G460" s="125"/>
+      <c r="F460" s="138"/>
+      <c r="G460" s="138"/>
       <c r="I460" s="18"/>
-      <c r="J460" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="K460" s="153"/>
-      <c r="L460" s="153"/>
-      <c r="M460" s="153"/>
-      <c r="N460" s="153"/>
-      <c r="O460" s="153"/>
-      <c r="P460" s="153"/>
-      <c r="Q460" s="153"/>
-      <c r="R460" s="153"/>
-      <c r="S460" s="153"/>
-      <c r="T460" s="153"/>
-      <c r="U460" s="153"/>
+      <c r="J460" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="K460" s="154"/>
+      <c r="L460" s="154"/>
+      <c r="M460" s="154"/>
+      <c r="N460" s="154"/>
+      <c r="O460" s="154"/>
+      <c r="P460" s="154"/>
+      <c r="Q460" s="154"/>
+      <c r="R460" s="154"/>
+      <c r="S460" s="154"/>
+      <c r="T460" s="154"/>
+      <c r="U460" s="154"/>
       <c r="V460" s="77"/>
       <c r="W460" s="20"/>
     </row>
@@ -11088,11 +11103,11 @@
       <c r="D461" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E461" s="124" t="s">
+      <c r="E461" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F461" s="125"/>
-      <c r="G461" s="125"/>
+      <c r="F461" s="138"/>
+      <c r="G461" s="138"/>
       <c r="I461" s="18"/>
       <c r="J461" s="51"/>
       <c r="K461" s="58"/>
@@ -11107,11 +11122,11 @@
       <c r="D462" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E462" s="124" t="s">
+      <c r="E462" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F462" s="125"/>
-      <c r="G462" s="125"/>
+      <c r="F462" s="138"/>
+      <c r="G462" s="138"/>
       <c r="I462" s="18"/>
       <c r="V462" s="78"/>
       <c r="W462" s="20"/>
@@ -11121,11 +11136,11 @@
       <c r="D463" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E463" s="124" t="s">
+      <c r="E463" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F463" s="125"/>
-      <c r="G463" s="125"/>
+      <c r="F463" s="138"/>
+      <c r="G463" s="138"/>
       <c r="I463" s="18" t="s">
         <v>35</v>
       </c>
@@ -11147,15 +11162,15 @@
       <c r="D464" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E464" s="126" t="s">
+      <c r="E464" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="F464" s="127"/>
-      <c r="G464" s="127"/>
+      <c r="F464" s="141"/>
+      <c r="G464" s="141"/>
       <c r="I464" s="18"/>
       <c r="L464" s="82"/>
       <c r="M464" s="88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N464" s="49"/>
       <c r="O464" s="49"/>
@@ -11181,7 +11196,7 @@
       <c r="I466" s="18"/>
       <c r="L466" s="82"/>
       <c r="M466" s="69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N466" s="49"/>
       <c r="O466" s="49"/>
@@ -11367,7 +11382,7 @@
     </row>
     <row r="483" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C483" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="485" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11404,18 +11419,18 @@
       <c r="H486" s="33"/>
       <c r="I486" s="33"/>
       <c r="J486" s="33"/>
-      <c r="K486" s="134" t="s">
+      <c r="K486" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L486" s="134"/>
-      <c r="M486" s="134"/>
-      <c r="N486" s="134"/>
-      <c r="O486" s="134"/>
-      <c r="P486" s="134"/>
-      <c r="Q486" s="134"/>
-      <c r="R486" s="134"/>
-      <c r="S486" s="134"/>
-      <c r="T486" s="134"/>
+      <c r="L486" s="151"/>
+      <c r="M486" s="151"/>
+      <c r="N486" s="151"/>
+      <c r="O486" s="151"/>
+      <c r="P486" s="151"/>
+      <c r="Q486" s="151"/>
+      <c r="R486" s="151"/>
+      <c r="S486" s="151"/>
+      <c r="T486" s="151"/>
       <c r="U486" s="33"/>
       <c r="V486" s="33"/>
       <c r="W486" s="43"/>
@@ -11424,27 +11439,27 @@
       <c r="C487" s="39"/>
       <c r="D487" s="34"/>
       <c r="E487" s="35"/>
-      <c r="F487" s="135" t="s">
+      <c r="F487" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G487" s="135"/>
-      <c r="H487" s="135"/>
-      <c r="I487" s="135"/>
-      <c r="J487" s="135"/>
-      <c r="K487" s="134"/>
-      <c r="L487" s="134"/>
-      <c r="M487" s="134"/>
-      <c r="N487" s="134"/>
-      <c r="O487" s="134"/>
-      <c r="P487" s="134"/>
-      <c r="Q487" s="134"/>
-      <c r="R487" s="134"/>
-      <c r="S487" s="134"/>
-      <c r="T487" s="134"/>
-      <c r="U487" s="142" t="s">
+      <c r="G487" s="139"/>
+      <c r="H487" s="139"/>
+      <c r="I487" s="139"/>
+      <c r="J487" s="139"/>
+      <c r="K487" s="151"/>
+      <c r="L487" s="151"/>
+      <c r="M487" s="151"/>
+      <c r="N487" s="151"/>
+      <c r="O487" s="151"/>
+      <c r="P487" s="151"/>
+      <c r="Q487" s="151"/>
+      <c r="R487" s="151"/>
+      <c r="S487" s="151"/>
+      <c r="T487" s="151"/>
+      <c r="U487" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V487" s="143"/>
+      <c r="V487" s="153"/>
       <c r="W487" s="43"/>
     </row>
     <row r="488" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11498,26 +11513,26 @@
       <c r="D490" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E490" s="124" t="s">
+      <c r="E490" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F490" s="125"/>
-      <c r="G490" s="125"/>
+      <c r="F490" s="138"/>
+      <c r="G490" s="138"/>
       <c r="I490" s="18"/>
-      <c r="J490" s="153" t="s">
-        <v>202</v>
-      </c>
-      <c r="K490" s="153"/>
-      <c r="L490" s="153"/>
-      <c r="M490" s="153"/>
-      <c r="N490" s="153"/>
-      <c r="O490" s="153"/>
-      <c r="P490" s="153"/>
-      <c r="Q490" s="153"/>
-      <c r="R490" s="153"/>
-      <c r="S490" s="153"/>
-      <c r="T490" s="153"/>
-      <c r="U490" s="153"/>
+      <c r="J490" s="154" t="s">
+        <v>201</v>
+      </c>
+      <c r="K490" s="154"/>
+      <c r="L490" s="154"/>
+      <c r="M490" s="154"/>
+      <c r="N490" s="154"/>
+      <c r="O490" s="154"/>
+      <c r="P490" s="154"/>
+      <c r="Q490" s="154"/>
+      <c r="R490" s="154"/>
+      <c r="S490" s="154"/>
+      <c r="T490" s="154"/>
+      <c r="U490" s="154"/>
       <c r="V490" s="77"/>
       <c r="W490" s="20"/>
     </row>
@@ -11526,11 +11541,11 @@
       <c r="D491" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="124" t="s">
+      <c r="E491" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F491" s="125"/>
-      <c r="G491" s="125"/>
+      <c r="F491" s="138"/>
+      <c r="G491" s="138"/>
       <c r="I491" s="18"/>
       <c r="J491" s="51"/>
       <c r="K491" s="58"/>
@@ -11545,11 +11560,11 @@
       <c r="D492" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E492" s="124" t="s">
+      <c r="E492" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F492" s="125"/>
-      <c r="G492" s="125"/>
+      <c r="F492" s="138"/>
+      <c r="G492" s="138"/>
       <c r="I492" s="18"/>
       <c r="V492" s="78"/>
       <c r="W492" s="20"/>
@@ -11559,11 +11574,11 @@
       <c r="D493" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E493" s="124" t="s">
+      <c r="E493" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F493" s="125"/>
-      <c r="G493" s="125"/>
+      <c r="F493" s="138"/>
+      <c r="G493" s="138"/>
       <c r="I493" s="18" t="s">
         <v>35</v>
       </c>
@@ -11585,15 +11600,15 @@
       <c r="D494" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E494" s="126" t="s">
+      <c r="E494" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="F494" s="127"/>
-      <c r="G494" s="127"/>
+      <c r="F494" s="141"/>
+      <c r="G494" s="141"/>
       <c r="I494" s="18"/>
       <c r="L494" s="82"/>
       <c r="M494" s="88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N494" s="49"/>
       <c r="O494" s="49"/>
@@ -11619,7 +11634,7 @@
       <c r="I496" s="18"/>
       <c r="L496" s="82"/>
       <c r="M496" s="69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N496" s="49"/>
       <c r="O496" s="49"/>
@@ -11805,7 +11820,7 @@
     </row>
     <row r="514" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B514" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="516" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11842,18 +11857,18 @@
       <c r="H517" s="33"/>
       <c r="I517" s="33"/>
       <c r="J517" s="33"/>
-      <c r="K517" s="134" t="s">
+      <c r="K517" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="L517" s="134"/>
-      <c r="M517" s="134"/>
-      <c r="N517" s="134"/>
-      <c r="O517" s="134"/>
-      <c r="P517" s="134"/>
-      <c r="Q517" s="134"/>
-      <c r="R517" s="134"/>
-      <c r="S517" s="134"/>
-      <c r="T517" s="134"/>
+      <c r="L517" s="151"/>
+      <c r="M517" s="151"/>
+      <c r="N517" s="151"/>
+      <c r="O517" s="151"/>
+      <c r="P517" s="151"/>
+      <c r="Q517" s="151"/>
+      <c r="R517" s="151"/>
+      <c r="S517" s="151"/>
+      <c r="T517" s="151"/>
       <c r="U517" s="33"/>
       <c r="V517" s="33"/>
       <c r="W517" s="43"/>
@@ -11862,27 +11877,27 @@
       <c r="C518" s="39"/>
       <c r="D518" s="34"/>
       <c r="E518" s="35"/>
-      <c r="F518" s="135" t="s">
+      <c r="F518" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="G518" s="135"/>
-      <c r="H518" s="135"/>
-      <c r="I518" s="135"/>
-      <c r="J518" s="135"/>
-      <c r="K518" s="134"/>
-      <c r="L518" s="134"/>
-      <c r="M518" s="134"/>
-      <c r="N518" s="134"/>
-      <c r="O518" s="134"/>
-      <c r="P518" s="134"/>
-      <c r="Q518" s="134"/>
-      <c r="R518" s="134"/>
-      <c r="S518" s="134"/>
-      <c r="T518" s="134"/>
-      <c r="U518" s="142" t="s">
+      <c r="G518" s="139"/>
+      <c r="H518" s="139"/>
+      <c r="I518" s="139"/>
+      <c r="J518" s="139"/>
+      <c r="K518" s="151"/>
+      <c r="L518" s="151"/>
+      <c r="M518" s="151"/>
+      <c r="N518" s="151"/>
+      <c r="O518" s="151"/>
+      <c r="P518" s="151"/>
+      <c r="Q518" s="151"/>
+      <c r="R518" s="151"/>
+      <c r="S518" s="151"/>
+      <c r="T518" s="151"/>
+      <c r="U518" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="V518" s="143"/>
+      <c r="V518" s="153"/>
       <c r="W518" s="43"/>
     </row>
     <row r="519" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11936,24 +11951,24 @@
       <c r="D521" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E521" s="124" t="s">
+      <c r="E521" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F521" s="125"/>
-      <c r="G521" s="125"/>
+      <c r="F521" s="138"/>
+      <c r="G521" s="138"/>
       <c r="I521" s="18"/>
-      <c r="J521" s="153"/>
-      <c r="K521" s="153"/>
-      <c r="L521" s="153"/>
-      <c r="M521" s="153"/>
-      <c r="N521" s="153"/>
-      <c r="O521" s="153"/>
-      <c r="P521" s="153"/>
-      <c r="Q521" s="153"/>
-      <c r="R521" s="153"/>
-      <c r="S521" s="153"/>
-      <c r="T521" s="153"/>
-      <c r="U521" s="153"/>
+      <c r="J521" s="154"/>
+      <c r="K521" s="154"/>
+      <c r="L521" s="154"/>
+      <c r="M521" s="154"/>
+      <c r="N521" s="154"/>
+      <c r="O521" s="154"/>
+      <c r="P521" s="154"/>
+      <c r="Q521" s="154"/>
+      <c r="R521" s="154"/>
+      <c r="S521" s="154"/>
+      <c r="T521" s="154"/>
+      <c r="U521" s="154"/>
       <c r="V521" s="77"/>
       <c r="W521" s="20"/>
     </row>
@@ -11962,11 +11977,11 @@
       <c r="D522" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E522" s="124" t="s">
+      <c r="E522" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="F522" s="125"/>
-      <c r="G522" s="125"/>
+      <c r="F522" s="138"/>
+      <c r="G522" s="138"/>
       <c r="I522" s="18"/>
       <c r="J522" s="51"/>
       <c r="K522" s="58"/>
@@ -11981,11 +11996,11 @@
       <c r="D523" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E523" s="124" t="s">
+      <c r="E523" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="F523" s="125"/>
-      <c r="G523" s="125"/>
+      <c r="F523" s="138"/>
+      <c r="G523" s="138"/>
       <c r="I523" s="18"/>
       <c r="V523" s="78"/>
       <c r="W523" s="20"/>
@@ -11995,11 +12010,11 @@
       <c r="D524" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E524" s="124" t="s">
+      <c r="E524" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="F524" s="125"/>
-      <c r="G524" s="125"/>
+      <c r="F524" s="138"/>
+      <c r="G524" s="138"/>
       <c r="I524" s="18" t="s">
         <v>35</v>
       </c>
@@ -12021,15 +12036,15 @@
       <c r="D525" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E525" s="124" t="s">
+      <c r="E525" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F525" s="125"/>
-      <c r="G525" s="125"/>
+      <c r="F525" s="138"/>
+      <c r="G525" s="138"/>
       <c r="I525" s="18"/>
       <c r="L525" s="82"/>
       <c r="M525" s="88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N525" s="49"/>
       <c r="O525" s="49"/>
@@ -12055,7 +12070,7 @@
       <c r="I527" s="18"/>
       <c r="L527" s="82"/>
       <c r="M527" s="69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N527" s="49"/>
       <c r="O527" s="49"/>
@@ -12241,6 +12256,368 @@
     </row>
   </sheetData>
   <mergeCells count="386">
+    <mergeCell ref="E463:G463"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="C479:W481"/>
+    <mergeCell ref="J432:N432"/>
+    <mergeCell ref="S432:U432"/>
+    <mergeCell ref="Q439:S439"/>
+    <mergeCell ref="Q440:S440"/>
+    <mergeCell ref="Q441:S441"/>
+    <mergeCell ref="Q442:S442"/>
+    <mergeCell ref="Q443:S443"/>
+    <mergeCell ref="Q444:S444"/>
+    <mergeCell ref="D455:F456"/>
+    <mergeCell ref="K456:T457"/>
+    <mergeCell ref="F457:J457"/>
+    <mergeCell ref="M444:N444"/>
+    <mergeCell ref="O435:P435"/>
+    <mergeCell ref="O436:P436"/>
+    <mergeCell ref="O437:P437"/>
+    <mergeCell ref="O438:P438"/>
+    <mergeCell ref="O434:P434"/>
+    <mergeCell ref="Q434:S434"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="K436:L436"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="M438:N438"/>
+    <mergeCell ref="N375:S375"/>
+    <mergeCell ref="N377:S377"/>
+    <mergeCell ref="C388:W390"/>
+    <mergeCell ref="D394:F395"/>
+    <mergeCell ref="K395:T396"/>
+    <mergeCell ref="F396:J396"/>
+    <mergeCell ref="U396:V396"/>
+    <mergeCell ref="N379:S379"/>
+    <mergeCell ref="N381:S381"/>
+    <mergeCell ref="Q385:R385"/>
+    <mergeCell ref="Q436:S436"/>
+    <mergeCell ref="Q437:S437"/>
+    <mergeCell ref="Q438:S438"/>
+    <mergeCell ref="Q435:S435"/>
+    <mergeCell ref="U427:V427"/>
+    <mergeCell ref="D425:F426"/>
+    <mergeCell ref="E522:G522"/>
+    <mergeCell ref="E523:G523"/>
+    <mergeCell ref="E524:G524"/>
+    <mergeCell ref="E525:G525"/>
+    <mergeCell ref="C540:W542"/>
+    <mergeCell ref="R306:S306"/>
+    <mergeCell ref="R307:S307"/>
+    <mergeCell ref="R308:S308"/>
+    <mergeCell ref="R309:S309"/>
+    <mergeCell ref="R310:S310"/>
+    <mergeCell ref="R311:S311"/>
+    <mergeCell ref="R312:S312"/>
+    <mergeCell ref="R313:S313"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="R314:S314"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="R315:S315"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="R316:S316"/>
+    <mergeCell ref="N343:S343"/>
+    <mergeCell ref="D516:F517"/>
+    <mergeCell ref="K517:T518"/>
+    <mergeCell ref="F518:J518"/>
+    <mergeCell ref="U518:V518"/>
+    <mergeCell ref="E521:G521"/>
+    <mergeCell ref="J521:U521"/>
+    <mergeCell ref="C509:W511"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="E491:G491"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="J490:U490"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="D485:F486"/>
+    <mergeCell ref="K486:T487"/>
+    <mergeCell ref="F487:J487"/>
+    <mergeCell ref="U487:V487"/>
+    <mergeCell ref="C449:W451"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="M439:N439"/>
+    <mergeCell ref="M440:N440"/>
+    <mergeCell ref="M441:N441"/>
+    <mergeCell ref="M442:N442"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="O440:P440"/>
+    <mergeCell ref="O441:P441"/>
+    <mergeCell ref="O442:P442"/>
+    <mergeCell ref="O443:P443"/>
+    <mergeCell ref="O444:P444"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="U457:V457"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="J460:U460"/>
+    <mergeCell ref="E461:G461"/>
+    <mergeCell ref="E462:G462"/>
+    <mergeCell ref="K426:T427"/>
+    <mergeCell ref="F427:J427"/>
+    <mergeCell ref="E399:G399"/>
+    <mergeCell ref="J399:U399"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="E401:G401"/>
+    <mergeCell ref="E402:G402"/>
+    <mergeCell ref="E403:G403"/>
+    <mergeCell ref="C418:W420"/>
+    <mergeCell ref="E430:G430"/>
+    <mergeCell ref="J430:U430"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="E433:G433"/>
+    <mergeCell ref="E434:G434"/>
+    <mergeCell ref="T434:U434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="M434:N434"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="E335:G335"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="E367:G367"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="N371:S371"/>
+    <mergeCell ref="N373:S373"/>
+    <mergeCell ref="J366:U366"/>
+    <mergeCell ref="E369:G369"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="N337:S337"/>
+    <mergeCell ref="N339:S339"/>
+    <mergeCell ref="N341:S341"/>
+    <mergeCell ref="Q351:R351"/>
+    <mergeCell ref="C354:W356"/>
+    <mergeCell ref="D361:F362"/>
+    <mergeCell ref="K362:T363"/>
+    <mergeCell ref="F363:J363"/>
+    <mergeCell ref="U363:V363"/>
+    <mergeCell ref="N345:S345"/>
+    <mergeCell ref="N347:S347"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="D327:F328"/>
+    <mergeCell ref="K328:T329"/>
+    <mergeCell ref="F329:J329"/>
+    <mergeCell ref="U329:V329"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="J332:U332"/>
+    <mergeCell ref="E333:G333"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="J302:U302"/>
+    <mergeCell ref="E303:G303"/>
+    <mergeCell ref="E304:G304"/>
+    <mergeCell ref="M304:P304"/>
+    <mergeCell ref="U304:V304"/>
+    <mergeCell ref="E238:G238"/>
+    <mergeCell ref="J238:U238"/>
+    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="N243:S243"/>
+    <mergeCell ref="N245:S245"/>
+    <mergeCell ref="N247:S247"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="L189:M189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="J175:U175"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="M177:P177"/>
+    <mergeCell ref="U177:V177"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="T179:U179"/>
+    <mergeCell ref="R179:S179"/>
+    <mergeCell ref="R180:S180"/>
+    <mergeCell ref="R181:S181"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="R183:S183"/>
+    <mergeCell ref="R184:S184"/>
+    <mergeCell ref="R185:S185"/>
+    <mergeCell ref="R186:S186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="U140:V140"/>
+    <mergeCell ref="C101:W103"/>
+    <mergeCell ref="N91:S91"/>
+    <mergeCell ref="N87:S87"/>
+    <mergeCell ref="N89:S89"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D77:F78"/>
+    <mergeCell ref="K78:T79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="J82:U82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="K18:T19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="K109:T110"/>
+    <mergeCell ref="C71:W73"/>
+    <mergeCell ref="J52:U52"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C41:W43"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="K48:T49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J113:U113"/>
+    <mergeCell ref="N118:S118"/>
+    <mergeCell ref="N120:S120"/>
+    <mergeCell ref="N122:S122"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="C132:W134"/>
+    <mergeCell ref="D138:F139"/>
+    <mergeCell ref="K139:T140"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="J143:U143"/>
+    <mergeCell ref="K171:T172"/>
+    <mergeCell ref="U172:V172"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="L186:M186"/>
+    <mergeCell ref="N186:O186"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="L184:M184"/>
+    <mergeCell ref="N184:O184"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="N185:O185"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L182:M182"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="N181:O181"/>
+    <mergeCell ref="C162:W164"/>
+    <mergeCell ref="C194:W196"/>
+    <mergeCell ref="D200:F201"/>
+    <mergeCell ref="K201:T202"/>
+    <mergeCell ref="F202:J202"/>
+    <mergeCell ref="U202:V202"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="J205:U205"/>
+    <mergeCell ref="E206:G206"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="N210:S210"/>
+    <mergeCell ref="N212:S212"/>
+    <mergeCell ref="N214:S214"/>
+    <mergeCell ref="C226:W228"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="K234:T235"/>
+    <mergeCell ref="F235:J235"/>
+    <mergeCell ref="U235:V235"/>
+    <mergeCell ref="N216:S216"/>
+    <mergeCell ref="N218:S219"/>
+    <mergeCell ref="N221:S221"/>
+    <mergeCell ref="Q223:R223"/>
+    <mergeCell ref="E274:G274"/>
+    <mergeCell ref="E275:G275"/>
+    <mergeCell ref="C290:W292"/>
+    <mergeCell ref="N249:S249"/>
+    <mergeCell ref="E305:G305"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="Q304:R304"/>
+    <mergeCell ref="N251:S252"/>
+    <mergeCell ref="N254:S254"/>
+    <mergeCell ref="Q256:R256"/>
+    <mergeCell ref="C260:W262"/>
+    <mergeCell ref="D266:F267"/>
+    <mergeCell ref="K267:T268"/>
+    <mergeCell ref="F268:J268"/>
+    <mergeCell ref="U268:V268"/>
+    <mergeCell ref="E271:G271"/>
+    <mergeCell ref="J271:U271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="E273:G273"/>
+    <mergeCell ref="T306:U306"/>
+    <mergeCell ref="D297:F298"/>
+    <mergeCell ref="K298:T299"/>
+    <mergeCell ref="F299:J299"/>
+    <mergeCell ref="U299:V299"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="L308:M308"/>
+    <mergeCell ref="N308:O308"/>
+    <mergeCell ref="L309:M309"/>
+    <mergeCell ref="N309:O309"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
     <mergeCell ref="L313:M313"/>
     <mergeCell ref="N313:O313"/>
     <mergeCell ref="C321:W323"/>
@@ -12265,368 +12642,6 @@
     <mergeCell ref="E146:G146"/>
     <mergeCell ref="E147:G147"/>
     <mergeCell ref="D170:F171"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="L308:M308"/>
-    <mergeCell ref="N308:O308"/>
-    <mergeCell ref="L309:M309"/>
-    <mergeCell ref="N309:O309"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="E274:G274"/>
-    <mergeCell ref="E275:G275"/>
-    <mergeCell ref="C290:W292"/>
-    <mergeCell ref="N249:S249"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="E306:G306"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="N251:S252"/>
-    <mergeCell ref="N254:S254"/>
-    <mergeCell ref="Q256:R256"/>
-    <mergeCell ref="C260:W262"/>
-    <mergeCell ref="D266:F267"/>
-    <mergeCell ref="K267:T268"/>
-    <mergeCell ref="F268:J268"/>
-    <mergeCell ref="U268:V268"/>
-    <mergeCell ref="E271:G271"/>
-    <mergeCell ref="J271:U271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="E273:G273"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="N210:S210"/>
-    <mergeCell ref="N212:S212"/>
-    <mergeCell ref="N214:S214"/>
-    <mergeCell ref="C226:W228"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="K234:T235"/>
-    <mergeCell ref="F235:J235"/>
-    <mergeCell ref="U235:V235"/>
-    <mergeCell ref="N216:S216"/>
-    <mergeCell ref="N218:S219"/>
-    <mergeCell ref="N221:S221"/>
-    <mergeCell ref="Q223:R223"/>
-    <mergeCell ref="C194:W196"/>
-    <mergeCell ref="D200:F201"/>
-    <mergeCell ref="K201:T202"/>
-    <mergeCell ref="F202:J202"/>
-    <mergeCell ref="U202:V202"/>
-    <mergeCell ref="E205:G205"/>
-    <mergeCell ref="J205:U205"/>
-    <mergeCell ref="E206:G206"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="J143:U143"/>
-    <mergeCell ref="K171:T172"/>
-    <mergeCell ref="U172:V172"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="L186:M186"/>
-    <mergeCell ref="N186:O186"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="L184:M184"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="F172:J172"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L182:M182"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="N181:O181"/>
-    <mergeCell ref="C162:W164"/>
-    <mergeCell ref="J113:U113"/>
-    <mergeCell ref="N118:S118"/>
-    <mergeCell ref="N120:S120"/>
-    <mergeCell ref="N122:S122"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="C132:W134"/>
-    <mergeCell ref="D138:F139"/>
-    <mergeCell ref="K139:T140"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="K18:T19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="K109:T110"/>
-    <mergeCell ref="C71:W73"/>
-    <mergeCell ref="J52:U52"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="C41:W43"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="K48:T49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="U140:V140"/>
-    <mergeCell ref="C101:W103"/>
-    <mergeCell ref="N91:S91"/>
-    <mergeCell ref="N87:S87"/>
-    <mergeCell ref="N89:S89"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D77:F78"/>
-    <mergeCell ref="K78:T79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="J82:U82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="N187:O187"/>
-    <mergeCell ref="L188:M188"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="J175:U175"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="M177:P177"/>
-    <mergeCell ref="U177:V177"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="T179:U179"/>
-    <mergeCell ref="R179:S179"/>
-    <mergeCell ref="R180:S180"/>
-    <mergeCell ref="R181:S181"/>
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="R183:S183"/>
-    <mergeCell ref="R184:S184"/>
-    <mergeCell ref="R185:S185"/>
-    <mergeCell ref="R186:S186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="T306:U306"/>
-    <mergeCell ref="D297:F298"/>
-    <mergeCell ref="K298:T299"/>
-    <mergeCell ref="F299:J299"/>
-    <mergeCell ref="U299:V299"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="J302:U302"/>
-    <mergeCell ref="E303:G303"/>
-    <mergeCell ref="E304:G304"/>
-    <mergeCell ref="M304:P304"/>
-    <mergeCell ref="U304:V304"/>
-    <mergeCell ref="E238:G238"/>
-    <mergeCell ref="J238:U238"/>
-    <mergeCell ref="E239:G239"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="E242:G242"/>
-    <mergeCell ref="N243:S243"/>
-    <mergeCell ref="N245:S245"/>
-    <mergeCell ref="N247:S247"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="D327:F328"/>
-    <mergeCell ref="K328:T329"/>
-    <mergeCell ref="F329:J329"/>
-    <mergeCell ref="U329:V329"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="J332:U332"/>
-    <mergeCell ref="E333:G333"/>
-    <mergeCell ref="E334:G334"/>
-    <mergeCell ref="E335:G335"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="E367:G367"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="N371:S371"/>
-    <mergeCell ref="N373:S373"/>
-    <mergeCell ref="J366:U366"/>
-    <mergeCell ref="E369:G369"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="N337:S337"/>
-    <mergeCell ref="N339:S339"/>
-    <mergeCell ref="N341:S341"/>
-    <mergeCell ref="Q351:R351"/>
-    <mergeCell ref="C354:W356"/>
-    <mergeCell ref="D361:F362"/>
-    <mergeCell ref="K362:T363"/>
-    <mergeCell ref="F363:J363"/>
-    <mergeCell ref="U363:V363"/>
-    <mergeCell ref="N345:S345"/>
-    <mergeCell ref="N347:S347"/>
-    <mergeCell ref="E430:G430"/>
-    <mergeCell ref="J430:U430"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="E433:G433"/>
-    <mergeCell ref="E434:G434"/>
-    <mergeCell ref="T434:U434"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="M434:N434"/>
-    <mergeCell ref="K426:T427"/>
-    <mergeCell ref="F427:J427"/>
-    <mergeCell ref="E399:G399"/>
-    <mergeCell ref="J399:U399"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="E401:G401"/>
-    <mergeCell ref="E402:G402"/>
-    <mergeCell ref="E403:G403"/>
-    <mergeCell ref="C418:W420"/>
-    <mergeCell ref="D485:F486"/>
-    <mergeCell ref="K486:T487"/>
-    <mergeCell ref="F487:J487"/>
-    <mergeCell ref="U487:V487"/>
-    <mergeCell ref="C449:W451"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="M439:N439"/>
-    <mergeCell ref="M440:N440"/>
-    <mergeCell ref="M441:N441"/>
-    <mergeCell ref="M442:N442"/>
-    <mergeCell ref="M443:N443"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="O440:P440"/>
-    <mergeCell ref="O441:P441"/>
-    <mergeCell ref="O442:P442"/>
-    <mergeCell ref="O443:P443"/>
-    <mergeCell ref="O444:P444"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="U457:V457"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="J460:U460"/>
-    <mergeCell ref="E461:G461"/>
-    <mergeCell ref="E462:G462"/>
-    <mergeCell ref="K517:T518"/>
-    <mergeCell ref="F518:J518"/>
-    <mergeCell ref="U518:V518"/>
-    <mergeCell ref="E521:G521"/>
-    <mergeCell ref="J521:U521"/>
-    <mergeCell ref="C509:W511"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="E491:G491"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="J490:U490"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="E522:G522"/>
-    <mergeCell ref="E523:G523"/>
-    <mergeCell ref="E524:G524"/>
-    <mergeCell ref="E525:G525"/>
-    <mergeCell ref="C540:W542"/>
-    <mergeCell ref="R306:S306"/>
-    <mergeCell ref="R307:S307"/>
-    <mergeCell ref="R308:S308"/>
-    <mergeCell ref="R309:S309"/>
-    <mergeCell ref="R310:S310"/>
-    <mergeCell ref="R311:S311"/>
-    <mergeCell ref="R312:S312"/>
-    <mergeCell ref="R313:S313"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="R314:S314"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="R315:S315"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="R316:S316"/>
-    <mergeCell ref="N343:S343"/>
-    <mergeCell ref="D516:F517"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="M435:N435"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="M438:N438"/>
-    <mergeCell ref="N375:S375"/>
-    <mergeCell ref="N377:S377"/>
-    <mergeCell ref="C388:W390"/>
-    <mergeCell ref="D394:F395"/>
-    <mergeCell ref="K395:T396"/>
-    <mergeCell ref="F396:J396"/>
-    <mergeCell ref="U396:V396"/>
-    <mergeCell ref="N379:S379"/>
-    <mergeCell ref="N381:S381"/>
-    <mergeCell ref="Q385:R385"/>
-    <mergeCell ref="Q436:S436"/>
-    <mergeCell ref="Q437:S437"/>
-    <mergeCell ref="Q438:S438"/>
-    <mergeCell ref="Q435:S435"/>
-    <mergeCell ref="U427:V427"/>
-    <mergeCell ref="D425:F426"/>
-    <mergeCell ref="E463:G463"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="C479:W481"/>
-    <mergeCell ref="J432:N432"/>
-    <mergeCell ref="S432:U432"/>
-    <mergeCell ref="Q439:S439"/>
-    <mergeCell ref="Q440:S440"/>
-    <mergeCell ref="Q441:S441"/>
-    <mergeCell ref="Q442:S442"/>
-    <mergeCell ref="Q443:S443"/>
-    <mergeCell ref="Q444:S444"/>
-    <mergeCell ref="D455:F456"/>
-    <mergeCell ref="K456:T457"/>
-    <mergeCell ref="F457:J457"/>
-    <mergeCell ref="M444:N444"/>
-    <mergeCell ref="O435:P435"/>
-    <mergeCell ref="O436:P436"/>
-    <mergeCell ref="O437:P437"/>
-    <mergeCell ref="O438:P438"/>
-    <mergeCell ref="O434:P434"/>
-    <mergeCell ref="Q434:S434"/>
-    <mergeCell ref="K435:L435"/>
-    <mergeCell ref="K436:L436"/>
-    <mergeCell ref="K437:L437"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N379" r:id="rId1" xr:uid="{E053F441-E71D-4498-8F28-1B7D069BA239}"/>
@@ -12653,8 +12668,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12671,18 +12686,18 @@
       <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -12724,7 +12739,7 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="171" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="100" t="s">
         <v>5</v>
@@ -12752,7 +12767,7 @@
       <c r="B8" s="172"/>
       <c r="C8" s="115"/>
       <c r="D8" s="99" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="7"/>
@@ -12779,7 +12794,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
@@ -12792,7 +12807,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
@@ -12807,7 +12822,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="2"/>
@@ -12820,7 +12835,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="2"/>
@@ -12829,13 +12844,13 @@
       <c r="A14" s="2"/>
       <c r="B14" s="13"/>
       <c r="C14" s="106" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D14" s="104" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="2"/>
@@ -12848,7 +12863,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
@@ -12863,7 +12878,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
@@ -12873,10 +12888,10 @@
       <c r="B17" s="13"/>
       <c r="C17" s="110"/>
       <c r="D17" s="108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
@@ -12889,7 +12904,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
@@ -12902,7 +12917,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
@@ -12915,7 +12930,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="2"/>
@@ -12928,7 +12943,7 @@
         <v>58</v>
       </c>
       <c r="E21" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="2"/>
@@ -12938,10 +12953,10 @@
       <c r="B22" s="13"/>
       <c r="C22" s="110"/>
       <c r="D22" s="114" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" s="98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="2"/>
@@ -12951,10 +12966,10 @@
       <c r="B23" s="13"/>
       <c r="C23" s="111"/>
       <c r="D23" s="114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="2"/>
@@ -12969,7 +12984,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
@@ -12979,10 +12994,10 @@
       <c r="B25" s="13"/>
       <c r="C25" s="109"/>
       <c r="D25" s="96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E25" s="98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="2"/>
@@ -12995,7 +13010,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="2"/>
@@ -13008,7 +13023,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
@@ -13021,7 +13036,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="2"/>
@@ -13031,10 +13046,10 @@
       <c r="B29" s="13"/>
       <c r="C29" s="109"/>
       <c r="D29" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="98" t="s">
         <v>268</v>
-      </c>
-      <c r="E29" s="98" t="s">
-        <v>269</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="2"/>
@@ -13044,10 +13059,10 @@
       <c r="B30" s="13"/>
       <c r="C30" s="109"/>
       <c r="D30" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" s="98" t="s">
         <v>270</v>
-      </c>
-      <c r="E30" s="98" t="s">
-        <v>271</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="2"/>
@@ -13057,10 +13072,10 @@
       <c r="B31" s="13"/>
       <c r="C31" s="101"/>
       <c r="D31" s="96" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E31" s="98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="2"/>
@@ -13075,7 +13090,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
@@ -13085,10 +13100,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="109"/>
       <c r="D33" s="96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
@@ -13100,8 +13115,8 @@
       <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="98" t="s">
-        <v>276</v>
+      <c r="E34" s="175" t="s">
+        <v>275</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="2"/>
@@ -13114,7 +13129,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
@@ -13127,7 +13142,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
@@ -13137,10 +13152,10 @@
       <c r="B37" s="13"/>
       <c r="C37" s="109"/>
       <c r="D37" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="98" t="s">
         <v>279</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>280</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="2"/>
@@ -13150,10 +13165,10 @@
       <c r="B38" s="13"/>
       <c r="C38" s="109"/>
       <c r="D38" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="98" t="s">
         <v>281</v>
-      </c>
-      <c r="E38" s="98" t="s">
-        <v>282</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="2"/>
@@ -13163,10 +13178,10 @@
       <c r="B39" s="116"/>
       <c r="C39" s="101"/>
       <c r="D39" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E39" s="98" t="s">
         <v>283</v>
-      </c>
-      <c r="E39" s="98" t="s">
-        <v>284</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="2"/>
@@ -13181,7 +13196,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="2"/>
@@ -13191,10 +13206,10 @@
       <c r="B41" s="13"/>
       <c r="C41" s="109"/>
       <c r="D41" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="98" t="s">
         <v>286</v>
-      </c>
-      <c r="E41" s="98" t="s">
-        <v>287</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="2"/>
@@ -13207,7 +13222,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="98" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="2"/>
@@ -13220,7 +13235,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="98" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="2"/>
@@ -13233,7 +13248,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="2"/>
@@ -13243,10 +13258,10 @@
       <c r="B45" s="116"/>
       <c r="C45" s="109"/>
       <c r="D45" s="96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E45" s="98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="2"/>
@@ -13256,10 +13271,10 @@
       <c r="B46" s="118"/>
       <c r="C46" s="111"/>
       <c r="D46" s="108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E46" s="98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="2"/>
@@ -13281,8 +13296,8 @@
   </sheetPr>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13301,7 +13316,7 @@
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119"/>
       <c r="B1" s="173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="174"/>
       <c r="D1" s="174"/>
@@ -13327,7 +13342,7 @@
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="119"/>
       <c r="B3" s="119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -13343,7 +13358,7 @@
       <c r="B4" s="119"/>
       <c r="C4" s="119"/>
       <c r="D4" s="119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E4" s="119"/>
       <c r="F4" s="119"/>
@@ -13358,10 +13373,10 @@
       <c r="C5" s="119"/>
       <c r="D5" s="119"/>
       <c r="E5" s="119" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G5" s="121"/>
       <c r="H5" s="119"/>
@@ -13370,44 +13385,44 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I6" s="120" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O8" s="120" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W9" s="120" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="120" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="120" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" s="120" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F11" s="120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I12" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="120" t="s">
         <v>308</v>
-      </c>
-      <c r="J12" s="120" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/Project-Layout (3).xlsx
+++ b/Project-Layout (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocthu6778gmail.com/Desktop/Probject-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C17D97-2AFF-8642-A104-7D23A8265934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D9589-E696-2C43-98DC-F508F87C03F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5140" yWindow="760" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout - Giao diện" sheetId="6" r:id="rId1"/>
@@ -1226,11 +1226,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1876,94 +1883,94 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1973,335 +1980,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2526,8 +2536,8 @@
   </sheetPr>
   <dimension ref="B1:W542"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C324" zoomScale="143" workbookViewId="0">
-      <selection activeCell="Q306" sqref="Q306"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C294" zoomScale="143" workbookViewId="0">
+      <selection activeCell="V306" sqref="V306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2540,54 +2550,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
@@ -2608,15 +2618,15 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="18"/>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="158"/>
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2659,10 +2669,10 @@
     </row>
     <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="18"/>
-      <c r="H12" s="135" t="s">
+      <c r="H12" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="136"/>
+      <c r="I12" s="170"/>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2684,11 +2694,11 @@
     </row>
     <row r="17" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="38"/>
-      <c r="D17" s="128" t="s">
+      <c r="D17" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="32"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -2709,25 +2719,25 @@
     </row>
     <row r="18" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="39"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
       <c r="G18" s="45"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="151" t="s">
+      <c r="K18" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
       <c r="W18" s="43"/>
@@ -2736,27 +2746,27 @@
       <c r="C19" s="39"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="139" t="s">
+      <c r="F19" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="152" t="s">
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="153"/>
+      <c r="V19" s="144"/>
       <c r="W19" s="43"/>
     </row>
     <row r="20" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2810,11 +2820,11 @@
       <c r="D22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="155" t="s">
+      <c r="E22" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
       <c r="I22" s="18"/>
       <c r="J22" s="53" t="s">
         <v>42</v>
@@ -2839,11 +2849,11 @@
       <c r="D23" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="137" t="s">
+      <c r="E23" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
       <c r="I23" s="18"/>
       <c r="J23" s="51"/>
       <c r="K23" s="58" t="s">
@@ -2862,11 +2872,11 @@
       <c r="D24" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="137" t="s">
+      <c r="E24" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
       <c r="I24" s="18"/>
       <c r="J24" s="55" t="s">
         <v>42</v>
@@ -2884,11 +2894,11 @@
       <c r="D25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="137" t="s">
+      <c r="E25" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
       <c r="I25" s="18" t="s">
         <v>35</v>
       </c>
@@ -2908,11 +2918,11 @@
       <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
       <c r="I26" s="18"/>
       <c r="J26" s="51"/>
       <c r="K26" s="59" t="s">
@@ -3082,75 +3092,75 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="128"/>
-      <c r="U41" s="128"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="128"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="129"/>
+      <c r="H41" s="129"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="129"/>
+      <c r="K41" s="129"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="129"/>
+      <c r="T41" s="129"/>
+      <c r="U41" s="129"/>
+      <c r="V41" s="129"/>
+      <c r="W41" s="129"/>
     </row>
     <row r="42" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
-      <c r="W42" s="128"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="129"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="129"/>
+      <c r="P42" s="129"/>
+      <c r="Q42" s="129"/>
+      <c r="R42" s="129"/>
+      <c r="S42" s="129"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="129"/>
+      <c r="V42" s="129"/>
+      <c r="W42" s="129"/>
     </row>
     <row r="43" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="128"/>
-      <c r="W43" s="128"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="129"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="129"/>
+      <c r="K43" s="129"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
+      <c r="P43" s="129"/>
+      <c r="Q43" s="129"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="129"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="129"/>
+      <c r="V43" s="129"/>
+      <c r="W43" s="129"/>
     </row>
     <row r="45" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="61" t="s">
@@ -3159,11 +3169,11 @@
     </row>
     <row r="47" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C47" s="38"/>
-      <c r="D47" s="128" t="s">
+      <c r="D47" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
       <c r="G47" s="32"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -3184,25 +3194,25 @@
     </row>
     <row r="48" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C48" s="39"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
       <c r="G48" s="45"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="151" t="s">
+      <c r="K48" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="151"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
+      <c r="N48" s="135"/>
+      <c r="O48" s="135"/>
+      <c r="P48" s="135"/>
+      <c r="Q48" s="135"/>
+      <c r="R48" s="135"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="43"/>
@@ -3211,27 +3221,27 @@
       <c r="C49" s="39"/>
       <c r="D49" s="34"/>
       <c r="E49" s="35"/>
-      <c r="F49" s="139" t="s">
+      <c r="F49" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="152" t="s">
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="135"/>
+      <c r="R49" s="135"/>
+      <c r="S49" s="135"/>
+      <c r="T49" s="135"/>
+      <c r="U49" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V49" s="153"/>
+      <c r="V49" s="144"/>
       <c r="W49" s="43"/>
     </row>
     <row r="50" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3285,11 +3295,11 @@
       <c r="D52" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="137" t="s">
+      <c r="E52" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="126"/>
       <c r="I52" s="18"/>
       <c r="J52" s="154" t="s">
         <v>57</v>
@@ -3313,11 +3323,11 @@
       <c r="D53" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="140" t="s">
+      <c r="E53" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="141"/>
-      <c r="G53" s="141"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
       <c r="I53" s="18"/>
       <c r="J53" s="51"/>
       <c r="K53" s="58"/>
@@ -3332,35 +3342,35 @@
       <c r="D54" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="129" t="s">
+      <c r="J54" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="130"/>
+      <c r="K54" s="162"/>
       <c r="L54" s="66"/>
-      <c r="M54" s="148" t="s">
+      <c r="M54" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="N54" s="149"/>
-      <c r="O54" s="149"/>
-      <c r="P54" s="149"/>
-      <c r="Q54" s="144" t="s">
+      <c r="N54" s="148"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="145"/>
+      <c r="R54" s="164"/>
       <c r="S54" s="64"/>
       <c r="T54" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="157" t="s">
+      <c r="U54" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="158"/>
+      <c r="V54" s="157"/>
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3368,11 +3378,11 @@
       <c r="D55" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="137" t="s">
+      <c r="E55" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
       <c r="I55" s="18" t="s">
         <v>35</v>
       </c>
@@ -3388,36 +3398,36 @@
       <c r="D56" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
       <c r="I56" s="18"/>
       <c r="J56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="159" t="s">
+      <c r="K56" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="L56" s="159"/>
-      <c r="M56" s="160" t="s">
+      <c r="L56" s="155"/>
+      <c r="M56" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="N56" s="160"/>
-      <c r="O56" s="160"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="139"/>
       <c r="P56" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="160" t="s">
+      <c r="Q56" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="160"/>
-      <c r="S56" s="160"/>
-      <c r="T56" s="160" t="s">
+      <c r="R56" s="139"/>
+      <c r="S56" s="139"/>
+      <c r="T56" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="U56" s="160"/>
+      <c r="U56" s="139"/>
       <c r="V56" s="20"/>
       <c r="W56" s="20"/>
     </row>
@@ -3427,23 +3437,23 @@
       <c r="J57" s="67">
         <v>1</v>
       </c>
-      <c r="K57" s="161" t="s">
+      <c r="K57" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="161"/>
-      <c r="M57" s="142" t="s">
+      <c r="L57" s="141"/>
+      <c r="M57" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
+      <c r="N57" s="142"/>
+      <c r="O57" s="142"/>
       <c r="P57" s="70">
         <v>1000</v>
       </c>
-      <c r="Q57" s="142" t="s">
+      <c r="Q57" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="142"/>
-      <c r="S57" s="142"/>
+      <c r="R57" s="138"/>
+      <c r="S57" s="138"/>
       <c r="T57" s="73" t="s">
         <v>27</v>
       </c>
@@ -3460,23 +3470,23 @@
       <c r="J58" s="67">
         <v>2</v>
       </c>
-      <c r="K58" s="161" t="s">
+      <c r="K58" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="161"/>
-      <c r="M58" s="142" t="s">
+      <c r="L58" s="141"/>
+      <c r="M58" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="N58" s="143"/>
-      <c r="O58" s="143"/>
+      <c r="N58" s="142"/>
+      <c r="O58" s="142"/>
       <c r="P58" s="70">
         <v>2000</v>
       </c>
-      <c r="Q58" s="142" t="s">
+      <c r="Q58" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="R58" s="142"/>
-      <c r="S58" s="142"/>
+      <c r="R58" s="138"/>
+      <c r="S58" s="138"/>
       <c r="T58" s="73" t="s">
         <v>27</v>
       </c>
@@ -3492,23 +3502,23 @@
       <c r="J59" s="67">
         <v>3</v>
       </c>
-      <c r="K59" s="161" t="s">
+      <c r="K59" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="L59" s="161"/>
-      <c r="M59" s="142" t="s">
+      <c r="L59" s="141"/>
+      <c r="M59" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
+      <c r="N59" s="142"/>
+      <c r="O59" s="142"/>
       <c r="P59" s="70">
         <v>1500</v>
       </c>
-      <c r="Q59" s="142" t="s">
+      <c r="Q59" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R59" s="142"/>
-      <c r="S59" s="142"/>
+      <c r="R59" s="138"/>
+      <c r="S59" s="138"/>
       <c r="T59" s="73" t="s">
         <v>27</v>
       </c>
@@ -3524,23 +3534,23 @@
       <c r="J60" s="67">
         <v>4</v>
       </c>
-      <c r="K60" s="161" t="s">
+      <c r="K60" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="L60" s="161"/>
-      <c r="M60" s="142" t="s">
+      <c r="L60" s="141"/>
+      <c r="M60" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="N60" s="143"/>
-      <c r="O60" s="143"/>
+      <c r="N60" s="142"/>
+      <c r="O60" s="142"/>
       <c r="P60" s="70">
         <v>1000</v>
       </c>
-      <c r="Q60" s="142" t="s">
+      <c r="Q60" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R60" s="142"/>
-      <c r="S60" s="142"/>
+      <c r="R60" s="138"/>
+      <c r="S60" s="138"/>
       <c r="T60" s="73" t="s">
         <v>27</v>
       </c>
@@ -3556,23 +3566,23 @@
       <c r="J61" s="67">
         <v>5</v>
       </c>
-      <c r="K61" s="161" t="s">
+      <c r="K61" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="L61" s="161"/>
-      <c r="M61" s="142" t="s">
+      <c r="L61" s="141"/>
+      <c r="M61" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="N61" s="143"/>
-      <c r="O61" s="143"/>
+      <c r="N61" s="142"/>
+      <c r="O61" s="142"/>
       <c r="P61" s="70">
         <v>1000</v>
       </c>
-      <c r="Q61" s="142" t="s">
+      <c r="Q61" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="142"/>
-      <c r="S61" s="142"/>
+      <c r="R61" s="138"/>
+      <c r="S61" s="138"/>
       <c r="T61" s="73" t="s">
         <v>27</v>
       </c>
@@ -3588,23 +3598,23 @@
       <c r="J62" s="67">
         <v>6</v>
       </c>
-      <c r="K62" s="161" t="s">
+      <c r="K62" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="161"/>
-      <c r="M62" s="142" t="s">
+      <c r="L62" s="141"/>
+      <c r="M62" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="N62" s="143"/>
-      <c r="O62" s="143"/>
+      <c r="N62" s="142"/>
+      <c r="O62" s="142"/>
       <c r="P62" s="70">
         <v>1000</v>
       </c>
-      <c r="Q62" s="142" t="s">
+      <c r="Q62" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R62" s="142"/>
-      <c r="S62" s="142"/>
+      <c r="R62" s="138"/>
+      <c r="S62" s="138"/>
       <c r="T62" s="73" t="s">
         <v>27</v>
       </c>
@@ -3620,23 +3630,23 @@
       <c r="J63" s="67">
         <v>7</v>
       </c>
-      <c r="K63" s="161" t="s">
+      <c r="K63" s="141" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="161"/>
-      <c r="M63" s="142" t="s">
+      <c r="L63" s="141"/>
+      <c r="M63" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="N63" s="143"/>
-      <c r="O63" s="143"/>
+      <c r="N63" s="142"/>
+      <c r="O63" s="142"/>
       <c r="P63" s="70">
         <v>1000</v>
       </c>
-      <c r="Q63" s="142" t="s">
+      <c r="Q63" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="142"/>
-      <c r="S63" s="142"/>
+      <c r="R63" s="138"/>
+      <c r="S63" s="138"/>
       <c r="T63" s="73" t="s">
         <v>27</v>
       </c>
@@ -3652,23 +3662,23 @@
       <c r="J64" s="67">
         <v>8</v>
       </c>
-      <c r="K64" s="161" t="s">
+      <c r="K64" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="L64" s="161"/>
-      <c r="M64" s="142" t="s">
+      <c r="L64" s="141"/>
+      <c r="M64" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="N64" s="143"/>
-      <c r="O64" s="143"/>
+      <c r="N64" s="142"/>
+      <c r="O64" s="142"/>
       <c r="P64" s="70">
         <v>1000</v>
       </c>
-      <c r="Q64" s="142" t="s">
+      <c r="Q64" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R64" s="142"/>
-      <c r="S64" s="142"/>
+      <c r="R64" s="138"/>
+      <c r="S64" s="138"/>
       <c r="T64" s="73" t="s">
         <v>27</v>
       </c>
@@ -3684,23 +3694,23 @@
       <c r="J65" s="67">
         <v>9</v>
       </c>
-      <c r="K65" s="161" t="s">
+      <c r="K65" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="161"/>
-      <c r="M65" s="142" t="s">
+      <c r="L65" s="141"/>
+      <c r="M65" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="N65" s="143"/>
-      <c r="O65" s="143"/>
+      <c r="N65" s="142"/>
+      <c r="O65" s="142"/>
       <c r="P65" s="70">
         <v>1000</v>
       </c>
-      <c r="Q65" s="142" t="s">
+      <c r="Q65" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R65" s="142"/>
-      <c r="S65" s="142"/>
+      <c r="R65" s="138"/>
+      <c r="S65" s="138"/>
       <c r="T65" s="73" t="s">
         <v>27</v>
       </c>
@@ -3716,23 +3726,23 @@
       <c r="J66" s="67">
         <v>10</v>
       </c>
-      <c r="K66" s="161" t="s">
+      <c r="K66" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="L66" s="161"/>
-      <c r="M66" s="142" t="s">
+      <c r="L66" s="141"/>
+      <c r="M66" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="N66" s="143"/>
-      <c r="O66" s="143"/>
+      <c r="N66" s="142"/>
+      <c r="O66" s="142"/>
       <c r="P66" s="70">
         <v>1000</v>
       </c>
-      <c r="Q66" s="142" t="s">
+      <c r="Q66" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="R66" s="142"/>
-      <c r="S66" s="142"/>
+      <c r="R66" s="138"/>
+      <c r="S66" s="138"/>
       <c r="T66" s="73" t="s">
         <v>27</v>
       </c>
@@ -3797,75 +3807,75 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C71" s="128" t="s">
+      <c r="C71" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="128"/>
-      <c r="L71" s="128"/>
-      <c r="M71" s="128"/>
-      <c r="N71" s="128"/>
-      <c r="O71" s="128"/>
-      <c r="P71" s="128"/>
-      <c r="Q71" s="128"/>
-      <c r="R71" s="128"/>
-      <c r="S71" s="128"/>
-      <c r="T71" s="128"/>
-      <c r="U71" s="128"/>
-      <c r="V71" s="128"/>
-      <c r="W71" s="128"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="129"/>
+      <c r="G71" s="129"/>
+      <c r="H71" s="129"/>
+      <c r="I71" s="129"/>
+      <c r="J71" s="129"/>
+      <c r="K71" s="129"/>
+      <c r="L71" s="129"/>
+      <c r="M71" s="129"/>
+      <c r="N71" s="129"/>
+      <c r="O71" s="129"/>
+      <c r="P71" s="129"/>
+      <c r="Q71" s="129"/>
+      <c r="R71" s="129"/>
+      <c r="S71" s="129"/>
+      <c r="T71" s="129"/>
+      <c r="U71" s="129"/>
+      <c r="V71" s="129"/>
+      <c r="W71" s="129"/>
     </row>
     <row r="72" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C72" s="128"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="128"/>
-      <c r="F72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="128"/>
-      <c r="M72" s="128"/>
-      <c r="N72" s="128"/>
-      <c r="O72" s="128"/>
-      <c r="P72" s="128"/>
-      <c r="Q72" s="128"/>
-      <c r="R72" s="128"/>
-      <c r="S72" s="128"/>
-      <c r="T72" s="128"/>
-      <c r="U72" s="128"/>
-      <c r="V72" s="128"/>
-      <c r="W72" s="128"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="129"/>
+      <c r="K72" s="129"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="129"/>
+      <c r="S72" s="129"/>
+      <c r="T72" s="129"/>
+      <c r="U72" s="129"/>
+      <c r="V72" s="129"/>
+      <c r="W72" s="129"/>
     </row>
     <row r="73" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C73" s="128"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="128"/>
-      <c r="L73" s="128"/>
-      <c r="M73" s="128"/>
-      <c r="N73" s="128"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="128"/>
-      <c r="Q73" s="128"/>
-      <c r="R73" s="128"/>
-      <c r="S73" s="128"/>
-      <c r="T73" s="128"/>
-      <c r="U73" s="128"/>
-      <c r="V73" s="128"/>
-      <c r="W73" s="128"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="129"/>
+      <c r="H73" s="129"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="129"/>
+      <c r="L73" s="129"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="129"/>
+      <c r="S73" s="129"/>
+      <c r="T73" s="129"/>
+      <c r="U73" s="129"/>
+      <c r="V73" s="129"/>
+      <c r="W73" s="129"/>
     </row>
     <row r="74" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="45"/>
@@ -3898,11 +3908,11 @@
     <row r="76" spans="3:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="38"/>
-      <c r="D77" s="128" t="s">
+      <c r="D77" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="128"/>
-      <c r="F77" s="128"/>
+      <c r="E77" s="129"/>
+      <c r="F77" s="129"/>
       <c r="G77" s="32"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -3923,25 +3933,25 @@
     </row>
     <row r="78" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="39"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="128"/>
-      <c r="F78" s="128"/>
+      <c r="D78" s="129"/>
+      <c r="E78" s="129"/>
+      <c r="F78" s="129"/>
       <c r="G78" s="45"/>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
-      <c r="K78" s="151" t="s">
+      <c r="K78" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="151"/>
-      <c r="M78" s="151"/>
-      <c r="N78" s="151"/>
-      <c r="O78" s="151"/>
-      <c r="P78" s="151"/>
-      <c r="Q78" s="151"/>
-      <c r="R78" s="151"/>
-      <c r="S78" s="151"/>
-      <c r="T78" s="151"/>
+      <c r="L78" s="135"/>
+      <c r="M78" s="135"/>
+      <c r="N78" s="135"/>
+      <c r="O78" s="135"/>
+      <c r="P78" s="135"/>
+      <c r="Q78" s="135"/>
+      <c r="R78" s="135"/>
+      <c r="S78" s="135"/>
+      <c r="T78" s="135"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
       <c r="W78" s="43"/>
@@ -3950,27 +3960,27 @@
       <c r="C79" s="39"/>
       <c r="D79" s="34"/>
       <c r="E79" s="35"/>
-      <c r="F79" s="139" t="s">
+      <c r="F79" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="139"/>
-      <c r="H79" s="139"/>
-      <c r="I79" s="139"/>
-      <c r="J79" s="139"/>
-      <c r="K79" s="151"/>
-      <c r="L79" s="151"/>
-      <c r="M79" s="151"/>
-      <c r="N79" s="151"/>
-      <c r="O79" s="151"/>
-      <c r="P79" s="151"/>
-      <c r="Q79" s="151"/>
-      <c r="R79" s="151"/>
-      <c r="S79" s="151"/>
-      <c r="T79" s="151"/>
-      <c r="U79" s="152" t="s">
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="136"/>
+      <c r="K79" s="135"/>
+      <c r="L79" s="135"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="135"/>
+      <c r="Q79" s="135"/>
+      <c r="R79" s="135"/>
+      <c r="S79" s="135"/>
+      <c r="T79" s="135"/>
+      <c r="U79" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V79" s="153"/>
+      <c r="V79" s="144"/>
       <c r="W79" s="43"/>
     </row>
     <row r="80" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4024,11 +4034,11 @@
       <c r="D82" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="137" t="s">
+      <c r="E82" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="138"/>
-      <c r="G82" s="138"/>
+      <c r="F82" s="126"/>
+      <c r="G82" s="126"/>
       <c r="I82" s="18"/>
       <c r="J82" s="154" t="s">
         <v>57</v>
@@ -4052,11 +4062,11 @@
       <c r="D83" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="140" t="s">
+      <c r="E83" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="141"/>
-      <c r="G83" s="141"/>
+      <c r="F83" s="128"/>
+      <c r="G83" s="128"/>
       <c r="I83" s="18"/>
       <c r="J83" s="51"/>
       <c r="K83" s="58"/>
@@ -4071,11 +4081,11 @@
       <c r="D84" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="137" t="s">
+      <c r="E84" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="138"/>
-      <c r="G84" s="138"/>
+      <c r="F84" s="126"/>
+      <c r="G84" s="126"/>
       <c r="I84" s="18"/>
       <c r="K84" s="81"/>
       <c r="L84" s="80"/>
@@ -4097,11 +4107,11 @@
       <c r="D85" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="137" t="s">
+      <c r="E85" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="138"/>
-      <c r="G85" s="138"/>
+      <c r="F85" s="126"/>
+      <c r="G85" s="126"/>
       <c r="I85" s="18" t="s">
         <v>35</v>
       </c>
@@ -4118,11 +4128,11 @@
       <c r="D86" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="137" t="s">
+      <c r="E86" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="138"/>
-      <c r="G86" s="138"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
       <c r="I86" s="18"/>
       <c r="K86" s="82"/>
       <c r="T86" s="78"/>
@@ -4136,14 +4146,14 @@
       <c r="L87" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N87" s="142" t="s">
+      <c r="N87" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="O87" s="143"/>
-      <c r="P87" s="143"/>
-      <c r="Q87" s="143"/>
-      <c r="R87" s="143"/>
-      <c r="S87" s="143"/>
+      <c r="O87" s="142"/>
+      <c r="P87" s="142"/>
+      <c r="Q87" s="142"/>
+      <c r="R87" s="142"/>
+      <c r="S87" s="142"/>
       <c r="T87" s="78"/>
       <c r="V87" s="78"/>
       <c r="W87" s="20"/>
@@ -4163,14 +4173,14 @@
       <c r="L89" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N89" s="142" t="s">
+      <c r="N89" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="O89" s="143"/>
-      <c r="P89" s="143"/>
-      <c r="Q89" s="143"/>
-      <c r="R89" s="143"/>
-      <c r="S89" s="143"/>
+      <c r="O89" s="142"/>
+      <c r="P89" s="142"/>
+      <c r="Q89" s="142"/>
+      <c r="R89" s="142"/>
+      <c r="S89" s="142"/>
       <c r="T89" s="78"/>
       <c r="V89" s="78"/>
       <c r="W89" s="20"/>
@@ -4190,14 +4200,14 @@
       <c r="L91" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N91" s="142" t="s">
+      <c r="N91" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="O91" s="143"/>
-      <c r="P91" s="143"/>
-      <c r="Q91" s="143"/>
-      <c r="R91" s="143"/>
-      <c r="S91" s="143"/>
+      <c r="O91" s="142"/>
+      <c r="P91" s="142"/>
+      <c r="Q91" s="142"/>
+      <c r="R91" s="142"/>
+      <c r="S91" s="142"/>
       <c r="T91" s="78"/>
       <c r="V91" s="78"/>
       <c r="W91" s="20"/>
@@ -4254,10 +4264,10 @@
       <c r="P96" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q96" s="150" t="s">
+      <c r="Q96" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="R96" s="150"/>
+      <c r="R96" s="149"/>
       <c r="T96" s="78"/>
       <c r="V96" s="78"/>
       <c r="W96" s="20"/>
@@ -4311,75 +4321,75 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C101" s="128" t="s">
+      <c r="C101" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="128"/>
-      <c r="J101" s="128"/>
-      <c r="K101" s="128"/>
-      <c r="L101" s="128"/>
-      <c r="M101" s="128"/>
-      <c r="N101" s="128"/>
-      <c r="O101" s="128"/>
-      <c r="P101" s="128"/>
-      <c r="Q101" s="128"/>
-      <c r="R101" s="128"/>
-      <c r="S101" s="128"/>
-      <c r="T101" s="128"/>
-      <c r="U101" s="128"/>
-      <c r="V101" s="128"/>
-      <c r="W101" s="128"/>
+      <c r="D101" s="129"/>
+      <c r="E101" s="129"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="129"/>
+      <c r="H101" s="129"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="129"/>
+      <c r="K101" s="129"/>
+      <c r="L101" s="129"/>
+      <c r="M101" s="129"/>
+      <c r="N101" s="129"/>
+      <c r="O101" s="129"/>
+      <c r="P101" s="129"/>
+      <c r="Q101" s="129"/>
+      <c r="R101" s="129"/>
+      <c r="S101" s="129"/>
+      <c r="T101" s="129"/>
+      <c r="U101" s="129"/>
+      <c r="V101" s="129"/>
+      <c r="W101" s="129"/>
     </row>
     <row r="102" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C102" s="128"/>
-      <c r="D102" s="128"/>
-      <c r="E102" s="128"/>
-      <c r="F102" s="128"/>
-      <c r="G102" s="128"/>
-      <c r="H102" s="128"/>
-      <c r="I102" s="128"/>
-      <c r="J102" s="128"/>
-      <c r="K102" s="128"/>
-      <c r="L102" s="128"/>
-      <c r="M102" s="128"/>
-      <c r="N102" s="128"/>
-      <c r="O102" s="128"/>
-      <c r="P102" s="128"/>
-      <c r="Q102" s="128"/>
-      <c r="R102" s="128"/>
-      <c r="S102" s="128"/>
-      <c r="T102" s="128"/>
-      <c r="U102" s="128"/>
-      <c r="V102" s="128"/>
-      <c r="W102" s="128"/>
+      <c r="C102" s="129"/>
+      <c r="D102" s="129"/>
+      <c r="E102" s="129"/>
+      <c r="F102" s="129"/>
+      <c r="G102" s="129"/>
+      <c r="H102" s="129"/>
+      <c r="I102" s="129"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="129"/>
+      <c r="L102" s="129"/>
+      <c r="M102" s="129"/>
+      <c r="N102" s="129"/>
+      <c r="O102" s="129"/>
+      <c r="P102" s="129"/>
+      <c r="Q102" s="129"/>
+      <c r="R102" s="129"/>
+      <c r="S102" s="129"/>
+      <c r="T102" s="129"/>
+      <c r="U102" s="129"/>
+      <c r="V102" s="129"/>
+      <c r="W102" s="129"/>
     </row>
     <row r="103" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C103" s="128"/>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="128"/>
-      <c r="H103" s="128"/>
-      <c r="I103" s="128"/>
-      <c r="J103" s="128"/>
-      <c r="K103" s="128"/>
-      <c r="L103" s="128"/>
-      <c r="M103" s="128"/>
-      <c r="N103" s="128"/>
-      <c r="O103" s="128"/>
-      <c r="P103" s="128"/>
-      <c r="Q103" s="128"/>
-      <c r="R103" s="128"/>
-      <c r="S103" s="128"/>
-      <c r="T103" s="128"/>
-      <c r="U103" s="128"/>
-      <c r="V103" s="128"/>
-      <c r="W103" s="128"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="129"/>
+      <c r="E103" s="129"/>
+      <c r="F103" s="129"/>
+      <c r="G103" s="129"/>
+      <c r="H103" s="129"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="129"/>
+      <c r="L103" s="129"/>
+      <c r="M103" s="129"/>
+      <c r="N103" s="129"/>
+      <c r="O103" s="129"/>
+      <c r="P103" s="129"/>
+      <c r="Q103" s="129"/>
+      <c r="R103" s="129"/>
+      <c r="S103" s="129"/>
+      <c r="T103" s="129"/>
+      <c r="U103" s="129"/>
+      <c r="V103" s="129"/>
+      <c r="W103" s="129"/>
     </row>
     <row r="104" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C104" s="30"/>
@@ -4435,11 +4445,11 @@
     <row r="107" spans="3:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="38"/>
-      <c r="D108" s="128" t="s">
+      <c r="D108" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E108" s="128"/>
-      <c r="F108" s="128"/>
+      <c r="E108" s="129"/>
+      <c r="F108" s="129"/>
       <c r="G108" s="32"/>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
@@ -4460,25 +4470,25 @@
     </row>
     <row r="109" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C109" s="39"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="128"/>
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
+      <c r="F109" s="129"/>
       <c r="G109" s="45"/>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
-      <c r="K109" s="151" t="s">
+      <c r="K109" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L109" s="151"/>
-      <c r="M109" s="151"/>
-      <c r="N109" s="151"/>
-      <c r="O109" s="151"/>
-      <c r="P109" s="151"/>
-      <c r="Q109" s="151"/>
-      <c r="R109" s="151"/>
-      <c r="S109" s="151"/>
-      <c r="T109" s="151"/>
+      <c r="L109" s="135"/>
+      <c r="M109" s="135"/>
+      <c r="N109" s="135"/>
+      <c r="O109" s="135"/>
+      <c r="P109" s="135"/>
+      <c r="Q109" s="135"/>
+      <c r="R109" s="135"/>
+      <c r="S109" s="135"/>
+      <c r="T109" s="135"/>
       <c r="U109" s="33"/>
       <c r="V109" s="33"/>
       <c r="W109" s="43"/>
@@ -4487,27 +4497,27 @@
       <c r="C110" s="39"/>
       <c r="D110" s="34"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="139" t="s">
+      <c r="F110" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="139"/>
-      <c r="H110" s="139"/>
-      <c r="I110" s="139"/>
-      <c r="J110" s="139"/>
-      <c r="K110" s="151"/>
-      <c r="L110" s="151"/>
-      <c r="M110" s="151"/>
-      <c r="N110" s="151"/>
-      <c r="O110" s="151"/>
-      <c r="P110" s="151"/>
-      <c r="Q110" s="151"/>
-      <c r="R110" s="151"/>
-      <c r="S110" s="151"/>
-      <c r="T110" s="151"/>
-      <c r="U110" s="152" t="s">
+      <c r="G110" s="136"/>
+      <c r="H110" s="136"/>
+      <c r="I110" s="136"/>
+      <c r="J110" s="136"/>
+      <c r="K110" s="135"/>
+      <c r="L110" s="135"/>
+      <c r="M110" s="135"/>
+      <c r="N110" s="135"/>
+      <c r="O110" s="135"/>
+      <c r="P110" s="135"/>
+      <c r="Q110" s="135"/>
+      <c r="R110" s="135"/>
+      <c r="S110" s="135"/>
+      <c r="T110" s="135"/>
+      <c r="U110" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V110" s="153"/>
+      <c r="V110" s="144"/>
       <c r="W110" s="43"/>
     </row>
     <row r="111" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4561,11 +4571,11 @@
       <c r="D113" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E113" s="137" t="s">
+      <c r="E113" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="138"/>
-      <c r="G113" s="138"/>
+      <c r="F113" s="126"/>
+      <c r="G113" s="126"/>
       <c r="I113" s="18"/>
       <c r="J113" s="154" t="s">
         <v>57</v>
@@ -4589,11 +4599,11 @@
       <c r="D114" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E114" s="140" t="s">
+      <c r="E114" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="141"/>
-      <c r="G114" s="141"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="128"/>
       <c r="I114" s="18"/>
       <c r="J114" s="51"/>
       <c r="K114" s="58"/>
@@ -4608,11 +4618,11 @@
       <c r="D115" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="137" t="s">
+      <c r="E115" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="138"/>
-      <c r="G115" s="138"/>
+      <c r="F115" s="126"/>
+      <c r="G115" s="126"/>
       <c r="I115" s="18"/>
       <c r="K115" s="81"/>
       <c r="L115" s="80"/>
@@ -4634,11 +4644,11 @@
       <c r="D116" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="137" t="s">
+      <c r="E116" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="138"/>
-      <c r="G116" s="138"/>
+      <c r="F116" s="126"/>
+      <c r="G116" s="126"/>
       <c r="I116" s="18" t="s">
         <v>35</v>
       </c>
@@ -4655,11 +4665,11 @@
       <c r="D117" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="137" t="s">
+      <c r="E117" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="138"/>
-      <c r="G117" s="138"/>
+      <c r="F117" s="126"/>
+      <c r="G117" s="126"/>
       <c r="I117" s="18"/>
       <c r="K117" s="82"/>
       <c r="T117" s="78"/>
@@ -4673,14 +4683,14 @@
       <c r="L118" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N118" s="142" t="s">
+      <c r="N118" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="O118" s="143"/>
-      <c r="P118" s="143"/>
-      <c r="Q118" s="143"/>
-      <c r="R118" s="143"/>
-      <c r="S118" s="143"/>
+      <c r="O118" s="142"/>
+      <c r="P118" s="142"/>
+      <c r="Q118" s="142"/>
+      <c r="R118" s="142"/>
+      <c r="S118" s="142"/>
       <c r="T118" s="78"/>
       <c r="V118" s="78"/>
       <c r="W118" s="20"/>
@@ -4700,14 +4710,14 @@
       <c r="L120" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N120" s="142" t="s">
+      <c r="N120" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="O120" s="143"/>
-      <c r="P120" s="143"/>
-      <c r="Q120" s="143"/>
-      <c r="R120" s="143"/>
-      <c r="S120" s="143"/>
+      <c r="O120" s="142"/>
+      <c r="P120" s="142"/>
+      <c r="Q120" s="142"/>
+      <c r="R120" s="142"/>
+      <c r="S120" s="142"/>
       <c r="T120" s="78"/>
       <c r="V120" s="78"/>
       <c r="W120" s="20"/>
@@ -4727,14 +4737,14 @@
       <c r="L122" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N122" s="142">
+      <c r="N122" s="138">
         <v>1000</v>
       </c>
-      <c r="O122" s="143"/>
-      <c r="P122" s="143"/>
-      <c r="Q122" s="143"/>
-      <c r="R122" s="143"/>
-      <c r="S122" s="143"/>
+      <c r="O122" s="142"/>
+      <c r="P122" s="142"/>
+      <c r="Q122" s="142"/>
+      <c r="R122" s="142"/>
+      <c r="S122" s="142"/>
       <c r="T122" s="78"/>
       <c r="V122" s="78"/>
       <c r="W122" s="20"/>
@@ -4791,10 +4801,10 @@
       <c r="P127" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q127" s="150" t="s">
+      <c r="Q127" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="R127" s="150"/>
+      <c r="R127" s="149"/>
       <c r="T127" s="78"/>
       <c r="V127" s="78"/>
       <c r="W127" s="20"/>
@@ -4848,75 +4858,75 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C132" s="128" t="s">
+      <c r="C132" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D132" s="128"/>
-      <c r="E132" s="128"/>
-      <c r="F132" s="128"/>
-      <c r="G132" s="128"/>
-      <c r="H132" s="128"/>
-      <c r="I132" s="128"/>
-      <c r="J132" s="128"/>
-      <c r="K132" s="128"/>
-      <c r="L132" s="128"/>
-      <c r="M132" s="128"/>
-      <c r="N132" s="128"/>
-      <c r="O132" s="128"/>
-      <c r="P132" s="128"/>
-      <c r="Q132" s="128"/>
-      <c r="R132" s="128"/>
-      <c r="S132" s="128"/>
-      <c r="T132" s="128"/>
-      <c r="U132" s="128"/>
-      <c r="V132" s="128"/>
-      <c r="W132" s="128"/>
+      <c r="D132" s="129"/>
+      <c r="E132" s="129"/>
+      <c r="F132" s="129"/>
+      <c r="G132" s="129"/>
+      <c r="H132" s="129"/>
+      <c r="I132" s="129"/>
+      <c r="J132" s="129"/>
+      <c r="K132" s="129"/>
+      <c r="L132" s="129"/>
+      <c r="M132" s="129"/>
+      <c r="N132" s="129"/>
+      <c r="O132" s="129"/>
+      <c r="P132" s="129"/>
+      <c r="Q132" s="129"/>
+      <c r="R132" s="129"/>
+      <c r="S132" s="129"/>
+      <c r="T132" s="129"/>
+      <c r="U132" s="129"/>
+      <c r="V132" s="129"/>
+      <c r="W132" s="129"/>
     </row>
     <row r="133" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C133" s="128"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="128"/>
-      <c r="F133" s="128"/>
-      <c r="G133" s="128"/>
-      <c r="H133" s="128"/>
-      <c r="I133" s="128"/>
-      <c r="J133" s="128"/>
-      <c r="K133" s="128"/>
-      <c r="L133" s="128"/>
-      <c r="M133" s="128"/>
-      <c r="N133" s="128"/>
-      <c r="O133" s="128"/>
-      <c r="P133" s="128"/>
-      <c r="Q133" s="128"/>
-      <c r="R133" s="128"/>
-      <c r="S133" s="128"/>
-      <c r="T133" s="128"/>
-      <c r="U133" s="128"/>
-      <c r="V133" s="128"/>
-      <c r="W133" s="128"/>
+      <c r="C133" s="129"/>
+      <c r="D133" s="129"/>
+      <c r="E133" s="129"/>
+      <c r="F133" s="129"/>
+      <c r="G133" s="129"/>
+      <c r="H133" s="129"/>
+      <c r="I133" s="129"/>
+      <c r="J133" s="129"/>
+      <c r="K133" s="129"/>
+      <c r="L133" s="129"/>
+      <c r="M133" s="129"/>
+      <c r="N133" s="129"/>
+      <c r="O133" s="129"/>
+      <c r="P133" s="129"/>
+      <c r="Q133" s="129"/>
+      <c r="R133" s="129"/>
+      <c r="S133" s="129"/>
+      <c r="T133" s="129"/>
+      <c r="U133" s="129"/>
+      <c r="V133" s="129"/>
+      <c r="W133" s="129"/>
     </row>
     <row r="134" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="128"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="128"/>
-      <c r="F134" s="128"/>
-      <c r="G134" s="128"/>
-      <c r="H134" s="128"/>
-      <c r="I134" s="128"/>
-      <c r="J134" s="128"/>
-      <c r="K134" s="128"/>
-      <c r="L134" s="128"/>
-      <c r="M134" s="128"/>
-      <c r="N134" s="128"/>
-      <c r="O134" s="128"/>
-      <c r="P134" s="128"/>
-      <c r="Q134" s="128"/>
-      <c r="R134" s="128"/>
-      <c r="S134" s="128"/>
-      <c r="T134" s="128"/>
-      <c r="U134" s="128"/>
-      <c r="V134" s="128"/>
-      <c r="W134" s="128"/>
+      <c r="C134" s="129"/>
+      <c r="D134" s="129"/>
+      <c r="E134" s="129"/>
+      <c r="F134" s="129"/>
+      <c r="G134" s="129"/>
+      <c r="H134" s="129"/>
+      <c r="I134" s="129"/>
+      <c r="J134" s="129"/>
+      <c r="K134" s="129"/>
+      <c r="L134" s="129"/>
+      <c r="M134" s="129"/>
+      <c r="N134" s="129"/>
+      <c r="O134" s="129"/>
+      <c r="P134" s="129"/>
+      <c r="Q134" s="129"/>
+      <c r="R134" s="129"/>
+      <c r="S134" s="129"/>
+      <c r="T134" s="129"/>
+      <c r="U134" s="129"/>
+      <c r="V134" s="129"/>
+      <c r="W134" s="129"/>
     </row>
     <row r="135" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="45"/>
@@ -4948,11 +4958,11 @@
     </row>
     <row r="138" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="38"/>
-      <c r="D138" s="128" t="s">
+      <c r="D138" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="128"/>
-      <c r="F138" s="128"/>
+      <c r="E138" s="129"/>
+      <c r="F138" s="129"/>
       <c r="G138" s="32"/>
       <c r="H138" s="37"/>
       <c r="I138" s="37"/>
@@ -4973,25 +4983,25 @@
     </row>
     <row r="139" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="39"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="128"/>
-      <c r="F139" s="128"/>
+      <c r="D139" s="129"/>
+      <c r="E139" s="129"/>
+      <c r="F139" s="129"/>
       <c r="G139" s="45"/>
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
-      <c r="K139" s="151" t="s">
+      <c r="K139" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L139" s="151"/>
-      <c r="M139" s="151"/>
-      <c r="N139" s="151"/>
-      <c r="O139" s="151"/>
-      <c r="P139" s="151"/>
-      <c r="Q139" s="151"/>
-      <c r="R139" s="151"/>
-      <c r="S139" s="151"/>
-      <c r="T139" s="151"/>
+      <c r="L139" s="135"/>
+      <c r="M139" s="135"/>
+      <c r="N139" s="135"/>
+      <c r="O139" s="135"/>
+      <c r="P139" s="135"/>
+      <c r="Q139" s="135"/>
+      <c r="R139" s="135"/>
+      <c r="S139" s="135"/>
+      <c r="T139" s="135"/>
       <c r="U139" s="33"/>
       <c r="V139" s="33"/>
       <c r="W139" s="43"/>
@@ -5000,27 +5010,27 @@
       <c r="C140" s="39"/>
       <c r="D140" s="34"/>
       <c r="E140" s="35"/>
-      <c r="F140" s="139" t="s">
+      <c r="F140" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="139"/>
-      <c r="H140" s="139"/>
-      <c r="I140" s="139"/>
-      <c r="J140" s="139"/>
-      <c r="K140" s="151"/>
-      <c r="L140" s="151"/>
-      <c r="M140" s="151"/>
-      <c r="N140" s="151"/>
-      <c r="O140" s="151"/>
-      <c r="P140" s="151"/>
-      <c r="Q140" s="151"/>
-      <c r="R140" s="151"/>
-      <c r="S140" s="151"/>
-      <c r="T140" s="151"/>
-      <c r="U140" s="152" t="s">
+      <c r="G140" s="136"/>
+      <c r="H140" s="136"/>
+      <c r="I140" s="136"/>
+      <c r="J140" s="136"/>
+      <c r="K140" s="135"/>
+      <c r="L140" s="135"/>
+      <c r="M140" s="135"/>
+      <c r="N140" s="135"/>
+      <c r="O140" s="135"/>
+      <c r="P140" s="135"/>
+      <c r="Q140" s="135"/>
+      <c r="R140" s="135"/>
+      <c r="S140" s="135"/>
+      <c r="T140" s="135"/>
+      <c r="U140" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V140" s="153"/>
+      <c r="V140" s="144"/>
       <c r="W140" s="43"/>
     </row>
     <row r="141" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5074,11 +5084,11 @@
       <c r="D143" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="137" t="s">
+      <c r="E143" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="138"/>
-      <c r="G143" s="138"/>
+      <c r="F143" s="126"/>
+      <c r="G143" s="126"/>
       <c r="I143" s="18"/>
       <c r="J143" s="154" t="s">
         <v>57</v>
@@ -5102,11 +5112,11 @@
       <c r="D144" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E144" s="140" t="s">
+      <c r="E144" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="F144" s="141"/>
-      <c r="G144" s="141"/>
+      <c r="F144" s="128"/>
+      <c r="G144" s="128"/>
       <c r="I144" s="18"/>
       <c r="J144" s="51"/>
       <c r="K144" s="58"/>
@@ -5121,11 +5131,11 @@
       <c r="D145" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="137" t="s">
+      <c r="E145" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F145" s="138"/>
-      <c r="G145" s="138"/>
+      <c r="F145" s="126"/>
+      <c r="G145" s="126"/>
       <c r="I145" s="18"/>
       <c r="V145" s="78"/>
       <c r="W145" s="20"/>
@@ -5135,11 +5145,11 @@
       <c r="D146" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E146" s="137" t="s">
+      <c r="E146" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F146" s="138"/>
-      <c r="G146" s="138"/>
+      <c r="F146" s="126"/>
+      <c r="G146" s="126"/>
       <c r="I146" s="18" t="s">
         <v>35</v>
       </c>
@@ -5161,11 +5171,11 @@
       <c r="D147" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="137" t="s">
+      <c r="E147" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F147" s="138"/>
-      <c r="G147" s="138"/>
+      <c r="F147" s="126"/>
+      <c r="G147" s="126"/>
       <c r="I147" s="18"/>
       <c r="L147" s="82"/>
       <c r="M147" s="88" t="s">
@@ -5310,75 +5320,75 @@
       <c r="W161" s="20"/>
     </row>
     <row r="162" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="128" t="s">
+      <c r="C162" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="128"/>
-      <c r="E162" s="128"/>
-      <c r="F162" s="128"/>
-      <c r="G162" s="128"/>
-      <c r="H162" s="128"/>
-      <c r="I162" s="128"/>
-      <c r="J162" s="128"/>
-      <c r="K162" s="128"/>
-      <c r="L162" s="128"/>
-      <c r="M162" s="128"/>
-      <c r="N162" s="128"/>
-      <c r="O162" s="128"/>
-      <c r="P162" s="128"/>
-      <c r="Q162" s="128"/>
-      <c r="R162" s="128"/>
-      <c r="S162" s="128"/>
-      <c r="T162" s="128"/>
-      <c r="U162" s="128"/>
-      <c r="V162" s="128"/>
-      <c r="W162" s="128"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="129"/>
+      <c r="G162" s="129"/>
+      <c r="H162" s="129"/>
+      <c r="I162" s="129"/>
+      <c r="J162" s="129"/>
+      <c r="K162" s="129"/>
+      <c r="L162" s="129"/>
+      <c r="M162" s="129"/>
+      <c r="N162" s="129"/>
+      <c r="O162" s="129"/>
+      <c r="P162" s="129"/>
+      <c r="Q162" s="129"/>
+      <c r="R162" s="129"/>
+      <c r="S162" s="129"/>
+      <c r="T162" s="129"/>
+      <c r="U162" s="129"/>
+      <c r="V162" s="129"/>
+      <c r="W162" s="129"/>
     </row>
     <row r="163" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C163" s="128"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="128"/>
-      <c r="F163" s="128"/>
-      <c r="G163" s="128"/>
-      <c r="H163" s="128"/>
-      <c r="I163" s="128"/>
-      <c r="J163" s="128"/>
-      <c r="K163" s="128"/>
-      <c r="L163" s="128"/>
-      <c r="M163" s="128"/>
-      <c r="N163" s="128"/>
-      <c r="O163" s="128"/>
-      <c r="P163" s="128"/>
-      <c r="Q163" s="128"/>
-      <c r="R163" s="128"/>
-      <c r="S163" s="128"/>
-      <c r="T163" s="128"/>
-      <c r="U163" s="128"/>
-      <c r="V163" s="128"/>
-      <c r="W163" s="128"/>
+      <c r="C163" s="129"/>
+      <c r="D163" s="129"/>
+      <c r="E163" s="129"/>
+      <c r="F163" s="129"/>
+      <c r="G163" s="129"/>
+      <c r="H163" s="129"/>
+      <c r="I163" s="129"/>
+      <c r="J163" s="129"/>
+      <c r="K163" s="129"/>
+      <c r="L163" s="129"/>
+      <c r="M163" s="129"/>
+      <c r="N163" s="129"/>
+      <c r="O163" s="129"/>
+      <c r="P163" s="129"/>
+      <c r="Q163" s="129"/>
+      <c r="R163" s="129"/>
+      <c r="S163" s="129"/>
+      <c r="T163" s="129"/>
+      <c r="U163" s="129"/>
+      <c r="V163" s="129"/>
+      <c r="W163" s="129"/>
     </row>
     <row r="164" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C164" s="128"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="128"/>
-      <c r="F164" s="128"/>
-      <c r="G164" s="128"/>
-      <c r="H164" s="128"/>
-      <c r="I164" s="128"/>
-      <c r="J164" s="128"/>
-      <c r="K164" s="128"/>
-      <c r="L164" s="128"/>
-      <c r="M164" s="128"/>
-      <c r="N164" s="128"/>
-      <c r="O164" s="128"/>
-      <c r="P164" s="128"/>
-      <c r="Q164" s="128"/>
-      <c r="R164" s="128"/>
-      <c r="S164" s="128"/>
-      <c r="T164" s="128"/>
-      <c r="U164" s="128"/>
-      <c r="V164" s="128"/>
-      <c r="W164" s="128"/>
+      <c r="C164" s="129"/>
+      <c r="D164" s="129"/>
+      <c r="E164" s="129"/>
+      <c r="F164" s="129"/>
+      <c r="G164" s="129"/>
+      <c r="H164" s="129"/>
+      <c r="I164" s="129"/>
+      <c r="J164" s="129"/>
+      <c r="K164" s="129"/>
+      <c r="L164" s="129"/>
+      <c r="M164" s="129"/>
+      <c r="N164" s="129"/>
+      <c r="O164" s="129"/>
+      <c r="P164" s="129"/>
+      <c r="Q164" s="129"/>
+      <c r="R164" s="129"/>
+      <c r="S164" s="129"/>
+      <c r="T164" s="129"/>
+      <c r="U164" s="129"/>
+      <c r="V164" s="129"/>
+      <c r="W164" s="129"/>
     </row>
     <row r="165" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C165" s="31"/>
@@ -5413,11 +5423,11 @@
     <row r="169" spans="2:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="170" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C170" s="38"/>
-      <c r="D170" s="128" t="s">
+      <c r="D170" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E170" s="128"/>
-      <c r="F170" s="128"/>
+      <c r="E170" s="129"/>
+      <c r="F170" s="129"/>
       <c r="G170" s="32"/>
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
@@ -5438,25 +5448,25 @@
     </row>
     <row r="171" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C171" s="39"/>
-      <c r="D171" s="128"/>
-      <c r="E171" s="128"/>
-      <c r="F171" s="128"/>
+      <c r="D171" s="129"/>
+      <c r="E171" s="129"/>
+      <c r="F171" s="129"/>
       <c r="G171" s="45"/>
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
       <c r="J171" s="33"/>
-      <c r="K171" s="151" t="s">
+      <c r="K171" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L171" s="151"/>
-      <c r="M171" s="151"/>
-      <c r="N171" s="151"/>
-      <c r="O171" s="151"/>
-      <c r="P171" s="151"/>
-      <c r="Q171" s="151"/>
-      <c r="R171" s="151"/>
-      <c r="S171" s="151"/>
-      <c r="T171" s="151"/>
+      <c r="L171" s="135"/>
+      <c r="M171" s="135"/>
+      <c r="N171" s="135"/>
+      <c r="O171" s="135"/>
+      <c r="P171" s="135"/>
+      <c r="Q171" s="135"/>
+      <c r="R171" s="135"/>
+      <c r="S171" s="135"/>
+      <c r="T171" s="135"/>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
       <c r="W171" s="43"/>
@@ -5465,27 +5475,27 @@
       <c r="C172" s="39"/>
       <c r="D172" s="34"/>
       <c r="E172" s="35"/>
-      <c r="F172" s="139" t="s">
+      <c r="F172" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="139"/>
-      <c r="H172" s="139"/>
-      <c r="I172" s="139"/>
-      <c r="J172" s="139"/>
-      <c r="K172" s="151"/>
-      <c r="L172" s="151"/>
-      <c r="M172" s="151"/>
-      <c r="N172" s="151"/>
-      <c r="O172" s="151"/>
-      <c r="P172" s="151"/>
-      <c r="Q172" s="151"/>
-      <c r="R172" s="151"/>
-      <c r="S172" s="151"/>
-      <c r="T172" s="151"/>
-      <c r="U172" s="152" t="s">
+      <c r="G172" s="136"/>
+      <c r="H172" s="136"/>
+      <c r="I172" s="136"/>
+      <c r="J172" s="136"/>
+      <c r="K172" s="135"/>
+      <c r="L172" s="135"/>
+      <c r="M172" s="135"/>
+      <c r="N172" s="135"/>
+      <c r="O172" s="135"/>
+      <c r="P172" s="135"/>
+      <c r="Q172" s="135"/>
+      <c r="R172" s="135"/>
+      <c r="S172" s="135"/>
+      <c r="T172" s="135"/>
+      <c r="U172" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V172" s="153"/>
+      <c r="V172" s="144"/>
       <c r="W172" s="43"/>
     </row>
     <row r="173" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5539,11 +5549,11 @@
       <c r="D175" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E175" s="137" t="s">
+      <c r="E175" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="138"/>
-      <c r="G175" s="138"/>
+      <c r="F175" s="126"/>
+      <c r="G175" s="126"/>
       <c r="I175" s="18"/>
       <c r="J175" s="154" t="s">
         <v>104</v>
@@ -5567,11 +5577,11 @@
       <c r="D176" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E176" s="137" t="s">
+      <c r="E176" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F176" s="138"/>
-      <c r="G176" s="138"/>
+      <c r="F176" s="126"/>
+      <c r="G176" s="126"/>
       <c r="I176" s="18"/>
       <c r="J176" s="51"/>
       <c r="K176" s="58"/>
@@ -5586,35 +5596,35 @@
       <c r="D177" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E177" s="140" t="s">
+      <c r="E177" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="141"/>
-      <c r="G177" s="141"/>
+      <c r="F177" s="128"/>
+      <c r="G177" s="128"/>
       <c r="I177" s="18"/>
-      <c r="J177" s="129" t="s">
+      <c r="J177" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="K177" s="130"/>
+      <c r="K177" s="162"/>
       <c r="L177" s="66"/>
-      <c r="M177" s="148" t="s">
+      <c r="M177" s="130" t="s">
         <v>161</v>
       </c>
-      <c r="N177" s="149"/>
-      <c r="O177" s="149"/>
-      <c r="P177" s="149"/>
-      <c r="Q177" s="144" t="s">
+      <c r="N177" s="148"/>
+      <c r="O177" s="148"/>
+      <c r="P177" s="148"/>
+      <c r="Q177" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="R177" s="145"/>
+      <c r="R177" s="164"/>
       <c r="S177" s="64"/>
       <c r="T177" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U177" s="157" t="s">
+      <c r="U177" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="V177" s="158"/>
+      <c r="V177" s="157"/>
       <c r="W177" s="20"/>
     </row>
     <row r="178" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5622,11 +5632,11 @@
       <c r="D178" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E178" s="137" t="s">
+      <c r="E178" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F178" s="138"/>
-      <c r="G178" s="138"/>
+      <c r="F178" s="126"/>
+      <c r="G178" s="126"/>
       <c r="I178" s="18" t="s">
         <v>35</v>
       </c>
@@ -5642,11 +5652,11 @@
       <c r="D179" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E179" s="137" t="s">
+      <c r="E179" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F179" s="138"/>
-      <c r="G179" s="138"/>
+      <c r="F179" s="126"/>
+      <c r="G179" s="126"/>
       <c r="I179" s="18"/>
       <c r="J179" s="72" t="s">
         <v>61</v>
@@ -5654,28 +5664,28 @@
       <c r="K179" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="L179" s="131" t="s">
+      <c r="L179" s="150" t="s">
         <v>106</v>
       </c>
-      <c r="M179" s="132"/>
-      <c r="N179" s="131" t="s">
+      <c r="M179" s="151"/>
+      <c r="N179" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="O179" s="132"/>
+      <c r="O179" s="151"/>
       <c r="P179" s="72" t="s">
         <v>17</v>
       </c>
       <c r="Q179" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="R179" s="131" t="s">
+      <c r="R179" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="S179" s="132"/>
-      <c r="T179" s="160" t="s">
+      <c r="S179" s="151"/>
+      <c r="T179" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="U179" s="160"/>
+      <c r="U179" s="139"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
     </row>
@@ -5688,24 +5698,24 @@
       <c r="K180" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="L180" s="124" t="s">
+      <c r="L180" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="M180" s="125"/>
-      <c r="N180" s="126" t="s">
+      <c r="M180" s="133"/>
+      <c r="N180" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="O180" s="127"/>
+      <c r="O180" s="153"/>
       <c r="P180" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q180" s="63">
         <v>20</v>
       </c>
-      <c r="R180" s="124" t="s">
+      <c r="R180" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S180" s="163"/>
+      <c r="S180" s="134"/>
       <c r="T180" s="73" t="s">
         <v>27</v>
       </c>
@@ -5725,26 +5735,26 @@
       <c r="K181" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="L181" s="124" t="s">
+      <c r="L181" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M181" s="125" t="s">
+      <c r="M181" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="N181" s="126" t="s">
+      <c r="N181" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="O181" s="127"/>
+      <c r="O181" s="153"/>
       <c r="P181" s="90" t="s">
         <v>135</v>
       </c>
       <c r="Q181" s="63">
         <v>22</v>
       </c>
-      <c r="R181" s="124" t="s">
+      <c r="R181" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="S181" s="163"/>
+      <c r="S181" s="134"/>
       <c r="T181" s="73" t="s">
         <v>27</v>
       </c>
@@ -5763,26 +5773,26 @@
       <c r="K182" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="L182" s="124" t="s">
+      <c r="L182" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="M182" s="125" t="s">
+      <c r="M182" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="N182" s="126" t="s">
+      <c r="N182" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O182" s="127"/>
+      <c r="O182" s="153"/>
       <c r="P182" s="90" t="s">
         <v>136</v>
       </c>
       <c r="Q182" s="63">
         <v>25</v>
       </c>
-      <c r="R182" s="124" t="s">
+      <c r="R182" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="S182" s="163"/>
+      <c r="S182" s="134"/>
       <c r="T182" s="73" t="s">
         <v>27</v>
       </c>
@@ -5801,26 +5811,26 @@
       <c r="K183" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="L183" s="124" t="s">
+      <c r="L183" s="132" t="s">
         <v>123</v>
       </c>
-      <c r="M183" s="125" t="s">
+      <c r="M183" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="N183" s="126" t="s">
+      <c r="N183" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O183" s="127"/>
+      <c r="O183" s="153"/>
       <c r="P183" s="90" t="s">
         <v>137</v>
       </c>
       <c r="Q183" s="63">
         <v>20</v>
       </c>
-      <c r="R183" s="124" t="s">
+      <c r="R183" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S183" s="163"/>
+      <c r="S183" s="134"/>
       <c r="T183" s="73" t="s">
         <v>27</v>
       </c>
@@ -5839,24 +5849,24 @@
       <c r="K184" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="L184" s="124" t="s">
+      <c r="L184" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="M184" s="125"/>
-      <c r="N184" s="126" t="s">
+      <c r="M184" s="133"/>
+      <c r="N184" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O184" s="127"/>
+      <c r="O184" s="153"/>
       <c r="P184" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q184" s="63">
         <v>20</v>
       </c>
-      <c r="R184" s="124" t="s">
+      <c r="R184" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S184" s="163"/>
+      <c r="S184" s="134"/>
       <c r="T184" s="73" t="s">
         <v>27</v>
       </c>
@@ -5875,24 +5885,24 @@
       <c r="K185" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="L185" s="124" t="s">
+      <c r="L185" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="M185" s="125"/>
-      <c r="N185" s="126" t="s">
+      <c r="M185" s="133"/>
+      <c r="N185" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O185" s="127"/>
+      <c r="O185" s="153"/>
       <c r="P185" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q185" s="63">
         <v>20</v>
       </c>
-      <c r="R185" s="124" t="s">
+      <c r="R185" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S185" s="163"/>
+      <c r="S185" s="134"/>
       <c r="T185" s="73" t="s">
         <v>27</v>
       </c>
@@ -5911,24 +5921,24 @@
       <c r="K186" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L186" s="124" t="s">
+      <c r="L186" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="M186" s="125"/>
-      <c r="N186" s="126" t="s">
+      <c r="M186" s="133"/>
+      <c r="N186" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O186" s="127"/>
+      <c r="O186" s="153"/>
       <c r="P186" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q186" s="63">
         <v>20</v>
       </c>
-      <c r="R186" s="124" t="s">
+      <c r="R186" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S186" s="163"/>
+      <c r="S186" s="134"/>
       <c r="T186" s="73" t="s">
         <v>27</v>
       </c>
@@ -5947,24 +5957,24 @@
       <c r="K187" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="L187" s="124" t="s">
+      <c r="L187" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="M187" s="125"/>
-      <c r="N187" s="126" t="s">
+      <c r="M187" s="133"/>
+      <c r="N187" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O187" s="127"/>
+      <c r="O187" s="153"/>
       <c r="P187" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q187" s="63">
         <v>20</v>
       </c>
-      <c r="R187" s="124" t="s">
+      <c r="R187" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S187" s="163"/>
+      <c r="S187" s="134"/>
       <c r="T187" s="73" t="s">
         <v>27</v>
       </c>
@@ -5983,24 +5993,24 @@
       <c r="K188" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="L188" s="124" t="s">
+      <c r="L188" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="M188" s="125"/>
-      <c r="N188" s="126" t="s">
+      <c r="M188" s="133"/>
+      <c r="N188" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O188" s="127"/>
+      <c r="O188" s="153"/>
       <c r="P188" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q188" s="63">
         <v>20</v>
       </c>
-      <c r="R188" s="124" t="s">
+      <c r="R188" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S188" s="163"/>
+      <c r="S188" s="134"/>
       <c r="T188" s="73" t="s">
         <v>27</v>
       </c>
@@ -6019,24 +6029,24 @@
       <c r="K189" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="L189" s="124" t="s">
+      <c r="L189" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="M189" s="125"/>
-      <c r="N189" s="126" t="s">
+      <c r="M189" s="133"/>
+      <c r="N189" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="O189" s="127"/>
+      <c r="O189" s="153"/>
       <c r="P189" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q189" s="63">
         <v>20</v>
       </c>
-      <c r="R189" s="124" t="s">
+      <c r="R189" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S189" s="163"/>
+      <c r="S189" s="134"/>
       <c r="T189" s="73" t="s">
         <v>27</v>
       </c>
@@ -6101,75 +6111,75 @@
       <c r="W193" s="20"/>
     </row>
     <row r="194" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="128" t="s">
+      <c r="C194" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D194" s="128"/>
-      <c r="E194" s="128"/>
-      <c r="F194" s="128"/>
-      <c r="G194" s="128"/>
-      <c r="H194" s="128"/>
-      <c r="I194" s="128"/>
-      <c r="J194" s="128"/>
-      <c r="K194" s="128"/>
-      <c r="L194" s="128"/>
-      <c r="M194" s="128"/>
-      <c r="N194" s="128"/>
-      <c r="O194" s="128"/>
-      <c r="P194" s="128"/>
-      <c r="Q194" s="128"/>
-      <c r="R194" s="128"/>
-      <c r="S194" s="128"/>
-      <c r="T194" s="128"/>
-      <c r="U194" s="128"/>
-      <c r="V194" s="128"/>
-      <c r="W194" s="128"/>
+      <c r="D194" s="129"/>
+      <c r="E194" s="129"/>
+      <c r="F194" s="129"/>
+      <c r="G194" s="129"/>
+      <c r="H194" s="129"/>
+      <c r="I194" s="129"/>
+      <c r="J194" s="129"/>
+      <c r="K194" s="129"/>
+      <c r="L194" s="129"/>
+      <c r="M194" s="129"/>
+      <c r="N194" s="129"/>
+      <c r="O194" s="129"/>
+      <c r="P194" s="129"/>
+      <c r="Q194" s="129"/>
+      <c r="R194" s="129"/>
+      <c r="S194" s="129"/>
+      <c r="T194" s="129"/>
+      <c r="U194" s="129"/>
+      <c r="V194" s="129"/>
+      <c r="W194" s="129"/>
     </row>
     <row r="195" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="128"/>
-      <c r="D195" s="128"/>
-      <c r="E195" s="128"/>
-      <c r="F195" s="128"/>
-      <c r="G195" s="128"/>
-      <c r="H195" s="128"/>
-      <c r="I195" s="128"/>
-      <c r="J195" s="128"/>
-      <c r="K195" s="128"/>
-      <c r="L195" s="128"/>
-      <c r="M195" s="128"/>
-      <c r="N195" s="128"/>
-      <c r="O195" s="128"/>
-      <c r="P195" s="128"/>
-      <c r="Q195" s="128"/>
-      <c r="R195" s="128"/>
-      <c r="S195" s="128"/>
-      <c r="T195" s="128"/>
-      <c r="U195" s="128"/>
-      <c r="V195" s="128"/>
-      <c r="W195" s="128"/>
+      <c r="C195" s="129"/>
+      <c r="D195" s="129"/>
+      <c r="E195" s="129"/>
+      <c r="F195" s="129"/>
+      <c r="G195" s="129"/>
+      <c r="H195" s="129"/>
+      <c r="I195" s="129"/>
+      <c r="J195" s="129"/>
+      <c r="K195" s="129"/>
+      <c r="L195" s="129"/>
+      <c r="M195" s="129"/>
+      <c r="N195" s="129"/>
+      <c r="O195" s="129"/>
+      <c r="P195" s="129"/>
+      <c r="Q195" s="129"/>
+      <c r="R195" s="129"/>
+      <c r="S195" s="129"/>
+      <c r="T195" s="129"/>
+      <c r="U195" s="129"/>
+      <c r="V195" s="129"/>
+      <c r="W195" s="129"/>
     </row>
     <row r="196" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="128"/>
-      <c r="D196" s="128"/>
-      <c r="E196" s="128"/>
-      <c r="F196" s="128"/>
-      <c r="G196" s="128"/>
-      <c r="H196" s="128"/>
-      <c r="I196" s="128"/>
-      <c r="J196" s="128"/>
-      <c r="K196" s="128"/>
-      <c r="L196" s="128"/>
-      <c r="M196" s="128"/>
-      <c r="N196" s="128"/>
-      <c r="O196" s="128"/>
-      <c r="P196" s="128"/>
-      <c r="Q196" s="128"/>
-      <c r="R196" s="128"/>
-      <c r="S196" s="128"/>
-      <c r="T196" s="128"/>
-      <c r="U196" s="128"/>
-      <c r="V196" s="128"/>
-      <c r="W196" s="128"/>
+      <c r="C196" s="129"/>
+      <c r="D196" s="129"/>
+      <c r="E196" s="129"/>
+      <c r="F196" s="129"/>
+      <c r="G196" s="129"/>
+      <c r="H196" s="129"/>
+      <c r="I196" s="129"/>
+      <c r="J196" s="129"/>
+      <c r="K196" s="129"/>
+      <c r="L196" s="129"/>
+      <c r="M196" s="129"/>
+      <c r="N196" s="129"/>
+      <c r="O196" s="129"/>
+      <c r="P196" s="129"/>
+      <c r="Q196" s="129"/>
+      <c r="R196" s="129"/>
+      <c r="S196" s="129"/>
+      <c r="T196" s="129"/>
+      <c r="U196" s="129"/>
+      <c r="V196" s="129"/>
+      <c r="W196" s="129"/>
     </row>
     <row r="197" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C197" s="45"/>
@@ -6201,11 +6211,11 @@
     </row>
     <row r="200" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="38"/>
-      <c r="D200" s="128" t="s">
+      <c r="D200" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E200" s="128"/>
-      <c r="F200" s="128"/>
+      <c r="E200" s="129"/>
+      <c r="F200" s="129"/>
       <c r="G200" s="32"/>
       <c r="H200" s="37"/>
       <c r="I200" s="37"/>
@@ -6226,25 +6236,25 @@
     </row>
     <row r="201" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C201" s="39"/>
-      <c r="D201" s="128"/>
-      <c r="E201" s="128"/>
-      <c r="F201" s="128"/>
+      <c r="D201" s="129"/>
+      <c r="E201" s="129"/>
+      <c r="F201" s="129"/>
       <c r="G201" s="45"/>
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
       <c r="J201" s="33"/>
-      <c r="K201" s="151" t="s">
+      <c r="K201" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L201" s="151"/>
-      <c r="M201" s="151"/>
-      <c r="N201" s="151"/>
-      <c r="O201" s="151"/>
-      <c r="P201" s="151"/>
-      <c r="Q201" s="151"/>
-      <c r="R201" s="151"/>
-      <c r="S201" s="151"/>
-      <c r="T201" s="151"/>
+      <c r="L201" s="135"/>
+      <c r="M201" s="135"/>
+      <c r="N201" s="135"/>
+      <c r="O201" s="135"/>
+      <c r="P201" s="135"/>
+      <c r="Q201" s="135"/>
+      <c r="R201" s="135"/>
+      <c r="S201" s="135"/>
+      <c r="T201" s="135"/>
       <c r="U201" s="33"/>
       <c r="V201" s="33"/>
       <c r="W201" s="43"/>
@@ -6253,27 +6263,27 @@
       <c r="C202" s="39"/>
       <c r="D202" s="34"/>
       <c r="E202" s="35"/>
-      <c r="F202" s="139" t="s">
+      <c r="F202" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G202" s="139"/>
-      <c r="H202" s="139"/>
-      <c r="I202" s="139"/>
-      <c r="J202" s="139"/>
-      <c r="K202" s="151"/>
-      <c r="L202" s="151"/>
-      <c r="M202" s="151"/>
-      <c r="N202" s="151"/>
-      <c r="O202" s="151"/>
-      <c r="P202" s="151"/>
-      <c r="Q202" s="151"/>
-      <c r="R202" s="151"/>
-      <c r="S202" s="151"/>
-      <c r="T202" s="151"/>
-      <c r="U202" s="152" t="s">
+      <c r="G202" s="136"/>
+      <c r="H202" s="136"/>
+      <c r="I202" s="136"/>
+      <c r="J202" s="136"/>
+      <c r="K202" s="135"/>
+      <c r="L202" s="135"/>
+      <c r="M202" s="135"/>
+      <c r="N202" s="135"/>
+      <c r="O202" s="135"/>
+      <c r="P202" s="135"/>
+      <c r="Q202" s="135"/>
+      <c r="R202" s="135"/>
+      <c r="S202" s="135"/>
+      <c r="T202" s="135"/>
+      <c r="U202" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V202" s="153"/>
+      <c r="V202" s="144"/>
       <c r="W202" s="43"/>
     </row>
     <row r="203" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6327,11 +6337,11 @@
       <c r="D205" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E205" s="137" t="s">
+      <c r="E205" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F205" s="138"/>
-      <c r="G205" s="138"/>
+      <c r="F205" s="126"/>
+      <c r="G205" s="126"/>
       <c r="I205" s="18"/>
       <c r="J205" s="154" t="s">
         <v>104</v>
@@ -6355,11 +6365,11 @@
       <c r="D206" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="137" t="s">
+      <c r="E206" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F206" s="138"/>
-      <c r="G206" s="138"/>
+      <c r="F206" s="126"/>
+      <c r="G206" s="126"/>
       <c r="I206" s="18"/>
       <c r="J206" s="51"/>
       <c r="K206" s="58"/>
@@ -6374,11 +6384,11 @@
       <c r="D207" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E207" s="140" t="s">
+      <c r="E207" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F207" s="141"/>
-      <c r="G207" s="141"/>
+      <c r="F207" s="128"/>
+      <c r="G207" s="128"/>
       <c r="I207" s="18"/>
       <c r="K207" s="81"/>
       <c r="L207" s="80"/>
@@ -6400,11 +6410,11 @@
       <c r="D208" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E208" s="137" t="s">
+      <c r="E208" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F208" s="138"/>
-      <c r="G208" s="138"/>
+      <c r="F208" s="126"/>
+      <c r="G208" s="126"/>
       <c r="I208" s="18" t="s">
         <v>35</v>
       </c>
@@ -6421,11 +6431,11 @@
       <c r="D209" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E209" s="137" t="s">
+      <c r="E209" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F209" s="138"/>
-      <c r="G209" s="138"/>
+      <c r="F209" s="126"/>
+      <c r="G209" s="126"/>
       <c r="I209" s="18"/>
       <c r="K209" s="82"/>
       <c r="T209" s="78"/>
@@ -6439,14 +6449,14 @@
       <c r="L210" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N210" s="142" t="s">
+      <c r="N210" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="O210" s="143"/>
-      <c r="P210" s="143"/>
-      <c r="Q210" s="143"/>
-      <c r="R210" s="143"/>
-      <c r="S210" s="143"/>
+      <c r="O210" s="142"/>
+      <c r="P210" s="142"/>
+      <c r="Q210" s="142"/>
+      <c r="R210" s="142"/>
+      <c r="S210" s="142"/>
       <c r="T210" s="78"/>
       <c r="V210" s="78"/>
       <c r="W210" s="20"/>
@@ -6466,14 +6476,14 @@
       <c r="L212" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N212" s="142" t="s">
+      <c r="N212" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="O212" s="143"/>
-      <c r="P212" s="143"/>
-      <c r="Q212" s="143"/>
-      <c r="R212" s="143"/>
-      <c r="S212" s="143"/>
+      <c r="O212" s="142"/>
+      <c r="P212" s="142"/>
+      <c r="Q212" s="142"/>
+      <c r="R212" s="142"/>
+      <c r="S212" s="142"/>
       <c r="T212" s="78"/>
       <c r="V212" s="78"/>
       <c r="W212" s="20"/>
@@ -6493,14 +6503,14 @@
       <c r="L214" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N214" s="142" t="s">
+      <c r="N214" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="O214" s="143"/>
-      <c r="P214" s="143"/>
-      <c r="Q214" s="143"/>
-      <c r="R214" s="143"/>
-      <c r="S214" s="143"/>
+      <c r="O214" s="142"/>
+      <c r="P214" s="142"/>
+      <c r="Q214" s="142"/>
+      <c r="R214" s="142"/>
+      <c r="S214" s="142"/>
       <c r="T214" s="78"/>
       <c r="V214" s="78"/>
       <c r="W214" s="20"/>
@@ -6520,14 +6530,14 @@
       <c r="L216" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N216" s="142" t="s">
+      <c r="N216" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="O216" s="143"/>
-      <c r="P216" s="143"/>
-      <c r="Q216" s="143"/>
-      <c r="R216" s="143"/>
-      <c r="S216" s="143"/>
+      <c r="O216" s="142"/>
+      <c r="P216" s="142"/>
+      <c r="Q216" s="142"/>
+      <c r="R216" s="142"/>
+      <c r="S216" s="142"/>
       <c r="T216" s="78"/>
       <c r="V216" s="78"/>
       <c r="W216" s="20"/>
@@ -6547,14 +6557,14 @@
       <c r="L218" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="146" t="s">
+      <c r="N218" s="165" t="s">
         <v>147</v>
       </c>
-      <c r="O218" s="147"/>
-      <c r="P218" s="147"/>
-      <c r="Q218" s="147"/>
-      <c r="R218" s="147"/>
-      <c r="S218" s="147"/>
+      <c r="O218" s="166"/>
+      <c r="P218" s="166"/>
+      <c r="Q218" s="166"/>
+      <c r="R218" s="166"/>
+      <c r="S218" s="166"/>
       <c r="T218" s="78"/>
       <c r="V218" s="78"/>
       <c r="W218" s="20"/>
@@ -6563,12 +6573,12 @@
       <c r="C219" s="18"/>
       <c r="I219" s="18"/>
       <c r="K219" s="82"/>
-      <c r="N219" s="147"/>
-      <c r="O219" s="147"/>
-      <c r="P219" s="147"/>
-      <c r="Q219" s="147"/>
-      <c r="R219" s="147"/>
-      <c r="S219" s="147"/>
+      <c r="N219" s="166"/>
+      <c r="O219" s="166"/>
+      <c r="P219" s="166"/>
+      <c r="Q219" s="166"/>
+      <c r="R219" s="166"/>
+      <c r="S219" s="166"/>
       <c r="T219" s="78"/>
       <c r="V219" s="78"/>
       <c r="W219" s="20"/>
@@ -6589,14 +6599,14 @@
         <v>20</v>
       </c>
       <c r="M221" s="30"/>
-      <c r="N221" s="148" t="s">
+      <c r="N221" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="O221" s="149"/>
-      <c r="P221" s="149"/>
-      <c r="Q221" s="149"/>
-      <c r="R221" s="149"/>
-      <c r="S221" s="149"/>
+      <c r="O221" s="148"/>
+      <c r="P221" s="148"/>
+      <c r="Q221" s="148"/>
+      <c r="R221" s="148"/>
+      <c r="S221" s="148"/>
       <c r="T221" s="77"/>
       <c r="V221" s="78"/>
       <c r="W221" s="20"/>
@@ -6628,10 +6638,10 @@
       <c r="P223" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q223" s="150" t="s">
+      <c r="Q223" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="R223" s="150"/>
+      <c r="R223" s="149"/>
       <c r="S223" s="52"/>
       <c r="T223" s="77"/>
       <c r="V223" s="78"/>
@@ -6672,75 +6682,75 @@
       <c r="W225" s="20"/>
     </row>
     <row r="226" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C226" s="128" t="s">
+      <c r="C226" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D226" s="128"/>
-      <c r="E226" s="128"/>
-      <c r="F226" s="128"/>
-      <c r="G226" s="128"/>
-      <c r="H226" s="128"/>
-      <c r="I226" s="128"/>
-      <c r="J226" s="128"/>
-      <c r="K226" s="128"/>
-      <c r="L226" s="128"/>
-      <c r="M226" s="128"/>
-      <c r="N226" s="128"/>
-      <c r="O226" s="128"/>
-      <c r="P226" s="128"/>
-      <c r="Q226" s="128"/>
-      <c r="R226" s="128"/>
-      <c r="S226" s="128"/>
-      <c r="T226" s="128"/>
-      <c r="U226" s="128"/>
-      <c r="V226" s="128"/>
-      <c r="W226" s="128"/>
+      <c r="D226" s="129"/>
+      <c r="E226" s="129"/>
+      <c r="F226" s="129"/>
+      <c r="G226" s="129"/>
+      <c r="H226" s="129"/>
+      <c r="I226" s="129"/>
+      <c r="J226" s="129"/>
+      <c r="K226" s="129"/>
+      <c r="L226" s="129"/>
+      <c r="M226" s="129"/>
+      <c r="N226" s="129"/>
+      <c r="O226" s="129"/>
+      <c r="P226" s="129"/>
+      <c r="Q226" s="129"/>
+      <c r="R226" s="129"/>
+      <c r="S226" s="129"/>
+      <c r="T226" s="129"/>
+      <c r="U226" s="129"/>
+      <c r="V226" s="129"/>
+      <c r="W226" s="129"/>
     </row>
     <row r="227" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C227" s="128"/>
-      <c r="D227" s="128"/>
-      <c r="E227" s="128"/>
-      <c r="F227" s="128"/>
-      <c r="G227" s="128"/>
-      <c r="H227" s="128"/>
-      <c r="I227" s="128"/>
-      <c r="J227" s="128"/>
-      <c r="K227" s="128"/>
-      <c r="L227" s="128"/>
-      <c r="M227" s="128"/>
-      <c r="N227" s="128"/>
-      <c r="O227" s="128"/>
-      <c r="P227" s="128"/>
-      <c r="Q227" s="128"/>
-      <c r="R227" s="128"/>
-      <c r="S227" s="128"/>
-      <c r="T227" s="128"/>
-      <c r="U227" s="128"/>
-      <c r="V227" s="128"/>
-      <c r="W227" s="128"/>
+      <c r="C227" s="129"/>
+      <c r="D227" s="129"/>
+      <c r="E227" s="129"/>
+      <c r="F227" s="129"/>
+      <c r="G227" s="129"/>
+      <c r="H227" s="129"/>
+      <c r="I227" s="129"/>
+      <c r="J227" s="129"/>
+      <c r="K227" s="129"/>
+      <c r="L227" s="129"/>
+      <c r="M227" s="129"/>
+      <c r="N227" s="129"/>
+      <c r="O227" s="129"/>
+      <c r="P227" s="129"/>
+      <c r="Q227" s="129"/>
+      <c r="R227" s="129"/>
+      <c r="S227" s="129"/>
+      <c r="T227" s="129"/>
+      <c r="U227" s="129"/>
+      <c r="V227" s="129"/>
+      <c r="W227" s="129"/>
     </row>
     <row r="228" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C228" s="128"/>
-      <c r="D228" s="128"/>
-      <c r="E228" s="128"/>
-      <c r="F228" s="128"/>
-      <c r="G228" s="128"/>
-      <c r="H228" s="128"/>
-      <c r="I228" s="128"/>
-      <c r="J228" s="128"/>
-      <c r="K228" s="128"/>
-      <c r="L228" s="128"/>
-      <c r="M228" s="128"/>
-      <c r="N228" s="128"/>
-      <c r="O228" s="128"/>
-      <c r="P228" s="128"/>
-      <c r="Q228" s="128"/>
-      <c r="R228" s="128"/>
-      <c r="S228" s="128"/>
-      <c r="T228" s="128"/>
-      <c r="U228" s="128"/>
-      <c r="V228" s="128"/>
-      <c r="W228" s="128"/>
+      <c r="C228" s="129"/>
+      <c r="D228" s="129"/>
+      <c r="E228" s="129"/>
+      <c r="F228" s="129"/>
+      <c r="G228" s="129"/>
+      <c r="H228" s="129"/>
+      <c r="I228" s="129"/>
+      <c r="J228" s="129"/>
+      <c r="K228" s="129"/>
+      <c r="L228" s="129"/>
+      <c r="M228" s="129"/>
+      <c r="N228" s="129"/>
+      <c r="O228" s="129"/>
+      <c r="P228" s="129"/>
+      <c r="Q228" s="129"/>
+      <c r="R228" s="129"/>
+      <c r="S228" s="129"/>
+      <c r="T228" s="129"/>
+      <c r="U228" s="129"/>
+      <c r="V228" s="129"/>
+      <c r="W228" s="129"/>
     </row>
     <row r="229" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C229" s="30"/>
@@ -6795,11 +6805,11 @@
     </row>
     <row r="233" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C233" s="38"/>
-      <c r="D233" s="128" t="s">
+      <c r="D233" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E233" s="128"/>
-      <c r="F233" s="128"/>
+      <c r="E233" s="129"/>
+      <c r="F233" s="129"/>
       <c r="G233" s="32"/>
       <c r="H233" s="37"/>
       <c r="I233" s="37"/>
@@ -6820,25 +6830,25 @@
     </row>
     <row r="234" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C234" s="39"/>
-      <c r="D234" s="128"/>
-      <c r="E234" s="128"/>
-      <c r="F234" s="128"/>
+      <c r="D234" s="129"/>
+      <c r="E234" s="129"/>
+      <c r="F234" s="129"/>
       <c r="G234" s="45"/>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
-      <c r="K234" s="151" t="s">
+      <c r="K234" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L234" s="151"/>
-      <c r="M234" s="151"/>
-      <c r="N234" s="151"/>
-      <c r="O234" s="151"/>
-      <c r="P234" s="151"/>
-      <c r="Q234" s="151"/>
-      <c r="R234" s="151"/>
-      <c r="S234" s="151"/>
-      <c r="T234" s="151"/>
+      <c r="L234" s="135"/>
+      <c r="M234" s="135"/>
+      <c r="N234" s="135"/>
+      <c r="O234" s="135"/>
+      <c r="P234" s="135"/>
+      <c r="Q234" s="135"/>
+      <c r="R234" s="135"/>
+      <c r="S234" s="135"/>
+      <c r="T234" s="135"/>
       <c r="U234" s="33"/>
       <c r="V234" s="33"/>
       <c r="W234" s="43"/>
@@ -6847,27 +6857,27 @@
       <c r="C235" s="39"/>
       <c r="D235" s="34"/>
       <c r="E235" s="35"/>
-      <c r="F235" s="139" t="s">
+      <c r="F235" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G235" s="139"/>
-      <c r="H235" s="139"/>
-      <c r="I235" s="139"/>
-      <c r="J235" s="139"/>
-      <c r="K235" s="151"/>
-      <c r="L235" s="151"/>
-      <c r="M235" s="151"/>
-      <c r="N235" s="151"/>
-      <c r="O235" s="151"/>
-      <c r="P235" s="151"/>
-      <c r="Q235" s="151"/>
-      <c r="R235" s="151"/>
-      <c r="S235" s="151"/>
-      <c r="T235" s="151"/>
-      <c r="U235" s="152" t="s">
+      <c r="G235" s="136"/>
+      <c r="H235" s="136"/>
+      <c r="I235" s="136"/>
+      <c r="J235" s="136"/>
+      <c r="K235" s="135"/>
+      <c r="L235" s="135"/>
+      <c r="M235" s="135"/>
+      <c r="N235" s="135"/>
+      <c r="O235" s="135"/>
+      <c r="P235" s="135"/>
+      <c r="Q235" s="135"/>
+      <c r="R235" s="135"/>
+      <c r="S235" s="135"/>
+      <c r="T235" s="135"/>
+      <c r="U235" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V235" s="153"/>
+      <c r="V235" s="144"/>
       <c r="W235" s="43"/>
     </row>
     <row r="236" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6921,11 +6931,11 @@
       <c r="D238" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E238" s="137" t="s">
+      <c r="E238" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F238" s="138"/>
-      <c r="G238" s="138"/>
+      <c r="F238" s="126"/>
+      <c r="G238" s="126"/>
       <c r="I238" s="18"/>
       <c r="J238" s="154" t="s">
         <v>104</v>
@@ -6949,11 +6959,11 @@
       <c r="D239" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E239" s="137" t="s">
+      <c r="E239" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F239" s="138"/>
-      <c r="G239" s="138"/>
+      <c r="F239" s="126"/>
+      <c r="G239" s="126"/>
       <c r="I239" s="18"/>
       <c r="J239" s="51"/>
       <c r="K239" s="58"/>
@@ -6968,11 +6978,11 @@
       <c r="D240" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="140" t="s">
+      <c r="E240" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F240" s="141"/>
-      <c r="G240" s="141"/>
+      <c r="F240" s="128"/>
+      <c r="G240" s="128"/>
       <c r="I240" s="18"/>
       <c r="K240" s="81"/>
       <c r="L240" s="80"/>
@@ -6994,11 +7004,11 @@
       <c r="D241" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="137" t="s">
+      <c r="E241" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F241" s="138"/>
-      <c r="G241" s="138"/>
+      <c r="F241" s="126"/>
+      <c r="G241" s="126"/>
       <c r="I241" s="18" t="s">
         <v>35</v>
       </c>
@@ -7015,11 +7025,11 @@
       <c r="D242" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="137" t="s">
+      <c r="E242" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F242" s="138"/>
-      <c r="G242" s="138"/>
+      <c r="F242" s="126"/>
+      <c r="G242" s="126"/>
       <c r="I242" s="18"/>
       <c r="K242" s="82"/>
       <c r="T242" s="78"/>
@@ -7033,14 +7043,14 @@
       <c r="L243" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N243" s="142" t="s">
+      <c r="N243" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="O243" s="143"/>
-      <c r="P243" s="143"/>
-      <c r="Q243" s="143"/>
-      <c r="R243" s="143"/>
-      <c r="S243" s="143"/>
+      <c r="O243" s="142"/>
+      <c r="P243" s="142"/>
+      <c r="Q243" s="142"/>
+      <c r="R243" s="142"/>
+      <c r="S243" s="142"/>
       <c r="T243" s="78"/>
       <c r="V243" s="78"/>
       <c r="W243" s="20"/>
@@ -7060,14 +7070,14 @@
       <c r="L245" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N245" s="142" t="s">
+      <c r="N245" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="O245" s="143"/>
-      <c r="P245" s="143"/>
-      <c r="Q245" s="143"/>
-      <c r="R245" s="143"/>
-      <c r="S245" s="143"/>
+      <c r="O245" s="142"/>
+      <c r="P245" s="142"/>
+      <c r="Q245" s="142"/>
+      <c r="R245" s="142"/>
+      <c r="S245" s="142"/>
       <c r="T245" s="78"/>
       <c r="V245" s="78"/>
       <c r="W245" s="20"/>
@@ -7087,14 +7097,14 @@
       <c r="L247" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N247" s="142" t="s">
+      <c r="N247" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="O247" s="143"/>
-      <c r="P247" s="143"/>
-      <c r="Q247" s="143"/>
-      <c r="R247" s="143"/>
-      <c r="S247" s="143"/>
+      <c r="O247" s="142"/>
+      <c r="P247" s="142"/>
+      <c r="Q247" s="142"/>
+      <c r="R247" s="142"/>
+      <c r="S247" s="142"/>
       <c r="T247" s="78"/>
       <c r="V247" s="78"/>
       <c r="W247" s="20"/>
@@ -7114,14 +7124,14 @@
       <c r="L249" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N249" s="142">
+      <c r="N249" s="138">
         <v>20</v>
       </c>
-      <c r="O249" s="143"/>
-      <c r="P249" s="143"/>
-      <c r="Q249" s="143"/>
-      <c r="R249" s="143"/>
-      <c r="S249" s="143"/>
+      <c r="O249" s="142"/>
+      <c r="P249" s="142"/>
+      <c r="Q249" s="142"/>
+      <c r="R249" s="142"/>
+      <c r="S249" s="142"/>
       <c r="T249" s="78"/>
       <c r="V249" s="78"/>
       <c r="W249" s="20"/>
@@ -7141,14 +7151,14 @@
       <c r="L251" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N251" s="146" t="s">
+      <c r="N251" s="165" t="s">
         <v>134</v>
       </c>
-      <c r="O251" s="147"/>
-      <c r="P251" s="147"/>
-      <c r="Q251" s="147"/>
-      <c r="R251" s="147"/>
-      <c r="S251" s="147"/>
+      <c r="O251" s="166"/>
+      <c r="P251" s="166"/>
+      <c r="Q251" s="166"/>
+      <c r="R251" s="166"/>
+      <c r="S251" s="166"/>
       <c r="T251" s="78"/>
       <c r="V251" s="78"/>
       <c r="W251" s="20"/>
@@ -7157,12 +7167,12 @@
       <c r="C252" s="18"/>
       <c r="I252" s="18"/>
       <c r="K252" s="82"/>
-      <c r="N252" s="147"/>
-      <c r="O252" s="147"/>
-      <c r="P252" s="147"/>
-      <c r="Q252" s="147"/>
-      <c r="R252" s="147"/>
-      <c r="S252" s="147"/>
+      <c r="N252" s="166"/>
+      <c r="O252" s="166"/>
+      <c r="P252" s="166"/>
+      <c r="Q252" s="166"/>
+      <c r="R252" s="166"/>
+      <c r="S252" s="166"/>
       <c r="T252" s="78"/>
       <c r="V252" s="78"/>
       <c r="W252" s="20"/>
@@ -7183,14 +7193,14 @@
         <v>20</v>
       </c>
       <c r="M254" s="30"/>
-      <c r="N254" s="148" t="s">
+      <c r="N254" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="O254" s="149"/>
-      <c r="P254" s="149"/>
-      <c r="Q254" s="149"/>
-      <c r="R254" s="149"/>
-      <c r="S254" s="149"/>
+      <c r="O254" s="148"/>
+      <c r="P254" s="148"/>
+      <c r="Q254" s="148"/>
+      <c r="R254" s="148"/>
+      <c r="S254" s="148"/>
       <c r="T254" s="77"/>
       <c r="V254" s="78"/>
       <c r="W254" s="20"/>
@@ -7222,10 +7232,10 @@
       <c r="P256" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q256" s="150" t="s">
+      <c r="Q256" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="R256" s="150"/>
+      <c r="R256" s="149"/>
       <c r="S256" s="52"/>
       <c r="T256" s="77"/>
       <c r="V256" s="78"/>
@@ -7272,75 +7282,75 @@
       <c r="W259" s="20"/>
     </row>
     <row r="260" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C260" s="128" t="s">
+      <c r="C260" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D260" s="128"/>
-      <c r="E260" s="128"/>
-      <c r="F260" s="128"/>
-      <c r="G260" s="128"/>
-      <c r="H260" s="128"/>
-      <c r="I260" s="128"/>
-      <c r="J260" s="128"/>
-      <c r="K260" s="128"/>
-      <c r="L260" s="128"/>
-      <c r="M260" s="128"/>
-      <c r="N260" s="128"/>
-      <c r="O260" s="128"/>
-      <c r="P260" s="128"/>
-      <c r="Q260" s="128"/>
-      <c r="R260" s="128"/>
-      <c r="S260" s="128"/>
-      <c r="T260" s="128"/>
-      <c r="U260" s="128"/>
-      <c r="V260" s="128"/>
-      <c r="W260" s="128"/>
+      <c r="D260" s="129"/>
+      <c r="E260" s="129"/>
+      <c r="F260" s="129"/>
+      <c r="G260" s="129"/>
+      <c r="H260" s="129"/>
+      <c r="I260" s="129"/>
+      <c r="J260" s="129"/>
+      <c r="K260" s="129"/>
+      <c r="L260" s="129"/>
+      <c r="M260" s="129"/>
+      <c r="N260" s="129"/>
+      <c r="O260" s="129"/>
+      <c r="P260" s="129"/>
+      <c r="Q260" s="129"/>
+      <c r="R260" s="129"/>
+      <c r="S260" s="129"/>
+      <c r="T260" s="129"/>
+      <c r="U260" s="129"/>
+      <c r="V260" s="129"/>
+      <c r="W260" s="129"/>
     </row>
     <row r="261" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C261" s="128"/>
-      <c r="D261" s="128"/>
-      <c r="E261" s="128"/>
-      <c r="F261" s="128"/>
-      <c r="G261" s="128"/>
-      <c r="H261" s="128"/>
-      <c r="I261" s="128"/>
-      <c r="J261" s="128"/>
-      <c r="K261" s="128"/>
-      <c r="L261" s="128"/>
-      <c r="M261" s="128"/>
-      <c r="N261" s="128"/>
-      <c r="O261" s="128"/>
-      <c r="P261" s="128"/>
-      <c r="Q261" s="128"/>
-      <c r="R261" s="128"/>
-      <c r="S261" s="128"/>
-      <c r="T261" s="128"/>
-      <c r="U261" s="128"/>
-      <c r="V261" s="128"/>
-      <c r="W261" s="128"/>
+      <c r="C261" s="129"/>
+      <c r="D261" s="129"/>
+      <c r="E261" s="129"/>
+      <c r="F261" s="129"/>
+      <c r="G261" s="129"/>
+      <c r="H261" s="129"/>
+      <c r="I261" s="129"/>
+      <c r="J261" s="129"/>
+      <c r="K261" s="129"/>
+      <c r="L261" s="129"/>
+      <c r="M261" s="129"/>
+      <c r="N261" s="129"/>
+      <c r="O261" s="129"/>
+      <c r="P261" s="129"/>
+      <c r="Q261" s="129"/>
+      <c r="R261" s="129"/>
+      <c r="S261" s="129"/>
+      <c r="T261" s="129"/>
+      <c r="U261" s="129"/>
+      <c r="V261" s="129"/>
+      <c r="W261" s="129"/>
     </row>
     <row r="262" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C262" s="128"/>
-      <c r="D262" s="128"/>
-      <c r="E262" s="128"/>
-      <c r="F262" s="128"/>
-      <c r="G262" s="128"/>
-      <c r="H262" s="128"/>
-      <c r="I262" s="128"/>
-      <c r="J262" s="128"/>
-      <c r="K262" s="128"/>
-      <c r="L262" s="128"/>
-      <c r="M262" s="128"/>
-      <c r="N262" s="128"/>
-      <c r="O262" s="128"/>
-      <c r="P262" s="128"/>
-      <c r="Q262" s="128"/>
-      <c r="R262" s="128"/>
-      <c r="S262" s="128"/>
-      <c r="T262" s="128"/>
-      <c r="U262" s="128"/>
-      <c r="V262" s="128"/>
-      <c r="W262" s="128"/>
+      <c r="C262" s="129"/>
+      <c r="D262" s="129"/>
+      <c r="E262" s="129"/>
+      <c r="F262" s="129"/>
+      <c r="G262" s="129"/>
+      <c r="H262" s="129"/>
+      <c r="I262" s="129"/>
+      <c r="J262" s="129"/>
+      <c r="K262" s="129"/>
+      <c r="L262" s="129"/>
+      <c r="M262" s="129"/>
+      <c r="N262" s="129"/>
+      <c r="O262" s="129"/>
+      <c r="P262" s="129"/>
+      <c r="Q262" s="129"/>
+      <c r="R262" s="129"/>
+      <c r="S262" s="129"/>
+      <c r="T262" s="129"/>
+      <c r="U262" s="129"/>
+      <c r="V262" s="129"/>
+      <c r="W262" s="129"/>
     </row>
     <row r="263" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C263" s="45"/>
@@ -7372,11 +7382,11 @@
     </row>
     <row r="266" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C266" s="38"/>
-      <c r="D266" s="128" t="s">
+      <c r="D266" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E266" s="128"/>
-      <c r="F266" s="128"/>
+      <c r="E266" s="129"/>
+      <c r="F266" s="129"/>
       <c r="G266" s="32"/>
       <c r="H266" s="37"/>
       <c r="I266" s="37"/>
@@ -7397,25 +7407,25 @@
     </row>
     <row r="267" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C267" s="39"/>
-      <c r="D267" s="128"/>
-      <c r="E267" s="128"/>
-      <c r="F267" s="128"/>
+      <c r="D267" s="129"/>
+      <c r="E267" s="129"/>
+      <c r="F267" s="129"/>
       <c r="G267" s="45"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
       <c r="J267" s="33"/>
-      <c r="K267" s="151" t="s">
+      <c r="K267" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L267" s="151"/>
-      <c r="M267" s="151"/>
-      <c r="N267" s="151"/>
-      <c r="O267" s="151"/>
-      <c r="P267" s="151"/>
-      <c r="Q267" s="151"/>
-      <c r="R267" s="151"/>
-      <c r="S267" s="151"/>
-      <c r="T267" s="151"/>
+      <c r="L267" s="135"/>
+      <c r="M267" s="135"/>
+      <c r="N267" s="135"/>
+      <c r="O267" s="135"/>
+      <c r="P267" s="135"/>
+      <c r="Q267" s="135"/>
+      <c r="R267" s="135"/>
+      <c r="S267" s="135"/>
+      <c r="T267" s="135"/>
       <c r="U267" s="33"/>
       <c r="V267" s="33"/>
       <c r="W267" s="43"/>
@@ -7424,27 +7434,27 @@
       <c r="C268" s="39"/>
       <c r="D268" s="34"/>
       <c r="E268" s="35"/>
-      <c r="F268" s="139" t="s">
+      <c r="F268" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G268" s="139"/>
-      <c r="H268" s="139"/>
-      <c r="I268" s="139"/>
-      <c r="J268" s="139"/>
-      <c r="K268" s="151"/>
-      <c r="L268" s="151"/>
-      <c r="M268" s="151"/>
-      <c r="N268" s="151"/>
-      <c r="O268" s="151"/>
-      <c r="P268" s="151"/>
-      <c r="Q268" s="151"/>
-      <c r="R268" s="151"/>
-      <c r="S268" s="151"/>
-      <c r="T268" s="151"/>
-      <c r="U268" s="152" t="s">
+      <c r="G268" s="136"/>
+      <c r="H268" s="136"/>
+      <c r="I268" s="136"/>
+      <c r="J268" s="136"/>
+      <c r="K268" s="135"/>
+      <c r="L268" s="135"/>
+      <c r="M268" s="135"/>
+      <c r="N268" s="135"/>
+      <c r="O268" s="135"/>
+      <c r="P268" s="135"/>
+      <c r="Q268" s="135"/>
+      <c r="R268" s="135"/>
+      <c r="S268" s="135"/>
+      <c r="T268" s="135"/>
+      <c r="U268" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V268" s="153"/>
+      <c r="V268" s="144"/>
       <c r="W268" s="43"/>
     </row>
     <row r="269" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7498,11 +7508,11 @@
       <c r="D271" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="137" t="s">
+      <c r="E271" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F271" s="138"/>
-      <c r="G271" s="138"/>
+      <c r="F271" s="126"/>
+      <c r="G271" s="126"/>
       <c r="I271" s="18"/>
       <c r="J271" s="154" t="s">
         <v>104</v>
@@ -7526,11 +7536,11 @@
       <c r="D272" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E272" s="137" t="s">
+      <c r="E272" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F272" s="138"/>
-      <c r="G272" s="138"/>
+      <c r="F272" s="126"/>
+      <c r="G272" s="126"/>
       <c r="I272" s="18"/>
       <c r="J272" s="51"/>
       <c r="K272" s="58"/>
@@ -7545,11 +7555,11 @@
       <c r="D273" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E273" s="140" t="s">
+      <c r="E273" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F273" s="141"/>
-      <c r="G273" s="141"/>
+      <c r="F273" s="128"/>
+      <c r="G273" s="128"/>
       <c r="I273" s="18"/>
       <c r="V273" s="78"/>
       <c r="W273" s="20"/>
@@ -7559,11 +7569,11 @@
       <c r="D274" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="137" t="s">
+      <c r="E274" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F274" s="138"/>
-      <c r="G274" s="138"/>
+      <c r="F274" s="126"/>
+      <c r="G274" s="126"/>
       <c r="I274" s="18" t="s">
         <v>35</v>
       </c>
@@ -7585,11 +7595,11 @@
       <c r="D275" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E275" s="137" t="s">
+      <c r="E275" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F275" s="138"/>
-      <c r="G275" s="138"/>
+      <c r="F275" s="126"/>
+      <c r="G275" s="126"/>
       <c r="I275" s="18"/>
       <c r="L275" s="82"/>
       <c r="M275" s="88" t="s">
@@ -7734,75 +7744,75 @@
       <c r="W289" s="20"/>
     </row>
     <row r="290" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C290" s="128" t="s">
+      <c r="C290" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D290" s="128"/>
-      <c r="E290" s="128"/>
-      <c r="F290" s="128"/>
-      <c r="G290" s="128"/>
-      <c r="H290" s="128"/>
-      <c r="I290" s="128"/>
-      <c r="J290" s="128"/>
-      <c r="K290" s="128"/>
-      <c r="L290" s="128"/>
-      <c r="M290" s="128"/>
-      <c r="N290" s="128"/>
-      <c r="O290" s="128"/>
-      <c r="P290" s="128"/>
-      <c r="Q290" s="128"/>
-      <c r="R290" s="128"/>
-      <c r="S290" s="128"/>
-      <c r="T290" s="128"/>
-      <c r="U290" s="128"/>
-      <c r="V290" s="128"/>
-      <c r="W290" s="128"/>
+      <c r="D290" s="129"/>
+      <c r="E290" s="129"/>
+      <c r="F290" s="129"/>
+      <c r="G290" s="129"/>
+      <c r="H290" s="129"/>
+      <c r="I290" s="129"/>
+      <c r="J290" s="129"/>
+      <c r="K290" s="129"/>
+      <c r="L290" s="129"/>
+      <c r="M290" s="129"/>
+      <c r="N290" s="129"/>
+      <c r="O290" s="129"/>
+      <c r="P290" s="129"/>
+      <c r="Q290" s="129"/>
+      <c r="R290" s="129"/>
+      <c r="S290" s="129"/>
+      <c r="T290" s="129"/>
+      <c r="U290" s="129"/>
+      <c r="V290" s="129"/>
+      <c r="W290" s="129"/>
     </row>
     <row r="291" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C291" s="128"/>
-      <c r="D291" s="128"/>
-      <c r="E291" s="128"/>
-      <c r="F291" s="128"/>
-      <c r="G291" s="128"/>
-      <c r="H291" s="128"/>
-      <c r="I291" s="128"/>
-      <c r="J291" s="128"/>
-      <c r="K291" s="128"/>
-      <c r="L291" s="128"/>
-      <c r="M291" s="128"/>
-      <c r="N291" s="128"/>
-      <c r="O291" s="128"/>
-      <c r="P291" s="128"/>
-      <c r="Q291" s="128"/>
-      <c r="R291" s="128"/>
-      <c r="S291" s="128"/>
-      <c r="T291" s="128"/>
-      <c r="U291" s="128"/>
-      <c r="V291" s="128"/>
-      <c r="W291" s="128"/>
+      <c r="C291" s="129"/>
+      <c r="D291" s="129"/>
+      <c r="E291" s="129"/>
+      <c r="F291" s="129"/>
+      <c r="G291" s="129"/>
+      <c r="H291" s="129"/>
+      <c r="I291" s="129"/>
+      <c r="J291" s="129"/>
+      <c r="K291" s="129"/>
+      <c r="L291" s="129"/>
+      <c r="M291" s="129"/>
+      <c r="N291" s="129"/>
+      <c r="O291" s="129"/>
+      <c r="P291" s="129"/>
+      <c r="Q291" s="129"/>
+      <c r="R291" s="129"/>
+      <c r="S291" s="129"/>
+      <c r="T291" s="129"/>
+      <c r="U291" s="129"/>
+      <c r="V291" s="129"/>
+      <c r="W291" s="129"/>
     </row>
     <row r="292" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C292" s="128"/>
-      <c r="D292" s="128"/>
-      <c r="E292" s="128"/>
-      <c r="F292" s="128"/>
-      <c r="G292" s="128"/>
-      <c r="H292" s="128"/>
-      <c r="I292" s="128"/>
-      <c r="J292" s="128"/>
-      <c r="K292" s="128"/>
-      <c r="L292" s="128"/>
-      <c r="M292" s="128"/>
-      <c r="N292" s="128"/>
-      <c r="O292" s="128"/>
-      <c r="P292" s="128"/>
-      <c r="Q292" s="128"/>
-      <c r="R292" s="128"/>
-      <c r="S292" s="128"/>
-      <c r="T292" s="128"/>
-      <c r="U292" s="128"/>
-      <c r="V292" s="128"/>
-      <c r="W292" s="128"/>
+      <c r="C292" s="129"/>
+      <c r="D292" s="129"/>
+      <c r="E292" s="129"/>
+      <c r="F292" s="129"/>
+      <c r="G292" s="129"/>
+      <c r="H292" s="129"/>
+      <c r="I292" s="129"/>
+      <c r="J292" s="129"/>
+      <c r="K292" s="129"/>
+      <c r="L292" s="129"/>
+      <c r="M292" s="129"/>
+      <c r="N292" s="129"/>
+      <c r="O292" s="129"/>
+      <c r="P292" s="129"/>
+      <c r="Q292" s="129"/>
+      <c r="R292" s="129"/>
+      <c r="S292" s="129"/>
+      <c r="T292" s="129"/>
+      <c r="U292" s="129"/>
+      <c r="V292" s="129"/>
+      <c r="W292" s="129"/>
     </row>
     <row r="295" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="61" t="s">
@@ -7811,11 +7821,11 @@
     </row>
     <row r="297" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C297" s="38"/>
-      <c r="D297" s="128" t="s">
+      <c r="D297" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E297" s="128"/>
-      <c r="F297" s="128"/>
+      <c r="E297" s="129"/>
+      <c r="F297" s="129"/>
       <c r="G297" s="32"/>
       <c r="H297" s="37"/>
       <c r="I297" s="37"/>
@@ -7836,25 +7846,25 @@
     </row>
     <row r="298" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C298" s="39"/>
-      <c r="D298" s="128"/>
-      <c r="E298" s="128"/>
-      <c r="F298" s="128"/>
+      <c r="D298" s="129"/>
+      <c r="E298" s="129"/>
+      <c r="F298" s="129"/>
       <c r="G298" s="45"/>
       <c r="H298" s="33"/>
       <c r="I298" s="33"/>
       <c r="J298" s="33"/>
-      <c r="K298" s="151" t="s">
+      <c r="K298" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L298" s="151"/>
-      <c r="M298" s="151"/>
-      <c r="N298" s="151"/>
-      <c r="O298" s="151"/>
-      <c r="P298" s="151"/>
-      <c r="Q298" s="151"/>
-      <c r="R298" s="151"/>
-      <c r="S298" s="151"/>
-      <c r="T298" s="151"/>
+      <c r="L298" s="135"/>
+      <c r="M298" s="135"/>
+      <c r="N298" s="135"/>
+      <c r="O298" s="135"/>
+      <c r="P298" s="135"/>
+      <c r="Q298" s="135"/>
+      <c r="R298" s="135"/>
+      <c r="S298" s="135"/>
+      <c r="T298" s="135"/>
       <c r="U298" s="33"/>
       <c r="V298" s="33"/>
       <c r="W298" s="43"/>
@@ -7863,27 +7873,27 @@
       <c r="C299" s="39"/>
       <c r="D299" s="34"/>
       <c r="E299" s="35"/>
-      <c r="F299" s="139" t="s">
+      <c r="F299" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G299" s="139"/>
-      <c r="H299" s="139"/>
-      <c r="I299" s="139"/>
-      <c r="J299" s="139"/>
-      <c r="K299" s="151"/>
-      <c r="L299" s="151"/>
-      <c r="M299" s="151"/>
-      <c r="N299" s="151"/>
-      <c r="O299" s="151"/>
-      <c r="P299" s="151"/>
-      <c r="Q299" s="151"/>
-      <c r="R299" s="151"/>
-      <c r="S299" s="151"/>
-      <c r="T299" s="151"/>
-      <c r="U299" s="152" t="s">
+      <c r="G299" s="136"/>
+      <c r="H299" s="136"/>
+      <c r="I299" s="136"/>
+      <c r="J299" s="136"/>
+      <c r="K299" s="135"/>
+      <c r="L299" s="135"/>
+      <c r="M299" s="135"/>
+      <c r="N299" s="135"/>
+      <c r="O299" s="135"/>
+      <c r="P299" s="135"/>
+      <c r="Q299" s="135"/>
+      <c r="R299" s="135"/>
+      <c r="S299" s="135"/>
+      <c r="T299" s="135"/>
+      <c r="U299" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V299" s="153"/>
+      <c r="V299" s="144"/>
       <c r="W299" s="43"/>
     </row>
     <row r="300" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7937,11 +7947,11 @@
       <c r="D302" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="137" t="s">
+      <c r="E302" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F302" s="138"/>
-      <c r="G302" s="138"/>
+      <c r="F302" s="126"/>
+      <c r="G302" s="126"/>
       <c r="I302" s="18"/>
       <c r="J302" s="154" t="s">
         <v>154</v>
@@ -7965,11 +7975,11 @@
       <c r="D303" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="137" t="s">
+      <c r="E303" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F303" s="138"/>
-      <c r="G303" s="138"/>
+      <c r="F303" s="126"/>
+      <c r="G303" s="126"/>
       <c r="I303" s="18"/>
       <c r="J303" s="51"/>
       <c r="K303" s="58"/>
@@ -7984,35 +7994,35 @@
       <c r="D304" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="137" t="s">
+      <c r="E304" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F304" s="138"/>
-      <c r="G304" s="138"/>
+      <c r="F304" s="126"/>
+      <c r="G304" s="126"/>
       <c r="I304" s="18"/>
-      <c r="J304" s="129" t="s">
+      <c r="J304" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="K304" s="130"/>
+      <c r="K304" s="162"/>
       <c r="L304" s="66"/>
-      <c r="M304" s="148" t="s">
+      <c r="M304" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="N304" s="149"/>
-      <c r="O304" s="149"/>
-      <c r="P304" s="149"/>
-      <c r="Q304" s="144" t="s">
+      <c r="N304" s="148"/>
+      <c r="O304" s="148"/>
+      <c r="P304" s="148"/>
+      <c r="Q304" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="R304" s="145"/>
+      <c r="R304" s="164"/>
       <c r="S304" s="64"/>
       <c r="T304" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U304" s="157" t="s">
+      <c r="U304" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="V304" s="158"/>
+      <c r="V304" s="157"/>
       <c r="W304" s="20"/>
     </row>
     <row r="305" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8020,11 +8030,11 @@
       <c r="D305" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="140" t="s">
+      <c r="E305" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F305" s="141"/>
-      <c r="G305" s="141"/>
+      <c r="F305" s="128"/>
+      <c r="G305" s="128"/>
       <c r="I305" s="18" t="s">
         <v>35</v>
       </c>
@@ -8040,11 +8050,11 @@
       <c r="D306" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="137" t="s">
+      <c r="E306" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F306" s="138"/>
-      <c r="G306" s="138"/>
+      <c r="F306" s="126"/>
+      <c r="G306" s="126"/>
       <c r="I306" s="18"/>
       <c r="J306" s="72" t="s">
         <v>61</v>
@@ -8052,28 +8062,28 @@
       <c r="K306" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="L306" s="131" t="s">
+      <c r="L306" s="150" t="s">
         <v>156</v>
       </c>
-      <c r="M306" s="132"/>
-      <c r="N306" s="131" t="s">
+      <c r="M306" s="151"/>
+      <c r="N306" s="150" t="s">
         <v>157</v>
       </c>
-      <c r="O306" s="132"/>
+      <c r="O306" s="151"/>
       <c r="P306" s="72" t="s">
         <v>158</v>
       </c>
       <c r="Q306" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="R306" s="131" t="s">
+      <c r="R306" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="S306" s="132"/>
-      <c r="T306" s="160" t="s">
+      <c r="S306" s="151"/>
+      <c r="T306" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="U306" s="160"/>
+      <c r="U306" s="139"/>
       <c r="V306" s="20" t="s">
         <v>309</v>
       </c>
@@ -8088,22 +8098,22 @@
       <c r="K307" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="L307" s="124" t="s">
+      <c r="L307" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="M307" s="125"/>
-      <c r="N307" s="126">
+      <c r="M307" s="133"/>
+      <c r="N307" s="152">
         <v>2000</v>
       </c>
-      <c r="O307" s="127"/>
+      <c r="O307" s="153"/>
       <c r="P307" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q307" s="63"/>
-      <c r="R307" s="124" t="s">
+      <c r="R307" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="S307" s="163"/>
+      <c r="S307" s="134"/>
       <c r="T307" s="73" t="s">
         <v>27</v>
       </c>
@@ -8123,22 +8133,22 @@
       <c r="K308" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="L308" s="124" t="s">
+      <c r="L308" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="M308" s="125"/>
-      <c r="N308" s="126">
+      <c r="M308" s="133"/>
+      <c r="N308" s="152">
         <v>2001</v>
       </c>
-      <c r="O308" s="127"/>
+      <c r="O308" s="153"/>
       <c r="P308" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q308" s="63"/>
-      <c r="R308" s="124" t="s">
+      <c r="R308" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="S308" s="163"/>
+      <c r="S308" s="134"/>
       <c r="T308" s="73" t="s">
         <v>27</v>
       </c>
@@ -8157,22 +8167,22 @@
       <c r="K309" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="L309" s="124" t="s">
+      <c r="L309" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="M309" s="125"/>
-      <c r="N309" s="126">
+      <c r="M309" s="133"/>
+      <c r="N309" s="152">
         <v>2002</v>
       </c>
-      <c r="O309" s="127"/>
+      <c r="O309" s="153"/>
       <c r="P309" s="90" t="s">
         <v>181</v>
       </c>
       <c r="Q309" s="63"/>
-      <c r="R309" s="124" t="s">
+      <c r="R309" s="132" t="s">
         <v>184</v>
       </c>
-      <c r="S309" s="163"/>
+      <c r="S309" s="134"/>
       <c r="T309" s="73" t="s">
         <v>27</v>
       </c>
@@ -8191,22 +8201,22 @@
       <c r="K310" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="L310" s="124" t="s">
+      <c r="L310" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="M310" s="125"/>
-      <c r="N310" s="126">
+      <c r="M310" s="133"/>
+      <c r="N310" s="152">
         <v>2000</v>
       </c>
-      <c r="O310" s="127"/>
+      <c r="O310" s="153"/>
       <c r="P310" s="90" t="s">
         <v>182</v>
       </c>
       <c r="Q310" s="63"/>
-      <c r="R310" s="124" t="s">
+      <c r="R310" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="S310" s="163"/>
+      <c r="S310" s="134"/>
       <c r="T310" s="73" t="s">
         <v>27</v>
       </c>
@@ -8225,22 +8235,22 @@
       <c r="K311" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="L311" s="124" t="s">
+      <c r="L311" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="M311" s="125"/>
-      <c r="N311" s="126">
+      <c r="M311" s="133"/>
+      <c r="N311" s="152">
         <v>2000</v>
       </c>
-      <c r="O311" s="127"/>
+      <c r="O311" s="153"/>
       <c r="P311" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q311" s="63"/>
-      <c r="R311" s="124" t="s">
+      <c r="R311" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="S311" s="163"/>
+      <c r="S311" s="134"/>
       <c r="T311" s="73" t="s">
         <v>27</v>
       </c>
@@ -8259,22 +8269,22 @@
       <c r="K312" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="L312" s="124" t="s">
+      <c r="L312" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="M312" s="125"/>
-      <c r="N312" s="126">
+      <c r="M312" s="133"/>
+      <c r="N312" s="152">
         <v>2000</v>
       </c>
-      <c r="O312" s="127"/>
+      <c r="O312" s="153"/>
       <c r="P312" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q312" s="63"/>
-      <c r="R312" s="124" t="s">
+      <c r="R312" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="S312" s="163"/>
+      <c r="S312" s="134"/>
       <c r="T312" s="73" t="s">
         <v>27</v>
       </c>
@@ -8293,22 +8303,22 @@
       <c r="K313" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="L313" s="124" t="s">
+      <c r="L313" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="M313" s="125"/>
-      <c r="N313" s="126">
+      <c r="M313" s="133"/>
+      <c r="N313" s="152">
         <v>2000</v>
       </c>
-      <c r="O313" s="127"/>
+      <c r="O313" s="153"/>
       <c r="P313" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q313" s="63"/>
-      <c r="R313" s="124" t="s">
+      <c r="R313" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="S313" s="163"/>
+      <c r="S313" s="134"/>
       <c r="T313" s="73" t="s">
         <v>27</v>
       </c>
@@ -8327,22 +8337,22 @@
       <c r="K314" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="L314" s="124" t="s">
+      <c r="L314" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="M314" s="125"/>
-      <c r="N314" s="126">
+      <c r="M314" s="133"/>
+      <c r="N314" s="152">
         <v>2000</v>
       </c>
-      <c r="O314" s="127"/>
+      <c r="O314" s="153"/>
       <c r="P314" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q314" s="63"/>
-      <c r="R314" s="124" t="s">
+      <c r="R314" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="S314" s="163"/>
+      <c r="S314" s="134"/>
       <c r="T314" s="73" t="s">
         <v>27</v>
       </c>
@@ -8361,22 +8371,22 @@
       <c r="K315" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="L315" s="124" t="s">
+      <c r="L315" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="M315" s="125"/>
-      <c r="N315" s="126">
+      <c r="M315" s="133"/>
+      <c r="N315" s="152">
         <v>2000</v>
       </c>
-      <c r="O315" s="127"/>
+      <c r="O315" s="153"/>
       <c r="P315" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q315" s="63"/>
-      <c r="R315" s="124" t="s">
+      <c r="R315" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="S315" s="163"/>
+      <c r="S315" s="134"/>
       <c r="T315" s="73" t="s">
         <v>27</v>
       </c>
@@ -8395,22 +8405,22 @@
       <c r="K316" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="L316" s="124" t="s">
+      <c r="L316" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="M316" s="125"/>
-      <c r="N316" s="126">
+      <c r="M316" s="133"/>
+      <c r="N316" s="152">
         <v>2000</v>
       </c>
-      <c r="O316" s="127"/>
+      <c r="O316" s="153"/>
       <c r="P316" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q316" s="63"/>
-      <c r="R316" s="124" t="s">
+      <c r="R316" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="S316" s="163"/>
+      <c r="S316" s="134"/>
       <c r="T316" s="73" t="s">
         <v>27</v>
       </c>
@@ -8475,75 +8485,75 @@
       <c r="W320" s="20"/>
     </row>
     <row r="321" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C321" s="128" t="s">
+      <c r="C321" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D321" s="128"/>
-      <c r="E321" s="128"/>
-      <c r="F321" s="128"/>
-      <c r="G321" s="128"/>
-      <c r="H321" s="128"/>
-      <c r="I321" s="128"/>
-      <c r="J321" s="128"/>
-      <c r="K321" s="128"/>
-      <c r="L321" s="128"/>
-      <c r="M321" s="128"/>
-      <c r="N321" s="128"/>
-      <c r="O321" s="128"/>
-      <c r="P321" s="128"/>
-      <c r="Q321" s="128"/>
-      <c r="R321" s="128"/>
-      <c r="S321" s="128"/>
-      <c r="T321" s="128"/>
-      <c r="U321" s="128"/>
-      <c r="V321" s="128"/>
-      <c r="W321" s="128"/>
+      <c r="D321" s="129"/>
+      <c r="E321" s="129"/>
+      <c r="F321" s="129"/>
+      <c r="G321" s="129"/>
+      <c r="H321" s="129"/>
+      <c r="I321" s="129"/>
+      <c r="J321" s="129"/>
+      <c r="K321" s="129"/>
+      <c r="L321" s="129"/>
+      <c r="M321" s="129"/>
+      <c r="N321" s="129"/>
+      <c r="O321" s="129"/>
+      <c r="P321" s="129"/>
+      <c r="Q321" s="129"/>
+      <c r="R321" s="129"/>
+      <c r="S321" s="129"/>
+      <c r="T321" s="129"/>
+      <c r="U321" s="129"/>
+      <c r="V321" s="129"/>
+      <c r="W321" s="129"/>
     </row>
     <row r="322" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C322" s="128"/>
-      <c r="D322" s="128"/>
-      <c r="E322" s="128"/>
-      <c r="F322" s="128"/>
-      <c r="G322" s="128"/>
-      <c r="H322" s="128"/>
-      <c r="I322" s="128"/>
-      <c r="J322" s="128"/>
-      <c r="K322" s="128"/>
-      <c r="L322" s="128"/>
-      <c r="M322" s="128"/>
-      <c r="N322" s="128"/>
-      <c r="O322" s="128"/>
-      <c r="P322" s="128"/>
-      <c r="Q322" s="128"/>
-      <c r="R322" s="128"/>
-      <c r="S322" s="128"/>
-      <c r="T322" s="128"/>
-      <c r="U322" s="128"/>
-      <c r="V322" s="128"/>
-      <c r="W322" s="128"/>
+      <c r="C322" s="129"/>
+      <c r="D322" s="129"/>
+      <c r="E322" s="129"/>
+      <c r="F322" s="129"/>
+      <c r="G322" s="129"/>
+      <c r="H322" s="129"/>
+      <c r="I322" s="129"/>
+      <c r="J322" s="129"/>
+      <c r="K322" s="129"/>
+      <c r="L322" s="129"/>
+      <c r="M322" s="129"/>
+      <c r="N322" s="129"/>
+      <c r="O322" s="129"/>
+      <c r="P322" s="129"/>
+      <c r="Q322" s="129"/>
+      <c r="R322" s="129"/>
+      <c r="S322" s="129"/>
+      <c r="T322" s="129"/>
+      <c r="U322" s="129"/>
+      <c r="V322" s="129"/>
+      <c r="W322" s="129"/>
     </row>
     <row r="323" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C323" s="128"/>
-      <c r="D323" s="128"/>
-      <c r="E323" s="128"/>
-      <c r="F323" s="128"/>
-      <c r="G323" s="128"/>
-      <c r="H323" s="128"/>
-      <c r="I323" s="128"/>
-      <c r="J323" s="128"/>
-      <c r="K323" s="128"/>
-      <c r="L323" s="128"/>
-      <c r="M323" s="128"/>
-      <c r="N323" s="128"/>
-      <c r="O323" s="128"/>
-      <c r="P323" s="128"/>
-      <c r="Q323" s="128"/>
-      <c r="R323" s="128"/>
-      <c r="S323" s="128"/>
-      <c r="T323" s="128"/>
-      <c r="U323" s="128"/>
-      <c r="V323" s="128"/>
-      <c r="W323" s="128"/>
+      <c r="C323" s="129"/>
+      <c r="D323" s="129"/>
+      <c r="E323" s="129"/>
+      <c r="F323" s="129"/>
+      <c r="G323" s="129"/>
+      <c r="H323" s="129"/>
+      <c r="I323" s="129"/>
+      <c r="J323" s="129"/>
+      <c r="K323" s="129"/>
+      <c r="L323" s="129"/>
+      <c r="M323" s="129"/>
+      <c r="N323" s="129"/>
+      <c r="O323" s="129"/>
+      <c r="P323" s="129"/>
+      <c r="Q323" s="129"/>
+      <c r="R323" s="129"/>
+      <c r="S323" s="129"/>
+      <c r="T323" s="129"/>
+      <c r="U323" s="129"/>
+      <c r="V323" s="129"/>
+      <c r="W323" s="129"/>
     </row>
     <row r="324" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C324" s="45"/>
@@ -8575,11 +8585,11 @@
     </row>
     <row r="327" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C327" s="38"/>
-      <c r="D327" s="128" t="s">
+      <c r="D327" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E327" s="128"/>
-      <c r="F327" s="128"/>
+      <c r="E327" s="129"/>
+      <c r="F327" s="129"/>
       <c r="G327" s="32"/>
       <c r="H327" s="37"/>
       <c r="I327" s="37"/>
@@ -8600,25 +8610,25 @@
     </row>
     <row r="328" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C328" s="39"/>
-      <c r="D328" s="128"/>
-      <c r="E328" s="128"/>
-      <c r="F328" s="128"/>
+      <c r="D328" s="129"/>
+      <c r="E328" s="129"/>
+      <c r="F328" s="129"/>
       <c r="G328" s="45"/>
       <c r="H328" s="33"/>
       <c r="I328" s="33"/>
       <c r="J328" s="33"/>
-      <c r="K328" s="151" t="s">
+      <c r="K328" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L328" s="151"/>
-      <c r="M328" s="151"/>
-      <c r="N328" s="151"/>
-      <c r="O328" s="151"/>
-      <c r="P328" s="151"/>
-      <c r="Q328" s="151"/>
-      <c r="R328" s="151"/>
-      <c r="S328" s="151"/>
-      <c r="T328" s="151"/>
+      <c r="L328" s="135"/>
+      <c r="M328" s="135"/>
+      <c r="N328" s="135"/>
+      <c r="O328" s="135"/>
+      <c r="P328" s="135"/>
+      <c r="Q328" s="135"/>
+      <c r="R328" s="135"/>
+      <c r="S328" s="135"/>
+      <c r="T328" s="135"/>
       <c r="U328" s="33"/>
       <c r="V328" s="33"/>
       <c r="W328" s="43"/>
@@ -8627,27 +8637,27 @@
       <c r="C329" s="39"/>
       <c r="D329" s="34"/>
       <c r="E329" s="35"/>
-      <c r="F329" s="139" t="s">
+      <c r="F329" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G329" s="139"/>
-      <c r="H329" s="139"/>
-      <c r="I329" s="139"/>
-      <c r="J329" s="139"/>
-      <c r="K329" s="151"/>
-      <c r="L329" s="151"/>
-      <c r="M329" s="151"/>
-      <c r="N329" s="151"/>
-      <c r="O329" s="151"/>
-      <c r="P329" s="151"/>
-      <c r="Q329" s="151"/>
-      <c r="R329" s="151"/>
-      <c r="S329" s="151"/>
-      <c r="T329" s="151"/>
-      <c r="U329" s="152" t="s">
+      <c r="G329" s="136"/>
+      <c r="H329" s="136"/>
+      <c r="I329" s="136"/>
+      <c r="J329" s="136"/>
+      <c r="K329" s="135"/>
+      <c r="L329" s="135"/>
+      <c r="M329" s="135"/>
+      <c r="N329" s="135"/>
+      <c r="O329" s="135"/>
+      <c r="P329" s="135"/>
+      <c r="Q329" s="135"/>
+      <c r="R329" s="135"/>
+      <c r="S329" s="135"/>
+      <c r="T329" s="135"/>
+      <c r="U329" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V329" s="153"/>
+      <c r="V329" s="144"/>
       <c r="W329" s="43"/>
     </row>
     <row r="330" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8701,11 +8711,11 @@
       <c r="D332" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="137" t="s">
+      <c r="E332" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F332" s="138"/>
-      <c r="G332" s="138"/>
+      <c r="F332" s="126"/>
+      <c r="G332" s="126"/>
       <c r="I332" s="18"/>
       <c r="J332" s="154" t="s">
         <v>154</v>
@@ -8729,11 +8739,11 @@
       <c r="D333" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="137" t="s">
+      <c r="E333" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F333" s="138"/>
-      <c r="G333" s="138"/>
+      <c r="F333" s="126"/>
+      <c r="G333" s="126"/>
       <c r="I333" s="18"/>
       <c r="J333" s="51"/>
       <c r="K333" s="58"/>
@@ -8748,11 +8758,11 @@
       <c r="D334" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="137" t="s">
+      <c r="E334" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F334" s="138"/>
-      <c r="G334" s="138"/>
+      <c r="F334" s="126"/>
+      <c r="G334" s="126"/>
       <c r="I334" s="18"/>
       <c r="K334" s="81"/>
       <c r="L334" s="80"/>
@@ -8774,11 +8784,11 @@
       <c r="D335" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="140" t="s">
+      <c r="E335" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F335" s="141"/>
-      <c r="G335" s="141"/>
+      <c r="F335" s="128"/>
+      <c r="G335" s="128"/>
       <c r="I335" s="18" t="s">
         <v>35</v>
       </c>
@@ -8795,11 +8805,11 @@
       <c r="D336" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="137" t="s">
+      <c r="E336" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F336" s="138"/>
-      <c r="G336" s="138"/>
+      <c r="F336" s="126"/>
+      <c r="G336" s="126"/>
       <c r="I336" s="18"/>
       <c r="K336" s="82"/>
       <c r="T336" s="78"/>
@@ -8813,14 +8823,14 @@
       <c r="L337" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N337" s="142" t="s">
+      <c r="N337" s="138" t="s">
         <v>143</v>
       </c>
-      <c r="O337" s="143"/>
-      <c r="P337" s="143"/>
-      <c r="Q337" s="143"/>
-      <c r="R337" s="143"/>
-      <c r="S337" s="143"/>
+      <c r="O337" s="142"/>
+      <c r="P337" s="142"/>
+      <c r="Q337" s="142"/>
+      <c r="R337" s="142"/>
+      <c r="S337" s="142"/>
       <c r="T337" s="78"/>
       <c r="V337" s="78"/>
       <c r="W337" s="20"/>
@@ -8840,14 +8850,14 @@
       <c r="L339" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N339" s="142" t="s">
+      <c r="N339" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="O339" s="143"/>
-      <c r="P339" s="143"/>
-      <c r="Q339" s="143"/>
-      <c r="R339" s="143"/>
-      <c r="S339" s="143"/>
+      <c r="O339" s="142"/>
+      <c r="P339" s="142"/>
+      <c r="Q339" s="142"/>
+      <c r="R339" s="142"/>
+      <c r="S339" s="142"/>
       <c r="T339" s="78"/>
       <c r="V339" s="78"/>
       <c r="W339" s="20"/>
@@ -8867,14 +8877,14 @@
       <c r="L341" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="N341" s="142" t="s">
+      <c r="N341" s="138" t="s">
         <v>145</v>
       </c>
-      <c r="O341" s="143"/>
-      <c r="P341" s="143"/>
-      <c r="Q341" s="143"/>
-      <c r="R341" s="143"/>
-      <c r="S341" s="143"/>
+      <c r="O341" s="142"/>
+      <c r="P341" s="142"/>
+      <c r="Q341" s="142"/>
+      <c r="R341" s="142"/>
+      <c r="S341" s="142"/>
       <c r="T341" s="78"/>
       <c r="V341" s="78"/>
       <c r="W341" s="20"/>
@@ -8894,14 +8904,14 @@
       <c r="L343" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="N343" s="142" t="s">
+      <c r="N343" s="138" t="s">
         <v>146</v>
       </c>
-      <c r="O343" s="143"/>
-      <c r="P343" s="143"/>
-      <c r="Q343" s="143"/>
-      <c r="R343" s="143"/>
-      <c r="S343" s="143"/>
+      <c r="O343" s="142"/>
+      <c r="P343" s="142"/>
+      <c r="Q343" s="142"/>
+      <c r="R343" s="142"/>
+      <c r="S343" s="142"/>
       <c r="T343" s="78"/>
       <c r="V343" s="78"/>
       <c r="W343" s="20"/>
@@ -8921,14 +8931,14 @@
       <c r="L345" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N345" s="164" t="s">
+      <c r="N345" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="O345" s="165"/>
-      <c r="P345" s="165"/>
-      <c r="Q345" s="165"/>
-      <c r="R345" s="165"/>
-      <c r="S345" s="166"/>
+      <c r="O345" s="146"/>
+      <c r="P345" s="146"/>
+      <c r="Q345" s="146"/>
+      <c r="R345" s="146"/>
+      <c r="S345" s="147"/>
       <c r="T345" s="78"/>
       <c r="V345" s="78"/>
       <c r="W345" s="20"/>
@@ -8949,14 +8959,14 @@
         <v>193</v>
       </c>
       <c r="M347" s="30"/>
-      <c r="N347" s="148" t="s">
+      <c r="N347" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="O347" s="149"/>
-      <c r="P347" s="149"/>
-      <c r="Q347" s="149"/>
-      <c r="R347" s="149"/>
-      <c r="S347" s="149"/>
+      <c r="O347" s="148"/>
+      <c r="P347" s="148"/>
+      <c r="Q347" s="148"/>
+      <c r="R347" s="148"/>
+      <c r="S347" s="148"/>
       <c r="T347" s="78"/>
       <c r="V347" s="78"/>
       <c r="W347" s="20"/>
@@ -9028,10 +9038,10 @@
       <c r="P351" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q351" s="150" t="s">
+      <c r="Q351" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="R351" s="150"/>
+      <c r="R351" s="149"/>
       <c r="S351" s="52"/>
       <c r="T351" s="77"/>
       <c r="V351" s="78"/>
@@ -9072,75 +9082,75 @@
       <c r="W353" s="20"/>
     </row>
     <row r="354" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C354" s="128" t="s">
+      <c r="C354" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="128"/>
-      <c r="E354" s="128"/>
-      <c r="F354" s="128"/>
-      <c r="G354" s="128"/>
-      <c r="H354" s="128"/>
-      <c r="I354" s="128"/>
-      <c r="J354" s="128"/>
-      <c r="K354" s="128"/>
-      <c r="L354" s="128"/>
-      <c r="M354" s="128"/>
-      <c r="N354" s="128"/>
-      <c r="O354" s="128"/>
-      <c r="P354" s="128"/>
-      <c r="Q354" s="128"/>
-      <c r="R354" s="128"/>
-      <c r="S354" s="128"/>
-      <c r="T354" s="128"/>
-      <c r="U354" s="128"/>
-      <c r="V354" s="128"/>
-      <c r="W354" s="128"/>
+      <c r="D354" s="129"/>
+      <c r="E354" s="129"/>
+      <c r="F354" s="129"/>
+      <c r="G354" s="129"/>
+      <c r="H354" s="129"/>
+      <c r="I354" s="129"/>
+      <c r="J354" s="129"/>
+      <c r="K354" s="129"/>
+      <c r="L354" s="129"/>
+      <c r="M354" s="129"/>
+      <c r="N354" s="129"/>
+      <c r="O354" s="129"/>
+      <c r="P354" s="129"/>
+      <c r="Q354" s="129"/>
+      <c r="R354" s="129"/>
+      <c r="S354" s="129"/>
+      <c r="T354" s="129"/>
+      <c r="U354" s="129"/>
+      <c r="V354" s="129"/>
+      <c r="W354" s="129"/>
     </row>
     <row r="355" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C355" s="128"/>
-      <c r="D355" s="128"/>
-      <c r="E355" s="128"/>
-      <c r="F355" s="128"/>
-      <c r="G355" s="128"/>
-      <c r="H355" s="128"/>
-      <c r="I355" s="128"/>
-      <c r="J355" s="128"/>
-      <c r="K355" s="128"/>
-      <c r="L355" s="128"/>
-      <c r="M355" s="128"/>
-      <c r="N355" s="128"/>
-      <c r="O355" s="128"/>
-      <c r="P355" s="128"/>
-      <c r="Q355" s="128"/>
-      <c r="R355" s="128"/>
-      <c r="S355" s="128"/>
-      <c r="T355" s="128"/>
-      <c r="U355" s="128"/>
-      <c r="V355" s="128"/>
-      <c r="W355" s="128"/>
+      <c r="C355" s="129"/>
+      <c r="D355" s="129"/>
+      <c r="E355" s="129"/>
+      <c r="F355" s="129"/>
+      <c r="G355" s="129"/>
+      <c r="H355" s="129"/>
+      <c r="I355" s="129"/>
+      <c r="J355" s="129"/>
+      <c r="K355" s="129"/>
+      <c r="L355" s="129"/>
+      <c r="M355" s="129"/>
+      <c r="N355" s="129"/>
+      <c r="O355" s="129"/>
+      <c r="P355" s="129"/>
+      <c r="Q355" s="129"/>
+      <c r="R355" s="129"/>
+      <c r="S355" s="129"/>
+      <c r="T355" s="129"/>
+      <c r="U355" s="129"/>
+      <c r="V355" s="129"/>
+      <c r="W355" s="129"/>
     </row>
     <row r="356" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C356" s="128"/>
-      <c r="D356" s="128"/>
-      <c r="E356" s="128"/>
-      <c r="F356" s="128"/>
-      <c r="G356" s="128"/>
-      <c r="H356" s="128"/>
-      <c r="I356" s="128"/>
-      <c r="J356" s="128"/>
-      <c r="K356" s="128"/>
-      <c r="L356" s="128"/>
-      <c r="M356" s="128"/>
-      <c r="N356" s="128"/>
-      <c r="O356" s="128"/>
-      <c r="P356" s="128"/>
-      <c r="Q356" s="128"/>
-      <c r="R356" s="128"/>
-      <c r="S356" s="128"/>
-      <c r="T356" s="128"/>
-      <c r="U356" s="128"/>
-      <c r="V356" s="128"/>
-      <c r="W356" s="128"/>
+      <c r="C356" s="129"/>
+      <c r="D356" s="129"/>
+      <c r="E356" s="129"/>
+      <c r="F356" s="129"/>
+      <c r="G356" s="129"/>
+      <c r="H356" s="129"/>
+      <c r="I356" s="129"/>
+      <c r="J356" s="129"/>
+      <c r="K356" s="129"/>
+      <c r="L356" s="129"/>
+      <c r="M356" s="129"/>
+      <c r="N356" s="129"/>
+      <c r="O356" s="129"/>
+      <c r="P356" s="129"/>
+      <c r="Q356" s="129"/>
+      <c r="R356" s="129"/>
+      <c r="S356" s="129"/>
+      <c r="T356" s="129"/>
+      <c r="U356" s="129"/>
+      <c r="V356" s="129"/>
+      <c r="W356" s="129"/>
     </row>
     <row r="357" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C357" s="30"/>
@@ -9195,11 +9205,11 @@
     </row>
     <row r="361" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C361" s="38"/>
-      <c r="D361" s="128" t="s">
+      <c r="D361" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E361" s="128"/>
-      <c r="F361" s="128"/>
+      <c r="E361" s="129"/>
+      <c r="F361" s="129"/>
       <c r="G361" s="32"/>
       <c r="H361" s="37"/>
       <c r="I361" s="37"/>
@@ -9220,25 +9230,25 @@
     </row>
     <row r="362" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C362" s="39"/>
-      <c r="D362" s="128"/>
-      <c r="E362" s="128"/>
-      <c r="F362" s="128"/>
+      <c r="D362" s="129"/>
+      <c r="E362" s="129"/>
+      <c r="F362" s="129"/>
       <c r="G362" s="45"/>
       <c r="H362" s="33"/>
       <c r="I362" s="33"/>
       <c r="J362" s="33"/>
-      <c r="K362" s="151" t="s">
+      <c r="K362" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L362" s="151"/>
-      <c r="M362" s="151"/>
-      <c r="N362" s="151"/>
-      <c r="O362" s="151"/>
-      <c r="P362" s="151"/>
-      <c r="Q362" s="151"/>
-      <c r="R362" s="151"/>
-      <c r="S362" s="151"/>
-      <c r="T362" s="151"/>
+      <c r="L362" s="135"/>
+      <c r="M362" s="135"/>
+      <c r="N362" s="135"/>
+      <c r="O362" s="135"/>
+      <c r="P362" s="135"/>
+      <c r="Q362" s="135"/>
+      <c r="R362" s="135"/>
+      <c r="S362" s="135"/>
+      <c r="T362" s="135"/>
       <c r="U362" s="33"/>
       <c r="V362" s="33"/>
       <c r="W362" s="43"/>
@@ -9247,27 +9257,27 @@
       <c r="C363" s="39"/>
       <c r="D363" s="34"/>
       <c r="E363" s="35"/>
-      <c r="F363" s="139" t="s">
+      <c r="F363" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G363" s="139"/>
-      <c r="H363" s="139"/>
-      <c r="I363" s="139"/>
-      <c r="J363" s="139"/>
-      <c r="K363" s="151"/>
-      <c r="L363" s="151"/>
-      <c r="M363" s="151"/>
-      <c r="N363" s="151"/>
-      <c r="O363" s="151"/>
-      <c r="P363" s="151"/>
-      <c r="Q363" s="151"/>
-      <c r="R363" s="151"/>
-      <c r="S363" s="151"/>
-      <c r="T363" s="151"/>
-      <c r="U363" s="152" t="s">
+      <c r="G363" s="136"/>
+      <c r="H363" s="136"/>
+      <c r="I363" s="136"/>
+      <c r="J363" s="136"/>
+      <c r="K363" s="135"/>
+      <c r="L363" s="135"/>
+      <c r="M363" s="135"/>
+      <c r="N363" s="135"/>
+      <c r="O363" s="135"/>
+      <c r="P363" s="135"/>
+      <c r="Q363" s="135"/>
+      <c r="R363" s="135"/>
+      <c r="S363" s="135"/>
+      <c r="T363" s="135"/>
+      <c r="U363" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V363" s="153"/>
+      <c r="V363" s="144"/>
       <c r="W363" s="43"/>
     </row>
     <row r="364" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9321,11 +9331,11 @@
       <c r="D366" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E366" s="137" t="s">
+      <c r="E366" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F366" s="138"/>
-      <c r="G366" s="138"/>
+      <c r="F366" s="126"/>
+      <c r="G366" s="126"/>
       <c r="I366" s="18"/>
       <c r="J366" s="154" t="s">
         <v>154</v>
@@ -9349,11 +9359,11 @@
       <c r="D367" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E367" s="137" t="s">
+      <c r="E367" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F367" s="138"/>
-      <c r="G367" s="138"/>
+      <c r="F367" s="126"/>
+      <c r="G367" s="126"/>
       <c r="I367" s="18"/>
       <c r="J367" s="51"/>
       <c r="K367" s="58"/>
@@ -9368,11 +9378,11 @@
       <c r="D368" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E368" s="137" t="s">
+      <c r="E368" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F368" s="138"/>
-      <c r="G368" s="138"/>
+      <c r="F368" s="126"/>
+      <c r="G368" s="126"/>
       <c r="I368" s="18"/>
       <c r="K368" s="81"/>
       <c r="L368" s="80"/>
@@ -9394,11 +9404,11 @@
       <c r="D369" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E369" s="140" t="s">
+      <c r="E369" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F369" s="141"/>
-      <c r="G369" s="141"/>
+      <c r="F369" s="128"/>
+      <c r="G369" s="128"/>
       <c r="I369" s="18" t="s">
         <v>35</v>
       </c>
@@ -9415,11 +9425,11 @@
       <c r="D370" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E370" s="137" t="s">
+      <c r="E370" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F370" s="138"/>
-      <c r="G370" s="138"/>
+      <c r="F370" s="126"/>
+      <c r="G370" s="126"/>
       <c r="I370" s="18"/>
       <c r="K370" s="82"/>
       <c r="T370" s="78"/>
@@ -9433,14 +9443,14 @@
       <c r="L371" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N371" s="142" t="s">
+      <c r="N371" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="O371" s="143"/>
-      <c r="P371" s="143"/>
-      <c r="Q371" s="143"/>
-      <c r="R371" s="143"/>
-      <c r="S371" s="143"/>
+      <c r="O371" s="142"/>
+      <c r="P371" s="142"/>
+      <c r="Q371" s="142"/>
+      <c r="R371" s="142"/>
+      <c r="S371" s="142"/>
       <c r="T371" s="78"/>
       <c r="V371" s="78"/>
       <c r="W371" s="20"/>
@@ -9460,14 +9470,14 @@
       <c r="L373" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N373" s="142" t="s">
+      <c r="N373" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="O373" s="143"/>
-      <c r="P373" s="143"/>
-      <c r="Q373" s="143"/>
-      <c r="R373" s="143"/>
-      <c r="S373" s="143"/>
+      <c r="O373" s="142"/>
+      <c r="P373" s="142"/>
+      <c r="Q373" s="142"/>
+      <c r="R373" s="142"/>
+      <c r="S373" s="142"/>
       <c r="T373" s="78"/>
       <c r="V373" s="78"/>
       <c r="W373" s="20"/>
@@ -9487,14 +9497,14 @@
       <c r="L375" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="N375" s="142">
+      <c r="N375" s="138">
         <v>2000</v>
       </c>
-      <c r="O375" s="143"/>
-      <c r="P375" s="143"/>
-      <c r="Q375" s="143"/>
-      <c r="R375" s="143"/>
-      <c r="S375" s="143"/>
+      <c r="O375" s="142"/>
+      <c r="P375" s="142"/>
+      <c r="Q375" s="142"/>
+      <c r="R375" s="142"/>
+      <c r="S375" s="142"/>
       <c r="T375" s="78"/>
       <c r="V375" s="78"/>
       <c r="W375" s="20"/>
@@ -9514,14 +9524,14 @@
       <c r="L377" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="N377" s="142" t="s">
+      <c r="N377" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="O377" s="143"/>
-      <c r="P377" s="143"/>
-      <c r="Q377" s="143"/>
-      <c r="R377" s="143"/>
-      <c r="S377" s="143"/>
+      <c r="O377" s="142"/>
+      <c r="P377" s="142"/>
+      <c r="Q377" s="142"/>
+      <c r="R377" s="142"/>
+      <c r="S377" s="142"/>
       <c r="T377" s="78"/>
       <c r="V377" s="78"/>
       <c r="W377" s="20"/>
@@ -9541,14 +9551,14 @@
       <c r="L379" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N379" s="169" t="s">
+      <c r="N379" s="145" t="s">
         <v>198</v>
       </c>
-      <c r="O379" s="165"/>
-      <c r="P379" s="165"/>
-      <c r="Q379" s="165"/>
-      <c r="R379" s="165"/>
-      <c r="S379" s="166"/>
+      <c r="O379" s="146"/>
+      <c r="P379" s="146"/>
+      <c r="Q379" s="146"/>
+      <c r="R379" s="146"/>
+      <c r="S379" s="147"/>
       <c r="T379" s="78"/>
       <c r="V379" s="78"/>
       <c r="W379" s="20"/>
@@ -9569,14 +9579,14 @@
         <v>193</v>
       </c>
       <c r="M381" s="30"/>
-      <c r="N381" s="148">
+      <c r="N381" s="130">
         <v>355914029</v>
       </c>
-      <c r="O381" s="149"/>
-      <c r="P381" s="149"/>
-      <c r="Q381" s="149"/>
-      <c r="R381" s="149"/>
-      <c r="S381" s="149"/>
+      <c r="O381" s="148"/>
+      <c r="P381" s="148"/>
+      <c r="Q381" s="148"/>
+      <c r="R381" s="148"/>
+      <c r="S381" s="148"/>
       <c r="T381" s="78"/>
       <c r="V381" s="78"/>
       <c r="W381" s="20"/>
@@ -9648,10 +9658,10 @@
       <c r="P385" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q385" s="150" t="s">
+      <c r="Q385" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="R385" s="150"/>
+      <c r="R385" s="149"/>
       <c r="S385" s="52"/>
       <c r="T385" s="77"/>
       <c r="V385" s="78"/>
@@ -9692,75 +9702,75 @@
       <c r="W387" s="20"/>
     </row>
     <row r="388" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C388" s="128" t="s">
+      <c r="C388" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D388" s="128"/>
-      <c r="E388" s="128"/>
-      <c r="F388" s="128"/>
-      <c r="G388" s="128"/>
-      <c r="H388" s="128"/>
-      <c r="I388" s="128"/>
-      <c r="J388" s="128"/>
-      <c r="K388" s="128"/>
-      <c r="L388" s="128"/>
-      <c r="M388" s="128"/>
-      <c r="N388" s="128"/>
-      <c r="O388" s="128"/>
-      <c r="P388" s="128"/>
-      <c r="Q388" s="128"/>
-      <c r="R388" s="128"/>
-      <c r="S388" s="128"/>
-      <c r="T388" s="128"/>
-      <c r="U388" s="128"/>
-      <c r="V388" s="128"/>
-      <c r="W388" s="128"/>
+      <c r="D388" s="129"/>
+      <c r="E388" s="129"/>
+      <c r="F388" s="129"/>
+      <c r="G388" s="129"/>
+      <c r="H388" s="129"/>
+      <c r="I388" s="129"/>
+      <c r="J388" s="129"/>
+      <c r="K388" s="129"/>
+      <c r="L388" s="129"/>
+      <c r="M388" s="129"/>
+      <c r="N388" s="129"/>
+      <c r="O388" s="129"/>
+      <c r="P388" s="129"/>
+      <c r="Q388" s="129"/>
+      <c r="R388" s="129"/>
+      <c r="S388" s="129"/>
+      <c r="T388" s="129"/>
+      <c r="U388" s="129"/>
+      <c r="V388" s="129"/>
+      <c r="W388" s="129"/>
     </row>
     <row r="389" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C389" s="128"/>
-      <c r="D389" s="128"/>
-      <c r="E389" s="128"/>
-      <c r="F389" s="128"/>
-      <c r="G389" s="128"/>
-      <c r="H389" s="128"/>
-      <c r="I389" s="128"/>
-      <c r="J389" s="128"/>
-      <c r="K389" s="128"/>
-      <c r="L389" s="128"/>
-      <c r="M389" s="128"/>
-      <c r="N389" s="128"/>
-      <c r="O389" s="128"/>
-      <c r="P389" s="128"/>
-      <c r="Q389" s="128"/>
-      <c r="R389" s="128"/>
-      <c r="S389" s="128"/>
-      <c r="T389" s="128"/>
-      <c r="U389" s="128"/>
-      <c r="V389" s="128"/>
-      <c r="W389" s="128"/>
+      <c r="C389" s="129"/>
+      <c r="D389" s="129"/>
+      <c r="E389" s="129"/>
+      <c r="F389" s="129"/>
+      <c r="G389" s="129"/>
+      <c r="H389" s="129"/>
+      <c r="I389" s="129"/>
+      <c r="J389" s="129"/>
+      <c r="K389" s="129"/>
+      <c r="L389" s="129"/>
+      <c r="M389" s="129"/>
+      <c r="N389" s="129"/>
+      <c r="O389" s="129"/>
+      <c r="P389" s="129"/>
+      <c r="Q389" s="129"/>
+      <c r="R389" s="129"/>
+      <c r="S389" s="129"/>
+      <c r="T389" s="129"/>
+      <c r="U389" s="129"/>
+      <c r="V389" s="129"/>
+      <c r="W389" s="129"/>
     </row>
     <row r="390" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C390" s="128"/>
-      <c r="D390" s="128"/>
-      <c r="E390" s="128"/>
-      <c r="F390" s="128"/>
-      <c r="G390" s="128"/>
-      <c r="H390" s="128"/>
-      <c r="I390" s="128"/>
-      <c r="J390" s="128"/>
-      <c r="K390" s="128"/>
-      <c r="L390" s="128"/>
-      <c r="M390" s="128"/>
-      <c r="N390" s="128"/>
-      <c r="O390" s="128"/>
-      <c r="P390" s="128"/>
-      <c r="Q390" s="128"/>
-      <c r="R390" s="128"/>
-      <c r="S390" s="128"/>
-      <c r="T390" s="128"/>
-      <c r="U390" s="128"/>
-      <c r="V390" s="128"/>
-      <c r="W390" s="128"/>
+      <c r="C390" s="129"/>
+      <c r="D390" s="129"/>
+      <c r="E390" s="129"/>
+      <c r="F390" s="129"/>
+      <c r="G390" s="129"/>
+      <c r="H390" s="129"/>
+      <c r="I390" s="129"/>
+      <c r="J390" s="129"/>
+      <c r="K390" s="129"/>
+      <c r="L390" s="129"/>
+      <c r="M390" s="129"/>
+      <c r="N390" s="129"/>
+      <c r="O390" s="129"/>
+      <c r="P390" s="129"/>
+      <c r="Q390" s="129"/>
+      <c r="R390" s="129"/>
+      <c r="S390" s="129"/>
+      <c r="T390" s="129"/>
+      <c r="U390" s="129"/>
+      <c r="V390" s="129"/>
+      <c r="W390" s="129"/>
     </row>
     <row r="391" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C391" s="45"/>
@@ -9792,11 +9802,11 @@
     </row>
     <row r="394" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C394" s="38"/>
-      <c r="D394" s="128" t="s">
+      <c r="D394" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E394" s="128"/>
-      <c r="F394" s="128"/>
+      <c r="E394" s="129"/>
+      <c r="F394" s="129"/>
       <c r="G394" s="32"/>
       <c r="H394" s="37"/>
       <c r="I394" s="37"/>
@@ -9817,25 +9827,25 @@
     </row>
     <row r="395" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C395" s="39"/>
-      <c r="D395" s="128"/>
-      <c r="E395" s="128"/>
-      <c r="F395" s="128"/>
+      <c r="D395" s="129"/>
+      <c r="E395" s="129"/>
+      <c r="F395" s="129"/>
       <c r="G395" s="45"/>
       <c r="H395" s="33"/>
       <c r="I395" s="33"/>
       <c r="J395" s="33"/>
-      <c r="K395" s="151" t="s">
+      <c r="K395" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L395" s="151"/>
-      <c r="M395" s="151"/>
-      <c r="N395" s="151"/>
-      <c r="O395" s="151"/>
-      <c r="P395" s="151"/>
-      <c r="Q395" s="151"/>
-      <c r="R395" s="151"/>
-      <c r="S395" s="151"/>
-      <c r="T395" s="151"/>
+      <c r="L395" s="135"/>
+      <c r="M395" s="135"/>
+      <c r="N395" s="135"/>
+      <c r="O395" s="135"/>
+      <c r="P395" s="135"/>
+      <c r="Q395" s="135"/>
+      <c r="R395" s="135"/>
+      <c r="S395" s="135"/>
+      <c r="T395" s="135"/>
       <c r="U395" s="33"/>
       <c r="V395" s="33"/>
       <c r="W395" s="43"/>
@@ -9844,27 +9854,27 @@
       <c r="C396" s="39"/>
       <c r="D396" s="34"/>
       <c r="E396" s="35"/>
-      <c r="F396" s="139" t="s">
+      <c r="F396" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G396" s="139"/>
-      <c r="H396" s="139"/>
-      <c r="I396" s="139"/>
-      <c r="J396" s="139"/>
-      <c r="K396" s="151"/>
-      <c r="L396" s="151"/>
-      <c r="M396" s="151"/>
-      <c r="N396" s="151"/>
-      <c r="O396" s="151"/>
-      <c r="P396" s="151"/>
-      <c r="Q396" s="151"/>
-      <c r="R396" s="151"/>
-      <c r="S396" s="151"/>
-      <c r="T396" s="151"/>
-      <c r="U396" s="152" t="s">
+      <c r="G396" s="136"/>
+      <c r="H396" s="136"/>
+      <c r="I396" s="136"/>
+      <c r="J396" s="136"/>
+      <c r="K396" s="135"/>
+      <c r="L396" s="135"/>
+      <c r="M396" s="135"/>
+      <c r="N396" s="135"/>
+      <c r="O396" s="135"/>
+      <c r="P396" s="135"/>
+      <c r="Q396" s="135"/>
+      <c r="R396" s="135"/>
+      <c r="S396" s="135"/>
+      <c r="T396" s="135"/>
+      <c r="U396" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V396" s="153"/>
+      <c r="V396" s="144"/>
       <c r="W396" s="43"/>
     </row>
     <row r="397" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9918,11 +9928,11 @@
       <c r="D399" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="137" t="s">
+      <c r="E399" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F399" s="138"/>
-      <c r="G399" s="138"/>
+      <c r="F399" s="126"/>
+      <c r="G399" s="126"/>
       <c r="I399" s="18"/>
       <c r="J399" s="154" t="s">
         <v>154</v>
@@ -9946,11 +9956,11 @@
       <c r="D400" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="137" t="s">
+      <c r="E400" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F400" s="138"/>
-      <c r="G400" s="138"/>
+      <c r="F400" s="126"/>
+      <c r="G400" s="126"/>
       <c r="I400" s="18"/>
       <c r="J400" s="51"/>
       <c r="K400" s="58"/>
@@ -9965,11 +9975,11 @@
       <c r="D401" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="137" t="s">
+      <c r="E401" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F401" s="138"/>
-      <c r="G401" s="138"/>
+      <c r="F401" s="126"/>
+      <c r="G401" s="126"/>
       <c r="I401" s="18"/>
       <c r="V401" s="78"/>
       <c r="W401" s="20"/>
@@ -9979,11 +9989,11 @@
       <c r="D402" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="140" t="s">
+      <c r="E402" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="F402" s="141"/>
-      <c r="G402" s="141"/>
+      <c r="F402" s="128"/>
+      <c r="G402" s="128"/>
       <c r="I402" s="18" t="s">
         <v>35</v>
       </c>
@@ -10005,11 +10015,11 @@
       <c r="D403" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="137" t="s">
+      <c r="E403" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F403" s="138"/>
-      <c r="G403" s="138"/>
+      <c r="F403" s="126"/>
+      <c r="G403" s="126"/>
       <c r="I403" s="18"/>
       <c r="L403" s="82"/>
       <c r="M403" s="88" t="s">
@@ -10154,75 +10164,75 @@
       <c r="W417" s="20"/>
     </row>
     <row r="418" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C418" s="128" t="s">
+      <c r="C418" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D418" s="128"/>
-      <c r="E418" s="128"/>
-      <c r="F418" s="128"/>
-      <c r="G418" s="128"/>
-      <c r="H418" s="128"/>
-      <c r="I418" s="128"/>
-      <c r="J418" s="128"/>
-      <c r="K418" s="128"/>
-      <c r="L418" s="128"/>
-      <c r="M418" s="128"/>
-      <c r="N418" s="128"/>
-      <c r="O418" s="128"/>
-      <c r="P418" s="128"/>
-      <c r="Q418" s="128"/>
-      <c r="R418" s="128"/>
-      <c r="S418" s="128"/>
-      <c r="T418" s="128"/>
-      <c r="U418" s="128"/>
-      <c r="V418" s="128"/>
-      <c r="W418" s="128"/>
+      <c r="D418" s="129"/>
+      <c r="E418" s="129"/>
+      <c r="F418" s="129"/>
+      <c r="G418" s="129"/>
+      <c r="H418" s="129"/>
+      <c r="I418" s="129"/>
+      <c r="J418" s="129"/>
+      <c r="K418" s="129"/>
+      <c r="L418" s="129"/>
+      <c r="M418" s="129"/>
+      <c r="N418" s="129"/>
+      <c r="O418" s="129"/>
+      <c r="P418" s="129"/>
+      <c r="Q418" s="129"/>
+      <c r="R418" s="129"/>
+      <c r="S418" s="129"/>
+      <c r="T418" s="129"/>
+      <c r="U418" s="129"/>
+      <c r="V418" s="129"/>
+      <c r="W418" s="129"/>
     </row>
     <row r="419" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C419" s="128"/>
-      <c r="D419" s="128"/>
-      <c r="E419" s="128"/>
-      <c r="F419" s="128"/>
-      <c r="G419" s="128"/>
-      <c r="H419" s="128"/>
-      <c r="I419" s="128"/>
-      <c r="J419" s="128"/>
-      <c r="K419" s="128"/>
-      <c r="L419" s="128"/>
-      <c r="M419" s="128"/>
-      <c r="N419" s="128"/>
-      <c r="O419" s="128"/>
-      <c r="P419" s="128"/>
-      <c r="Q419" s="128"/>
-      <c r="R419" s="128"/>
-      <c r="S419" s="128"/>
-      <c r="T419" s="128"/>
-      <c r="U419" s="128"/>
-      <c r="V419" s="128"/>
-      <c r="W419" s="128"/>
+      <c r="C419" s="129"/>
+      <c r="D419" s="129"/>
+      <c r="E419" s="129"/>
+      <c r="F419" s="129"/>
+      <c r="G419" s="129"/>
+      <c r="H419" s="129"/>
+      <c r="I419" s="129"/>
+      <c r="J419" s="129"/>
+      <c r="K419" s="129"/>
+      <c r="L419" s="129"/>
+      <c r="M419" s="129"/>
+      <c r="N419" s="129"/>
+      <c r="O419" s="129"/>
+      <c r="P419" s="129"/>
+      <c r="Q419" s="129"/>
+      <c r="R419" s="129"/>
+      <c r="S419" s="129"/>
+      <c r="T419" s="129"/>
+      <c r="U419" s="129"/>
+      <c r="V419" s="129"/>
+      <c r="W419" s="129"/>
     </row>
     <row r="420" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C420" s="128"/>
-      <c r="D420" s="128"/>
-      <c r="E420" s="128"/>
-      <c r="F420" s="128"/>
-      <c r="G420" s="128"/>
-      <c r="H420" s="128"/>
-      <c r="I420" s="128"/>
-      <c r="J420" s="128"/>
-      <c r="K420" s="128"/>
-      <c r="L420" s="128"/>
-      <c r="M420" s="128"/>
-      <c r="N420" s="128"/>
-      <c r="O420" s="128"/>
-      <c r="P420" s="128"/>
-      <c r="Q420" s="128"/>
-      <c r="R420" s="128"/>
-      <c r="S420" s="128"/>
-      <c r="T420" s="128"/>
-      <c r="U420" s="128"/>
-      <c r="V420" s="128"/>
-      <c r="W420" s="128"/>
+      <c r="C420" s="129"/>
+      <c r="D420" s="129"/>
+      <c r="E420" s="129"/>
+      <c r="F420" s="129"/>
+      <c r="G420" s="129"/>
+      <c r="H420" s="129"/>
+      <c r="I420" s="129"/>
+      <c r="J420" s="129"/>
+      <c r="K420" s="129"/>
+      <c r="L420" s="129"/>
+      <c r="M420" s="129"/>
+      <c r="N420" s="129"/>
+      <c r="O420" s="129"/>
+      <c r="P420" s="129"/>
+      <c r="Q420" s="129"/>
+      <c r="R420" s="129"/>
+      <c r="S420" s="129"/>
+      <c r="T420" s="129"/>
+      <c r="U420" s="129"/>
+      <c r="V420" s="129"/>
+      <c r="W420" s="129"/>
     </row>
     <row r="423" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B423" s="61" t="s">
@@ -10231,11 +10241,11 @@
     </row>
     <row r="425" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C425" s="38"/>
-      <c r="D425" s="128" t="s">
+      <c r="D425" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E425" s="128"/>
-      <c r="F425" s="128"/>
+      <c r="E425" s="129"/>
+      <c r="F425" s="129"/>
       <c r="G425" s="32"/>
       <c r="H425" s="37"/>
       <c r="I425" s="37"/>
@@ -10256,25 +10266,25 @@
     </row>
     <row r="426" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C426" s="39"/>
-      <c r="D426" s="128"/>
-      <c r="E426" s="128"/>
-      <c r="F426" s="128"/>
+      <c r="D426" s="129"/>
+      <c r="E426" s="129"/>
+      <c r="F426" s="129"/>
       <c r="G426" s="45"/>
       <c r="H426" s="33"/>
       <c r="I426" s="33"/>
       <c r="J426" s="33"/>
-      <c r="K426" s="151" t="s">
+      <c r="K426" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L426" s="151"/>
-      <c r="M426" s="151"/>
-      <c r="N426" s="151"/>
-      <c r="O426" s="151"/>
-      <c r="P426" s="151"/>
-      <c r="Q426" s="151"/>
-      <c r="R426" s="151"/>
-      <c r="S426" s="151"/>
-      <c r="T426" s="151"/>
+      <c r="L426" s="135"/>
+      <c r="M426" s="135"/>
+      <c r="N426" s="135"/>
+      <c r="O426" s="135"/>
+      <c r="P426" s="135"/>
+      <c r="Q426" s="135"/>
+      <c r="R426" s="135"/>
+      <c r="S426" s="135"/>
+      <c r="T426" s="135"/>
       <c r="U426" s="33"/>
       <c r="V426" s="33"/>
       <c r="W426" s="43"/>
@@ -10283,27 +10293,27 @@
       <c r="C427" s="39"/>
       <c r="D427" s="34"/>
       <c r="E427" s="35"/>
-      <c r="F427" s="139" t="s">
+      <c r="F427" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G427" s="139"/>
-      <c r="H427" s="139"/>
-      <c r="I427" s="139"/>
-      <c r="J427" s="139"/>
-      <c r="K427" s="151"/>
-      <c r="L427" s="151"/>
-      <c r="M427" s="151"/>
-      <c r="N427" s="151"/>
-      <c r="O427" s="151"/>
-      <c r="P427" s="151"/>
-      <c r="Q427" s="151"/>
-      <c r="R427" s="151"/>
-      <c r="S427" s="151"/>
-      <c r="T427" s="151"/>
-      <c r="U427" s="152" t="s">
+      <c r="G427" s="136"/>
+      <c r="H427" s="136"/>
+      <c r="I427" s="136"/>
+      <c r="J427" s="136"/>
+      <c r="K427" s="135"/>
+      <c r="L427" s="135"/>
+      <c r="M427" s="135"/>
+      <c r="N427" s="135"/>
+      <c r="O427" s="135"/>
+      <c r="P427" s="135"/>
+      <c r="Q427" s="135"/>
+      <c r="R427" s="135"/>
+      <c r="S427" s="135"/>
+      <c r="T427" s="135"/>
+      <c r="U427" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V427" s="153"/>
+      <c r="V427" s="144"/>
       <c r="W427" s="43"/>
     </row>
     <row r="428" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10357,11 +10367,11 @@
       <c r="D430" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E430" s="137" t="s">
+      <c r="E430" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F430" s="138"/>
-      <c r="G430" s="138"/>
+      <c r="F430" s="126"/>
+      <c r="G430" s="126"/>
       <c r="I430" s="18"/>
       <c r="J430" s="154" t="s">
         <v>201</v>
@@ -10385,11 +10395,11 @@
       <c r="D431" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E431" s="137" t="s">
+      <c r="E431" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F431" s="138"/>
-      <c r="G431" s="138"/>
+      <c r="F431" s="126"/>
+      <c r="G431" s="126"/>
       <c r="I431" s="18"/>
       <c r="J431" s="51"/>
       <c r="K431" s="58"/>
@@ -10404,19 +10414,19 @@
       <c r="D432" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E432" s="137" t="s">
+      <c r="E432" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F432" s="138"/>
-      <c r="G432" s="138"/>
+      <c r="F432" s="126"/>
+      <c r="G432" s="126"/>
       <c r="I432" s="18"/>
-      <c r="J432" s="148" t="s">
+      <c r="J432" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="K432" s="148"/>
-      <c r="L432" s="148"/>
-      <c r="M432" s="148"/>
-      <c r="N432" s="148"/>
+      <c r="K432" s="130"/>
+      <c r="L432" s="130"/>
+      <c r="M432" s="130"/>
+      <c r="N432" s="130"/>
       <c r="O432" s="35"/>
       <c r="P432" s="94" t="s">
         <v>16</v>
@@ -10424,11 +10434,11 @@
       <c r="R432" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S432" s="157" t="s">
+      <c r="S432" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="T432" s="157"/>
-      <c r="U432" s="157"/>
+      <c r="T432" s="131"/>
+      <c r="U432" s="131"/>
       <c r="V432" s="95"/>
       <c r="W432" s="20"/>
     </row>
@@ -10437,11 +10447,11 @@
       <c r="D433" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E433" s="137" t="s">
+      <c r="E433" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F433" s="138"/>
-      <c r="G433" s="138"/>
+      <c r="F433" s="126"/>
+      <c r="G433" s="126"/>
       <c r="I433" s="18" t="s">
         <v>35</v>
       </c>
@@ -10457,36 +10467,36 @@
       <c r="D434" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E434" s="140" t="s">
+      <c r="E434" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="F434" s="141"/>
-      <c r="G434" s="141"/>
+      <c r="F434" s="128"/>
+      <c r="G434" s="128"/>
       <c r="I434" s="18"/>
       <c r="J434" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K434" s="159" t="s">
+      <c r="K434" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="L434" s="159"/>
-      <c r="M434" s="160" t="s">
+      <c r="L434" s="155"/>
+      <c r="M434" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="N434" s="160"/>
-      <c r="O434" s="160" t="s">
+      <c r="N434" s="139"/>
+      <c r="O434" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="P434" s="160"/>
-      <c r="Q434" s="160" t="s">
+      <c r="P434" s="139"/>
+      <c r="Q434" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="R434" s="160"/>
-      <c r="S434" s="160"/>
-      <c r="T434" s="160" t="s">
+      <c r="R434" s="139"/>
+      <c r="S434" s="139"/>
+      <c r="T434" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="U434" s="160"/>
+      <c r="U434" s="139"/>
       <c r="V434" s="20"/>
       <c r="W434" s="20"/>
     </row>
@@ -10496,23 +10506,23 @@
       <c r="J435" s="67">
         <v>1</v>
       </c>
-      <c r="K435" s="167" t="s">
+      <c r="K435" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L435" s="161"/>
-      <c r="M435" s="168">
+      <c r="L435" s="141"/>
+      <c r="M435" s="137">
         <v>123456</v>
       </c>
-      <c r="N435" s="168"/>
-      <c r="O435" s="142" t="s">
+      <c r="N435" s="137"/>
+      <c r="O435" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="P435" s="142"/>
-      <c r="Q435" s="124" t="s">
+      <c r="P435" s="138"/>
+      <c r="Q435" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R435" s="125"/>
-      <c r="S435" s="163"/>
+      <c r="R435" s="133"/>
+      <c r="S435" s="134"/>
       <c r="T435" s="73" t="s">
         <v>216</v>
       </c>
@@ -10529,27 +10539,27 @@
       <c r="J436" s="67">
         <v>2</v>
       </c>
-      <c r="K436" s="167" t="s">
+      <c r="K436" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L436" s="161"/>
-      <c r="M436" s="168">
+      <c r="L436" s="141"/>
+      <c r="M436" s="137">
         <v>654321</v>
       </c>
-      <c r="N436" s="168">
+      <c r="N436" s="137">
         <v>2001</v>
       </c>
-      <c r="O436" s="142" t="s">
+      <c r="O436" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="P436" s="142"/>
-      <c r="Q436" s="124" t="s">
+      <c r="P436" s="138"/>
+      <c r="Q436" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="R436" s="125" t="s">
+      <c r="R436" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="S436" s="163"/>
+      <c r="S436" s="134"/>
       <c r="T436" s="73" t="s">
         <v>216</v>
       </c>
@@ -10565,25 +10575,25 @@
       <c r="J437" s="67">
         <v>3</v>
       </c>
-      <c r="K437" s="167" t="s">
+      <c r="K437" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L437" s="161"/>
-      <c r="M437" s="168">
+      <c r="L437" s="141"/>
+      <c r="M437" s="137">
         <v>123456</v>
       </c>
-      <c r="N437" s="168"/>
-      <c r="O437" s="142" t="s">
+      <c r="N437" s="137"/>
+      <c r="O437" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="P437" s="142"/>
-      <c r="Q437" s="124" t="s">
+      <c r="P437" s="138"/>
+      <c r="Q437" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="R437" s="125" t="s">
+      <c r="R437" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="S437" s="163"/>
+      <c r="S437" s="134"/>
       <c r="T437" s="73" t="s">
         <v>216</v>
       </c>
@@ -10599,23 +10609,23 @@
       <c r="J438" s="67">
         <v>4</v>
       </c>
-      <c r="K438" s="167" t="s">
+      <c r="K438" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L438" s="161"/>
-      <c r="M438" s="168">
+      <c r="L438" s="141"/>
+      <c r="M438" s="137">
         <v>123456</v>
       </c>
-      <c r="N438" s="168"/>
-      <c r="O438" s="142" t="s">
+      <c r="N438" s="137"/>
+      <c r="O438" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="P438" s="142"/>
-      <c r="Q438" s="124" t="s">
+      <c r="P438" s="138"/>
+      <c r="Q438" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R438" s="125"/>
-      <c r="S438" s="163"/>
+      <c r="R438" s="133"/>
+      <c r="S438" s="134"/>
       <c r="T438" s="73" t="s">
         <v>216</v>
       </c>
@@ -10631,23 +10641,23 @@
       <c r="J439" s="67">
         <v>5</v>
       </c>
-      <c r="K439" s="167" t="s">
+      <c r="K439" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L439" s="161"/>
-      <c r="M439" s="168">
+      <c r="L439" s="141"/>
+      <c r="M439" s="137">
         <v>123456</v>
       </c>
-      <c r="N439" s="168"/>
-      <c r="O439" s="142" t="s">
+      <c r="N439" s="137"/>
+      <c r="O439" s="138" t="s">
         <v>208</v>
       </c>
-      <c r="P439" s="142"/>
-      <c r="Q439" s="124" t="s">
+      <c r="P439" s="138"/>
+      <c r="Q439" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R439" s="125"/>
-      <c r="S439" s="163"/>
+      <c r="R439" s="133"/>
+      <c r="S439" s="134"/>
       <c r="T439" s="73" t="s">
         <v>216</v>
       </c>
@@ -10663,23 +10673,23 @@
       <c r="J440" s="67">
         <v>6</v>
       </c>
-      <c r="K440" s="167" t="s">
+      <c r="K440" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L440" s="161"/>
-      <c r="M440" s="168">
+      <c r="L440" s="141"/>
+      <c r="M440" s="137">
         <v>123456</v>
       </c>
-      <c r="N440" s="168"/>
-      <c r="O440" s="142" t="s">
+      <c r="N440" s="137"/>
+      <c r="O440" s="138" t="s">
         <v>209</v>
       </c>
-      <c r="P440" s="142"/>
-      <c r="Q440" s="124" t="s">
+      <c r="P440" s="138"/>
+      <c r="Q440" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R440" s="125"/>
-      <c r="S440" s="163"/>
+      <c r="R440" s="133"/>
+      <c r="S440" s="134"/>
       <c r="T440" s="73" t="s">
         <v>216</v>
       </c>
@@ -10695,23 +10705,23 @@
       <c r="J441" s="67">
         <v>7</v>
       </c>
-      <c r="K441" s="167" t="s">
+      <c r="K441" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L441" s="161"/>
-      <c r="M441" s="168">
+      <c r="L441" s="141"/>
+      <c r="M441" s="137">
         <v>123456</v>
       </c>
-      <c r="N441" s="168"/>
-      <c r="O441" s="142" t="s">
+      <c r="N441" s="137"/>
+      <c r="O441" s="138" t="s">
         <v>210</v>
       </c>
-      <c r="P441" s="142"/>
-      <c r="Q441" s="124" t="s">
+      <c r="P441" s="138"/>
+      <c r="Q441" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R441" s="125"/>
-      <c r="S441" s="163"/>
+      <c r="R441" s="133"/>
+      <c r="S441" s="134"/>
       <c r="T441" s="73" t="s">
         <v>216</v>
       </c>
@@ -10727,23 +10737,23 @@
       <c r="J442" s="67">
         <v>8</v>
       </c>
-      <c r="K442" s="167" t="s">
+      <c r="K442" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L442" s="161"/>
-      <c r="M442" s="168">
+      <c r="L442" s="141"/>
+      <c r="M442" s="137">
         <v>123456</v>
       </c>
-      <c r="N442" s="168"/>
-      <c r="O442" s="142" t="s">
+      <c r="N442" s="137"/>
+      <c r="O442" s="138" t="s">
         <v>211</v>
       </c>
-      <c r="P442" s="142"/>
-      <c r="Q442" s="124" t="s">
+      <c r="P442" s="138"/>
+      <c r="Q442" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R442" s="125"/>
-      <c r="S442" s="163"/>
+      <c r="R442" s="133"/>
+      <c r="S442" s="134"/>
       <c r="T442" s="73" t="s">
         <v>216</v>
       </c>
@@ -10759,23 +10769,23 @@
       <c r="J443" s="67">
         <v>9</v>
       </c>
-      <c r="K443" s="167" t="s">
+      <c r="K443" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L443" s="161"/>
-      <c r="M443" s="168">
+      <c r="L443" s="141"/>
+      <c r="M443" s="137">
         <v>123456</v>
       </c>
-      <c r="N443" s="168"/>
-      <c r="O443" s="142" t="s">
+      <c r="N443" s="137"/>
+      <c r="O443" s="138" t="s">
         <v>212</v>
       </c>
-      <c r="P443" s="142"/>
-      <c r="Q443" s="124" t="s">
+      <c r="P443" s="138"/>
+      <c r="Q443" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R443" s="125"/>
-      <c r="S443" s="163"/>
+      <c r="R443" s="133"/>
+      <c r="S443" s="134"/>
       <c r="T443" s="73" t="s">
         <v>216</v>
       </c>
@@ -10791,23 +10801,23 @@
       <c r="J444" s="67">
         <v>10</v>
       </c>
-      <c r="K444" s="167" t="s">
+      <c r="K444" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="L444" s="161"/>
-      <c r="M444" s="168">
+      <c r="L444" s="141"/>
+      <c r="M444" s="137">
         <v>123456</v>
       </c>
-      <c r="N444" s="168"/>
-      <c r="O444" s="142" t="s">
+      <c r="N444" s="137"/>
+      <c r="O444" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="P444" s="142"/>
-      <c r="Q444" s="124" t="s">
+      <c r="P444" s="138"/>
+      <c r="Q444" s="132" t="s">
         <v>214</v>
       </c>
-      <c r="R444" s="125"/>
-      <c r="S444" s="163"/>
+      <c r="R444" s="133"/>
+      <c r="S444" s="134"/>
       <c r="T444" s="73" t="s">
         <v>216</v>
       </c>
@@ -10872,75 +10882,75 @@
       <c r="W448" s="20"/>
     </row>
     <row r="449" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C449" s="128" t="s">
+      <c r="C449" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D449" s="128"/>
-      <c r="E449" s="128"/>
-      <c r="F449" s="128"/>
-      <c r="G449" s="128"/>
-      <c r="H449" s="128"/>
-      <c r="I449" s="128"/>
-      <c r="J449" s="128"/>
-      <c r="K449" s="128"/>
-      <c r="L449" s="128"/>
-      <c r="M449" s="128"/>
-      <c r="N449" s="128"/>
-      <c r="O449" s="128"/>
-      <c r="P449" s="128"/>
-      <c r="Q449" s="128"/>
-      <c r="R449" s="128"/>
-      <c r="S449" s="128"/>
-      <c r="T449" s="128"/>
-      <c r="U449" s="128"/>
-      <c r="V449" s="128"/>
-      <c r="W449" s="128"/>
+      <c r="D449" s="129"/>
+      <c r="E449" s="129"/>
+      <c r="F449" s="129"/>
+      <c r="G449" s="129"/>
+      <c r="H449" s="129"/>
+      <c r="I449" s="129"/>
+      <c r="J449" s="129"/>
+      <c r="K449" s="129"/>
+      <c r="L449" s="129"/>
+      <c r="M449" s="129"/>
+      <c r="N449" s="129"/>
+      <c r="O449" s="129"/>
+      <c r="P449" s="129"/>
+      <c r="Q449" s="129"/>
+      <c r="R449" s="129"/>
+      <c r="S449" s="129"/>
+      <c r="T449" s="129"/>
+      <c r="U449" s="129"/>
+      <c r="V449" s="129"/>
+      <c r="W449" s="129"/>
     </row>
     <row r="450" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C450" s="128"/>
-      <c r="D450" s="128"/>
-      <c r="E450" s="128"/>
-      <c r="F450" s="128"/>
-      <c r="G450" s="128"/>
-      <c r="H450" s="128"/>
-      <c r="I450" s="128"/>
-      <c r="J450" s="128"/>
-      <c r="K450" s="128"/>
-      <c r="L450" s="128"/>
-      <c r="M450" s="128"/>
-      <c r="N450" s="128"/>
-      <c r="O450" s="128"/>
-      <c r="P450" s="128"/>
-      <c r="Q450" s="128"/>
-      <c r="R450" s="128"/>
-      <c r="S450" s="128"/>
-      <c r="T450" s="128"/>
-      <c r="U450" s="128"/>
-      <c r="V450" s="128"/>
-      <c r="W450" s="128"/>
+      <c r="C450" s="129"/>
+      <c r="D450" s="129"/>
+      <c r="E450" s="129"/>
+      <c r="F450" s="129"/>
+      <c r="G450" s="129"/>
+      <c r="H450" s="129"/>
+      <c r="I450" s="129"/>
+      <c r="J450" s="129"/>
+      <c r="K450" s="129"/>
+      <c r="L450" s="129"/>
+      <c r="M450" s="129"/>
+      <c r="N450" s="129"/>
+      <c r="O450" s="129"/>
+      <c r="P450" s="129"/>
+      <c r="Q450" s="129"/>
+      <c r="R450" s="129"/>
+      <c r="S450" s="129"/>
+      <c r="T450" s="129"/>
+      <c r="U450" s="129"/>
+      <c r="V450" s="129"/>
+      <c r="W450" s="129"/>
     </row>
     <row r="451" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C451" s="128"/>
-      <c r="D451" s="128"/>
-      <c r="E451" s="128"/>
-      <c r="F451" s="128"/>
-      <c r="G451" s="128"/>
-      <c r="H451" s="128"/>
-      <c r="I451" s="128"/>
-      <c r="J451" s="128"/>
-      <c r="K451" s="128"/>
-      <c r="L451" s="128"/>
-      <c r="M451" s="128"/>
-      <c r="N451" s="128"/>
-      <c r="O451" s="128"/>
-      <c r="P451" s="128"/>
-      <c r="Q451" s="128"/>
-      <c r="R451" s="128"/>
-      <c r="S451" s="128"/>
-      <c r="T451" s="128"/>
-      <c r="U451" s="128"/>
-      <c r="V451" s="128"/>
-      <c r="W451" s="128"/>
+      <c r="C451" s="129"/>
+      <c r="D451" s="129"/>
+      <c r="E451" s="129"/>
+      <c r="F451" s="129"/>
+      <c r="G451" s="129"/>
+      <c r="H451" s="129"/>
+      <c r="I451" s="129"/>
+      <c r="J451" s="129"/>
+      <c r="K451" s="129"/>
+      <c r="L451" s="129"/>
+      <c r="M451" s="129"/>
+      <c r="N451" s="129"/>
+      <c r="O451" s="129"/>
+      <c r="P451" s="129"/>
+      <c r="Q451" s="129"/>
+      <c r="R451" s="129"/>
+      <c r="S451" s="129"/>
+      <c r="T451" s="129"/>
+      <c r="U451" s="129"/>
+      <c r="V451" s="129"/>
+      <c r="W451" s="129"/>
     </row>
     <row r="453" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C453" s="61" t="s">
@@ -10949,11 +10959,11 @@
     </row>
     <row r="455" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C455" s="38"/>
-      <c r="D455" s="128" t="s">
+      <c r="D455" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E455" s="128"/>
-      <c r="F455" s="128"/>
+      <c r="E455" s="129"/>
+      <c r="F455" s="129"/>
       <c r="G455" s="32"/>
       <c r="H455" s="37"/>
       <c r="I455" s="37"/>
@@ -10974,25 +10984,25 @@
     </row>
     <row r="456" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C456" s="39"/>
-      <c r="D456" s="128"/>
-      <c r="E456" s="128"/>
-      <c r="F456" s="128"/>
+      <c r="D456" s="129"/>
+      <c r="E456" s="129"/>
+      <c r="F456" s="129"/>
       <c r="G456" s="45"/>
       <c r="H456" s="33"/>
       <c r="I456" s="33"/>
       <c r="J456" s="33"/>
-      <c r="K456" s="151" t="s">
+      <c r="K456" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L456" s="151"/>
-      <c r="M456" s="151"/>
-      <c r="N456" s="151"/>
-      <c r="O456" s="151"/>
-      <c r="P456" s="151"/>
-      <c r="Q456" s="151"/>
-      <c r="R456" s="151"/>
-      <c r="S456" s="151"/>
-      <c r="T456" s="151"/>
+      <c r="L456" s="135"/>
+      <c r="M456" s="135"/>
+      <c r="N456" s="135"/>
+      <c r="O456" s="135"/>
+      <c r="P456" s="135"/>
+      <c r="Q456" s="135"/>
+      <c r="R456" s="135"/>
+      <c r="S456" s="135"/>
+      <c r="T456" s="135"/>
       <c r="U456" s="33"/>
       <c r="V456" s="33"/>
       <c r="W456" s="43"/>
@@ -11001,27 +11011,27 @@
       <c r="C457" s="39"/>
       <c r="D457" s="34"/>
       <c r="E457" s="35"/>
-      <c r="F457" s="139" t="s">
+      <c r="F457" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G457" s="139"/>
-      <c r="H457" s="139"/>
-      <c r="I457" s="139"/>
-      <c r="J457" s="139"/>
-      <c r="K457" s="151"/>
-      <c r="L457" s="151"/>
-      <c r="M457" s="151"/>
-      <c r="N457" s="151"/>
-      <c r="O457" s="151"/>
-      <c r="P457" s="151"/>
-      <c r="Q457" s="151"/>
-      <c r="R457" s="151"/>
-      <c r="S457" s="151"/>
-      <c r="T457" s="151"/>
-      <c r="U457" s="152" t="s">
+      <c r="G457" s="136"/>
+      <c r="H457" s="136"/>
+      <c r="I457" s="136"/>
+      <c r="J457" s="136"/>
+      <c r="K457" s="135"/>
+      <c r="L457" s="135"/>
+      <c r="M457" s="135"/>
+      <c r="N457" s="135"/>
+      <c r="O457" s="135"/>
+      <c r="P457" s="135"/>
+      <c r="Q457" s="135"/>
+      <c r="R457" s="135"/>
+      <c r="S457" s="135"/>
+      <c r="T457" s="135"/>
+      <c r="U457" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V457" s="153"/>
+      <c r="V457" s="144"/>
       <c r="W457" s="43"/>
     </row>
     <row r="458" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11075,11 +11085,11 @@
       <c r="D460" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E460" s="137" t="s">
+      <c r="E460" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F460" s="138"/>
-      <c r="G460" s="138"/>
+      <c r="F460" s="126"/>
+      <c r="G460" s="126"/>
       <c r="I460" s="18"/>
       <c r="J460" s="154" t="s">
         <v>201</v>
@@ -11103,11 +11113,11 @@
       <c r="D461" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E461" s="137" t="s">
+      <c r="E461" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F461" s="138"/>
-      <c r="G461" s="138"/>
+      <c r="F461" s="126"/>
+      <c r="G461" s="126"/>
       <c r="I461" s="18"/>
       <c r="J461" s="51"/>
       <c r="K461" s="58"/>
@@ -11122,11 +11132,11 @@
       <c r="D462" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E462" s="137" t="s">
+      <c r="E462" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F462" s="138"/>
-      <c r="G462" s="138"/>
+      <c r="F462" s="126"/>
+      <c r="G462" s="126"/>
       <c r="I462" s="18"/>
       <c r="V462" s="78"/>
       <c r="W462" s="20"/>
@@ -11136,11 +11146,11 @@
       <c r="D463" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E463" s="137" t="s">
+      <c r="E463" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F463" s="138"/>
-      <c r="G463" s="138"/>
+      <c r="F463" s="126"/>
+      <c r="G463" s="126"/>
       <c r="I463" s="18" t="s">
         <v>35</v>
       </c>
@@ -11162,11 +11172,11 @@
       <c r="D464" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E464" s="140" t="s">
+      <c r="E464" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="F464" s="141"/>
-      <c r="G464" s="141"/>
+      <c r="F464" s="128"/>
+      <c r="G464" s="128"/>
       <c r="I464" s="18"/>
       <c r="L464" s="82"/>
       <c r="M464" s="88" t="s">
@@ -11310,75 +11320,75 @@
       <c r="W478" s="20"/>
     </row>
     <row r="479" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C479" s="128" t="s">
+      <c r="C479" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D479" s="128"/>
-      <c r="E479" s="128"/>
-      <c r="F479" s="128"/>
-      <c r="G479" s="128"/>
-      <c r="H479" s="128"/>
-      <c r="I479" s="128"/>
-      <c r="J479" s="128"/>
-      <c r="K479" s="128"/>
-      <c r="L479" s="128"/>
-      <c r="M479" s="128"/>
-      <c r="N479" s="128"/>
-      <c r="O479" s="128"/>
-      <c r="P479" s="128"/>
-      <c r="Q479" s="128"/>
-      <c r="R479" s="128"/>
-      <c r="S479" s="128"/>
-      <c r="T479" s="128"/>
-      <c r="U479" s="128"/>
-      <c r="V479" s="128"/>
-      <c r="W479" s="128"/>
+      <c r="D479" s="129"/>
+      <c r="E479" s="129"/>
+      <c r="F479" s="129"/>
+      <c r="G479" s="129"/>
+      <c r="H479" s="129"/>
+      <c r="I479" s="129"/>
+      <c r="J479" s="129"/>
+      <c r="K479" s="129"/>
+      <c r="L479" s="129"/>
+      <c r="M479" s="129"/>
+      <c r="N479" s="129"/>
+      <c r="O479" s="129"/>
+      <c r="P479" s="129"/>
+      <c r="Q479" s="129"/>
+      <c r="R479" s="129"/>
+      <c r="S479" s="129"/>
+      <c r="T479" s="129"/>
+      <c r="U479" s="129"/>
+      <c r="V479" s="129"/>
+      <c r="W479" s="129"/>
     </row>
     <row r="480" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C480" s="128"/>
-      <c r="D480" s="128"/>
-      <c r="E480" s="128"/>
-      <c r="F480" s="128"/>
-      <c r="G480" s="128"/>
-      <c r="H480" s="128"/>
-      <c r="I480" s="128"/>
-      <c r="J480" s="128"/>
-      <c r="K480" s="128"/>
-      <c r="L480" s="128"/>
-      <c r="M480" s="128"/>
-      <c r="N480" s="128"/>
-      <c r="O480" s="128"/>
-      <c r="P480" s="128"/>
-      <c r="Q480" s="128"/>
-      <c r="R480" s="128"/>
-      <c r="S480" s="128"/>
-      <c r="T480" s="128"/>
-      <c r="U480" s="128"/>
-      <c r="V480" s="128"/>
-      <c r="W480" s="128"/>
+      <c r="C480" s="129"/>
+      <c r="D480" s="129"/>
+      <c r="E480" s="129"/>
+      <c r="F480" s="129"/>
+      <c r="G480" s="129"/>
+      <c r="H480" s="129"/>
+      <c r="I480" s="129"/>
+      <c r="J480" s="129"/>
+      <c r="K480" s="129"/>
+      <c r="L480" s="129"/>
+      <c r="M480" s="129"/>
+      <c r="N480" s="129"/>
+      <c r="O480" s="129"/>
+      <c r="P480" s="129"/>
+      <c r="Q480" s="129"/>
+      <c r="R480" s="129"/>
+      <c r="S480" s="129"/>
+      <c r="T480" s="129"/>
+      <c r="U480" s="129"/>
+      <c r="V480" s="129"/>
+      <c r="W480" s="129"/>
     </row>
     <row r="481" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C481" s="128"/>
-      <c r="D481" s="128"/>
-      <c r="E481" s="128"/>
-      <c r="F481" s="128"/>
-      <c r="G481" s="128"/>
-      <c r="H481" s="128"/>
-      <c r="I481" s="128"/>
-      <c r="J481" s="128"/>
-      <c r="K481" s="128"/>
-      <c r="L481" s="128"/>
-      <c r="M481" s="128"/>
-      <c r="N481" s="128"/>
-      <c r="O481" s="128"/>
-      <c r="P481" s="128"/>
-      <c r="Q481" s="128"/>
-      <c r="R481" s="128"/>
-      <c r="S481" s="128"/>
-      <c r="T481" s="128"/>
-      <c r="U481" s="128"/>
-      <c r="V481" s="128"/>
-      <c r="W481" s="128"/>
+      <c r="C481" s="129"/>
+      <c r="D481" s="129"/>
+      <c r="E481" s="129"/>
+      <c r="F481" s="129"/>
+      <c r="G481" s="129"/>
+      <c r="H481" s="129"/>
+      <c r="I481" s="129"/>
+      <c r="J481" s="129"/>
+      <c r="K481" s="129"/>
+      <c r="L481" s="129"/>
+      <c r="M481" s="129"/>
+      <c r="N481" s="129"/>
+      <c r="O481" s="129"/>
+      <c r="P481" s="129"/>
+      <c r="Q481" s="129"/>
+      <c r="R481" s="129"/>
+      <c r="S481" s="129"/>
+      <c r="T481" s="129"/>
+      <c r="U481" s="129"/>
+      <c r="V481" s="129"/>
+      <c r="W481" s="129"/>
     </row>
     <row r="483" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C483" s="61" t="s">
@@ -11387,11 +11397,11 @@
     </row>
     <row r="485" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C485" s="38"/>
-      <c r="D485" s="128" t="s">
+      <c r="D485" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E485" s="128"/>
-      <c r="F485" s="128"/>
+      <c r="E485" s="129"/>
+      <c r="F485" s="129"/>
       <c r="G485" s="32"/>
       <c r="H485" s="37"/>
       <c r="I485" s="37"/>
@@ -11412,25 +11422,25 @@
     </row>
     <row r="486" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C486" s="39"/>
-      <c r="D486" s="128"/>
-      <c r="E486" s="128"/>
-      <c r="F486" s="128"/>
+      <c r="D486" s="129"/>
+      <c r="E486" s="129"/>
+      <c r="F486" s="129"/>
       <c r="G486" s="45"/>
       <c r="H486" s="33"/>
       <c r="I486" s="33"/>
       <c r="J486" s="33"/>
-      <c r="K486" s="151" t="s">
+      <c r="K486" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L486" s="151"/>
-      <c r="M486" s="151"/>
-      <c r="N486" s="151"/>
-      <c r="O486" s="151"/>
-      <c r="P486" s="151"/>
-      <c r="Q486" s="151"/>
-      <c r="R486" s="151"/>
-      <c r="S486" s="151"/>
-      <c r="T486" s="151"/>
+      <c r="L486" s="135"/>
+      <c r="M486" s="135"/>
+      <c r="N486" s="135"/>
+      <c r="O486" s="135"/>
+      <c r="P486" s="135"/>
+      <c r="Q486" s="135"/>
+      <c r="R486" s="135"/>
+      <c r="S486" s="135"/>
+      <c r="T486" s="135"/>
       <c r="U486" s="33"/>
       <c r="V486" s="33"/>
       <c r="W486" s="43"/>
@@ -11439,27 +11449,27 @@
       <c r="C487" s="39"/>
       <c r="D487" s="34"/>
       <c r="E487" s="35"/>
-      <c r="F487" s="139" t="s">
+      <c r="F487" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G487" s="139"/>
-      <c r="H487" s="139"/>
-      <c r="I487" s="139"/>
-      <c r="J487" s="139"/>
-      <c r="K487" s="151"/>
-      <c r="L487" s="151"/>
-      <c r="M487" s="151"/>
-      <c r="N487" s="151"/>
-      <c r="O487" s="151"/>
-      <c r="P487" s="151"/>
-      <c r="Q487" s="151"/>
-      <c r="R487" s="151"/>
-      <c r="S487" s="151"/>
-      <c r="T487" s="151"/>
-      <c r="U487" s="152" t="s">
+      <c r="G487" s="136"/>
+      <c r="H487" s="136"/>
+      <c r="I487" s="136"/>
+      <c r="J487" s="136"/>
+      <c r="K487" s="135"/>
+      <c r="L487" s="135"/>
+      <c r="M487" s="135"/>
+      <c r="N487" s="135"/>
+      <c r="O487" s="135"/>
+      <c r="P487" s="135"/>
+      <c r="Q487" s="135"/>
+      <c r="R487" s="135"/>
+      <c r="S487" s="135"/>
+      <c r="T487" s="135"/>
+      <c r="U487" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V487" s="153"/>
+      <c r="V487" s="144"/>
       <c r="W487" s="43"/>
     </row>
     <row r="488" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11513,11 +11523,11 @@
       <c r="D490" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E490" s="137" t="s">
+      <c r="E490" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F490" s="138"/>
-      <c r="G490" s="138"/>
+      <c r="F490" s="126"/>
+      <c r="G490" s="126"/>
       <c r="I490" s="18"/>
       <c r="J490" s="154" t="s">
         <v>201</v>
@@ -11541,11 +11551,11 @@
       <c r="D491" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="137" t="s">
+      <c r="E491" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F491" s="138"/>
-      <c r="G491" s="138"/>
+      <c r="F491" s="126"/>
+      <c r="G491" s="126"/>
       <c r="I491" s="18"/>
       <c r="J491" s="51"/>
       <c r="K491" s="58"/>
@@ -11560,11 +11570,11 @@
       <c r="D492" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E492" s="137" t="s">
+      <c r="E492" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F492" s="138"/>
-      <c r="G492" s="138"/>
+      <c r="F492" s="126"/>
+      <c r="G492" s="126"/>
       <c r="I492" s="18"/>
       <c r="V492" s="78"/>
       <c r="W492" s="20"/>
@@ -11574,11 +11584,11 @@
       <c r="D493" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E493" s="137" t="s">
+      <c r="E493" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F493" s="138"/>
-      <c r="G493" s="138"/>
+      <c r="F493" s="126"/>
+      <c r="G493" s="126"/>
       <c r="I493" s="18" t="s">
         <v>35</v>
       </c>
@@ -11600,11 +11610,11 @@
       <c r="D494" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E494" s="140" t="s">
+      <c r="E494" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="F494" s="141"/>
-      <c r="G494" s="141"/>
+      <c r="F494" s="128"/>
+      <c r="G494" s="128"/>
       <c r="I494" s="18"/>
       <c r="L494" s="82"/>
       <c r="M494" s="88" t="s">
@@ -11748,75 +11758,75 @@
       <c r="W508" s="20"/>
     </row>
     <row r="509" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C509" s="128" t="s">
+      <c r="C509" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D509" s="128"/>
-      <c r="E509" s="128"/>
-      <c r="F509" s="128"/>
-      <c r="G509" s="128"/>
-      <c r="H509" s="128"/>
-      <c r="I509" s="128"/>
-      <c r="J509" s="128"/>
-      <c r="K509" s="128"/>
-      <c r="L509" s="128"/>
-      <c r="M509" s="128"/>
-      <c r="N509" s="128"/>
-      <c r="O509" s="128"/>
-      <c r="P509" s="128"/>
-      <c r="Q509" s="128"/>
-      <c r="R509" s="128"/>
-      <c r="S509" s="128"/>
-      <c r="T509" s="128"/>
-      <c r="U509" s="128"/>
-      <c r="V509" s="128"/>
-      <c r="W509" s="128"/>
+      <c r="D509" s="129"/>
+      <c r="E509" s="129"/>
+      <c r="F509" s="129"/>
+      <c r="G509" s="129"/>
+      <c r="H509" s="129"/>
+      <c r="I509" s="129"/>
+      <c r="J509" s="129"/>
+      <c r="K509" s="129"/>
+      <c r="L509" s="129"/>
+      <c r="M509" s="129"/>
+      <c r="N509" s="129"/>
+      <c r="O509" s="129"/>
+      <c r="P509" s="129"/>
+      <c r="Q509" s="129"/>
+      <c r="R509" s="129"/>
+      <c r="S509" s="129"/>
+      <c r="T509" s="129"/>
+      <c r="U509" s="129"/>
+      <c r="V509" s="129"/>
+      <c r="W509" s="129"/>
     </row>
     <row r="510" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C510" s="128"/>
-      <c r="D510" s="128"/>
-      <c r="E510" s="128"/>
-      <c r="F510" s="128"/>
-      <c r="G510" s="128"/>
-      <c r="H510" s="128"/>
-      <c r="I510" s="128"/>
-      <c r="J510" s="128"/>
-      <c r="K510" s="128"/>
-      <c r="L510" s="128"/>
-      <c r="M510" s="128"/>
-      <c r="N510" s="128"/>
-      <c r="O510" s="128"/>
-      <c r="P510" s="128"/>
-      <c r="Q510" s="128"/>
-      <c r="R510" s="128"/>
-      <c r="S510" s="128"/>
-      <c r="T510" s="128"/>
-      <c r="U510" s="128"/>
-      <c r="V510" s="128"/>
-      <c r="W510" s="128"/>
+      <c r="C510" s="129"/>
+      <c r="D510" s="129"/>
+      <c r="E510" s="129"/>
+      <c r="F510" s="129"/>
+      <c r="G510" s="129"/>
+      <c r="H510" s="129"/>
+      <c r="I510" s="129"/>
+      <c r="J510" s="129"/>
+      <c r="K510" s="129"/>
+      <c r="L510" s="129"/>
+      <c r="M510" s="129"/>
+      <c r="N510" s="129"/>
+      <c r="O510" s="129"/>
+      <c r="P510" s="129"/>
+      <c r="Q510" s="129"/>
+      <c r="R510" s="129"/>
+      <c r="S510" s="129"/>
+      <c r="T510" s="129"/>
+      <c r="U510" s="129"/>
+      <c r="V510" s="129"/>
+      <c r="W510" s="129"/>
     </row>
     <row r="511" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C511" s="128"/>
-      <c r="D511" s="128"/>
-      <c r="E511" s="128"/>
-      <c r="F511" s="128"/>
-      <c r="G511" s="128"/>
-      <c r="H511" s="128"/>
-      <c r="I511" s="128"/>
-      <c r="J511" s="128"/>
-      <c r="K511" s="128"/>
-      <c r="L511" s="128"/>
-      <c r="M511" s="128"/>
-      <c r="N511" s="128"/>
-      <c r="O511" s="128"/>
-      <c r="P511" s="128"/>
-      <c r="Q511" s="128"/>
-      <c r="R511" s="128"/>
-      <c r="S511" s="128"/>
-      <c r="T511" s="128"/>
-      <c r="U511" s="128"/>
-      <c r="V511" s="128"/>
-      <c r="W511" s="128"/>
+      <c r="C511" s="129"/>
+      <c r="D511" s="129"/>
+      <c r="E511" s="129"/>
+      <c r="F511" s="129"/>
+      <c r="G511" s="129"/>
+      <c r="H511" s="129"/>
+      <c r="I511" s="129"/>
+      <c r="J511" s="129"/>
+      <c r="K511" s="129"/>
+      <c r="L511" s="129"/>
+      <c r="M511" s="129"/>
+      <c r="N511" s="129"/>
+      <c r="O511" s="129"/>
+      <c r="P511" s="129"/>
+      <c r="Q511" s="129"/>
+      <c r="R511" s="129"/>
+      <c r="S511" s="129"/>
+      <c r="T511" s="129"/>
+      <c r="U511" s="129"/>
+      <c r="V511" s="129"/>
+      <c r="W511" s="129"/>
     </row>
     <row r="514" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B514" s="61" t="s">
@@ -11825,11 +11835,11 @@
     </row>
     <row r="516" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C516" s="38"/>
-      <c r="D516" s="128" t="s">
+      <c r="D516" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E516" s="128"/>
-      <c r="F516" s="128"/>
+      <c r="E516" s="129"/>
+      <c r="F516" s="129"/>
       <c r="G516" s="32"/>
       <c r="H516" s="37"/>
       <c r="I516" s="37"/>
@@ -11850,25 +11860,25 @@
     </row>
     <row r="517" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C517" s="39"/>
-      <c r="D517" s="128"/>
-      <c r="E517" s="128"/>
-      <c r="F517" s="128"/>
+      <c r="D517" s="129"/>
+      <c r="E517" s="129"/>
+      <c r="F517" s="129"/>
       <c r="G517" s="45"/>
       <c r="H517" s="33"/>
       <c r="I517" s="33"/>
       <c r="J517" s="33"/>
-      <c r="K517" s="151" t="s">
+      <c r="K517" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="L517" s="151"/>
-      <c r="M517" s="151"/>
-      <c r="N517" s="151"/>
-      <c r="O517" s="151"/>
-      <c r="P517" s="151"/>
-      <c r="Q517" s="151"/>
-      <c r="R517" s="151"/>
-      <c r="S517" s="151"/>
-      <c r="T517" s="151"/>
+      <c r="L517" s="135"/>
+      <c r="M517" s="135"/>
+      <c r="N517" s="135"/>
+      <c r="O517" s="135"/>
+      <c r="P517" s="135"/>
+      <c r="Q517" s="135"/>
+      <c r="R517" s="135"/>
+      <c r="S517" s="135"/>
+      <c r="T517" s="135"/>
       <c r="U517" s="33"/>
       <c r="V517" s="33"/>
       <c r="W517" s="43"/>
@@ -11877,27 +11887,27 @@
       <c r="C518" s="39"/>
       <c r="D518" s="34"/>
       <c r="E518" s="35"/>
-      <c r="F518" s="139" t="s">
+      <c r="F518" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G518" s="139"/>
-      <c r="H518" s="139"/>
-      <c r="I518" s="139"/>
-      <c r="J518" s="139"/>
-      <c r="K518" s="151"/>
-      <c r="L518" s="151"/>
-      <c r="M518" s="151"/>
-      <c r="N518" s="151"/>
-      <c r="O518" s="151"/>
-      <c r="P518" s="151"/>
-      <c r="Q518" s="151"/>
-      <c r="R518" s="151"/>
-      <c r="S518" s="151"/>
-      <c r="T518" s="151"/>
-      <c r="U518" s="152" t="s">
+      <c r="G518" s="136"/>
+      <c r="H518" s="136"/>
+      <c r="I518" s="136"/>
+      <c r="J518" s="136"/>
+      <c r="K518" s="135"/>
+      <c r="L518" s="135"/>
+      <c r="M518" s="135"/>
+      <c r="N518" s="135"/>
+      <c r="O518" s="135"/>
+      <c r="P518" s="135"/>
+      <c r="Q518" s="135"/>
+      <c r="R518" s="135"/>
+      <c r="S518" s="135"/>
+      <c r="T518" s="135"/>
+      <c r="U518" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="V518" s="153"/>
+      <c r="V518" s="144"/>
       <c r="W518" s="43"/>
     </row>
     <row r="519" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11951,11 +11961,11 @@
       <c r="D521" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E521" s="137" t="s">
+      <c r="E521" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F521" s="138"/>
-      <c r="G521" s="138"/>
+      <c r="F521" s="126"/>
+      <c r="G521" s="126"/>
       <c r="I521" s="18"/>
       <c r="J521" s="154"/>
       <c r="K521" s="154"/>
@@ -11977,11 +11987,11 @@
       <c r="D522" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E522" s="137" t="s">
+      <c r="E522" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F522" s="138"/>
-      <c r="G522" s="138"/>
+      <c r="F522" s="126"/>
+      <c r="G522" s="126"/>
       <c r="I522" s="18"/>
       <c r="J522" s="51"/>
       <c r="K522" s="58"/>
@@ -11996,11 +12006,11 @@
       <c r="D523" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E523" s="137" t="s">
+      <c r="E523" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F523" s="138"/>
-      <c r="G523" s="138"/>
+      <c r="F523" s="126"/>
+      <c r="G523" s="126"/>
       <c r="I523" s="18"/>
       <c r="V523" s="78"/>
       <c r="W523" s="20"/>
@@ -12010,11 +12020,11 @@
       <c r="D524" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E524" s="137" t="s">
+      <c r="E524" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F524" s="138"/>
-      <c r="G524" s="138"/>
+      <c r="F524" s="126"/>
+      <c r="G524" s="126"/>
       <c r="I524" s="18" t="s">
         <v>35</v>
       </c>
@@ -12036,11 +12046,11 @@
       <c r="D525" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E525" s="137" t="s">
+      <c r="E525" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="F525" s="138"/>
-      <c r="G525" s="138"/>
+      <c r="F525" s="126"/>
+      <c r="G525" s="126"/>
       <c r="I525" s="18"/>
       <c r="L525" s="82"/>
       <c r="M525" s="88" t="s">
@@ -12184,78 +12194,440 @@
       <c r="W539" s="20"/>
     </row>
     <row r="540" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C540" s="128" t="s">
+      <c r="C540" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="D540" s="128"/>
-      <c r="E540" s="128"/>
-      <c r="F540" s="128"/>
-      <c r="G540" s="128"/>
-      <c r="H540" s="128"/>
-      <c r="I540" s="128"/>
-      <c r="J540" s="128"/>
-      <c r="K540" s="128"/>
-      <c r="L540" s="128"/>
-      <c r="M540" s="128"/>
-      <c r="N540" s="128"/>
-      <c r="O540" s="128"/>
-      <c r="P540" s="128"/>
-      <c r="Q540" s="128"/>
-      <c r="R540" s="128"/>
-      <c r="S540" s="128"/>
-      <c r="T540" s="128"/>
-      <c r="U540" s="128"/>
-      <c r="V540" s="128"/>
-      <c r="W540" s="128"/>
+      <c r="D540" s="129"/>
+      <c r="E540" s="129"/>
+      <c r="F540" s="129"/>
+      <c r="G540" s="129"/>
+      <c r="H540" s="129"/>
+      <c r="I540" s="129"/>
+      <c r="J540" s="129"/>
+      <c r="K540" s="129"/>
+      <c r="L540" s="129"/>
+      <c r="M540" s="129"/>
+      <c r="N540" s="129"/>
+      <c r="O540" s="129"/>
+      <c r="P540" s="129"/>
+      <c r="Q540" s="129"/>
+      <c r="R540" s="129"/>
+      <c r="S540" s="129"/>
+      <c r="T540" s="129"/>
+      <c r="U540" s="129"/>
+      <c r="V540" s="129"/>
+      <c r="W540" s="129"/>
     </row>
     <row r="541" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C541" s="128"/>
-      <c r="D541" s="128"/>
-      <c r="E541" s="128"/>
-      <c r="F541" s="128"/>
-      <c r="G541" s="128"/>
-      <c r="H541" s="128"/>
-      <c r="I541" s="128"/>
-      <c r="J541" s="128"/>
-      <c r="K541" s="128"/>
-      <c r="L541" s="128"/>
-      <c r="M541" s="128"/>
-      <c r="N541" s="128"/>
-      <c r="O541" s="128"/>
-      <c r="P541" s="128"/>
-      <c r="Q541" s="128"/>
-      <c r="R541" s="128"/>
-      <c r="S541" s="128"/>
-      <c r="T541" s="128"/>
-      <c r="U541" s="128"/>
-      <c r="V541" s="128"/>
-      <c r="W541" s="128"/>
+      <c r="C541" s="129"/>
+      <c r="D541" s="129"/>
+      <c r="E541" s="129"/>
+      <c r="F541" s="129"/>
+      <c r="G541" s="129"/>
+      <c r="H541" s="129"/>
+      <c r="I541" s="129"/>
+      <c r="J541" s="129"/>
+      <c r="K541" s="129"/>
+      <c r="L541" s="129"/>
+      <c r="M541" s="129"/>
+      <c r="N541" s="129"/>
+      <c r="O541" s="129"/>
+      <c r="P541" s="129"/>
+      <c r="Q541" s="129"/>
+      <c r="R541" s="129"/>
+      <c r="S541" s="129"/>
+      <c r="T541" s="129"/>
+      <c r="U541" s="129"/>
+      <c r="V541" s="129"/>
+      <c r="W541" s="129"/>
     </row>
     <row r="542" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C542" s="128"/>
-      <c r="D542" s="128"/>
-      <c r="E542" s="128"/>
-      <c r="F542" s="128"/>
-      <c r="G542" s="128"/>
-      <c r="H542" s="128"/>
-      <c r="I542" s="128"/>
-      <c r="J542" s="128"/>
-      <c r="K542" s="128"/>
-      <c r="L542" s="128"/>
-      <c r="M542" s="128"/>
-      <c r="N542" s="128"/>
-      <c r="O542" s="128"/>
-      <c r="P542" s="128"/>
-      <c r="Q542" s="128"/>
-      <c r="R542" s="128"/>
-      <c r="S542" s="128"/>
-      <c r="T542" s="128"/>
-      <c r="U542" s="128"/>
-      <c r="V542" s="128"/>
-      <c r="W542" s="128"/>
+      <c r="C542" s="129"/>
+      <c r="D542" s="129"/>
+      <c r="E542" s="129"/>
+      <c r="F542" s="129"/>
+      <c r="G542" s="129"/>
+      <c r="H542" s="129"/>
+      <c r="I542" s="129"/>
+      <c r="J542" s="129"/>
+      <c r="K542" s="129"/>
+      <c r="L542" s="129"/>
+      <c r="M542" s="129"/>
+      <c r="N542" s="129"/>
+      <c r="O542" s="129"/>
+      <c r="P542" s="129"/>
+      <c r="Q542" s="129"/>
+      <c r="R542" s="129"/>
+      <c r="S542" s="129"/>
+      <c r="T542" s="129"/>
+      <c r="U542" s="129"/>
+      <c r="V542" s="129"/>
+      <c r="W542" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="386">
+    <mergeCell ref="L313:M313"/>
+    <mergeCell ref="N313:O313"/>
+    <mergeCell ref="C321:W323"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="L307:M307"/>
+    <mergeCell ref="N307:O307"/>
+    <mergeCell ref="L306:M306"/>
+    <mergeCell ref="N306:O306"/>
+    <mergeCell ref="B1:W2"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="D108:F109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="D170:F171"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="L308:M308"/>
+    <mergeCell ref="N308:O308"/>
+    <mergeCell ref="L309:M309"/>
+    <mergeCell ref="N309:O309"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
+    <mergeCell ref="E274:G274"/>
+    <mergeCell ref="E275:G275"/>
+    <mergeCell ref="C290:W292"/>
+    <mergeCell ref="N249:S249"/>
+    <mergeCell ref="E305:G305"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="Q304:R304"/>
+    <mergeCell ref="N251:S252"/>
+    <mergeCell ref="N254:S254"/>
+    <mergeCell ref="Q256:R256"/>
+    <mergeCell ref="C260:W262"/>
+    <mergeCell ref="D266:F267"/>
+    <mergeCell ref="K267:T268"/>
+    <mergeCell ref="F268:J268"/>
+    <mergeCell ref="U268:V268"/>
+    <mergeCell ref="E271:G271"/>
+    <mergeCell ref="J271:U271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="E273:G273"/>
+    <mergeCell ref="T306:U306"/>
+    <mergeCell ref="D297:F298"/>
+    <mergeCell ref="K298:T299"/>
+    <mergeCell ref="F299:J299"/>
+    <mergeCell ref="U299:V299"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="N210:S210"/>
+    <mergeCell ref="N212:S212"/>
+    <mergeCell ref="N214:S214"/>
+    <mergeCell ref="C226:W228"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="K234:T235"/>
+    <mergeCell ref="F235:J235"/>
+    <mergeCell ref="U235:V235"/>
+    <mergeCell ref="N216:S216"/>
+    <mergeCell ref="N218:S219"/>
+    <mergeCell ref="N221:S221"/>
+    <mergeCell ref="Q223:R223"/>
+    <mergeCell ref="C194:W196"/>
+    <mergeCell ref="D200:F201"/>
+    <mergeCell ref="K201:T202"/>
+    <mergeCell ref="F202:J202"/>
+    <mergeCell ref="U202:V202"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="J205:U205"/>
+    <mergeCell ref="E206:G206"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="J143:U143"/>
+    <mergeCell ref="K171:T172"/>
+    <mergeCell ref="U172:V172"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="L186:M186"/>
+    <mergeCell ref="N186:O186"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="L184:M184"/>
+    <mergeCell ref="N184:O184"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="N185:O185"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L182:M182"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="N181:O181"/>
+    <mergeCell ref="C162:W164"/>
+    <mergeCell ref="J113:U113"/>
+    <mergeCell ref="N118:S118"/>
+    <mergeCell ref="N120:S120"/>
+    <mergeCell ref="N122:S122"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="C132:W134"/>
+    <mergeCell ref="D138:F139"/>
+    <mergeCell ref="K139:T140"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="K18:T19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="K109:T110"/>
+    <mergeCell ref="C71:W73"/>
+    <mergeCell ref="J52:U52"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C41:W43"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="K48:T49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="U140:V140"/>
+    <mergeCell ref="C101:W103"/>
+    <mergeCell ref="N91:S91"/>
+    <mergeCell ref="N87:S87"/>
+    <mergeCell ref="N89:S89"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D77:F78"/>
+    <mergeCell ref="K78:T79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="J82:U82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="L189:M189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="J175:U175"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="M177:P177"/>
+    <mergeCell ref="U177:V177"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="T179:U179"/>
+    <mergeCell ref="R179:S179"/>
+    <mergeCell ref="R180:S180"/>
+    <mergeCell ref="R181:S181"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="R183:S183"/>
+    <mergeCell ref="R184:S184"/>
+    <mergeCell ref="R185:S185"/>
+    <mergeCell ref="R186:S186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="D327:F328"/>
+    <mergeCell ref="K328:T329"/>
+    <mergeCell ref="F329:J329"/>
+    <mergeCell ref="U329:V329"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="J332:U332"/>
+    <mergeCell ref="E333:G333"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="J302:U302"/>
+    <mergeCell ref="E303:G303"/>
+    <mergeCell ref="E304:G304"/>
+    <mergeCell ref="M304:P304"/>
+    <mergeCell ref="U304:V304"/>
+    <mergeCell ref="E238:G238"/>
+    <mergeCell ref="J238:U238"/>
+    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="N243:S243"/>
+    <mergeCell ref="N245:S245"/>
+    <mergeCell ref="N247:S247"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="E335:G335"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="E367:G367"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="N371:S371"/>
+    <mergeCell ref="N373:S373"/>
+    <mergeCell ref="J366:U366"/>
+    <mergeCell ref="E369:G369"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="N337:S337"/>
+    <mergeCell ref="N339:S339"/>
+    <mergeCell ref="N341:S341"/>
+    <mergeCell ref="Q351:R351"/>
+    <mergeCell ref="C354:W356"/>
+    <mergeCell ref="D361:F362"/>
+    <mergeCell ref="K362:T363"/>
+    <mergeCell ref="F363:J363"/>
+    <mergeCell ref="U363:V363"/>
+    <mergeCell ref="N345:S345"/>
+    <mergeCell ref="N347:S347"/>
+    <mergeCell ref="E430:G430"/>
+    <mergeCell ref="J430:U430"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="E433:G433"/>
+    <mergeCell ref="E434:G434"/>
+    <mergeCell ref="T434:U434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="M434:N434"/>
+    <mergeCell ref="K426:T427"/>
+    <mergeCell ref="F427:J427"/>
+    <mergeCell ref="E399:G399"/>
+    <mergeCell ref="J399:U399"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="E401:G401"/>
+    <mergeCell ref="E402:G402"/>
+    <mergeCell ref="E403:G403"/>
+    <mergeCell ref="C418:W420"/>
+    <mergeCell ref="D485:F486"/>
+    <mergeCell ref="K486:T487"/>
+    <mergeCell ref="F487:J487"/>
+    <mergeCell ref="U487:V487"/>
+    <mergeCell ref="C449:W451"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="M439:N439"/>
+    <mergeCell ref="M440:N440"/>
+    <mergeCell ref="M441:N441"/>
+    <mergeCell ref="M442:N442"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="O440:P440"/>
+    <mergeCell ref="O441:P441"/>
+    <mergeCell ref="O442:P442"/>
+    <mergeCell ref="O443:P443"/>
+    <mergeCell ref="O444:P444"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="U457:V457"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="J460:U460"/>
+    <mergeCell ref="E461:G461"/>
+    <mergeCell ref="E462:G462"/>
+    <mergeCell ref="K517:T518"/>
+    <mergeCell ref="F518:J518"/>
+    <mergeCell ref="U518:V518"/>
+    <mergeCell ref="E521:G521"/>
+    <mergeCell ref="J521:U521"/>
+    <mergeCell ref="C509:W511"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="E491:G491"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="J490:U490"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="E522:G522"/>
+    <mergeCell ref="E523:G523"/>
+    <mergeCell ref="E524:G524"/>
+    <mergeCell ref="E525:G525"/>
+    <mergeCell ref="C540:W542"/>
+    <mergeCell ref="R306:S306"/>
+    <mergeCell ref="R307:S307"/>
+    <mergeCell ref="R308:S308"/>
+    <mergeCell ref="R309:S309"/>
+    <mergeCell ref="R310:S310"/>
+    <mergeCell ref="R311:S311"/>
+    <mergeCell ref="R312:S312"/>
+    <mergeCell ref="R313:S313"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="R314:S314"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="R315:S315"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="R316:S316"/>
+    <mergeCell ref="N343:S343"/>
+    <mergeCell ref="D516:F517"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="M438:N438"/>
+    <mergeCell ref="N375:S375"/>
+    <mergeCell ref="N377:S377"/>
+    <mergeCell ref="C388:W390"/>
+    <mergeCell ref="D394:F395"/>
+    <mergeCell ref="K395:T396"/>
+    <mergeCell ref="F396:J396"/>
+    <mergeCell ref="U396:V396"/>
+    <mergeCell ref="N379:S379"/>
+    <mergeCell ref="N381:S381"/>
+    <mergeCell ref="Q385:R385"/>
+    <mergeCell ref="Q436:S436"/>
+    <mergeCell ref="Q437:S437"/>
+    <mergeCell ref="Q438:S438"/>
+    <mergeCell ref="Q435:S435"/>
+    <mergeCell ref="U427:V427"/>
+    <mergeCell ref="D425:F426"/>
     <mergeCell ref="E463:G463"/>
     <mergeCell ref="E464:G464"/>
     <mergeCell ref="C479:W481"/>
@@ -12280,368 +12652,6 @@
     <mergeCell ref="K435:L435"/>
     <mergeCell ref="K436:L436"/>
     <mergeCell ref="K437:L437"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="M435:N435"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="M438:N438"/>
-    <mergeCell ref="N375:S375"/>
-    <mergeCell ref="N377:S377"/>
-    <mergeCell ref="C388:W390"/>
-    <mergeCell ref="D394:F395"/>
-    <mergeCell ref="K395:T396"/>
-    <mergeCell ref="F396:J396"/>
-    <mergeCell ref="U396:V396"/>
-    <mergeCell ref="N379:S379"/>
-    <mergeCell ref="N381:S381"/>
-    <mergeCell ref="Q385:R385"/>
-    <mergeCell ref="Q436:S436"/>
-    <mergeCell ref="Q437:S437"/>
-    <mergeCell ref="Q438:S438"/>
-    <mergeCell ref="Q435:S435"/>
-    <mergeCell ref="U427:V427"/>
-    <mergeCell ref="D425:F426"/>
-    <mergeCell ref="E522:G522"/>
-    <mergeCell ref="E523:G523"/>
-    <mergeCell ref="E524:G524"/>
-    <mergeCell ref="E525:G525"/>
-    <mergeCell ref="C540:W542"/>
-    <mergeCell ref="R306:S306"/>
-    <mergeCell ref="R307:S307"/>
-    <mergeCell ref="R308:S308"/>
-    <mergeCell ref="R309:S309"/>
-    <mergeCell ref="R310:S310"/>
-    <mergeCell ref="R311:S311"/>
-    <mergeCell ref="R312:S312"/>
-    <mergeCell ref="R313:S313"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="R314:S314"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="R315:S315"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="R316:S316"/>
-    <mergeCell ref="N343:S343"/>
-    <mergeCell ref="D516:F517"/>
-    <mergeCell ref="K517:T518"/>
-    <mergeCell ref="F518:J518"/>
-    <mergeCell ref="U518:V518"/>
-    <mergeCell ref="E521:G521"/>
-    <mergeCell ref="J521:U521"/>
-    <mergeCell ref="C509:W511"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="E491:G491"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="J490:U490"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="D485:F486"/>
-    <mergeCell ref="K486:T487"/>
-    <mergeCell ref="F487:J487"/>
-    <mergeCell ref="U487:V487"/>
-    <mergeCell ref="C449:W451"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="M439:N439"/>
-    <mergeCell ref="M440:N440"/>
-    <mergeCell ref="M441:N441"/>
-    <mergeCell ref="M442:N442"/>
-    <mergeCell ref="M443:N443"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="O440:P440"/>
-    <mergeCell ref="O441:P441"/>
-    <mergeCell ref="O442:P442"/>
-    <mergeCell ref="O443:P443"/>
-    <mergeCell ref="O444:P444"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="U457:V457"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="J460:U460"/>
-    <mergeCell ref="E461:G461"/>
-    <mergeCell ref="E462:G462"/>
-    <mergeCell ref="K426:T427"/>
-    <mergeCell ref="F427:J427"/>
-    <mergeCell ref="E399:G399"/>
-    <mergeCell ref="J399:U399"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="E401:G401"/>
-    <mergeCell ref="E402:G402"/>
-    <mergeCell ref="E403:G403"/>
-    <mergeCell ref="C418:W420"/>
-    <mergeCell ref="E430:G430"/>
-    <mergeCell ref="J430:U430"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="E433:G433"/>
-    <mergeCell ref="E434:G434"/>
-    <mergeCell ref="T434:U434"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="M434:N434"/>
-    <mergeCell ref="E334:G334"/>
-    <mergeCell ref="E335:G335"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="E367:G367"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="N371:S371"/>
-    <mergeCell ref="N373:S373"/>
-    <mergeCell ref="J366:U366"/>
-    <mergeCell ref="E369:G369"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="N337:S337"/>
-    <mergeCell ref="N339:S339"/>
-    <mergeCell ref="N341:S341"/>
-    <mergeCell ref="Q351:R351"/>
-    <mergeCell ref="C354:W356"/>
-    <mergeCell ref="D361:F362"/>
-    <mergeCell ref="K362:T363"/>
-    <mergeCell ref="F363:J363"/>
-    <mergeCell ref="U363:V363"/>
-    <mergeCell ref="N345:S345"/>
-    <mergeCell ref="N347:S347"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="D327:F328"/>
-    <mergeCell ref="K328:T329"/>
-    <mergeCell ref="F329:J329"/>
-    <mergeCell ref="U329:V329"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="J332:U332"/>
-    <mergeCell ref="E333:G333"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="J302:U302"/>
-    <mergeCell ref="E303:G303"/>
-    <mergeCell ref="E304:G304"/>
-    <mergeCell ref="M304:P304"/>
-    <mergeCell ref="U304:V304"/>
-    <mergeCell ref="E238:G238"/>
-    <mergeCell ref="J238:U238"/>
-    <mergeCell ref="E239:G239"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="E242:G242"/>
-    <mergeCell ref="N243:S243"/>
-    <mergeCell ref="N245:S245"/>
-    <mergeCell ref="N247:S247"/>
-    <mergeCell ref="N187:O187"/>
-    <mergeCell ref="L188:M188"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="J175:U175"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="M177:P177"/>
-    <mergeCell ref="U177:V177"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="T179:U179"/>
-    <mergeCell ref="R179:S179"/>
-    <mergeCell ref="R180:S180"/>
-    <mergeCell ref="R181:S181"/>
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="R183:S183"/>
-    <mergeCell ref="R184:S184"/>
-    <mergeCell ref="R185:S185"/>
-    <mergeCell ref="R186:S186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="U140:V140"/>
-    <mergeCell ref="C101:W103"/>
-    <mergeCell ref="N91:S91"/>
-    <mergeCell ref="N87:S87"/>
-    <mergeCell ref="N89:S89"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D77:F78"/>
-    <mergeCell ref="K78:T79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="J82:U82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="K18:T19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="K109:T110"/>
-    <mergeCell ref="C71:W73"/>
-    <mergeCell ref="J52:U52"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="C41:W43"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="K48:T49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="J113:U113"/>
-    <mergeCell ref="N118:S118"/>
-    <mergeCell ref="N120:S120"/>
-    <mergeCell ref="N122:S122"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="C132:W134"/>
-    <mergeCell ref="D138:F139"/>
-    <mergeCell ref="K139:T140"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="J143:U143"/>
-    <mergeCell ref="K171:T172"/>
-    <mergeCell ref="U172:V172"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="L186:M186"/>
-    <mergeCell ref="N186:O186"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="L184:M184"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="F172:J172"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L182:M182"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="N181:O181"/>
-    <mergeCell ref="C162:W164"/>
-    <mergeCell ref="C194:W196"/>
-    <mergeCell ref="D200:F201"/>
-    <mergeCell ref="K201:T202"/>
-    <mergeCell ref="F202:J202"/>
-    <mergeCell ref="U202:V202"/>
-    <mergeCell ref="E205:G205"/>
-    <mergeCell ref="J205:U205"/>
-    <mergeCell ref="E206:G206"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="N210:S210"/>
-    <mergeCell ref="N212:S212"/>
-    <mergeCell ref="N214:S214"/>
-    <mergeCell ref="C226:W228"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="K234:T235"/>
-    <mergeCell ref="F235:J235"/>
-    <mergeCell ref="U235:V235"/>
-    <mergeCell ref="N216:S216"/>
-    <mergeCell ref="N218:S219"/>
-    <mergeCell ref="N221:S221"/>
-    <mergeCell ref="Q223:R223"/>
-    <mergeCell ref="E274:G274"/>
-    <mergeCell ref="E275:G275"/>
-    <mergeCell ref="C290:W292"/>
-    <mergeCell ref="N249:S249"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="E306:G306"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="N251:S252"/>
-    <mergeCell ref="N254:S254"/>
-    <mergeCell ref="Q256:R256"/>
-    <mergeCell ref="C260:W262"/>
-    <mergeCell ref="D266:F267"/>
-    <mergeCell ref="K267:T268"/>
-    <mergeCell ref="F268:J268"/>
-    <mergeCell ref="U268:V268"/>
-    <mergeCell ref="E271:G271"/>
-    <mergeCell ref="J271:U271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="E273:G273"/>
-    <mergeCell ref="T306:U306"/>
-    <mergeCell ref="D297:F298"/>
-    <mergeCell ref="K298:T299"/>
-    <mergeCell ref="F299:J299"/>
-    <mergeCell ref="U299:V299"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="L308:M308"/>
-    <mergeCell ref="N308:O308"/>
-    <mergeCell ref="L309:M309"/>
-    <mergeCell ref="N309:O309"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="L313:M313"/>
-    <mergeCell ref="N313:O313"/>
-    <mergeCell ref="C321:W323"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="L307:M307"/>
-    <mergeCell ref="N307:O307"/>
-    <mergeCell ref="L306:M306"/>
-    <mergeCell ref="N306:O306"/>
-    <mergeCell ref="B1:W2"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="D108:F109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="E146:G146"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="D170:F171"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N379" r:id="rId1" xr:uid="{E053F441-E71D-4498-8F28-1B7D069BA239}"/>
@@ -12668,8 +12678,8 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12683,21 +12693,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -12738,7 +12748,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="172" t="s">
         <v>224</v>
       </c>
       <c r="C6" s="100" t="s">
@@ -12753,7 +12763,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="172"/>
+      <c r="B7" s="173"/>
       <c r="C7" s="115"/>
       <c r="D7" s="96" t="s">
         <v>8</v>
@@ -12764,7 +12774,7 @@
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="172"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="115"/>
       <c r="D8" s="99" t="s">
         <v>247</v>
@@ -12775,7 +12785,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="115"/>
       <c r="D9" s="97" t="s">
         <v>7</v>
@@ -12786,7 +12796,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="172"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="106" t="s">
         <v>9</v>
       </c>
@@ -13115,7 +13125,7 @@
       <c r="D34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="175" t="s">
+      <c r="E34" s="124" t="s">
         <v>275</v>
       </c>
       <c r="F34" s="7"/>
@@ -13128,7 +13138,7 @@
       <c r="D35" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="176" t="s">
         <v>276</v>
       </c>
       <c r="F35" s="7"/>
@@ -13154,7 +13164,7 @@
       <c r="D37" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="E37" s="98" t="s">
+      <c r="E37" s="176" t="s">
         <v>279</v>
       </c>
       <c r="F37" s="7"/>
@@ -13315,27 +13325,27 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119"/>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
       <c r="I1" s="119"/>
       <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="119"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
     </row>

--- a/Project-Layout (3).xlsx
+++ b/Project-Layout (3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocthu6778gmail.com/Desktop/Probject-JS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D9589-E696-2C43-98DC-F508F87C03F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7710E63-2769-294B-B8DE-91C00C2D0F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5140" yWindow="760" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout - Giao diện" sheetId="6" r:id="rId1"/>
@@ -2165,11 +2165,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2177,107 +2218,11 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2291,14 +2236,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2312,9 +2315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2536,8 +2536,8 @@
   </sheetPr>
   <dimension ref="B1:W542"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C294" zoomScale="143" workbookViewId="0">
-      <selection activeCell="V306" sqref="V306"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E425" zoomScale="143" workbookViewId="0">
+      <selection activeCell="Q444" sqref="Q444:S444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2550,54 +2550,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
@@ -2618,15 +2618,15 @@
     </row>
     <row r="6" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="18"/>
-      <c r="D6" s="158" t="s">
+      <c r="D6" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
       <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2669,10 +2669,10 @@
     </row>
     <row r="12" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="18"/>
-      <c r="H12" s="169" t="s">
+      <c r="H12" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="170"/>
+      <c r="I12" s="138"/>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2694,11 +2694,11 @@
     </row>
     <row r="17" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="38"/>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
       <c r="G17" s="32"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
@@ -2719,25 +2719,25 @@
     </row>
     <row r="18" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="39"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="45"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="135" t="s">
+      <c r="K18" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
       <c r="W18" s="43"/>
@@ -2746,27 +2746,27 @@
       <c r="C19" s="39"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
-      <c r="F19" s="136" t="s">
+      <c r="F19" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="143" t="s">
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="144"/>
+      <c r="V19" s="155"/>
       <c r="W19" s="43"/>
     </row>
     <row r="20" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2820,11 +2820,11 @@
       <c r="D22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="159" t="s">
+      <c r="E22" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
       <c r="I22" s="18"/>
       <c r="J22" s="53" t="s">
         <v>42</v>
@@ -2849,11 +2849,11 @@
       <c r="D23" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
       <c r="I23" s="18"/>
       <c r="J23" s="51"/>
       <c r="K23" s="58" t="s">
@@ -2872,11 +2872,11 @@
       <c r="D24" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="125" t="s">
+      <c r="E24" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
       <c r="I24" s="18"/>
       <c r="J24" s="55" t="s">
         <v>42</v>
@@ -2894,11 +2894,11 @@
       <c r="D25" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="125" t="s">
+      <c r="E25" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
       <c r="I25" s="18" t="s">
         <v>35</v>
       </c>
@@ -2918,11 +2918,11 @@
       <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
       <c r="I26" s="18"/>
       <c r="J26" s="51"/>
       <c r="K26" s="59" t="s">
@@ -3092,75 +3092,75 @@
       <c r="W40" s="20"/>
     </row>
     <row r="41" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="129"/>
-      <c r="T41" s="129"/>
-      <c r="U41" s="129"/>
-      <c r="V41" s="129"/>
-      <c r="W41" s="129"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="130"/>
+      <c r="T41" s="130"/>
+      <c r="U41" s="130"/>
+      <c r="V41" s="130"/>
+      <c r="W41" s="130"/>
     </row>
     <row r="42" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="129"/>
-      <c r="P42" s="129"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="129"/>
-      <c r="T42" s="129"/>
-      <c r="U42" s="129"/>
-      <c r="V42" s="129"/>
-      <c r="W42" s="129"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="130"/>
+      <c r="P42" s="130"/>
+      <c r="Q42" s="130"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="130"/>
+      <c r="U42" s="130"/>
+      <c r="V42" s="130"/>
+      <c r="W42" s="130"/>
     </row>
     <row r="43" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="129"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
-      <c r="W43" s="129"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="130"/>
+      <c r="O43" s="130"/>
+      <c r="P43" s="130"/>
+      <c r="Q43" s="130"/>
+      <c r="R43" s="130"/>
+      <c r="S43" s="130"/>
+      <c r="T43" s="130"/>
+      <c r="U43" s="130"/>
+      <c r="V43" s="130"/>
+      <c r="W43" s="130"/>
     </row>
     <row r="45" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="61" t="s">
@@ -3169,11 +3169,11 @@
     </row>
     <row r="47" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C47" s="38"/>
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
       <c r="G47" s="32"/>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
@@ -3194,25 +3194,25 @@
     </row>
     <row r="48" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C48" s="39"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="45"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="135" t="s">
+      <c r="K48" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
-      <c r="N48" s="135"/>
-      <c r="O48" s="135"/>
-      <c r="P48" s="135"/>
-      <c r="Q48" s="135"/>
-      <c r="R48" s="135"/>
-      <c r="S48" s="135"/>
-      <c r="T48" s="135"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
+      <c r="N48" s="153"/>
+      <c r="O48" s="153"/>
+      <c r="P48" s="153"/>
+      <c r="Q48" s="153"/>
+      <c r="R48" s="153"/>
+      <c r="S48" s="153"/>
+      <c r="T48" s="153"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
       <c r="W48" s="43"/>
@@ -3221,27 +3221,27 @@
       <c r="C49" s="39"/>
       <c r="D49" s="34"/>
       <c r="E49" s="35"/>
-      <c r="F49" s="136" t="s">
+      <c r="F49" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
-      <c r="N49" s="135"/>
-      <c r="O49" s="135"/>
-      <c r="P49" s="135"/>
-      <c r="Q49" s="135"/>
-      <c r="R49" s="135"/>
-      <c r="S49" s="135"/>
-      <c r="T49" s="135"/>
-      <c r="U49" s="143" t="s">
+      <c r="G49" s="141"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="141"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="153"/>
+      <c r="R49" s="153"/>
+      <c r="S49" s="153"/>
+      <c r="T49" s="153"/>
+      <c r="U49" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V49" s="144"/>
+      <c r="V49" s="155"/>
       <c r="W49" s="43"/>
     </row>
     <row r="50" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3295,26 +3295,26 @@
       <c r="D52" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="125" t="s">
+      <c r="E52" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="154" t="s">
+      <c r="J52" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="K52" s="154"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154"/>
-      <c r="S52" s="154"/>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
       <c r="V52" s="20"/>
       <c r="W52" s="20"/>
     </row>
@@ -3323,11 +3323,11 @@
       <c r="D53" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="127" t="s">
+      <c r="E53" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
       <c r="I53" s="18"/>
       <c r="J53" s="51"/>
       <c r="K53" s="58"/>
@@ -3342,35 +3342,35 @@
       <c r="D54" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="125" t="s">
+      <c r="E54" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="161" t="s">
+      <c r="J54" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="162"/>
+      <c r="K54" s="132"/>
       <c r="L54" s="66"/>
-      <c r="M54" s="130" t="s">
+      <c r="M54" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="N54" s="148"/>
-      <c r="O54" s="148"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="163" t="s">
+      <c r="N54" s="151"/>
+      <c r="O54" s="151"/>
+      <c r="P54" s="151"/>
+      <c r="Q54" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="164"/>
+      <c r="R54" s="147"/>
       <c r="S54" s="64"/>
       <c r="T54" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U54" s="131" t="s">
+      <c r="U54" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="V54" s="157"/>
+      <c r="V54" s="161"/>
       <c r="W54" s="20"/>
     </row>
     <row r="55" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -3378,11 +3378,11 @@
       <c r="D55" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="125" t="s">
+      <c r="E55" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
       <c r="I55" s="18" t="s">
         <v>35</v>
       </c>
@@ -3398,36 +3398,36 @@
       <c r="D56" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="125" t="s">
+      <c r="E56" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
       <c r="I56" s="18"/>
       <c r="J56" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="155" t="s">
+      <c r="K56" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="L56" s="155"/>
-      <c r="M56" s="139" t="s">
+      <c r="L56" s="162"/>
+      <c r="M56" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="N56" s="139"/>
-      <c r="O56" s="139"/>
+      <c r="N56" s="157"/>
+      <c r="O56" s="157"/>
       <c r="P56" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="Q56" s="139" t="s">
+      <c r="Q56" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="R56" s="139"/>
-      <c r="S56" s="139"/>
-      <c r="T56" s="139" t="s">
+      <c r="R56" s="157"/>
+      <c r="S56" s="157"/>
+      <c r="T56" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="U56" s="139"/>
+      <c r="U56" s="157"/>
       <c r="V56" s="20"/>
       <c r="W56" s="20"/>
     </row>
@@ -3437,23 +3437,23 @@
       <c r="J57" s="67">
         <v>1</v>
       </c>
-      <c r="K57" s="141" t="s">
+      <c r="K57" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="141"/>
-      <c r="M57" s="138" t="s">
+      <c r="L57" s="163"/>
+      <c r="M57" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="N57" s="142"/>
-      <c r="O57" s="142"/>
+      <c r="N57" s="145"/>
+      <c r="O57" s="145"/>
       <c r="P57" s="70">
         <v>1000</v>
       </c>
-      <c r="Q57" s="138" t="s">
+      <c r="Q57" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R57" s="138"/>
-      <c r="S57" s="138"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="144"/>
       <c r="T57" s="73" t="s">
         <v>27</v>
       </c>
@@ -3470,23 +3470,23 @@
       <c r="J58" s="67">
         <v>2</v>
       </c>
-      <c r="K58" s="141" t="s">
+      <c r="K58" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="L58" s="141"/>
-      <c r="M58" s="138" t="s">
+      <c r="L58" s="163"/>
+      <c r="M58" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="N58" s="142"/>
-      <c r="O58" s="142"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
       <c r="P58" s="70">
         <v>2000</v>
       </c>
-      <c r="Q58" s="138" t="s">
+      <c r="Q58" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="R58" s="138"/>
-      <c r="S58" s="138"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="144"/>
       <c r="T58" s="73" t="s">
         <v>27</v>
       </c>
@@ -3502,23 +3502,23 @@
       <c r="J59" s="67">
         <v>3</v>
       </c>
-      <c r="K59" s="141" t="s">
+      <c r="K59" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="L59" s="141"/>
-      <c r="M59" s="138" t="s">
+      <c r="L59" s="163"/>
+      <c r="M59" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="N59" s="142"/>
-      <c r="O59" s="142"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
       <c r="P59" s="70">
         <v>1500</v>
       </c>
-      <c r="Q59" s="138" t="s">
+      <c r="Q59" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R59" s="138"/>
-      <c r="S59" s="138"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="144"/>
       <c r="T59" s="73" t="s">
         <v>27</v>
       </c>
@@ -3534,23 +3534,23 @@
       <c r="J60" s="67">
         <v>4</v>
       </c>
-      <c r="K60" s="141" t="s">
+      <c r="K60" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="L60" s="141"/>
-      <c r="M60" s="138" t="s">
+      <c r="L60" s="163"/>
+      <c r="M60" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="N60" s="142"/>
-      <c r="O60" s="142"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
       <c r="P60" s="70">
         <v>1000</v>
       </c>
-      <c r="Q60" s="138" t="s">
+      <c r="Q60" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R60" s="138"/>
-      <c r="S60" s="138"/>
+      <c r="R60" s="144"/>
+      <c r="S60" s="144"/>
       <c r="T60" s="73" t="s">
         <v>27</v>
       </c>
@@ -3566,23 +3566,23 @@
       <c r="J61" s="67">
         <v>5</v>
       </c>
-      <c r="K61" s="141" t="s">
+      <c r="K61" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="L61" s="141"/>
-      <c r="M61" s="138" t="s">
+      <c r="L61" s="163"/>
+      <c r="M61" s="144" t="s">
         <v>71</v>
       </c>
-      <c r="N61" s="142"/>
-      <c r="O61" s="142"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
       <c r="P61" s="70">
         <v>1000</v>
       </c>
-      <c r="Q61" s="138" t="s">
+      <c r="Q61" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="138"/>
-      <c r="S61" s="138"/>
+      <c r="R61" s="144"/>
+      <c r="S61" s="144"/>
       <c r="T61" s="73" t="s">
         <v>27</v>
       </c>
@@ -3598,23 +3598,23 @@
       <c r="J62" s="67">
         <v>6</v>
       </c>
-      <c r="K62" s="141" t="s">
+      <c r="K62" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="L62" s="141"/>
-      <c r="M62" s="138" t="s">
+      <c r="L62" s="163"/>
+      <c r="M62" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="N62" s="142"/>
-      <c r="O62" s="142"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
       <c r="P62" s="70">
         <v>1000</v>
       </c>
-      <c r="Q62" s="138" t="s">
+      <c r="Q62" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R62" s="138"/>
-      <c r="S62" s="138"/>
+      <c r="R62" s="144"/>
+      <c r="S62" s="144"/>
       <c r="T62" s="73" t="s">
         <v>27</v>
       </c>
@@ -3630,23 +3630,23 @@
       <c r="J63" s="67">
         <v>7</v>
       </c>
-      <c r="K63" s="141" t="s">
+      <c r="K63" s="163" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="141"/>
-      <c r="M63" s="138" t="s">
+      <c r="L63" s="163"/>
+      <c r="M63" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="N63" s="142"/>
-      <c r="O63" s="142"/>
+      <c r="N63" s="145"/>
+      <c r="O63" s="145"/>
       <c r="P63" s="70">
         <v>1000</v>
       </c>
-      <c r="Q63" s="138" t="s">
+      <c r="Q63" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R63" s="138"/>
-      <c r="S63" s="138"/>
+      <c r="R63" s="144"/>
+      <c r="S63" s="144"/>
       <c r="T63" s="73" t="s">
         <v>27</v>
       </c>
@@ -3662,23 +3662,23 @@
       <c r="J64" s="67">
         <v>8</v>
       </c>
-      <c r="K64" s="141" t="s">
+      <c r="K64" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="L64" s="141"/>
-      <c r="M64" s="138" t="s">
+      <c r="L64" s="163"/>
+      <c r="M64" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="N64" s="142"/>
-      <c r="O64" s="142"/>
+      <c r="N64" s="145"/>
+      <c r="O64" s="145"/>
       <c r="P64" s="70">
         <v>1000</v>
       </c>
-      <c r="Q64" s="138" t="s">
+      <c r="Q64" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R64" s="138"/>
-      <c r="S64" s="138"/>
+      <c r="R64" s="144"/>
+      <c r="S64" s="144"/>
       <c r="T64" s="73" t="s">
         <v>27</v>
       </c>
@@ -3694,23 +3694,23 @@
       <c r="J65" s="67">
         <v>9</v>
       </c>
-      <c r="K65" s="141" t="s">
+      <c r="K65" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="L65" s="141"/>
-      <c r="M65" s="138" t="s">
+      <c r="L65" s="163"/>
+      <c r="M65" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="N65" s="142"/>
-      <c r="O65" s="142"/>
+      <c r="N65" s="145"/>
+      <c r="O65" s="145"/>
       <c r="P65" s="70">
         <v>1000</v>
       </c>
-      <c r="Q65" s="138" t="s">
+      <c r="Q65" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R65" s="138"/>
-      <c r="S65" s="138"/>
+      <c r="R65" s="144"/>
+      <c r="S65" s="144"/>
       <c r="T65" s="73" t="s">
         <v>27</v>
       </c>
@@ -3726,23 +3726,23 @@
       <c r="J66" s="67">
         <v>10</v>
       </c>
-      <c r="K66" s="141" t="s">
+      <c r="K66" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="L66" s="141"/>
-      <c r="M66" s="138" t="s">
+      <c r="L66" s="163"/>
+      <c r="M66" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="N66" s="142"/>
-      <c r="O66" s="142"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="145"/>
       <c r="P66" s="70">
         <v>1000</v>
       </c>
-      <c r="Q66" s="138" t="s">
+      <c r="Q66" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="R66" s="138"/>
-      <c r="S66" s="138"/>
+      <c r="R66" s="144"/>
+      <c r="S66" s="144"/>
       <c r="T66" s="73" t="s">
         <v>27</v>
       </c>
@@ -3807,75 +3807,75 @@
       <c r="W70" s="20"/>
     </row>
     <row r="71" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C71" s="129" t="s">
+      <c r="C71" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-      <c r="F71" s="129"/>
-      <c r="G71" s="129"/>
-      <c r="H71" s="129"/>
-      <c r="I71" s="129"/>
-      <c r="J71" s="129"/>
-      <c r="K71" s="129"/>
-      <c r="L71" s="129"/>
-      <c r="M71" s="129"/>
-      <c r="N71" s="129"/>
-      <c r="O71" s="129"/>
-      <c r="P71" s="129"/>
-      <c r="Q71" s="129"/>
-      <c r="R71" s="129"/>
-      <c r="S71" s="129"/>
-      <c r="T71" s="129"/>
-      <c r="U71" s="129"/>
-      <c r="V71" s="129"/>
-      <c r="W71" s="129"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="130"/>
+      <c r="N71" s="130"/>
+      <c r="O71" s="130"/>
+      <c r="P71" s="130"/>
+      <c r="Q71" s="130"/>
+      <c r="R71" s="130"/>
+      <c r="S71" s="130"/>
+      <c r="T71" s="130"/>
+      <c r="U71" s="130"/>
+      <c r="V71" s="130"/>
+      <c r="W71" s="130"/>
     </row>
     <row r="72" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C72" s="129"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="129"/>
-      <c r="H72" s="129"/>
-      <c r="I72" s="129"/>
-      <c r="J72" s="129"/>
-      <c r="K72" s="129"/>
-      <c r="L72" s="129"/>
-      <c r="M72" s="129"/>
-      <c r="N72" s="129"/>
-      <c r="O72" s="129"/>
-      <c r="P72" s="129"/>
-      <c r="Q72" s="129"/>
-      <c r="R72" s="129"/>
-      <c r="S72" s="129"/>
-      <c r="T72" s="129"/>
-      <c r="U72" s="129"/>
-      <c r="V72" s="129"/>
-      <c r="W72" s="129"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="130"/>
+      <c r="O72" s="130"/>
+      <c r="P72" s="130"/>
+      <c r="Q72" s="130"/>
+      <c r="R72" s="130"/>
+      <c r="S72" s="130"/>
+      <c r="T72" s="130"/>
+      <c r="U72" s="130"/>
+      <c r="V72" s="130"/>
+      <c r="W72" s="130"/>
     </row>
     <row r="73" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C73" s="129"/>
-      <c r="D73" s="129"/>
-      <c r="E73" s="129"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="129"/>
-      <c r="H73" s="129"/>
-      <c r="I73" s="129"/>
-      <c r="J73" s="129"/>
-      <c r="K73" s="129"/>
-      <c r="L73" s="129"/>
-      <c r="M73" s="129"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="129"/>
-      <c r="P73" s="129"/>
-      <c r="Q73" s="129"/>
-      <c r="R73" s="129"/>
-      <c r="S73" s="129"/>
-      <c r="T73" s="129"/>
-      <c r="U73" s="129"/>
-      <c r="V73" s="129"/>
-      <c r="W73" s="129"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+      <c r="S73" s="130"/>
+      <c r="T73" s="130"/>
+      <c r="U73" s="130"/>
+      <c r="V73" s="130"/>
+      <c r="W73" s="130"/>
     </row>
     <row r="74" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C74" s="45"/>
@@ -3908,11 +3908,11 @@
     <row r="76" spans="3:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C77" s="38"/>
-      <c r="D77" s="129" t="s">
+      <c r="D77" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="129"/>
-      <c r="F77" s="129"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="130"/>
       <c r="G77" s="32"/>
       <c r="H77" s="37"/>
       <c r="I77" s="37"/>
@@ -3933,25 +3933,25 @@
     </row>
     <row r="78" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C78" s="39"/>
-      <c r="D78" s="129"/>
-      <c r="E78" s="129"/>
-      <c r="F78" s="129"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
       <c r="G78" s="45"/>
       <c r="H78" s="33"/>
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
-      <c r="K78" s="135" t="s">
+      <c r="K78" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L78" s="135"/>
-      <c r="M78" s="135"/>
-      <c r="N78" s="135"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="135"/>
-      <c r="Q78" s="135"/>
-      <c r="R78" s="135"/>
-      <c r="S78" s="135"/>
-      <c r="T78" s="135"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="153"/>
+      <c r="N78" s="153"/>
+      <c r="O78" s="153"/>
+      <c r="P78" s="153"/>
+      <c r="Q78" s="153"/>
+      <c r="R78" s="153"/>
+      <c r="S78" s="153"/>
+      <c r="T78" s="153"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
       <c r="W78" s="43"/>
@@ -3960,27 +3960,27 @@
       <c r="C79" s="39"/>
       <c r="D79" s="34"/>
       <c r="E79" s="35"/>
-      <c r="F79" s="136" t="s">
+      <c r="F79" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G79" s="136"/>
-      <c r="H79" s="136"/>
-      <c r="I79" s="136"/>
-      <c r="J79" s="136"/>
-      <c r="K79" s="135"/>
-      <c r="L79" s="135"/>
-      <c r="M79" s="135"/>
-      <c r="N79" s="135"/>
-      <c r="O79" s="135"/>
-      <c r="P79" s="135"/>
-      <c r="Q79" s="135"/>
-      <c r="R79" s="135"/>
-      <c r="S79" s="135"/>
-      <c r="T79" s="135"/>
-      <c r="U79" s="143" t="s">
+      <c r="G79" s="141"/>
+      <c r="H79" s="141"/>
+      <c r="I79" s="141"/>
+      <c r="J79" s="141"/>
+      <c r="K79" s="153"/>
+      <c r="L79" s="153"/>
+      <c r="M79" s="153"/>
+      <c r="N79" s="153"/>
+      <c r="O79" s="153"/>
+      <c r="P79" s="153"/>
+      <c r="Q79" s="153"/>
+      <c r="R79" s="153"/>
+      <c r="S79" s="153"/>
+      <c r="T79" s="153"/>
+      <c r="U79" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V79" s="144"/>
+      <c r="V79" s="155"/>
       <c r="W79" s="43"/>
     </row>
     <row r="80" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4034,26 +4034,26 @@
       <c r="D82" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="125" t="s">
+      <c r="E82" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="154" t="s">
+      <c r="J82" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="K82" s="154"/>
-      <c r="L82" s="154"/>
-      <c r="M82" s="154"/>
-      <c r="N82" s="154"/>
-      <c r="O82" s="154"/>
-      <c r="P82" s="154"/>
-      <c r="Q82" s="154"/>
-      <c r="R82" s="154"/>
-      <c r="S82" s="154"/>
-      <c r="T82" s="154"/>
-      <c r="U82" s="154"/>
+      <c r="K82" s="156"/>
+      <c r="L82" s="156"/>
+      <c r="M82" s="156"/>
+      <c r="N82" s="156"/>
+      <c r="O82" s="156"/>
+      <c r="P82" s="156"/>
+      <c r="Q82" s="156"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="156"/>
+      <c r="T82" s="156"/>
+      <c r="U82" s="156"/>
       <c r="V82" s="77"/>
       <c r="W82" s="20"/>
     </row>
@@ -4062,11 +4062,11 @@
       <c r="D83" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="127" t="s">
+      <c r="E83" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
+      <c r="F83" s="143"/>
+      <c r="G83" s="143"/>
       <c r="I83" s="18"/>
       <c r="J83" s="51"/>
       <c r="K83" s="58"/>
@@ -4081,11 +4081,11 @@
       <c r="D84" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E84" s="125" t="s">
+      <c r="E84" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="126"/>
-      <c r="G84" s="126"/>
+      <c r="F84" s="140"/>
+      <c r="G84" s="140"/>
       <c r="I84" s="18"/>
       <c r="K84" s="81"/>
       <c r="L84" s="80"/>
@@ -4107,11 +4107,11 @@
       <c r="D85" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="125" t="s">
+      <c r="E85" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
+      <c r="F85" s="140"/>
+      <c r="G85" s="140"/>
       <c r="I85" s="18" t="s">
         <v>35</v>
       </c>
@@ -4128,11 +4128,11 @@
       <c r="D86" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E86" s="125" t="s">
+      <c r="E86" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
       <c r="I86" s="18"/>
       <c r="K86" s="82"/>
       <c r="T86" s="78"/>
@@ -4146,14 +4146,14 @@
       <c r="L87" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N87" s="138" t="s">
+      <c r="N87" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="O87" s="142"/>
-      <c r="P87" s="142"/>
-      <c r="Q87" s="142"/>
-      <c r="R87" s="142"/>
-      <c r="S87" s="142"/>
+      <c r="O87" s="145"/>
+      <c r="P87" s="145"/>
+      <c r="Q87" s="145"/>
+      <c r="R87" s="145"/>
+      <c r="S87" s="145"/>
       <c r="T87" s="78"/>
       <c r="V87" s="78"/>
       <c r="W87" s="20"/>
@@ -4173,14 +4173,14 @@
       <c r="L89" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N89" s="138" t="s">
+      <c r="N89" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="O89" s="142"/>
-      <c r="P89" s="142"/>
-      <c r="Q89" s="142"/>
-      <c r="R89" s="142"/>
-      <c r="S89" s="142"/>
+      <c r="O89" s="145"/>
+      <c r="P89" s="145"/>
+      <c r="Q89" s="145"/>
+      <c r="R89" s="145"/>
+      <c r="S89" s="145"/>
       <c r="T89" s="78"/>
       <c r="V89" s="78"/>
       <c r="W89" s="20"/>
@@ -4200,14 +4200,14 @@
       <c r="L91" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N91" s="138" t="s">
+      <c r="N91" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="O91" s="142"/>
-      <c r="P91" s="142"/>
-      <c r="Q91" s="142"/>
-      <c r="R91" s="142"/>
-      <c r="S91" s="142"/>
+      <c r="O91" s="145"/>
+      <c r="P91" s="145"/>
+      <c r="Q91" s="145"/>
+      <c r="R91" s="145"/>
+      <c r="S91" s="145"/>
       <c r="T91" s="78"/>
       <c r="V91" s="78"/>
       <c r="W91" s="20"/>
@@ -4264,10 +4264,10 @@
       <c r="P96" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q96" s="149" t="s">
+      <c r="Q96" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R96" s="149"/>
+      <c r="R96" s="152"/>
       <c r="T96" s="78"/>
       <c r="V96" s="78"/>
       <c r="W96" s="20"/>
@@ -4321,75 +4321,75 @@
       <c r="W100" s="20"/>
     </row>
     <row r="101" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C101" s="129" t="s">
+      <c r="C101" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="129"/>
-      <c r="E101" s="129"/>
-      <c r="F101" s="129"/>
-      <c r="G101" s="129"/>
-      <c r="H101" s="129"/>
-      <c r="I101" s="129"/>
-      <c r="J101" s="129"/>
-      <c r="K101" s="129"/>
-      <c r="L101" s="129"/>
-      <c r="M101" s="129"/>
-      <c r="N101" s="129"/>
-      <c r="O101" s="129"/>
-      <c r="P101" s="129"/>
-      <c r="Q101" s="129"/>
-      <c r="R101" s="129"/>
-      <c r="S101" s="129"/>
-      <c r="T101" s="129"/>
-      <c r="U101" s="129"/>
-      <c r="V101" s="129"/>
-      <c r="W101" s="129"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="130"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="130"/>
+      <c r="I101" s="130"/>
+      <c r="J101" s="130"/>
+      <c r="K101" s="130"/>
+      <c r="L101" s="130"/>
+      <c r="M101" s="130"/>
+      <c r="N101" s="130"/>
+      <c r="O101" s="130"/>
+      <c r="P101" s="130"/>
+      <c r="Q101" s="130"/>
+      <c r="R101" s="130"/>
+      <c r="S101" s="130"/>
+      <c r="T101" s="130"/>
+      <c r="U101" s="130"/>
+      <c r="V101" s="130"/>
+      <c r="W101" s="130"/>
     </row>
     <row r="102" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C102" s="129"/>
-      <c r="D102" s="129"/>
-      <c r="E102" s="129"/>
-      <c r="F102" s="129"/>
-      <c r="G102" s="129"/>
-      <c r="H102" s="129"/>
-      <c r="I102" s="129"/>
-      <c r="J102" s="129"/>
-      <c r="K102" s="129"/>
-      <c r="L102" s="129"/>
-      <c r="M102" s="129"/>
-      <c r="N102" s="129"/>
-      <c r="O102" s="129"/>
-      <c r="P102" s="129"/>
-      <c r="Q102" s="129"/>
-      <c r="R102" s="129"/>
-      <c r="S102" s="129"/>
-      <c r="T102" s="129"/>
-      <c r="U102" s="129"/>
-      <c r="V102" s="129"/>
-      <c r="W102" s="129"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="130"/>
+      <c r="G102" s="130"/>
+      <c r="H102" s="130"/>
+      <c r="I102" s="130"/>
+      <c r="J102" s="130"/>
+      <c r="K102" s="130"/>
+      <c r="L102" s="130"/>
+      <c r="M102" s="130"/>
+      <c r="N102" s="130"/>
+      <c r="O102" s="130"/>
+      <c r="P102" s="130"/>
+      <c r="Q102" s="130"/>
+      <c r="R102" s="130"/>
+      <c r="S102" s="130"/>
+      <c r="T102" s="130"/>
+      <c r="U102" s="130"/>
+      <c r="V102" s="130"/>
+      <c r="W102" s="130"/>
     </row>
     <row r="103" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
-      <c r="F103" s="129"/>
-      <c r="G103" s="129"/>
-      <c r="H103" s="129"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="129"/>
-      <c r="L103" s="129"/>
-      <c r="M103" s="129"/>
-      <c r="N103" s="129"/>
-      <c r="O103" s="129"/>
-      <c r="P103" s="129"/>
-      <c r="Q103" s="129"/>
-      <c r="R103" s="129"/>
-      <c r="S103" s="129"/>
-      <c r="T103" s="129"/>
-      <c r="U103" s="129"/>
-      <c r="V103" s="129"/>
-      <c r="W103" s="129"/>
+      <c r="C103" s="130"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="130"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="130"/>
+      <c r="I103" s="130"/>
+      <c r="J103" s="130"/>
+      <c r="K103" s="130"/>
+      <c r="L103" s="130"/>
+      <c r="M103" s="130"/>
+      <c r="N103" s="130"/>
+      <c r="O103" s="130"/>
+      <c r="P103" s="130"/>
+      <c r="Q103" s="130"/>
+      <c r="R103" s="130"/>
+      <c r="S103" s="130"/>
+      <c r="T103" s="130"/>
+      <c r="U103" s="130"/>
+      <c r="V103" s="130"/>
+      <c r="W103" s="130"/>
     </row>
     <row r="104" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C104" s="30"/>
@@ -4445,11 +4445,11 @@
     <row r="107" spans="3:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="38"/>
-      <c r="D108" s="129" t="s">
+      <c r="D108" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E108" s="129"/>
-      <c r="F108" s="129"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="130"/>
       <c r="G108" s="32"/>
       <c r="H108" s="37"/>
       <c r="I108" s="37"/>
@@ -4470,25 +4470,25 @@
     </row>
     <row r="109" spans="3:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C109" s="39"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="129"/>
-      <c r="F109" s="129"/>
+      <c r="D109" s="130"/>
+      <c r="E109" s="130"/>
+      <c r="F109" s="130"/>
       <c r="G109" s="45"/>
       <c r="H109" s="33"/>
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
-      <c r="K109" s="135" t="s">
+      <c r="K109" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L109" s="135"/>
-      <c r="M109" s="135"/>
-      <c r="N109" s="135"/>
-      <c r="O109" s="135"/>
-      <c r="P109" s="135"/>
-      <c r="Q109" s="135"/>
-      <c r="R109" s="135"/>
-      <c r="S109" s="135"/>
-      <c r="T109" s="135"/>
+      <c r="L109" s="153"/>
+      <c r="M109" s="153"/>
+      <c r="N109" s="153"/>
+      <c r="O109" s="153"/>
+      <c r="P109" s="153"/>
+      <c r="Q109" s="153"/>
+      <c r="R109" s="153"/>
+      <c r="S109" s="153"/>
+      <c r="T109" s="153"/>
       <c r="U109" s="33"/>
       <c r="V109" s="33"/>
       <c r="W109" s="43"/>
@@ -4497,27 +4497,27 @@
       <c r="C110" s="39"/>
       <c r="D110" s="34"/>
       <c r="E110" s="35"/>
-      <c r="F110" s="136" t="s">
+      <c r="F110" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G110" s="136"/>
-      <c r="H110" s="136"/>
-      <c r="I110" s="136"/>
-      <c r="J110" s="136"/>
-      <c r="K110" s="135"/>
-      <c r="L110" s="135"/>
-      <c r="M110" s="135"/>
-      <c r="N110" s="135"/>
-      <c r="O110" s="135"/>
-      <c r="P110" s="135"/>
-      <c r="Q110" s="135"/>
-      <c r="R110" s="135"/>
-      <c r="S110" s="135"/>
-      <c r="T110" s="135"/>
-      <c r="U110" s="143" t="s">
+      <c r="G110" s="141"/>
+      <c r="H110" s="141"/>
+      <c r="I110" s="141"/>
+      <c r="J110" s="141"/>
+      <c r="K110" s="153"/>
+      <c r="L110" s="153"/>
+      <c r="M110" s="153"/>
+      <c r="N110" s="153"/>
+      <c r="O110" s="153"/>
+      <c r="P110" s="153"/>
+      <c r="Q110" s="153"/>
+      <c r="R110" s="153"/>
+      <c r="S110" s="153"/>
+      <c r="T110" s="153"/>
+      <c r="U110" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V110" s="144"/>
+      <c r="V110" s="155"/>
       <c r="W110" s="43"/>
     </row>
     <row r="111" spans="3:23" ht="13" x14ac:dyDescent="0.15">
@@ -4571,26 +4571,26 @@
       <c r="D113" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E113" s="125" t="s">
+      <c r="E113" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="126"/>
-      <c r="G113" s="126"/>
+      <c r="F113" s="140"/>
+      <c r="G113" s="140"/>
       <c r="I113" s="18"/>
-      <c r="J113" s="154" t="s">
+      <c r="J113" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="K113" s="154"/>
-      <c r="L113" s="154"/>
-      <c r="M113" s="154"/>
-      <c r="N113" s="154"/>
-      <c r="O113" s="154"/>
-      <c r="P113" s="154"/>
-      <c r="Q113" s="154"/>
-      <c r="R113" s="154"/>
-      <c r="S113" s="154"/>
-      <c r="T113" s="154"/>
-      <c r="U113" s="154"/>
+      <c r="K113" s="156"/>
+      <c r="L113" s="156"/>
+      <c r="M113" s="156"/>
+      <c r="N113" s="156"/>
+      <c r="O113" s="156"/>
+      <c r="P113" s="156"/>
+      <c r="Q113" s="156"/>
+      <c r="R113" s="156"/>
+      <c r="S113" s="156"/>
+      <c r="T113" s="156"/>
+      <c r="U113" s="156"/>
       <c r="V113" s="77"/>
       <c r="W113" s="20"/>
     </row>
@@ -4599,11 +4599,11 @@
       <c r="D114" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E114" s="127" t="s">
+      <c r="E114" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="F114" s="128"/>
-      <c r="G114" s="128"/>
+      <c r="F114" s="143"/>
+      <c r="G114" s="143"/>
       <c r="I114" s="18"/>
       <c r="J114" s="51"/>
       <c r="K114" s="58"/>
@@ -4618,11 +4618,11 @@
       <c r="D115" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E115" s="125" t="s">
+      <c r="E115" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="126"/>
-      <c r="G115" s="126"/>
+      <c r="F115" s="140"/>
+      <c r="G115" s="140"/>
       <c r="I115" s="18"/>
       <c r="K115" s="81"/>
       <c r="L115" s="80"/>
@@ -4644,11 +4644,11 @@
       <c r="D116" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E116" s="125" t="s">
+      <c r="E116" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F116" s="126"/>
-      <c r="G116" s="126"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="140"/>
       <c r="I116" s="18" t="s">
         <v>35</v>
       </c>
@@ -4665,11 +4665,11 @@
       <c r="D117" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E117" s="125" t="s">
+      <c r="E117" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F117" s="126"/>
-      <c r="G117" s="126"/>
+      <c r="F117" s="140"/>
+      <c r="G117" s="140"/>
       <c r="I117" s="18"/>
       <c r="K117" s="82"/>
       <c r="T117" s="78"/>
@@ -4683,14 +4683,14 @@
       <c r="L118" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="N118" s="138" t="s">
+      <c r="N118" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="O118" s="142"/>
-      <c r="P118" s="142"/>
-      <c r="Q118" s="142"/>
-      <c r="R118" s="142"/>
-      <c r="S118" s="142"/>
+      <c r="O118" s="145"/>
+      <c r="P118" s="145"/>
+      <c r="Q118" s="145"/>
+      <c r="R118" s="145"/>
+      <c r="S118" s="145"/>
       <c r="T118" s="78"/>
       <c r="V118" s="78"/>
       <c r="W118" s="20"/>
@@ -4710,14 +4710,14 @@
       <c r="L120" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="N120" s="138" t="s">
+      <c r="N120" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="O120" s="142"/>
-      <c r="P120" s="142"/>
-      <c r="Q120" s="142"/>
-      <c r="R120" s="142"/>
-      <c r="S120" s="142"/>
+      <c r="O120" s="145"/>
+      <c r="P120" s="145"/>
+      <c r="Q120" s="145"/>
+      <c r="R120" s="145"/>
+      <c r="S120" s="145"/>
       <c r="T120" s="78"/>
       <c r="V120" s="78"/>
       <c r="W120" s="20"/>
@@ -4737,14 +4737,14 @@
       <c r="L122" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="N122" s="138">
+      <c r="N122" s="144">
         <v>1000</v>
       </c>
-      <c r="O122" s="142"/>
-      <c r="P122" s="142"/>
-      <c r="Q122" s="142"/>
-      <c r="R122" s="142"/>
-      <c r="S122" s="142"/>
+      <c r="O122" s="145"/>
+      <c r="P122" s="145"/>
+      <c r="Q122" s="145"/>
+      <c r="R122" s="145"/>
+      <c r="S122" s="145"/>
       <c r="T122" s="78"/>
       <c r="V122" s="78"/>
       <c r="W122" s="20"/>
@@ -4801,10 +4801,10 @@
       <c r="P127" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q127" s="149" t="s">
+      <c r="Q127" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R127" s="149"/>
+      <c r="R127" s="152"/>
       <c r="T127" s="78"/>
       <c r="V127" s="78"/>
       <c r="W127" s="20"/>
@@ -4858,75 +4858,75 @@
       <c r="W131" s="20"/>
     </row>
     <row r="132" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C132" s="129" t="s">
+      <c r="C132" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D132" s="129"/>
-      <c r="E132" s="129"/>
-      <c r="F132" s="129"/>
-      <c r="G132" s="129"/>
-      <c r="H132" s="129"/>
-      <c r="I132" s="129"/>
-      <c r="J132" s="129"/>
-      <c r="K132" s="129"/>
-      <c r="L132" s="129"/>
-      <c r="M132" s="129"/>
-      <c r="N132" s="129"/>
-      <c r="O132" s="129"/>
-      <c r="P132" s="129"/>
-      <c r="Q132" s="129"/>
-      <c r="R132" s="129"/>
-      <c r="S132" s="129"/>
-      <c r="T132" s="129"/>
-      <c r="U132" s="129"/>
-      <c r="V132" s="129"/>
-      <c r="W132" s="129"/>
+      <c r="D132" s="130"/>
+      <c r="E132" s="130"/>
+      <c r="F132" s="130"/>
+      <c r="G132" s="130"/>
+      <c r="H132" s="130"/>
+      <c r="I132" s="130"/>
+      <c r="J132" s="130"/>
+      <c r="K132" s="130"/>
+      <c r="L132" s="130"/>
+      <c r="M132" s="130"/>
+      <c r="N132" s="130"/>
+      <c r="O132" s="130"/>
+      <c r="P132" s="130"/>
+      <c r="Q132" s="130"/>
+      <c r="R132" s="130"/>
+      <c r="S132" s="130"/>
+      <c r="T132" s="130"/>
+      <c r="U132" s="130"/>
+      <c r="V132" s="130"/>
+      <c r="W132" s="130"/>
     </row>
     <row r="133" spans="3:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C133" s="129"/>
-      <c r="D133" s="129"/>
-      <c r="E133" s="129"/>
-      <c r="F133" s="129"/>
-      <c r="G133" s="129"/>
-      <c r="H133" s="129"/>
-      <c r="I133" s="129"/>
-      <c r="J133" s="129"/>
-      <c r="K133" s="129"/>
-      <c r="L133" s="129"/>
-      <c r="M133" s="129"/>
-      <c r="N133" s="129"/>
-      <c r="O133" s="129"/>
-      <c r="P133" s="129"/>
-      <c r="Q133" s="129"/>
-      <c r="R133" s="129"/>
-      <c r="S133" s="129"/>
-      <c r="T133" s="129"/>
-      <c r="U133" s="129"/>
-      <c r="V133" s="129"/>
-      <c r="W133" s="129"/>
+      <c r="C133" s="130"/>
+      <c r="D133" s="130"/>
+      <c r="E133" s="130"/>
+      <c r="F133" s="130"/>
+      <c r="G133" s="130"/>
+      <c r="H133" s="130"/>
+      <c r="I133" s="130"/>
+      <c r="J133" s="130"/>
+      <c r="K133" s="130"/>
+      <c r="L133" s="130"/>
+      <c r="M133" s="130"/>
+      <c r="N133" s="130"/>
+      <c r="O133" s="130"/>
+      <c r="P133" s="130"/>
+      <c r="Q133" s="130"/>
+      <c r="R133" s="130"/>
+      <c r="S133" s="130"/>
+      <c r="T133" s="130"/>
+      <c r="U133" s="130"/>
+      <c r="V133" s="130"/>
+      <c r="W133" s="130"/>
     </row>
     <row r="134" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="129"/>
-      <c r="D134" s="129"/>
-      <c r="E134" s="129"/>
-      <c r="F134" s="129"/>
-      <c r="G134" s="129"/>
-      <c r="H134" s="129"/>
-      <c r="I134" s="129"/>
-      <c r="J134" s="129"/>
-      <c r="K134" s="129"/>
-      <c r="L134" s="129"/>
-      <c r="M134" s="129"/>
-      <c r="N134" s="129"/>
-      <c r="O134" s="129"/>
-      <c r="P134" s="129"/>
-      <c r="Q134" s="129"/>
-      <c r="R134" s="129"/>
-      <c r="S134" s="129"/>
-      <c r="T134" s="129"/>
-      <c r="U134" s="129"/>
-      <c r="V134" s="129"/>
-      <c r="W134" s="129"/>
+      <c r="C134" s="130"/>
+      <c r="D134" s="130"/>
+      <c r="E134" s="130"/>
+      <c r="F134" s="130"/>
+      <c r="G134" s="130"/>
+      <c r="H134" s="130"/>
+      <c r="I134" s="130"/>
+      <c r="J134" s="130"/>
+      <c r="K134" s="130"/>
+      <c r="L134" s="130"/>
+      <c r="M134" s="130"/>
+      <c r="N134" s="130"/>
+      <c r="O134" s="130"/>
+      <c r="P134" s="130"/>
+      <c r="Q134" s="130"/>
+      <c r="R134" s="130"/>
+      <c r="S134" s="130"/>
+      <c r="T134" s="130"/>
+      <c r="U134" s="130"/>
+      <c r="V134" s="130"/>
+      <c r="W134" s="130"/>
     </row>
     <row r="135" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="45"/>
@@ -4958,11 +4958,11 @@
     </row>
     <row r="138" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="38"/>
-      <c r="D138" s="129" t="s">
+      <c r="D138" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E138" s="129"/>
-      <c r="F138" s="129"/>
+      <c r="E138" s="130"/>
+      <c r="F138" s="130"/>
       <c r="G138" s="32"/>
       <c r="H138" s="37"/>
       <c r="I138" s="37"/>
@@ -4983,25 +4983,25 @@
     </row>
     <row r="139" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="39"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="129"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="130"/>
+      <c r="F139" s="130"/>
       <c r="G139" s="45"/>
       <c r="H139" s="33"/>
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
-      <c r="K139" s="135" t="s">
+      <c r="K139" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L139" s="135"/>
-      <c r="M139" s="135"/>
-      <c r="N139" s="135"/>
-      <c r="O139" s="135"/>
-      <c r="P139" s="135"/>
-      <c r="Q139" s="135"/>
-      <c r="R139" s="135"/>
-      <c r="S139" s="135"/>
-      <c r="T139" s="135"/>
+      <c r="L139" s="153"/>
+      <c r="M139" s="153"/>
+      <c r="N139" s="153"/>
+      <c r="O139" s="153"/>
+      <c r="P139" s="153"/>
+      <c r="Q139" s="153"/>
+      <c r="R139" s="153"/>
+      <c r="S139" s="153"/>
+      <c r="T139" s="153"/>
       <c r="U139" s="33"/>
       <c r="V139" s="33"/>
       <c r="W139" s="43"/>
@@ -5010,27 +5010,27 @@
       <c r="C140" s="39"/>
       <c r="D140" s="34"/>
       <c r="E140" s="35"/>
-      <c r="F140" s="136" t="s">
+      <c r="F140" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G140" s="136"/>
-      <c r="H140" s="136"/>
-      <c r="I140" s="136"/>
-      <c r="J140" s="136"/>
-      <c r="K140" s="135"/>
-      <c r="L140" s="135"/>
-      <c r="M140" s="135"/>
-      <c r="N140" s="135"/>
-      <c r="O140" s="135"/>
-      <c r="P140" s="135"/>
-      <c r="Q140" s="135"/>
-      <c r="R140" s="135"/>
-      <c r="S140" s="135"/>
-      <c r="T140" s="135"/>
-      <c r="U140" s="143" t="s">
+      <c r="G140" s="141"/>
+      <c r="H140" s="141"/>
+      <c r="I140" s="141"/>
+      <c r="J140" s="141"/>
+      <c r="K140" s="153"/>
+      <c r="L140" s="153"/>
+      <c r="M140" s="153"/>
+      <c r="N140" s="153"/>
+      <c r="O140" s="153"/>
+      <c r="P140" s="153"/>
+      <c r="Q140" s="153"/>
+      <c r="R140" s="153"/>
+      <c r="S140" s="153"/>
+      <c r="T140" s="153"/>
+      <c r="U140" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V140" s="144"/>
+      <c r="V140" s="155"/>
       <c r="W140" s="43"/>
     </row>
     <row r="141" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5084,26 +5084,26 @@
       <c r="D143" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E143" s="125" t="s">
+      <c r="E143" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F143" s="126"/>
-      <c r="G143" s="126"/>
+      <c r="F143" s="140"/>
+      <c r="G143" s="140"/>
       <c r="I143" s="18"/>
-      <c r="J143" s="154" t="s">
+      <c r="J143" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="K143" s="154"/>
-      <c r="L143" s="154"/>
-      <c r="M143" s="154"/>
-      <c r="N143" s="154"/>
-      <c r="O143" s="154"/>
-      <c r="P143" s="154"/>
-      <c r="Q143" s="154"/>
-      <c r="R143" s="154"/>
-      <c r="S143" s="154"/>
-      <c r="T143" s="154"/>
-      <c r="U143" s="154"/>
+      <c r="K143" s="156"/>
+      <c r="L143" s="156"/>
+      <c r="M143" s="156"/>
+      <c r="N143" s="156"/>
+      <c r="O143" s="156"/>
+      <c r="P143" s="156"/>
+      <c r="Q143" s="156"/>
+      <c r="R143" s="156"/>
+      <c r="S143" s="156"/>
+      <c r="T143" s="156"/>
+      <c r="U143" s="156"/>
       <c r="V143" s="77"/>
       <c r="W143" s="20"/>
     </row>
@@ -5112,11 +5112,11 @@
       <c r="D144" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E144" s="127" t="s">
+      <c r="E144" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="F144" s="128"/>
-      <c r="G144" s="128"/>
+      <c r="F144" s="143"/>
+      <c r="G144" s="143"/>
       <c r="I144" s="18"/>
       <c r="J144" s="51"/>
       <c r="K144" s="58"/>
@@ -5131,11 +5131,11 @@
       <c r="D145" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E145" s="125" t="s">
+      <c r="E145" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F145" s="126"/>
-      <c r="G145" s="126"/>
+      <c r="F145" s="140"/>
+      <c r="G145" s="140"/>
       <c r="I145" s="18"/>
       <c r="V145" s="78"/>
       <c r="W145" s="20"/>
@@ -5145,11 +5145,11 @@
       <c r="D146" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E146" s="125" t="s">
+      <c r="E146" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F146" s="126"/>
-      <c r="G146" s="126"/>
+      <c r="F146" s="140"/>
+      <c r="G146" s="140"/>
       <c r="I146" s="18" t="s">
         <v>35</v>
       </c>
@@ -5171,11 +5171,11 @@
       <c r="D147" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E147" s="125" t="s">
+      <c r="E147" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F147" s="126"/>
-      <c r="G147" s="126"/>
+      <c r="F147" s="140"/>
+      <c r="G147" s="140"/>
       <c r="I147" s="18"/>
       <c r="L147" s="82"/>
       <c r="M147" s="88" t="s">
@@ -5320,75 +5320,75 @@
       <c r="W161" s="20"/>
     </row>
     <row r="162" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="129" t="s">
+      <c r="C162" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D162" s="129"/>
-      <c r="E162" s="129"/>
-      <c r="F162" s="129"/>
-      <c r="G162" s="129"/>
-      <c r="H162" s="129"/>
-      <c r="I162" s="129"/>
-      <c r="J162" s="129"/>
-      <c r="K162" s="129"/>
-      <c r="L162" s="129"/>
-      <c r="M162" s="129"/>
-      <c r="N162" s="129"/>
-      <c r="O162" s="129"/>
-      <c r="P162" s="129"/>
-      <c r="Q162" s="129"/>
-      <c r="R162" s="129"/>
-      <c r="S162" s="129"/>
-      <c r="T162" s="129"/>
-      <c r="U162" s="129"/>
-      <c r="V162" s="129"/>
-      <c r="W162" s="129"/>
+      <c r="D162" s="130"/>
+      <c r="E162" s="130"/>
+      <c r="F162" s="130"/>
+      <c r="G162" s="130"/>
+      <c r="H162" s="130"/>
+      <c r="I162" s="130"/>
+      <c r="J162" s="130"/>
+      <c r="K162" s="130"/>
+      <c r="L162" s="130"/>
+      <c r="M162" s="130"/>
+      <c r="N162" s="130"/>
+      <c r="O162" s="130"/>
+      <c r="P162" s="130"/>
+      <c r="Q162" s="130"/>
+      <c r="R162" s="130"/>
+      <c r="S162" s="130"/>
+      <c r="T162" s="130"/>
+      <c r="U162" s="130"/>
+      <c r="V162" s="130"/>
+      <c r="W162" s="130"/>
     </row>
     <row r="163" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C163" s="129"/>
-      <c r="D163" s="129"/>
-      <c r="E163" s="129"/>
-      <c r="F163" s="129"/>
-      <c r="G163" s="129"/>
-      <c r="H163" s="129"/>
-      <c r="I163" s="129"/>
-      <c r="J163" s="129"/>
-      <c r="K163" s="129"/>
-      <c r="L163" s="129"/>
-      <c r="M163" s="129"/>
-      <c r="N163" s="129"/>
-      <c r="O163" s="129"/>
-      <c r="P163" s="129"/>
-      <c r="Q163" s="129"/>
-      <c r="R163" s="129"/>
-      <c r="S163" s="129"/>
-      <c r="T163" s="129"/>
-      <c r="U163" s="129"/>
-      <c r="V163" s="129"/>
-      <c r="W163" s="129"/>
+      <c r="C163" s="130"/>
+      <c r="D163" s="130"/>
+      <c r="E163" s="130"/>
+      <c r="F163" s="130"/>
+      <c r="G163" s="130"/>
+      <c r="H163" s="130"/>
+      <c r="I163" s="130"/>
+      <c r="J163" s="130"/>
+      <c r="K163" s="130"/>
+      <c r="L163" s="130"/>
+      <c r="M163" s="130"/>
+      <c r="N163" s="130"/>
+      <c r="O163" s="130"/>
+      <c r="P163" s="130"/>
+      <c r="Q163" s="130"/>
+      <c r="R163" s="130"/>
+      <c r="S163" s="130"/>
+      <c r="T163" s="130"/>
+      <c r="U163" s="130"/>
+      <c r="V163" s="130"/>
+      <c r="W163" s="130"/>
     </row>
     <row r="164" spans="2:23" ht="13" x14ac:dyDescent="0.15">
-      <c r="C164" s="129"/>
-      <c r="D164" s="129"/>
-      <c r="E164" s="129"/>
-      <c r="F164" s="129"/>
-      <c r="G164" s="129"/>
-      <c r="H164" s="129"/>
-      <c r="I164" s="129"/>
-      <c r="J164" s="129"/>
-      <c r="K164" s="129"/>
-      <c r="L164" s="129"/>
-      <c r="M164" s="129"/>
-      <c r="N164" s="129"/>
-      <c r="O164" s="129"/>
-      <c r="P164" s="129"/>
-      <c r="Q164" s="129"/>
-      <c r="R164" s="129"/>
-      <c r="S164" s="129"/>
-      <c r="T164" s="129"/>
-      <c r="U164" s="129"/>
-      <c r="V164" s="129"/>
-      <c r="W164" s="129"/>
+      <c r="C164" s="130"/>
+      <c r="D164" s="130"/>
+      <c r="E164" s="130"/>
+      <c r="F164" s="130"/>
+      <c r="G164" s="130"/>
+      <c r="H164" s="130"/>
+      <c r="I164" s="130"/>
+      <c r="J164" s="130"/>
+      <c r="K164" s="130"/>
+      <c r="L164" s="130"/>
+      <c r="M164" s="130"/>
+      <c r="N164" s="130"/>
+      <c r="O164" s="130"/>
+      <c r="P164" s="130"/>
+      <c r="Q164" s="130"/>
+      <c r="R164" s="130"/>
+      <c r="S164" s="130"/>
+      <c r="T164" s="130"/>
+      <c r="U164" s="130"/>
+      <c r="V164" s="130"/>
+      <c r="W164" s="130"/>
     </row>
     <row r="165" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C165" s="31"/>
@@ -5423,11 +5423,11 @@
     <row r="169" spans="2:23" ht="13" x14ac:dyDescent="0.15"/>
     <row r="170" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C170" s="38"/>
-      <c r="D170" s="129" t="s">
+      <c r="D170" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E170" s="129"/>
-      <c r="F170" s="129"/>
+      <c r="E170" s="130"/>
+      <c r="F170" s="130"/>
       <c r="G170" s="32"/>
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
@@ -5448,25 +5448,25 @@
     </row>
     <row r="171" spans="2:23" ht="13" x14ac:dyDescent="0.15">
       <c r="C171" s="39"/>
-      <c r="D171" s="129"/>
-      <c r="E171" s="129"/>
-      <c r="F171" s="129"/>
+      <c r="D171" s="130"/>
+      <c r="E171" s="130"/>
+      <c r="F171" s="130"/>
       <c r="G171" s="45"/>
       <c r="H171" s="33"/>
       <c r="I171" s="33"/>
       <c r="J171" s="33"/>
-      <c r="K171" s="135" t="s">
+      <c r="K171" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L171" s="135"/>
-      <c r="M171" s="135"/>
-      <c r="N171" s="135"/>
-      <c r="O171" s="135"/>
-      <c r="P171" s="135"/>
-      <c r="Q171" s="135"/>
-      <c r="R171" s="135"/>
-      <c r="S171" s="135"/>
-      <c r="T171" s="135"/>
+      <c r="L171" s="153"/>
+      <c r="M171" s="153"/>
+      <c r="N171" s="153"/>
+      <c r="O171" s="153"/>
+      <c r="P171" s="153"/>
+      <c r="Q171" s="153"/>
+      <c r="R171" s="153"/>
+      <c r="S171" s="153"/>
+      <c r="T171" s="153"/>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
       <c r="W171" s="43"/>
@@ -5475,27 +5475,27 @@
       <c r="C172" s="39"/>
       <c r="D172" s="34"/>
       <c r="E172" s="35"/>
-      <c r="F172" s="136" t="s">
+      <c r="F172" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G172" s="136"/>
-      <c r="H172" s="136"/>
-      <c r="I172" s="136"/>
-      <c r="J172" s="136"/>
-      <c r="K172" s="135"/>
-      <c r="L172" s="135"/>
-      <c r="M172" s="135"/>
-      <c r="N172" s="135"/>
-      <c r="O172" s="135"/>
-      <c r="P172" s="135"/>
-      <c r="Q172" s="135"/>
-      <c r="R172" s="135"/>
-      <c r="S172" s="135"/>
-      <c r="T172" s="135"/>
-      <c r="U172" s="143" t="s">
+      <c r="G172" s="141"/>
+      <c r="H172" s="141"/>
+      <c r="I172" s="141"/>
+      <c r="J172" s="141"/>
+      <c r="K172" s="153"/>
+      <c r="L172" s="153"/>
+      <c r="M172" s="153"/>
+      <c r="N172" s="153"/>
+      <c r="O172" s="153"/>
+      <c r="P172" s="153"/>
+      <c r="Q172" s="153"/>
+      <c r="R172" s="153"/>
+      <c r="S172" s="153"/>
+      <c r="T172" s="153"/>
+      <c r="U172" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V172" s="144"/>
+      <c r="V172" s="155"/>
       <c r="W172" s="43"/>
     </row>
     <row r="173" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5549,26 +5549,26 @@
       <c r="D175" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E175" s="125" t="s">
+      <c r="E175" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="126"/>
-      <c r="G175" s="126"/>
+      <c r="F175" s="140"/>
+      <c r="G175" s="140"/>
       <c r="I175" s="18"/>
-      <c r="J175" s="154" t="s">
+      <c r="J175" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="K175" s="154"/>
-      <c r="L175" s="154"/>
-      <c r="M175" s="154"/>
-      <c r="N175" s="154"/>
-      <c r="O175" s="154"/>
-      <c r="P175" s="154"/>
-      <c r="Q175" s="154"/>
-      <c r="R175" s="154"/>
-      <c r="S175" s="154"/>
-      <c r="T175" s="154"/>
-      <c r="U175" s="154"/>
+      <c r="K175" s="156"/>
+      <c r="L175" s="156"/>
+      <c r="M175" s="156"/>
+      <c r="N175" s="156"/>
+      <c r="O175" s="156"/>
+      <c r="P175" s="156"/>
+      <c r="Q175" s="156"/>
+      <c r="R175" s="156"/>
+      <c r="S175" s="156"/>
+      <c r="T175" s="156"/>
+      <c r="U175" s="156"/>
       <c r="V175" s="20"/>
       <c r="W175" s="20"/>
     </row>
@@ -5577,11 +5577,11 @@
       <c r="D176" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E176" s="125" t="s">
+      <c r="E176" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F176" s="126"/>
-      <c r="G176" s="126"/>
+      <c r="F176" s="140"/>
+      <c r="G176" s="140"/>
       <c r="I176" s="18"/>
       <c r="J176" s="51"/>
       <c r="K176" s="58"/>
@@ -5596,35 +5596,35 @@
       <c r="D177" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E177" s="127" t="s">
+      <c r="E177" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="F177" s="128"/>
-      <c r="G177" s="128"/>
+      <c r="F177" s="143"/>
+      <c r="G177" s="143"/>
       <c r="I177" s="18"/>
-      <c r="J177" s="161" t="s">
+      <c r="J177" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="K177" s="162"/>
+      <c r="K177" s="132"/>
       <c r="L177" s="66"/>
-      <c r="M177" s="130" t="s">
+      <c r="M177" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="N177" s="148"/>
-      <c r="O177" s="148"/>
-      <c r="P177" s="148"/>
-      <c r="Q177" s="163" t="s">
+      <c r="N177" s="151"/>
+      <c r="O177" s="151"/>
+      <c r="P177" s="151"/>
+      <c r="Q177" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="R177" s="164"/>
+      <c r="R177" s="147"/>
       <c r="S177" s="64"/>
       <c r="T177" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U177" s="131" t="s">
+      <c r="U177" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="V177" s="157"/>
+      <c r="V177" s="161"/>
       <c r="W177" s="20"/>
     </row>
     <row r="178" spans="2:23" ht="13" x14ac:dyDescent="0.15">
@@ -5632,11 +5632,11 @@
       <c r="D178" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E178" s="125" t="s">
+      <c r="E178" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F178" s="126"/>
-      <c r="G178" s="126"/>
+      <c r="F178" s="140"/>
+      <c r="G178" s="140"/>
       <c r="I178" s="18" t="s">
         <v>35</v>
       </c>
@@ -5652,11 +5652,11 @@
       <c r="D179" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E179" s="125" t="s">
+      <c r="E179" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F179" s="126"/>
-      <c r="G179" s="126"/>
+      <c r="F179" s="140"/>
+      <c r="G179" s="140"/>
       <c r="I179" s="18"/>
       <c r="J179" s="72" t="s">
         <v>61</v>
@@ -5664,28 +5664,28 @@
       <c r="K179" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="L179" s="150" t="s">
+      <c r="L179" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="M179" s="151"/>
-      <c r="N179" s="150" t="s">
+      <c r="M179" s="134"/>
+      <c r="N179" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="O179" s="151"/>
+      <c r="O179" s="134"/>
       <c r="P179" s="72" t="s">
         <v>17</v>
       </c>
       <c r="Q179" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="R179" s="150" t="s">
+      <c r="R179" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="S179" s="151"/>
-      <c r="T179" s="139" t="s">
+      <c r="S179" s="134"/>
+      <c r="T179" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="U179" s="139"/>
+      <c r="U179" s="157"/>
       <c r="V179" s="20"/>
       <c r="W179" s="20"/>
     </row>
@@ -5698,24 +5698,24 @@
       <c r="K180" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="L180" s="132" t="s">
+      <c r="L180" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="M180" s="133"/>
-      <c r="N180" s="152" t="s">
+      <c r="M180" s="127"/>
+      <c r="N180" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="O180" s="153"/>
+      <c r="O180" s="129"/>
       <c r="P180" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q180" s="63">
         <v>20</v>
       </c>
-      <c r="R180" s="132" t="s">
+      <c r="R180" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S180" s="134"/>
+      <c r="S180" s="165"/>
       <c r="T180" s="73" t="s">
         <v>27</v>
       </c>
@@ -5735,26 +5735,26 @@
       <c r="K181" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="L181" s="132" t="s">
+      <c r="L181" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="M181" s="133" t="s">
+      <c r="M181" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="N181" s="152" t="s">
+      <c r="N181" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="O181" s="153"/>
+      <c r="O181" s="129"/>
       <c r="P181" s="90" t="s">
         <v>135</v>
       </c>
       <c r="Q181" s="63">
         <v>22</v>
       </c>
-      <c r="R181" s="132" t="s">
+      <c r="R181" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="S181" s="134"/>
+      <c r="S181" s="165"/>
       <c r="T181" s="73" t="s">
         <v>27</v>
       </c>
@@ -5773,26 +5773,26 @@
       <c r="K182" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="L182" s="132" t="s">
+      <c r="L182" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="M182" s="133" t="s">
+      <c r="M182" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="N182" s="152" t="s">
+      <c r="N182" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O182" s="153"/>
+      <c r="O182" s="129"/>
       <c r="P182" s="90" t="s">
         <v>136</v>
       </c>
       <c r="Q182" s="63">
         <v>25</v>
       </c>
-      <c r="R182" s="132" t="s">
+      <c r="R182" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="S182" s="134"/>
+      <c r="S182" s="165"/>
       <c r="T182" s="73" t="s">
         <v>27</v>
       </c>
@@ -5811,26 +5811,26 @@
       <c r="K183" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="L183" s="132" t="s">
+      <c r="L183" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="M183" s="133" t="s">
+      <c r="M183" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="N183" s="152" t="s">
+      <c r="N183" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O183" s="153"/>
+      <c r="O183" s="129"/>
       <c r="P183" s="90" t="s">
         <v>137</v>
       </c>
       <c r="Q183" s="63">
         <v>20</v>
       </c>
-      <c r="R183" s="132" t="s">
+      <c r="R183" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S183" s="134"/>
+      <c r="S183" s="165"/>
       <c r="T183" s="73" t="s">
         <v>27</v>
       </c>
@@ -5849,24 +5849,24 @@
       <c r="K184" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="L184" s="132" t="s">
+      <c r="L184" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="M184" s="133"/>
-      <c r="N184" s="152" t="s">
+      <c r="M184" s="127"/>
+      <c r="N184" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O184" s="153"/>
+      <c r="O184" s="129"/>
       <c r="P184" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q184" s="63">
         <v>20</v>
       </c>
-      <c r="R184" s="132" t="s">
+      <c r="R184" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S184" s="134"/>
+      <c r="S184" s="165"/>
       <c r="T184" s="73" t="s">
         <v>27</v>
       </c>
@@ -5885,24 +5885,24 @@
       <c r="K185" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="L185" s="132" t="s">
+      <c r="L185" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="M185" s="133"/>
-      <c r="N185" s="152" t="s">
+      <c r="M185" s="127"/>
+      <c r="N185" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O185" s="153"/>
+      <c r="O185" s="129"/>
       <c r="P185" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q185" s="63">
         <v>20</v>
       </c>
-      <c r="R185" s="132" t="s">
+      <c r="R185" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S185" s="134"/>
+      <c r="S185" s="165"/>
       <c r="T185" s="73" t="s">
         <v>27</v>
       </c>
@@ -5921,24 +5921,24 @@
       <c r="K186" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L186" s="132" t="s">
+      <c r="L186" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="M186" s="133"/>
-      <c r="N186" s="152" t="s">
+      <c r="M186" s="127"/>
+      <c r="N186" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O186" s="153"/>
+      <c r="O186" s="129"/>
       <c r="P186" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q186" s="63">
         <v>20</v>
       </c>
-      <c r="R186" s="132" t="s">
+      <c r="R186" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S186" s="134"/>
+      <c r="S186" s="165"/>
       <c r="T186" s="73" t="s">
         <v>27</v>
       </c>
@@ -5957,24 +5957,24 @@
       <c r="K187" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="L187" s="132" t="s">
+      <c r="L187" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="M187" s="133"/>
-      <c r="N187" s="152" t="s">
+      <c r="M187" s="127"/>
+      <c r="N187" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O187" s="153"/>
+      <c r="O187" s="129"/>
       <c r="P187" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q187" s="63">
         <v>20</v>
       </c>
-      <c r="R187" s="132" t="s">
+      <c r="R187" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S187" s="134"/>
+      <c r="S187" s="165"/>
       <c r="T187" s="73" t="s">
         <v>27</v>
       </c>
@@ -5993,24 +5993,24 @@
       <c r="K188" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="L188" s="132" t="s">
+      <c r="L188" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="M188" s="133"/>
-      <c r="N188" s="152" t="s">
+      <c r="M188" s="127"/>
+      <c r="N188" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O188" s="153"/>
+      <c r="O188" s="129"/>
       <c r="P188" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q188" s="63">
         <v>20</v>
       </c>
-      <c r="R188" s="132" t="s">
+      <c r="R188" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S188" s="134"/>
+      <c r="S188" s="165"/>
       <c r="T188" s="73" t="s">
         <v>27</v>
       </c>
@@ -6029,24 +6029,24 @@
       <c r="K189" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="L189" s="132" t="s">
+      <c r="L189" s="126" t="s">
         <v>129</v>
       </c>
-      <c r="M189" s="133"/>
-      <c r="N189" s="152" t="s">
+      <c r="M189" s="127"/>
+      <c r="N189" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="O189" s="153"/>
+      <c r="O189" s="129"/>
       <c r="P189" s="90" t="s">
         <v>134</v>
       </c>
       <c r="Q189" s="63">
         <v>20</v>
       </c>
-      <c r="R189" s="132" t="s">
+      <c r="R189" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S189" s="134"/>
+      <c r="S189" s="165"/>
       <c r="T189" s="73" t="s">
         <v>27</v>
       </c>
@@ -6111,75 +6111,75 @@
       <c r="W193" s="20"/>
     </row>
     <row r="194" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="129" t="s">
+      <c r="C194" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D194" s="129"/>
-      <c r="E194" s="129"/>
-      <c r="F194" s="129"/>
-      <c r="G194" s="129"/>
-      <c r="H194" s="129"/>
-      <c r="I194" s="129"/>
-      <c r="J194" s="129"/>
-      <c r="K194" s="129"/>
-      <c r="L194" s="129"/>
-      <c r="M194" s="129"/>
-      <c r="N194" s="129"/>
-      <c r="O194" s="129"/>
-      <c r="P194" s="129"/>
-      <c r="Q194" s="129"/>
-      <c r="R194" s="129"/>
-      <c r="S194" s="129"/>
-      <c r="T194" s="129"/>
-      <c r="U194" s="129"/>
-      <c r="V194" s="129"/>
-      <c r="W194" s="129"/>
+      <c r="D194" s="130"/>
+      <c r="E194" s="130"/>
+      <c r="F194" s="130"/>
+      <c r="G194" s="130"/>
+      <c r="H194" s="130"/>
+      <c r="I194" s="130"/>
+      <c r="J194" s="130"/>
+      <c r="K194" s="130"/>
+      <c r="L194" s="130"/>
+      <c r="M194" s="130"/>
+      <c r="N194" s="130"/>
+      <c r="O194" s="130"/>
+      <c r="P194" s="130"/>
+      <c r="Q194" s="130"/>
+      <c r="R194" s="130"/>
+      <c r="S194" s="130"/>
+      <c r="T194" s="130"/>
+      <c r="U194" s="130"/>
+      <c r="V194" s="130"/>
+      <c r="W194" s="130"/>
     </row>
     <row r="195" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C195" s="129"/>
-      <c r="D195" s="129"/>
-      <c r="E195" s="129"/>
-      <c r="F195" s="129"/>
-      <c r="G195" s="129"/>
-      <c r="H195" s="129"/>
-      <c r="I195" s="129"/>
-      <c r="J195" s="129"/>
-      <c r="K195" s="129"/>
-      <c r="L195" s="129"/>
-      <c r="M195" s="129"/>
-      <c r="N195" s="129"/>
-      <c r="O195" s="129"/>
-      <c r="P195" s="129"/>
-      <c r="Q195" s="129"/>
-      <c r="R195" s="129"/>
-      <c r="S195" s="129"/>
-      <c r="T195" s="129"/>
-      <c r="U195" s="129"/>
-      <c r="V195" s="129"/>
-      <c r="W195" s="129"/>
+      <c r="C195" s="130"/>
+      <c r="D195" s="130"/>
+      <c r="E195" s="130"/>
+      <c r="F195" s="130"/>
+      <c r="G195" s="130"/>
+      <c r="H195" s="130"/>
+      <c r="I195" s="130"/>
+      <c r="J195" s="130"/>
+      <c r="K195" s="130"/>
+      <c r="L195" s="130"/>
+      <c r="M195" s="130"/>
+      <c r="N195" s="130"/>
+      <c r="O195" s="130"/>
+      <c r="P195" s="130"/>
+      <c r="Q195" s="130"/>
+      <c r="R195" s="130"/>
+      <c r="S195" s="130"/>
+      <c r="T195" s="130"/>
+      <c r="U195" s="130"/>
+      <c r="V195" s="130"/>
+      <c r="W195" s="130"/>
     </row>
     <row r="196" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="129"/>
-      <c r="D196" s="129"/>
-      <c r="E196" s="129"/>
-      <c r="F196" s="129"/>
-      <c r="G196" s="129"/>
-      <c r="H196" s="129"/>
-      <c r="I196" s="129"/>
-      <c r="J196" s="129"/>
-      <c r="K196" s="129"/>
-      <c r="L196" s="129"/>
-      <c r="M196" s="129"/>
-      <c r="N196" s="129"/>
-      <c r="O196" s="129"/>
-      <c r="P196" s="129"/>
-      <c r="Q196" s="129"/>
-      <c r="R196" s="129"/>
-      <c r="S196" s="129"/>
-      <c r="T196" s="129"/>
-      <c r="U196" s="129"/>
-      <c r="V196" s="129"/>
-      <c r="W196" s="129"/>
+      <c r="C196" s="130"/>
+      <c r="D196" s="130"/>
+      <c r="E196" s="130"/>
+      <c r="F196" s="130"/>
+      <c r="G196" s="130"/>
+      <c r="H196" s="130"/>
+      <c r="I196" s="130"/>
+      <c r="J196" s="130"/>
+      <c r="K196" s="130"/>
+      <c r="L196" s="130"/>
+      <c r="M196" s="130"/>
+      <c r="N196" s="130"/>
+      <c r="O196" s="130"/>
+      <c r="P196" s="130"/>
+      <c r="Q196" s="130"/>
+      <c r="R196" s="130"/>
+      <c r="S196" s="130"/>
+      <c r="T196" s="130"/>
+      <c r="U196" s="130"/>
+      <c r="V196" s="130"/>
+      <c r="W196" s="130"/>
     </row>
     <row r="197" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C197" s="45"/>
@@ -6211,11 +6211,11 @@
     </row>
     <row r="200" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C200" s="38"/>
-      <c r="D200" s="129" t="s">
+      <c r="D200" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E200" s="129"/>
-      <c r="F200" s="129"/>
+      <c r="E200" s="130"/>
+      <c r="F200" s="130"/>
       <c r="G200" s="32"/>
       <c r="H200" s="37"/>
       <c r="I200" s="37"/>
@@ -6236,25 +6236,25 @@
     </row>
     <row r="201" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C201" s="39"/>
-      <c r="D201" s="129"/>
-      <c r="E201" s="129"/>
-      <c r="F201" s="129"/>
+      <c r="D201" s="130"/>
+      <c r="E201" s="130"/>
+      <c r="F201" s="130"/>
       <c r="G201" s="45"/>
       <c r="H201" s="33"/>
       <c r="I201" s="33"/>
       <c r="J201" s="33"/>
-      <c r="K201" s="135" t="s">
+      <c r="K201" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L201" s="135"/>
-      <c r="M201" s="135"/>
-      <c r="N201" s="135"/>
-      <c r="O201" s="135"/>
-      <c r="P201" s="135"/>
-      <c r="Q201" s="135"/>
-      <c r="R201" s="135"/>
-      <c r="S201" s="135"/>
-      <c r="T201" s="135"/>
+      <c r="L201" s="153"/>
+      <c r="M201" s="153"/>
+      <c r="N201" s="153"/>
+      <c r="O201" s="153"/>
+      <c r="P201" s="153"/>
+      <c r="Q201" s="153"/>
+      <c r="R201" s="153"/>
+      <c r="S201" s="153"/>
+      <c r="T201" s="153"/>
       <c r="U201" s="33"/>
       <c r="V201" s="33"/>
       <c r="W201" s="43"/>
@@ -6263,27 +6263,27 @@
       <c r="C202" s="39"/>
       <c r="D202" s="34"/>
       <c r="E202" s="35"/>
-      <c r="F202" s="136" t="s">
+      <c r="F202" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G202" s="136"/>
-      <c r="H202" s="136"/>
-      <c r="I202" s="136"/>
-      <c r="J202" s="136"/>
-      <c r="K202" s="135"/>
-      <c r="L202" s="135"/>
-      <c r="M202" s="135"/>
-      <c r="N202" s="135"/>
-      <c r="O202" s="135"/>
-      <c r="P202" s="135"/>
-      <c r="Q202" s="135"/>
-      <c r="R202" s="135"/>
-      <c r="S202" s="135"/>
-      <c r="T202" s="135"/>
-      <c r="U202" s="143" t="s">
+      <c r="G202" s="141"/>
+      <c r="H202" s="141"/>
+      <c r="I202" s="141"/>
+      <c r="J202" s="141"/>
+      <c r="K202" s="153"/>
+      <c r="L202" s="153"/>
+      <c r="M202" s="153"/>
+      <c r="N202" s="153"/>
+      <c r="O202" s="153"/>
+      <c r="P202" s="153"/>
+      <c r="Q202" s="153"/>
+      <c r="R202" s="153"/>
+      <c r="S202" s="153"/>
+      <c r="T202" s="153"/>
+      <c r="U202" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V202" s="144"/>
+      <c r="V202" s="155"/>
       <c r="W202" s="43"/>
     </row>
     <row r="203" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6337,26 +6337,26 @@
       <c r="D205" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E205" s="125" t="s">
+      <c r="E205" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F205" s="126"/>
-      <c r="G205" s="126"/>
+      <c r="F205" s="140"/>
+      <c r="G205" s="140"/>
       <c r="I205" s="18"/>
-      <c r="J205" s="154" t="s">
+      <c r="J205" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="K205" s="154"/>
-      <c r="L205" s="154"/>
-      <c r="M205" s="154"/>
-      <c r="N205" s="154"/>
-      <c r="O205" s="154"/>
-      <c r="P205" s="154"/>
-      <c r="Q205" s="154"/>
-      <c r="R205" s="154"/>
-      <c r="S205" s="154"/>
-      <c r="T205" s="154"/>
-      <c r="U205" s="154"/>
+      <c r="K205" s="156"/>
+      <c r="L205" s="156"/>
+      <c r="M205" s="156"/>
+      <c r="N205" s="156"/>
+      <c r="O205" s="156"/>
+      <c r="P205" s="156"/>
+      <c r="Q205" s="156"/>
+      <c r="R205" s="156"/>
+      <c r="S205" s="156"/>
+      <c r="T205" s="156"/>
+      <c r="U205" s="156"/>
       <c r="V205" s="77"/>
       <c r="W205" s="20"/>
     </row>
@@ -6365,11 +6365,11 @@
       <c r="D206" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E206" s="125" t="s">
+      <c r="E206" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F206" s="126"/>
-      <c r="G206" s="126"/>
+      <c r="F206" s="140"/>
+      <c r="G206" s="140"/>
       <c r="I206" s="18"/>
       <c r="J206" s="51"/>
       <c r="K206" s="58"/>
@@ -6384,11 +6384,11 @@
       <c r="D207" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E207" s="127" t="s">
+      <c r="E207" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="F207" s="128"/>
-      <c r="G207" s="128"/>
+      <c r="F207" s="143"/>
+      <c r="G207" s="143"/>
       <c r="I207" s="18"/>
       <c r="K207" s="81"/>
       <c r="L207" s="80"/>
@@ -6410,11 +6410,11 @@
       <c r="D208" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E208" s="125" t="s">
+      <c r="E208" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F208" s="126"/>
-      <c r="G208" s="126"/>
+      <c r="F208" s="140"/>
+      <c r="G208" s="140"/>
       <c r="I208" s="18" t="s">
         <v>35</v>
       </c>
@@ -6431,11 +6431,11 @@
       <c r="D209" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E209" s="125" t="s">
+      <c r="E209" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F209" s="126"/>
-      <c r="G209" s="126"/>
+      <c r="F209" s="140"/>
+      <c r="G209" s="140"/>
       <c r="I209" s="18"/>
       <c r="K209" s="82"/>
       <c r="T209" s="78"/>
@@ -6449,14 +6449,14 @@
       <c r="L210" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N210" s="138" t="s">
+      <c r="N210" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="O210" s="142"/>
-      <c r="P210" s="142"/>
-      <c r="Q210" s="142"/>
-      <c r="R210" s="142"/>
-      <c r="S210" s="142"/>
+      <c r="O210" s="145"/>
+      <c r="P210" s="145"/>
+      <c r="Q210" s="145"/>
+      <c r="R210" s="145"/>
+      <c r="S210" s="145"/>
       <c r="T210" s="78"/>
       <c r="V210" s="78"/>
       <c r="W210" s="20"/>
@@ -6476,14 +6476,14 @@
       <c r="L212" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N212" s="138" t="s">
+      <c r="N212" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="O212" s="142"/>
-      <c r="P212" s="142"/>
-      <c r="Q212" s="142"/>
-      <c r="R212" s="142"/>
-      <c r="S212" s="142"/>
+      <c r="O212" s="145"/>
+      <c r="P212" s="145"/>
+      <c r="Q212" s="145"/>
+      <c r="R212" s="145"/>
+      <c r="S212" s="145"/>
       <c r="T212" s="78"/>
       <c r="V212" s="78"/>
       <c r="W212" s="20"/>
@@ -6503,14 +6503,14 @@
       <c r="L214" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N214" s="138" t="s">
+      <c r="N214" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="O214" s="142"/>
-      <c r="P214" s="142"/>
-      <c r="Q214" s="142"/>
-      <c r="R214" s="142"/>
-      <c r="S214" s="142"/>
+      <c r="O214" s="145"/>
+      <c r="P214" s="145"/>
+      <c r="Q214" s="145"/>
+      <c r="R214" s="145"/>
+      <c r="S214" s="145"/>
       <c r="T214" s="78"/>
       <c r="V214" s="78"/>
       <c r="W214" s="20"/>
@@ -6530,14 +6530,14 @@
       <c r="L216" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N216" s="138" t="s">
+      <c r="N216" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="O216" s="142"/>
-      <c r="P216" s="142"/>
-      <c r="Q216" s="142"/>
-      <c r="R216" s="142"/>
-      <c r="S216" s="142"/>
+      <c r="O216" s="145"/>
+      <c r="P216" s="145"/>
+      <c r="Q216" s="145"/>
+      <c r="R216" s="145"/>
+      <c r="S216" s="145"/>
       <c r="T216" s="78"/>
       <c r="V216" s="78"/>
       <c r="W216" s="20"/>
@@ -6557,14 +6557,14 @@
       <c r="L218" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N218" s="165" t="s">
+      <c r="N218" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="O218" s="166"/>
-      <c r="P218" s="166"/>
-      <c r="Q218" s="166"/>
-      <c r="R218" s="166"/>
-      <c r="S218" s="166"/>
+      <c r="O218" s="149"/>
+      <c r="P218" s="149"/>
+      <c r="Q218" s="149"/>
+      <c r="R218" s="149"/>
+      <c r="S218" s="149"/>
       <c r="T218" s="78"/>
       <c r="V218" s="78"/>
       <c r="W218" s="20"/>
@@ -6573,12 +6573,12 @@
       <c r="C219" s="18"/>
       <c r="I219" s="18"/>
       <c r="K219" s="82"/>
-      <c r="N219" s="166"/>
-      <c r="O219" s="166"/>
-      <c r="P219" s="166"/>
-      <c r="Q219" s="166"/>
-      <c r="R219" s="166"/>
-      <c r="S219" s="166"/>
+      <c r="N219" s="149"/>
+      <c r="O219" s="149"/>
+      <c r="P219" s="149"/>
+      <c r="Q219" s="149"/>
+      <c r="R219" s="149"/>
+      <c r="S219" s="149"/>
       <c r="T219" s="78"/>
       <c r="V219" s="78"/>
       <c r="W219" s="20"/>
@@ -6599,14 +6599,14 @@
         <v>20</v>
       </c>
       <c r="M221" s="30"/>
-      <c r="N221" s="130" t="s">
+      <c r="N221" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="O221" s="148"/>
-      <c r="P221" s="148"/>
-      <c r="Q221" s="148"/>
-      <c r="R221" s="148"/>
-      <c r="S221" s="148"/>
+      <c r="O221" s="151"/>
+      <c r="P221" s="151"/>
+      <c r="Q221" s="151"/>
+      <c r="R221" s="151"/>
+      <c r="S221" s="151"/>
       <c r="T221" s="77"/>
       <c r="V221" s="78"/>
       <c r="W221" s="20"/>
@@ -6638,10 +6638,10 @@
       <c r="P223" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q223" s="149" t="s">
+      <c r="Q223" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R223" s="149"/>
+      <c r="R223" s="152"/>
       <c r="S223" s="52"/>
       <c r="T223" s="77"/>
       <c r="V223" s="78"/>
@@ -6682,75 +6682,75 @@
       <c r="W225" s="20"/>
     </row>
     <row r="226" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C226" s="129" t="s">
+      <c r="C226" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D226" s="129"/>
-      <c r="E226" s="129"/>
-      <c r="F226" s="129"/>
-      <c r="G226" s="129"/>
-      <c r="H226" s="129"/>
-      <c r="I226" s="129"/>
-      <c r="J226" s="129"/>
-      <c r="K226" s="129"/>
-      <c r="L226" s="129"/>
-      <c r="M226" s="129"/>
-      <c r="N226" s="129"/>
-      <c r="O226" s="129"/>
-      <c r="P226" s="129"/>
-      <c r="Q226" s="129"/>
-      <c r="R226" s="129"/>
-      <c r="S226" s="129"/>
-      <c r="T226" s="129"/>
-      <c r="U226" s="129"/>
-      <c r="V226" s="129"/>
-      <c r="W226" s="129"/>
+      <c r="D226" s="130"/>
+      <c r="E226" s="130"/>
+      <c r="F226" s="130"/>
+      <c r="G226" s="130"/>
+      <c r="H226" s="130"/>
+      <c r="I226" s="130"/>
+      <c r="J226" s="130"/>
+      <c r="K226" s="130"/>
+      <c r="L226" s="130"/>
+      <c r="M226" s="130"/>
+      <c r="N226" s="130"/>
+      <c r="O226" s="130"/>
+      <c r="P226" s="130"/>
+      <c r="Q226" s="130"/>
+      <c r="R226" s="130"/>
+      <c r="S226" s="130"/>
+      <c r="T226" s="130"/>
+      <c r="U226" s="130"/>
+      <c r="V226" s="130"/>
+      <c r="W226" s="130"/>
     </row>
     <row r="227" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C227" s="129"/>
-      <c r="D227" s="129"/>
-      <c r="E227" s="129"/>
-      <c r="F227" s="129"/>
-      <c r="G227" s="129"/>
-      <c r="H227" s="129"/>
-      <c r="I227" s="129"/>
-      <c r="J227" s="129"/>
-      <c r="K227" s="129"/>
-      <c r="L227" s="129"/>
-      <c r="M227" s="129"/>
-      <c r="N227" s="129"/>
-      <c r="O227" s="129"/>
-      <c r="P227" s="129"/>
-      <c r="Q227" s="129"/>
-      <c r="R227" s="129"/>
-      <c r="S227" s="129"/>
-      <c r="T227" s="129"/>
-      <c r="U227" s="129"/>
-      <c r="V227" s="129"/>
-      <c r="W227" s="129"/>
+      <c r="C227" s="130"/>
+      <c r="D227" s="130"/>
+      <c r="E227" s="130"/>
+      <c r="F227" s="130"/>
+      <c r="G227" s="130"/>
+      <c r="H227" s="130"/>
+      <c r="I227" s="130"/>
+      <c r="J227" s="130"/>
+      <c r="K227" s="130"/>
+      <c r="L227" s="130"/>
+      <c r="M227" s="130"/>
+      <c r="N227" s="130"/>
+      <c r="O227" s="130"/>
+      <c r="P227" s="130"/>
+      <c r="Q227" s="130"/>
+      <c r="R227" s="130"/>
+      <c r="S227" s="130"/>
+      <c r="T227" s="130"/>
+      <c r="U227" s="130"/>
+      <c r="V227" s="130"/>
+      <c r="W227" s="130"/>
     </row>
     <row r="228" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C228" s="129"/>
-      <c r="D228" s="129"/>
-      <c r="E228" s="129"/>
-      <c r="F228" s="129"/>
-      <c r="G228" s="129"/>
-      <c r="H228" s="129"/>
-      <c r="I228" s="129"/>
-      <c r="J228" s="129"/>
-      <c r="K228" s="129"/>
-      <c r="L228" s="129"/>
-      <c r="M228" s="129"/>
-      <c r="N228" s="129"/>
-      <c r="O228" s="129"/>
-      <c r="P228" s="129"/>
-      <c r="Q228" s="129"/>
-      <c r="R228" s="129"/>
-      <c r="S228" s="129"/>
-      <c r="T228" s="129"/>
-      <c r="U228" s="129"/>
-      <c r="V228" s="129"/>
-      <c r="W228" s="129"/>
+      <c r="C228" s="130"/>
+      <c r="D228" s="130"/>
+      <c r="E228" s="130"/>
+      <c r="F228" s="130"/>
+      <c r="G228" s="130"/>
+      <c r="H228" s="130"/>
+      <c r="I228" s="130"/>
+      <c r="J228" s="130"/>
+      <c r="K228" s="130"/>
+      <c r="L228" s="130"/>
+      <c r="M228" s="130"/>
+      <c r="N228" s="130"/>
+      <c r="O228" s="130"/>
+      <c r="P228" s="130"/>
+      <c r="Q228" s="130"/>
+      <c r="R228" s="130"/>
+      <c r="S228" s="130"/>
+      <c r="T228" s="130"/>
+      <c r="U228" s="130"/>
+      <c r="V228" s="130"/>
+      <c r="W228" s="130"/>
     </row>
     <row r="229" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C229" s="30"/>
@@ -6805,11 +6805,11 @@
     </row>
     <row r="233" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C233" s="38"/>
-      <c r="D233" s="129" t="s">
+      <c r="D233" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E233" s="129"/>
-      <c r="F233" s="129"/>
+      <c r="E233" s="130"/>
+      <c r="F233" s="130"/>
       <c r="G233" s="32"/>
       <c r="H233" s="37"/>
       <c r="I233" s="37"/>
@@ -6830,25 +6830,25 @@
     </row>
     <row r="234" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C234" s="39"/>
-      <c r="D234" s="129"/>
-      <c r="E234" s="129"/>
-      <c r="F234" s="129"/>
+      <c r="D234" s="130"/>
+      <c r="E234" s="130"/>
+      <c r="F234" s="130"/>
       <c r="G234" s="45"/>
       <c r="H234" s="33"/>
       <c r="I234" s="33"/>
       <c r="J234" s="33"/>
-      <c r="K234" s="135" t="s">
+      <c r="K234" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L234" s="135"/>
-      <c r="M234" s="135"/>
-      <c r="N234" s="135"/>
-      <c r="O234" s="135"/>
-      <c r="P234" s="135"/>
-      <c r="Q234" s="135"/>
-      <c r="R234" s="135"/>
-      <c r="S234" s="135"/>
-      <c r="T234" s="135"/>
+      <c r="L234" s="153"/>
+      <c r="M234" s="153"/>
+      <c r="N234" s="153"/>
+      <c r="O234" s="153"/>
+      <c r="P234" s="153"/>
+      <c r="Q234" s="153"/>
+      <c r="R234" s="153"/>
+      <c r="S234" s="153"/>
+      <c r="T234" s="153"/>
       <c r="U234" s="33"/>
       <c r="V234" s="33"/>
       <c r="W234" s="43"/>
@@ -6857,27 +6857,27 @@
       <c r="C235" s="39"/>
       <c r="D235" s="34"/>
       <c r="E235" s="35"/>
-      <c r="F235" s="136" t="s">
+      <c r="F235" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G235" s="136"/>
-      <c r="H235" s="136"/>
-      <c r="I235" s="136"/>
-      <c r="J235" s="136"/>
-      <c r="K235" s="135"/>
-      <c r="L235" s="135"/>
-      <c r="M235" s="135"/>
-      <c r="N235" s="135"/>
-      <c r="O235" s="135"/>
-      <c r="P235" s="135"/>
-      <c r="Q235" s="135"/>
-      <c r="R235" s="135"/>
-      <c r="S235" s="135"/>
-      <c r="T235" s="135"/>
-      <c r="U235" s="143" t="s">
+      <c r="G235" s="141"/>
+      <c r="H235" s="141"/>
+      <c r="I235" s="141"/>
+      <c r="J235" s="141"/>
+      <c r="K235" s="153"/>
+      <c r="L235" s="153"/>
+      <c r="M235" s="153"/>
+      <c r="N235" s="153"/>
+      <c r="O235" s="153"/>
+      <c r="P235" s="153"/>
+      <c r="Q235" s="153"/>
+      <c r="R235" s="153"/>
+      <c r="S235" s="153"/>
+      <c r="T235" s="153"/>
+      <c r="U235" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V235" s="144"/>
+      <c r="V235" s="155"/>
       <c r="W235" s="43"/>
     </row>
     <row r="236" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6931,26 +6931,26 @@
       <c r="D238" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E238" s="125" t="s">
+      <c r="E238" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F238" s="126"/>
-      <c r="G238" s="126"/>
+      <c r="F238" s="140"/>
+      <c r="G238" s="140"/>
       <c r="I238" s="18"/>
-      <c r="J238" s="154" t="s">
+      <c r="J238" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="K238" s="154"/>
-      <c r="L238" s="154"/>
-      <c r="M238" s="154"/>
-      <c r="N238" s="154"/>
-      <c r="O238" s="154"/>
-      <c r="P238" s="154"/>
-      <c r="Q238" s="154"/>
-      <c r="R238" s="154"/>
-      <c r="S238" s="154"/>
-      <c r="T238" s="154"/>
-      <c r="U238" s="154"/>
+      <c r="K238" s="156"/>
+      <c r="L238" s="156"/>
+      <c r="M238" s="156"/>
+      <c r="N238" s="156"/>
+      <c r="O238" s="156"/>
+      <c r="P238" s="156"/>
+      <c r="Q238" s="156"/>
+      <c r="R238" s="156"/>
+      <c r="S238" s="156"/>
+      <c r="T238" s="156"/>
+      <c r="U238" s="156"/>
       <c r="V238" s="77"/>
       <c r="W238" s="20"/>
     </row>
@@ -6959,11 +6959,11 @@
       <c r="D239" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E239" s="125" t="s">
+      <c r="E239" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F239" s="126"/>
-      <c r="G239" s="126"/>
+      <c r="F239" s="140"/>
+      <c r="G239" s="140"/>
       <c r="I239" s="18"/>
       <c r="J239" s="51"/>
       <c r="K239" s="58"/>
@@ -6978,11 +6978,11 @@
       <c r="D240" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E240" s="127" t="s">
+      <c r="E240" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="F240" s="128"/>
-      <c r="G240" s="128"/>
+      <c r="F240" s="143"/>
+      <c r="G240" s="143"/>
       <c r="I240" s="18"/>
       <c r="K240" s="81"/>
       <c r="L240" s="80"/>
@@ -7004,11 +7004,11 @@
       <c r="D241" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E241" s="125" t="s">
+      <c r="E241" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F241" s="126"/>
-      <c r="G241" s="126"/>
+      <c r="F241" s="140"/>
+      <c r="G241" s="140"/>
       <c r="I241" s="18" t="s">
         <v>35</v>
       </c>
@@ -7025,11 +7025,11 @@
       <c r="D242" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E242" s="125" t="s">
+      <c r="E242" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F242" s="126"/>
-      <c r="G242" s="126"/>
+      <c r="F242" s="140"/>
+      <c r="G242" s="140"/>
       <c r="I242" s="18"/>
       <c r="K242" s="82"/>
       <c r="T242" s="78"/>
@@ -7043,14 +7043,14 @@
       <c r="L243" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="N243" s="138" t="s">
+      <c r="N243" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="O243" s="142"/>
-      <c r="P243" s="142"/>
-      <c r="Q243" s="142"/>
-      <c r="R243" s="142"/>
-      <c r="S243" s="142"/>
+      <c r="O243" s="145"/>
+      <c r="P243" s="145"/>
+      <c r="Q243" s="145"/>
+      <c r="R243" s="145"/>
+      <c r="S243" s="145"/>
       <c r="T243" s="78"/>
       <c r="V243" s="78"/>
       <c r="W243" s="20"/>
@@ -7070,14 +7070,14 @@
       <c r="L245" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="N245" s="138" t="s">
+      <c r="N245" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="O245" s="142"/>
-      <c r="P245" s="142"/>
-      <c r="Q245" s="142"/>
-      <c r="R245" s="142"/>
-      <c r="S245" s="142"/>
+      <c r="O245" s="145"/>
+      <c r="P245" s="145"/>
+      <c r="Q245" s="145"/>
+      <c r="R245" s="145"/>
+      <c r="S245" s="145"/>
       <c r="T245" s="78"/>
       <c r="V245" s="78"/>
       <c r="W245" s="20"/>
@@ -7097,14 +7097,14 @@
       <c r="L247" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="N247" s="138" t="s">
+      <c r="N247" s="144" t="s">
         <v>131</v>
       </c>
-      <c r="O247" s="142"/>
-      <c r="P247" s="142"/>
-      <c r="Q247" s="142"/>
-      <c r="R247" s="142"/>
-      <c r="S247" s="142"/>
+      <c r="O247" s="145"/>
+      <c r="P247" s="145"/>
+      <c r="Q247" s="145"/>
+      <c r="R247" s="145"/>
+      <c r="S247" s="145"/>
       <c r="T247" s="78"/>
       <c r="V247" s="78"/>
       <c r="W247" s="20"/>
@@ -7124,14 +7124,14 @@
       <c r="L249" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="N249" s="138">
+      <c r="N249" s="144">
         <v>20</v>
       </c>
-      <c r="O249" s="142"/>
-      <c r="P249" s="142"/>
-      <c r="Q249" s="142"/>
-      <c r="R249" s="142"/>
-      <c r="S249" s="142"/>
+      <c r="O249" s="145"/>
+      <c r="P249" s="145"/>
+      <c r="Q249" s="145"/>
+      <c r="R249" s="145"/>
+      <c r="S249" s="145"/>
       <c r="T249" s="78"/>
       <c r="V249" s="78"/>
       <c r="W249" s="20"/>
@@ -7151,14 +7151,14 @@
       <c r="L251" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N251" s="165" t="s">
+      <c r="N251" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="O251" s="166"/>
-      <c r="P251" s="166"/>
-      <c r="Q251" s="166"/>
-      <c r="R251" s="166"/>
-      <c r="S251" s="166"/>
+      <c r="O251" s="149"/>
+      <c r="P251" s="149"/>
+      <c r="Q251" s="149"/>
+      <c r="R251" s="149"/>
+      <c r="S251" s="149"/>
       <c r="T251" s="78"/>
       <c r="V251" s="78"/>
       <c r="W251" s="20"/>
@@ -7167,12 +7167,12 @@
       <c r="C252" s="18"/>
       <c r="I252" s="18"/>
       <c r="K252" s="82"/>
-      <c r="N252" s="166"/>
-      <c r="O252" s="166"/>
-      <c r="P252" s="166"/>
-      <c r="Q252" s="166"/>
-      <c r="R252" s="166"/>
-      <c r="S252" s="166"/>
+      <c r="N252" s="149"/>
+      <c r="O252" s="149"/>
+      <c r="P252" s="149"/>
+      <c r="Q252" s="149"/>
+      <c r="R252" s="149"/>
+      <c r="S252" s="149"/>
       <c r="T252" s="78"/>
       <c r="V252" s="78"/>
       <c r="W252" s="20"/>
@@ -7193,14 +7193,14 @@
         <v>20</v>
       </c>
       <c r="M254" s="30"/>
-      <c r="N254" s="130" t="s">
+      <c r="N254" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="O254" s="148"/>
-      <c r="P254" s="148"/>
-      <c r="Q254" s="148"/>
-      <c r="R254" s="148"/>
-      <c r="S254" s="148"/>
+      <c r="O254" s="151"/>
+      <c r="P254" s="151"/>
+      <c r="Q254" s="151"/>
+      <c r="R254" s="151"/>
+      <c r="S254" s="151"/>
       <c r="T254" s="77"/>
       <c r="V254" s="78"/>
       <c r="W254" s="20"/>
@@ -7232,10 +7232,10 @@
       <c r="P256" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q256" s="149" t="s">
+      <c r="Q256" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R256" s="149"/>
+      <c r="R256" s="152"/>
       <c r="S256" s="52"/>
       <c r="T256" s="77"/>
       <c r="V256" s="78"/>
@@ -7282,75 +7282,75 @@
       <c r="W259" s="20"/>
     </row>
     <row r="260" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C260" s="129" t="s">
+      <c r="C260" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D260" s="129"/>
-      <c r="E260" s="129"/>
-      <c r="F260" s="129"/>
-      <c r="G260" s="129"/>
-      <c r="H260" s="129"/>
-      <c r="I260" s="129"/>
-      <c r="J260" s="129"/>
-      <c r="K260" s="129"/>
-      <c r="L260" s="129"/>
-      <c r="M260" s="129"/>
-      <c r="N260" s="129"/>
-      <c r="O260" s="129"/>
-      <c r="P260" s="129"/>
-      <c r="Q260" s="129"/>
-      <c r="R260" s="129"/>
-      <c r="S260" s="129"/>
-      <c r="T260" s="129"/>
-      <c r="U260" s="129"/>
-      <c r="V260" s="129"/>
-      <c r="W260" s="129"/>
+      <c r="D260" s="130"/>
+      <c r="E260" s="130"/>
+      <c r="F260" s="130"/>
+      <c r="G260" s="130"/>
+      <c r="H260" s="130"/>
+      <c r="I260" s="130"/>
+      <c r="J260" s="130"/>
+      <c r="K260" s="130"/>
+      <c r="L260" s="130"/>
+      <c r="M260" s="130"/>
+      <c r="N260" s="130"/>
+      <c r="O260" s="130"/>
+      <c r="P260" s="130"/>
+      <c r="Q260" s="130"/>
+      <c r="R260" s="130"/>
+      <c r="S260" s="130"/>
+      <c r="T260" s="130"/>
+      <c r="U260" s="130"/>
+      <c r="V260" s="130"/>
+      <c r="W260" s="130"/>
     </row>
     <row r="261" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C261" s="129"/>
-      <c r="D261" s="129"/>
-      <c r="E261" s="129"/>
-      <c r="F261" s="129"/>
-      <c r="G261" s="129"/>
-      <c r="H261" s="129"/>
-      <c r="I261" s="129"/>
-      <c r="J261" s="129"/>
-      <c r="K261" s="129"/>
-      <c r="L261" s="129"/>
-      <c r="M261" s="129"/>
-      <c r="N261" s="129"/>
-      <c r="O261" s="129"/>
-      <c r="P261" s="129"/>
-      <c r="Q261" s="129"/>
-      <c r="R261" s="129"/>
-      <c r="S261" s="129"/>
-      <c r="T261" s="129"/>
-      <c r="U261" s="129"/>
-      <c r="V261" s="129"/>
-      <c r="W261" s="129"/>
+      <c r="C261" s="130"/>
+      <c r="D261" s="130"/>
+      <c r="E261" s="130"/>
+      <c r="F261" s="130"/>
+      <c r="G261" s="130"/>
+      <c r="H261" s="130"/>
+      <c r="I261" s="130"/>
+      <c r="J261" s="130"/>
+      <c r="K261" s="130"/>
+      <c r="L261" s="130"/>
+      <c r="M261" s="130"/>
+      <c r="N261" s="130"/>
+      <c r="O261" s="130"/>
+      <c r="P261" s="130"/>
+      <c r="Q261" s="130"/>
+      <c r="R261" s="130"/>
+      <c r="S261" s="130"/>
+      <c r="T261" s="130"/>
+      <c r="U261" s="130"/>
+      <c r="V261" s="130"/>
+      <c r="W261" s="130"/>
     </row>
     <row r="262" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C262" s="129"/>
-      <c r="D262" s="129"/>
-      <c r="E262" s="129"/>
-      <c r="F262" s="129"/>
-      <c r="G262" s="129"/>
-      <c r="H262" s="129"/>
-      <c r="I262" s="129"/>
-      <c r="J262" s="129"/>
-      <c r="K262" s="129"/>
-      <c r="L262" s="129"/>
-      <c r="M262" s="129"/>
-      <c r="N262" s="129"/>
-      <c r="O262" s="129"/>
-      <c r="P262" s="129"/>
-      <c r="Q262" s="129"/>
-      <c r="R262" s="129"/>
-      <c r="S262" s="129"/>
-      <c r="T262" s="129"/>
-      <c r="U262" s="129"/>
-      <c r="V262" s="129"/>
-      <c r="W262" s="129"/>
+      <c r="C262" s="130"/>
+      <c r="D262" s="130"/>
+      <c r="E262" s="130"/>
+      <c r="F262" s="130"/>
+      <c r="G262" s="130"/>
+      <c r="H262" s="130"/>
+      <c r="I262" s="130"/>
+      <c r="J262" s="130"/>
+      <c r="K262" s="130"/>
+      <c r="L262" s="130"/>
+      <c r="M262" s="130"/>
+      <c r="N262" s="130"/>
+      <c r="O262" s="130"/>
+      <c r="P262" s="130"/>
+      <c r="Q262" s="130"/>
+      <c r="R262" s="130"/>
+      <c r="S262" s="130"/>
+      <c r="T262" s="130"/>
+      <c r="U262" s="130"/>
+      <c r="V262" s="130"/>
+      <c r="W262" s="130"/>
     </row>
     <row r="263" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C263" s="45"/>
@@ -7382,11 +7382,11 @@
     </row>
     <row r="266" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C266" s="38"/>
-      <c r="D266" s="129" t="s">
+      <c r="D266" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E266" s="129"/>
-      <c r="F266" s="129"/>
+      <c r="E266" s="130"/>
+      <c r="F266" s="130"/>
       <c r="G266" s="32"/>
       <c r="H266" s="37"/>
       <c r="I266" s="37"/>
@@ -7407,25 +7407,25 @@
     </row>
     <row r="267" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C267" s="39"/>
-      <c r="D267" s="129"/>
-      <c r="E267" s="129"/>
-      <c r="F267" s="129"/>
+      <c r="D267" s="130"/>
+      <c r="E267" s="130"/>
+      <c r="F267" s="130"/>
       <c r="G267" s="45"/>
       <c r="H267" s="33"/>
       <c r="I267" s="33"/>
       <c r="J267" s="33"/>
-      <c r="K267" s="135" t="s">
+      <c r="K267" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L267" s="135"/>
-      <c r="M267" s="135"/>
-      <c r="N267" s="135"/>
-      <c r="O267" s="135"/>
-      <c r="P267" s="135"/>
-      <c r="Q267" s="135"/>
-      <c r="R267" s="135"/>
-      <c r="S267" s="135"/>
-      <c r="T267" s="135"/>
+      <c r="L267" s="153"/>
+      <c r="M267" s="153"/>
+      <c r="N267" s="153"/>
+      <c r="O267" s="153"/>
+      <c r="P267" s="153"/>
+      <c r="Q267" s="153"/>
+      <c r="R267" s="153"/>
+      <c r="S267" s="153"/>
+      <c r="T267" s="153"/>
       <c r="U267" s="33"/>
       <c r="V267" s="33"/>
       <c r="W267" s="43"/>
@@ -7434,27 +7434,27 @@
       <c r="C268" s="39"/>
       <c r="D268" s="34"/>
       <c r="E268" s="35"/>
-      <c r="F268" s="136" t="s">
+      <c r="F268" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G268" s="136"/>
-      <c r="H268" s="136"/>
-      <c r="I268" s="136"/>
-      <c r="J268" s="136"/>
-      <c r="K268" s="135"/>
-      <c r="L268" s="135"/>
-      <c r="M268" s="135"/>
-      <c r="N268" s="135"/>
-      <c r="O268" s="135"/>
-      <c r="P268" s="135"/>
-      <c r="Q268" s="135"/>
-      <c r="R268" s="135"/>
-      <c r="S268" s="135"/>
-      <c r="T268" s="135"/>
-      <c r="U268" s="143" t="s">
+      <c r="G268" s="141"/>
+      <c r="H268" s="141"/>
+      <c r="I268" s="141"/>
+      <c r="J268" s="141"/>
+      <c r="K268" s="153"/>
+      <c r="L268" s="153"/>
+      <c r="M268" s="153"/>
+      <c r="N268" s="153"/>
+      <c r="O268" s="153"/>
+      <c r="P268" s="153"/>
+      <c r="Q268" s="153"/>
+      <c r="R268" s="153"/>
+      <c r="S268" s="153"/>
+      <c r="T268" s="153"/>
+      <c r="U268" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V268" s="144"/>
+      <c r="V268" s="155"/>
       <c r="W268" s="43"/>
     </row>
     <row r="269" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7508,26 +7508,26 @@
       <c r="D271" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E271" s="125" t="s">
+      <c r="E271" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F271" s="126"/>
-      <c r="G271" s="126"/>
+      <c r="F271" s="140"/>
+      <c r="G271" s="140"/>
       <c r="I271" s="18"/>
-      <c r="J271" s="154" t="s">
+      <c r="J271" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="K271" s="154"/>
-      <c r="L271" s="154"/>
-      <c r="M271" s="154"/>
-      <c r="N271" s="154"/>
-      <c r="O271" s="154"/>
-      <c r="P271" s="154"/>
-      <c r="Q271" s="154"/>
-      <c r="R271" s="154"/>
-      <c r="S271" s="154"/>
-      <c r="T271" s="154"/>
-      <c r="U271" s="154"/>
+      <c r="K271" s="156"/>
+      <c r="L271" s="156"/>
+      <c r="M271" s="156"/>
+      <c r="N271" s="156"/>
+      <c r="O271" s="156"/>
+      <c r="P271" s="156"/>
+      <c r="Q271" s="156"/>
+      <c r="R271" s="156"/>
+      <c r="S271" s="156"/>
+      <c r="T271" s="156"/>
+      <c r="U271" s="156"/>
       <c r="V271" s="77"/>
       <c r="W271" s="20"/>
     </row>
@@ -7536,11 +7536,11 @@
       <c r="D272" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E272" s="125" t="s">
+      <c r="E272" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F272" s="126"/>
-      <c r="G272" s="126"/>
+      <c r="F272" s="140"/>
+      <c r="G272" s="140"/>
       <c r="I272" s="18"/>
       <c r="J272" s="51"/>
       <c r="K272" s="58"/>
@@ -7555,11 +7555,11 @@
       <c r="D273" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E273" s="127" t="s">
+      <c r="E273" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="F273" s="128"/>
-      <c r="G273" s="128"/>
+      <c r="F273" s="143"/>
+      <c r="G273" s="143"/>
       <c r="I273" s="18"/>
       <c r="V273" s="78"/>
       <c r="W273" s="20"/>
@@ -7569,11 +7569,11 @@
       <c r="D274" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E274" s="125" t="s">
+      <c r="E274" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F274" s="126"/>
-      <c r="G274" s="126"/>
+      <c r="F274" s="140"/>
+      <c r="G274" s="140"/>
       <c r="I274" s="18" t="s">
         <v>35</v>
       </c>
@@ -7595,11 +7595,11 @@
       <c r="D275" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E275" s="125" t="s">
+      <c r="E275" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F275" s="126"/>
-      <c r="G275" s="126"/>
+      <c r="F275" s="140"/>
+      <c r="G275" s="140"/>
       <c r="I275" s="18"/>
       <c r="L275" s="82"/>
       <c r="M275" s="88" t="s">
@@ -7744,75 +7744,75 @@
       <c r="W289" s="20"/>
     </row>
     <row r="290" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C290" s="129" t="s">
+      <c r="C290" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D290" s="129"/>
-      <c r="E290" s="129"/>
-      <c r="F290" s="129"/>
-      <c r="G290" s="129"/>
-      <c r="H290" s="129"/>
-      <c r="I290" s="129"/>
-      <c r="J290" s="129"/>
-      <c r="K290" s="129"/>
-      <c r="L290" s="129"/>
-      <c r="M290" s="129"/>
-      <c r="N290" s="129"/>
-      <c r="O290" s="129"/>
-      <c r="P290" s="129"/>
-      <c r="Q290" s="129"/>
-      <c r="R290" s="129"/>
-      <c r="S290" s="129"/>
-      <c r="T290" s="129"/>
-      <c r="U290" s="129"/>
-      <c r="V290" s="129"/>
-      <c r="W290" s="129"/>
+      <c r="D290" s="130"/>
+      <c r="E290" s="130"/>
+      <c r="F290" s="130"/>
+      <c r="G290" s="130"/>
+      <c r="H290" s="130"/>
+      <c r="I290" s="130"/>
+      <c r="J290" s="130"/>
+      <c r="K290" s="130"/>
+      <c r="L290" s="130"/>
+      <c r="M290" s="130"/>
+      <c r="N290" s="130"/>
+      <c r="O290" s="130"/>
+      <c r="P290" s="130"/>
+      <c r="Q290" s="130"/>
+      <c r="R290" s="130"/>
+      <c r="S290" s="130"/>
+      <c r="T290" s="130"/>
+      <c r="U290" s="130"/>
+      <c r="V290" s="130"/>
+      <c r="W290" s="130"/>
     </row>
     <row r="291" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C291" s="129"/>
-      <c r="D291" s="129"/>
-      <c r="E291" s="129"/>
-      <c r="F291" s="129"/>
-      <c r="G291" s="129"/>
-      <c r="H291" s="129"/>
-      <c r="I291" s="129"/>
-      <c r="J291" s="129"/>
-      <c r="K291" s="129"/>
-      <c r="L291" s="129"/>
-      <c r="M291" s="129"/>
-      <c r="N291" s="129"/>
-      <c r="O291" s="129"/>
-      <c r="P291" s="129"/>
-      <c r="Q291" s="129"/>
-      <c r="R291" s="129"/>
-      <c r="S291" s="129"/>
-      <c r="T291" s="129"/>
-      <c r="U291" s="129"/>
-      <c r="V291" s="129"/>
-      <c r="W291" s="129"/>
+      <c r="C291" s="130"/>
+      <c r="D291" s="130"/>
+      <c r="E291" s="130"/>
+      <c r="F291" s="130"/>
+      <c r="G291" s="130"/>
+      <c r="H291" s="130"/>
+      <c r="I291" s="130"/>
+      <c r="J291" s="130"/>
+      <c r="K291" s="130"/>
+      <c r="L291" s="130"/>
+      <c r="M291" s="130"/>
+      <c r="N291" s="130"/>
+      <c r="O291" s="130"/>
+      <c r="P291" s="130"/>
+      <c r="Q291" s="130"/>
+      <c r="R291" s="130"/>
+      <c r="S291" s="130"/>
+      <c r="T291" s="130"/>
+      <c r="U291" s="130"/>
+      <c r="V291" s="130"/>
+      <c r="W291" s="130"/>
     </row>
     <row r="292" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C292" s="129"/>
-      <c r="D292" s="129"/>
-      <c r="E292" s="129"/>
-      <c r="F292" s="129"/>
-      <c r="G292" s="129"/>
-      <c r="H292" s="129"/>
-      <c r="I292" s="129"/>
-      <c r="J292" s="129"/>
-      <c r="K292" s="129"/>
-      <c r="L292" s="129"/>
-      <c r="M292" s="129"/>
-      <c r="N292" s="129"/>
-      <c r="O292" s="129"/>
-      <c r="P292" s="129"/>
-      <c r="Q292" s="129"/>
-      <c r="R292" s="129"/>
-      <c r="S292" s="129"/>
-      <c r="T292" s="129"/>
-      <c r="U292" s="129"/>
-      <c r="V292" s="129"/>
-      <c r="W292" s="129"/>
+      <c r="C292" s="130"/>
+      <c r="D292" s="130"/>
+      <c r="E292" s="130"/>
+      <c r="F292" s="130"/>
+      <c r="G292" s="130"/>
+      <c r="H292" s="130"/>
+      <c r="I292" s="130"/>
+      <c r="J292" s="130"/>
+      <c r="K292" s="130"/>
+      <c r="L292" s="130"/>
+      <c r="M292" s="130"/>
+      <c r="N292" s="130"/>
+      <c r="O292" s="130"/>
+      <c r="P292" s="130"/>
+      <c r="Q292" s="130"/>
+      <c r="R292" s="130"/>
+      <c r="S292" s="130"/>
+      <c r="T292" s="130"/>
+      <c r="U292" s="130"/>
+      <c r="V292" s="130"/>
+      <c r="W292" s="130"/>
     </row>
     <row r="295" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B295" s="61" t="s">
@@ -7821,11 +7821,11 @@
     </row>
     <row r="297" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C297" s="38"/>
-      <c r="D297" s="129" t="s">
+      <c r="D297" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E297" s="129"/>
-      <c r="F297" s="129"/>
+      <c r="E297" s="130"/>
+      <c r="F297" s="130"/>
       <c r="G297" s="32"/>
       <c r="H297" s="37"/>
       <c r="I297" s="37"/>
@@ -7846,25 +7846,25 @@
     </row>
     <row r="298" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C298" s="39"/>
-      <c r="D298" s="129"/>
-      <c r="E298" s="129"/>
-      <c r="F298" s="129"/>
+      <c r="D298" s="130"/>
+      <c r="E298" s="130"/>
+      <c r="F298" s="130"/>
       <c r="G298" s="45"/>
       <c r="H298" s="33"/>
       <c r="I298" s="33"/>
       <c r="J298" s="33"/>
-      <c r="K298" s="135" t="s">
+      <c r="K298" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L298" s="135"/>
-      <c r="M298" s="135"/>
-      <c r="N298" s="135"/>
-      <c r="O298" s="135"/>
-      <c r="P298" s="135"/>
-      <c r="Q298" s="135"/>
-      <c r="R298" s="135"/>
-      <c r="S298" s="135"/>
-      <c r="T298" s="135"/>
+      <c r="L298" s="153"/>
+      <c r="M298" s="153"/>
+      <c r="N298" s="153"/>
+      <c r="O298" s="153"/>
+      <c r="P298" s="153"/>
+      <c r="Q298" s="153"/>
+      <c r="R298" s="153"/>
+      <c r="S298" s="153"/>
+      <c r="T298" s="153"/>
       <c r="U298" s="33"/>
       <c r="V298" s="33"/>
       <c r="W298" s="43"/>
@@ -7873,27 +7873,27 @@
       <c r="C299" s="39"/>
       <c r="D299" s="34"/>
       <c r="E299" s="35"/>
-      <c r="F299" s="136" t="s">
+      <c r="F299" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G299" s="136"/>
-      <c r="H299" s="136"/>
-      <c r="I299" s="136"/>
-      <c r="J299" s="136"/>
-      <c r="K299" s="135"/>
-      <c r="L299" s="135"/>
-      <c r="M299" s="135"/>
-      <c r="N299" s="135"/>
-      <c r="O299" s="135"/>
-      <c r="P299" s="135"/>
-      <c r="Q299" s="135"/>
-      <c r="R299" s="135"/>
-      <c r="S299" s="135"/>
-      <c r="T299" s="135"/>
-      <c r="U299" s="143" t="s">
+      <c r="G299" s="141"/>
+      <c r="H299" s="141"/>
+      <c r="I299" s="141"/>
+      <c r="J299" s="141"/>
+      <c r="K299" s="153"/>
+      <c r="L299" s="153"/>
+      <c r="M299" s="153"/>
+      <c r="N299" s="153"/>
+      <c r="O299" s="153"/>
+      <c r="P299" s="153"/>
+      <c r="Q299" s="153"/>
+      <c r="R299" s="153"/>
+      <c r="S299" s="153"/>
+      <c r="T299" s="153"/>
+      <c r="U299" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V299" s="144"/>
+      <c r="V299" s="155"/>
       <c r="W299" s="43"/>
     </row>
     <row r="300" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7947,26 +7947,26 @@
       <c r="D302" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="125" t="s">
+      <c r="E302" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F302" s="126"/>
-      <c r="G302" s="126"/>
+      <c r="F302" s="140"/>
+      <c r="G302" s="140"/>
       <c r="I302" s="18"/>
-      <c r="J302" s="154" t="s">
+      <c r="J302" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="K302" s="154"/>
-      <c r="L302" s="154"/>
-      <c r="M302" s="154"/>
-      <c r="N302" s="154"/>
-      <c r="O302" s="154"/>
-      <c r="P302" s="154"/>
-      <c r="Q302" s="154"/>
-      <c r="R302" s="154"/>
-      <c r="S302" s="154"/>
-      <c r="T302" s="154"/>
-      <c r="U302" s="154"/>
+      <c r="K302" s="156"/>
+      <c r="L302" s="156"/>
+      <c r="M302" s="156"/>
+      <c r="N302" s="156"/>
+      <c r="O302" s="156"/>
+      <c r="P302" s="156"/>
+      <c r="Q302" s="156"/>
+      <c r="R302" s="156"/>
+      <c r="S302" s="156"/>
+      <c r="T302" s="156"/>
+      <c r="U302" s="156"/>
       <c r="V302" s="20"/>
       <c r="W302" s="20"/>
     </row>
@@ -7975,11 +7975,11 @@
       <c r="D303" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E303" s="125" t="s">
+      <c r="E303" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F303" s="126"/>
-      <c r="G303" s="126"/>
+      <c r="F303" s="140"/>
+      <c r="G303" s="140"/>
       <c r="I303" s="18"/>
       <c r="J303" s="51"/>
       <c r="K303" s="58"/>
@@ -7994,35 +7994,35 @@
       <c r="D304" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E304" s="125" t="s">
+      <c r="E304" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F304" s="126"/>
-      <c r="G304" s="126"/>
+      <c r="F304" s="140"/>
+      <c r="G304" s="140"/>
       <c r="I304" s="18"/>
-      <c r="J304" s="161" t="s">
+      <c r="J304" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="K304" s="162"/>
+      <c r="K304" s="132"/>
       <c r="L304" s="66"/>
-      <c r="M304" s="130" t="s">
+      <c r="M304" s="150" t="s">
         <v>160</v>
       </c>
-      <c r="N304" s="148"/>
-      <c r="O304" s="148"/>
-      <c r="P304" s="148"/>
-      <c r="Q304" s="163" t="s">
+      <c r="N304" s="151"/>
+      <c r="O304" s="151"/>
+      <c r="P304" s="151"/>
+      <c r="Q304" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="R304" s="164"/>
+      <c r="R304" s="147"/>
       <c r="S304" s="64"/>
       <c r="T304" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="U304" s="131" t="s">
+      <c r="U304" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="V304" s="157"/>
+      <c r="V304" s="161"/>
       <c r="W304" s="20"/>
     </row>
     <row r="305" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8030,11 +8030,11 @@
       <c r="D305" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E305" s="127" t="s">
+      <c r="E305" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="F305" s="128"/>
-      <c r="G305" s="128"/>
+      <c r="F305" s="143"/>
+      <c r="G305" s="143"/>
       <c r="I305" s="18" t="s">
         <v>35</v>
       </c>
@@ -8050,11 +8050,11 @@
       <c r="D306" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="125" t="s">
+      <c r="E306" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F306" s="126"/>
-      <c r="G306" s="126"/>
+      <c r="F306" s="140"/>
+      <c r="G306" s="140"/>
       <c r="I306" s="18"/>
       <c r="J306" s="72" t="s">
         <v>61</v>
@@ -8062,28 +8062,28 @@
       <c r="K306" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="L306" s="150" t="s">
+      <c r="L306" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="M306" s="151"/>
-      <c r="N306" s="150" t="s">
+      <c r="M306" s="134"/>
+      <c r="N306" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="O306" s="151"/>
+      <c r="O306" s="134"/>
       <c r="P306" s="72" t="s">
         <v>158</v>
       </c>
       <c r="Q306" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="R306" s="150" t="s">
+      <c r="R306" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="S306" s="151"/>
-      <c r="T306" s="139" t="s">
+      <c r="S306" s="134"/>
+      <c r="T306" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="U306" s="139"/>
+      <c r="U306" s="157"/>
       <c r="V306" s="20" t="s">
         <v>309</v>
       </c>
@@ -8098,22 +8098,22 @@
       <c r="K307" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="L307" s="132" t="s">
+      <c r="L307" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="M307" s="133"/>
-      <c r="N307" s="152">
+      <c r="M307" s="127"/>
+      <c r="N307" s="128">
         <v>2000</v>
       </c>
-      <c r="O307" s="153"/>
+      <c r="O307" s="129"/>
       <c r="P307" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q307" s="63"/>
-      <c r="R307" s="132" t="s">
+      <c r="R307" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="S307" s="134"/>
+      <c r="S307" s="165"/>
       <c r="T307" s="73" t="s">
         <v>27</v>
       </c>
@@ -8133,22 +8133,22 @@
       <c r="K308" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="L308" s="132" t="s">
+      <c r="L308" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="M308" s="133"/>
-      <c r="N308" s="152">
+      <c r="M308" s="127"/>
+      <c r="N308" s="128">
         <v>2001</v>
       </c>
-      <c r="O308" s="153"/>
+      <c r="O308" s="129"/>
       <c r="P308" s="90" t="s">
         <v>180</v>
       </c>
       <c r="Q308" s="63"/>
-      <c r="R308" s="132" t="s">
+      <c r="R308" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S308" s="134"/>
+      <c r="S308" s="165"/>
       <c r="T308" s="73" t="s">
         <v>27</v>
       </c>
@@ -8167,22 +8167,22 @@
       <c r="K309" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="L309" s="132" t="s">
+      <c r="L309" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="M309" s="133"/>
-      <c r="N309" s="152">
+      <c r="M309" s="127"/>
+      <c r="N309" s="128">
         <v>2002</v>
       </c>
-      <c r="O309" s="153"/>
+      <c r="O309" s="129"/>
       <c r="P309" s="90" t="s">
         <v>181</v>
       </c>
       <c r="Q309" s="63"/>
-      <c r="R309" s="132" t="s">
+      <c r="R309" s="126" t="s">
         <v>184</v>
       </c>
-      <c r="S309" s="134"/>
+      <c r="S309" s="165"/>
       <c r="T309" s="73" t="s">
         <v>27</v>
       </c>
@@ -8201,22 +8201,22 @@
       <c r="K310" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="L310" s="132" t="s">
+      <c r="L310" s="126" t="s">
         <v>172</v>
       </c>
-      <c r="M310" s="133"/>
-      <c r="N310" s="152">
+      <c r="M310" s="127"/>
+      <c r="N310" s="128">
         <v>2000</v>
       </c>
-      <c r="O310" s="153"/>
+      <c r="O310" s="129"/>
       <c r="P310" s="90" t="s">
         <v>182</v>
       </c>
       <c r="Q310" s="63"/>
-      <c r="R310" s="132" t="s">
+      <c r="R310" s="126" t="s">
         <v>185</v>
       </c>
-      <c r="S310" s="134"/>
+      <c r="S310" s="165"/>
       <c r="T310" s="73" t="s">
         <v>27</v>
       </c>
@@ -8235,22 +8235,22 @@
       <c r="K311" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="L311" s="132" t="s">
+      <c r="L311" s="126" t="s">
         <v>173</v>
       </c>
-      <c r="M311" s="133"/>
-      <c r="N311" s="152">
+      <c r="M311" s="127"/>
+      <c r="N311" s="128">
         <v>2000</v>
       </c>
-      <c r="O311" s="153"/>
+      <c r="O311" s="129"/>
       <c r="P311" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q311" s="63"/>
-      <c r="R311" s="132" t="s">
+      <c r="R311" s="126" t="s">
         <v>186</v>
       </c>
-      <c r="S311" s="134"/>
+      <c r="S311" s="165"/>
       <c r="T311" s="73" t="s">
         <v>27</v>
       </c>
@@ -8269,22 +8269,22 @@
       <c r="K312" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="L312" s="132" t="s">
+      <c r="L312" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="M312" s="133"/>
-      <c r="N312" s="152">
+      <c r="M312" s="127"/>
+      <c r="N312" s="128">
         <v>2000</v>
       </c>
-      <c r="O312" s="153"/>
+      <c r="O312" s="129"/>
       <c r="P312" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q312" s="63"/>
-      <c r="R312" s="132" t="s">
+      <c r="R312" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S312" s="134"/>
+      <c r="S312" s="165"/>
       <c r="T312" s="73" t="s">
         <v>27</v>
       </c>
@@ -8303,22 +8303,22 @@
       <c r="K313" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="L313" s="132" t="s">
+      <c r="L313" s="126" t="s">
         <v>175</v>
       </c>
-      <c r="M313" s="133"/>
-      <c r="N313" s="152">
+      <c r="M313" s="127"/>
+      <c r="N313" s="128">
         <v>2000</v>
       </c>
-      <c r="O313" s="153"/>
+      <c r="O313" s="129"/>
       <c r="P313" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q313" s="63"/>
-      <c r="R313" s="132" t="s">
+      <c r="R313" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S313" s="134"/>
+      <c r="S313" s="165"/>
       <c r="T313" s="73" t="s">
         <v>27</v>
       </c>
@@ -8337,22 +8337,22 @@
       <c r="K314" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="L314" s="132" t="s">
+      <c r="L314" s="126" t="s">
         <v>176</v>
       </c>
-      <c r="M314" s="133"/>
-      <c r="N314" s="152">
+      <c r="M314" s="127"/>
+      <c r="N314" s="128">
         <v>2000</v>
       </c>
-      <c r="O314" s="153"/>
+      <c r="O314" s="129"/>
       <c r="P314" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q314" s="63"/>
-      <c r="R314" s="132" t="s">
+      <c r="R314" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S314" s="134"/>
+      <c r="S314" s="165"/>
       <c r="T314" s="73" t="s">
         <v>27</v>
       </c>
@@ -8371,22 +8371,22 @@
       <c r="K315" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="L315" s="132" t="s">
+      <c r="L315" s="126" t="s">
         <v>177</v>
       </c>
-      <c r="M315" s="133"/>
-      <c r="N315" s="152">
+      <c r="M315" s="127"/>
+      <c r="N315" s="128">
         <v>2000</v>
       </c>
-      <c r="O315" s="153"/>
+      <c r="O315" s="129"/>
       <c r="P315" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q315" s="63"/>
-      <c r="R315" s="132" t="s">
+      <c r="R315" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S315" s="134"/>
+      <c r="S315" s="165"/>
       <c r="T315" s="73" t="s">
         <v>27</v>
       </c>
@@ -8405,22 +8405,22 @@
       <c r="K316" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="L316" s="132" t="s">
+      <c r="L316" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="M316" s="133"/>
-      <c r="N316" s="152">
+      <c r="M316" s="127"/>
+      <c r="N316" s="128">
         <v>2000</v>
       </c>
-      <c r="O316" s="153"/>
+      <c r="O316" s="129"/>
       <c r="P316" s="90" t="s">
         <v>179</v>
       </c>
       <c r="Q316" s="63"/>
-      <c r="R316" s="132" t="s">
+      <c r="R316" s="126" t="s">
         <v>183</v>
       </c>
-      <c r="S316" s="134"/>
+      <c r="S316" s="165"/>
       <c r="T316" s="73" t="s">
         <v>27</v>
       </c>
@@ -8485,75 +8485,75 @@
       <c r="W320" s="20"/>
     </row>
     <row r="321" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C321" s="129" t="s">
+      <c r="C321" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D321" s="129"/>
-      <c r="E321" s="129"/>
-      <c r="F321" s="129"/>
-      <c r="G321" s="129"/>
-      <c r="H321" s="129"/>
-      <c r="I321" s="129"/>
-      <c r="J321" s="129"/>
-      <c r="K321" s="129"/>
-      <c r="L321" s="129"/>
-      <c r="M321" s="129"/>
-      <c r="N321" s="129"/>
-      <c r="O321" s="129"/>
-      <c r="P321" s="129"/>
-      <c r="Q321" s="129"/>
-      <c r="R321" s="129"/>
-      <c r="S321" s="129"/>
-      <c r="T321" s="129"/>
-      <c r="U321" s="129"/>
-      <c r="V321" s="129"/>
-      <c r="W321" s="129"/>
+      <c r="D321" s="130"/>
+      <c r="E321" s="130"/>
+      <c r="F321" s="130"/>
+      <c r="G321" s="130"/>
+      <c r="H321" s="130"/>
+      <c r="I321" s="130"/>
+      <c r="J321" s="130"/>
+      <c r="K321" s="130"/>
+      <c r="L321" s="130"/>
+      <c r="M321" s="130"/>
+      <c r="N321" s="130"/>
+      <c r="O321" s="130"/>
+      <c r="P321" s="130"/>
+      <c r="Q321" s="130"/>
+      <c r="R321" s="130"/>
+      <c r="S321" s="130"/>
+      <c r="T321" s="130"/>
+      <c r="U321" s="130"/>
+      <c r="V321" s="130"/>
+      <c r="W321" s="130"/>
     </row>
     <row r="322" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C322" s="129"/>
-      <c r="D322" s="129"/>
-      <c r="E322" s="129"/>
-      <c r="F322" s="129"/>
-      <c r="G322" s="129"/>
-      <c r="H322" s="129"/>
-      <c r="I322" s="129"/>
-      <c r="J322" s="129"/>
-      <c r="K322" s="129"/>
-      <c r="L322" s="129"/>
-      <c r="M322" s="129"/>
-      <c r="N322" s="129"/>
-      <c r="O322" s="129"/>
-      <c r="P322" s="129"/>
-      <c r="Q322" s="129"/>
-      <c r="R322" s="129"/>
-      <c r="S322" s="129"/>
-      <c r="T322" s="129"/>
-      <c r="U322" s="129"/>
-      <c r="V322" s="129"/>
-      <c r="W322" s="129"/>
+      <c r="C322" s="130"/>
+      <c r="D322" s="130"/>
+      <c r="E322" s="130"/>
+      <c r="F322" s="130"/>
+      <c r="G322" s="130"/>
+      <c r="H322" s="130"/>
+      <c r="I322" s="130"/>
+      <c r="J322" s="130"/>
+      <c r="K322" s="130"/>
+      <c r="L322" s="130"/>
+      <c r="M322" s="130"/>
+      <c r="N322" s="130"/>
+      <c r="O322" s="130"/>
+      <c r="P322" s="130"/>
+      <c r="Q322" s="130"/>
+      <c r="R322" s="130"/>
+      <c r="S322" s="130"/>
+      <c r="T322" s="130"/>
+      <c r="U322" s="130"/>
+      <c r="V322" s="130"/>
+      <c r="W322" s="130"/>
     </row>
     <row r="323" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C323" s="129"/>
-      <c r="D323" s="129"/>
-      <c r="E323" s="129"/>
-      <c r="F323" s="129"/>
-      <c r="G323" s="129"/>
-      <c r="H323" s="129"/>
-      <c r="I323" s="129"/>
-      <c r="J323" s="129"/>
-      <c r="K323" s="129"/>
-      <c r="L323" s="129"/>
-      <c r="M323" s="129"/>
-      <c r="N323" s="129"/>
-      <c r="O323" s="129"/>
-      <c r="P323" s="129"/>
-      <c r="Q323" s="129"/>
-      <c r="R323" s="129"/>
-      <c r="S323" s="129"/>
-      <c r="T323" s="129"/>
-      <c r="U323" s="129"/>
-      <c r="V323" s="129"/>
-      <c r="W323" s="129"/>
+      <c r="C323" s="130"/>
+      <c r="D323" s="130"/>
+      <c r="E323" s="130"/>
+      <c r="F323" s="130"/>
+      <c r="G323" s="130"/>
+      <c r="H323" s="130"/>
+      <c r="I323" s="130"/>
+      <c r="J323" s="130"/>
+      <c r="K323" s="130"/>
+      <c r="L323" s="130"/>
+      <c r="M323" s="130"/>
+      <c r="N323" s="130"/>
+      <c r="O323" s="130"/>
+      <c r="P323" s="130"/>
+      <c r="Q323" s="130"/>
+      <c r="R323" s="130"/>
+      <c r="S323" s="130"/>
+      <c r="T323" s="130"/>
+      <c r="U323" s="130"/>
+      <c r="V323" s="130"/>
+      <c r="W323" s="130"/>
     </row>
     <row r="324" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C324" s="45"/>
@@ -8585,11 +8585,11 @@
     </row>
     <row r="327" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C327" s="38"/>
-      <c r="D327" s="129" t="s">
+      <c r="D327" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E327" s="129"/>
-      <c r="F327" s="129"/>
+      <c r="E327" s="130"/>
+      <c r="F327" s="130"/>
       <c r="G327" s="32"/>
       <c r="H327" s="37"/>
       <c r="I327" s="37"/>
@@ -8610,25 +8610,25 @@
     </row>
     <row r="328" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C328" s="39"/>
-      <c r="D328" s="129"/>
-      <c r="E328" s="129"/>
-      <c r="F328" s="129"/>
+      <c r="D328" s="130"/>
+      <c r="E328" s="130"/>
+      <c r="F328" s="130"/>
       <c r="G328" s="45"/>
       <c r="H328" s="33"/>
       <c r="I328" s="33"/>
       <c r="J328" s="33"/>
-      <c r="K328" s="135" t="s">
+      <c r="K328" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L328" s="135"/>
-      <c r="M328" s="135"/>
-      <c r="N328" s="135"/>
-      <c r="O328" s="135"/>
-      <c r="P328" s="135"/>
-      <c r="Q328" s="135"/>
-      <c r="R328" s="135"/>
-      <c r="S328" s="135"/>
-      <c r="T328" s="135"/>
+      <c r="L328" s="153"/>
+      <c r="M328" s="153"/>
+      <c r="N328" s="153"/>
+      <c r="O328" s="153"/>
+      <c r="P328" s="153"/>
+      <c r="Q328" s="153"/>
+      <c r="R328" s="153"/>
+      <c r="S328" s="153"/>
+      <c r="T328" s="153"/>
       <c r="U328" s="33"/>
       <c r="V328" s="33"/>
       <c r="W328" s="43"/>
@@ -8637,27 +8637,27 @@
       <c r="C329" s="39"/>
       <c r="D329" s="34"/>
       <c r="E329" s="35"/>
-      <c r="F329" s="136" t="s">
+      <c r="F329" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G329" s="136"/>
-      <c r="H329" s="136"/>
-      <c r="I329" s="136"/>
-      <c r="J329" s="136"/>
-      <c r="K329" s="135"/>
-      <c r="L329" s="135"/>
-      <c r="M329" s="135"/>
-      <c r="N329" s="135"/>
-      <c r="O329" s="135"/>
-      <c r="P329" s="135"/>
-      <c r="Q329" s="135"/>
-      <c r="R329" s="135"/>
-      <c r="S329" s="135"/>
-      <c r="T329" s="135"/>
-      <c r="U329" s="143" t="s">
+      <c r="G329" s="141"/>
+      <c r="H329" s="141"/>
+      <c r="I329" s="141"/>
+      <c r="J329" s="141"/>
+      <c r="K329" s="153"/>
+      <c r="L329" s="153"/>
+      <c r="M329" s="153"/>
+      <c r="N329" s="153"/>
+      <c r="O329" s="153"/>
+      <c r="P329" s="153"/>
+      <c r="Q329" s="153"/>
+      <c r="R329" s="153"/>
+      <c r="S329" s="153"/>
+      <c r="T329" s="153"/>
+      <c r="U329" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V329" s="144"/>
+      <c r="V329" s="155"/>
       <c r="W329" s="43"/>
     </row>
     <row r="330" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8711,26 +8711,26 @@
       <c r="D332" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="125" t="s">
+      <c r="E332" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F332" s="126"/>
-      <c r="G332" s="126"/>
+      <c r="F332" s="140"/>
+      <c r="G332" s="140"/>
       <c r="I332" s="18"/>
-      <c r="J332" s="154" t="s">
+      <c r="J332" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="K332" s="154"/>
-      <c r="L332" s="154"/>
-      <c r="M332" s="154"/>
-      <c r="N332" s="154"/>
-      <c r="O332" s="154"/>
-      <c r="P332" s="154"/>
-      <c r="Q332" s="154"/>
-      <c r="R332" s="154"/>
-      <c r="S332" s="154"/>
-      <c r="T332" s="154"/>
-      <c r="U332" s="154"/>
+      <c r="K332" s="156"/>
+      <c r="L332" s="156"/>
+      <c r="M332" s="156"/>
+      <c r="N332" s="156"/>
+      <c r="O332" s="156"/>
+      <c r="P332" s="156"/>
+      <c r="Q332" s="156"/>
+      <c r="R332" s="156"/>
+      <c r="S332" s="156"/>
+      <c r="T332" s="156"/>
+      <c r="U332" s="156"/>
       <c r="V332" s="77"/>
       <c r="W332" s="20"/>
     </row>
@@ -8739,11 +8739,11 @@
       <c r="D333" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="125" t="s">
+      <c r="E333" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F333" s="126"/>
-      <c r="G333" s="126"/>
+      <c r="F333" s="140"/>
+      <c r="G333" s="140"/>
       <c r="I333" s="18"/>
       <c r="J333" s="51"/>
       <c r="K333" s="58"/>
@@ -8758,11 +8758,11 @@
       <c r="D334" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="125" t="s">
+      <c r="E334" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F334" s="126"/>
-      <c r="G334" s="126"/>
+      <c r="F334" s="140"/>
+      <c r="G334" s="140"/>
       <c r="I334" s="18"/>
       <c r="K334" s="81"/>
       <c r="L334" s="80"/>
@@ -8784,11 +8784,11 @@
       <c r="D335" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="127" t="s">
+      <c r="E335" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="F335" s="128"/>
-      <c r="G335" s="128"/>
+      <c r="F335" s="143"/>
+      <c r="G335" s="143"/>
       <c r="I335" s="18" t="s">
         <v>35</v>
       </c>
@@ -8805,11 +8805,11 @@
       <c r="D336" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="125" t="s">
+      <c r="E336" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F336" s="126"/>
-      <c r="G336" s="126"/>
+      <c r="F336" s="140"/>
+      <c r="G336" s="140"/>
       <c r="I336" s="18"/>
       <c r="K336" s="82"/>
       <c r="T336" s="78"/>
@@ -8823,14 +8823,14 @@
       <c r="L337" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N337" s="138" t="s">
+      <c r="N337" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="O337" s="142"/>
-      <c r="P337" s="142"/>
-      <c r="Q337" s="142"/>
-      <c r="R337" s="142"/>
-      <c r="S337" s="142"/>
+      <c r="O337" s="145"/>
+      <c r="P337" s="145"/>
+      <c r="Q337" s="145"/>
+      <c r="R337" s="145"/>
+      <c r="S337" s="145"/>
       <c r="T337" s="78"/>
       <c r="V337" s="78"/>
       <c r="W337" s="20"/>
@@ -8850,14 +8850,14 @@
       <c r="L339" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N339" s="138" t="s">
+      <c r="N339" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="O339" s="142"/>
-      <c r="P339" s="142"/>
-      <c r="Q339" s="142"/>
-      <c r="R339" s="142"/>
-      <c r="S339" s="142"/>
+      <c r="O339" s="145"/>
+      <c r="P339" s="145"/>
+      <c r="Q339" s="145"/>
+      <c r="R339" s="145"/>
+      <c r="S339" s="145"/>
       <c r="T339" s="78"/>
       <c r="V339" s="78"/>
       <c r="W339" s="20"/>
@@ -8877,14 +8877,14 @@
       <c r="L341" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="N341" s="138" t="s">
+      <c r="N341" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="O341" s="142"/>
-      <c r="P341" s="142"/>
-      <c r="Q341" s="142"/>
-      <c r="R341" s="142"/>
-      <c r="S341" s="142"/>
+      <c r="O341" s="145"/>
+      <c r="P341" s="145"/>
+      <c r="Q341" s="145"/>
+      <c r="R341" s="145"/>
+      <c r="S341" s="145"/>
       <c r="T341" s="78"/>
       <c r="V341" s="78"/>
       <c r="W341" s="20"/>
@@ -8904,14 +8904,14 @@
       <c r="L343" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="N343" s="138" t="s">
+      <c r="N343" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="O343" s="142"/>
-      <c r="P343" s="142"/>
-      <c r="Q343" s="142"/>
-      <c r="R343" s="142"/>
-      <c r="S343" s="142"/>
+      <c r="O343" s="145"/>
+      <c r="P343" s="145"/>
+      <c r="Q343" s="145"/>
+      <c r="R343" s="145"/>
+      <c r="S343" s="145"/>
       <c r="T343" s="78"/>
       <c r="V343" s="78"/>
       <c r="W343" s="20"/>
@@ -8931,14 +8931,14 @@
       <c r="L345" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N345" s="156" t="s">
+      <c r="N345" s="166" t="s">
         <v>147</v>
       </c>
-      <c r="O345" s="146"/>
-      <c r="P345" s="146"/>
-      <c r="Q345" s="146"/>
-      <c r="R345" s="146"/>
-      <c r="S345" s="147"/>
+      <c r="O345" s="167"/>
+      <c r="P345" s="167"/>
+      <c r="Q345" s="167"/>
+      <c r="R345" s="167"/>
+      <c r="S345" s="168"/>
       <c r="T345" s="78"/>
       <c r="V345" s="78"/>
       <c r="W345" s="20"/>
@@ -8959,14 +8959,14 @@
         <v>193</v>
       </c>
       <c r="M347" s="30"/>
-      <c r="N347" s="130" t="s">
+      <c r="N347" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="O347" s="148"/>
-      <c r="P347" s="148"/>
-      <c r="Q347" s="148"/>
-      <c r="R347" s="148"/>
-      <c r="S347" s="148"/>
+      <c r="O347" s="151"/>
+      <c r="P347" s="151"/>
+      <c r="Q347" s="151"/>
+      <c r="R347" s="151"/>
+      <c r="S347" s="151"/>
       <c r="T347" s="78"/>
       <c r="V347" s="78"/>
       <c r="W347" s="20"/>
@@ -9038,10 +9038,10 @@
       <c r="P351" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Q351" s="149" t="s">
+      <c r="Q351" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R351" s="149"/>
+      <c r="R351" s="152"/>
       <c r="S351" s="52"/>
       <c r="T351" s="77"/>
       <c r="V351" s="78"/>
@@ -9082,75 +9082,75 @@
       <c r="W353" s="20"/>
     </row>
     <row r="354" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C354" s="129" t="s">
+      <c r="C354" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="129"/>
-      <c r="E354" s="129"/>
-      <c r="F354" s="129"/>
-      <c r="G354" s="129"/>
-      <c r="H354" s="129"/>
-      <c r="I354" s="129"/>
-      <c r="J354" s="129"/>
-      <c r="K354" s="129"/>
-      <c r="L354" s="129"/>
-      <c r="M354" s="129"/>
-      <c r="N354" s="129"/>
-      <c r="O354" s="129"/>
-      <c r="P354" s="129"/>
-      <c r="Q354" s="129"/>
-      <c r="R354" s="129"/>
-      <c r="S354" s="129"/>
-      <c r="T354" s="129"/>
-      <c r="U354" s="129"/>
-      <c r="V354" s="129"/>
-      <c r="W354" s="129"/>
+      <c r="D354" s="130"/>
+      <c r="E354" s="130"/>
+      <c r="F354" s="130"/>
+      <c r="G354" s="130"/>
+      <c r="H354" s="130"/>
+      <c r="I354" s="130"/>
+      <c r="J354" s="130"/>
+      <c r="K354" s="130"/>
+      <c r="L354" s="130"/>
+      <c r="M354" s="130"/>
+      <c r="N354" s="130"/>
+      <c r="O354" s="130"/>
+      <c r="P354" s="130"/>
+      <c r="Q354" s="130"/>
+      <c r="R354" s="130"/>
+      <c r="S354" s="130"/>
+      <c r="T354" s="130"/>
+      <c r="U354" s="130"/>
+      <c r="V354" s="130"/>
+      <c r="W354" s="130"/>
     </row>
     <row r="355" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C355" s="129"/>
-      <c r="D355" s="129"/>
-      <c r="E355" s="129"/>
-      <c r="F355" s="129"/>
-      <c r="G355" s="129"/>
-      <c r="H355" s="129"/>
-      <c r="I355" s="129"/>
-      <c r="J355" s="129"/>
-      <c r="K355" s="129"/>
-      <c r="L355" s="129"/>
-      <c r="M355" s="129"/>
-      <c r="N355" s="129"/>
-      <c r="O355" s="129"/>
-      <c r="P355" s="129"/>
-      <c r="Q355" s="129"/>
-      <c r="R355" s="129"/>
-      <c r="S355" s="129"/>
-      <c r="T355" s="129"/>
-      <c r="U355" s="129"/>
-      <c r="V355" s="129"/>
-      <c r="W355" s="129"/>
+      <c r="C355" s="130"/>
+      <c r="D355" s="130"/>
+      <c r="E355" s="130"/>
+      <c r="F355" s="130"/>
+      <c r="G355" s="130"/>
+      <c r="H355" s="130"/>
+      <c r="I355" s="130"/>
+      <c r="J355" s="130"/>
+      <c r="K355" s="130"/>
+      <c r="L355" s="130"/>
+      <c r="M355" s="130"/>
+      <c r="N355" s="130"/>
+      <c r="O355" s="130"/>
+      <c r="P355" s="130"/>
+      <c r="Q355" s="130"/>
+      <c r="R355" s="130"/>
+      <c r="S355" s="130"/>
+      <c r="T355" s="130"/>
+      <c r="U355" s="130"/>
+      <c r="V355" s="130"/>
+      <c r="W355" s="130"/>
     </row>
     <row r="356" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C356" s="129"/>
-      <c r="D356" s="129"/>
-      <c r="E356" s="129"/>
-      <c r="F356" s="129"/>
-      <c r="G356" s="129"/>
-      <c r="H356" s="129"/>
-      <c r="I356" s="129"/>
-      <c r="J356" s="129"/>
-      <c r="K356" s="129"/>
-      <c r="L356" s="129"/>
-      <c r="M356" s="129"/>
-      <c r="N356" s="129"/>
-      <c r="O356" s="129"/>
-      <c r="P356" s="129"/>
-      <c r="Q356" s="129"/>
-      <c r="R356" s="129"/>
-      <c r="S356" s="129"/>
-      <c r="T356" s="129"/>
-      <c r="U356" s="129"/>
-      <c r="V356" s="129"/>
-      <c r="W356" s="129"/>
+      <c r="C356" s="130"/>
+      <c r="D356" s="130"/>
+      <c r="E356" s="130"/>
+      <c r="F356" s="130"/>
+      <c r="G356" s="130"/>
+      <c r="H356" s="130"/>
+      <c r="I356" s="130"/>
+      <c r="J356" s="130"/>
+      <c r="K356" s="130"/>
+      <c r="L356" s="130"/>
+      <c r="M356" s="130"/>
+      <c r="N356" s="130"/>
+      <c r="O356" s="130"/>
+      <c r="P356" s="130"/>
+      <c r="Q356" s="130"/>
+      <c r="R356" s="130"/>
+      <c r="S356" s="130"/>
+      <c r="T356" s="130"/>
+      <c r="U356" s="130"/>
+      <c r="V356" s="130"/>
+      <c r="W356" s="130"/>
     </row>
     <row r="357" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C357" s="30"/>
@@ -9205,11 +9205,11 @@
     </row>
     <row r="361" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C361" s="38"/>
-      <c r="D361" s="129" t="s">
+      <c r="D361" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E361" s="129"/>
-      <c r="F361" s="129"/>
+      <c r="E361" s="130"/>
+      <c r="F361" s="130"/>
       <c r="G361" s="32"/>
       <c r="H361" s="37"/>
       <c r="I361" s="37"/>
@@ -9230,25 +9230,25 @@
     </row>
     <row r="362" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C362" s="39"/>
-      <c r="D362" s="129"/>
-      <c r="E362" s="129"/>
-      <c r="F362" s="129"/>
+      <c r="D362" s="130"/>
+      <c r="E362" s="130"/>
+      <c r="F362" s="130"/>
       <c r="G362" s="45"/>
       <c r="H362" s="33"/>
       <c r="I362" s="33"/>
       <c r="J362" s="33"/>
-      <c r="K362" s="135" t="s">
+      <c r="K362" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L362" s="135"/>
-      <c r="M362" s="135"/>
-      <c r="N362" s="135"/>
-      <c r="O362" s="135"/>
-      <c r="P362" s="135"/>
-      <c r="Q362" s="135"/>
-      <c r="R362" s="135"/>
-      <c r="S362" s="135"/>
-      <c r="T362" s="135"/>
+      <c r="L362" s="153"/>
+      <c r="M362" s="153"/>
+      <c r="N362" s="153"/>
+      <c r="O362" s="153"/>
+      <c r="P362" s="153"/>
+      <c r="Q362" s="153"/>
+      <c r="R362" s="153"/>
+      <c r="S362" s="153"/>
+      <c r="T362" s="153"/>
       <c r="U362" s="33"/>
       <c r="V362" s="33"/>
       <c r="W362" s="43"/>
@@ -9257,27 +9257,27 @@
       <c r="C363" s="39"/>
       <c r="D363" s="34"/>
       <c r="E363" s="35"/>
-      <c r="F363" s="136" t="s">
+      <c r="F363" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G363" s="136"/>
-      <c r="H363" s="136"/>
-      <c r="I363" s="136"/>
-      <c r="J363" s="136"/>
-      <c r="K363" s="135"/>
-      <c r="L363" s="135"/>
-      <c r="M363" s="135"/>
-      <c r="N363" s="135"/>
-      <c r="O363" s="135"/>
-      <c r="P363" s="135"/>
-      <c r="Q363" s="135"/>
-      <c r="R363" s="135"/>
-      <c r="S363" s="135"/>
-      <c r="T363" s="135"/>
-      <c r="U363" s="143" t="s">
+      <c r="G363" s="141"/>
+      <c r="H363" s="141"/>
+      <c r="I363" s="141"/>
+      <c r="J363" s="141"/>
+      <c r="K363" s="153"/>
+      <c r="L363" s="153"/>
+      <c r="M363" s="153"/>
+      <c r="N363" s="153"/>
+      <c r="O363" s="153"/>
+      <c r="P363" s="153"/>
+      <c r="Q363" s="153"/>
+      <c r="R363" s="153"/>
+      <c r="S363" s="153"/>
+      <c r="T363" s="153"/>
+      <c r="U363" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V363" s="144"/>
+      <c r="V363" s="155"/>
       <c r="W363" s="43"/>
     </row>
     <row r="364" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9331,26 +9331,26 @@
       <c r="D366" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E366" s="125" t="s">
+      <c r="E366" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F366" s="126"/>
-      <c r="G366" s="126"/>
+      <c r="F366" s="140"/>
+      <c r="G366" s="140"/>
       <c r="I366" s="18"/>
-      <c r="J366" s="154" t="s">
+      <c r="J366" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="K366" s="154"/>
-      <c r="L366" s="154"/>
-      <c r="M366" s="154"/>
-      <c r="N366" s="154"/>
-      <c r="O366" s="154"/>
-      <c r="P366" s="154"/>
-      <c r="Q366" s="154"/>
-      <c r="R366" s="154"/>
-      <c r="S366" s="154"/>
-      <c r="T366" s="154"/>
-      <c r="U366" s="154"/>
+      <c r="K366" s="156"/>
+      <c r="L366" s="156"/>
+      <c r="M366" s="156"/>
+      <c r="N366" s="156"/>
+      <c r="O366" s="156"/>
+      <c r="P366" s="156"/>
+      <c r="Q366" s="156"/>
+      <c r="R366" s="156"/>
+      <c r="S366" s="156"/>
+      <c r="T366" s="156"/>
+      <c r="U366" s="156"/>
       <c r="V366" s="77"/>
       <c r="W366" s="20"/>
     </row>
@@ -9359,11 +9359,11 @@
       <c r="D367" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E367" s="125" t="s">
+      <c r="E367" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F367" s="126"/>
-      <c r="G367" s="126"/>
+      <c r="F367" s="140"/>
+      <c r="G367" s="140"/>
       <c r="I367" s="18"/>
       <c r="J367" s="51"/>
       <c r="K367" s="58"/>
@@ -9378,11 +9378,11 @@
       <c r="D368" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E368" s="125" t="s">
+      <c r="E368" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F368" s="126"/>
-      <c r="G368" s="126"/>
+      <c r="F368" s="140"/>
+      <c r="G368" s="140"/>
       <c r="I368" s="18"/>
       <c r="K368" s="81"/>
       <c r="L368" s="80"/>
@@ -9404,11 +9404,11 @@
       <c r="D369" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E369" s="127" t="s">
+      <c r="E369" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="F369" s="128"/>
-      <c r="G369" s="128"/>
+      <c r="F369" s="143"/>
+      <c r="G369" s="143"/>
       <c r="I369" s="18" t="s">
         <v>35</v>
       </c>
@@ -9425,11 +9425,11 @@
       <c r="D370" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E370" s="125" t="s">
+      <c r="E370" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F370" s="126"/>
-      <c r="G370" s="126"/>
+      <c r="F370" s="140"/>
+      <c r="G370" s="140"/>
       <c r="I370" s="18"/>
       <c r="K370" s="82"/>
       <c r="T370" s="78"/>
@@ -9443,14 +9443,14 @@
       <c r="L371" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="N371" s="138" t="s">
+      <c r="N371" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="O371" s="142"/>
-      <c r="P371" s="142"/>
-      <c r="Q371" s="142"/>
-      <c r="R371" s="142"/>
-      <c r="S371" s="142"/>
+      <c r="O371" s="145"/>
+      <c r="P371" s="145"/>
+      <c r="Q371" s="145"/>
+      <c r="R371" s="145"/>
+      <c r="S371" s="145"/>
       <c r="T371" s="78"/>
       <c r="V371" s="78"/>
       <c r="W371" s="20"/>
@@ -9470,14 +9470,14 @@
       <c r="L373" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="N373" s="138" t="s">
+      <c r="N373" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="O373" s="142"/>
-      <c r="P373" s="142"/>
-      <c r="Q373" s="142"/>
-      <c r="R373" s="142"/>
-      <c r="S373" s="142"/>
+      <c r="O373" s="145"/>
+      <c r="P373" s="145"/>
+      <c r="Q373" s="145"/>
+      <c r="R373" s="145"/>
+      <c r="S373" s="145"/>
       <c r="T373" s="78"/>
       <c r="V373" s="78"/>
       <c r="W373" s="20"/>
@@ -9497,14 +9497,14 @@
       <c r="L375" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="N375" s="138">
+      <c r="N375" s="144">
         <v>2000</v>
       </c>
-      <c r="O375" s="142"/>
-      <c r="P375" s="142"/>
-      <c r="Q375" s="142"/>
-      <c r="R375" s="142"/>
-      <c r="S375" s="142"/>
+      <c r="O375" s="145"/>
+      <c r="P375" s="145"/>
+      <c r="Q375" s="145"/>
+      <c r="R375" s="145"/>
+      <c r="S375" s="145"/>
       <c r="T375" s="78"/>
       <c r="V375" s="78"/>
       <c r="W375" s="20"/>
@@ -9524,14 +9524,14 @@
       <c r="L377" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="N377" s="138" t="s">
+      <c r="N377" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="O377" s="142"/>
-      <c r="P377" s="142"/>
-      <c r="Q377" s="142"/>
-      <c r="R377" s="142"/>
-      <c r="S377" s="142"/>
+      <c r="O377" s="145"/>
+      <c r="P377" s="145"/>
+      <c r="Q377" s="145"/>
+      <c r="R377" s="145"/>
+      <c r="S377" s="145"/>
       <c r="T377" s="78"/>
       <c r="V377" s="78"/>
       <c r="W377" s="20"/>
@@ -9551,14 +9551,14 @@
       <c r="L379" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N379" s="145" t="s">
+      <c r="N379" s="171" t="s">
         <v>198</v>
       </c>
-      <c r="O379" s="146"/>
-      <c r="P379" s="146"/>
-      <c r="Q379" s="146"/>
-      <c r="R379" s="146"/>
-      <c r="S379" s="147"/>
+      <c r="O379" s="167"/>
+      <c r="P379" s="167"/>
+      <c r="Q379" s="167"/>
+      <c r="R379" s="167"/>
+      <c r="S379" s="168"/>
       <c r="T379" s="78"/>
       <c r="V379" s="78"/>
       <c r="W379" s="20"/>
@@ -9579,14 +9579,14 @@
         <v>193</v>
       </c>
       <c r="M381" s="30"/>
-      <c r="N381" s="130">
+      <c r="N381" s="150">
         <v>355914029</v>
       </c>
-      <c r="O381" s="148"/>
-      <c r="P381" s="148"/>
-      <c r="Q381" s="148"/>
-      <c r="R381" s="148"/>
-      <c r="S381" s="148"/>
+      <c r="O381" s="151"/>
+      <c r="P381" s="151"/>
+      <c r="Q381" s="151"/>
+      <c r="R381" s="151"/>
+      <c r="S381" s="151"/>
       <c r="T381" s="78"/>
       <c r="V381" s="78"/>
       <c r="W381" s="20"/>
@@ -9658,10 +9658,10 @@
       <c r="P385" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="Q385" s="149" t="s">
+      <c r="Q385" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="R385" s="149"/>
+      <c r="R385" s="152"/>
       <c r="S385" s="52"/>
       <c r="T385" s="77"/>
       <c r="V385" s="78"/>
@@ -9702,75 +9702,75 @@
       <c r="W387" s="20"/>
     </row>
     <row r="388" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C388" s="129" t="s">
+      <c r="C388" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D388" s="129"/>
-      <c r="E388" s="129"/>
-      <c r="F388" s="129"/>
-      <c r="G388" s="129"/>
-      <c r="H388" s="129"/>
-      <c r="I388" s="129"/>
-      <c r="J388" s="129"/>
-      <c r="K388" s="129"/>
-      <c r="L388" s="129"/>
-      <c r="M388" s="129"/>
-      <c r="N388" s="129"/>
-      <c r="O388" s="129"/>
-      <c r="P388" s="129"/>
-      <c r="Q388" s="129"/>
-      <c r="R388" s="129"/>
-      <c r="S388" s="129"/>
-      <c r="T388" s="129"/>
-      <c r="U388" s="129"/>
-      <c r="V388" s="129"/>
-      <c r="W388" s="129"/>
+      <c r="D388" s="130"/>
+      <c r="E388" s="130"/>
+      <c r="F388" s="130"/>
+      <c r="G388" s="130"/>
+      <c r="H388" s="130"/>
+      <c r="I388" s="130"/>
+      <c r="J388" s="130"/>
+      <c r="K388" s="130"/>
+      <c r="L388" s="130"/>
+      <c r="M388" s="130"/>
+      <c r="N388" s="130"/>
+      <c r="O388" s="130"/>
+      <c r="P388" s="130"/>
+      <c r="Q388" s="130"/>
+      <c r="R388" s="130"/>
+      <c r="S388" s="130"/>
+      <c r="T388" s="130"/>
+      <c r="U388" s="130"/>
+      <c r="V388" s="130"/>
+      <c r="W388" s="130"/>
     </row>
     <row r="389" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C389" s="129"/>
-      <c r="D389" s="129"/>
-      <c r="E389" s="129"/>
-      <c r="F389" s="129"/>
-      <c r="G389" s="129"/>
-      <c r="H389" s="129"/>
-      <c r="I389" s="129"/>
-      <c r="J389" s="129"/>
-      <c r="K389" s="129"/>
-      <c r="L389" s="129"/>
-      <c r="M389" s="129"/>
-      <c r="N389" s="129"/>
-      <c r="O389" s="129"/>
-      <c r="P389" s="129"/>
-      <c r="Q389" s="129"/>
-      <c r="R389" s="129"/>
-      <c r="S389" s="129"/>
-      <c r="T389" s="129"/>
-      <c r="U389" s="129"/>
-      <c r="V389" s="129"/>
-      <c r="W389" s="129"/>
+      <c r="C389" s="130"/>
+      <c r="D389" s="130"/>
+      <c r="E389" s="130"/>
+      <c r="F389" s="130"/>
+      <c r="G389" s="130"/>
+      <c r="H389" s="130"/>
+      <c r="I389" s="130"/>
+      <c r="J389" s="130"/>
+      <c r="K389" s="130"/>
+      <c r="L389" s="130"/>
+      <c r="M389" s="130"/>
+      <c r="N389" s="130"/>
+      <c r="O389" s="130"/>
+      <c r="P389" s="130"/>
+      <c r="Q389" s="130"/>
+      <c r="R389" s="130"/>
+      <c r="S389" s="130"/>
+      <c r="T389" s="130"/>
+      <c r="U389" s="130"/>
+      <c r="V389" s="130"/>
+      <c r="W389" s="130"/>
     </row>
     <row r="390" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C390" s="129"/>
-      <c r="D390" s="129"/>
-      <c r="E390" s="129"/>
-      <c r="F390" s="129"/>
-      <c r="G390" s="129"/>
-      <c r="H390" s="129"/>
-      <c r="I390" s="129"/>
-      <c r="J390" s="129"/>
-      <c r="K390" s="129"/>
-      <c r="L390" s="129"/>
-      <c r="M390" s="129"/>
-      <c r="N390" s="129"/>
-      <c r="O390" s="129"/>
-      <c r="P390" s="129"/>
-      <c r="Q390" s="129"/>
-      <c r="R390" s="129"/>
-      <c r="S390" s="129"/>
-      <c r="T390" s="129"/>
-      <c r="U390" s="129"/>
-      <c r="V390" s="129"/>
-      <c r="W390" s="129"/>
+      <c r="C390" s="130"/>
+      <c r="D390" s="130"/>
+      <c r="E390" s="130"/>
+      <c r="F390" s="130"/>
+      <c r="G390" s="130"/>
+      <c r="H390" s="130"/>
+      <c r="I390" s="130"/>
+      <c r="J390" s="130"/>
+      <c r="K390" s="130"/>
+      <c r="L390" s="130"/>
+      <c r="M390" s="130"/>
+      <c r="N390" s="130"/>
+      <c r="O390" s="130"/>
+      <c r="P390" s="130"/>
+      <c r="Q390" s="130"/>
+      <c r="R390" s="130"/>
+      <c r="S390" s="130"/>
+      <c r="T390" s="130"/>
+      <c r="U390" s="130"/>
+      <c r="V390" s="130"/>
+      <c r="W390" s="130"/>
     </row>
     <row r="391" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C391" s="45"/>
@@ -9802,11 +9802,11 @@
     </row>
     <row r="394" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C394" s="38"/>
-      <c r="D394" s="129" t="s">
+      <c r="D394" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E394" s="129"/>
-      <c r="F394" s="129"/>
+      <c r="E394" s="130"/>
+      <c r="F394" s="130"/>
       <c r="G394" s="32"/>
       <c r="H394" s="37"/>
       <c r="I394" s="37"/>
@@ -9827,25 +9827,25 @@
     </row>
     <row r="395" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C395" s="39"/>
-      <c r="D395" s="129"/>
-      <c r="E395" s="129"/>
-      <c r="F395" s="129"/>
+      <c r="D395" s="130"/>
+      <c r="E395" s="130"/>
+      <c r="F395" s="130"/>
       <c r="G395" s="45"/>
       <c r="H395" s="33"/>
       <c r="I395" s="33"/>
       <c r="J395" s="33"/>
-      <c r="K395" s="135" t="s">
+      <c r="K395" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L395" s="135"/>
-      <c r="M395" s="135"/>
-      <c r="N395" s="135"/>
-      <c r="O395" s="135"/>
-      <c r="P395" s="135"/>
-      <c r="Q395" s="135"/>
-      <c r="R395" s="135"/>
-      <c r="S395" s="135"/>
-      <c r="T395" s="135"/>
+      <c r="L395" s="153"/>
+      <c r="M395" s="153"/>
+      <c r="N395" s="153"/>
+      <c r="O395" s="153"/>
+      <c r="P395" s="153"/>
+      <c r="Q395" s="153"/>
+      <c r="R395" s="153"/>
+      <c r="S395" s="153"/>
+      <c r="T395" s="153"/>
       <c r="U395" s="33"/>
       <c r="V395" s="33"/>
       <c r="W395" s="43"/>
@@ -9854,27 +9854,27 @@
       <c r="C396" s="39"/>
       <c r="D396" s="34"/>
       <c r="E396" s="35"/>
-      <c r="F396" s="136" t="s">
+      <c r="F396" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G396" s="136"/>
-      <c r="H396" s="136"/>
-      <c r="I396" s="136"/>
-      <c r="J396" s="136"/>
-      <c r="K396" s="135"/>
-      <c r="L396" s="135"/>
-      <c r="M396" s="135"/>
-      <c r="N396" s="135"/>
-      <c r="O396" s="135"/>
-      <c r="P396" s="135"/>
-      <c r="Q396" s="135"/>
-      <c r="R396" s="135"/>
-      <c r="S396" s="135"/>
-      <c r="T396" s="135"/>
-      <c r="U396" s="143" t="s">
+      <c r="G396" s="141"/>
+      <c r="H396" s="141"/>
+      <c r="I396" s="141"/>
+      <c r="J396" s="141"/>
+      <c r="K396" s="153"/>
+      <c r="L396" s="153"/>
+      <c r="M396" s="153"/>
+      <c r="N396" s="153"/>
+      <c r="O396" s="153"/>
+      <c r="P396" s="153"/>
+      <c r="Q396" s="153"/>
+      <c r="R396" s="153"/>
+      <c r="S396" s="153"/>
+      <c r="T396" s="153"/>
+      <c r="U396" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V396" s="144"/>
+      <c r="V396" s="155"/>
       <c r="W396" s="43"/>
     </row>
     <row r="397" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9928,26 +9928,26 @@
       <c r="D399" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="125" t="s">
+      <c r="E399" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F399" s="126"/>
-      <c r="G399" s="126"/>
+      <c r="F399" s="140"/>
+      <c r="G399" s="140"/>
       <c r="I399" s="18"/>
-      <c r="J399" s="154" t="s">
+      <c r="J399" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="K399" s="154"/>
-      <c r="L399" s="154"/>
-      <c r="M399" s="154"/>
-      <c r="N399" s="154"/>
-      <c r="O399" s="154"/>
-      <c r="P399" s="154"/>
-      <c r="Q399" s="154"/>
-      <c r="R399" s="154"/>
-      <c r="S399" s="154"/>
-      <c r="T399" s="154"/>
-      <c r="U399" s="154"/>
+      <c r="K399" s="156"/>
+      <c r="L399" s="156"/>
+      <c r="M399" s="156"/>
+      <c r="N399" s="156"/>
+      <c r="O399" s="156"/>
+      <c r="P399" s="156"/>
+      <c r="Q399" s="156"/>
+      <c r="R399" s="156"/>
+      <c r="S399" s="156"/>
+      <c r="T399" s="156"/>
+      <c r="U399" s="156"/>
       <c r="V399" s="77"/>
       <c r="W399" s="20"/>
     </row>
@@ -9956,11 +9956,11 @@
       <c r="D400" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="125" t="s">
+      <c r="E400" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F400" s="126"/>
-      <c r="G400" s="126"/>
+      <c r="F400" s="140"/>
+      <c r="G400" s="140"/>
       <c r="I400" s="18"/>
       <c r="J400" s="51"/>
       <c r="K400" s="58"/>
@@ -9975,11 +9975,11 @@
       <c r="D401" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="125" t="s">
+      <c r="E401" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F401" s="126"/>
-      <c r="G401" s="126"/>
+      <c r="F401" s="140"/>
+      <c r="G401" s="140"/>
       <c r="I401" s="18"/>
       <c r="V401" s="78"/>
       <c r="W401" s="20"/>
@@ -9989,11 +9989,11 @@
       <c r="D402" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="127" t="s">
+      <c r="E402" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="F402" s="128"/>
-      <c r="G402" s="128"/>
+      <c r="F402" s="143"/>
+      <c r="G402" s="143"/>
       <c r="I402" s="18" t="s">
         <v>35</v>
       </c>
@@ -10015,11 +10015,11 @@
       <c r="D403" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="125" t="s">
+      <c r="E403" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F403" s="126"/>
-      <c r="G403" s="126"/>
+      <c r="F403" s="140"/>
+      <c r="G403" s="140"/>
       <c r="I403" s="18"/>
       <c r="L403" s="82"/>
       <c r="M403" s="88" t="s">
@@ -10164,75 +10164,75 @@
       <c r="W417" s="20"/>
     </row>
     <row r="418" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C418" s="129" t="s">
+      <c r="C418" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D418" s="129"/>
-      <c r="E418" s="129"/>
-      <c r="F418" s="129"/>
-      <c r="G418" s="129"/>
-      <c r="H418" s="129"/>
-      <c r="I418" s="129"/>
-      <c r="J418" s="129"/>
-      <c r="K418" s="129"/>
-      <c r="L418" s="129"/>
-      <c r="M418" s="129"/>
-      <c r="N418" s="129"/>
-      <c r="O418" s="129"/>
-      <c r="P418" s="129"/>
-      <c r="Q418" s="129"/>
-      <c r="R418" s="129"/>
-      <c r="S418" s="129"/>
-      <c r="T418" s="129"/>
-      <c r="U418" s="129"/>
-      <c r="V418" s="129"/>
-      <c r="W418" s="129"/>
+      <c r="D418" s="130"/>
+      <c r="E418" s="130"/>
+      <c r="F418" s="130"/>
+      <c r="G418" s="130"/>
+      <c r="H418" s="130"/>
+      <c r="I418" s="130"/>
+      <c r="J418" s="130"/>
+      <c r="K418" s="130"/>
+      <c r="L418" s="130"/>
+      <c r="M418" s="130"/>
+      <c r="N418" s="130"/>
+      <c r="O418" s="130"/>
+      <c r="P418" s="130"/>
+      <c r="Q418" s="130"/>
+      <c r="R418" s="130"/>
+      <c r="S418" s="130"/>
+      <c r="T418" s="130"/>
+      <c r="U418" s="130"/>
+      <c r="V418" s="130"/>
+      <c r="W418" s="130"/>
     </row>
     <row r="419" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C419" s="129"/>
-      <c r="D419" s="129"/>
-      <c r="E419" s="129"/>
-      <c r="F419" s="129"/>
-      <c r="G419" s="129"/>
-      <c r="H419" s="129"/>
-      <c r="I419" s="129"/>
-      <c r="J419" s="129"/>
-      <c r="K419" s="129"/>
-      <c r="L419" s="129"/>
-      <c r="M419" s="129"/>
-      <c r="N419" s="129"/>
-      <c r="O419" s="129"/>
-      <c r="P419" s="129"/>
-      <c r="Q419" s="129"/>
-      <c r="R419" s="129"/>
-      <c r="S419" s="129"/>
-      <c r="T419" s="129"/>
-      <c r="U419" s="129"/>
-      <c r="V419" s="129"/>
-      <c r="W419" s="129"/>
+      <c r="C419" s="130"/>
+      <c r="D419" s="130"/>
+      <c r="E419" s="130"/>
+      <c r="F419" s="130"/>
+      <c r="G419" s="130"/>
+      <c r="H419" s="130"/>
+      <c r="I419" s="130"/>
+      <c r="J419" s="130"/>
+      <c r="K419" s="130"/>
+      <c r="L419" s="130"/>
+      <c r="M419" s="130"/>
+      <c r="N419" s="130"/>
+      <c r="O419" s="130"/>
+      <c r="P419" s="130"/>
+      <c r="Q419" s="130"/>
+      <c r="R419" s="130"/>
+      <c r="S419" s="130"/>
+      <c r="T419" s="130"/>
+      <c r="U419" s="130"/>
+      <c r="V419" s="130"/>
+      <c r="W419" s="130"/>
     </row>
     <row r="420" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C420" s="129"/>
-      <c r="D420" s="129"/>
-      <c r="E420" s="129"/>
-      <c r="F420" s="129"/>
-      <c r="G420" s="129"/>
-      <c r="H420" s="129"/>
-      <c r="I420" s="129"/>
-      <c r="J420" s="129"/>
-      <c r="K420" s="129"/>
-      <c r="L420" s="129"/>
-      <c r="M420" s="129"/>
-      <c r="N420" s="129"/>
-      <c r="O420" s="129"/>
-      <c r="P420" s="129"/>
-      <c r="Q420" s="129"/>
-      <c r="R420" s="129"/>
-      <c r="S420" s="129"/>
-      <c r="T420" s="129"/>
-      <c r="U420" s="129"/>
-      <c r="V420" s="129"/>
-      <c r="W420" s="129"/>
+      <c r="C420" s="130"/>
+      <c r="D420" s="130"/>
+      <c r="E420" s="130"/>
+      <c r="F420" s="130"/>
+      <c r="G420" s="130"/>
+      <c r="H420" s="130"/>
+      <c r="I420" s="130"/>
+      <c r="J420" s="130"/>
+      <c r="K420" s="130"/>
+      <c r="L420" s="130"/>
+      <c r="M420" s="130"/>
+      <c r="N420" s="130"/>
+      <c r="O420" s="130"/>
+      <c r="P420" s="130"/>
+      <c r="Q420" s="130"/>
+      <c r="R420" s="130"/>
+      <c r="S420" s="130"/>
+      <c r="T420" s="130"/>
+      <c r="U420" s="130"/>
+      <c r="V420" s="130"/>
+      <c r="W420" s="130"/>
     </row>
     <row r="423" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B423" s="61" t="s">
@@ -10241,11 +10241,11 @@
     </row>
     <row r="425" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C425" s="38"/>
-      <c r="D425" s="129" t="s">
+      <c r="D425" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E425" s="129"/>
-      <c r="F425" s="129"/>
+      <c r="E425" s="130"/>
+      <c r="F425" s="130"/>
       <c r="G425" s="32"/>
       <c r="H425" s="37"/>
       <c r="I425" s="37"/>
@@ -10266,25 +10266,25 @@
     </row>
     <row r="426" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C426" s="39"/>
-      <c r="D426" s="129"/>
-      <c r="E426" s="129"/>
-      <c r="F426" s="129"/>
+      <c r="D426" s="130"/>
+      <c r="E426" s="130"/>
+      <c r="F426" s="130"/>
       <c r="G426" s="45"/>
       <c r="H426" s="33"/>
       <c r="I426" s="33"/>
       <c r="J426" s="33"/>
-      <c r="K426" s="135" t="s">
+      <c r="K426" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L426" s="135"/>
-      <c r="M426" s="135"/>
-      <c r="N426" s="135"/>
-      <c r="O426" s="135"/>
-      <c r="P426" s="135"/>
-      <c r="Q426" s="135"/>
-      <c r="R426" s="135"/>
-      <c r="S426" s="135"/>
-      <c r="T426" s="135"/>
+      <c r="L426" s="153"/>
+      <c r="M426" s="153"/>
+      <c r="N426" s="153"/>
+      <c r="O426" s="153"/>
+      <c r="P426" s="153"/>
+      <c r="Q426" s="153"/>
+      <c r="R426" s="153"/>
+      <c r="S426" s="153"/>
+      <c r="T426" s="153"/>
       <c r="U426" s="33"/>
       <c r="V426" s="33"/>
       <c r="W426" s="43"/>
@@ -10293,27 +10293,27 @@
       <c r="C427" s="39"/>
       <c r="D427" s="34"/>
       <c r="E427" s="35"/>
-      <c r="F427" s="136" t="s">
+      <c r="F427" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G427" s="136"/>
-      <c r="H427" s="136"/>
-      <c r="I427" s="136"/>
-      <c r="J427" s="136"/>
-      <c r="K427" s="135"/>
-      <c r="L427" s="135"/>
-      <c r="M427" s="135"/>
-      <c r="N427" s="135"/>
-      <c r="O427" s="135"/>
-      <c r="P427" s="135"/>
-      <c r="Q427" s="135"/>
-      <c r="R427" s="135"/>
-      <c r="S427" s="135"/>
-      <c r="T427" s="135"/>
-      <c r="U427" s="143" t="s">
+      <c r="G427" s="141"/>
+      <c r="H427" s="141"/>
+      <c r="I427" s="141"/>
+      <c r="J427" s="141"/>
+      <c r="K427" s="153"/>
+      <c r="L427" s="153"/>
+      <c r="M427" s="153"/>
+      <c r="N427" s="153"/>
+      <c r="O427" s="153"/>
+      <c r="P427" s="153"/>
+      <c r="Q427" s="153"/>
+      <c r="R427" s="153"/>
+      <c r="S427" s="153"/>
+      <c r="T427" s="153"/>
+      <c r="U427" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V427" s="144"/>
+      <c r="V427" s="155"/>
       <c r="W427" s="43"/>
     </row>
     <row r="428" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10367,26 +10367,26 @@
       <c r="D430" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E430" s="125" t="s">
+      <c r="E430" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F430" s="126"/>
-      <c r="G430" s="126"/>
+      <c r="F430" s="140"/>
+      <c r="G430" s="140"/>
       <c r="I430" s="18"/>
-      <c r="J430" s="154" t="s">
+      <c r="J430" s="156" t="s">
         <v>201</v>
       </c>
-      <c r="K430" s="154"/>
-      <c r="L430" s="154"/>
-      <c r="M430" s="154"/>
-      <c r="N430" s="154"/>
-      <c r="O430" s="154"/>
-      <c r="P430" s="154"/>
-      <c r="Q430" s="154"/>
-      <c r="R430" s="154"/>
-      <c r="S430" s="154"/>
-      <c r="T430" s="154"/>
-      <c r="U430" s="154"/>
+      <c r="K430" s="156"/>
+      <c r="L430" s="156"/>
+      <c r="M430" s="156"/>
+      <c r="N430" s="156"/>
+      <c r="O430" s="156"/>
+      <c r="P430" s="156"/>
+      <c r="Q430" s="156"/>
+      <c r="R430" s="156"/>
+      <c r="S430" s="156"/>
+      <c r="T430" s="156"/>
+      <c r="U430" s="156"/>
       <c r="V430" s="20"/>
       <c r="W430" s="20"/>
     </row>
@@ -10395,11 +10395,11 @@
       <c r="D431" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E431" s="125" t="s">
+      <c r="E431" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F431" s="126"/>
-      <c r="G431" s="126"/>
+      <c r="F431" s="140"/>
+      <c r="G431" s="140"/>
       <c r="I431" s="18"/>
       <c r="J431" s="51"/>
       <c r="K431" s="58"/>
@@ -10414,19 +10414,19 @@
       <c r="D432" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E432" s="125" t="s">
+      <c r="E432" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F432" s="126"/>
-      <c r="G432" s="126"/>
+      <c r="F432" s="140"/>
+      <c r="G432" s="140"/>
       <c r="I432" s="18"/>
-      <c r="J432" s="130" t="s">
+      <c r="J432" s="150" t="s">
         <v>202</v>
       </c>
-      <c r="K432" s="130"/>
-      <c r="L432" s="130"/>
-      <c r="M432" s="130"/>
-      <c r="N432" s="130"/>
+      <c r="K432" s="150"/>
+      <c r="L432" s="150"/>
+      <c r="M432" s="150"/>
+      <c r="N432" s="150"/>
       <c r="O432" s="35"/>
       <c r="P432" s="94" t="s">
         <v>16</v>
@@ -10434,11 +10434,11 @@
       <c r="R432" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S432" s="131" t="s">
+      <c r="S432" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="T432" s="131"/>
-      <c r="U432" s="131"/>
+      <c r="T432" s="160"/>
+      <c r="U432" s="160"/>
       <c r="V432" s="95"/>
       <c r="W432" s="20"/>
     </row>
@@ -10447,11 +10447,11 @@
       <c r="D433" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E433" s="125" t="s">
+      <c r="E433" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F433" s="126"/>
-      <c r="G433" s="126"/>
+      <c r="F433" s="140"/>
+      <c r="G433" s="140"/>
       <c r="I433" s="18" t="s">
         <v>35</v>
       </c>
@@ -10467,36 +10467,36 @@
       <c r="D434" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E434" s="127" t="s">
+      <c r="E434" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="F434" s="128"/>
-      <c r="G434" s="128"/>
+      <c r="F434" s="143"/>
+      <c r="G434" s="143"/>
       <c r="I434" s="18"/>
       <c r="J434" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K434" s="155" t="s">
+      <c r="K434" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="L434" s="155"/>
-      <c r="M434" s="139" t="s">
+      <c r="L434" s="162"/>
+      <c r="M434" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="N434" s="139"/>
-      <c r="O434" s="139" t="s">
+      <c r="N434" s="157"/>
+      <c r="O434" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="P434" s="139"/>
-      <c r="Q434" s="139" t="s">
+      <c r="P434" s="157"/>
+      <c r="Q434" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="R434" s="139"/>
-      <c r="S434" s="139"/>
-      <c r="T434" s="139" t="s">
+      <c r="R434" s="157"/>
+      <c r="S434" s="157"/>
+      <c r="T434" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="U434" s="139"/>
+      <c r="U434" s="157"/>
       <c r="V434" s="20"/>
       <c r="W434" s="20"/>
     </row>
@@ -10506,23 +10506,23 @@
       <c r="J435" s="67">
         <v>1</v>
       </c>
-      <c r="K435" s="140" t="s">
+      <c r="K435" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L435" s="141"/>
-      <c r="M435" s="137">
+      <c r="L435" s="163"/>
+      <c r="M435" s="170">
         <v>123456</v>
       </c>
-      <c r="N435" s="137"/>
-      <c r="O435" s="138" t="s">
+      <c r="N435" s="170"/>
+      <c r="O435" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="P435" s="138"/>
-      <c r="Q435" s="132" t="s">
+      <c r="P435" s="144"/>
+      <c r="Q435" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R435" s="133"/>
-      <c r="S435" s="134"/>
+      <c r="R435" s="127"/>
+      <c r="S435" s="165"/>
       <c r="T435" s="73" t="s">
         <v>216</v>
       </c>
@@ -10539,27 +10539,27 @@
       <c r="J436" s="67">
         <v>2</v>
       </c>
-      <c r="K436" s="140" t="s">
+      <c r="K436" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L436" s="141"/>
-      <c r="M436" s="137">
+      <c r="L436" s="163"/>
+      <c r="M436" s="170">
         <v>654321</v>
       </c>
-      <c r="N436" s="137">
+      <c r="N436" s="170">
         <v>2001</v>
       </c>
-      <c r="O436" s="138" t="s">
+      <c r="O436" s="144" t="s">
         <v>205</v>
       </c>
-      <c r="P436" s="138"/>
-      <c r="Q436" s="132" t="s">
+      <c r="P436" s="144"/>
+      <c r="Q436" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="R436" s="133" t="s">
+      <c r="R436" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="S436" s="134"/>
+      <c r="S436" s="165"/>
       <c r="T436" s="73" t="s">
         <v>216</v>
       </c>
@@ -10575,25 +10575,25 @@
       <c r="J437" s="67">
         <v>3</v>
       </c>
-      <c r="K437" s="140" t="s">
+      <c r="K437" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L437" s="141"/>
-      <c r="M437" s="137">
+      <c r="L437" s="163"/>
+      <c r="M437" s="170">
         <v>123456</v>
       </c>
-      <c r="N437" s="137"/>
-      <c r="O437" s="138" t="s">
+      <c r="N437" s="170"/>
+      <c r="O437" s="144" t="s">
         <v>206</v>
       </c>
-      <c r="P437" s="138"/>
-      <c r="Q437" s="132" t="s">
+      <c r="P437" s="144"/>
+      <c r="Q437" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="R437" s="133" t="s">
+      <c r="R437" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="S437" s="134"/>
+      <c r="S437" s="165"/>
       <c r="T437" s="73" t="s">
         <v>216</v>
       </c>
@@ -10609,23 +10609,23 @@
       <c r="J438" s="67">
         <v>4</v>
       </c>
-      <c r="K438" s="140" t="s">
+      <c r="K438" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L438" s="141"/>
-      <c r="M438" s="137">
+      <c r="L438" s="163"/>
+      <c r="M438" s="170">
         <v>123456</v>
       </c>
-      <c r="N438" s="137"/>
-      <c r="O438" s="138" t="s">
+      <c r="N438" s="170"/>
+      <c r="O438" s="144" t="s">
         <v>207</v>
       </c>
-      <c r="P438" s="138"/>
-      <c r="Q438" s="132" t="s">
+      <c r="P438" s="144"/>
+      <c r="Q438" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R438" s="133"/>
-      <c r="S438" s="134"/>
+      <c r="R438" s="127"/>
+      <c r="S438" s="165"/>
       <c r="T438" s="73" t="s">
         <v>216</v>
       </c>
@@ -10641,23 +10641,23 @@
       <c r="J439" s="67">
         <v>5</v>
       </c>
-      <c r="K439" s="140" t="s">
+      <c r="K439" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L439" s="141"/>
-      <c r="M439" s="137">
+      <c r="L439" s="163"/>
+      <c r="M439" s="170">
         <v>123456</v>
       </c>
-      <c r="N439" s="137"/>
-      <c r="O439" s="138" t="s">
+      <c r="N439" s="170"/>
+      <c r="O439" s="144" t="s">
         <v>208</v>
       </c>
-      <c r="P439" s="138"/>
-      <c r="Q439" s="132" t="s">
+      <c r="P439" s="144"/>
+      <c r="Q439" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R439" s="133"/>
-      <c r="S439" s="134"/>
+      <c r="R439" s="127"/>
+      <c r="S439" s="165"/>
       <c r="T439" s="73" t="s">
         <v>216</v>
       </c>
@@ -10673,23 +10673,23 @@
       <c r="J440" s="67">
         <v>6</v>
       </c>
-      <c r="K440" s="140" t="s">
+      <c r="K440" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L440" s="141"/>
-      <c r="M440" s="137">
+      <c r="L440" s="163"/>
+      <c r="M440" s="170">
         <v>123456</v>
       </c>
-      <c r="N440" s="137"/>
-      <c r="O440" s="138" t="s">
+      <c r="N440" s="170"/>
+      <c r="O440" s="144" t="s">
         <v>209</v>
       </c>
-      <c r="P440" s="138"/>
-      <c r="Q440" s="132" t="s">
+      <c r="P440" s="144"/>
+      <c r="Q440" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R440" s="133"/>
-      <c r="S440" s="134"/>
+      <c r="R440" s="127"/>
+      <c r="S440" s="165"/>
       <c r="T440" s="73" t="s">
         <v>216</v>
       </c>
@@ -10705,23 +10705,23 @@
       <c r="J441" s="67">
         <v>7</v>
       </c>
-      <c r="K441" s="140" t="s">
+      <c r="K441" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L441" s="141"/>
-      <c r="M441" s="137">
+      <c r="L441" s="163"/>
+      <c r="M441" s="170">
         <v>123456</v>
       </c>
-      <c r="N441" s="137"/>
-      <c r="O441" s="138" t="s">
+      <c r="N441" s="170"/>
+      <c r="O441" s="144" t="s">
         <v>210</v>
       </c>
-      <c r="P441" s="138"/>
-      <c r="Q441" s="132" t="s">
+      <c r="P441" s="144"/>
+      <c r="Q441" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R441" s="133"/>
-      <c r="S441" s="134"/>
+      <c r="R441" s="127"/>
+      <c r="S441" s="165"/>
       <c r="T441" s="73" t="s">
         <v>216</v>
       </c>
@@ -10737,23 +10737,23 @@
       <c r="J442" s="67">
         <v>8</v>
       </c>
-      <c r="K442" s="140" t="s">
+      <c r="K442" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L442" s="141"/>
-      <c r="M442" s="137">
+      <c r="L442" s="163"/>
+      <c r="M442" s="170">
         <v>123456</v>
       </c>
-      <c r="N442" s="137"/>
-      <c r="O442" s="138" t="s">
+      <c r="N442" s="170"/>
+      <c r="O442" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="P442" s="138"/>
-      <c r="Q442" s="132" t="s">
+      <c r="P442" s="144"/>
+      <c r="Q442" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R442" s="133"/>
-      <c r="S442" s="134"/>
+      <c r="R442" s="127"/>
+      <c r="S442" s="165"/>
       <c r="T442" s="73" t="s">
         <v>216</v>
       </c>
@@ -10769,23 +10769,23 @@
       <c r="J443" s="67">
         <v>9</v>
       </c>
-      <c r="K443" s="140" t="s">
+      <c r="K443" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L443" s="141"/>
-      <c r="M443" s="137">
+      <c r="L443" s="163"/>
+      <c r="M443" s="170">
         <v>123456</v>
       </c>
-      <c r="N443" s="137"/>
-      <c r="O443" s="138" t="s">
+      <c r="N443" s="170"/>
+      <c r="O443" s="144" t="s">
         <v>212</v>
       </c>
-      <c r="P443" s="138"/>
-      <c r="Q443" s="132" t="s">
+      <c r="P443" s="144"/>
+      <c r="Q443" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R443" s="133"/>
-      <c r="S443" s="134"/>
+      <c r="R443" s="127"/>
+      <c r="S443" s="165"/>
       <c r="T443" s="73" t="s">
         <v>216</v>
       </c>
@@ -10801,23 +10801,23 @@
       <c r="J444" s="67">
         <v>10</v>
       </c>
-      <c r="K444" s="140" t="s">
+      <c r="K444" s="169" t="s">
         <v>198</v>
       </c>
-      <c r="L444" s="141"/>
-      <c r="M444" s="137">
+      <c r="L444" s="163"/>
+      <c r="M444" s="170">
         <v>123456</v>
       </c>
-      <c r="N444" s="137"/>
-      <c r="O444" s="138" t="s">
+      <c r="N444" s="170"/>
+      <c r="O444" s="144" t="s">
         <v>213</v>
       </c>
-      <c r="P444" s="138"/>
-      <c r="Q444" s="132" t="s">
+      <c r="P444" s="144"/>
+      <c r="Q444" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="R444" s="133"/>
-      <c r="S444" s="134"/>
+      <c r="R444" s="127"/>
+      <c r="S444" s="165"/>
       <c r="T444" s="73" t="s">
         <v>216</v>
       </c>
@@ -10882,75 +10882,75 @@
       <c r="W448" s="20"/>
     </row>
     <row r="449" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C449" s="129" t="s">
+      <c r="C449" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D449" s="129"/>
-      <c r="E449" s="129"/>
-      <c r="F449" s="129"/>
-      <c r="G449" s="129"/>
-      <c r="H449" s="129"/>
-      <c r="I449" s="129"/>
-      <c r="J449" s="129"/>
-      <c r="K449" s="129"/>
-      <c r="L449" s="129"/>
-      <c r="M449" s="129"/>
-      <c r="N449" s="129"/>
-      <c r="O449" s="129"/>
-      <c r="P449" s="129"/>
-      <c r="Q449" s="129"/>
-      <c r="R449" s="129"/>
-      <c r="S449" s="129"/>
-      <c r="T449" s="129"/>
-      <c r="U449" s="129"/>
-      <c r="V449" s="129"/>
-      <c r="W449" s="129"/>
+      <c r="D449" s="130"/>
+      <c r="E449" s="130"/>
+      <c r="F449" s="130"/>
+      <c r="G449" s="130"/>
+      <c r="H449" s="130"/>
+      <c r="I449" s="130"/>
+      <c r="J449" s="130"/>
+      <c r="K449" s="130"/>
+      <c r="L449" s="130"/>
+      <c r="M449" s="130"/>
+      <c r="N449" s="130"/>
+      <c r="O449" s="130"/>
+      <c r="P449" s="130"/>
+      <c r="Q449" s="130"/>
+      <c r="R449" s="130"/>
+      <c r="S449" s="130"/>
+      <c r="T449" s="130"/>
+      <c r="U449" s="130"/>
+      <c r="V449" s="130"/>
+      <c r="W449" s="130"/>
     </row>
     <row r="450" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C450" s="129"/>
-      <c r="D450" s="129"/>
-      <c r="E450" s="129"/>
-      <c r="F450" s="129"/>
-      <c r="G450" s="129"/>
-      <c r="H450" s="129"/>
-      <c r="I450" s="129"/>
-      <c r="J450" s="129"/>
-      <c r="K450" s="129"/>
-      <c r="L450" s="129"/>
-      <c r="M450" s="129"/>
-      <c r="N450" s="129"/>
-      <c r="O450" s="129"/>
-      <c r="P450" s="129"/>
-      <c r="Q450" s="129"/>
-      <c r="R450" s="129"/>
-      <c r="S450" s="129"/>
-      <c r="T450" s="129"/>
-      <c r="U450" s="129"/>
-      <c r="V450" s="129"/>
-      <c r="W450" s="129"/>
+      <c r="C450" s="130"/>
+      <c r="D450" s="130"/>
+      <c r="E450" s="130"/>
+      <c r="F450" s="130"/>
+      <c r="G450" s="130"/>
+      <c r="H450" s="130"/>
+      <c r="I450" s="130"/>
+      <c r="J450" s="130"/>
+      <c r="K450" s="130"/>
+      <c r="L450" s="130"/>
+      <c r="M450" s="130"/>
+      <c r="N450" s="130"/>
+      <c r="O450" s="130"/>
+      <c r="P450" s="130"/>
+      <c r="Q450" s="130"/>
+      <c r="R450" s="130"/>
+      <c r="S450" s="130"/>
+      <c r="T450" s="130"/>
+      <c r="U450" s="130"/>
+      <c r="V450" s="130"/>
+      <c r="W450" s="130"/>
     </row>
     <row r="451" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C451" s="129"/>
-      <c r="D451" s="129"/>
-      <c r="E451" s="129"/>
-      <c r="F451" s="129"/>
-      <c r="G451" s="129"/>
-      <c r="H451" s="129"/>
-      <c r="I451" s="129"/>
-      <c r="J451" s="129"/>
-      <c r="K451" s="129"/>
-      <c r="L451" s="129"/>
-      <c r="M451" s="129"/>
-      <c r="N451" s="129"/>
-      <c r="O451" s="129"/>
-      <c r="P451" s="129"/>
-      <c r="Q451" s="129"/>
-      <c r="R451" s="129"/>
-      <c r="S451" s="129"/>
-      <c r="T451" s="129"/>
-      <c r="U451" s="129"/>
-      <c r="V451" s="129"/>
-      <c r="W451" s="129"/>
+      <c r="C451" s="130"/>
+      <c r="D451" s="130"/>
+      <c r="E451" s="130"/>
+      <c r="F451" s="130"/>
+      <c r="G451" s="130"/>
+      <c r="H451" s="130"/>
+      <c r="I451" s="130"/>
+      <c r="J451" s="130"/>
+      <c r="K451" s="130"/>
+      <c r="L451" s="130"/>
+      <c r="M451" s="130"/>
+      <c r="N451" s="130"/>
+      <c r="O451" s="130"/>
+      <c r="P451" s="130"/>
+      <c r="Q451" s="130"/>
+      <c r="R451" s="130"/>
+      <c r="S451" s="130"/>
+      <c r="T451" s="130"/>
+      <c r="U451" s="130"/>
+      <c r="V451" s="130"/>
+      <c r="W451" s="130"/>
     </row>
     <row r="453" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C453" s="61" t="s">
@@ -10959,11 +10959,11 @@
     </row>
     <row r="455" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C455" s="38"/>
-      <c r="D455" s="129" t="s">
+      <c r="D455" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E455" s="129"/>
-      <c r="F455" s="129"/>
+      <c r="E455" s="130"/>
+      <c r="F455" s="130"/>
       <c r="G455" s="32"/>
       <c r="H455" s="37"/>
       <c r="I455" s="37"/>
@@ -10984,25 +10984,25 @@
     </row>
     <row r="456" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C456" s="39"/>
-      <c r="D456" s="129"/>
-      <c r="E456" s="129"/>
-      <c r="F456" s="129"/>
+      <c r="D456" s="130"/>
+      <c r="E456" s="130"/>
+      <c r="F456" s="130"/>
       <c r="G456" s="45"/>
       <c r="H456" s="33"/>
       <c r="I456" s="33"/>
       <c r="J456" s="33"/>
-      <c r="K456" s="135" t="s">
+      <c r="K456" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L456" s="135"/>
-      <c r="M456" s="135"/>
-      <c r="N456" s="135"/>
-      <c r="O456" s="135"/>
-      <c r="P456" s="135"/>
-      <c r="Q456" s="135"/>
-      <c r="R456" s="135"/>
-      <c r="S456" s="135"/>
-      <c r="T456" s="135"/>
+      <c r="L456" s="153"/>
+      <c r="M456" s="153"/>
+      <c r="N456" s="153"/>
+      <c r="O456" s="153"/>
+      <c r="P456" s="153"/>
+      <c r="Q456" s="153"/>
+      <c r="R456" s="153"/>
+      <c r="S456" s="153"/>
+      <c r="T456" s="153"/>
       <c r="U456" s="33"/>
       <c r="V456" s="33"/>
       <c r="W456" s="43"/>
@@ -11011,27 +11011,27 @@
       <c r="C457" s="39"/>
       <c r="D457" s="34"/>
       <c r="E457" s="35"/>
-      <c r="F457" s="136" t="s">
+      <c r="F457" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G457" s="136"/>
-      <c r="H457" s="136"/>
-      <c r="I457" s="136"/>
-      <c r="J457" s="136"/>
-      <c r="K457" s="135"/>
-      <c r="L457" s="135"/>
-      <c r="M457" s="135"/>
-      <c r="N457" s="135"/>
-      <c r="O457" s="135"/>
-      <c r="P457" s="135"/>
-      <c r="Q457" s="135"/>
-      <c r="R457" s="135"/>
-      <c r="S457" s="135"/>
-      <c r="T457" s="135"/>
-      <c r="U457" s="143" t="s">
+      <c r="G457" s="141"/>
+      <c r="H457" s="141"/>
+      <c r="I457" s="141"/>
+      <c r="J457" s="141"/>
+      <c r="K457" s="153"/>
+      <c r="L457" s="153"/>
+      <c r="M457" s="153"/>
+      <c r="N457" s="153"/>
+      <c r="O457" s="153"/>
+      <c r="P457" s="153"/>
+      <c r="Q457" s="153"/>
+      <c r="R457" s="153"/>
+      <c r="S457" s="153"/>
+      <c r="T457" s="153"/>
+      <c r="U457" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V457" s="144"/>
+      <c r="V457" s="155"/>
       <c r="W457" s="43"/>
     </row>
     <row r="458" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11085,26 +11085,26 @@
       <c r="D460" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E460" s="125" t="s">
+      <c r="E460" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F460" s="126"/>
-      <c r="G460" s="126"/>
+      <c r="F460" s="140"/>
+      <c r="G460" s="140"/>
       <c r="I460" s="18"/>
-      <c r="J460" s="154" t="s">
+      <c r="J460" s="156" t="s">
         <v>201</v>
       </c>
-      <c r="K460" s="154"/>
-      <c r="L460" s="154"/>
-      <c r="M460" s="154"/>
-      <c r="N460" s="154"/>
-      <c r="O460" s="154"/>
-      <c r="P460" s="154"/>
-      <c r="Q460" s="154"/>
-      <c r="R460" s="154"/>
-      <c r="S460" s="154"/>
-      <c r="T460" s="154"/>
-      <c r="U460" s="154"/>
+      <c r="K460" s="156"/>
+      <c r="L460" s="156"/>
+      <c r="M460" s="156"/>
+      <c r="N460" s="156"/>
+      <c r="O460" s="156"/>
+      <c r="P460" s="156"/>
+      <c r="Q460" s="156"/>
+      <c r="R460" s="156"/>
+      <c r="S460" s="156"/>
+      <c r="T460" s="156"/>
+      <c r="U460" s="156"/>
       <c r="V460" s="77"/>
       <c r="W460" s="20"/>
     </row>
@@ -11113,11 +11113,11 @@
       <c r="D461" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E461" s="125" t="s">
+      <c r="E461" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F461" s="126"/>
-      <c r="G461" s="126"/>
+      <c r="F461" s="140"/>
+      <c r="G461" s="140"/>
       <c r="I461" s="18"/>
       <c r="J461" s="51"/>
       <c r="K461" s="58"/>
@@ -11132,11 +11132,11 @@
       <c r="D462" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E462" s="125" t="s">
+      <c r="E462" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F462" s="126"/>
-      <c r="G462" s="126"/>
+      <c r="F462" s="140"/>
+      <c r="G462" s="140"/>
       <c r="I462" s="18"/>
       <c r="V462" s="78"/>
       <c r="W462" s="20"/>
@@ -11146,11 +11146,11 @@
       <c r="D463" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E463" s="125" t="s">
+      <c r="E463" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F463" s="126"/>
-      <c r="G463" s="126"/>
+      <c r="F463" s="140"/>
+      <c r="G463" s="140"/>
       <c r="I463" s="18" t="s">
         <v>35</v>
       </c>
@@ -11172,11 +11172,11 @@
       <c r="D464" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E464" s="127" t="s">
+      <c r="E464" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="F464" s="128"/>
-      <c r="G464" s="128"/>
+      <c r="F464" s="143"/>
+      <c r="G464" s="143"/>
       <c r="I464" s="18"/>
       <c r="L464" s="82"/>
       <c r="M464" s="88" t="s">
@@ -11320,75 +11320,75 @@
       <c r="W478" s="20"/>
     </row>
     <row r="479" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C479" s="129" t="s">
+      <c r="C479" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D479" s="129"/>
-      <c r="E479" s="129"/>
-      <c r="F479" s="129"/>
-      <c r="G479" s="129"/>
-      <c r="H479" s="129"/>
-      <c r="I479" s="129"/>
-      <c r="J479" s="129"/>
-      <c r="K479" s="129"/>
-      <c r="L479" s="129"/>
-      <c r="M479" s="129"/>
-      <c r="N479" s="129"/>
-      <c r="O479" s="129"/>
-      <c r="P479" s="129"/>
-      <c r="Q479" s="129"/>
-      <c r="R479" s="129"/>
-      <c r="S479" s="129"/>
-      <c r="T479" s="129"/>
-      <c r="U479" s="129"/>
-      <c r="V479" s="129"/>
-      <c r="W479" s="129"/>
+      <c r="D479" s="130"/>
+      <c r="E479" s="130"/>
+      <c r="F479" s="130"/>
+      <c r="G479" s="130"/>
+      <c r="H479" s="130"/>
+      <c r="I479" s="130"/>
+      <c r="J479" s="130"/>
+      <c r="K479" s="130"/>
+      <c r="L479" s="130"/>
+      <c r="M479" s="130"/>
+      <c r="N479" s="130"/>
+      <c r="O479" s="130"/>
+      <c r="P479" s="130"/>
+      <c r="Q479" s="130"/>
+      <c r="R479" s="130"/>
+      <c r="S479" s="130"/>
+      <c r="T479" s="130"/>
+      <c r="U479" s="130"/>
+      <c r="V479" s="130"/>
+      <c r="W479" s="130"/>
     </row>
     <row r="480" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C480" s="129"/>
-      <c r="D480" s="129"/>
-      <c r="E480" s="129"/>
-      <c r="F480" s="129"/>
-      <c r="G480" s="129"/>
-      <c r="H480" s="129"/>
-      <c r="I480" s="129"/>
-      <c r="J480" s="129"/>
-      <c r="K480" s="129"/>
-      <c r="L480" s="129"/>
-      <c r="M480" s="129"/>
-      <c r="N480" s="129"/>
-      <c r="O480" s="129"/>
-      <c r="P480" s="129"/>
-      <c r="Q480" s="129"/>
-      <c r="R480" s="129"/>
-      <c r="S480" s="129"/>
-      <c r="T480" s="129"/>
-      <c r="U480" s="129"/>
-      <c r="V480" s="129"/>
-      <c r="W480" s="129"/>
+      <c r="C480" s="130"/>
+      <c r="D480" s="130"/>
+      <c r="E480" s="130"/>
+      <c r="F480" s="130"/>
+      <c r="G480" s="130"/>
+      <c r="H480" s="130"/>
+      <c r="I480" s="130"/>
+      <c r="J480" s="130"/>
+      <c r="K480" s="130"/>
+      <c r="L480" s="130"/>
+      <c r="M480" s="130"/>
+      <c r="N480" s="130"/>
+      <c r="O480" s="130"/>
+      <c r="P480" s="130"/>
+      <c r="Q480" s="130"/>
+      <c r="R480" s="130"/>
+      <c r="S480" s="130"/>
+      <c r="T480" s="130"/>
+      <c r="U480" s="130"/>
+      <c r="V480" s="130"/>
+      <c r="W480" s="130"/>
     </row>
     <row r="481" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C481" s="129"/>
-      <c r="D481" s="129"/>
-      <c r="E481" s="129"/>
-      <c r="F481" s="129"/>
-      <c r="G481" s="129"/>
-      <c r="H481" s="129"/>
-      <c r="I481" s="129"/>
-      <c r="J481" s="129"/>
-      <c r="K481" s="129"/>
-      <c r="L481" s="129"/>
-      <c r="M481" s="129"/>
-      <c r="N481" s="129"/>
-      <c r="O481" s="129"/>
-      <c r="P481" s="129"/>
-      <c r="Q481" s="129"/>
-      <c r="R481" s="129"/>
-      <c r="S481" s="129"/>
-      <c r="T481" s="129"/>
-      <c r="U481" s="129"/>
-      <c r="V481" s="129"/>
-      <c r="W481" s="129"/>
+      <c r="C481" s="130"/>
+      <c r="D481" s="130"/>
+      <c r="E481" s="130"/>
+      <c r="F481" s="130"/>
+      <c r="G481" s="130"/>
+      <c r="H481" s="130"/>
+      <c r="I481" s="130"/>
+      <c r="J481" s="130"/>
+      <c r="K481" s="130"/>
+      <c r="L481" s="130"/>
+      <c r="M481" s="130"/>
+      <c r="N481" s="130"/>
+      <c r="O481" s="130"/>
+      <c r="P481" s="130"/>
+      <c r="Q481" s="130"/>
+      <c r="R481" s="130"/>
+      <c r="S481" s="130"/>
+      <c r="T481" s="130"/>
+      <c r="U481" s="130"/>
+      <c r="V481" s="130"/>
+      <c r="W481" s="130"/>
     </row>
     <row r="483" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C483" s="61" t="s">
@@ -11397,11 +11397,11 @@
     </row>
     <row r="485" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C485" s="38"/>
-      <c r="D485" s="129" t="s">
+      <c r="D485" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E485" s="129"/>
-      <c r="F485" s="129"/>
+      <c r="E485" s="130"/>
+      <c r="F485" s="130"/>
       <c r="G485" s="32"/>
       <c r="H485" s="37"/>
       <c r="I485" s="37"/>
@@ -11422,25 +11422,25 @@
     </row>
     <row r="486" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C486" s="39"/>
-      <c r="D486" s="129"/>
-      <c r="E486" s="129"/>
-      <c r="F486" s="129"/>
+      <c r="D486" s="130"/>
+      <c r="E486" s="130"/>
+      <c r="F486" s="130"/>
       <c r="G486" s="45"/>
       <c r="H486" s="33"/>
       <c r="I486" s="33"/>
       <c r="J486" s="33"/>
-      <c r="K486" s="135" t="s">
+      <c r="K486" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L486" s="135"/>
-      <c r="M486" s="135"/>
-      <c r="N486" s="135"/>
-      <c r="O486" s="135"/>
-      <c r="P486" s="135"/>
-      <c r="Q486" s="135"/>
-      <c r="R486" s="135"/>
-      <c r="S486" s="135"/>
-      <c r="T486" s="135"/>
+      <c r="L486" s="153"/>
+      <c r="M486" s="153"/>
+      <c r="N486" s="153"/>
+      <c r="O486" s="153"/>
+      <c r="P486" s="153"/>
+      <c r="Q486" s="153"/>
+      <c r="R486" s="153"/>
+      <c r="S486" s="153"/>
+      <c r="T486" s="153"/>
       <c r="U486" s="33"/>
       <c r="V486" s="33"/>
       <c r="W486" s="43"/>
@@ -11449,27 +11449,27 @@
       <c r="C487" s="39"/>
       <c r="D487" s="34"/>
       <c r="E487" s="35"/>
-      <c r="F487" s="136" t="s">
+      <c r="F487" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G487" s="136"/>
-      <c r="H487" s="136"/>
-      <c r="I487" s="136"/>
-      <c r="J487" s="136"/>
-      <c r="K487" s="135"/>
-      <c r="L487" s="135"/>
-      <c r="M487" s="135"/>
-      <c r="N487" s="135"/>
-      <c r="O487" s="135"/>
-      <c r="P487" s="135"/>
-      <c r="Q487" s="135"/>
-      <c r="R487" s="135"/>
-      <c r="S487" s="135"/>
-      <c r="T487" s="135"/>
-      <c r="U487" s="143" t="s">
+      <c r="G487" s="141"/>
+      <c r="H487" s="141"/>
+      <c r="I487" s="141"/>
+      <c r="J487" s="141"/>
+      <c r="K487" s="153"/>
+      <c r="L487" s="153"/>
+      <c r="M487" s="153"/>
+      <c r="N487" s="153"/>
+      <c r="O487" s="153"/>
+      <c r="P487" s="153"/>
+      <c r="Q487" s="153"/>
+      <c r="R487" s="153"/>
+      <c r="S487" s="153"/>
+      <c r="T487" s="153"/>
+      <c r="U487" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V487" s="144"/>
+      <c r="V487" s="155"/>
       <c r="W487" s="43"/>
     </row>
     <row r="488" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11523,26 +11523,26 @@
       <c r="D490" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E490" s="125" t="s">
+      <c r="E490" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F490" s="126"/>
-      <c r="G490" s="126"/>
+      <c r="F490" s="140"/>
+      <c r="G490" s="140"/>
       <c r="I490" s="18"/>
-      <c r="J490" s="154" t="s">
+      <c r="J490" s="156" t="s">
         <v>201</v>
       </c>
-      <c r="K490" s="154"/>
-      <c r="L490" s="154"/>
-      <c r="M490" s="154"/>
-      <c r="N490" s="154"/>
-      <c r="O490" s="154"/>
-      <c r="P490" s="154"/>
-      <c r="Q490" s="154"/>
-      <c r="R490" s="154"/>
-      <c r="S490" s="154"/>
-      <c r="T490" s="154"/>
-      <c r="U490" s="154"/>
+      <c r="K490" s="156"/>
+      <c r="L490" s="156"/>
+      <c r="M490" s="156"/>
+      <c r="N490" s="156"/>
+      <c r="O490" s="156"/>
+      <c r="P490" s="156"/>
+      <c r="Q490" s="156"/>
+      <c r="R490" s="156"/>
+      <c r="S490" s="156"/>
+      <c r="T490" s="156"/>
+      <c r="U490" s="156"/>
       <c r="V490" s="77"/>
       <c r="W490" s="20"/>
     </row>
@@ -11551,11 +11551,11 @@
       <c r="D491" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="125" t="s">
+      <c r="E491" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F491" s="126"/>
-      <c r="G491" s="126"/>
+      <c r="F491" s="140"/>
+      <c r="G491" s="140"/>
       <c r="I491" s="18"/>
       <c r="J491" s="51"/>
       <c r="K491" s="58"/>
@@ -11570,11 +11570,11 @@
       <c r="D492" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E492" s="125" t="s">
+      <c r="E492" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F492" s="126"/>
-      <c r="G492" s="126"/>
+      <c r="F492" s="140"/>
+      <c r="G492" s="140"/>
       <c r="I492" s="18"/>
       <c r="V492" s="78"/>
       <c r="W492" s="20"/>
@@ -11584,11 +11584,11 @@
       <c r="D493" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E493" s="125" t="s">
+      <c r="E493" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F493" s="126"/>
-      <c r="G493" s="126"/>
+      <c r="F493" s="140"/>
+      <c r="G493" s="140"/>
       <c r="I493" s="18" t="s">
         <v>35</v>
       </c>
@@ -11610,11 +11610,11 @@
       <c r="D494" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E494" s="127" t="s">
+      <c r="E494" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="F494" s="128"/>
-      <c r="G494" s="128"/>
+      <c r="F494" s="143"/>
+      <c r="G494" s="143"/>
       <c r="I494" s="18"/>
       <c r="L494" s="82"/>
       <c r="M494" s="88" t="s">
@@ -11758,75 +11758,75 @@
       <c r="W508" s="20"/>
     </row>
     <row r="509" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C509" s="129" t="s">
+      <c r="C509" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D509" s="129"/>
-      <c r="E509" s="129"/>
-      <c r="F509" s="129"/>
-      <c r="G509" s="129"/>
-      <c r="H509" s="129"/>
-      <c r="I509" s="129"/>
-      <c r="J509" s="129"/>
-      <c r="K509" s="129"/>
-      <c r="L509" s="129"/>
-      <c r="M509" s="129"/>
-      <c r="N509" s="129"/>
-      <c r="O509" s="129"/>
-      <c r="P509" s="129"/>
-      <c r="Q509" s="129"/>
-      <c r="R509" s="129"/>
-      <c r="S509" s="129"/>
-      <c r="T509" s="129"/>
-      <c r="U509" s="129"/>
-      <c r="V509" s="129"/>
-      <c r="W509" s="129"/>
+      <c r="D509" s="130"/>
+      <c r="E509" s="130"/>
+      <c r="F509" s="130"/>
+      <c r="G509" s="130"/>
+      <c r="H509" s="130"/>
+      <c r="I509" s="130"/>
+      <c r="J509" s="130"/>
+      <c r="K509" s="130"/>
+      <c r="L509" s="130"/>
+      <c r="M509" s="130"/>
+      <c r="N509" s="130"/>
+      <c r="O509" s="130"/>
+      <c r="P509" s="130"/>
+      <c r="Q509" s="130"/>
+      <c r="R509" s="130"/>
+      <c r="S509" s="130"/>
+      <c r="T509" s="130"/>
+      <c r="U509" s="130"/>
+      <c r="V509" s="130"/>
+      <c r="W509" s="130"/>
     </row>
     <row r="510" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C510" s="129"/>
-      <c r="D510" s="129"/>
-      <c r="E510" s="129"/>
-      <c r="F510" s="129"/>
-      <c r="G510" s="129"/>
-      <c r="H510" s="129"/>
-      <c r="I510" s="129"/>
-      <c r="J510" s="129"/>
-      <c r="K510" s="129"/>
-      <c r="L510" s="129"/>
-      <c r="M510" s="129"/>
-      <c r="N510" s="129"/>
-      <c r="O510" s="129"/>
-      <c r="P510" s="129"/>
-      <c r="Q510" s="129"/>
-      <c r="R510" s="129"/>
-      <c r="S510" s="129"/>
-      <c r="T510" s="129"/>
-      <c r="U510" s="129"/>
-      <c r="V510" s="129"/>
-      <c r="W510" s="129"/>
+      <c r="C510" s="130"/>
+      <c r="D510" s="130"/>
+      <c r="E510" s="130"/>
+      <c r="F510" s="130"/>
+      <c r="G510" s="130"/>
+      <c r="H510" s="130"/>
+      <c r="I510" s="130"/>
+      <c r="J510" s="130"/>
+      <c r="K510" s="130"/>
+      <c r="L510" s="130"/>
+      <c r="M510" s="130"/>
+      <c r="N510" s="130"/>
+      <c r="O510" s="130"/>
+      <c r="P510" s="130"/>
+      <c r="Q510" s="130"/>
+      <c r="R510" s="130"/>
+      <c r="S510" s="130"/>
+      <c r="T510" s="130"/>
+      <c r="U510" s="130"/>
+      <c r="V510" s="130"/>
+      <c r="W510" s="130"/>
     </row>
     <row r="511" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C511" s="129"/>
-      <c r="D511" s="129"/>
-      <c r="E511" s="129"/>
-      <c r="F511" s="129"/>
-      <c r="G511" s="129"/>
-      <c r="H511" s="129"/>
-      <c r="I511" s="129"/>
-      <c r="J511" s="129"/>
-      <c r="K511" s="129"/>
-      <c r="L511" s="129"/>
-      <c r="M511" s="129"/>
-      <c r="N511" s="129"/>
-      <c r="O511" s="129"/>
-      <c r="P511" s="129"/>
-      <c r="Q511" s="129"/>
-      <c r="R511" s="129"/>
-      <c r="S511" s="129"/>
-      <c r="T511" s="129"/>
-      <c r="U511" s="129"/>
-      <c r="V511" s="129"/>
-      <c r="W511" s="129"/>
+      <c r="C511" s="130"/>
+      <c r="D511" s="130"/>
+      <c r="E511" s="130"/>
+      <c r="F511" s="130"/>
+      <c r="G511" s="130"/>
+      <c r="H511" s="130"/>
+      <c r="I511" s="130"/>
+      <c r="J511" s="130"/>
+      <c r="K511" s="130"/>
+      <c r="L511" s="130"/>
+      <c r="M511" s="130"/>
+      <c r="N511" s="130"/>
+      <c r="O511" s="130"/>
+      <c r="P511" s="130"/>
+      <c r="Q511" s="130"/>
+      <c r="R511" s="130"/>
+      <c r="S511" s="130"/>
+      <c r="T511" s="130"/>
+      <c r="U511" s="130"/>
+      <c r="V511" s="130"/>
+      <c r="W511" s="130"/>
     </row>
     <row r="514" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B514" s="61" t="s">
@@ -11835,11 +11835,11 @@
     </row>
     <row r="516" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C516" s="38"/>
-      <c r="D516" s="129" t="s">
+      <c r="D516" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E516" s="129"/>
-      <c r="F516" s="129"/>
+      <c r="E516" s="130"/>
+      <c r="F516" s="130"/>
       <c r="G516" s="32"/>
       <c r="H516" s="37"/>
       <c r="I516" s="37"/>
@@ -11860,25 +11860,25 @@
     </row>
     <row r="517" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C517" s="39"/>
-      <c r="D517" s="129"/>
-      <c r="E517" s="129"/>
-      <c r="F517" s="129"/>
+      <c r="D517" s="130"/>
+      <c r="E517" s="130"/>
+      <c r="F517" s="130"/>
       <c r="G517" s="45"/>
       <c r="H517" s="33"/>
       <c r="I517" s="33"/>
       <c r="J517" s="33"/>
-      <c r="K517" s="135" t="s">
+      <c r="K517" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="L517" s="135"/>
-      <c r="M517" s="135"/>
-      <c r="N517" s="135"/>
-      <c r="O517" s="135"/>
-      <c r="P517" s="135"/>
-      <c r="Q517" s="135"/>
-      <c r="R517" s="135"/>
-      <c r="S517" s="135"/>
-      <c r="T517" s="135"/>
+      <c r="L517" s="153"/>
+      <c r="M517" s="153"/>
+      <c r="N517" s="153"/>
+      <c r="O517" s="153"/>
+      <c r="P517" s="153"/>
+      <c r="Q517" s="153"/>
+      <c r="R517" s="153"/>
+      <c r="S517" s="153"/>
+      <c r="T517" s="153"/>
       <c r="U517" s="33"/>
       <c r="V517" s="33"/>
       <c r="W517" s="43"/>
@@ -11887,27 +11887,27 @@
       <c r="C518" s="39"/>
       <c r="D518" s="34"/>
       <c r="E518" s="35"/>
-      <c r="F518" s="136" t="s">
+      <c r="F518" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="G518" s="136"/>
-      <c r="H518" s="136"/>
-      <c r="I518" s="136"/>
-      <c r="J518" s="136"/>
-      <c r="K518" s="135"/>
-      <c r="L518" s="135"/>
-      <c r="M518" s="135"/>
-      <c r="N518" s="135"/>
-      <c r="O518" s="135"/>
-      <c r="P518" s="135"/>
-      <c r="Q518" s="135"/>
-      <c r="R518" s="135"/>
-      <c r="S518" s="135"/>
-      <c r="T518" s="135"/>
-      <c r="U518" s="143" t="s">
+      <c r="G518" s="141"/>
+      <c r="H518" s="141"/>
+      <c r="I518" s="141"/>
+      <c r="J518" s="141"/>
+      <c r="K518" s="153"/>
+      <c r="L518" s="153"/>
+      <c r="M518" s="153"/>
+      <c r="N518" s="153"/>
+      <c r="O518" s="153"/>
+      <c r="P518" s="153"/>
+      <c r="Q518" s="153"/>
+      <c r="R518" s="153"/>
+      <c r="S518" s="153"/>
+      <c r="T518" s="153"/>
+      <c r="U518" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="V518" s="144"/>
+      <c r="V518" s="155"/>
       <c r="W518" s="43"/>
     </row>
     <row r="519" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11961,24 +11961,24 @@
       <c r="D521" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E521" s="125" t="s">
+      <c r="E521" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="F521" s="126"/>
-      <c r="G521" s="126"/>
+      <c r="F521" s="140"/>
+      <c r="G521" s="140"/>
       <c r="I521" s="18"/>
-      <c r="J521" s="154"/>
-      <c r="K521" s="154"/>
-      <c r="L521" s="154"/>
-      <c r="M521" s="154"/>
-      <c r="N521" s="154"/>
-      <c r="O521" s="154"/>
-      <c r="P521" s="154"/>
-      <c r="Q521" s="154"/>
-      <c r="R521" s="154"/>
-      <c r="S521" s="154"/>
-      <c r="T521" s="154"/>
-      <c r="U521" s="154"/>
+      <c r="J521" s="156"/>
+      <c r="K521" s="156"/>
+      <c r="L521" s="156"/>
+      <c r="M521" s="156"/>
+      <c r="N521" s="156"/>
+      <c r="O521" s="156"/>
+      <c r="P521" s="156"/>
+      <c r="Q521" s="156"/>
+      <c r="R521" s="156"/>
+      <c r="S521" s="156"/>
+      <c r="T521" s="156"/>
+      <c r="U521" s="156"/>
       <c r="V521" s="77"/>
       <c r="W521" s="20"/>
     </row>
@@ -11987,11 +11987,11 @@
       <c r="D522" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E522" s="125" t="s">
+      <c r="E522" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F522" s="126"/>
-      <c r="G522" s="126"/>
+      <c r="F522" s="140"/>
+      <c r="G522" s="140"/>
       <c r="I522" s="18"/>
       <c r="J522" s="51"/>
       <c r="K522" s="58"/>
@@ -12006,11 +12006,11 @@
       <c r="D523" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E523" s="125" t="s">
+      <c r="E523" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="F523" s="126"/>
-      <c r="G523" s="126"/>
+      <c r="F523" s="140"/>
+      <c r="G523" s="140"/>
       <c r="I523" s="18"/>
       <c r="V523" s="78"/>
       <c r="W523" s="20"/>
@@ -12020,11 +12020,11 @@
       <c r="D524" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E524" s="125" t="s">
+      <c r="E524" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="F524" s="126"/>
-      <c r="G524" s="126"/>
+      <c r="F524" s="140"/>
+      <c r="G524" s="140"/>
       <c r="I524" s="18" t="s">
         <v>35</v>
       </c>
@@ -12046,11 +12046,11 @@
       <c r="D525" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E525" s="125" t="s">
+      <c r="E525" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="F525" s="126"/>
-      <c r="G525" s="126"/>
+      <c r="F525" s="140"/>
+      <c r="G525" s="140"/>
       <c r="I525" s="18"/>
       <c r="L525" s="82"/>
       <c r="M525" s="88" t="s">
@@ -12194,78 +12194,440 @@
       <c r="W539" s="20"/>
     </row>
     <row r="540" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C540" s="129" t="s">
+      <c r="C540" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="D540" s="129"/>
-      <c r="E540" s="129"/>
-      <c r="F540" s="129"/>
-      <c r="G540" s="129"/>
-      <c r="H540" s="129"/>
-      <c r="I540" s="129"/>
-      <c r="J540" s="129"/>
-      <c r="K540" s="129"/>
-      <c r="L540" s="129"/>
-      <c r="M540" s="129"/>
-      <c r="N540" s="129"/>
-      <c r="O540" s="129"/>
-      <c r="P540" s="129"/>
-      <c r="Q540" s="129"/>
-      <c r="R540" s="129"/>
-      <c r="S540" s="129"/>
-      <c r="T540" s="129"/>
-      <c r="U540" s="129"/>
-      <c r="V540" s="129"/>
-      <c r="W540" s="129"/>
+      <c r="D540" s="130"/>
+      <c r="E540" s="130"/>
+      <c r="F540" s="130"/>
+      <c r="G540" s="130"/>
+      <c r="H540" s="130"/>
+      <c r="I540" s="130"/>
+      <c r="J540" s="130"/>
+      <c r="K540" s="130"/>
+      <c r="L540" s="130"/>
+      <c r="M540" s="130"/>
+      <c r="N540" s="130"/>
+      <c r="O540" s="130"/>
+      <c r="P540" s="130"/>
+      <c r="Q540" s="130"/>
+      <c r="R540" s="130"/>
+      <c r="S540" s="130"/>
+      <c r="T540" s="130"/>
+      <c r="U540" s="130"/>
+      <c r="V540" s="130"/>
+      <c r="W540" s="130"/>
     </row>
     <row r="541" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C541" s="129"/>
-      <c r="D541" s="129"/>
-      <c r="E541" s="129"/>
-      <c r="F541" s="129"/>
-      <c r="G541" s="129"/>
-      <c r="H541" s="129"/>
-      <c r="I541" s="129"/>
-      <c r="J541" s="129"/>
-      <c r="K541" s="129"/>
-      <c r="L541" s="129"/>
-      <c r="M541" s="129"/>
-      <c r="N541" s="129"/>
-      <c r="O541" s="129"/>
-      <c r="P541" s="129"/>
-      <c r="Q541" s="129"/>
-      <c r="R541" s="129"/>
-      <c r="S541" s="129"/>
-      <c r="T541" s="129"/>
-      <c r="U541" s="129"/>
-      <c r="V541" s="129"/>
-      <c r="W541" s="129"/>
+      <c r="C541" s="130"/>
+      <c r="D541" s="130"/>
+      <c r="E541" s="130"/>
+      <c r="F541" s="130"/>
+      <c r="G541" s="130"/>
+      <c r="H541" s="130"/>
+      <c r="I541" s="130"/>
+      <c r="J541" s="130"/>
+      <c r="K541" s="130"/>
+      <c r="L541" s="130"/>
+      <c r="M541" s="130"/>
+      <c r="N541" s="130"/>
+      <c r="O541" s="130"/>
+      <c r="P541" s="130"/>
+      <c r="Q541" s="130"/>
+      <c r="R541" s="130"/>
+      <c r="S541" s="130"/>
+      <c r="T541" s="130"/>
+      <c r="U541" s="130"/>
+      <c r="V541" s="130"/>
+      <c r="W541" s="130"/>
     </row>
     <row r="542" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C542" s="129"/>
-      <c r="D542" s="129"/>
-      <c r="E542" s="129"/>
-      <c r="F542" s="129"/>
-      <c r="G542" s="129"/>
-      <c r="H542" s="129"/>
-      <c r="I542" s="129"/>
-      <c r="J542" s="129"/>
-      <c r="K542" s="129"/>
-      <c r="L542" s="129"/>
-      <c r="M542" s="129"/>
-      <c r="N542" s="129"/>
-      <c r="O542" s="129"/>
-      <c r="P542" s="129"/>
-      <c r="Q542" s="129"/>
-      <c r="R542" s="129"/>
-      <c r="S542" s="129"/>
-      <c r="T542" s="129"/>
-      <c r="U542" s="129"/>
-      <c r="V542" s="129"/>
-      <c r="W542" s="129"/>
+      <c r="C542" s="130"/>
+      <c r="D542" s="130"/>
+      <c r="E542" s="130"/>
+      <c r="F542" s="130"/>
+      <c r="G542" s="130"/>
+      <c r="H542" s="130"/>
+      <c r="I542" s="130"/>
+      <c r="J542" s="130"/>
+      <c r="K542" s="130"/>
+      <c r="L542" s="130"/>
+      <c r="M542" s="130"/>
+      <c r="N542" s="130"/>
+      <c r="O542" s="130"/>
+      <c r="P542" s="130"/>
+      <c r="Q542" s="130"/>
+      <c r="R542" s="130"/>
+      <c r="S542" s="130"/>
+      <c r="T542" s="130"/>
+      <c r="U542" s="130"/>
+      <c r="V542" s="130"/>
+      <c r="W542" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="386">
+    <mergeCell ref="E463:G463"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="C479:W481"/>
+    <mergeCell ref="J432:N432"/>
+    <mergeCell ref="S432:U432"/>
+    <mergeCell ref="Q439:S439"/>
+    <mergeCell ref="Q440:S440"/>
+    <mergeCell ref="Q441:S441"/>
+    <mergeCell ref="Q442:S442"/>
+    <mergeCell ref="Q443:S443"/>
+    <mergeCell ref="Q444:S444"/>
+    <mergeCell ref="D455:F456"/>
+    <mergeCell ref="K456:T457"/>
+    <mergeCell ref="F457:J457"/>
+    <mergeCell ref="M444:N444"/>
+    <mergeCell ref="O435:P435"/>
+    <mergeCell ref="O436:P436"/>
+    <mergeCell ref="O437:P437"/>
+    <mergeCell ref="O438:P438"/>
+    <mergeCell ref="O434:P434"/>
+    <mergeCell ref="Q434:S434"/>
+    <mergeCell ref="K435:L435"/>
+    <mergeCell ref="K436:L436"/>
+    <mergeCell ref="K437:L437"/>
+    <mergeCell ref="K438:L438"/>
+    <mergeCell ref="K439:L439"/>
+    <mergeCell ref="K440:L440"/>
+    <mergeCell ref="K441:L441"/>
+    <mergeCell ref="M435:N435"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="M438:N438"/>
+    <mergeCell ref="N375:S375"/>
+    <mergeCell ref="N377:S377"/>
+    <mergeCell ref="C388:W390"/>
+    <mergeCell ref="D394:F395"/>
+    <mergeCell ref="K395:T396"/>
+    <mergeCell ref="F396:J396"/>
+    <mergeCell ref="U396:V396"/>
+    <mergeCell ref="N379:S379"/>
+    <mergeCell ref="N381:S381"/>
+    <mergeCell ref="Q385:R385"/>
+    <mergeCell ref="Q436:S436"/>
+    <mergeCell ref="Q437:S437"/>
+    <mergeCell ref="Q438:S438"/>
+    <mergeCell ref="Q435:S435"/>
+    <mergeCell ref="U427:V427"/>
+    <mergeCell ref="D425:F426"/>
+    <mergeCell ref="E522:G522"/>
+    <mergeCell ref="E523:G523"/>
+    <mergeCell ref="E524:G524"/>
+    <mergeCell ref="E525:G525"/>
+    <mergeCell ref="C540:W542"/>
+    <mergeCell ref="R306:S306"/>
+    <mergeCell ref="R307:S307"/>
+    <mergeCell ref="R308:S308"/>
+    <mergeCell ref="R309:S309"/>
+    <mergeCell ref="R310:S310"/>
+    <mergeCell ref="R311:S311"/>
+    <mergeCell ref="R312:S312"/>
+    <mergeCell ref="R313:S313"/>
+    <mergeCell ref="L314:M314"/>
+    <mergeCell ref="N314:O314"/>
+    <mergeCell ref="R314:S314"/>
+    <mergeCell ref="L315:M315"/>
+    <mergeCell ref="N315:O315"/>
+    <mergeCell ref="R315:S315"/>
+    <mergeCell ref="L316:M316"/>
+    <mergeCell ref="N316:O316"/>
+    <mergeCell ref="R316:S316"/>
+    <mergeCell ref="N343:S343"/>
+    <mergeCell ref="D516:F517"/>
+    <mergeCell ref="K517:T518"/>
+    <mergeCell ref="F518:J518"/>
+    <mergeCell ref="U518:V518"/>
+    <mergeCell ref="E521:G521"/>
+    <mergeCell ref="J521:U521"/>
+    <mergeCell ref="C509:W511"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="E491:G491"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="J490:U490"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="D485:F486"/>
+    <mergeCell ref="K486:T487"/>
+    <mergeCell ref="F487:J487"/>
+    <mergeCell ref="U487:V487"/>
+    <mergeCell ref="C449:W451"/>
+    <mergeCell ref="K443:L443"/>
+    <mergeCell ref="K444:L444"/>
+    <mergeCell ref="M439:N439"/>
+    <mergeCell ref="M440:N440"/>
+    <mergeCell ref="M441:N441"/>
+    <mergeCell ref="M442:N442"/>
+    <mergeCell ref="M443:N443"/>
+    <mergeCell ref="O439:P439"/>
+    <mergeCell ref="O440:P440"/>
+    <mergeCell ref="O441:P441"/>
+    <mergeCell ref="O442:P442"/>
+    <mergeCell ref="O443:P443"/>
+    <mergeCell ref="O444:P444"/>
+    <mergeCell ref="K442:L442"/>
+    <mergeCell ref="U457:V457"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="J460:U460"/>
+    <mergeCell ref="E461:G461"/>
+    <mergeCell ref="E462:G462"/>
+    <mergeCell ref="K426:T427"/>
+    <mergeCell ref="F427:J427"/>
+    <mergeCell ref="E399:G399"/>
+    <mergeCell ref="J399:U399"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="E401:G401"/>
+    <mergeCell ref="E402:G402"/>
+    <mergeCell ref="E403:G403"/>
+    <mergeCell ref="C418:W420"/>
+    <mergeCell ref="E430:G430"/>
+    <mergeCell ref="J430:U430"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="E433:G433"/>
+    <mergeCell ref="E434:G434"/>
+    <mergeCell ref="T434:U434"/>
+    <mergeCell ref="K434:L434"/>
+    <mergeCell ref="M434:N434"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="E335:G335"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="E367:G367"/>
+    <mergeCell ref="E368:G368"/>
+    <mergeCell ref="N371:S371"/>
+    <mergeCell ref="N373:S373"/>
+    <mergeCell ref="J366:U366"/>
+    <mergeCell ref="E369:G369"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="N337:S337"/>
+    <mergeCell ref="N339:S339"/>
+    <mergeCell ref="N341:S341"/>
+    <mergeCell ref="Q351:R351"/>
+    <mergeCell ref="C354:W356"/>
+    <mergeCell ref="D361:F362"/>
+    <mergeCell ref="K362:T363"/>
+    <mergeCell ref="F363:J363"/>
+    <mergeCell ref="U363:V363"/>
+    <mergeCell ref="N345:S345"/>
+    <mergeCell ref="N347:S347"/>
+    <mergeCell ref="R189:S189"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="D327:F328"/>
+    <mergeCell ref="K328:T329"/>
+    <mergeCell ref="F329:J329"/>
+    <mergeCell ref="U329:V329"/>
+    <mergeCell ref="E332:G332"/>
+    <mergeCell ref="J332:U332"/>
+    <mergeCell ref="E333:G333"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="J302:U302"/>
+    <mergeCell ref="E303:G303"/>
+    <mergeCell ref="E304:G304"/>
+    <mergeCell ref="M304:P304"/>
+    <mergeCell ref="U304:V304"/>
+    <mergeCell ref="E238:G238"/>
+    <mergeCell ref="J238:U238"/>
+    <mergeCell ref="E239:G239"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="N243:S243"/>
+    <mergeCell ref="N245:S245"/>
+    <mergeCell ref="N247:S247"/>
+    <mergeCell ref="N187:O187"/>
+    <mergeCell ref="L188:M188"/>
+    <mergeCell ref="N188:O188"/>
+    <mergeCell ref="L189:M189"/>
+    <mergeCell ref="N189:O189"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="J175:U175"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="M177:P177"/>
+    <mergeCell ref="U177:V177"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="T179:U179"/>
+    <mergeCell ref="R179:S179"/>
+    <mergeCell ref="R180:S180"/>
+    <mergeCell ref="R181:S181"/>
+    <mergeCell ref="R182:S182"/>
+    <mergeCell ref="R183:S183"/>
+    <mergeCell ref="R184:S184"/>
+    <mergeCell ref="R185:S185"/>
+    <mergeCell ref="R186:S186"/>
+    <mergeCell ref="R187:S187"/>
+    <mergeCell ref="R188:S188"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U79:V79"/>
+    <mergeCell ref="U110:V110"/>
+    <mergeCell ref="U140:V140"/>
+    <mergeCell ref="C101:W103"/>
+    <mergeCell ref="N91:S91"/>
+    <mergeCell ref="N87:S87"/>
+    <mergeCell ref="N89:S89"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D77:F78"/>
+    <mergeCell ref="K78:T79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="J82:U82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="Q57:S57"/>
+    <mergeCell ref="Q58:S58"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="M58:O58"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="Q59:S59"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="D17:F18"/>
+    <mergeCell ref="K18:T19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="K109:T110"/>
+    <mergeCell ref="C71:W73"/>
+    <mergeCell ref="J52:U52"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="M54:P54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="C41:W43"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="D47:F48"/>
+    <mergeCell ref="K48:T49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="J113:U113"/>
+    <mergeCell ref="N118:S118"/>
+    <mergeCell ref="N120:S120"/>
+    <mergeCell ref="N122:S122"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="C132:W134"/>
+    <mergeCell ref="D138:F139"/>
+    <mergeCell ref="K139:T140"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="J143:U143"/>
+    <mergeCell ref="K171:T172"/>
+    <mergeCell ref="U172:V172"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="L186:M186"/>
+    <mergeCell ref="N186:O186"/>
+    <mergeCell ref="L183:M183"/>
+    <mergeCell ref="N183:O183"/>
+    <mergeCell ref="L184:M184"/>
+    <mergeCell ref="N184:O184"/>
+    <mergeCell ref="L185:M185"/>
+    <mergeCell ref="N185:O185"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="N179:O179"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="L182:M182"/>
+    <mergeCell ref="N182:O182"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="N180:O180"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="N181:O181"/>
+    <mergeCell ref="C162:W164"/>
+    <mergeCell ref="C194:W196"/>
+    <mergeCell ref="D200:F201"/>
+    <mergeCell ref="K201:T202"/>
+    <mergeCell ref="F202:J202"/>
+    <mergeCell ref="U202:V202"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="J205:U205"/>
+    <mergeCell ref="E206:G206"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="N210:S210"/>
+    <mergeCell ref="N212:S212"/>
+    <mergeCell ref="N214:S214"/>
+    <mergeCell ref="C226:W228"/>
+    <mergeCell ref="D233:F234"/>
+    <mergeCell ref="K234:T235"/>
+    <mergeCell ref="F235:J235"/>
+    <mergeCell ref="U235:V235"/>
+    <mergeCell ref="N216:S216"/>
+    <mergeCell ref="N218:S219"/>
+    <mergeCell ref="N221:S221"/>
+    <mergeCell ref="Q223:R223"/>
+    <mergeCell ref="E274:G274"/>
+    <mergeCell ref="E275:G275"/>
+    <mergeCell ref="C290:W292"/>
+    <mergeCell ref="N249:S249"/>
+    <mergeCell ref="E305:G305"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="Q304:R304"/>
+    <mergeCell ref="N251:S252"/>
+    <mergeCell ref="N254:S254"/>
+    <mergeCell ref="Q256:R256"/>
+    <mergeCell ref="C260:W262"/>
+    <mergeCell ref="D266:F267"/>
+    <mergeCell ref="K267:T268"/>
+    <mergeCell ref="F268:J268"/>
+    <mergeCell ref="U268:V268"/>
+    <mergeCell ref="E271:G271"/>
+    <mergeCell ref="J271:U271"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="E273:G273"/>
+    <mergeCell ref="T306:U306"/>
+    <mergeCell ref="D297:F298"/>
+    <mergeCell ref="K298:T299"/>
+    <mergeCell ref="F299:J299"/>
+    <mergeCell ref="U299:V299"/>
+    <mergeCell ref="L311:M311"/>
+    <mergeCell ref="N311:O311"/>
+    <mergeCell ref="L310:M310"/>
+    <mergeCell ref="N310:O310"/>
+    <mergeCell ref="L308:M308"/>
+    <mergeCell ref="N308:O308"/>
+    <mergeCell ref="L309:M309"/>
+    <mergeCell ref="N309:O309"/>
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="N312:O312"/>
     <mergeCell ref="L313:M313"/>
     <mergeCell ref="N313:O313"/>
     <mergeCell ref="C321:W323"/>
@@ -12290,368 +12652,6 @@
     <mergeCell ref="E146:G146"/>
     <mergeCell ref="E147:G147"/>
     <mergeCell ref="D170:F171"/>
-    <mergeCell ref="L311:M311"/>
-    <mergeCell ref="N311:O311"/>
-    <mergeCell ref="L310:M310"/>
-    <mergeCell ref="N310:O310"/>
-    <mergeCell ref="L308:M308"/>
-    <mergeCell ref="N308:O308"/>
-    <mergeCell ref="L309:M309"/>
-    <mergeCell ref="N309:O309"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="N312:O312"/>
-    <mergeCell ref="E274:G274"/>
-    <mergeCell ref="E275:G275"/>
-    <mergeCell ref="C290:W292"/>
-    <mergeCell ref="N249:S249"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="E306:G306"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="N251:S252"/>
-    <mergeCell ref="N254:S254"/>
-    <mergeCell ref="Q256:R256"/>
-    <mergeCell ref="C260:W262"/>
-    <mergeCell ref="D266:F267"/>
-    <mergeCell ref="K267:T268"/>
-    <mergeCell ref="F268:J268"/>
-    <mergeCell ref="U268:V268"/>
-    <mergeCell ref="E271:G271"/>
-    <mergeCell ref="J271:U271"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="E273:G273"/>
-    <mergeCell ref="T306:U306"/>
-    <mergeCell ref="D297:F298"/>
-    <mergeCell ref="K298:T299"/>
-    <mergeCell ref="F299:J299"/>
-    <mergeCell ref="U299:V299"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="N210:S210"/>
-    <mergeCell ref="N212:S212"/>
-    <mergeCell ref="N214:S214"/>
-    <mergeCell ref="C226:W228"/>
-    <mergeCell ref="D233:F234"/>
-    <mergeCell ref="K234:T235"/>
-    <mergeCell ref="F235:J235"/>
-    <mergeCell ref="U235:V235"/>
-    <mergeCell ref="N216:S216"/>
-    <mergeCell ref="N218:S219"/>
-    <mergeCell ref="N221:S221"/>
-    <mergeCell ref="Q223:R223"/>
-    <mergeCell ref="C194:W196"/>
-    <mergeCell ref="D200:F201"/>
-    <mergeCell ref="K201:T202"/>
-    <mergeCell ref="F202:J202"/>
-    <mergeCell ref="U202:V202"/>
-    <mergeCell ref="E205:G205"/>
-    <mergeCell ref="J205:U205"/>
-    <mergeCell ref="E206:G206"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="J143:U143"/>
-    <mergeCell ref="K171:T172"/>
-    <mergeCell ref="U172:V172"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="L186:M186"/>
-    <mergeCell ref="N186:O186"/>
-    <mergeCell ref="L183:M183"/>
-    <mergeCell ref="N183:O183"/>
-    <mergeCell ref="L184:M184"/>
-    <mergeCell ref="N184:O184"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="N185:O185"/>
-    <mergeCell ref="F172:J172"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="N179:O179"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="L182:M182"/>
-    <mergeCell ref="N182:O182"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="N180:O180"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="N181:O181"/>
-    <mergeCell ref="C162:W164"/>
-    <mergeCell ref="J113:U113"/>
-    <mergeCell ref="N118:S118"/>
-    <mergeCell ref="N120:S120"/>
-    <mergeCell ref="N122:S122"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="C132:W134"/>
-    <mergeCell ref="D138:F139"/>
-    <mergeCell ref="K139:T140"/>
-    <mergeCell ref="F140:J140"/>
-    <mergeCell ref="D17:F18"/>
-    <mergeCell ref="K18:T19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="K109:T110"/>
-    <mergeCell ref="C71:W73"/>
-    <mergeCell ref="J52:U52"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="M54:P54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:O56"/>
-    <mergeCell ref="C41:W43"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M65:O65"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="D47:F48"/>
-    <mergeCell ref="K48:T49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="Q59:S59"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="M57:O57"/>
-    <mergeCell ref="M58:O58"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U79:V79"/>
-    <mergeCell ref="U110:V110"/>
-    <mergeCell ref="U140:V140"/>
-    <mergeCell ref="C101:W103"/>
-    <mergeCell ref="N91:S91"/>
-    <mergeCell ref="N87:S87"/>
-    <mergeCell ref="N89:S89"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D77:F78"/>
-    <mergeCell ref="K78:T79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="J82:U82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="Q56:S56"/>
-    <mergeCell ref="Q57:S57"/>
-    <mergeCell ref="Q58:S58"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="N187:O187"/>
-    <mergeCell ref="L188:M188"/>
-    <mergeCell ref="N188:O188"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="N189:O189"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="J175:U175"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="M177:P177"/>
-    <mergeCell ref="U177:V177"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="T179:U179"/>
-    <mergeCell ref="R179:S179"/>
-    <mergeCell ref="R180:S180"/>
-    <mergeCell ref="R181:S181"/>
-    <mergeCell ref="R182:S182"/>
-    <mergeCell ref="R183:S183"/>
-    <mergeCell ref="R184:S184"/>
-    <mergeCell ref="R185:S185"/>
-    <mergeCell ref="R186:S186"/>
-    <mergeCell ref="R187:S187"/>
-    <mergeCell ref="R188:S188"/>
-    <mergeCell ref="R189:S189"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="D327:F328"/>
-    <mergeCell ref="K328:T329"/>
-    <mergeCell ref="F329:J329"/>
-    <mergeCell ref="U329:V329"/>
-    <mergeCell ref="E332:G332"/>
-    <mergeCell ref="J332:U332"/>
-    <mergeCell ref="E333:G333"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="J302:U302"/>
-    <mergeCell ref="E303:G303"/>
-    <mergeCell ref="E304:G304"/>
-    <mergeCell ref="M304:P304"/>
-    <mergeCell ref="U304:V304"/>
-    <mergeCell ref="E238:G238"/>
-    <mergeCell ref="J238:U238"/>
-    <mergeCell ref="E239:G239"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="E242:G242"/>
-    <mergeCell ref="N243:S243"/>
-    <mergeCell ref="N245:S245"/>
-    <mergeCell ref="N247:S247"/>
-    <mergeCell ref="E334:G334"/>
-    <mergeCell ref="E335:G335"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="E367:G367"/>
-    <mergeCell ref="E368:G368"/>
-    <mergeCell ref="N371:S371"/>
-    <mergeCell ref="N373:S373"/>
-    <mergeCell ref="J366:U366"/>
-    <mergeCell ref="E369:G369"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="N337:S337"/>
-    <mergeCell ref="N339:S339"/>
-    <mergeCell ref="N341:S341"/>
-    <mergeCell ref="Q351:R351"/>
-    <mergeCell ref="C354:W356"/>
-    <mergeCell ref="D361:F362"/>
-    <mergeCell ref="K362:T363"/>
-    <mergeCell ref="F363:J363"/>
-    <mergeCell ref="U363:V363"/>
-    <mergeCell ref="N345:S345"/>
-    <mergeCell ref="N347:S347"/>
-    <mergeCell ref="E430:G430"/>
-    <mergeCell ref="J430:U430"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="E433:G433"/>
-    <mergeCell ref="E434:G434"/>
-    <mergeCell ref="T434:U434"/>
-    <mergeCell ref="K434:L434"/>
-    <mergeCell ref="M434:N434"/>
-    <mergeCell ref="K426:T427"/>
-    <mergeCell ref="F427:J427"/>
-    <mergeCell ref="E399:G399"/>
-    <mergeCell ref="J399:U399"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="E401:G401"/>
-    <mergeCell ref="E402:G402"/>
-    <mergeCell ref="E403:G403"/>
-    <mergeCell ref="C418:W420"/>
-    <mergeCell ref="D485:F486"/>
-    <mergeCell ref="K486:T487"/>
-    <mergeCell ref="F487:J487"/>
-    <mergeCell ref="U487:V487"/>
-    <mergeCell ref="C449:W451"/>
-    <mergeCell ref="K443:L443"/>
-    <mergeCell ref="K444:L444"/>
-    <mergeCell ref="M439:N439"/>
-    <mergeCell ref="M440:N440"/>
-    <mergeCell ref="M441:N441"/>
-    <mergeCell ref="M442:N442"/>
-    <mergeCell ref="M443:N443"/>
-    <mergeCell ref="O439:P439"/>
-    <mergeCell ref="O440:P440"/>
-    <mergeCell ref="O441:P441"/>
-    <mergeCell ref="O442:P442"/>
-    <mergeCell ref="O443:P443"/>
-    <mergeCell ref="O444:P444"/>
-    <mergeCell ref="K442:L442"/>
-    <mergeCell ref="U457:V457"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="J460:U460"/>
-    <mergeCell ref="E461:G461"/>
-    <mergeCell ref="E462:G462"/>
-    <mergeCell ref="K517:T518"/>
-    <mergeCell ref="F518:J518"/>
-    <mergeCell ref="U518:V518"/>
-    <mergeCell ref="E521:G521"/>
-    <mergeCell ref="J521:U521"/>
-    <mergeCell ref="C509:W511"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="E491:G491"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="J490:U490"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="E522:G522"/>
-    <mergeCell ref="E523:G523"/>
-    <mergeCell ref="E524:G524"/>
-    <mergeCell ref="E525:G525"/>
-    <mergeCell ref="C540:W542"/>
-    <mergeCell ref="R306:S306"/>
-    <mergeCell ref="R307:S307"/>
-    <mergeCell ref="R308:S308"/>
-    <mergeCell ref="R309:S309"/>
-    <mergeCell ref="R310:S310"/>
-    <mergeCell ref="R311:S311"/>
-    <mergeCell ref="R312:S312"/>
-    <mergeCell ref="R313:S313"/>
-    <mergeCell ref="L314:M314"/>
-    <mergeCell ref="N314:O314"/>
-    <mergeCell ref="R314:S314"/>
-    <mergeCell ref="L315:M315"/>
-    <mergeCell ref="N315:O315"/>
-    <mergeCell ref="R315:S315"/>
-    <mergeCell ref="L316:M316"/>
-    <mergeCell ref="N316:O316"/>
-    <mergeCell ref="R316:S316"/>
-    <mergeCell ref="N343:S343"/>
-    <mergeCell ref="D516:F517"/>
-    <mergeCell ref="K438:L438"/>
-    <mergeCell ref="K439:L439"/>
-    <mergeCell ref="K440:L440"/>
-    <mergeCell ref="K441:L441"/>
-    <mergeCell ref="M435:N435"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="M438:N438"/>
-    <mergeCell ref="N375:S375"/>
-    <mergeCell ref="N377:S377"/>
-    <mergeCell ref="C388:W390"/>
-    <mergeCell ref="D394:F395"/>
-    <mergeCell ref="K395:T396"/>
-    <mergeCell ref="F396:J396"/>
-    <mergeCell ref="U396:V396"/>
-    <mergeCell ref="N379:S379"/>
-    <mergeCell ref="N381:S381"/>
-    <mergeCell ref="Q385:R385"/>
-    <mergeCell ref="Q436:S436"/>
-    <mergeCell ref="Q437:S437"/>
-    <mergeCell ref="Q438:S438"/>
-    <mergeCell ref="Q435:S435"/>
-    <mergeCell ref="U427:V427"/>
-    <mergeCell ref="D425:F426"/>
-    <mergeCell ref="E463:G463"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="C479:W481"/>
-    <mergeCell ref="J432:N432"/>
-    <mergeCell ref="S432:U432"/>
-    <mergeCell ref="Q439:S439"/>
-    <mergeCell ref="Q440:S440"/>
-    <mergeCell ref="Q441:S441"/>
-    <mergeCell ref="Q442:S442"/>
-    <mergeCell ref="Q443:S443"/>
-    <mergeCell ref="Q444:S444"/>
-    <mergeCell ref="D455:F456"/>
-    <mergeCell ref="K456:T457"/>
-    <mergeCell ref="F457:J457"/>
-    <mergeCell ref="M444:N444"/>
-    <mergeCell ref="O435:P435"/>
-    <mergeCell ref="O436:P436"/>
-    <mergeCell ref="O437:P437"/>
-    <mergeCell ref="O438:P438"/>
-    <mergeCell ref="O434:P434"/>
-    <mergeCell ref="Q434:S434"/>
-    <mergeCell ref="K435:L435"/>
-    <mergeCell ref="K436:L436"/>
-    <mergeCell ref="K437:L437"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N379" r:id="rId1" xr:uid="{E053F441-E71D-4498-8F28-1B7D069BA239}"/>
@@ -12693,21 +12693,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="173" t="s">
         <v>224</v>
       </c>
       <c r="C6" s="100" t="s">
@@ -12763,7 +12763,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="173"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="115"/>
       <c r="D7" s="96" t="s">
         <v>8</v>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="173"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="115"/>
       <c r="D8" s="99" t="s">
         <v>247</v>
@@ -12785,7 +12785,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="173"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="115"/>
       <c r="D9" s="97" t="s">
         <v>7</v>
@@ -12796,7 +12796,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="173"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="106" t="s">
         <v>9</v>
       </c>
@@ -13138,7 +13138,7 @@
       <c r="D35" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="176" t="s">
+      <c r="E35" s="125" t="s">
         <v>276</v>
       </c>
       <c r="F35" s="7"/>
@@ -13164,7 +13164,7 @@
       <c r="D37" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="E37" s="176" t="s">
+      <c r="E37" s="125" t="s">
         <v>279</v>
       </c>
       <c r="F37" s="7"/>
@@ -13325,27 +13325,27 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="119"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="175" t="s">
         <v>294</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
       <c r="I1" s="119"/>
       <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="119"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
       <c r="I2" s="119"/>
       <c r="J2" s="119"/>
     </row>
